--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -40,511 +40,511 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>02.06.202515</t>
-  </si>
-  <si>
-    <t>02.06.202516</t>
-  </si>
-  <si>
-    <t>02.06.202517</t>
-  </si>
-  <si>
-    <t>02.06.202518</t>
-  </si>
-  <si>
-    <t>02.06.202519</t>
-  </si>
-  <si>
-    <t>02.06.202520</t>
-  </si>
-  <si>
-    <t>02.06.202521</t>
-  </si>
-  <si>
-    <t>02.06.202522</t>
-  </si>
-  <si>
-    <t>02.06.202523</t>
-  </si>
-  <si>
-    <t>02.06.202524</t>
-  </si>
-  <si>
-    <t>03.06.20251</t>
-  </si>
-  <si>
-    <t>03.06.20252</t>
-  </si>
-  <si>
-    <t>03.06.20253</t>
-  </si>
-  <si>
-    <t>03.06.20254</t>
-  </si>
-  <si>
-    <t>03.06.20255</t>
-  </si>
-  <si>
-    <t>03.06.20256</t>
-  </si>
-  <si>
-    <t>03.06.20257</t>
-  </si>
-  <si>
-    <t>03.06.20258</t>
-  </si>
-  <si>
-    <t>03.06.20259</t>
-  </si>
-  <si>
-    <t>03.06.202510</t>
-  </si>
-  <si>
-    <t>03.06.202511</t>
-  </si>
-  <si>
-    <t>03.06.202512</t>
-  </si>
-  <si>
-    <t>03.06.202513</t>
-  </si>
-  <si>
-    <t>03.06.202514</t>
-  </si>
-  <si>
-    <t>03.06.202515</t>
-  </si>
-  <si>
-    <t>03.06.202516</t>
-  </si>
-  <si>
-    <t>03.06.202517</t>
-  </si>
-  <si>
-    <t>03.06.202518</t>
-  </si>
-  <si>
-    <t>03.06.202519</t>
-  </si>
-  <si>
-    <t>03.06.202520</t>
-  </si>
-  <si>
-    <t>03.06.202521</t>
-  </si>
-  <si>
-    <t>03.06.202522</t>
-  </si>
-  <si>
-    <t>03.06.202523</t>
-  </si>
-  <si>
-    <t>03.06.202524</t>
-  </si>
-  <si>
-    <t>04.06.20251</t>
-  </si>
-  <si>
-    <t>04.06.20252</t>
-  </si>
-  <si>
-    <t>04.06.20253</t>
-  </si>
-  <si>
-    <t>04.06.20254</t>
-  </si>
-  <si>
-    <t>04.06.20255</t>
-  </si>
-  <si>
-    <t>04.06.20256</t>
-  </si>
-  <si>
-    <t>04.06.20257</t>
-  </si>
-  <si>
-    <t>04.06.20258</t>
-  </si>
-  <si>
-    <t>04.06.20259</t>
-  </si>
-  <si>
-    <t>04.06.202510</t>
-  </si>
-  <si>
-    <t>04.06.202511</t>
-  </si>
-  <si>
-    <t>04.06.202512</t>
-  </si>
-  <si>
-    <t>04.06.202513</t>
-  </si>
-  <si>
-    <t>04.06.202514</t>
-  </si>
-  <si>
-    <t>04.06.202515</t>
-  </si>
-  <si>
-    <t>04.06.202516</t>
-  </si>
-  <si>
-    <t>04.06.202517</t>
-  </si>
-  <si>
-    <t>04.06.202518</t>
-  </si>
-  <si>
-    <t>04.06.202519</t>
-  </si>
-  <si>
-    <t>04.06.202520</t>
-  </si>
-  <si>
-    <t>04.06.202521</t>
-  </si>
-  <si>
-    <t>04.06.202522</t>
-  </si>
-  <si>
-    <t>04.06.202523</t>
-  </si>
-  <si>
-    <t>04.06.202524</t>
-  </si>
-  <si>
-    <t>05.06.20251</t>
-  </si>
-  <si>
-    <t>05.06.20252</t>
-  </si>
-  <si>
-    <t>05.06.20253</t>
-  </si>
-  <si>
-    <t>05.06.20254</t>
-  </si>
-  <si>
-    <t>05.06.20255</t>
-  </si>
-  <si>
-    <t>05.06.20256</t>
-  </si>
-  <si>
-    <t>05.06.20257</t>
-  </si>
-  <si>
-    <t>05.06.20258</t>
-  </si>
-  <si>
-    <t>05.06.20259</t>
-  </si>
-  <si>
-    <t>05.06.202510</t>
-  </si>
-  <si>
-    <t>05.06.202511</t>
-  </si>
-  <si>
-    <t>05.06.202512</t>
-  </si>
-  <si>
-    <t>05.06.202513</t>
-  </si>
-  <si>
-    <t>05.06.202514</t>
-  </si>
-  <si>
-    <t>05.06.202515</t>
-  </si>
-  <si>
-    <t>05.06.202516</t>
-  </si>
-  <si>
-    <t>05.06.202517</t>
-  </si>
-  <si>
-    <t>05.06.202518</t>
-  </si>
-  <si>
-    <t>05.06.202519</t>
-  </si>
-  <si>
-    <t>05.06.202520</t>
-  </si>
-  <si>
-    <t>05.06.202521</t>
-  </si>
-  <si>
-    <t>05.06.202522</t>
-  </si>
-  <si>
-    <t>05.06.202523</t>
-  </si>
-  <si>
-    <t>05.06.202524</t>
-  </si>
-  <si>
-    <t>06.06.20251</t>
-  </si>
-  <si>
-    <t>06.06.20252</t>
-  </si>
-  <si>
-    <t>06.06.20253</t>
-  </si>
-  <si>
-    <t>06.06.20254</t>
-  </si>
-  <si>
-    <t>06.06.20255</t>
-  </si>
-  <si>
-    <t>06.06.20256</t>
-  </si>
-  <si>
-    <t>06.06.20257</t>
-  </si>
-  <si>
-    <t>06.06.20258</t>
-  </si>
-  <si>
-    <t>06.06.20259</t>
-  </si>
-  <si>
-    <t>06.06.202510</t>
-  </si>
-  <si>
-    <t>06.06.202511</t>
-  </si>
-  <si>
-    <t>06.06.202512</t>
-  </si>
-  <si>
-    <t>06.06.202513</t>
-  </si>
-  <si>
-    <t>06.06.202514</t>
-  </si>
-  <si>
-    <t>06.06.202515</t>
-  </si>
-  <si>
-    <t>06.06.202516</t>
-  </si>
-  <si>
-    <t>06.06.202517</t>
-  </si>
-  <si>
-    <t>06.06.202518</t>
-  </si>
-  <si>
-    <t>06.06.202519</t>
-  </si>
-  <si>
-    <t>06.06.202520</t>
-  </si>
-  <si>
-    <t>06.06.202521</t>
-  </si>
-  <si>
-    <t>06.06.202522</t>
-  </si>
-  <si>
-    <t>06.06.202523</t>
-  </si>
-  <si>
-    <t>06.06.202524</t>
-  </si>
-  <si>
-    <t>07.06.20251</t>
-  </si>
-  <si>
-    <t>07.06.20252</t>
-  </si>
-  <si>
-    <t>07.06.20253</t>
-  </si>
-  <si>
-    <t>07.06.20254</t>
-  </si>
-  <si>
-    <t>07.06.20255</t>
-  </si>
-  <si>
-    <t>07.06.20256</t>
-  </si>
-  <si>
-    <t>07.06.20257</t>
-  </si>
-  <si>
-    <t>07.06.20258</t>
-  </si>
-  <si>
-    <t>07.06.20259</t>
-  </si>
-  <si>
-    <t>07.06.202510</t>
-  </si>
-  <si>
-    <t>07.06.202511</t>
-  </si>
-  <si>
-    <t>07.06.202512</t>
-  </si>
-  <si>
-    <t>07.06.202513</t>
-  </si>
-  <si>
-    <t>07.06.202514</t>
-  </si>
-  <si>
-    <t>07.06.202515</t>
-  </si>
-  <si>
-    <t>07.06.202516</t>
-  </si>
-  <si>
-    <t>07.06.202517</t>
-  </si>
-  <si>
-    <t>07.06.202518</t>
-  </si>
-  <si>
-    <t>07.06.202519</t>
-  </si>
-  <si>
-    <t>07.06.202520</t>
-  </si>
-  <si>
-    <t>07.06.202521</t>
-  </si>
-  <si>
-    <t>07.06.202522</t>
-  </si>
-  <si>
-    <t>07.06.202523</t>
-  </si>
-  <si>
-    <t>07.06.202524</t>
-  </si>
-  <si>
-    <t>08.06.20251</t>
-  </si>
-  <si>
-    <t>08.06.20252</t>
-  </si>
-  <si>
-    <t>08.06.20253</t>
-  </si>
-  <si>
-    <t>08.06.20254</t>
-  </si>
-  <si>
-    <t>08.06.20255</t>
-  </si>
-  <si>
-    <t>08.06.20256</t>
-  </si>
-  <si>
-    <t>08.06.20257</t>
-  </si>
-  <si>
-    <t>08.06.20258</t>
-  </si>
-  <si>
-    <t>08.06.20259</t>
-  </si>
-  <si>
-    <t>08.06.202510</t>
-  </si>
-  <si>
-    <t>08.06.202511</t>
-  </si>
-  <si>
-    <t>08.06.202512</t>
-  </si>
-  <si>
-    <t>08.06.202513</t>
-  </si>
-  <si>
-    <t>08.06.202514</t>
-  </si>
-  <si>
-    <t>08.06.202515</t>
-  </si>
-  <si>
-    <t>08.06.202516</t>
-  </si>
-  <si>
-    <t>08.06.202517</t>
-  </si>
-  <si>
-    <t>08.06.202518</t>
-  </si>
-  <si>
-    <t>08.06.202519</t>
-  </si>
-  <si>
-    <t>08.06.202520</t>
-  </si>
-  <si>
-    <t>08.06.202521</t>
-  </si>
-  <si>
-    <t>08.06.202522</t>
-  </si>
-  <si>
-    <t>08.06.202523</t>
-  </si>
-  <si>
-    <t>08.06.202524</t>
-  </si>
-  <si>
-    <t>09.06.20251</t>
-  </si>
-  <si>
-    <t>09.06.20252</t>
-  </si>
-  <si>
-    <t>09.06.20253</t>
-  </si>
-  <si>
-    <t>09.06.20254</t>
-  </si>
-  <si>
-    <t>09.06.20255</t>
-  </si>
-  <si>
-    <t>09.06.20256</t>
-  </si>
-  <si>
-    <t>09.06.20257</t>
-  </si>
-  <si>
-    <t>09.06.20258</t>
-  </si>
-  <si>
-    <t>09.06.20259</t>
-  </si>
-  <si>
-    <t>09.06.202510</t>
-  </si>
-  <si>
-    <t>09.06.202511</t>
-  </si>
-  <si>
-    <t>09.06.202512</t>
-  </si>
-  <si>
-    <t>09.06.202513</t>
-  </si>
-  <si>
-    <t>09.06.202514</t>
-  </si>
-  <si>
-    <t>09.06.202515</t>
+    <t>20.06.202511</t>
+  </si>
+  <si>
+    <t>20.06.202512</t>
+  </si>
+  <si>
+    <t>20.06.202513</t>
+  </si>
+  <si>
+    <t>20.06.202514</t>
+  </si>
+  <si>
+    <t>20.06.202515</t>
+  </si>
+  <si>
+    <t>20.06.202516</t>
+  </si>
+  <si>
+    <t>20.06.202517</t>
+  </si>
+  <si>
+    <t>20.06.202518</t>
+  </si>
+  <si>
+    <t>20.06.202519</t>
+  </si>
+  <si>
+    <t>20.06.202520</t>
+  </si>
+  <si>
+    <t>20.06.202521</t>
+  </si>
+  <si>
+    <t>20.06.202522</t>
+  </si>
+  <si>
+    <t>20.06.202523</t>
+  </si>
+  <si>
+    <t>20.06.202524</t>
+  </si>
+  <si>
+    <t>21.06.20251</t>
+  </si>
+  <si>
+    <t>21.06.20252</t>
+  </si>
+  <si>
+    <t>21.06.20253</t>
+  </si>
+  <si>
+    <t>21.06.20254</t>
+  </si>
+  <si>
+    <t>21.06.20255</t>
+  </si>
+  <si>
+    <t>21.06.20256</t>
+  </si>
+  <si>
+    <t>21.06.20257</t>
+  </si>
+  <si>
+    <t>21.06.20258</t>
+  </si>
+  <si>
+    <t>21.06.20259</t>
+  </si>
+  <si>
+    <t>21.06.202510</t>
+  </si>
+  <si>
+    <t>21.06.202511</t>
+  </si>
+  <si>
+    <t>21.06.202512</t>
+  </si>
+  <si>
+    <t>21.06.202513</t>
+  </si>
+  <si>
+    <t>21.06.202514</t>
+  </si>
+  <si>
+    <t>21.06.202515</t>
+  </si>
+  <si>
+    <t>21.06.202516</t>
+  </si>
+  <si>
+    <t>21.06.202517</t>
+  </si>
+  <si>
+    <t>21.06.202518</t>
+  </si>
+  <si>
+    <t>21.06.202519</t>
+  </si>
+  <si>
+    <t>21.06.202520</t>
+  </si>
+  <si>
+    <t>21.06.202521</t>
+  </si>
+  <si>
+    <t>21.06.202522</t>
+  </si>
+  <si>
+    <t>21.06.202523</t>
+  </si>
+  <si>
+    <t>21.06.202524</t>
+  </si>
+  <si>
+    <t>22.06.20251</t>
+  </si>
+  <si>
+    <t>22.06.20252</t>
+  </si>
+  <si>
+    <t>22.06.20253</t>
+  </si>
+  <si>
+    <t>22.06.20254</t>
+  </si>
+  <si>
+    <t>22.06.20255</t>
+  </si>
+  <si>
+    <t>22.06.20256</t>
+  </si>
+  <si>
+    <t>22.06.20257</t>
+  </si>
+  <si>
+    <t>22.06.20258</t>
+  </si>
+  <si>
+    <t>22.06.20259</t>
+  </si>
+  <si>
+    <t>22.06.202510</t>
+  </si>
+  <si>
+    <t>22.06.202511</t>
+  </si>
+  <si>
+    <t>22.06.202512</t>
+  </si>
+  <si>
+    <t>22.06.202513</t>
+  </si>
+  <si>
+    <t>22.06.202514</t>
+  </si>
+  <si>
+    <t>22.06.202515</t>
+  </si>
+  <si>
+    <t>22.06.202516</t>
+  </si>
+  <si>
+    <t>22.06.202517</t>
+  </si>
+  <si>
+    <t>22.06.202518</t>
+  </si>
+  <si>
+    <t>22.06.202519</t>
+  </si>
+  <si>
+    <t>22.06.202520</t>
+  </si>
+  <si>
+    <t>22.06.202521</t>
+  </si>
+  <si>
+    <t>22.06.202522</t>
+  </si>
+  <si>
+    <t>22.06.202523</t>
+  </si>
+  <si>
+    <t>22.06.202524</t>
+  </si>
+  <si>
+    <t>23.06.20251</t>
+  </si>
+  <si>
+    <t>23.06.20252</t>
+  </si>
+  <si>
+    <t>23.06.20253</t>
+  </si>
+  <si>
+    <t>23.06.20254</t>
+  </si>
+  <si>
+    <t>23.06.20255</t>
+  </si>
+  <si>
+    <t>23.06.20256</t>
+  </si>
+  <si>
+    <t>23.06.20257</t>
+  </si>
+  <si>
+    <t>23.06.20258</t>
+  </si>
+  <si>
+    <t>23.06.20259</t>
+  </si>
+  <si>
+    <t>23.06.202510</t>
+  </si>
+  <si>
+    <t>23.06.202511</t>
+  </si>
+  <si>
+    <t>23.06.202512</t>
+  </si>
+  <si>
+    <t>23.06.202513</t>
+  </si>
+  <si>
+    <t>23.06.202514</t>
+  </si>
+  <si>
+    <t>23.06.202515</t>
+  </si>
+  <si>
+    <t>23.06.202516</t>
+  </si>
+  <si>
+    <t>23.06.202517</t>
+  </si>
+  <si>
+    <t>23.06.202518</t>
+  </si>
+  <si>
+    <t>23.06.202519</t>
+  </si>
+  <si>
+    <t>23.06.202520</t>
+  </si>
+  <si>
+    <t>23.06.202521</t>
+  </si>
+  <si>
+    <t>23.06.202522</t>
+  </si>
+  <si>
+    <t>23.06.202523</t>
+  </si>
+  <si>
+    <t>23.06.202524</t>
+  </si>
+  <si>
+    <t>24.06.20251</t>
+  </si>
+  <si>
+    <t>24.06.20252</t>
+  </si>
+  <si>
+    <t>24.06.20253</t>
+  </si>
+  <si>
+    <t>24.06.20254</t>
+  </si>
+  <si>
+    <t>24.06.20255</t>
+  </si>
+  <si>
+    <t>24.06.20256</t>
+  </si>
+  <si>
+    <t>24.06.20257</t>
+  </si>
+  <si>
+    <t>24.06.20258</t>
+  </si>
+  <si>
+    <t>24.06.20259</t>
+  </si>
+  <si>
+    <t>24.06.202510</t>
+  </si>
+  <si>
+    <t>24.06.202511</t>
+  </si>
+  <si>
+    <t>24.06.202512</t>
+  </si>
+  <si>
+    <t>24.06.202513</t>
+  </si>
+  <si>
+    <t>24.06.202514</t>
+  </si>
+  <si>
+    <t>24.06.202515</t>
+  </si>
+  <si>
+    <t>24.06.202516</t>
+  </si>
+  <si>
+    <t>24.06.202517</t>
+  </si>
+  <si>
+    <t>24.06.202518</t>
+  </si>
+  <si>
+    <t>24.06.202519</t>
+  </si>
+  <si>
+    <t>24.06.202520</t>
+  </si>
+  <si>
+    <t>24.06.202521</t>
+  </si>
+  <si>
+    <t>24.06.202522</t>
+  </si>
+  <si>
+    <t>24.06.202523</t>
+  </si>
+  <si>
+    <t>24.06.202524</t>
+  </si>
+  <si>
+    <t>25.06.20251</t>
+  </si>
+  <si>
+    <t>25.06.20252</t>
+  </si>
+  <si>
+    <t>25.06.20253</t>
+  </si>
+  <si>
+    <t>25.06.20254</t>
+  </si>
+  <si>
+    <t>25.06.20255</t>
+  </si>
+  <si>
+    <t>25.06.20256</t>
+  </si>
+  <si>
+    <t>25.06.20257</t>
+  </si>
+  <si>
+    <t>25.06.20258</t>
+  </si>
+  <si>
+    <t>25.06.20259</t>
+  </si>
+  <si>
+    <t>25.06.202510</t>
+  </si>
+  <si>
+    <t>25.06.202511</t>
+  </si>
+  <si>
+    <t>25.06.202512</t>
+  </si>
+  <si>
+    <t>25.06.202513</t>
+  </si>
+  <si>
+    <t>25.06.202514</t>
+  </si>
+  <si>
+    <t>25.06.202515</t>
+  </si>
+  <si>
+    <t>25.06.202516</t>
+  </si>
+  <si>
+    <t>25.06.202517</t>
+  </si>
+  <si>
+    <t>25.06.202518</t>
+  </si>
+  <si>
+    <t>25.06.202519</t>
+  </si>
+  <si>
+    <t>25.06.202520</t>
+  </si>
+  <si>
+    <t>25.06.202521</t>
+  </si>
+  <si>
+    <t>25.06.202522</t>
+  </si>
+  <si>
+    <t>25.06.202523</t>
+  </si>
+  <si>
+    <t>25.06.202524</t>
+  </si>
+  <si>
+    <t>26.06.20251</t>
+  </si>
+  <si>
+    <t>26.06.20252</t>
+  </si>
+  <si>
+    <t>26.06.20253</t>
+  </si>
+  <si>
+    <t>26.06.20254</t>
+  </si>
+  <si>
+    <t>26.06.20255</t>
+  </si>
+  <si>
+    <t>26.06.20256</t>
+  </si>
+  <si>
+    <t>26.06.20257</t>
+  </si>
+  <si>
+    <t>26.06.20258</t>
+  </si>
+  <si>
+    <t>26.06.20259</t>
+  </si>
+  <si>
+    <t>26.06.202510</t>
+  </si>
+  <si>
+    <t>26.06.202511</t>
+  </si>
+  <si>
+    <t>26.06.202512</t>
+  </si>
+  <si>
+    <t>26.06.202513</t>
+  </si>
+  <si>
+    <t>26.06.202514</t>
+  </si>
+  <si>
+    <t>26.06.202515</t>
+  </si>
+  <si>
+    <t>26.06.202516</t>
+  </si>
+  <si>
+    <t>26.06.202517</t>
+  </si>
+  <si>
+    <t>26.06.202518</t>
+  </si>
+  <si>
+    <t>26.06.202519</t>
+  </si>
+  <si>
+    <t>26.06.202520</t>
+  </si>
+  <si>
+    <t>26.06.202521</t>
+  </si>
+  <si>
+    <t>26.06.202522</t>
+  </si>
+  <si>
+    <t>26.06.202523</t>
+  </si>
+  <si>
+    <t>26.06.202524</t>
+  </si>
+  <si>
+    <t>27.06.20251</t>
+  </si>
+  <si>
+    <t>27.06.20252</t>
+  </si>
+  <si>
+    <t>27.06.20253</t>
+  </si>
+  <si>
+    <t>27.06.20254</t>
+  </si>
+  <si>
+    <t>27.06.20255</t>
+  </si>
+  <si>
+    <t>27.06.20256</t>
+  </si>
+  <si>
+    <t>27.06.20257</t>
+  </si>
+  <si>
+    <t>27.06.20258</t>
+  </si>
+  <si>
+    <t>27.06.20259</t>
+  </si>
+  <si>
+    <t>27.06.202510</t>
+  </si>
+  <si>
+    <t>27.06.202511</t>
   </si>
 </sst>
 </file>
@@ -940,10 +940,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45810</v>
+        <v>45828</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.091</v>
+        <v>0.08</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45810</v>
+        <v>45828</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>0.089</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -992,25 +992,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45810</v>
+        <v>45828</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>1.903</v>
+        <v>3.213</v>
       </c>
       <c r="D4">
-        <v>2.172</v>
+        <v>3.599</v>
       </c>
       <c r="E4">
-        <v>3.591</v>
+        <v>3.941</v>
       </c>
       <c r="F4">
-        <v>2.559</v>
+        <v>3.464</v>
       </c>
       <c r="G4">
-        <v>2.106</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -1018,25 +1018,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45810</v>
+        <v>45828</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>1.268</v>
+        <v>3.143</v>
       </c>
       <c r="D5">
-        <v>1.528</v>
+        <v>3.486</v>
       </c>
       <c r="E5">
-        <v>2.451</v>
+        <v>3.46</v>
       </c>
       <c r="F5">
-        <v>1.587</v>
+        <v>3.487</v>
       </c>
       <c r="G5">
-        <v>1.403</v>
+        <v>2.902</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -1044,25 +1044,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45810</v>
+        <v>45828</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.774</v>
+        <v>3.188</v>
       </c>
       <c r="D6">
-        <v>0.788</v>
+        <v>3.5</v>
       </c>
       <c r="E6">
-        <v>1.402</v>
+        <v>3.428</v>
       </c>
       <c r="F6">
-        <v>0.749</v>
+        <v>3.408</v>
       </c>
       <c r="G6">
-        <v>0.884</v>
+        <v>2.669</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1070,25 +1070,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45810</v>
+        <v>45828</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.257</v>
+        <v>3.015</v>
       </c>
       <c r="D7">
-        <v>0.305</v>
+        <v>3.429</v>
       </c>
       <c r="E7">
-        <v>0.59</v>
+        <v>3.546</v>
       </c>
       <c r="F7">
-        <v>0.227</v>
+        <v>2.876</v>
       </c>
       <c r="G7">
-        <v>0.282</v>
+        <v>2.337</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -1096,25 +1096,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45810</v>
+        <v>45828</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.051</v>
+        <v>2.688</v>
       </c>
       <c r="D8">
-        <v>0.08400000000000001</v>
+        <v>3.033</v>
       </c>
       <c r="E8">
-        <v>0.113</v>
+        <v>3.163</v>
       </c>
       <c r="F8">
-        <v>0.037</v>
+        <v>2.37</v>
       </c>
       <c r="G8">
-        <v>0.056</v>
+        <v>1.997</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1122,25 +1122,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45810</v>
+        <v>45828</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.876</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2.151</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.638</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.574</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.415</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -1148,25 +1148,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>45810</v>
+        <v>45828</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.964</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.332</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.643</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.725</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -1174,25 +1174,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>45810</v>
+        <v>45828</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.409</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.268</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.259</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -1200,25 +1200,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>45811</v>
+        <v>45828</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.076</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.234</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>45811</v>
+        <v>45828</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1252,10 +1252,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>45811</v>
+        <v>45828</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>45811</v>
+        <v>45828</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1304,10 +1304,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1356,25 +1356,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.223</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
         <v>24</v>
@@ -1382,25 +1382,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0.442</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.865</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.064</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.637</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
@@ -1408,25 +1408,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1.144</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1.817</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2.223</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1.352</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>26</v>
@@ -1434,25 +1434,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>1.878</v>
+        <v>0.011</v>
       </c>
       <c r="D21">
-        <v>1.989</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2.788</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>3.247</v>
+        <v>0.043</v>
       </c>
       <c r="G21">
-        <v>2.301</v>
+        <v>0.011</v>
       </c>
       <c r="H21" t="s">
         <v>27</v>
@@ -1460,25 +1460,25 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>2.438</v>
+        <v>0.156</v>
       </c>
       <c r="D22">
-        <v>2.676</v>
+        <v>0.253</v>
       </c>
       <c r="E22">
-        <v>3.443</v>
+        <v>0.251</v>
       </c>
       <c r="F22">
-        <v>3.847</v>
+        <v>0.332</v>
       </c>
       <c r="G22">
-        <v>2.83</v>
+        <v>0.233</v>
       </c>
       <c r="H22" t="s">
         <v>28</v>
@@ -1486,25 +1486,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>2.692</v>
+        <v>0.627</v>
       </c>
       <c r="D23">
-        <v>2.864</v>
+        <v>0.872</v>
       </c>
       <c r="E23">
-        <v>3.855</v>
+        <v>0.989</v>
       </c>
       <c r="F23">
-        <v>4.154</v>
+        <v>1.035</v>
       </c>
       <c r="G23">
-        <v>3.353</v>
+        <v>0.707</v>
       </c>
       <c r="H23" t="s">
         <v>29</v>
@@ -1512,25 +1512,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>2.769</v>
+        <v>1.422</v>
       </c>
       <c r="D24">
-        <v>2.853</v>
+        <v>1.589</v>
       </c>
       <c r="E24">
-        <v>3.85</v>
+        <v>1.842</v>
       </c>
       <c r="F24">
-        <v>4.212</v>
+        <v>2.294</v>
       </c>
       <c r="G24">
-        <v>3.473</v>
+        <v>1.548</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -1538,25 +1538,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>2.578</v>
+        <v>2.121</v>
       </c>
       <c r="D25">
-        <v>2.67</v>
+        <v>2.463</v>
       </c>
       <c r="E25">
-        <v>4.043</v>
+        <v>3.082</v>
       </c>
       <c r="F25">
-        <v>4.197</v>
+        <v>3.179</v>
       </c>
       <c r="G25">
-        <v>3.531</v>
+        <v>2.14</v>
       </c>
       <c r="H25" t="s">
         <v>31</v>
@@ -1564,25 +1564,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>2.5</v>
+        <v>2.762</v>
       </c>
       <c r="D26">
-        <v>2.478</v>
+        <v>3.178</v>
       </c>
       <c r="E26">
-        <v>3.902</v>
+        <v>3.894</v>
       </c>
       <c r="F26">
-        <v>4.012</v>
+        <v>3.559</v>
       </c>
       <c r="G26">
-        <v>3.487</v>
+        <v>2.778</v>
       </c>
       <c r="H26" t="s">
         <v>32</v>
@@ -1590,25 +1590,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>2.228</v>
+        <v>3.069</v>
       </c>
       <c r="D27">
-        <v>2.399</v>
+        <v>3.489</v>
       </c>
       <c r="E27">
-        <v>3.637</v>
+        <v>3.906</v>
       </c>
       <c r="F27">
-        <v>3.408</v>
+        <v>3.802</v>
       </c>
       <c r="G27">
-        <v>2.943</v>
+        <v>3.229</v>
       </c>
       <c r="H27" t="s">
         <v>33</v>
@@ -1616,25 +1616,25 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>1.815</v>
+        <v>3.36</v>
       </c>
       <c r="D28">
-        <v>2.007</v>
+        <v>3.636</v>
       </c>
       <c r="E28">
-        <v>2.764</v>
+        <v>3.751</v>
       </c>
       <c r="F28">
-        <v>2.612</v>
+        <v>3.397</v>
       </c>
       <c r="G28">
-        <v>2.2</v>
+        <v>3.061</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -1642,25 +1642,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>1.278</v>
+        <v>3.37</v>
       </c>
       <c r="D29">
-        <v>1.565</v>
+        <v>3.617</v>
       </c>
       <c r="E29">
-        <v>2.257</v>
+        <v>3.75</v>
       </c>
       <c r="F29">
-        <v>1.7</v>
+        <v>3.401</v>
       </c>
       <c r="G29">
-        <v>1.707</v>
+        <v>2.966</v>
       </c>
       <c r="H29" t="s">
         <v>35</v>
@@ -1668,25 +1668,25 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>0.836</v>
+        <v>3.074</v>
       </c>
       <c r="D30">
-        <v>0.885</v>
+        <v>3.498</v>
       </c>
       <c r="E30">
-        <v>1.468</v>
+        <v>3.678</v>
       </c>
       <c r="F30">
-        <v>0.735</v>
+        <v>3.232</v>
       </c>
       <c r="G30">
-        <v>0.9419999999999999</v>
+        <v>2.582</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -1694,25 +1694,25 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>0.251</v>
+        <v>2.731</v>
       </c>
       <c r="D31">
-        <v>0.298</v>
+        <v>3.237</v>
       </c>
       <c r="E31">
-        <v>0.591</v>
+        <v>3.666</v>
       </c>
       <c r="F31">
-        <v>0.234</v>
+        <v>2.8</v>
       </c>
       <c r="G31">
-        <v>0.283</v>
+        <v>2.125</v>
       </c>
       <c r="H31" t="s">
         <v>37</v>
@@ -1720,25 +1720,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C32">
-        <v>0.054</v>
+        <v>2.283</v>
       </c>
       <c r="D32">
-        <v>0.076</v>
+        <v>2.795</v>
       </c>
       <c r="E32">
-        <v>0.12</v>
+        <v>3.146</v>
       </c>
       <c r="F32">
-        <v>0.042</v>
+        <v>2.201</v>
       </c>
       <c r="G32">
-        <v>0.058</v>
+        <v>1.923</v>
       </c>
       <c r="H32" t="s">
         <v>38</v>
@@ -1746,25 +1746,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1.546</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1.887</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2.475</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1.646</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1.484</v>
       </c>
       <c r="H33" t="s">
         <v>39</v>
@@ -1772,25 +1772,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.849</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1.043</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.742</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="H34" t="s">
         <v>40</v>
@@ -1798,25 +1798,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>45811</v>
+        <v>45829</v>
       </c>
       <c r="B35">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.327</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.299</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.299</v>
       </c>
       <c r="H35" t="s">
         <v>41</v>
@@ -1824,25 +1824,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>45812</v>
+        <v>45829</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.074</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.229</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H36" t="s">
         <v>42</v>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>45812</v>
+        <v>45829</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>45812</v>
+        <v>45829</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>45812</v>
+        <v>45829</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1954,10 +1954,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1980,25 +1980,25 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>0.089</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0.237</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.332</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="H42" t="s">
         <v>48</v>
@@ -2006,25 +2006,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>0.439</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.413</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.156</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.658</v>
+        <v>0</v>
       </c>
       <c r="H43" t="s">
         <v>49</v>
@@ -2032,25 +2032,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>1.034</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1.101</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1.855</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>2.187</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1.325</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
         <v>50</v>
@@ -2058,25 +2058,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>1.609</v>
+        <v>0.011</v>
       </c>
       <c r="D45">
-        <v>1.838</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>3.016</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>3.179</v>
+        <v>0.042</v>
       </c>
       <c r="G45">
-        <v>2.265</v>
+        <v>0.018</v>
       </c>
       <c r="H45" t="s">
         <v>51</v>
@@ -2084,25 +2084,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>2.031</v>
+        <v>0.159</v>
       </c>
       <c r="D46">
-        <v>2.443</v>
+        <v>0.215</v>
       </c>
       <c r="E46">
-        <v>3.93</v>
+        <v>0.245</v>
       </c>
       <c r="F46">
-        <v>2.891</v>
+        <v>0.574</v>
       </c>
       <c r="G46">
-        <v>2.658</v>
+        <v>0.305</v>
       </c>
       <c r="H46" t="s">
         <v>52</v>
@@ -2110,25 +2110,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>2.615</v>
+        <v>0.581</v>
       </c>
       <c r="D47">
-        <v>2.706</v>
+        <v>0.68</v>
       </c>
       <c r="E47">
-        <v>3.983</v>
+        <v>0.875</v>
       </c>
       <c r="F47">
-        <v>1.788</v>
+        <v>1.327</v>
       </c>
       <c r="G47">
-        <v>3.292</v>
+        <v>0.654</v>
       </c>
       <c r="H47" t="s">
         <v>53</v>
@@ -2136,25 +2136,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>2.946</v>
+        <v>1.45</v>
       </c>
       <c r="D48">
-        <v>2.948</v>
+        <v>1.481</v>
       </c>
       <c r="E48">
-        <v>4.057</v>
+        <v>1.797</v>
       </c>
       <c r="F48">
-        <v>3.565</v>
+        <v>2.6</v>
       </c>
       <c r="G48">
-        <v>3.36</v>
+        <v>1.76</v>
       </c>
       <c r="H48" t="s">
         <v>54</v>
@@ -2162,25 +2162,25 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>2.988</v>
+        <v>2.071</v>
       </c>
       <c r="D49">
-        <v>2.937</v>
+        <v>2.393</v>
       </c>
       <c r="E49">
-        <v>3.966</v>
+        <v>3.18</v>
       </c>
       <c r="F49">
-        <v>3.942</v>
+        <v>3.356</v>
       </c>
       <c r="G49">
-        <v>3.4</v>
+        <v>2.191</v>
       </c>
       <c r="H49" t="s">
         <v>55</v>
@@ -2188,25 +2188,25 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>2.828</v>
+        <v>2.76</v>
       </c>
       <c r="D50">
-        <v>2.883</v>
+        <v>3.009</v>
       </c>
       <c r="E50">
-        <v>3.63</v>
+        <v>4.1</v>
       </c>
       <c r="F50">
-        <v>3.749</v>
+        <v>4.02</v>
       </c>
       <c r="G50">
-        <v>3.384</v>
+        <v>2.865</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
@@ -2214,25 +2214,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C51">
-        <v>2.603</v>
+        <v>3.048</v>
       </c>
       <c r="D51">
-        <v>2.697</v>
+        <v>3.473</v>
       </c>
       <c r="E51">
-        <v>3.663</v>
+        <v>4.245</v>
       </c>
       <c r="F51">
-        <v>3.045</v>
+        <v>4.233</v>
       </c>
       <c r="G51">
-        <v>2.662</v>
+        <v>3.455</v>
       </c>
       <c r="H51" t="s">
         <v>57</v>
@@ -2240,25 +2240,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C52">
-        <v>2.131</v>
+        <v>3.362</v>
       </c>
       <c r="D52">
-        <v>2.363</v>
+        <v>3.592</v>
       </c>
       <c r="E52">
-        <v>3.074</v>
+        <v>4.339</v>
       </c>
       <c r="F52">
-        <v>2.455</v>
+        <v>3.915</v>
       </c>
       <c r="G52">
-        <v>2.135</v>
+        <v>3.329</v>
       </c>
       <c r="H52" t="s">
         <v>58</v>
@@ -2266,25 +2266,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>1.487</v>
+        <v>3.361</v>
       </c>
       <c r="D53">
-        <v>1.752</v>
+        <v>3.587</v>
       </c>
       <c r="E53">
-        <v>2.272</v>
+        <v>4.219</v>
       </c>
       <c r="F53">
-        <v>1.571</v>
+        <v>3.796</v>
       </c>
       <c r="G53">
-        <v>1.537</v>
+        <v>3.351</v>
       </c>
       <c r="H53" t="s">
         <v>59</v>
@@ -2292,25 +2292,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>0.863</v>
+        <v>3.145</v>
       </c>
       <c r="D54">
-        <v>0.9340000000000001</v>
+        <v>3.463</v>
       </c>
       <c r="E54">
-        <v>1.444</v>
+        <v>4.239</v>
       </c>
       <c r="F54">
-        <v>0.726</v>
+        <v>3.537</v>
       </c>
       <c r="G54">
-        <v>0.821</v>
+        <v>3.251</v>
       </c>
       <c r="H54" t="s">
         <v>60</v>
@@ -2318,25 +2318,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>0.301</v>
+        <v>2.913</v>
       </c>
       <c r="D55">
-        <v>0.304</v>
+        <v>3.235</v>
       </c>
       <c r="E55">
-        <v>0.618</v>
+        <v>3.937</v>
       </c>
       <c r="F55">
-        <v>0.218</v>
+        <v>3.066</v>
       </c>
       <c r="G55">
-        <v>0.285</v>
+        <v>2.804</v>
       </c>
       <c r="H55" t="s">
         <v>61</v>
@@ -2344,25 +2344,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C56">
-        <v>0.056</v>
+        <v>2.42</v>
       </c>
       <c r="D56">
-        <v>0.096</v>
+        <v>2.804</v>
       </c>
       <c r="E56">
-        <v>0.124</v>
+        <v>3.648</v>
       </c>
       <c r="F56">
-        <v>0.04</v>
+        <v>2.44</v>
       </c>
       <c r="G56">
-        <v>0.056</v>
+        <v>1.983</v>
       </c>
       <c r="H56" t="s">
         <v>62</v>
@@ -2370,25 +2370,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1.735</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1.984</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2.777</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1.662</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1.609</v>
       </c>
       <c r="H57" t="s">
         <v>63</v>
@@ -2396,25 +2396,25 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.905</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1.024</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1.575</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.919</v>
       </c>
       <c r="H58" t="s">
         <v>64</v>
@@ -2422,25 +2422,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2">
-        <v>45812</v>
+        <v>45830</v>
       </c>
       <c r="B59">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.272</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.338</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.839</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.301</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="H59" t="s">
         <v>65</v>
@@ -2448,25 +2448,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2">
-        <v>45813</v>
+        <v>45830</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.117</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.239</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H60" t="s">
         <v>66</v>
@@ -2474,10 +2474,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2">
-        <v>45813</v>
+        <v>45830</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2500,10 +2500,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2">
-        <v>45813</v>
+        <v>45830</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2">
-        <v>45813</v>
+        <v>45830</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2552,10 +2552,10 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2578,10 +2578,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2593,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H65" t="s">
         <v>71</v>
@@ -2604,25 +2604,25 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.343</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.224</v>
+        <v>0</v>
       </c>
       <c r="H66" t="s">
         <v>72</v>
@@ -2630,25 +2630,25 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>0.452</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0.419</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0.857</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.092</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.6850000000000001</v>
+        <v>0</v>
       </c>
       <c r="H67" t="s">
         <v>73</v>
@@ -2656,25 +2656,25 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C68">
-        <v>1.167</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>1.124</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>1.804</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1.362</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
         <v>74</v>
@@ -2682,25 +2682,25 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>1.924</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>2.815</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>3.225</v>
+        <v>0.042</v>
       </c>
       <c r="G69">
-        <v>2.282</v>
+        <v>0.018</v>
       </c>
       <c r="H69" t="s">
         <v>75</v>
@@ -2708,25 +2708,25 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>2.498</v>
+        <v>0.134</v>
       </c>
       <c r="D70">
-        <v>2.622</v>
+        <v>0.15</v>
       </c>
       <c r="E70">
-        <v>3.513</v>
+        <v>0.261</v>
       </c>
       <c r="F70">
-        <v>2.675</v>
+        <v>0.427</v>
       </c>
       <c r="G70">
-        <v>2.72</v>
+        <v>0.303</v>
       </c>
       <c r="H70" t="s">
         <v>76</v>
@@ -2734,25 +2734,25 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C71">
-        <v>2.83</v>
+        <v>0.48</v>
       </c>
       <c r="D71">
-        <v>3.049</v>
+        <v>0.481</v>
       </c>
       <c r="E71">
-        <v>3.905</v>
+        <v>1.062</v>
       </c>
       <c r="F71">
-        <v>3.901</v>
+        <v>1.186</v>
       </c>
       <c r="G71">
-        <v>3.311</v>
+        <v>0.638</v>
       </c>
       <c r="H71" t="s">
         <v>77</v>
@@ -2760,25 +2760,25 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>3.121</v>
+        <v>1.255</v>
       </c>
       <c r="D72">
-        <v>3.322</v>
+        <v>1.349</v>
       </c>
       <c r="E72">
-        <v>3.954</v>
+        <v>2.184</v>
       </c>
       <c r="F72">
-        <v>4.1</v>
+        <v>2.308</v>
       </c>
       <c r="G72">
-        <v>3.442</v>
+        <v>1.508</v>
       </c>
       <c r="H72" t="s">
         <v>78</v>
@@ -2786,25 +2786,25 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>3.028</v>
+        <v>2.006</v>
       </c>
       <c r="D73">
-        <v>3.178</v>
+        <v>2.21</v>
       </c>
       <c r="E73">
-        <v>3.992</v>
+        <v>3.286</v>
       </c>
       <c r="F73">
-        <v>4.064</v>
+        <v>3.268</v>
       </c>
       <c r="G73">
-        <v>3.47</v>
+        <v>2.36</v>
       </c>
       <c r="H73" t="s">
         <v>79</v>
@@ -2812,25 +2812,25 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>2.815</v>
+        <v>2.656</v>
       </c>
       <c r="D74">
-        <v>2.938</v>
+        <v>2.855</v>
       </c>
       <c r="E74">
-        <v>3.878</v>
+        <v>4.101</v>
       </c>
       <c r="F74">
-        <v>3.468</v>
+        <v>3.681</v>
       </c>
       <c r="G74">
-        <v>3.353</v>
+        <v>2.796</v>
       </c>
       <c r="H74" t="s">
         <v>80</v>
@@ -2838,25 +2838,25 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C75">
-        <v>2.492</v>
+        <v>2.957</v>
       </c>
       <c r="D75">
-        <v>2.736</v>
+        <v>3.306</v>
       </c>
       <c r="E75">
-        <v>3.845</v>
+        <v>4.029</v>
       </c>
       <c r="F75">
-        <v>3.145</v>
+        <v>3.908</v>
       </c>
       <c r="G75">
-        <v>2.78</v>
+        <v>3.324</v>
       </c>
       <c r="H75" t="s">
         <v>81</v>
@@ -2864,25 +2864,25 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C76">
-        <v>2.117</v>
+        <v>3.177</v>
       </c>
       <c r="D76">
-        <v>2.296</v>
+        <v>3.505</v>
       </c>
       <c r="E76">
-        <v>3.24</v>
+        <v>3.789</v>
       </c>
       <c r="F76">
-        <v>2.426</v>
+        <v>3.903</v>
       </c>
       <c r="G76">
-        <v>2.21</v>
+        <v>3.387</v>
       </c>
       <c r="H76" t="s">
         <v>82</v>
@@ -2890,25 +2890,25 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C77">
-        <v>1.462</v>
+        <v>3.183</v>
       </c>
       <c r="D77">
-        <v>1.62</v>
+        <v>3.487</v>
       </c>
       <c r="E77">
-        <v>2.326</v>
+        <v>3.542</v>
       </c>
       <c r="F77">
-        <v>1.643</v>
+        <v>3.875</v>
       </c>
       <c r="G77">
-        <v>1.557</v>
+        <v>3.388</v>
       </c>
       <c r="H77" t="s">
         <v>83</v>
@@ -2916,25 +2916,25 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C78">
-        <v>0.844</v>
+        <v>3.068</v>
       </c>
       <c r="D78">
-        <v>0.911</v>
+        <v>3.417</v>
       </c>
       <c r="E78">
-        <v>1.516</v>
+        <v>3.536</v>
       </c>
       <c r="F78">
-        <v>0.76</v>
+        <v>3.7</v>
       </c>
       <c r="G78">
-        <v>0.955</v>
+        <v>3.359</v>
       </c>
       <c r="H78" t="s">
         <v>84</v>
@@ -2942,25 +2942,25 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>0.275</v>
+        <v>2.848</v>
       </c>
       <c r="D79">
-        <v>0.323</v>
+        <v>3.176</v>
       </c>
       <c r="E79">
-        <v>0.586</v>
+        <v>3.48</v>
       </c>
       <c r="F79">
-        <v>0.236</v>
+        <v>3.215</v>
       </c>
       <c r="G79">
-        <v>0.296</v>
+        <v>3.055</v>
       </c>
       <c r="H79" t="s">
         <v>85</v>
@@ -2968,25 +2968,25 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C80">
-        <v>0.062</v>
+        <v>2.354</v>
       </c>
       <c r="D80">
-        <v>0.08500000000000001</v>
+        <v>2.706</v>
       </c>
       <c r="E80">
-        <v>0.134</v>
+        <v>3.285</v>
       </c>
       <c r="F80">
-        <v>0.042</v>
+        <v>2.525</v>
       </c>
       <c r="G80">
-        <v>0.06</v>
+        <v>2.433</v>
       </c>
       <c r="H80" t="s">
         <v>86</v>
@@ -2994,25 +2994,25 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1.945</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>2.641</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1.651</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1.752</v>
       </c>
       <c r="H81" t="s">
         <v>87</v>
@@ -3020,25 +3020,25 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.822</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.995</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1.468</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.762</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.913</v>
       </c>
       <c r="H82" t="s">
         <v>88</v>
@@ -3046,25 +3046,25 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="B83">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.327</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.702</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>0.296</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="H83" t="s">
         <v>89</v>
@@ -3072,25 +3072,25 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2">
-        <v>45814</v>
+        <v>45831</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.117</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="H84" t="s">
         <v>90</v>
@@ -3098,10 +3098,10 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2">
-        <v>45814</v>
+        <v>45831</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3124,10 +3124,10 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2">
-        <v>45814</v>
+        <v>45831</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2">
-        <v>45814</v>
+        <v>45831</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3217,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
         <v>95</v>
@@ -3228,25 +3228,25 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0.198</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.293</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
         <v>96</v>
@@ -3254,25 +3254,25 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>0.428</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0.402</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>0.8110000000000001</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.208</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0.6840000000000001</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
         <v>97</v>
@@ -3280,25 +3280,25 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C92">
-        <v>1.046</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>1.103</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>1.765</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>2.082</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>1.349</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
         <v>98</v>
@@ -3306,25 +3306,25 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C93">
-        <v>1.824</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>1.958</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>2.704</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>3.181</v>
+        <v>0.038</v>
       </c>
       <c r="G93">
-        <v>2.373</v>
+        <v>0.011</v>
       </c>
       <c r="H93" t="s">
         <v>99</v>
@@ -3332,25 +3332,25 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C94">
-        <v>2.489</v>
+        <v>0.096</v>
       </c>
       <c r="D94">
-        <v>2.621</v>
+        <v>0.128</v>
       </c>
       <c r="E94">
-        <v>3.431</v>
+        <v>0.236</v>
       </c>
       <c r="F94">
-        <v>3.77</v>
+        <v>0.341</v>
       </c>
       <c r="G94">
-        <v>2.762</v>
+        <v>0.236</v>
       </c>
       <c r="H94" t="s">
         <v>100</v>
@@ -3358,25 +3358,25 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C95">
-        <v>2.813</v>
+        <v>0.479</v>
       </c>
       <c r="D95">
-        <v>2.966</v>
+        <v>0.43</v>
       </c>
       <c r="E95">
-        <v>3.941</v>
+        <v>0.87</v>
       </c>
       <c r="F95">
-        <v>4.01</v>
+        <v>1.034</v>
       </c>
       <c r="G95">
-        <v>3.364</v>
+        <v>0.627</v>
       </c>
       <c r="H95" t="s">
         <v>101</v>
@@ -3384,25 +3384,25 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C96">
-        <v>2.952</v>
+        <v>1.058</v>
       </c>
       <c r="D96">
-        <v>3.011</v>
+        <v>1.131</v>
       </c>
       <c r="E96">
-        <v>3.673</v>
+        <v>1.804</v>
       </c>
       <c r="F96">
-        <v>4.097</v>
+        <v>2.195</v>
       </c>
       <c r="G96">
-        <v>3.47</v>
+        <v>1.477</v>
       </c>
       <c r="H96" t="s">
         <v>102</v>
@@ -3410,25 +3410,25 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>2.934</v>
+        <v>1.685</v>
       </c>
       <c r="D97">
-        <v>2.983</v>
+        <v>1.918</v>
       </c>
       <c r="E97">
-        <v>3.649</v>
+        <v>3.129</v>
       </c>
       <c r="F97">
-        <v>4.052</v>
+        <v>3.191</v>
       </c>
       <c r="G97">
-        <v>3.477</v>
+        <v>2.36</v>
       </c>
       <c r="H97" t="s">
         <v>103</v>
@@ -3436,25 +3436,25 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C98">
-        <v>2.686</v>
+        <v>2.073</v>
       </c>
       <c r="D98">
-        <v>2.886</v>
+        <v>2.519</v>
       </c>
       <c r="E98">
-        <v>3.442</v>
+        <v>4.062</v>
       </c>
       <c r="F98">
-        <v>3.41</v>
+        <v>3.798</v>
       </c>
       <c r="G98">
-        <v>3.357</v>
+        <v>2.858</v>
       </c>
       <c r="H98" t="s">
         <v>104</v>
@@ -3462,25 +3462,25 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C99">
-        <v>2.301</v>
+        <v>2.373</v>
       </c>
       <c r="D99">
-        <v>2.519</v>
+        <v>3.028</v>
       </c>
       <c r="E99">
-        <v>3.097</v>
+        <v>4.181</v>
       </c>
       <c r="F99">
-        <v>2.989</v>
+        <v>4.146</v>
       </c>
       <c r="G99">
-        <v>2.548</v>
+        <v>3.47</v>
       </c>
       <c r="H99" t="s">
         <v>105</v>
@@ -3488,25 +3488,25 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B100">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C100">
-        <v>1.916</v>
+        <v>2.669</v>
       </c>
       <c r="D100">
-        <v>2.157</v>
+        <v>3.229</v>
       </c>
       <c r="E100">
-        <v>2.391</v>
+        <v>4.039</v>
       </c>
       <c r="F100">
-        <v>2.27</v>
+        <v>4.221</v>
       </c>
       <c r="G100">
-        <v>2.117</v>
+        <v>3.533</v>
       </c>
       <c r="H100" t="s">
         <v>106</v>
@@ -3514,25 +3514,25 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B101">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C101">
-        <v>1.37</v>
+        <v>2.738</v>
       </c>
       <c r="D101">
-        <v>1.619</v>
+        <v>3.246</v>
       </c>
       <c r="E101">
-        <v>1.958</v>
+        <v>3.628</v>
       </c>
       <c r="F101">
-        <v>1.529</v>
+        <v>4.199</v>
       </c>
       <c r="G101">
-        <v>1.44</v>
+        <v>3.533</v>
       </c>
       <c r="H101" t="s">
         <v>107</v>
@@ -3540,25 +3540,25 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C102">
-        <v>0.821</v>
+        <v>2.789</v>
       </c>
       <c r="D102">
-        <v>0.887</v>
+        <v>3.206</v>
       </c>
       <c r="E102">
-        <v>1.364</v>
+        <v>3.408</v>
       </c>
       <c r="F102">
-        <v>0.647</v>
+        <v>3.858</v>
       </c>
       <c r="G102">
-        <v>0.718</v>
+        <v>3.498</v>
       </c>
       <c r="H102" t="s">
         <v>108</v>
@@ -3566,25 +3566,25 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C103">
-        <v>0.262</v>
+        <v>2.545</v>
       </c>
       <c r="D103">
-        <v>0.312</v>
+        <v>3.094</v>
       </c>
       <c r="E103">
-        <v>0.545</v>
+        <v>3.348</v>
       </c>
       <c r="F103">
-        <v>0.197</v>
+        <v>3.472</v>
       </c>
       <c r="G103">
-        <v>0.265</v>
+        <v>3.024</v>
       </c>
       <c r="H103" t="s">
         <v>109</v>
@@ -3592,25 +3592,25 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C104">
-        <v>0.045</v>
+        <v>2.061</v>
       </c>
       <c r="D104">
-        <v>0.073</v>
+        <v>2.602</v>
       </c>
       <c r="E104">
-        <v>0.103</v>
+        <v>3.192</v>
       </c>
       <c r="F104">
-        <v>0.027</v>
+        <v>2.756</v>
       </c>
       <c r="G104">
-        <v>0.042</v>
+        <v>2.246</v>
       </c>
       <c r="H104" t="s">
         <v>110</v>
@@ -3618,25 +3618,25 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B105">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1.448</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1.846</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>2.451</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1.751</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1.708</v>
       </c>
       <c r="H105" t="s">
         <v>111</v>
@@ -3644,25 +3644,25 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B106">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.827</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1.011</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1.372</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>0.913</v>
       </c>
       <c r="H106" t="s">
         <v>112</v>
@@ -3670,25 +3670,25 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="B107">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.303</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>0.312</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.281</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>0.321</v>
       </c>
       <c r="H107" t="s">
         <v>113</v>
@@ -3696,25 +3696,25 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2">
-        <v>45815</v>
+        <v>45832</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.229</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="H108" t="s">
         <v>114</v>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2">
-        <v>45815</v>
+        <v>45832</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3748,10 +3748,10 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2">
-        <v>45815</v>
+        <v>45832</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2">
-        <v>45815</v>
+        <v>45832</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3800,10 +3800,10 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3826,10 +3826,10 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3852,25 +3852,25 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>0.165</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.326</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H114" t="s">
         <v>120</v>
@@ -3878,25 +3878,25 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C115">
-        <v>0.435</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>0.735</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.061</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>0.647</v>
+        <v>0</v>
       </c>
       <c r="H115" t="s">
         <v>121</v>
@@ -3904,25 +3904,25 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C116">
-        <v>1.098</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>1.109</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>2.027</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>1.362</v>
+        <v>0</v>
       </c>
       <c r="H116" t="s">
         <v>122</v>
@@ -3930,25 +3930,25 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C117">
-        <v>1.833</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>1.964</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>2.543</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>3.128</v>
+        <v>0.036</v>
       </c>
       <c r="G117">
-        <v>2.289</v>
+        <v>0.011</v>
       </c>
       <c r="H117" t="s">
         <v>123</v>
@@ -3956,25 +3956,25 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C118">
-        <v>2.481</v>
+        <v>0.113</v>
       </c>
       <c r="D118">
-        <v>2.599</v>
+        <v>0.132</v>
       </c>
       <c r="E118">
-        <v>3.31</v>
+        <v>0.222</v>
       </c>
       <c r="F118">
-        <v>3.536</v>
+        <v>0.391</v>
       </c>
       <c r="G118">
-        <v>2.683</v>
+        <v>0.298</v>
       </c>
       <c r="H118" t="s">
         <v>124</v>
@@ -3982,25 +3982,25 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C119">
-        <v>2.651</v>
+        <v>0.468</v>
       </c>
       <c r="D119">
-        <v>2.842</v>
+        <v>0.431</v>
       </c>
       <c r="E119">
-        <v>3.633</v>
+        <v>0.838</v>
       </c>
       <c r="F119">
-        <v>3.673</v>
+        <v>1.037</v>
       </c>
       <c r="G119">
-        <v>3.146</v>
+        <v>0.629</v>
       </c>
       <c r="H119" t="s">
         <v>125</v>
@@ -4008,25 +4008,25 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B120">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C120">
-        <v>2.884</v>
+        <v>1.058</v>
       </c>
       <c r="D120">
-        <v>3.013</v>
+        <v>1.16</v>
       </c>
       <c r="E120">
-        <v>3.636</v>
+        <v>1.784</v>
       </c>
       <c r="F120">
-        <v>3.66</v>
+        <v>2.146</v>
       </c>
       <c r="G120">
-        <v>3.351</v>
+        <v>1.477</v>
       </c>
       <c r="H120" t="s">
         <v>126</v>
@@ -4034,25 +4034,25 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C121">
-        <v>3.026</v>
+        <v>1.876</v>
       </c>
       <c r="D121">
-        <v>3.044</v>
+        <v>2.068</v>
       </c>
       <c r="E121">
-        <v>3.666</v>
+        <v>2.99</v>
       </c>
       <c r="F121">
-        <v>4.014</v>
+        <v>3.146</v>
       </c>
       <c r="G121">
-        <v>3.456</v>
+        <v>2.326</v>
       </c>
       <c r="H121" t="s">
         <v>127</v>
@@ -4060,25 +4060,25 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B122">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C122">
-        <v>2.806</v>
+        <v>2.443</v>
       </c>
       <c r="D122">
-        <v>2.938</v>
+        <v>2.733</v>
       </c>
       <c r="E122">
-        <v>3.582</v>
+        <v>3.961</v>
       </c>
       <c r="F122">
-        <v>3.787</v>
+        <v>3.785</v>
       </c>
       <c r="G122">
-        <v>3.351</v>
+        <v>2.855</v>
       </c>
       <c r="H122" t="s">
         <v>128</v>
@@ -4086,25 +4086,25 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C123">
-        <v>2.514</v>
+        <v>2.856</v>
       </c>
       <c r="D123">
-        <v>2.759</v>
+        <v>3.191</v>
       </c>
       <c r="E123">
-        <v>3.491</v>
+        <v>3.945</v>
       </c>
       <c r="F123">
-        <v>3.217</v>
+        <v>4.137</v>
       </c>
       <c r="G123">
-        <v>2.658</v>
+        <v>3.432</v>
       </c>
       <c r="H123" t="s">
         <v>129</v>
@@ -4112,25 +4112,25 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B124">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C124">
-        <v>2.106</v>
+        <v>3.105</v>
       </c>
       <c r="D124">
-        <v>2.344</v>
+        <v>3.495</v>
       </c>
       <c r="E124">
-        <v>3.07</v>
+        <v>3.662</v>
       </c>
       <c r="F124">
-        <v>2.481</v>
+        <v>4.104</v>
       </c>
       <c r="G124">
-        <v>2.194</v>
+        <v>3.527</v>
       </c>
       <c r="H124" t="s">
         <v>130</v>
@@ -4138,25 +4138,25 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C125">
-        <v>1.487</v>
+        <v>3.129</v>
       </c>
       <c r="D125">
-        <v>1.602</v>
+        <v>3.456</v>
       </c>
       <c r="E125">
-        <v>2.154</v>
+        <v>3.473</v>
       </c>
       <c r="F125">
-        <v>1.639</v>
+        <v>4.104</v>
       </c>
       <c r="G125">
-        <v>1.537</v>
+        <v>3.533</v>
       </c>
       <c r="H125" t="s">
         <v>131</v>
@@ -4164,25 +4164,25 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C126">
-        <v>0.802</v>
+        <v>3.029</v>
       </c>
       <c r="D126">
-        <v>0.917</v>
+        <v>3.393</v>
       </c>
       <c r="E126">
-        <v>1.378</v>
+        <v>3.407</v>
       </c>
       <c r="F126">
-        <v>0.767</v>
+        <v>3.947</v>
       </c>
       <c r="G126">
-        <v>0.899</v>
+        <v>3.489</v>
       </c>
       <c r="H126" t="s">
         <v>132</v>
@@ -4190,25 +4190,25 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B127">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C127">
-        <v>0.258</v>
+        <v>2.766</v>
       </c>
       <c r="D127">
-        <v>0.289</v>
+        <v>3.125</v>
       </c>
       <c r="E127">
-        <v>0.545</v>
+        <v>3.467</v>
       </c>
       <c r="F127">
-        <v>0.232</v>
+        <v>3.436</v>
       </c>
       <c r="G127">
-        <v>0.296</v>
+        <v>2.982</v>
       </c>
       <c r="H127" t="s">
         <v>133</v>
@@ -4216,25 +4216,25 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B128">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C128">
-        <v>0.045</v>
+        <v>2.256</v>
       </c>
       <c r="D128">
-        <v>0.073</v>
+        <v>2.698</v>
       </c>
       <c r="E128">
-        <v>0.12</v>
+        <v>2.962</v>
       </c>
       <c r="F128">
-        <v>0.042</v>
+        <v>2.664</v>
       </c>
       <c r="G128">
-        <v>0.06</v>
+        <v>2.308</v>
       </c>
       <c r="H128" t="s">
         <v>134</v>
@@ -4242,25 +4242,25 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B129">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1.643</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1.952</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>2.235</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1.704</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1.704</v>
       </c>
       <c r="H129" t="s">
         <v>135</v>
@@ -4268,25 +4268,25 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B130">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>0.842</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>0.995</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1.288</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>0.742</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>0.882</v>
       </c>
       <c r="H130" t="s">
         <v>136</v>
@@ -4294,25 +4294,25 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2">
-        <v>45815</v>
+        <v>45833</v>
       </c>
       <c r="B131">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>0.232</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>0.321</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.499</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>0.237</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>0.298</v>
       </c>
       <c r="H131" t="s">
         <v>137</v>
@@ -4320,25 +4320,25 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2">
-        <v>45816</v>
+        <v>45833</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H132" t="s">
         <v>138</v>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2">
-        <v>45816</v>
+        <v>45833</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -4372,10 +4372,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2">
-        <v>45816</v>
+        <v>45833</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -4398,10 +4398,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2">
-        <v>45816</v>
+        <v>45833</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -4450,10 +4450,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -4465,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="H137" t="s">
         <v>143</v>
@@ -4476,25 +4476,25 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="H138" t="s">
         <v>144</v>
@@ -4502,25 +4502,25 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C139">
-        <v>0.423</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>0.409</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>0.743</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.183</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>0.629</v>
+        <v>0</v>
       </c>
       <c r="H139" t="s">
         <v>145</v>
@@ -4528,25 +4528,25 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C140">
-        <v>1.016</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>0.977</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>1.711</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>2.249</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>1.467</v>
+        <v>0</v>
       </c>
       <c r="H140" t="s">
         <v>146</v>
@@ -4554,25 +4554,25 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C141">
-        <v>1.632</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>1.688</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>2.561</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>3.249</v>
+        <v>0.037</v>
       </c>
       <c r="G141">
-        <v>2.36</v>
+        <v>0.011</v>
       </c>
       <c r="H141" t="s">
         <v>147</v>
@@ -4580,25 +4580,25 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B142">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C142">
-        <v>2.09</v>
+        <v>0.091</v>
       </c>
       <c r="D142">
-        <v>2.318</v>
+        <v>0.115</v>
       </c>
       <c r="E142">
-        <v>3.269</v>
+        <v>0.19</v>
       </c>
       <c r="F142">
-        <v>3.839</v>
+        <v>0.387</v>
       </c>
       <c r="G142">
-        <v>2.992</v>
+        <v>0.298</v>
       </c>
       <c r="H142" t="s">
         <v>148</v>
@@ -4606,25 +4606,25 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B143">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C143">
-        <v>2.398</v>
+        <v>0.444</v>
       </c>
       <c r="D143">
-        <v>2.54</v>
+        <v>0.418</v>
       </c>
       <c r="E143">
-        <v>3.682</v>
+        <v>0.721</v>
       </c>
       <c r="F143">
-        <v>4.17</v>
+        <v>1.081</v>
       </c>
       <c r="G143">
-        <v>3.471</v>
+        <v>0.65</v>
       </c>
       <c r="H143" t="s">
         <v>149</v>
@@ -4632,25 +4632,25 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B144">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C144">
-        <v>2.667</v>
+        <v>1.049</v>
       </c>
       <c r="D144">
-        <v>2.863</v>
+        <v>1.134</v>
       </c>
       <c r="E144">
-        <v>3.675</v>
+        <v>1.707</v>
       </c>
       <c r="F144">
-        <v>4.209</v>
+        <v>2.185</v>
       </c>
       <c r="G144">
-        <v>3.531</v>
+        <v>1.477</v>
       </c>
       <c r="H144" t="s">
         <v>150</v>
@@ -4658,25 +4658,25 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B145">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C145">
-        <v>2.632</v>
+        <v>1.84</v>
       </c>
       <c r="D145">
-        <v>2.828</v>
+        <v>2.024</v>
       </c>
       <c r="E145">
-        <v>3.77</v>
+        <v>2.873</v>
       </c>
       <c r="F145">
-        <v>4.2</v>
+        <v>3.144</v>
       </c>
       <c r="G145">
-        <v>3.531</v>
+        <v>2.352</v>
       </c>
       <c r="H145" t="s">
         <v>151</v>
@@ -4684,25 +4684,25 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B146">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C146">
-        <v>2.527</v>
+        <v>2.445</v>
       </c>
       <c r="D146">
-        <v>2.824</v>
+        <v>2.718</v>
       </c>
       <c r="E146">
-        <v>3.842</v>
+        <v>3.56</v>
       </c>
       <c r="F146">
-        <v>3.995</v>
+        <v>3.797</v>
       </c>
       <c r="G146">
-        <v>3.484</v>
+        <v>2.855</v>
       </c>
       <c r="H146" t="s">
         <v>152</v>
@@ -4710,25 +4710,25 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B147">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C147">
-        <v>2.17</v>
+        <v>2.859</v>
       </c>
       <c r="D147">
-        <v>2.536</v>
+        <v>3.138</v>
       </c>
       <c r="E147">
-        <v>3.822</v>
+        <v>3.502</v>
       </c>
       <c r="F147">
-        <v>3.407</v>
+        <v>4.108</v>
       </c>
       <c r="G147">
-        <v>2.913</v>
+        <v>3.433</v>
       </c>
       <c r="H147" t="s">
         <v>153</v>
@@ -4736,25 +4736,25 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B148">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C148">
-        <v>1.875</v>
+        <v>3.088</v>
       </c>
       <c r="D148">
-        <v>2.117</v>
+        <v>3.426</v>
       </c>
       <c r="E148">
-        <v>3.277</v>
+        <v>3.492</v>
       </c>
       <c r="F148">
-        <v>2.631</v>
+        <v>4.188</v>
       </c>
       <c r="G148">
-        <v>2.323</v>
+        <v>3.53</v>
       </c>
       <c r="H148" t="s">
         <v>154</v>
@@ -4762,25 +4762,25 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B149">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C149">
-        <v>1.28</v>
+        <v>3.111</v>
       </c>
       <c r="D149">
-        <v>1.681</v>
+        <v>3.474</v>
       </c>
       <c r="E149">
-        <v>2.32</v>
+        <v>3.446</v>
       </c>
       <c r="F149">
-        <v>1.686</v>
+        <v>4.088</v>
       </c>
       <c r="G149">
-        <v>1.707</v>
+        <v>3.533</v>
       </c>
       <c r="H149" t="s">
         <v>155</v>
@@ -4788,25 +4788,25 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B150">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C150">
-        <v>0.84</v>
+        <v>3.022</v>
       </c>
       <c r="D150">
-        <v>0.891</v>
+        <v>3.408</v>
       </c>
       <c r="E150">
-        <v>1.51</v>
+        <v>3.363</v>
       </c>
       <c r="F150">
-        <v>0.753</v>
+        <v>3.938</v>
       </c>
       <c r="G150">
-        <v>0.897</v>
+        <v>3.488</v>
       </c>
       <c r="H150" t="s">
         <v>156</v>
@@ -4814,25 +4814,25 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C151">
-        <v>0.355</v>
+        <v>2.761</v>
       </c>
       <c r="D151">
-        <v>0.305</v>
+        <v>3.103</v>
       </c>
       <c r="E151">
-        <v>0.554</v>
+        <v>3.307</v>
       </c>
       <c r="F151">
-        <v>0.225</v>
+        <v>3.424</v>
       </c>
       <c r="G151">
-        <v>0.296</v>
+        <v>2.981</v>
       </c>
       <c r="H151" t="s">
         <v>157</v>
@@ -4840,25 +4840,25 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B152">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C152">
-        <v>0.058</v>
+        <v>2.271</v>
       </c>
       <c r="D152">
-        <v>0.077</v>
+        <v>2.696</v>
       </c>
       <c r="E152">
-        <v>0.145</v>
+        <v>3.128</v>
       </c>
       <c r="F152">
-        <v>0.042</v>
+        <v>2.667</v>
       </c>
       <c r="G152">
-        <v>0.06</v>
+        <v>2.308</v>
       </c>
       <c r="H152" t="s">
         <v>158</v>
@@ -4866,25 +4866,25 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B153">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1.566</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>1.769</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1.698</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>1.704</v>
       </c>
       <c r="H153" t="s">
         <v>159</v>
@@ -4892,25 +4892,25 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B154">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>0.847</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>0.988</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1.342</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>0.743</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>0.901</v>
       </c>
       <c r="H154" t="s">
         <v>160</v>
@@ -4918,25 +4918,25 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2">
-        <v>45816</v>
+        <v>45834</v>
       </c>
       <c r="B155">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>0.309</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.489</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>0.267</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H155" t="s">
         <v>161</v>
@@ -4944,25 +4944,25 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2">
-        <v>45817</v>
+        <v>45834</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.195</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H156" t="s">
         <v>162</v>
@@ -4970,10 +4970,10 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2">
-        <v>45817</v>
+        <v>45834</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2">
-        <v>45817</v>
+        <v>45834</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -5022,10 +5022,10 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2">
-        <v>45817</v>
+        <v>45834</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2">
-        <v>45817</v>
+        <v>45835</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -5074,10 +5074,10 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2">
-        <v>45817</v>
+        <v>45835</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -5089,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="H161" t="s">
         <v>167</v>
@@ -5100,25 +5100,25 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2">
-        <v>45817</v>
+        <v>45835</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C162">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>0.176</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.326</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>0.227</v>
+        <v>0</v>
       </c>
       <c r="H162" t="s">
         <v>168</v>
@@ -5126,25 +5126,25 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2">
-        <v>45817</v>
+        <v>45835</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C163">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>0.409</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>0.788</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.096</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="H163" t="s">
         <v>169</v>
@@ -5152,25 +5152,25 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2">
-        <v>45817</v>
+        <v>45835</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C164">
-        <v>0.862</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>0.976</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>1.714</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>2.199</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>1.459</v>
+        <v>0</v>
       </c>
       <c r="H164" t="s">
         <v>170</v>
@@ -5178,25 +5178,25 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2">
-        <v>45817</v>
+        <v>45835</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C165">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>1.512</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>2.445</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>3.148</v>
+        <v>0.037</v>
       </c>
       <c r="G165">
-        <v>2.291</v>
+        <v>0.011</v>
       </c>
       <c r="H165" t="s">
         <v>171</v>
@@ -5204,25 +5204,25 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2">
-        <v>45817</v>
+        <v>45835</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C166">
-        <v>1.637</v>
+        <v>0.109</v>
       </c>
       <c r="D166">
-        <v>1.998</v>
+        <v>0.112</v>
       </c>
       <c r="E166">
-        <v>2.937</v>
+        <v>0.213</v>
       </c>
       <c r="F166">
-        <v>3.625</v>
+        <v>0.415</v>
       </c>
       <c r="G166">
-        <v>2.788</v>
+        <v>0.301</v>
       </c>
       <c r="H166" t="s">
         <v>172</v>
@@ -5230,25 +5230,25 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2">
-        <v>45817</v>
+        <v>45835</v>
       </c>
       <c r="B167">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C167">
-        <v>1.918</v>
+        <v>0.468</v>
       </c>
       <c r="D167">
-        <v>2.329</v>
+        <v>0.462</v>
       </c>
       <c r="E167">
-        <v>3.476</v>
+        <v>0.797</v>
       </c>
       <c r="F167">
-        <v>3.943</v>
+        <v>1.151</v>
       </c>
       <c r="G167">
-        <v>3.259</v>
+        <v>0.64</v>
       </c>
       <c r="H167" t="s">
         <v>173</v>
@@ -5256,25 +5256,25 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2">
-        <v>45817</v>
+        <v>45835</v>
       </c>
       <c r="B168">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C168">
-        <v>2.029</v>
+        <v>0.99</v>
       </c>
       <c r="D168">
-        <v>2.399</v>
+        <v>1.04</v>
       </c>
       <c r="E168">
-        <v>3.48</v>
+        <v>1.671</v>
       </c>
       <c r="F168">
-        <v>4.217</v>
+        <v>2.208</v>
       </c>
       <c r="G168">
-        <v>3.515</v>
+        <v>1.462</v>
       </c>
       <c r="H168" t="s">
         <v>174</v>
@@ -5282,25 +5282,25 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2">
-        <v>45817</v>
+        <v>45835</v>
       </c>
       <c r="B169">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C169">
-        <v>2.13</v>
+        <v>1.67</v>
       </c>
       <c r="D169">
-        <v>2.506</v>
+        <v>1.767</v>
       </c>
       <c r="E169">
-        <v>3.551</v>
+        <v>2.566</v>
       </c>
       <c r="F169">
-        <v>4.194</v>
+        <v>3.17</v>
       </c>
       <c r="G169">
-        <v>3.525</v>
+        <v>2.352</v>
       </c>
       <c r="H169" t="s">
         <v>175</v>
@@ -5308,25 +5308,25 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2">
-        <v>45817</v>
+        <v>45835</v>
       </c>
       <c r="B170">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C170">
-        <v>2.064</v>
+        <v>2.123</v>
       </c>
       <c r="D170">
-        <v>2.452</v>
+        <v>2.322</v>
       </c>
       <c r="E170">
-        <v>3.474</v>
+        <v>3.457</v>
       </c>
       <c r="F170">
-        <v>3.961</v>
+        <v>3.77</v>
       </c>
       <c r="G170">
-        <v>3.456</v>
+        <v>2.858</v>
       </c>
       <c r="H170" t="s">
         <v>176</v>

--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -52,511 +52,511 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>21.08.202517</t>
-  </si>
-  <si>
-    <t>21.08.202518</t>
-  </si>
-  <si>
-    <t>21.08.202519</t>
-  </si>
-  <si>
-    <t>21.08.202520</t>
-  </si>
-  <si>
-    <t>21.08.202521</t>
-  </si>
-  <si>
-    <t>21.08.202522</t>
-  </si>
-  <si>
-    <t>21.08.202523</t>
-  </si>
-  <si>
-    <t>21.08.202524</t>
-  </si>
-  <si>
-    <t>22.08.20251</t>
-  </si>
-  <si>
-    <t>22.08.20252</t>
-  </si>
-  <si>
-    <t>22.08.20253</t>
-  </si>
-  <si>
-    <t>22.08.20254</t>
-  </si>
-  <si>
-    <t>22.08.20255</t>
-  </si>
-  <si>
-    <t>22.08.20256</t>
-  </si>
-  <si>
-    <t>22.08.20257</t>
-  </si>
-  <si>
-    <t>22.08.20258</t>
-  </si>
-  <si>
-    <t>22.08.20259</t>
-  </si>
-  <si>
-    <t>22.08.202510</t>
-  </si>
-  <si>
-    <t>22.08.202511</t>
-  </si>
-  <si>
-    <t>22.08.202512</t>
-  </si>
-  <si>
-    <t>22.08.202513</t>
-  </si>
-  <si>
-    <t>22.08.202514</t>
-  </si>
-  <si>
-    <t>22.08.202515</t>
-  </si>
-  <si>
-    <t>22.08.202516</t>
-  </si>
-  <si>
-    <t>22.08.202517</t>
-  </si>
-  <si>
-    <t>22.08.202518</t>
-  </si>
-  <si>
-    <t>22.08.202519</t>
-  </si>
-  <si>
-    <t>22.08.202520</t>
-  </si>
-  <si>
-    <t>22.08.202521</t>
-  </si>
-  <si>
-    <t>22.08.202522</t>
-  </si>
-  <si>
-    <t>22.08.202523</t>
-  </si>
-  <si>
-    <t>22.08.202524</t>
-  </si>
-  <si>
-    <t>23.08.20251</t>
-  </si>
-  <si>
-    <t>23.08.20252</t>
-  </si>
-  <si>
-    <t>23.08.20253</t>
-  </si>
-  <si>
-    <t>23.08.20254</t>
-  </si>
-  <si>
-    <t>23.08.20255</t>
-  </si>
-  <si>
-    <t>23.08.20256</t>
-  </si>
-  <si>
-    <t>23.08.20257</t>
-  </si>
-  <si>
-    <t>23.08.20258</t>
-  </si>
-  <si>
-    <t>23.08.20259</t>
-  </si>
-  <si>
-    <t>23.08.202510</t>
-  </si>
-  <si>
-    <t>23.08.202511</t>
-  </si>
-  <si>
-    <t>23.08.202512</t>
-  </si>
-  <si>
-    <t>23.08.202513</t>
-  </si>
-  <si>
-    <t>23.08.202514</t>
-  </si>
-  <si>
-    <t>23.08.202515</t>
-  </si>
-  <si>
-    <t>23.08.202516</t>
-  </si>
-  <si>
-    <t>23.08.202517</t>
-  </si>
-  <si>
-    <t>23.08.202518</t>
-  </si>
-  <si>
-    <t>23.08.202519</t>
-  </si>
-  <si>
-    <t>23.08.202520</t>
-  </si>
-  <si>
-    <t>23.08.202521</t>
-  </si>
-  <si>
-    <t>23.08.202522</t>
-  </si>
-  <si>
-    <t>23.08.202523</t>
-  </si>
-  <si>
-    <t>23.08.202524</t>
-  </si>
-  <si>
-    <t>24.08.20251</t>
-  </si>
-  <si>
-    <t>24.08.20252</t>
-  </si>
-  <si>
-    <t>24.08.20253</t>
-  </si>
-  <si>
-    <t>24.08.20254</t>
-  </si>
-  <si>
-    <t>24.08.20255</t>
-  </si>
-  <si>
-    <t>24.08.20256</t>
-  </si>
-  <si>
-    <t>24.08.20257</t>
-  </si>
-  <si>
-    <t>24.08.20258</t>
-  </si>
-  <si>
-    <t>24.08.20259</t>
-  </si>
-  <si>
-    <t>24.08.202510</t>
-  </si>
-  <si>
-    <t>24.08.202511</t>
-  </si>
-  <si>
-    <t>24.08.202512</t>
-  </si>
-  <si>
-    <t>24.08.202513</t>
-  </si>
-  <si>
-    <t>24.08.202514</t>
-  </si>
-  <si>
-    <t>24.08.202515</t>
-  </si>
-  <si>
-    <t>24.08.202516</t>
-  </si>
-  <si>
-    <t>24.08.202517</t>
-  </si>
-  <si>
-    <t>24.08.202518</t>
-  </si>
-  <si>
-    <t>24.08.202519</t>
-  </si>
-  <si>
-    <t>24.08.202520</t>
-  </si>
-  <si>
-    <t>24.08.202521</t>
-  </si>
-  <si>
-    <t>24.08.202522</t>
-  </si>
-  <si>
-    <t>24.08.202523</t>
-  </si>
-  <si>
-    <t>24.08.202524</t>
-  </si>
-  <si>
-    <t>25.08.20251</t>
-  </si>
-  <si>
-    <t>25.08.20252</t>
-  </si>
-  <si>
-    <t>25.08.20253</t>
-  </si>
-  <si>
-    <t>25.08.20254</t>
-  </si>
-  <si>
-    <t>25.08.20255</t>
-  </si>
-  <si>
-    <t>25.08.20256</t>
-  </si>
-  <si>
-    <t>25.08.20257</t>
-  </si>
-  <si>
-    <t>25.08.20258</t>
-  </si>
-  <si>
-    <t>25.08.20259</t>
-  </si>
-  <si>
-    <t>25.08.202510</t>
-  </si>
-  <si>
-    <t>25.08.202511</t>
-  </si>
-  <si>
-    <t>25.08.202512</t>
-  </si>
-  <si>
-    <t>25.08.202513</t>
-  </si>
-  <si>
-    <t>25.08.202514</t>
-  </si>
-  <si>
-    <t>25.08.202515</t>
-  </si>
-  <si>
-    <t>25.08.202516</t>
-  </si>
-  <si>
-    <t>25.08.202517</t>
-  </si>
-  <si>
-    <t>25.08.202518</t>
-  </si>
-  <si>
-    <t>25.08.202519</t>
-  </si>
-  <si>
-    <t>25.08.202520</t>
-  </si>
-  <si>
-    <t>25.08.202521</t>
-  </si>
-  <si>
-    <t>25.08.202522</t>
-  </si>
-  <si>
-    <t>25.08.202523</t>
-  </si>
-  <si>
-    <t>25.08.202524</t>
-  </si>
-  <si>
-    <t>26.08.20251</t>
-  </si>
-  <si>
-    <t>26.08.20252</t>
-  </si>
-  <si>
-    <t>26.08.20253</t>
-  </si>
-  <si>
-    <t>26.08.20254</t>
-  </si>
-  <si>
-    <t>26.08.20255</t>
-  </si>
-  <si>
-    <t>26.08.20256</t>
-  </si>
-  <si>
-    <t>26.08.20257</t>
-  </si>
-  <si>
-    <t>26.08.20258</t>
-  </si>
-  <si>
-    <t>26.08.20259</t>
-  </si>
-  <si>
-    <t>26.08.202510</t>
-  </si>
-  <si>
-    <t>26.08.202511</t>
-  </si>
-  <si>
-    <t>26.08.202512</t>
-  </si>
-  <si>
-    <t>26.08.202513</t>
-  </si>
-  <si>
-    <t>26.08.202514</t>
-  </si>
-  <si>
-    <t>26.08.202515</t>
-  </si>
-  <si>
-    <t>26.08.202516</t>
-  </si>
-  <si>
-    <t>26.08.202517</t>
-  </si>
-  <si>
-    <t>26.08.202518</t>
-  </si>
-  <si>
-    <t>26.08.202519</t>
-  </si>
-  <si>
-    <t>26.08.202520</t>
-  </si>
-  <si>
-    <t>26.08.202521</t>
-  </si>
-  <si>
-    <t>26.08.202522</t>
-  </si>
-  <si>
-    <t>26.08.202523</t>
-  </si>
-  <si>
-    <t>26.08.202524</t>
-  </si>
-  <si>
-    <t>27.08.20251</t>
-  </si>
-  <si>
-    <t>27.08.20252</t>
-  </si>
-  <si>
-    <t>27.08.20253</t>
-  </si>
-  <si>
-    <t>27.08.20254</t>
-  </si>
-  <si>
-    <t>27.08.20255</t>
-  </si>
-  <si>
-    <t>27.08.20256</t>
-  </si>
-  <si>
-    <t>27.08.20257</t>
-  </si>
-  <si>
-    <t>27.08.20258</t>
-  </si>
-  <si>
-    <t>27.08.20259</t>
-  </si>
-  <si>
-    <t>27.08.202510</t>
-  </si>
-  <si>
-    <t>27.08.202511</t>
-  </si>
-  <si>
-    <t>27.08.202512</t>
-  </si>
-  <si>
-    <t>27.08.202513</t>
-  </si>
-  <si>
-    <t>27.08.202514</t>
-  </si>
-  <si>
-    <t>27.08.202515</t>
-  </si>
-  <si>
-    <t>27.08.202516</t>
-  </si>
-  <si>
-    <t>27.08.202517</t>
-  </si>
-  <si>
-    <t>27.08.202518</t>
-  </si>
-  <si>
-    <t>27.08.202519</t>
-  </si>
-  <si>
-    <t>27.08.202520</t>
-  </si>
-  <si>
-    <t>27.08.202521</t>
-  </si>
-  <si>
-    <t>27.08.202522</t>
-  </si>
-  <si>
-    <t>27.08.202523</t>
-  </si>
-  <si>
-    <t>27.08.202524</t>
-  </si>
-  <si>
-    <t>28.08.20251</t>
-  </si>
-  <si>
-    <t>28.08.20252</t>
-  </si>
-  <si>
-    <t>28.08.20253</t>
-  </si>
-  <si>
-    <t>28.08.20254</t>
-  </si>
-  <si>
-    <t>28.08.20255</t>
-  </si>
-  <si>
-    <t>28.08.20256</t>
-  </si>
-  <si>
-    <t>28.08.20257</t>
-  </si>
-  <si>
-    <t>28.08.20258</t>
-  </si>
-  <si>
-    <t>28.08.20259</t>
-  </si>
-  <si>
-    <t>28.08.202510</t>
-  </si>
-  <si>
-    <t>28.08.202511</t>
-  </si>
-  <si>
-    <t>28.08.202512</t>
-  </si>
-  <si>
-    <t>28.08.202513</t>
-  </si>
-  <si>
-    <t>28.08.202514</t>
-  </si>
-  <si>
-    <t>28.08.202515</t>
-  </si>
-  <si>
-    <t>28.08.202516</t>
-  </si>
-  <si>
-    <t>28.08.202517</t>
+    <t>18.09.202511</t>
+  </si>
+  <si>
+    <t>18.09.202512</t>
+  </si>
+  <si>
+    <t>18.09.202513</t>
+  </si>
+  <si>
+    <t>18.09.202514</t>
+  </si>
+  <si>
+    <t>18.09.202515</t>
+  </si>
+  <si>
+    <t>18.09.202516</t>
+  </si>
+  <si>
+    <t>18.09.202517</t>
+  </si>
+  <si>
+    <t>18.09.202518</t>
+  </si>
+  <si>
+    <t>18.09.202519</t>
+  </si>
+  <si>
+    <t>18.09.202520</t>
+  </si>
+  <si>
+    <t>18.09.202521</t>
+  </si>
+  <si>
+    <t>18.09.202522</t>
+  </si>
+  <si>
+    <t>18.09.202523</t>
+  </si>
+  <si>
+    <t>18.09.202524</t>
+  </si>
+  <si>
+    <t>19.09.20251</t>
+  </si>
+  <si>
+    <t>19.09.20252</t>
+  </si>
+  <si>
+    <t>19.09.20253</t>
+  </si>
+  <si>
+    <t>19.09.20254</t>
+  </si>
+  <si>
+    <t>19.09.20255</t>
+  </si>
+  <si>
+    <t>19.09.20256</t>
+  </si>
+  <si>
+    <t>19.09.20257</t>
+  </si>
+  <si>
+    <t>19.09.20258</t>
+  </si>
+  <si>
+    <t>19.09.20259</t>
+  </si>
+  <si>
+    <t>19.09.202510</t>
+  </si>
+  <si>
+    <t>19.09.202511</t>
+  </si>
+  <si>
+    <t>19.09.202512</t>
+  </si>
+  <si>
+    <t>19.09.202513</t>
+  </si>
+  <si>
+    <t>19.09.202514</t>
+  </si>
+  <si>
+    <t>19.09.202515</t>
+  </si>
+  <si>
+    <t>19.09.202516</t>
+  </si>
+  <si>
+    <t>19.09.202517</t>
+  </si>
+  <si>
+    <t>19.09.202518</t>
+  </si>
+  <si>
+    <t>19.09.202519</t>
+  </si>
+  <si>
+    <t>19.09.202520</t>
+  </si>
+  <si>
+    <t>19.09.202521</t>
+  </si>
+  <si>
+    <t>19.09.202522</t>
+  </si>
+  <si>
+    <t>19.09.202523</t>
+  </si>
+  <si>
+    <t>19.09.202524</t>
+  </si>
+  <si>
+    <t>20.09.20251</t>
+  </si>
+  <si>
+    <t>20.09.20252</t>
+  </si>
+  <si>
+    <t>20.09.20253</t>
+  </si>
+  <si>
+    <t>20.09.20254</t>
+  </si>
+  <si>
+    <t>20.09.20255</t>
+  </si>
+  <si>
+    <t>20.09.20256</t>
+  </si>
+  <si>
+    <t>20.09.20257</t>
+  </si>
+  <si>
+    <t>20.09.20258</t>
+  </si>
+  <si>
+    <t>20.09.20259</t>
+  </si>
+  <si>
+    <t>20.09.202510</t>
+  </si>
+  <si>
+    <t>20.09.202511</t>
+  </si>
+  <si>
+    <t>20.09.202512</t>
+  </si>
+  <si>
+    <t>20.09.202513</t>
+  </si>
+  <si>
+    <t>20.09.202514</t>
+  </si>
+  <si>
+    <t>20.09.202515</t>
+  </si>
+  <si>
+    <t>20.09.202516</t>
+  </si>
+  <si>
+    <t>20.09.202517</t>
+  </si>
+  <si>
+    <t>20.09.202518</t>
+  </si>
+  <si>
+    <t>20.09.202519</t>
+  </si>
+  <si>
+    <t>20.09.202520</t>
+  </si>
+  <si>
+    <t>20.09.202521</t>
+  </si>
+  <si>
+    <t>20.09.202522</t>
+  </si>
+  <si>
+    <t>20.09.202523</t>
+  </si>
+  <si>
+    <t>20.09.202524</t>
+  </si>
+  <si>
+    <t>21.09.20251</t>
+  </si>
+  <si>
+    <t>21.09.20252</t>
+  </si>
+  <si>
+    <t>21.09.20253</t>
+  </si>
+  <si>
+    <t>21.09.20254</t>
+  </si>
+  <si>
+    <t>21.09.20255</t>
+  </si>
+  <si>
+    <t>21.09.20256</t>
+  </si>
+  <si>
+    <t>21.09.20257</t>
+  </si>
+  <si>
+    <t>21.09.20258</t>
+  </si>
+  <si>
+    <t>21.09.20259</t>
+  </si>
+  <si>
+    <t>21.09.202510</t>
+  </si>
+  <si>
+    <t>21.09.202511</t>
+  </si>
+  <si>
+    <t>21.09.202512</t>
+  </si>
+  <si>
+    <t>21.09.202513</t>
+  </si>
+  <si>
+    <t>21.09.202514</t>
+  </si>
+  <si>
+    <t>21.09.202515</t>
+  </si>
+  <si>
+    <t>21.09.202516</t>
+  </si>
+  <si>
+    <t>21.09.202517</t>
+  </si>
+  <si>
+    <t>21.09.202518</t>
+  </si>
+  <si>
+    <t>21.09.202519</t>
+  </si>
+  <si>
+    <t>21.09.202520</t>
+  </si>
+  <si>
+    <t>21.09.202521</t>
+  </si>
+  <si>
+    <t>21.09.202522</t>
+  </si>
+  <si>
+    <t>21.09.202523</t>
+  </si>
+  <si>
+    <t>21.09.202524</t>
+  </si>
+  <si>
+    <t>22.09.20251</t>
+  </si>
+  <si>
+    <t>22.09.20252</t>
+  </si>
+  <si>
+    <t>22.09.20253</t>
+  </si>
+  <si>
+    <t>22.09.20254</t>
+  </si>
+  <si>
+    <t>22.09.20255</t>
+  </si>
+  <si>
+    <t>22.09.20256</t>
+  </si>
+  <si>
+    <t>22.09.20257</t>
+  </si>
+  <si>
+    <t>22.09.20258</t>
+  </si>
+  <si>
+    <t>22.09.20259</t>
+  </si>
+  <si>
+    <t>22.09.202510</t>
+  </si>
+  <si>
+    <t>22.09.202511</t>
+  </si>
+  <si>
+    <t>22.09.202512</t>
+  </si>
+  <si>
+    <t>22.09.202513</t>
+  </si>
+  <si>
+    <t>22.09.202514</t>
+  </si>
+  <si>
+    <t>22.09.202515</t>
+  </si>
+  <si>
+    <t>22.09.202516</t>
+  </si>
+  <si>
+    <t>22.09.202517</t>
+  </si>
+  <si>
+    <t>22.09.202518</t>
+  </si>
+  <si>
+    <t>22.09.202519</t>
+  </si>
+  <si>
+    <t>22.09.202520</t>
+  </si>
+  <si>
+    <t>22.09.202521</t>
+  </si>
+  <si>
+    <t>22.09.202522</t>
+  </si>
+  <si>
+    <t>22.09.202523</t>
+  </si>
+  <si>
+    <t>22.09.202524</t>
+  </si>
+  <si>
+    <t>23.09.20251</t>
+  </si>
+  <si>
+    <t>23.09.20252</t>
+  </si>
+  <si>
+    <t>23.09.20253</t>
+  </si>
+  <si>
+    <t>23.09.20254</t>
+  </si>
+  <si>
+    <t>23.09.20255</t>
+  </si>
+  <si>
+    <t>23.09.20256</t>
+  </si>
+  <si>
+    <t>23.09.20257</t>
+  </si>
+  <si>
+    <t>23.09.20258</t>
+  </si>
+  <si>
+    <t>23.09.20259</t>
+  </si>
+  <si>
+    <t>23.09.202510</t>
+  </si>
+  <si>
+    <t>23.09.202511</t>
+  </si>
+  <si>
+    <t>23.09.202512</t>
+  </si>
+  <si>
+    <t>23.09.202513</t>
+  </si>
+  <si>
+    <t>23.09.202514</t>
+  </si>
+  <si>
+    <t>23.09.202515</t>
+  </si>
+  <si>
+    <t>23.09.202516</t>
+  </si>
+  <si>
+    <t>23.09.202517</t>
+  </si>
+  <si>
+    <t>23.09.202518</t>
+  </si>
+  <si>
+    <t>23.09.202519</t>
+  </si>
+  <si>
+    <t>23.09.202520</t>
+  </si>
+  <si>
+    <t>23.09.202521</t>
+  </si>
+  <si>
+    <t>23.09.202522</t>
+  </si>
+  <si>
+    <t>23.09.202523</t>
+  </si>
+  <si>
+    <t>23.09.202524</t>
+  </si>
+  <si>
+    <t>24.09.20251</t>
+  </si>
+  <si>
+    <t>24.09.20252</t>
+  </si>
+  <si>
+    <t>24.09.20253</t>
+  </si>
+  <si>
+    <t>24.09.20254</t>
+  </si>
+  <si>
+    <t>24.09.20255</t>
+  </si>
+  <si>
+    <t>24.09.20256</t>
+  </si>
+  <si>
+    <t>24.09.20257</t>
+  </si>
+  <si>
+    <t>24.09.20258</t>
+  </si>
+  <si>
+    <t>24.09.20259</t>
+  </si>
+  <si>
+    <t>24.09.202510</t>
+  </si>
+  <si>
+    <t>24.09.202511</t>
+  </si>
+  <si>
+    <t>24.09.202512</t>
+  </si>
+  <si>
+    <t>24.09.202513</t>
+  </si>
+  <si>
+    <t>24.09.202514</t>
+  </si>
+  <si>
+    <t>24.09.202515</t>
+  </si>
+  <si>
+    <t>24.09.202516</t>
+  </si>
+  <si>
+    <t>24.09.202517</t>
+  </si>
+  <si>
+    <t>24.09.202518</t>
+  </si>
+  <si>
+    <t>24.09.202519</t>
+  </si>
+  <si>
+    <t>24.09.202520</t>
+  </si>
+  <si>
+    <t>24.09.202521</t>
+  </si>
+  <si>
+    <t>24.09.202522</t>
+  </si>
+  <si>
+    <t>24.09.202523</t>
+  </si>
+  <si>
+    <t>24.09.202524</t>
+  </si>
+  <si>
+    <t>25.09.20251</t>
+  </si>
+  <si>
+    <t>25.09.20252</t>
+  </si>
+  <si>
+    <t>25.09.20253</t>
+  </si>
+  <si>
+    <t>25.09.20254</t>
+  </si>
+  <si>
+    <t>25.09.20255</t>
+  </si>
+  <si>
+    <t>25.09.20256</t>
+  </si>
+  <si>
+    <t>25.09.20257</t>
+  </si>
+  <si>
+    <t>25.09.20258</t>
+  </si>
+  <si>
+    <t>25.09.20259</t>
+  </si>
+  <si>
+    <t>25.09.202510</t>
+  </si>
+  <si>
+    <t>25.09.202511</t>
   </si>
 </sst>
 </file>
@@ -964,10 +964,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -976,25 +976,25 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.107</v>
+        <v>0.099</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.175</v>
+        <v>0.034</v>
       </c>
       <c r="K2">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.175</v>
+        <v>0.034</v>
       </c>
       <c r="K3">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
@@ -1040,37 +1040,37 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.443</v>
+        <v>3.062</v>
       </c>
       <c r="D4">
-        <v>0.417</v>
+        <v>3.494</v>
       </c>
       <c r="E4">
-        <v>0.791</v>
+        <v>4.16</v>
       </c>
       <c r="F4">
-        <v>0.441</v>
+        <v>4.24</v>
       </c>
       <c r="G4">
-        <v>0.704</v>
+        <v>3.451</v>
       </c>
       <c r="H4">
-        <v>0.717</v>
+        <v>1.718</v>
       </c>
       <c r="I4">
-        <v>0.57</v>
+        <v>1.387</v>
       </c>
       <c r="J4">
-        <v>0.999</v>
+        <v>3.386</v>
       </c>
       <c r="K4">
-        <v>0.176</v>
+        <v>1.603</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
@@ -1078,37 +1078,37 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.082</v>
+        <v>2.614</v>
       </c>
       <c r="D5">
-        <v>0.053</v>
+        <v>3.087</v>
       </c>
       <c r="E5">
-        <v>0.296</v>
+        <v>3.677</v>
       </c>
       <c r="F5">
-        <v>0.134</v>
+        <v>3.572</v>
       </c>
       <c r="G5">
-        <v>0.173</v>
+        <v>3.098</v>
       </c>
       <c r="H5">
-        <v>0.166</v>
+        <v>1.357</v>
       </c>
       <c r="I5">
-        <v>0.116</v>
+        <v>1.444</v>
       </c>
       <c r="J5">
-        <v>0.635</v>
+        <v>3.267</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.571</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
@@ -1116,37 +1116,37 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.453</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.849</v>
       </c>
       <c r="E6">
-        <v>0.016</v>
+        <v>3.504</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3.028</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.754</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.772</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.165</v>
       </c>
       <c r="J6">
-        <v>0.305</v>
+        <v>3.226</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.362</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -1154,37 +1154,37 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.902</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2.437</v>
       </c>
       <c r="E7">
-        <v>0.031</v>
+        <v>3.327</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.477</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.279</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J7">
-        <v>0.141</v>
+        <v>2.949</v>
       </c>
       <c r="K7">
-        <v>0.013</v>
+        <v>1.166</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -1192,37 +1192,37 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.532</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1.827</v>
       </c>
       <c r="E8">
-        <v>0.026</v>
+        <v>2.623</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.856</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.828</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.199</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.434</v>
       </c>
       <c r="J8">
-        <v>0.141</v>
+        <v>1.972</v>
       </c>
       <c r="K8">
-        <v>0.013</v>
+        <v>0.779</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -1230,37 +1230,37 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.889</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1.227</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.607</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.017</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.657</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J9">
-        <v>0.141</v>
+        <v>1.282</v>
       </c>
       <c r="K9">
-        <v>0.013</v>
+        <v>0.362</v>
       </c>
       <c r="L9" t="s">
         <v>19</v>
@@ -1268,37 +1268,37 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2">
-        <v>45891</v>
+        <v>45918</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.276</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.384</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.293</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.341</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="J10">
-        <v>0.135</v>
+        <v>0.465</v>
       </c>
       <c r="K10">
-        <v>0.014</v>
+        <v>0.246</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
@@ -1306,37 +1306,37 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
-        <v>45891</v>
+        <v>45918</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.135</v>
+        <v>0.235</v>
       </c>
       <c r="K11">
-        <v>0.014</v>
+        <v>0.025</v>
       </c>
       <c r="L11" t="s">
         <v>21</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
-        <v>45891</v>
+        <v>45918</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1356,25 +1356,25 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.01</v>
+      </c>
+      <c r="H12">
+        <v>0.014</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.068</v>
+      </c>
+      <c r="K12">
         <v>0.013</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.135</v>
-      </c>
-      <c r="K12">
-        <v>0.014</v>
       </c>
       <c r="L12" t="s">
         <v>22</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
-        <v>45891</v>
+        <v>45918</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1394,25 +1394,25 @@
         <v>0</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.01</v>
+      </c>
+      <c r="H13">
+        <v>0.012</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>0.015</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.048</v>
-      </c>
       <c r="K13">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2">
-        <v>45891</v>
+        <v>45918</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1432,25 +1432,25 @@
         <v>0</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.01</v>
+      </c>
+      <c r="H14">
+        <v>0.011</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>0.015</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.023</v>
-      </c>
       <c r="K14">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="L14" t="s">
         <v>24</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2">
-        <v>45891</v>
+        <v>45918</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.023</v>
+        <v>0.02</v>
       </c>
       <c r="K15">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="L15" t="s">
         <v>25</v>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1511,22 +1511,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.06900000000000001</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H16">
         <v>0.013</v>
       </c>
       <c r="I16">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.018</v>
       </c>
       <c r="K16">
-        <v>0.036</v>
+        <v>0.014</v>
       </c>
       <c r="L16" t="s">
         <v>26</v>
@@ -1534,37 +1534,37 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0.162</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.153</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.404</v>
+        <v>0.01</v>
       </c>
       <c r="H17">
-        <v>0.257</v>
+        <v>0.011</v>
       </c>
       <c r="I17">
-        <v>0.201</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.471</v>
+        <v>0.018</v>
       </c>
       <c r="K17">
-        <v>0.162</v>
+        <v>0.014</v>
       </c>
       <c r="L17" t="s">
         <v>27</v>
@@ -1572,37 +1572,37 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>0.655</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.6889999999999999</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.756</v>
+        <v>0.02</v>
       </c>
       <c r="F18">
-        <v>1.592</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1.097</v>
+        <v>0.01</v>
       </c>
       <c r="H18">
-        <v>0.726</v>
+        <v>0.011</v>
       </c>
       <c r="I18">
-        <v>0.5639999999999999</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1.067</v>
+        <v>0.018</v>
       </c>
       <c r="K18">
-        <v>0.449</v>
+        <v>0.014</v>
       </c>
       <c r="L18" t="s">
         <v>28</v>
@@ -1610,37 +1610,37 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>1.248</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1.214</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1.512</v>
+        <v>0.02</v>
       </c>
       <c r="F19">
-        <v>2.426</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1.95</v>
+        <v>0.01</v>
       </c>
       <c r="H19">
-        <v>1.011</v>
+        <v>0.011</v>
       </c>
       <c r="I19">
-        <v>0.843</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1.613</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.847</v>
+        <v>0.014</v>
       </c>
       <c r="L19" t="s">
         <v>29</v>
@@ -1648,37 +1648,37 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2.601</v>
+        <v>0.02</v>
       </c>
       <c r="F20">
-        <v>3.017</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>2.624</v>
+        <v>0.01</v>
       </c>
       <c r="H20">
-        <v>1.102</v>
+        <v>0.011</v>
       </c>
       <c r="I20">
-        <v>0.842</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1.862</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.922</v>
+        <v>0.014</v>
       </c>
       <c r="L20" t="s">
         <v>30</v>
@@ -1686,37 +1686,37 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>1.932</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>2.237</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>3.127</v>
+        <v>0.017</v>
       </c>
       <c r="F21">
-        <v>3.443</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>2.877</v>
+        <v>0.01</v>
       </c>
       <c r="H21">
-        <v>1.401</v>
+        <v>0.011</v>
       </c>
       <c r="I21">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.986</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.132</v>
+        <v>0.014</v>
       </c>
       <c r="L21" t="s">
         <v>31</v>
@@ -1724,37 +1724,37 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>1.914</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1.997</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>3.475</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>3.012</v>
+        <v>0.01</v>
       </c>
       <c r="H22">
-        <v>1.467</v>
+        <v>0.011</v>
       </c>
       <c r="I22">
-        <v>0.957</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>2.436</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.129</v>
+        <v>0.014</v>
       </c>
       <c r="L22" t="s">
         <v>32</v>
@@ -1762,37 +1762,37 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>1.715</v>
+        <v>0.031</v>
       </c>
       <c r="D23">
-        <v>1.977</v>
+        <v>0.03</v>
       </c>
       <c r="E23">
-        <v>3.401</v>
+        <v>0.122</v>
       </c>
       <c r="F23">
-        <v>3.273</v>
+        <v>0.495</v>
       </c>
       <c r="G23">
-        <v>3.061</v>
+        <v>0.275</v>
       </c>
       <c r="H23">
-        <v>1.469</v>
+        <v>0.144</v>
       </c>
       <c r="I23">
-        <v>1.129</v>
+        <v>0.109</v>
       </c>
       <c r="J23">
-        <v>2.424</v>
+        <v>0.3</v>
       </c>
       <c r="K23">
-        <v>1.006</v>
+        <v>0.038</v>
       </c>
       <c r="L23" t="s">
         <v>33</v>
@@ -1800,37 +1800,37 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>1.304</v>
+        <v>0.367</v>
       </c>
       <c r="D24">
-        <v>1.502</v>
+        <v>0.304</v>
       </c>
       <c r="E24">
-        <v>2.848</v>
+        <v>0.76</v>
       </c>
       <c r="F24">
-        <v>3.015</v>
+        <v>1.695</v>
       </c>
       <c r="G24">
-        <v>2.861</v>
+        <v>1.019</v>
       </c>
       <c r="H24">
-        <v>1.511</v>
+        <v>0.988</v>
       </c>
       <c r="I24">
-        <v>0.976</v>
+        <v>0.573</v>
       </c>
       <c r="J24">
-        <v>2.26</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="K24">
-        <v>0.887</v>
+        <v>0.349</v>
       </c>
       <c r="L24" t="s">
         <v>34</v>
@@ -1838,37 +1838,37 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>1.102</v>
+        <v>0.676</v>
       </c>
       <c r="D25">
-        <v>1.036</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E25">
-        <v>2.566</v>
+        <v>1.869</v>
       </c>
       <c r="F25">
-        <v>2.109</v>
+        <v>2.76</v>
       </c>
       <c r="G25">
-        <v>2.255</v>
+        <v>1.956</v>
       </c>
       <c r="H25">
-        <v>1.415</v>
+        <v>1.629</v>
       </c>
       <c r="I25">
-        <v>0.795</v>
+        <v>1.006</v>
       </c>
       <c r="J25">
-        <v>1.923</v>
+        <v>2.183</v>
       </c>
       <c r="K25">
-        <v>0.639</v>
+        <v>0.826</v>
       </c>
       <c r="L25" t="s">
         <v>35</v>
@@ -1876,37 +1876,37 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>0.873</v>
       </c>
       <c r="D26">
-        <v>0.9320000000000001</v>
+        <v>0.948</v>
       </c>
       <c r="E26">
-        <v>2.005</v>
+        <v>3.069</v>
       </c>
       <c r="F26">
-        <v>1.497</v>
+        <v>3.638</v>
       </c>
       <c r="G26">
-        <v>1.494</v>
+        <v>2.958</v>
       </c>
       <c r="H26">
-        <v>1.028</v>
+        <v>1.724</v>
       </c>
       <c r="I26">
-        <v>0.49</v>
+        <v>1.352</v>
       </c>
       <c r="J26">
-        <v>1.451</v>
+        <v>2.891</v>
       </c>
       <c r="K26">
-        <v>0.31</v>
+        <v>0.83</v>
       </c>
       <c r="L26" t="s">
         <v>36</v>
@@ -1914,37 +1914,37 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>0.577</v>
+        <v>1.428</v>
       </c>
       <c r="D27">
-        <v>0.68</v>
+        <v>1.495</v>
       </c>
       <c r="E27">
-        <v>1.612</v>
+        <v>3.892</v>
       </c>
       <c r="F27">
-        <v>0.848</v>
+        <v>4.029</v>
       </c>
       <c r="G27">
-        <v>0.771</v>
+        <v>3.331</v>
       </c>
       <c r="H27">
-        <v>0.625</v>
+        <v>1.441</v>
       </c>
       <c r="I27">
-        <v>0.485</v>
+        <v>1.437</v>
       </c>
       <c r="J27">
-        <v>1.04</v>
+        <v>3.411</v>
       </c>
       <c r="K27">
-        <v>0.234</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="L27" t="s">
         <v>37</v>
@@ -1952,37 +1952,37 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>0.276</v>
+        <v>1.923</v>
       </c>
       <c r="D28">
-        <v>0.255</v>
+        <v>2.299</v>
       </c>
       <c r="E28">
-        <v>0.722</v>
+        <v>4.129</v>
       </c>
       <c r="F28">
-        <v>0.288</v>
+        <v>4.114</v>
       </c>
       <c r="G28">
-        <v>0.329</v>
+        <v>3.447</v>
       </c>
       <c r="H28">
-        <v>0.24</v>
+        <v>0.717</v>
       </c>
       <c r="I28">
-        <v>0.197</v>
+        <v>1.437</v>
       </c>
       <c r="J28">
-        <v>0.509</v>
+        <v>3.72</v>
       </c>
       <c r="K28">
-        <v>0.153</v>
+        <v>1.068</v>
       </c>
       <c r="L28" t="s">
         <v>38</v>
@@ -1990,37 +1990,37 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>0.033</v>
+        <v>2.087</v>
       </c>
       <c r="D29">
-        <v>0.044</v>
+        <v>2.486</v>
       </c>
       <c r="E29">
-        <v>0.171</v>
+        <v>4.021</v>
       </c>
       <c r="F29">
-        <v>0.037</v>
+        <v>4.063</v>
       </c>
       <c r="G29">
-        <v>0.056</v>
+        <v>3.42</v>
       </c>
       <c r="H29">
-        <v>0.067</v>
+        <v>0.452</v>
       </c>
       <c r="I29">
-        <v>0.025</v>
+        <v>1.494</v>
       </c>
       <c r="J29">
-        <v>0.47</v>
+        <v>3.472</v>
       </c>
       <c r="K29">
-        <v>0.019</v>
+        <v>1.064</v>
       </c>
       <c r="L29" t="s">
         <v>39</v>
@@ -2028,37 +2028,37 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1.924</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2.389</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3.818</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>3.821</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>3.261</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.437</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1.494</v>
       </c>
       <c r="J30">
-        <v>0.126</v>
+        <v>3.265</v>
       </c>
       <c r="K30">
-        <v>0.013</v>
+        <v>1.025</v>
       </c>
       <c r="L30" t="s">
         <v>40</v>
@@ -2066,37 +2066,37 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B31">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1.705</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1.949</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3.078</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2.821</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1.127</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1.174</v>
       </c>
       <c r="J31">
-        <v>0.028</v>
+        <v>3.1</v>
       </c>
       <c r="K31">
-        <v>0.013</v>
+        <v>1.023</v>
       </c>
       <c r="L31" t="s">
         <v>41</v>
@@ -2104,37 +2104,37 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B32">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1.438</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1.496</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2.492</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1.906</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2.024</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1.304</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.533</v>
       </c>
       <c r="J32">
-        <v>0.028</v>
+        <v>1.93</v>
       </c>
       <c r="K32">
-        <v>0.013</v>
+        <v>0.659</v>
       </c>
       <c r="L32" t="s">
         <v>42</v>
@@ -2142,37 +2142,37 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B33">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.788</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.806</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1.441</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.883</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1.132</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J33">
-        <v>0.028</v>
+        <v>1.193</v>
       </c>
       <c r="K33">
-        <v>0.013</v>
+        <v>0.245</v>
       </c>
       <c r="L33" t="s">
         <v>43</v>
@@ -2180,37 +2180,37 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2">
-        <v>45892</v>
+        <v>45919</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.206</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.218</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.546</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.311</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.322</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="J34">
-        <v>0.023</v>
+        <v>0.474</v>
       </c>
       <c r="K34">
-        <v>0.014</v>
+        <v>0.133</v>
       </c>
       <c r="L34" t="s">
         <v>44</v>
@@ -2218,10 +2218,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2">
-        <v>45892</v>
+        <v>45919</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2230,25 +2230,25 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.023</v>
+        <v>0.213</v>
       </c>
       <c r="K35">
-        <v>0.014</v>
+        <v>0.019</v>
       </c>
       <c r="L35" t="s">
         <v>45</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2">
-        <v>45892</v>
+        <v>45919</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2274,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.023</v>
+        <v>0.075</v>
       </c>
       <c r="K36">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="L36" t="s">
         <v>46</v>
@@ -2294,10 +2294,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2">
-        <v>45892</v>
+        <v>45919</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2312,19 +2312,19 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="K37">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="L37" t="s">
         <v>47</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2">
-        <v>45892</v>
+        <v>45919</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2350,19 +2350,19 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="K38">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="L38" t="s">
         <v>48</v>
@@ -2370,10 +2370,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2">
-        <v>45892</v>
+        <v>45919</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2388,19 +2388,19 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="K39">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="L39" t="s">
         <v>49</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2423,22 +2423,22 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.046</v>
+        <v>0.025</v>
       </c>
       <c r="K40">
-        <v>0.024</v>
+        <v>0.014</v>
       </c>
       <c r="L40" t="s">
         <v>50</v>
@@ -2446,37 +2446,37 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0.267</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0.353</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.494</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.249</v>
+        <v>0.01</v>
       </c>
       <c r="H41">
-        <v>0.211</v>
+        <v>0.011</v>
       </c>
       <c r="I41">
-        <v>0.089</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0.303</v>
+        <v>0.018</v>
       </c>
       <c r="K41">
-        <v>0.046</v>
+        <v>0.014</v>
       </c>
       <c r="L41" t="s">
         <v>51</v>
@@ -2484,37 +2484,37 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>0.901</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1.061</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1.408</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.238</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.714</v>
+        <v>0.01</v>
       </c>
       <c r="H42">
-        <v>0.73</v>
+        <v>0.011</v>
       </c>
       <c r="I42">
-        <v>0.313</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.864</v>
+        <v>0.018</v>
       </c>
       <c r="K42">
-        <v>0.294</v>
+        <v>0.014</v>
       </c>
       <c r="L42" t="s">
         <v>52</v>
@@ -2522,37 +2522,37 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>1.746</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>2.488</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.884</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>1.409</v>
+        <v>0.01</v>
       </c>
       <c r="H43">
-        <v>1.08</v>
+        <v>0.011</v>
       </c>
       <c r="I43">
-        <v>0.605</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>1.434</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>0.582</v>
+        <v>0.014</v>
       </c>
       <c r="L43" t="s">
         <v>53</v>
@@ -2560,37 +2560,37 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>2.322</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>3.387</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>2.243</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1.615</v>
+        <v>0.01</v>
       </c>
       <c r="H44">
-        <v>1.538</v>
+        <v>0.011</v>
       </c>
       <c r="I44">
-        <v>0.883</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1.828</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>0.8</v>
+        <v>0.014</v>
       </c>
       <c r="L44" t="s">
         <v>54</v>
@@ -2598,37 +2598,37 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>2.734</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>3.747</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>2.402</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1.996</v>
+        <v>0.01</v>
       </c>
       <c r="H45">
-        <v>1.637</v>
+        <v>0.011</v>
       </c>
       <c r="I45">
-        <v>1.013</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>1.799</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>1.123</v>
+        <v>0.014</v>
       </c>
       <c r="L45" t="s">
         <v>55</v>
@@ -2636,37 +2636,37 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>2.861</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>3.251</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>3.848</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.922</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1.864</v>
+        <v>0.01</v>
       </c>
       <c r="H46">
-        <v>1.599</v>
+        <v>0.011</v>
       </c>
       <c r="I46">
-        <v>1.181</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1.822</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>1.194</v>
+        <v>0.014</v>
       </c>
       <c r="L46" t="s">
         <v>56</v>
@@ -2674,37 +2674,37 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>2.717</v>
+        <v>0.057</v>
       </c>
       <c r="D47">
-        <v>3.197</v>
+        <v>0.066</v>
       </c>
       <c r="E47">
-        <v>3.59</v>
+        <v>0.107</v>
       </c>
       <c r="F47">
-        <v>2.094</v>
+        <v>0.366</v>
       </c>
       <c r="G47">
-        <v>1.896</v>
+        <v>0.178</v>
       </c>
       <c r="H47">
-        <v>1.641</v>
+        <v>0.119</v>
       </c>
       <c r="I47">
-        <v>1.225</v>
+        <v>0.074</v>
       </c>
       <c r="J47">
-        <v>1.964</v>
+        <v>0.392</v>
       </c>
       <c r="K47">
-        <v>1.183</v>
+        <v>0.046</v>
       </c>
       <c r="L47" t="s">
         <v>57</v>
@@ -2712,37 +2712,37 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>2.452</v>
+        <v>0.624</v>
       </c>
       <c r="D48">
-        <v>3.044</v>
+        <v>0.719</v>
       </c>
       <c r="E48">
-        <v>3.459</v>
+        <v>0.731</v>
       </c>
       <c r="F48">
-        <v>2.08</v>
+        <v>1.503</v>
       </c>
       <c r="G48">
-        <v>1.639</v>
+        <v>0.84</v>
       </c>
       <c r="H48">
-        <v>1.535</v>
+        <v>0.876</v>
       </c>
       <c r="I48">
-        <v>1.186</v>
+        <v>0.426</v>
       </c>
       <c r="J48">
-        <v>1.656</v>
+        <v>1.108</v>
       </c>
       <c r="K48">
-        <v>1.24</v>
+        <v>0.481</v>
       </c>
       <c r="L48" t="s">
         <v>58</v>
@@ -2750,37 +2750,37 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B49">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>2.132</v>
+        <v>1.464</v>
       </c>
       <c r="D49">
-        <v>2.691</v>
+        <v>1.655</v>
       </c>
       <c r="E49">
-        <v>3.315</v>
+        <v>1.777</v>
       </c>
       <c r="F49">
-        <v>2.021</v>
+        <v>2.481</v>
       </c>
       <c r="G49">
-        <v>1.791</v>
+        <v>1.801</v>
       </c>
       <c r="H49">
-        <v>1.315</v>
+        <v>1.531</v>
       </c>
       <c r="I49">
-        <v>0.9379999999999999</v>
+        <v>0.828</v>
       </c>
       <c r="J49">
-        <v>1.4</v>
+        <v>2.107</v>
       </c>
       <c r="K49">
-        <v>0.996</v>
+        <v>0.844</v>
       </c>
       <c r="L49" t="s">
         <v>59</v>
@@ -2788,37 +2788,37 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B50">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>1.614</v>
+        <v>2.011</v>
       </c>
       <c r="D50">
-        <v>1.993</v>
+        <v>2.42</v>
       </c>
       <c r="E50">
-        <v>2.694</v>
+        <v>2.849</v>
       </c>
       <c r="F50">
-        <v>1.75</v>
+        <v>3.103</v>
       </c>
       <c r="G50">
-        <v>1.636</v>
+        <v>2.497</v>
       </c>
       <c r="H50">
-        <v>1.109</v>
+        <v>1.681</v>
       </c>
       <c r="I50">
-        <v>0.6929999999999999</v>
+        <v>1.217</v>
       </c>
       <c r="J50">
-        <v>0.978</v>
+        <v>2.799</v>
       </c>
       <c r="K50">
-        <v>0.855</v>
+        <v>1.184</v>
       </c>
       <c r="L50" t="s">
         <v>60</v>
@@ -2826,37 +2826,37 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B51">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C51">
-        <v>1.086</v>
+        <v>2.569</v>
       </c>
       <c r="D51">
-        <v>1.23</v>
+        <v>2.724</v>
       </c>
       <c r="E51">
-        <v>1.804</v>
+        <v>3.654</v>
       </c>
       <c r="F51">
-        <v>1.002</v>
+        <v>3.332</v>
       </c>
       <c r="G51">
-        <v>0.919</v>
+        <v>2.895</v>
       </c>
       <c r="H51">
-        <v>0.793</v>
+        <v>0.52</v>
       </c>
       <c r="I51">
-        <v>0.355</v>
+        <v>1.453</v>
       </c>
       <c r="J51">
-        <v>0.8169999999999999</v>
+        <v>3.525</v>
       </c>
       <c r="K51">
-        <v>0.444</v>
+        <v>1.282</v>
       </c>
       <c r="L51" t="s">
         <v>61</v>
@@ -2864,37 +2864,37 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C52">
-        <v>0.545</v>
+        <v>2.75</v>
       </c>
       <c r="D52">
-        <v>0.529</v>
+        <v>2.897</v>
       </c>
       <c r="E52">
-        <v>1.011</v>
+        <v>3.939</v>
       </c>
       <c r="F52">
-        <v>0.316</v>
+        <v>3.248</v>
       </c>
       <c r="G52">
-        <v>0.349</v>
+        <v>2.907</v>
       </c>
       <c r="H52">
-        <v>0.373</v>
+        <v>0.378</v>
       </c>
       <c r="I52">
-        <v>0.089</v>
+        <v>1.472</v>
       </c>
       <c r="J52">
-        <v>0.412</v>
+        <v>3.536</v>
       </c>
       <c r="K52">
-        <v>0.213</v>
+        <v>1.429</v>
       </c>
       <c r="L52" t="s">
         <v>62</v>
@@ -2902,37 +2902,37 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B53">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>0.13</v>
+        <v>2.777</v>
       </c>
       <c r="D53">
-        <v>0.117</v>
+        <v>2.926</v>
       </c>
       <c r="E53">
-        <v>0.302</v>
+        <v>4.024</v>
       </c>
       <c r="F53">
-        <v>0.043</v>
+        <v>3.033</v>
       </c>
       <c r="G53">
-        <v>0.061</v>
+        <v>2.683</v>
       </c>
       <c r="H53">
-        <v>0.074</v>
+        <v>0.345</v>
       </c>
       <c r="I53">
-        <v>0.012</v>
+        <v>1.494</v>
       </c>
       <c r="J53">
-        <v>0.47</v>
+        <v>3.457</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1.374</v>
       </c>
       <c r="L53" t="s">
         <v>63</v>
@@ -2940,37 +2940,37 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B54">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>2.874</v>
       </c>
       <c r="E54">
-        <v>0.028</v>
+        <v>3.788</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2.317</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2.001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1.522</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1.474</v>
       </c>
       <c r="J54">
-        <v>0.126</v>
+        <v>3.284</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L54" t="s">
         <v>64</v>
@@ -2978,37 +2978,37 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B55">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>2.335</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>2.494</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>3.413</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>2.015</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1.715</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1.719</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1.177</v>
       </c>
       <c r="J55">
-        <v>0.028</v>
+        <v>3.012</v>
       </c>
       <c r="K55">
-        <v>0.019</v>
+        <v>0.842</v>
       </c>
       <c r="L55" t="s">
         <v>65</v>
@@ -3016,37 +3016,37 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B56">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1.798</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>2.093</v>
       </c>
       <c r="E56">
-        <v>0.013</v>
+        <v>2.505</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1.205</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1.498</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1.314</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="J56">
-        <v>0.028</v>
+        <v>2.279</v>
       </c>
       <c r="K56">
-        <v>0.019</v>
+        <v>0.613</v>
       </c>
       <c r="L56" t="s">
         <v>66</v>
@@ -3054,37 +3054,37 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2">
-        <v>45892</v>
+        <v>45920</v>
       </c>
       <c r="B57">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1.007</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E57">
-        <v>0.012</v>
+        <v>1.348</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.624</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>0.757</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>0.695</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="J57">
-        <v>0.028</v>
+        <v>1.193</v>
       </c>
       <c r="K57">
-        <v>0.019</v>
+        <v>0.253</v>
       </c>
       <c r="L57" t="s">
         <v>67</v>
@@ -3092,37 +3092,37 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2">
-        <v>45893</v>
+        <v>45920</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.232</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.376</v>
       </c>
       <c r="E58">
-        <v>0.011</v>
+        <v>0.495</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>0.346</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="J58">
-        <v>0.023</v>
+        <v>0.471</v>
       </c>
       <c r="K58">
-        <v>0.02</v>
+        <v>0.153</v>
       </c>
       <c r="L58" t="s">
         <v>68</v>
@@ -3130,10 +3130,10 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2">
-        <v>45893</v>
+        <v>45920</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3142,25 +3142,25 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.011</v>
+        <v>0.022</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.023</v>
+        <v>0.213</v>
       </c>
       <c r="K59">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L59" t="s">
         <v>69</v>
@@ -3168,10 +3168,10 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2">
-        <v>45893</v>
+        <v>45920</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.023</v>
+        <v>0.075</v>
       </c>
       <c r="K60">
-        <v>0.02</v>
+        <v>0.013</v>
       </c>
       <c r="L60" t="s">
         <v>70</v>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2">
-        <v>45893</v>
+        <v>45920</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="K61">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="L61" t="s">
         <v>71</v>
@@ -3244,10 +3244,10 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2">
-        <v>45893</v>
+        <v>45920</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3262,19 +3262,19 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="K62">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="L62" t="s">
         <v>72</v>
@@ -3282,10 +3282,10 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2">
-        <v>45893</v>
+        <v>45920</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3300,19 +3300,19 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="K63">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="L63" t="s">
         <v>73</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3335,22 +3335,22 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H64">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.07099999999999999</v>
+        <v>0.025</v>
       </c>
       <c r="K64">
-        <v>0.038</v>
+        <v>0.014</v>
       </c>
       <c r="L64" t="s">
         <v>74</v>
@@ -3358,37 +3358,37 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>0.266</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0.272</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>0.276</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.636</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0.324</v>
+        <v>0.01</v>
       </c>
       <c r="H65">
-        <v>0.257</v>
+        <v>0.011</v>
       </c>
       <c r="I65">
-        <v>0.201</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>0.488</v>
+        <v>0.025</v>
       </c>
       <c r="K65">
-        <v>0.169</v>
+        <v>0.014</v>
       </c>
       <c r="L65" t="s">
         <v>75</v>
@@ -3396,37 +3396,37 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>0.879</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1.074</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.717</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.951</v>
+        <v>0.01</v>
       </c>
       <c r="H66">
-        <v>0.752</v>
+        <v>0.011</v>
       </c>
       <c r="I66">
-        <v>0.731</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0.957</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>0.524</v>
+        <v>0.014</v>
       </c>
       <c r="L66" t="s">
         <v>76</v>
@@ -3434,37 +3434,37 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>1.647</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>1.696</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>1.877</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>2.504</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1.945</v>
+        <v>0.01</v>
       </c>
       <c r="H67">
-        <v>1.179</v>
+        <v>0.011</v>
       </c>
       <c r="I67">
-        <v>1.067</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1.875</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>0.948</v>
+        <v>0.015</v>
       </c>
       <c r="L67" t="s">
         <v>77</v>
@@ -3472,37 +3472,37 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B68">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C68">
-        <v>1.866</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>2.293</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>2.471</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>3.121</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>2.55</v>
+        <v>0.01</v>
       </c>
       <c r="H68">
-        <v>1.76</v>
+        <v>0.011</v>
       </c>
       <c r="I68">
-        <v>1.417</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>2.488</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>1.208</v>
+        <v>0.015</v>
       </c>
       <c r="L68" t="s">
         <v>78</v>
@@ -3510,37 +3510,37 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>2.127</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>2.784</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>2.711</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>3.369</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>2.931</v>
+        <v>0.01</v>
       </c>
       <c r="H69">
-        <v>1.514</v>
+        <v>0.011</v>
       </c>
       <c r="I69">
-        <v>1.445</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>3.455</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>1.424</v>
+        <v>0.015</v>
       </c>
       <c r="L69" t="s">
         <v>79</v>
@@ -3548,37 +3548,37 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B70">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>2.217</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>2.868</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>2.788</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>3.411</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>3.099</v>
+        <v>0.01</v>
       </c>
       <c r="H70">
-        <v>1.499</v>
+        <v>0.011</v>
       </c>
       <c r="I70">
-        <v>1.445</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>3.617</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>1.313</v>
+        <v>0.015</v>
       </c>
       <c r="L70" t="s">
         <v>80</v>
@@ -3586,37 +3586,37 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C71">
-        <v>2.291</v>
+        <v>0.057</v>
       </c>
       <c r="D71">
-        <v>2.901</v>
+        <v>0.089</v>
       </c>
       <c r="E71">
-        <v>2.989</v>
+        <v>0.096</v>
       </c>
       <c r="F71">
-        <v>3.313</v>
+        <v>0.361</v>
       </c>
       <c r="G71">
-        <v>2.955</v>
+        <v>0.163</v>
       </c>
       <c r="H71">
-        <v>1.385</v>
+        <v>0.116</v>
       </c>
       <c r="I71">
-        <v>1.476</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J71">
-        <v>3.12</v>
+        <v>0.392</v>
       </c>
       <c r="K71">
-        <v>1.253</v>
+        <v>0.043</v>
       </c>
       <c r="L71" t="s">
         <v>81</v>
@@ -3624,37 +3624,37 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B72">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>2.204</v>
+        <v>0.632</v>
       </c>
       <c r="D72">
-        <v>2.859</v>
+        <v>0.749</v>
       </c>
       <c r="E72">
-        <v>3.339</v>
+        <v>0.721</v>
       </c>
       <c r="F72">
-        <v>2.827</v>
+        <v>1.451</v>
       </c>
       <c r="G72">
-        <v>2.734</v>
+        <v>0.823</v>
       </c>
       <c r="H72">
-        <v>1.549</v>
+        <v>1.12</v>
       </c>
       <c r="I72">
-        <v>1.157</v>
+        <v>0.475</v>
       </c>
       <c r="J72">
-        <v>2.997</v>
+        <v>0.819</v>
       </c>
       <c r="K72">
-        <v>1.106</v>
+        <v>0.478</v>
       </c>
       <c r="L72" t="s">
         <v>82</v>
@@ -3662,37 +3662,37 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B73">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>1.82</v>
+        <v>1.423</v>
       </c>
       <c r="D73">
-        <v>2.369</v>
+        <v>1.752</v>
       </c>
       <c r="E73">
-        <v>3.066</v>
+        <v>1.712</v>
       </c>
       <c r="F73">
-        <v>2.195</v>
+        <v>2.499</v>
       </c>
       <c r="G73">
-        <v>2.258</v>
+        <v>1.779</v>
       </c>
       <c r="H73">
-        <v>1.653</v>
+        <v>2.404</v>
       </c>
       <c r="I73">
-        <v>1.002</v>
+        <v>0.899</v>
       </c>
       <c r="J73">
-        <v>2.453</v>
+        <v>2.046</v>
       </c>
       <c r="K73">
-        <v>1.16</v>
+        <v>0.885</v>
       </c>
       <c r="L73" t="s">
         <v>83</v>
@@ -3700,37 +3700,37 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B74">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>1.667</v>
+        <v>2.09</v>
       </c>
       <c r="D74">
-        <v>2.151</v>
+        <v>2.44</v>
       </c>
       <c r="E74">
-        <v>2.762</v>
+        <v>2.612</v>
       </c>
       <c r="F74">
-        <v>1.825</v>
+        <v>3.151</v>
       </c>
       <c r="G74">
-        <v>1.745</v>
+        <v>2.463</v>
       </c>
       <c r="H74">
-        <v>1.419</v>
+        <v>2.048</v>
       </c>
       <c r="I74">
-        <v>0.639</v>
+        <v>1.189</v>
       </c>
       <c r="J74">
-        <v>1.934</v>
+        <v>2.837</v>
       </c>
       <c r="K74">
-        <v>0.966</v>
+        <v>0.991</v>
       </c>
       <c r="L74" t="s">
         <v>84</v>
@@ -3738,37 +3738,37 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B75">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C75">
-        <v>1.143</v>
+        <v>2.715</v>
       </c>
       <c r="D75">
-        <v>1.416</v>
+        <v>3.028</v>
       </c>
       <c r="E75">
-        <v>1.887</v>
+        <v>3.437</v>
       </c>
       <c r="F75">
-        <v>1.021</v>
+        <v>3.428</v>
       </c>
       <c r="G75">
-        <v>1.174</v>
+        <v>2.915</v>
       </c>
       <c r="H75">
-        <v>0.915</v>
+        <v>2.363</v>
       </c>
       <c r="I75">
-        <v>0.511</v>
+        <v>1.555</v>
       </c>
       <c r="J75">
-        <v>1.09</v>
+        <v>3.513</v>
       </c>
       <c r="K75">
-        <v>0.523</v>
+        <v>1.191</v>
       </c>
       <c r="L75" t="s">
         <v>85</v>
@@ -3776,37 +3776,37 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B76">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C76">
-        <v>0.544</v>
+        <v>2.991</v>
       </c>
       <c r="D76">
-        <v>0.6899999999999999</v>
+        <v>3.176</v>
       </c>
       <c r="E76">
-        <v>1.138</v>
+        <v>3.734</v>
       </c>
       <c r="F76">
-        <v>0.378</v>
+        <v>3.603</v>
       </c>
       <c r="G76">
-        <v>0.405</v>
+        <v>2.961</v>
       </c>
       <c r="H76">
-        <v>0.363</v>
+        <v>2.813</v>
       </c>
       <c r="I76">
-        <v>0.361</v>
+        <v>1.472</v>
       </c>
       <c r="J76">
-        <v>0.575</v>
+        <v>3.742</v>
       </c>
       <c r="K76">
-        <v>0.27</v>
+        <v>1.37</v>
       </c>
       <c r="L76" t="s">
         <v>86</v>
@@ -3814,37 +3814,37 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B77">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C77">
-        <v>0.123</v>
+        <v>2.978</v>
       </c>
       <c r="D77">
-        <v>0.15</v>
+        <v>3.138</v>
       </c>
       <c r="E77">
-        <v>0.356</v>
+        <v>3.714</v>
       </c>
       <c r="F77">
-        <v>0.06</v>
+        <v>3.589</v>
       </c>
       <c r="G77">
-        <v>0.09</v>
+        <v>2.959</v>
       </c>
       <c r="H77">
-        <v>0.097</v>
+        <v>2.039</v>
       </c>
       <c r="I77">
-        <v>0.064</v>
+        <v>1.513</v>
       </c>
       <c r="J77">
-        <v>0.48</v>
+        <v>3.529</v>
       </c>
       <c r="K77">
-        <v>0.116</v>
+        <v>1.384</v>
       </c>
       <c r="L77" t="s">
         <v>87</v>
@@ -3852,37 +3852,37 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B78">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>2.882</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>2.992</v>
       </c>
       <c r="E78">
-        <v>0.045</v>
+        <v>3.654</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>3.274</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>2.891</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>3.011</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1.494</v>
       </c>
       <c r="J78">
-        <v>0.222</v>
+        <v>3.337</v>
       </c>
       <c r="K78">
-        <v>0.037</v>
+        <v>1.272</v>
       </c>
       <c r="L78" t="s">
         <v>88</v>
@@ -3890,37 +3890,37 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B79">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>2.482</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>2.715</v>
       </c>
       <c r="E79">
-        <v>0.06900000000000001</v>
+        <v>3.346</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2.745</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>2.543</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1.382</v>
       </c>
       <c r="J79">
-        <v>0.124</v>
+        <v>3.057</v>
       </c>
       <c r="K79">
-        <v>0.037</v>
+        <v>1.044</v>
       </c>
       <c r="L79" t="s">
         <v>89</v>
@@ -3928,37 +3928,37 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B80">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1.872</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>2.112</v>
       </c>
       <c r="E80">
-        <v>0.112</v>
+        <v>2.475</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1.866</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1.707</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2.046</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1.022</v>
       </c>
       <c r="J80">
-        <v>0.124</v>
+        <v>2.237</v>
       </c>
       <c r="K80">
-        <v>0.037</v>
+        <v>0.773</v>
       </c>
       <c r="L80" t="s">
         <v>90</v>
@@ -3966,37 +3966,37 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2">
-        <v>45893</v>
+        <v>45921</v>
       </c>
       <c r="B81">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1.036</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1.267</v>
       </c>
       <c r="E81">
-        <v>0.32</v>
+        <v>1.341</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>0.891</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1.002</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>0.657</v>
       </c>
       <c r="J81">
-        <v>0.124</v>
+        <v>1.197</v>
       </c>
       <c r="K81">
-        <v>0.037</v>
+        <v>0.312</v>
       </c>
       <c r="L81" t="s">
         <v>91</v>
@@ -4004,37 +4004,37 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2">
-        <v>45894</v>
+        <v>45921</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.227</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="E82">
-        <v>0.094</v>
+        <v>0.47</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.168</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>0.402</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="J82">
-        <v>0.135</v>
+        <v>0.436</v>
       </c>
       <c r="K82">
-        <v>0.038</v>
+        <v>0.137</v>
       </c>
       <c r="L82" t="s">
         <v>92</v>
@@ -4042,10 +4042,10 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2">
-        <v>45894</v>
+        <v>45921</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -4054,25 +4054,25 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.106</v>
+        <v>0.026</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.135</v>
+        <v>0.213</v>
       </c>
       <c r="K83">
-        <v>0.032</v>
+        <v>0.011</v>
       </c>
       <c r="L83" t="s">
         <v>93</v>
@@ -4080,10 +4080,10 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2">
-        <v>45894</v>
+        <v>45921</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4092,25 +4092,25 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.135</v>
+        <v>0.075</v>
       </c>
       <c r="K84">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="L84" t="s">
         <v>94</v>
@@ -4118,10 +4118,10 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2">
-        <v>45894</v>
+        <v>45921</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4130,25 +4130,25 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.135</v>
+        <v>0.027</v>
       </c>
       <c r="K85">
-        <v>0.033</v>
+        <v>0.019</v>
       </c>
       <c r="L85" t="s">
         <v>95</v>
@@ -4156,10 +4156,10 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2">
-        <v>45894</v>
+        <v>45921</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4168,25 +4168,25 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.135</v>
+        <v>0.027</v>
       </c>
       <c r="K86">
-        <v>0.033</v>
+        <v>0.019</v>
       </c>
       <c r="L86" t="s">
         <v>96</v>
@@ -4194,10 +4194,10 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2">
-        <v>45894</v>
+        <v>45921</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4206,25 +4206,25 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0.048</v>
+        <v>0.018</v>
       </c>
       <c r="K87">
-        <v>0.033</v>
+        <v>0.013</v>
       </c>
       <c r="L87" t="s">
         <v>97</v>
@@ -4232,37 +4232,37 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0.01</v>
+      </c>
+      <c r="H88">
         <v>0.011</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0.111</v>
-      </c>
-      <c r="F88">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="G88">
-        <v>0.028</v>
-      </c>
-      <c r="H88">
-        <v>0.013</v>
-      </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0.15</v>
+        <v>0.016</v>
       </c>
       <c r="K88">
-        <v>0.052</v>
+        <v>0.014</v>
       </c>
       <c r="L88" t="s">
         <v>98</v>
@@ -4270,37 +4270,37 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>0.435</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.735</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>0.409</v>
+        <v>0.01</v>
       </c>
       <c r="H89">
-        <v>0.338</v>
+        <v>0.021</v>
       </c>
       <c r="I89">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>0.502</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>0.304</v>
+        <v>0.014</v>
       </c>
       <c r="L89" t="s">
         <v>99</v>
@@ -4308,37 +4308,37 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B90">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>1.085</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>1.296</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>1.973</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.834</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>1.457</v>
+        <v>0.01</v>
       </c>
       <c r="H90">
-        <v>0.864</v>
+        <v>0.021</v>
       </c>
       <c r="I90">
-        <v>0.591</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>1.368</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>0.774</v>
+        <v>0.015</v>
       </c>
       <c r="L90" t="s">
         <v>100</v>
@@ -4346,37 +4346,37 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>2.081</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>2.359</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>2.776</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>2.849</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>2.12</v>
+        <v>0.01</v>
       </c>
       <c r="H91">
-        <v>1.516</v>
+        <v>0.011</v>
       </c>
       <c r="I91">
-        <v>0.806</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>2.091</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>1.265</v>
+        <v>0.015</v>
       </c>
       <c r="L91" t="s">
         <v>101</v>
@@ -4384,37 +4384,37 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B92">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C92">
-        <v>2.486</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>3.016</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>3.559</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>2.701</v>
+        <v>0.01</v>
       </c>
       <c r="H92">
-        <v>1.842</v>
+        <v>0.011</v>
       </c>
       <c r="I92">
-        <v>1.282</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>3.045</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>1.411</v>
+        <v>0.015</v>
       </c>
       <c r="L92" t="s">
         <v>102</v>
@@ -4422,37 +4422,37 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B93">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C93">
-        <v>2.946</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>3.166</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>4.181</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>3.627</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>3.056</v>
+        <v>0.01</v>
       </c>
       <c r="H93">
-        <v>1.444</v>
+        <v>0.011</v>
       </c>
       <c r="I93">
-        <v>1.306</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>3.833</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>1.638</v>
+        <v>0.015</v>
       </c>
       <c r="L93" t="s">
         <v>103</v>
@@ -4460,37 +4460,37 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B94">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C94">
-        <v>3.112</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>3.357</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>3.946</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>3.857</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>3.268</v>
+        <v>0.01</v>
       </c>
       <c r="H94">
-        <v>1.458</v>
+        <v>0.012</v>
       </c>
       <c r="I94">
-        <v>1.396</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>3.168</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>1.554</v>
+        <v>0.015</v>
       </c>
       <c r="L94" t="s">
         <v>104</v>
@@ -4498,37 +4498,37 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B95">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C95">
-        <v>3.15</v>
+        <v>0.061</v>
       </c>
       <c r="D95">
-        <v>3.388</v>
+        <v>0.066</v>
       </c>
       <c r="E95">
-        <v>3.907</v>
+        <v>0.081</v>
       </c>
       <c r="F95">
-        <v>3.866</v>
+        <v>0.405</v>
       </c>
       <c r="G95">
-        <v>3.28</v>
+        <v>0.176</v>
       </c>
       <c r="H95">
-        <v>1.454</v>
+        <v>0.133</v>
       </c>
       <c r="I95">
-        <v>1.502</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J95">
-        <v>4.1</v>
+        <v>0.392</v>
       </c>
       <c r="K95">
-        <v>1.601</v>
+        <v>0.043</v>
       </c>
       <c r="L95" t="s">
         <v>105</v>
@@ -4536,37 +4536,37 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B96">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C96">
-        <v>3.008</v>
+        <v>0.632</v>
       </c>
       <c r="D96">
-        <v>3.315</v>
+        <v>0.768</v>
       </c>
       <c r="E96">
-        <v>3.96</v>
+        <v>0.672</v>
       </c>
       <c r="F96">
-        <v>3.61</v>
+        <v>1.667</v>
       </c>
       <c r="G96">
-        <v>3.123</v>
+        <v>0.83</v>
       </c>
       <c r="H96">
-        <v>1.454</v>
+        <v>1.255</v>
       </c>
       <c r="I96">
-        <v>1.502</v>
+        <v>0.47</v>
       </c>
       <c r="J96">
-        <v>3.93</v>
+        <v>0.826</v>
       </c>
       <c r="K96">
-        <v>1.478</v>
+        <v>0.478</v>
       </c>
       <c r="L96" t="s">
         <v>106</v>
@@ -4574,37 +4574,37 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B97">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>2.533</v>
+        <v>1.477</v>
       </c>
       <c r="D97">
-        <v>3.034</v>
+        <v>1.764</v>
       </c>
       <c r="E97">
-        <v>4.006</v>
+        <v>1.692</v>
       </c>
       <c r="F97">
-        <v>2.983</v>
+        <v>2.632</v>
       </c>
       <c r="G97">
-        <v>2.703</v>
+        <v>1.831</v>
       </c>
       <c r="H97">
-        <v>1.316</v>
+        <v>2.522</v>
       </c>
       <c r="I97">
-        <v>1.502</v>
+        <v>0.841</v>
       </c>
       <c r="J97">
-        <v>3.423</v>
+        <v>1.869</v>
       </c>
       <c r="K97">
-        <v>1.217</v>
+        <v>0.885</v>
       </c>
       <c r="L97" t="s">
         <v>107</v>
@@ -4612,37 +4612,37 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B98">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C98">
-        <v>2.127</v>
+        <v>2.107</v>
       </c>
       <c r="D98">
-        <v>2.483</v>
+        <v>2.547</v>
       </c>
       <c r="E98">
-        <v>3.507</v>
+        <v>2.684</v>
       </c>
       <c r="F98">
-        <v>2.086</v>
+        <v>3.366</v>
       </c>
       <c r="G98">
-        <v>2.132</v>
+        <v>2.545</v>
       </c>
       <c r="H98">
-        <v>1.481</v>
+        <v>2.833</v>
       </c>
       <c r="I98">
-        <v>1.341</v>
+        <v>1.2</v>
       </c>
       <c r="J98">
-        <v>2.567</v>
+        <v>2.523</v>
       </c>
       <c r="K98">
-        <v>0.875</v>
+        <v>1.069</v>
       </c>
       <c r="L98" t="s">
         <v>108</v>
@@ -4650,37 +4650,37 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B99">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C99">
-        <v>1.422</v>
+        <v>2.589</v>
       </c>
       <c r="D99">
-        <v>1.709</v>
+        <v>3.019</v>
       </c>
       <c r="E99">
-        <v>2.617</v>
+        <v>3.422</v>
       </c>
       <c r="F99">
-        <v>1.266</v>
+        <v>3.556</v>
       </c>
       <c r="G99">
-        <v>1.488</v>
+        <v>3.005</v>
       </c>
       <c r="H99">
-        <v>1.119</v>
+        <v>2.425</v>
       </c>
       <c r="I99">
-        <v>0.71</v>
+        <v>1.555</v>
       </c>
       <c r="J99">
-        <v>1.907</v>
+        <v>3.668</v>
       </c>
       <c r="K99">
-        <v>0.464</v>
+        <v>1.193</v>
       </c>
       <c r="L99" t="s">
         <v>109</v>
@@ -4688,37 +4688,37 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B100">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C100">
-        <v>0.583</v>
+        <v>2.967</v>
       </c>
       <c r="D100">
-        <v>0.748</v>
+        <v>3.108</v>
       </c>
       <c r="E100">
-        <v>1.419</v>
+        <v>3.761</v>
       </c>
       <c r="F100">
-        <v>0.371</v>
+        <v>3.862</v>
       </c>
       <c r="G100">
-        <v>0.536</v>
+        <v>3.143</v>
       </c>
       <c r="H100">
-        <v>0.635</v>
+        <v>2.425</v>
       </c>
       <c r="I100">
-        <v>0.516</v>
+        <v>1.555</v>
       </c>
       <c r="J100">
-        <v>0.967</v>
+        <v>3.749</v>
       </c>
       <c r="K100">
-        <v>0.307</v>
+        <v>1.484</v>
       </c>
       <c r="L100" t="s">
         <v>110</v>
@@ -4726,37 +4726,37 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B101">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C101">
-        <v>0.13</v>
+        <v>2.963</v>
       </c>
       <c r="D101">
-        <v>0.142</v>
+        <v>3.099</v>
       </c>
       <c r="E101">
-        <v>0.33</v>
+        <v>3.713</v>
       </c>
       <c r="F101">
-        <v>0.074</v>
+        <v>4.008</v>
       </c>
       <c r="G101">
-        <v>0.094</v>
+        <v>3.328</v>
       </c>
       <c r="H101">
-        <v>0.097</v>
+        <v>1.42</v>
       </c>
       <c r="I101">
-        <v>0.074</v>
+        <v>1.513</v>
       </c>
       <c r="J101">
-        <v>0.489</v>
+        <v>3.481</v>
       </c>
       <c r="K101">
-        <v>0.07099999999999999</v>
+        <v>1.476</v>
       </c>
       <c r="L101" t="s">
         <v>111</v>
@@ -4764,37 +4764,37 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B102">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>2.499</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="E102">
-        <v>0.065</v>
+        <v>3.697</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>3.683</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1.382</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1.494</v>
       </c>
       <c r="J102">
-        <v>0.219</v>
+        <v>3.384</v>
       </c>
       <c r="K102">
-        <v>0.037</v>
+        <v>1.302</v>
       </c>
       <c r="L102" t="s">
         <v>112</v>
@@ -4802,37 +4802,37 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B103">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>2.249</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>2.709</v>
       </c>
       <c r="E103">
-        <v>0.101</v>
+        <v>3.252</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>2.925</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2.734</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2.615</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1.333</v>
       </c>
       <c r="J103">
-        <v>0.141</v>
+        <v>2.994</v>
       </c>
       <c r="K103">
-        <v>0.036</v>
+        <v>1.077</v>
       </c>
       <c r="L103" t="s">
         <v>113</v>
@@ -4840,37 +4840,37 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B104">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1.859</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>2.061</v>
       </c>
       <c r="E104">
-        <v>0.106</v>
+        <v>2.425</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1.836</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1.851</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2.209</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J104">
-        <v>0.042</v>
+        <v>1.946</v>
       </c>
       <c r="K104">
-        <v>0.036</v>
+        <v>0.759</v>
       </c>
       <c r="L104" t="s">
         <v>114</v>
@@ -4878,37 +4878,37 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2">
-        <v>45894</v>
+        <v>45922</v>
       </c>
       <c r="B105">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>0.986</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1.235</v>
       </c>
       <c r="E105">
-        <v>0.101</v>
+        <v>1.337</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>0.718</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.888</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>0.995</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>0.455</v>
       </c>
       <c r="J105">
-        <v>0.028</v>
+        <v>1.122</v>
       </c>
       <c r="K105">
-        <v>0.018</v>
+        <v>0.302</v>
       </c>
       <c r="L105" t="s">
         <v>115</v>
@@ -4916,37 +4916,37 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2">
-        <v>45895</v>
+        <v>45922</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.226</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>0.322</v>
       </c>
       <c r="E106">
-        <v>0.103</v>
+        <v>0.464</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>0.241</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>0.328</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="J106">
-        <v>0.023</v>
+        <v>0.366</v>
       </c>
       <c r="K106">
-        <v>0.019</v>
+        <v>0.101</v>
       </c>
       <c r="L106" t="s">
         <v>116</v>
@@ -4954,25 +4954,25 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2">
-        <v>45895</v>
+        <v>45922</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0.09</v>
+        <v>0.024</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -4981,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0.023</v>
+        <v>0.213</v>
       </c>
       <c r="K107">
-        <v>0.038</v>
+        <v>0.012</v>
       </c>
       <c r="L107" t="s">
         <v>117</v>
@@ -4992,10 +4992,10 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2">
-        <v>45895</v>
+        <v>45922</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -5004,25 +5004,25 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.023</v>
+        <v>0.075</v>
       </c>
       <c r="K108">
-        <v>0.038</v>
+        <v>0.014</v>
       </c>
       <c r="L108" t="s">
         <v>118</v>
@@ -5030,10 +5030,10 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="2">
-        <v>45895</v>
+        <v>45922</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -5042,25 +5042,25 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="K109">
-        <v>0.038</v>
+        <v>0.02</v>
       </c>
       <c r="L109" t="s">
         <v>119</v>
@@ -5068,10 +5068,10 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="2">
-        <v>45895</v>
+        <v>45922</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5080,25 +5080,25 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="K110">
-        <v>0.038</v>
+        <v>0.014</v>
       </c>
       <c r="L110" t="s">
         <v>120</v>
@@ -5106,10 +5106,10 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="2">
-        <v>45895</v>
+        <v>45922</v>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5118,25 +5118,25 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0.048</v>
+        <v>0.02</v>
       </c>
       <c r="K111">
-        <v>0.038</v>
+        <v>0.014</v>
       </c>
       <c r="L111" t="s">
         <v>121</v>
@@ -5144,10 +5144,10 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B112">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -5156,25 +5156,25 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0.063</v>
+        <v>0.011</v>
       </c>
       <c r="F112">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0.147</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>0.057</v>
+        <v>0.015</v>
       </c>
       <c r="L112" t="s">
         <v>122</v>
@@ -5182,37 +5182,37 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C113">
-        <v>0.219</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>0.289</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>0.392</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.731</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>0.333</v>
+        <v>0.01</v>
       </c>
       <c r="H113">
-        <v>0.258</v>
+        <v>0.011</v>
       </c>
       <c r="I113">
-        <v>0.279</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>0.5580000000000001</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>0.235</v>
+        <v>0.015</v>
       </c>
       <c r="L113" t="s">
         <v>123</v>
@@ -5220,37 +5220,37 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B114">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>0.908</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>1.208</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>1.535</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.851</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>1.142</v>
+        <v>0.01</v>
       </c>
       <c r="H114">
-        <v>0.738</v>
+        <v>0.011</v>
       </c>
       <c r="I114">
-        <v>0.781</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>1.555</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>0.824</v>
+        <v>0.015</v>
       </c>
       <c r="L114" t="s">
         <v>124</v>
@@ -5258,37 +5258,37 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B115">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C115">
-        <v>1.715</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>2.049</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>2.586</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>2.679</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>2.102</v>
+        <v>0.01</v>
       </c>
       <c r="H115">
-        <v>1.353</v>
+        <v>0.011</v>
       </c>
       <c r="I115">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>2.065</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>1.119</v>
+        <v>0.015</v>
       </c>
       <c r="L115" t="s">
         <v>125</v>
@@ -5296,37 +5296,37 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B116">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C116">
-        <v>2.088</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>2.508</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>3.441</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>3.297</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>2.706</v>
+        <v>0.01</v>
       </c>
       <c r="H116">
-        <v>1.798</v>
+        <v>0.021</v>
       </c>
       <c r="I116">
-        <v>1.387</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>2.803</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>1.423</v>
+        <v>0.015</v>
       </c>
       <c r="L116" t="s">
         <v>126</v>
@@ -5334,37 +5334,37 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B117">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C117">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>2.989</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>3.732</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>3.624</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>2.99</v>
+        <v>0.01</v>
       </c>
       <c r="H117">
-        <v>1.514</v>
+        <v>0.011</v>
       </c>
       <c r="I117">
-        <v>1.396</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>3.348</v>
+        <v>0</v>
       </c>
       <c r="K117">
-        <v>1.588</v>
+        <v>0.015</v>
       </c>
       <c r="L117" t="s">
         <v>127</v>
@@ -5372,37 +5372,37 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B118">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C118">
-        <v>2.662</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>3.177</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>3.726</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>3.702</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>3.157</v>
+        <v>0.01</v>
       </c>
       <c r="H118">
-        <v>1.426</v>
+        <v>0.011</v>
       </c>
       <c r="I118">
-        <v>1.306</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>3.583</v>
+        <v>0</v>
       </c>
       <c r="K118">
-        <v>1.654</v>
+        <v>0.015</v>
       </c>
       <c r="L118" t="s">
         <v>128</v>
@@ -5410,37 +5410,37 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B119">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C119">
-        <v>2.757</v>
+        <v>0.052</v>
       </c>
       <c r="D119">
-        <v>3.16</v>
+        <v>0.066</v>
       </c>
       <c r="E119">
-        <v>3.513</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="F119">
-        <v>3.656</v>
+        <v>0.333</v>
       </c>
       <c r="G119">
-        <v>3.164</v>
+        <v>0.148</v>
       </c>
       <c r="H119">
-        <v>1.557</v>
+        <v>0.107</v>
       </c>
       <c r="I119">
-        <v>1.28</v>
+        <v>0.064</v>
       </c>
       <c r="J119">
-        <v>3.62</v>
+        <v>0.347</v>
       </c>
       <c r="K119">
-        <v>1.475</v>
+        <v>0.039</v>
       </c>
       <c r="L119" t="s">
         <v>129</v>
@@ -5448,37 +5448,37 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B120">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C120">
-        <v>2.663</v>
+        <v>0.614</v>
       </c>
       <c r="D120">
-        <v>3.051</v>
+        <v>0.756</v>
       </c>
       <c r="E120">
-        <v>3.738</v>
+        <v>0.622</v>
       </c>
       <c r="F120">
-        <v>3.969</v>
+        <v>1.513</v>
       </c>
       <c r="G120">
-        <v>3.4</v>
+        <v>0.89</v>
       </c>
       <c r="H120">
-        <v>1.603</v>
+        <v>1.227</v>
       </c>
       <c r="I120">
-        <v>1.558</v>
+        <v>0.447</v>
       </c>
       <c r="J120">
-        <v>3.62</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="K120">
-        <v>1.38</v>
+        <v>0.461</v>
       </c>
       <c r="L120" t="s">
         <v>130</v>
@@ -5486,37 +5486,37 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B121">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C121">
-        <v>2.248</v>
+        <v>1.431</v>
       </c>
       <c r="D121">
-        <v>2.794</v>
+        <v>1.712</v>
       </c>
       <c r="E121">
-        <v>3.831</v>
+        <v>1.606</v>
       </c>
       <c r="F121">
-        <v>3.327</v>
+        <v>2.39</v>
       </c>
       <c r="G121">
-        <v>3.003</v>
+        <v>1.717</v>
       </c>
       <c r="H121">
-        <v>1.587</v>
+        <v>2.157</v>
       </c>
       <c r="I121">
-        <v>1.558</v>
+        <v>0.726</v>
       </c>
       <c r="J121">
-        <v>3.448</v>
+        <v>1.66</v>
       </c>
       <c r="K121">
-        <v>1.282</v>
+        <v>0.801</v>
       </c>
       <c r="L121" t="s">
         <v>131</v>
@@ -5524,37 +5524,37 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B122">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C122">
-        <v>1.958</v>
+        <v>2.086</v>
       </c>
       <c r="D122">
-        <v>2.322</v>
+        <v>2.487</v>
       </c>
       <c r="E122">
-        <v>3.398</v>
+        <v>2.674</v>
       </c>
       <c r="F122">
-        <v>2.306</v>
+        <v>2.902</v>
       </c>
       <c r="G122">
-        <v>2.363</v>
+        <v>2.177</v>
       </c>
       <c r="H122">
-        <v>1.706</v>
+        <v>2.753</v>
       </c>
       <c r="I122">
-        <v>1.411</v>
+        <v>1.022</v>
       </c>
       <c r="J122">
-        <v>2.552</v>
+        <v>2.343</v>
       </c>
       <c r="K122">
-        <v>0.931</v>
+        <v>1.134</v>
       </c>
       <c r="L122" t="s">
         <v>132</v>
@@ -5562,37 +5562,37 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B123">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C123">
-        <v>1.33</v>
+        <v>2.58</v>
       </c>
       <c r="D123">
-        <v>1.649</v>
+        <v>2.893</v>
       </c>
       <c r="E123">
-        <v>2.474</v>
+        <v>3.438</v>
       </c>
       <c r="F123">
-        <v>1.38</v>
+        <v>3.237</v>
       </c>
       <c r="G123">
-        <v>1.499</v>
+        <v>2.812</v>
       </c>
       <c r="H123">
-        <v>1.235</v>
+        <v>2.33</v>
       </c>
       <c r="I123">
-        <v>0.547</v>
+        <v>1.443</v>
       </c>
       <c r="J123">
-        <v>1.963</v>
+        <v>3.088</v>
       </c>
       <c r="K123">
-        <v>0.597</v>
+        <v>1.314</v>
       </c>
       <c r="L123" t="s">
         <v>133</v>
@@ -5600,37 +5600,37 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B124">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C124">
-        <v>0.639</v>
+        <v>2.913</v>
       </c>
       <c r="D124">
-        <v>0.827</v>
+        <v>3.043</v>
       </c>
       <c r="E124">
-        <v>1.325</v>
+        <v>3.746</v>
       </c>
       <c r="F124">
-        <v>0.414</v>
+        <v>3.509</v>
       </c>
       <c r="G124">
-        <v>0.697</v>
+        <v>3.003</v>
       </c>
       <c r="H124">
-        <v>0.776</v>
+        <v>2.995</v>
       </c>
       <c r="I124">
-        <v>0.462</v>
+        <v>1.472</v>
       </c>
       <c r="J124">
-        <v>0.983</v>
+        <v>3.53</v>
       </c>
       <c r="K124">
-        <v>0.336</v>
+        <v>1.516</v>
       </c>
       <c r="L124" t="s">
         <v>134</v>
@@ -5638,37 +5638,37 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B125">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C125">
-        <v>0.142</v>
+        <v>2.941</v>
       </c>
       <c r="D125">
-        <v>0.158</v>
+        <v>3.052</v>
       </c>
       <c r="E125">
-        <v>0.364</v>
+        <v>3.74</v>
       </c>
       <c r="F125">
-        <v>0.107</v>
+        <v>3.675</v>
       </c>
       <c r="G125">
-        <v>0.122</v>
+        <v>3.038</v>
       </c>
       <c r="H125">
-        <v>0.152</v>
+        <v>1.418</v>
       </c>
       <c r="I125">
-        <v>0.074</v>
+        <v>1.494</v>
       </c>
       <c r="J125">
-        <v>0.544</v>
+        <v>3.322</v>
       </c>
       <c r="K125">
-        <v>0.096</v>
+        <v>1.462</v>
       </c>
       <c r="L125" t="s">
         <v>135</v>
@@ -5676,37 +5676,37 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B126">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>2.451</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>2.962</v>
       </c>
       <c r="E126">
-        <v>0.027</v>
+        <v>3.526</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>3.058</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1.573</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1.494</v>
       </c>
       <c r="J126">
-        <v>0.219</v>
+        <v>3.258</v>
       </c>
       <c r="K126">
-        <v>0.036</v>
+        <v>1.215</v>
       </c>
       <c r="L126" t="s">
         <v>136</v>
@@ -5714,37 +5714,37 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B127">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>2.232</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="E127">
-        <v>0.054</v>
+        <v>3.071</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>2.887</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>2.732</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2.383</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1.333</v>
       </c>
       <c r="J127">
-        <v>0.124</v>
+        <v>2.881</v>
       </c>
       <c r="K127">
-        <v>0.036</v>
+        <v>0.947</v>
       </c>
       <c r="L127" t="s">
         <v>137</v>
@@ -5752,37 +5752,37 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B128">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1.737</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>1.944</v>
       </c>
       <c r="E128">
-        <v>0.06900000000000001</v>
+        <v>2.22</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1.785</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>1.809</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1.891</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>0.924</v>
       </c>
       <c r="J128">
-        <v>0.124</v>
+        <v>2.009</v>
       </c>
       <c r="K128">
-        <v>0.018</v>
+        <v>0.663</v>
       </c>
       <c r="L128" t="s">
         <v>138</v>
@@ -5790,37 +5790,37 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="2">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="B129">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>0.902</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1.178</v>
       </c>
       <c r="E129">
-        <v>0.056</v>
+        <v>1.32</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>0.681</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>0.901</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1.008</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>0.455</v>
       </c>
       <c r="J129">
-        <v>0.124</v>
+        <v>1.021</v>
       </c>
       <c r="K129">
-        <v>0.037</v>
+        <v>0.274</v>
       </c>
       <c r="L129" t="s">
         <v>139</v>
@@ -5828,37 +5828,37 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="2">
-        <v>45896</v>
+        <v>45923</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>0.184</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>0.252</v>
       </c>
       <c r="E130">
-        <v>0.083</v>
+        <v>0.348</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>0.277</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="J130">
-        <v>0.135</v>
+        <v>0.338</v>
       </c>
       <c r="K130">
-        <v>0.038</v>
+        <v>0.113</v>
       </c>
       <c r="L130" t="s">
         <v>140</v>
@@ -5866,10 +5866,10 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="2">
-        <v>45896</v>
+        <v>45923</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5878,25 +5878,25 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0.135</v>
+        <v>0.205</v>
       </c>
       <c r="K131">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="L131" t="s">
         <v>141</v>
@@ -5904,10 +5904,10 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="2">
-        <v>45896</v>
+        <v>45923</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5916,25 +5916,25 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0.114</v>
+        <v>0.022</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0.135</v>
+        <v>0.075</v>
       </c>
       <c r="K132">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="L132" t="s">
         <v>142</v>
@@ -5942,10 +5942,10 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="2">
-        <v>45896</v>
+        <v>45923</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5954,25 +5954,25 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0.135</v>
+        <v>0.022</v>
       </c>
       <c r="K133">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="L133" t="s">
         <v>143</v>
@@ -5980,10 +5980,10 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="2">
-        <v>45896</v>
+        <v>45923</v>
       </c>
       <c r="B134">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5992,25 +5992,25 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0.135</v>
+        <v>0.022</v>
       </c>
       <c r="K134">
-        <v>0.038</v>
+        <v>0.019</v>
       </c>
       <c r="L134" t="s">
         <v>144</v>
@@ -6018,10 +6018,10 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="2">
-        <v>45896</v>
+        <v>45923</v>
       </c>
       <c r="B135">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -6030,25 +6030,25 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135">
-        <v>0.135</v>
+        <v>0.027</v>
       </c>
       <c r="K135">
-        <v>0.038</v>
+        <v>0.019</v>
       </c>
       <c r="L135" t="s">
         <v>145</v>
@@ -6056,10 +6056,10 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B136">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -6068,25 +6068,25 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0.06900000000000001</v>
+        <v>0.011</v>
       </c>
       <c r="F136">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H136">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="I136">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>0.15</v>
+        <v>0.025</v>
       </c>
       <c r="K136">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="L136" t="s">
         <v>146</v>
@@ -6094,37 +6094,37 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B137">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C137">
-        <v>0.198</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>0.204</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>0.354</v>
+        <v>0.01</v>
       </c>
       <c r="F137">
-        <v>0.658</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>0.337</v>
+        <v>0.01</v>
       </c>
       <c r="H137">
-        <v>0.338</v>
+        <v>0.013</v>
       </c>
       <c r="I137">
-        <v>0.328</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>0.5580000000000001</v>
+        <v>0.016</v>
       </c>
       <c r="K137">
-        <v>0.169</v>
+        <v>0</v>
       </c>
       <c r="L137" t="s">
         <v>147</v>
@@ -6132,37 +6132,37 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B138">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>0.736</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>0.8169999999999999</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>1.069</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.685</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>1.019</v>
+        <v>0.01</v>
       </c>
       <c r="H138">
-        <v>0.833</v>
+        <v>0.011</v>
       </c>
       <c r="I138">
-        <v>0.604</v>
+        <v>0</v>
       </c>
       <c r="J138">
-        <v>1.561</v>
+        <v>0</v>
       </c>
       <c r="K138">
-        <v>0.496</v>
+        <v>0.021</v>
       </c>
       <c r="L138" t="s">
         <v>148</v>
@@ -6170,37 +6170,37 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B139">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C139">
-        <v>1.146</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>1.451</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>2.012</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>2.366</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>1.864</v>
+        <v>0.01</v>
       </c>
       <c r="H139">
-        <v>1.466</v>
+        <v>0.011</v>
       </c>
       <c r="I139">
-        <v>1.115</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>2.065</v>
+        <v>0</v>
       </c>
       <c r="K139">
-        <v>0.978</v>
+        <v>0.015</v>
       </c>
       <c r="L139" t="s">
         <v>149</v>
@@ -6208,37 +6208,37 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B140">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C140">
-        <v>1.586</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>2.001</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>2.83</v>
+        <v>0.012</v>
       </c>
       <c r="F140">
-        <v>2.912</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>2.388</v>
+        <v>0.01</v>
       </c>
       <c r="H140">
-        <v>1.705</v>
+        <v>0.011</v>
       </c>
       <c r="I140">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>2.803</v>
+        <v>0</v>
       </c>
       <c r="K140">
-        <v>1.058</v>
+        <v>0.015</v>
       </c>
       <c r="L140" t="s">
         <v>150</v>
@@ -6246,37 +6246,37 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B141">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C141">
-        <v>1.702</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>2.359</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>3.266</v>
+        <v>0.011</v>
       </c>
       <c r="F141">
-        <v>2.945</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>2.68</v>
+        <v>0.01</v>
       </c>
       <c r="H141">
-        <v>1.549</v>
+        <v>0.011</v>
       </c>
       <c r="I141">
-        <v>1.558</v>
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>3.348</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>1.157</v>
+        <v>0.015</v>
       </c>
       <c r="L141" t="s">
         <v>151</v>
@@ -6284,37 +6284,37 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B142">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C142">
-        <v>1.736</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>2.446</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>3.738</v>
+        <v>0.012</v>
       </c>
       <c r="F142">
-        <v>3.234</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>2.812</v>
+        <v>0.01</v>
       </c>
       <c r="H142">
-        <v>1.615</v>
+        <v>0.011</v>
       </c>
       <c r="I142">
-        <v>1.558</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>3.468</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>1.123</v>
+        <v>0.015</v>
       </c>
       <c r="L142" t="s">
         <v>152</v>
@@ -6322,37 +6322,37 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B143">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C143">
-        <v>1.775</v>
+        <v>0.044</v>
       </c>
       <c r="D143">
-        <v>2.454</v>
+        <v>0.044</v>
       </c>
       <c r="E143">
-        <v>3.717</v>
+        <v>0.074</v>
       </c>
       <c r="F143">
-        <v>3.235</v>
+        <v>0.325</v>
       </c>
       <c r="G143">
-        <v>2.915</v>
+        <v>0.144</v>
       </c>
       <c r="H143">
-        <v>1.564</v>
+        <v>0.108</v>
       </c>
       <c r="I143">
-        <v>1.56</v>
+        <v>0.064</v>
       </c>
       <c r="J143">
-        <v>3.62</v>
+        <v>0.354</v>
       </c>
       <c r="K143">
-        <v>1.23</v>
+        <v>0.045</v>
       </c>
       <c r="L143" t="s">
         <v>153</v>
@@ -6360,37 +6360,37 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B144">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C144">
-        <v>1.78</v>
+        <v>0.516</v>
       </c>
       <c r="D144">
-        <v>2.312</v>
+        <v>0.638</v>
       </c>
       <c r="E144">
-        <v>3.675</v>
+        <v>0.623</v>
       </c>
       <c r="F144">
-        <v>3.175</v>
+        <v>1.387</v>
       </c>
       <c r="G144">
-        <v>2.757</v>
+        <v>0.891</v>
       </c>
       <c r="H144">
-        <v>1.603</v>
+        <v>1.363</v>
       </c>
       <c r="I144">
-        <v>1.56</v>
+        <v>0.426</v>
       </c>
       <c r="J144">
-        <v>3.311</v>
+        <v>0.956</v>
       </c>
       <c r="K144">
-        <v>1.23</v>
+        <v>0.348</v>
       </c>
       <c r="L144" t="s">
         <v>154</v>
@@ -6398,37 +6398,37 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B145">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C145">
-        <v>1.647</v>
+        <v>1.175</v>
       </c>
       <c r="D145">
-        <v>2.143</v>
+        <v>1.532</v>
       </c>
       <c r="E145">
-        <v>3.579</v>
+        <v>1.639</v>
       </c>
       <c r="F145">
-        <v>2.533</v>
+        <v>2.537</v>
       </c>
       <c r="G145">
-        <v>2.514</v>
+        <v>1.826</v>
       </c>
       <c r="H145">
-        <v>1.574</v>
+        <v>2.413</v>
       </c>
       <c r="I145">
-        <v>1.555</v>
+        <v>0.869</v>
       </c>
       <c r="J145">
-        <v>3.192</v>
+        <v>2.002</v>
       </c>
       <c r="K145">
-        <v>1.152</v>
+        <v>0.829</v>
       </c>
       <c r="L145" t="s">
         <v>155</v>
@@ -6436,37 +6436,37 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B146">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C146">
-        <v>1.464</v>
+        <v>1.928</v>
       </c>
       <c r="D146">
-        <v>1.718</v>
+        <v>2.285</v>
       </c>
       <c r="E146">
-        <v>2.71</v>
+        <v>2.644</v>
       </c>
       <c r="F146">
-        <v>1.872</v>
+        <v>3.281</v>
       </c>
       <c r="G146">
-        <v>2.037</v>
+        <v>2.634</v>
       </c>
       <c r="H146">
-        <v>1.609</v>
+        <v>2.377</v>
       </c>
       <c r="I146">
-        <v>1.438</v>
+        <v>1.154</v>
       </c>
       <c r="J146">
-        <v>2.402</v>
+        <v>2.762</v>
       </c>
       <c r="K146">
-        <v>0.904</v>
+        <v>1.121</v>
       </c>
       <c r="L146" t="s">
         <v>156</v>
@@ -6474,37 +6474,37 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B147">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C147">
-        <v>0.96</v>
+        <v>2.336</v>
       </c>
       <c r="D147">
-        <v>1.117</v>
+        <v>2.633</v>
       </c>
       <c r="E147">
-        <v>1.843</v>
+        <v>3.476</v>
       </c>
       <c r="F147">
-        <v>1.241</v>
+        <v>3.7</v>
       </c>
       <c r="G147">
-        <v>1.404</v>
+        <v>3.185</v>
       </c>
       <c r="H147">
-        <v>1.138</v>
+        <v>2.657</v>
       </c>
       <c r="I147">
-        <v>0.6879999999999999</v>
+        <v>1.437</v>
       </c>
       <c r="J147">
-        <v>1.873</v>
+        <v>3.591</v>
       </c>
       <c r="K147">
-        <v>0.504</v>
+        <v>1.353</v>
       </c>
       <c r="L147" t="s">
         <v>157</v>
@@ -6512,37 +6512,37 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B148">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C148">
-        <v>0.427</v>
+        <v>2.604</v>
       </c>
       <c r="D148">
-        <v>0.516</v>
+        <v>2.894</v>
       </c>
       <c r="E148">
-        <v>0.908</v>
+        <v>3.658</v>
       </c>
       <c r="F148">
-        <v>0.414</v>
+        <v>3.989</v>
       </c>
       <c r="G148">
-        <v>0.639</v>
+        <v>3.289</v>
       </c>
       <c r="H148">
-        <v>0.655</v>
+        <v>1.749</v>
       </c>
       <c r="I148">
-        <v>0.448</v>
+        <v>1.437</v>
       </c>
       <c r="J148">
-        <v>0.9370000000000001</v>
+        <v>3.551</v>
       </c>
       <c r="K148">
-        <v>0.216</v>
+        <v>1.495</v>
       </c>
       <c r="L148" t="s">
         <v>158</v>
@@ -6550,37 +6550,37 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B149">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C149">
-        <v>0.08</v>
+        <v>2.682</v>
       </c>
       <c r="D149">
-        <v>0.108</v>
+        <v>2.892</v>
       </c>
       <c r="E149">
-        <v>0.256</v>
+        <v>3.673</v>
       </c>
       <c r="F149">
-        <v>0.089</v>
+        <v>3.943</v>
       </c>
       <c r="G149">
-        <v>0.12</v>
+        <v>3.289</v>
       </c>
       <c r="H149">
-        <v>0.097</v>
+        <v>1.751</v>
       </c>
       <c r="I149">
-        <v>0.064</v>
+        <v>1.494</v>
       </c>
       <c r="J149">
-        <v>0.483</v>
+        <v>3.414</v>
       </c>
       <c r="K149">
-        <v>0</v>
+        <v>1.418</v>
       </c>
       <c r="L149" t="s">
         <v>159</v>
@@ -6588,37 +6588,37 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B150">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>2.575</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>2.863</v>
       </c>
       <c r="E150">
-        <v>0.067</v>
+        <v>3.564</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>3.565</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>3.144</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2.966</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1.494</v>
       </c>
       <c r="J150">
-        <v>0.225</v>
+        <v>3.345</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>1.141</v>
       </c>
       <c r="L150" t="s">
         <v>160</v>
@@ -6626,37 +6626,37 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B151">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>2.515</v>
       </c>
       <c r="E151">
-        <v>0.05</v>
+        <v>3.259</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>2.696</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>2.588</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>3.606</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1.091</v>
       </c>
       <c r="J151">
-        <v>0.124</v>
+        <v>2.968</v>
       </c>
       <c r="K151">
-        <v>0.018</v>
+        <v>0.987</v>
       </c>
       <c r="L151" t="s">
         <v>161</v>
@@ -6664,37 +6664,37 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B152">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>1.532</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1.734</v>
       </c>
       <c r="E152">
-        <v>0.052</v>
+        <v>2.367</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1.729</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>1.726</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="J152">
-        <v>0.124</v>
+        <v>1.815</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>0.645</v>
       </c>
       <c r="L152" t="s">
         <v>162</v>
@@ -6702,37 +6702,37 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="2">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="B153">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>0.733</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>0.876</v>
       </c>
       <c r="E153">
-        <v>0.063</v>
+        <v>1.436</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>0.579</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>0.412</v>
       </c>
       <c r="J153">
-        <v>0.124</v>
+        <v>1.005</v>
       </c>
       <c r="K153">
-        <v>0.019</v>
+        <v>0.272</v>
       </c>
       <c r="L153" t="s">
         <v>163</v>
@@ -6740,37 +6740,37 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="2">
-        <v>45897</v>
+        <v>45924</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="E154">
-        <v>0.1</v>
+        <v>0.397</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>0.308</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="J154">
-        <v>0.135</v>
+        <v>0.289</v>
       </c>
       <c r="K154">
-        <v>0.02</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="L154" t="s">
         <v>164</v>
@@ -6778,10 +6778,10 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="2">
-        <v>45897</v>
+        <v>45924</v>
       </c>
       <c r="B155">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -6790,25 +6790,25 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="I155">
         <v>0</v>
       </c>
       <c r="J155">
-        <v>0.135</v>
+        <v>0.066</v>
       </c>
       <c r="K155">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L155" t="s">
         <v>165</v>
@@ -6816,10 +6816,10 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="2">
-        <v>45897</v>
+        <v>45924</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6828,25 +6828,25 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0.115</v>
+        <v>0.016</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156">
-        <v>0.135</v>
+        <v>0.066</v>
       </c>
       <c r="K156">
-        <v>0.02</v>
+        <v>0.013</v>
       </c>
       <c r="L156" t="s">
         <v>166</v>
@@ -6854,10 +6854,10 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="2">
-        <v>45897</v>
+        <v>45924</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -6866,25 +6866,25 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157">
-        <v>0.135</v>
+        <v>0.013</v>
       </c>
       <c r="K157">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L157" t="s">
         <v>167</v>
@@ -6892,10 +6892,10 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="2">
-        <v>45897</v>
+        <v>45924</v>
       </c>
       <c r="B158">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -6904,25 +6904,25 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0.048</v>
+        <v>0.022</v>
       </c>
       <c r="K158">
-        <v>0.02</v>
+        <v>0.013</v>
       </c>
       <c r="L158" t="s">
         <v>168</v>
@@ -6930,10 +6930,10 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="2">
-        <v>45897</v>
+        <v>45924</v>
       </c>
       <c r="B159">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6942,25 +6942,25 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0.048</v>
+        <v>0.022</v>
       </c>
       <c r="K159">
-        <v>0.02</v>
+        <v>0.013</v>
       </c>
       <c r="L159" t="s">
         <v>169</v>
@@ -6968,10 +6968,10 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="2">
-        <v>45897</v>
+        <v>45925</v>
       </c>
       <c r="B160">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -6980,13 +6980,13 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0.136</v>
+        <v>0.01</v>
       </c>
       <c r="F160">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -6995,10 +6995,10 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0.15</v>
+        <v>0.019</v>
       </c>
       <c r="K160">
-        <v>0.044</v>
+        <v>0.014</v>
       </c>
       <c r="L160" t="s">
         <v>170</v>
@@ -7006,37 +7006,37 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="2">
-        <v>45897</v>
+        <v>45925</v>
       </c>
       <c r="B161">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C161">
-        <v>0.224</v>
+        <v>0</v>
       </c>
       <c r="D161">
-        <v>0.288</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>0.368</v>
+        <v>0.016</v>
       </c>
       <c r="F161">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>0.372</v>
+        <v>0.01</v>
       </c>
       <c r="H161">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="J161">
-        <v>0.538</v>
+        <v>0.019</v>
       </c>
       <c r="K161">
-        <v>0.094</v>
+        <v>0.014</v>
       </c>
       <c r="L161" t="s">
         <v>171</v>
@@ -7044,37 +7044,37 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="2">
-        <v>45897</v>
+        <v>45925</v>
       </c>
       <c r="B162">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C162">
-        <v>0.907</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>1.108</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>1.429</v>
+        <v>0.016</v>
       </c>
       <c r="F162">
-        <v>1.722</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>1.226</v>
+        <v>0.01</v>
       </c>
       <c r="H162">
-        <v>0.523</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>0.738</v>
+        <v>0</v>
       </c>
       <c r="J162">
-        <v>1.376</v>
+        <v>0.019</v>
       </c>
       <c r="K162">
-        <v>0.505</v>
+        <v>0.014</v>
       </c>
       <c r="L162" t="s">
         <v>172</v>
@@ -7082,37 +7082,37 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="2">
-        <v>45897</v>
+        <v>45925</v>
       </c>
       <c r="B163">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C163">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>1.992</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>2.413</v>
+        <v>0.015</v>
       </c>
       <c r="F163">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>2.04</v>
+        <v>0.01</v>
       </c>
       <c r="H163">
-        <v>0.898</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1.067</v>
+        <v>0</v>
       </c>
       <c r="J163">
-        <v>2.194</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K163">
-        <v>0.904</v>
+        <v>0.014</v>
       </c>
       <c r="L163" t="s">
         <v>173</v>
@@ -7120,37 +7120,37 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="2">
-        <v>45897</v>
+        <v>45925</v>
       </c>
       <c r="B164">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C164">
-        <v>2.218</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>3.276</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>3.033</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>2.531</v>
+        <v>0.01</v>
       </c>
       <c r="H164">
-        <v>1.195</v>
+        <v>0.011</v>
       </c>
       <c r="I164">
-        <v>1.417</v>
+        <v>0</v>
       </c>
       <c r="J164">
-        <v>2.779</v>
+        <v>0.029</v>
       </c>
       <c r="K164">
-        <v>1.009</v>
+        <v>0.014</v>
       </c>
       <c r="L164" t="s">
         <v>174</v>
@@ -7158,37 +7158,37 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="2">
-        <v>45897</v>
+        <v>45925</v>
       </c>
       <c r="B165">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C165">
-        <v>2.436</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>2.816</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>3.453</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>3.243</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>2.839</v>
+        <v>0.01</v>
       </c>
       <c r="H165">
-        <v>1.581</v>
+        <v>0.011</v>
       </c>
       <c r="I165">
-        <v>1.445</v>
+        <v>0</v>
       </c>
       <c r="J165">
-        <v>3.066</v>
+        <v>0.013</v>
       </c>
       <c r="K165">
-        <v>1.101</v>
+        <v>0.014</v>
       </c>
       <c r="L165" t="s">
         <v>175</v>
@@ -7196,37 +7196,37 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="2">
-        <v>45897</v>
+        <v>45925</v>
       </c>
       <c r="B166">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C166">
-        <v>2.754</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>3.079</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>3.521</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>3.368</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>3.035</v>
+        <v>0.01</v>
       </c>
       <c r="H166">
-        <v>1.785</v>
+        <v>0.012</v>
       </c>
       <c r="I166">
-        <v>1.445</v>
+        <v>0</v>
       </c>
       <c r="J166">
-        <v>3.348</v>
+        <v>0.013</v>
       </c>
       <c r="K166">
-        <v>1.328</v>
+        <v>0.014</v>
       </c>
       <c r="L166" t="s">
         <v>176</v>
@@ -7234,37 +7234,37 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="2">
-        <v>45897</v>
+        <v>45925</v>
       </c>
       <c r="B167">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C167">
-        <v>2.787</v>
+        <v>0.01</v>
       </c>
       <c r="D167">
-        <v>3.16</v>
+        <v>0.01</v>
       </c>
       <c r="E167">
-        <v>3.726</v>
+        <v>0.019</v>
       </c>
       <c r="F167">
-        <v>3.332</v>
+        <v>0.174</v>
       </c>
       <c r="G167">
-        <v>3.091</v>
+        <v>0.076</v>
       </c>
       <c r="H167">
-        <v>1.733</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="I167">
-        <v>1.502</v>
+        <v>0.044</v>
       </c>
       <c r="J167">
-        <v>3.496</v>
+        <v>0.525</v>
       </c>
       <c r="K167">
-        <v>1.414</v>
+        <v>0.038</v>
       </c>
       <c r="L167" t="s">
         <v>177</v>
@@ -7272,37 +7272,37 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="2">
-        <v>45897</v>
+        <v>45925</v>
       </c>
       <c r="B168">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C168">
-        <v>2.694</v>
+        <v>0.159</v>
       </c>
       <c r="D168">
-        <v>3.032</v>
+        <v>0.157</v>
       </c>
       <c r="E168">
-        <v>3.745</v>
+        <v>0.37</v>
       </c>
       <c r="F168">
-        <v>3.228</v>
+        <v>0.859</v>
       </c>
       <c r="G168">
-        <v>2.957</v>
+        <v>0.499</v>
       </c>
       <c r="H168">
-        <v>1.595</v>
+        <v>0.634</v>
       </c>
       <c r="I168">
-        <v>1.506</v>
+        <v>0.293</v>
       </c>
       <c r="J168">
-        <v>3.38</v>
+        <v>0.594</v>
       </c>
       <c r="K168">
-        <v>1.364</v>
+        <v>0.169</v>
       </c>
       <c r="L168" t="s">
         <v>178</v>
@@ -7310,37 +7310,37 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="2">
-        <v>45897</v>
+        <v>45925</v>
       </c>
       <c r="B169">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C169">
-        <v>2.269</v>
+        <v>0.4</v>
       </c>
       <c r="D169">
-        <v>2.847</v>
+        <v>0.466</v>
       </c>
       <c r="E169">
-        <v>3.568</v>
+        <v>0.917</v>
       </c>
       <c r="F169">
-        <v>2.736</v>
+        <v>1.4</v>
       </c>
       <c r="G169">
-        <v>2.65</v>
+        <v>0.923</v>
       </c>
       <c r="H169">
-        <v>1.699</v>
+        <v>1.203</v>
       </c>
       <c r="I169">
-        <v>1.506</v>
+        <v>0.603</v>
       </c>
       <c r="J169">
-        <v>2.997</v>
+        <v>0.951</v>
       </c>
       <c r="K169">
-        <v>1.23</v>
+        <v>0.481</v>
       </c>
       <c r="L169" t="s">
         <v>179</v>
@@ -7348,37 +7348,37 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="2">
-        <v>45897</v>
+        <v>45925</v>
       </c>
       <c r="B170">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C170">
-        <v>1.968</v>
+        <v>0.633</v>
       </c>
       <c r="D170">
-        <v>2.302</v>
+        <v>0.698</v>
       </c>
       <c r="E170">
-        <v>3.393</v>
+        <v>1.534</v>
       </c>
       <c r="F170">
-        <v>1.974</v>
+        <v>2.183</v>
       </c>
       <c r="G170">
-        <v>1.989</v>
+        <v>1.638</v>
       </c>
       <c r="H170">
-        <v>1.508</v>
+        <v>1.783</v>
       </c>
       <c r="I170">
-        <v>1.346</v>
+        <v>0.828</v>
       </c>
       <c r="J170">
-        <v>2.395</v>
+        <v>1.731</v>
       </c>
       <c r="K170">
-        <v>0.913</v>
+        <v>0.801</v>
       </c>
       <c r="L170" t="s">
         <v>180</v>

--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Data</t>
   </si>
@@ -49,514 +49,517 @@
     <t>Prediction_Dragosel</t>
   </si>
   <si>
+    <t>Prediction_GESS</t>
+  </si>
+  <si>
     <t>Lookup</t>
   </si>
   <si>
-    <t>18.09.202511</t>
-  </si>
-  <si>
-    <t>18.09.202512</t>
-  </si>
-  <si>
-    <t>18.09.202513</t>
-  </si>
-  <si>
-    <t>18.09.202514</t>
-  </si>
-  <si>
-    <t>18.09.202515</t>
-  </si>
-  <si>
-    <t>18.09.202516</t>
-  </si>
-  <si>
-    <t>18.09.202517</t>
-  </si>
-  <si>
-    <t>18.09.202518</t>
-  </si>
-  <si>
-    <t>18.09.202519</t>
-  </si>
-  <si>
-    <t>18.09.202520</t>
-  </si>
-  <si>
-    <t>18.09.202521</t>
-  </si>
-  <si>
-    <t>18.09.202522</t>
-  </si>
-  <si>
-    <t>18.09.202523</t>
-  </si>
-  <si>
-    <t>18.09.202524</t>
-  </si>
-  <si>
-    <t>19.09.20251</t>
-  </si>
-  <si>
-    <t>19.09.20252</t>
-  </si>
-  <si>
-    <t>19.09.20253</t>
-  </si>
-  <si>
-    <t>19.09.20254</t>
-  </si>
-  <si>
-    <t>19.09.20255</t>
-  </si>
-  <si>
-    <t>19.09.20256</t>
-  </si>
-  <si>
-    <t>19.09.20257</t>
-  </si>
-  <si>
-    <t>19.09.20258</t>
-  </si>
-  <si>
-    <t>19.09.20259</t>
-  </si>
-  <si>
-    <t>19.09.202510</t>
-  </si>
-  <si>
-    <t>19.09.202511</t>
-  </si>
-  <si>
-    <t>19.09.202512</t>
-  </si>
-  <si>
-    <t>19.09.202513</t>
-  </si>
-  <si>
-    <t>19.09.202514</t>
-  </si>
-  <si>
-    <t>19.09.202515</t>
-  </si>
-  <si>
-    <t>19.09.202516</t>
-  </si>
-  <si>
-    <t>19.09.202517</t>
-  </si>
-  <si>
-    <t>19.09.202518</t>
-  </si>
-  <si>
-    <t>19.09.202519</t>
-  </si>
-  <si>
-    <t>19.09.202520</t>
-  </si>
-  <si>
-    <t>19.09.202521</t>
-  </si>
-  <si>
-    <t>19.09.202522</t>
-  </si>
-  <si>
-    <t>19.09.202523</t>
-  </si>
-  <si>
-    <t>19.09.202524</t>
-  </si>
-  <si>
-    <t>20.09.20251</t>
-  </si>
-  <si>
-    <t>20.09.20252</t>
-  </si>
-  <si>
-    <t>20.09.20253</t>
-  </si>
-  <si>
-    <t>20.09.20254</t>
-  </si>
-  <si>
-    <t>20.09.20255</t>
-  </si>
-  <si>
-    <t>20.09.20256</t>
-  </si>
-  <si>
-    <t>20.09.20257</t>
-  </si>
-  <si>
-    <t>20.09.20258</t>
-  </si>
-  <si>
-    <t>20.09.20259</t>
-  </si>
-  <si>
-    <t>20.09.202510</t>
-  </si>
-  <si>
-    <t>20.09.202511</t>
-  </si>
-  <si>
-    <t>20.09.202512</t>
-  </si>
-  <si>
-    <t>20.09.202513</t>
-  </si>
-  <si>
-    <t>20.09.202514</t>
-  </si>
-  <si>
-    <t>20.09.202515</t>
-  </si>
-  <si>
-    <t>20.09.202516</t>
-  </si>
-  <si>
-    <t>20.09.202517</t>
-  </si>
-  <si>
-    <t>20.09.202518</t>
-  </si>
-  <si>
-    <t>20.09.202519</t>
-  </si>
-  <si>
-    <t>20.09.202520</t>
-  </si>
-  <si>
-    <t>20.09.202521</t>
-  </si>
-  <si>
-    <t>20.09.202522</t>
-  </si>
-  <si>
-    <t>20.09.202523</t>
-  </si>
-  <si>
-    <t>20.09.202524</t>
-  </si>
-  <si>
-    <t>21.09.20251</t>
-  </si>
-  <si>
-    <t>21.09.20252</t>
-  </si>
-  <si>
-    <t>21.09.20253</t>
-  </si>
-  <si>
-    <t>21.09.20254</t>
-  </si>
-  <si>
-    <t>21.09.20255</t>
-  </si>
-  <si>
-    <t>21.09.20256</t>
-  </si>
-  <si>
-    <t>21.09.20257</t>
-  </si>
-  <si>
-    <t>21.09.20258</t>
-  </si>
-  <si>
-    <t>21.09.20259</t>
-  </si>
-  <si>
-    <t>21.09.202510</t>
-  </si>
-  <si>
-    <t>21.09.202511</t>
-  </si>
-  <si>
-    <t>21.09.202512</t>
-  </si>
-  <si>
-    <t>21.09.202513</t>
-  </si>
-  <si>
-    <t>21.09.202514</t>
-  </si>
-  <si>
-    <t>21.09.202515</t>
-  </si>
-  <si>
-    <t>21.09.202516</t>
-  </si>
-  <si>
-    <t>21.09.202517</t>
-  </si>
-  <si>
-    <t>21.09.202518</t>
-  </si>
-  <si>
-    <t>21.09.202519</t>
-  </si>
-  <si>
-    <t>21.09.202520</t>
-  </si>
-  <si>
-    <t>21.09.202521</t>
-  </si>
-  <si>
-    <t>21.09.202522</t>
-  </si>
-  <si>
-    <t>21.09.202523</t>
-  </si>
-  <si>
-    <t>21.09.202524</t>
-  </si>
-  <si>
-    <t>22.09.20251</t>
-  </si>
-  <si>
-    <t>22.09.20252</t>
-  </si>
-  <si>
-    <t>22.09.20253</t>
-  </si>
-  <si>
-    <t>22.09.20254</t>
-  </si>
-  <si>
-    <t>22.09.20255</t>
-  </si>
-  <si>
-    <t>22.09.20256</t>
-  </si>
-  <si>
-    <t>22.09.20257</t>
-  </si>
-  <si>
-    <t>22.09.20258</t>
-  </si>
-  <si>
-    <t>22.09.20259</t>
-  </si>
-  <si>
-    <t>22.09.202510</t>
-  </si>
-  <si>
-    <t>22.09.202511</t>
-  </si>
-  <si>
-    <t>22.09.202512</t>
-  </si>
-  <si>
-    <t>22.09.202513</t>
-  </si>
-  <si>
-    <t>22.09.202514</t>
-  </si>
-  <si>
-    <t>22.09.202515</t>
-  </si>
-  <si>
-    <t>22.09.202516</t>
-  </si>
-  <si>
-    <t>22.09.202517</t>
-  </si>
-  <si>
-    <t>22.09.202518</t>
-  </si>
-  <si>
-    <t>22.09.202519</t>
-  </si>
-  <si>
-    <t>22.09.202520</t>
-  </si>
-  <si>
-    <t>22.09.202521</t>
-  </si>
-  <si>
-    <t>22.09.202522</t>
-  </si>
-  <si>
-    <t>22.09.202523</t>
-  </si>
-  <si>
-    <t>22.09.202524</t>
-  </si>
-  <si>
-    <t>23.09.20251</t>
-  </si>
-  <si>
-    <t>23.09.20252</t>
-  </si>
-  <si>
-    <t>23.09.20253</t>
-  </si>
-  <si>
-    <t>23.09.20254</t>
-  </si>
-  <si>
-    <t>23.09.20255</t>
-  </si>
-  <si>
-    <t>23.09.20256</t>
-  </si>
-  <si>
-    <t>23.09.20257</t>
-  </si>
-  <si>
-    <t>23.09.20258</t>
-  </si>
-  <si>
-    <t>23.09.20259</t>
-  </si>
-  <si>
-    <t>23.09.202510</t>
-  </si>
-  <si>
-    <t>23.09.202511</t>
-  </si>
-  <si>
-    <t>23.09.202512</t>
-  </si>
-  <si>
-    <t>23.09.202513</t>
-  </si>
-  <si>
-    <t>23.09.202514</t>
-  </si>
-  <si>
-    <t>23.09.202515</t>
-  </si>
-  <si>
-    <t>23.09.202516</t>
-  </si>
-  <si>
-    <t>23.09.202517</t>
-  </si>
-  <si>
-    <t>23.09.202518</t>
-  </si>
-  <si>
-    <t>23.09.202519</t>
-  </si>
-  <si>
-    <t>23.09.202520</t>
-  </si>
-  <si>
-    <t>23.09.202521</t>
-  </si>
-  <si>
-    <t>23.09.202522</t>
-  </si>
-  <si>
-    <t>23.09.202523</t>
-  </si>
-  <si>
-    <t>23.09.202524</t>
-  </si>
-  <si>
-    <t>24.09.20251</t>
-  </si>
-  <si>
-    <t>24.09.20252</t>
-  </si>
-  <si>
-    <t>24.09.20253</t>
-  </si>
-  <si>
-    <t>24.09.20254</t>
-  </si>
-  <si>
-    <t>24.09.20255</t>
-  </si>
-  <si>
-    <t>24.09.20256</t>
-  </si>
-  <si>
-    <t>24.09.20257</t>
-  </si>
-  <si>
-    <t>24.09.20258</t>
-  </si>
-  <si>
-    <t>24.09.20259</t>
-  </si>
-  <si>
-    <t>24.09.202510</t>
-  </si>
-  <si>
-    <t>24.09.202511</t>
-  </si>
-  <si>
-    <t>24.09.202512</t>
-  </si>
-  <si>
-    <t>24.09.202513</t>
-  </si>
-  <si>
-    <t>24.09.202514</t>
-  </si>
-  <si>
-    <t>24.09.202515</t>
-  </si>
-  <si>
-    <t>24.09.202516</t>
-  </si>
-  <si>
-    <t>24.09.202517</t>
-  </si>
-  <si>
-    <t>24.09.202518</t>
-  </si>
-  <si>
-    <t>24.09.202519</t>
-  </si>
-  <si>
-    <t>24.09.202520</t>
-  </si>
-  <si>
-    <t>24.09.202521</t>
-  </si>
-  <si>
-    <t>24.09.202522</t>
-  </si>
-  <si>
-    <t>24.09.202523</t>
-  </si>
-  <si>
-    <t>24.09.202524</t>
-  </si>
-  <si>
-    <t>25.09.20251</t>
-  </si>
-  <si>
-    <t>25.09.20252</t>
-  </si>
-  <si>
-    <t>25.09.20253</t>
-  </si>
-  <si>
-    <t>25.09.20254</t>
-  </si>
-  <si>
-    <t>25.09.20255</t>
-  </si>
-  <si>
-    <t>25.09.20256</t>
-  </si>
-  <si>
-    <t>25.09.20257</t>
-  </si>
-  <si>
-    <t>25.09.20258</t>
-  </si>
-  <si>
-    <t>25.09.20259</t>
-  </si>
-  <si>
-    <t>25.09.202510</t>
-  </si>
-  <si>
-    <t>25.09.202511</t>
+    <t>03.10.202511</t>
+  </si>
+  <si>
+    <t>03.10.202512</t>
+  </si>
+  <si>
+    <t>03.10.202513</t>
+  </si>
+  <si>
+    <t>03.10.202514</t>
+  </si>
+  <si>
+    <t>03.10.202515</t>
+  </si>
+  <si>
+    <t>03.10.202516</t>
+  </si>
+  <si>
+    <t>03.10.202517</t>
+  </si>
+  <si>
+    <t>03.10.202518</t>
+  </si>
+  <si>
+    <t>03.10.202519</t>
+  </si>
+  <si>
+    <t>03.10.202520</t>
+  </si>
+  <si>
+    <t>03.10.202521</t>
+  </si>
+  <si>
+    <t>03.10.202522</t>
+  </si>
+  <si>
+    <t>03.10.202523</t>
+  </si>
+  <si>
+    <t>03.10.202524</t>
+  </si>
+  <si>
+    <t>04.10.20251</t>
+  </si>
+  <si>
+    <t>04.10.20252</t>
+  </si>
+  <si>
+    <t>04.10.20253</t>
+  </si>
+  <si>
+    <t>04.10.20254</t>
+  </si>
+  <si>
+    <t>04.10.20255</t>
+  </si>
+  <si>
+    <t>04.10.20256</t>
+  </si>
+  <si>
+    <t>04.10.20257</t>
+  </si>
+  <si>
+    <t>04.10.20258</t>
+  </si>
+  <si>
+    <t>04.10.20259</t>
+  </si>
+  <si>
+    <t>04.10.202510</t>
+  </si>
+  <si>
+    <t>04.10.202511</t>
+  </si>
+  <si>
+    <t>04.10.202512</t>
+  </si>
+  <si>
+    <t>04.10.202513</t>
+  </si>
+  <si>
+    <t>04.10.202514</t>
+  </si>
+  <si>
+    <t>04.10.202515</t>
+  </si>
+  <si>
+    <t>04.10.202516</t>
+  </si>
+  <si>
+    <t>04.10.202517</t>
+  </si>
+  <si>
+    <t>04.10.202518</t>
+  </si>
+  <si>
+    <t>04.10.202519</t>
+  </si>
+  <si>
+    <t>04.10.202520</t>
+  </si>
+  <si>
+    <t>04.10.202521</t>
+  </si>
+  <si>
+    <t>04.10.202522</t>
+  </si>
+  <si>
+    <t>04.10.202523</t>
+  </si>
+  <si>
+    <t>04.10.202524</t>
+  </si>
+  <si>
+    <t>05.10.20251</t>
+  </si>
+  <si>
+    <t>05.10.20252</t>
+  </si>
+  <si>
+    <t>05.10.20253</t>
+  </si>
+  <si>
+    <t>05.10.20254</t>
+  </si>
+  <si>
+    <t>05.10.20255</t>
+  </si>
+  <si>
+    <t>05.10.20256</t>
+  </si>
+  <si>
+    <t>05.10.20257</t>
+  </si>
+  <si>
+    <t>05.10.20258</t>
+  </si>
+  <si>
+    <t>05.10.20259</t>
+  </si>
+  <si>
+    <t>05.10.202510</t>
+  </si>
+  <si>
+    <t>05.10.202511</t>
+  </si>
+  <si>
+    <t>05.10.202512</t>
+  </si>
+  <si>
+    <t>05.10.202513</t>
+  </si>
+  <si>
+    <t>05.10.202514</t>
+  </si>
+  <si>
+    <t>05.10.202515</t>
+  </si>
+  <si>
+    <t>05.10.202516</t>
+  </si>
+  <si>
+    <t>05.10.202517</t>
+  </si>
+  <si>
+    <t>05.10.202518</t>
+  </si>
+  <si>
+    <t>05.10.202519</t>
+  </si>
+  <si>
+    <t>05.10.202520</t>
+  </si>
+  <si>
+    <t>05.10.202521</t>
+  </si>
+  <si>
+    <t>05.10.202522</t>
+  </si>
+  <si>
+    <t>05.10.202523</t>
+  </si>
+  <si>
+    <t>05.10.202524</t>
+  </si>
+  <si>
+    <t>06.10.20251</t>
+  </si>
+  <si>
+    <t>06.10.20252</t>
+  </si>
+  <si>
+    <t>06.10.20253</t>
+  </si>
+  <si>
+    <t>06.10.20254</t>
+  </si>
+  <si>
+    <t>06.10.20255</t>
+  </si>
+  <si>
+    <t>06.10.20256</t>
+  </si>
+  <si>
+    <t>06.10.20257</t>
+  </si>
+  <si>
+    <t>06.10.20258</t>
+  </si>
+  <si>
+    <t>06.10.20259</t>
+  </si>
+  <si>
+    <t>06.10.202510</t>
+  </si>
+  <si>
+    <t>06.10.202511</t>
+  </si>
+  <si>
+    <t>06.10.202512</t>
+  </si>
+  <si>
+    <t>06.10.202513</t>
+  </si>
+  <si>
+    <t>06.10.202514</t>
+  </si>
+  <si>
+    <t>06.10.202515</t>
+  </si>
+  <si>
+    <t>06.10.202516</t>
+  </si>
+  <si>
+    <t>06.10.202517</t>
+  </si>
+  <si>
+    <t>06.10.202518</t>
+  </si>
+  <si>
+    <t>06.10.202519</t>
+  </si>
+  <si>
+    <t>06.10.202520</t>
+  </si>
+  <si>
+    <t>06.10.202521</t>
+  </si>
+  <si>
+    <t>06.10.202522</t>
+  </si>
+  <si>
+    <t>06.10.202523</t>
+  </si>
+  <si>
+    <t>06.10.202524</t>
+  </si>
+  <si>
+    <t>07.10.20251</t>
+  </si>
+  <si>
+    <t>07.10.20252</t>
+  </si>
+  <si>
+    <t>07.10.20253</t>
+  </si>
+  <si>
+    <t>07.10.20254</t>
+  </si>
+  <si>
+    <t>07.10.20255</t>
+  </si>
+  <si>
+    <t>07.10.20256</t>
+  </si>
+  <si>
+    <t>07.10.20257</t>
+  </si>
+  <si>
+    <t>07.10.20258</t>
+  </si>
+  <si>
+    <t>07.10.20259</t>
+  </si>
+  <si>
+    <t>07.10.202510</t>
+  </si>
+  <si>
+    <t>07.10.202511</t>
+  </si>
+  <si>
+    <t>07.10.202512</t>
+  </si>
+  <si>
+    <t>07.10.202513</t>
+  </si>
+  <si>
+    <t>07.10.202514</t>
+  </si>
+  <si>
+    <t>07.10.202515</t>
+  </si>
+  <si>
+    <t>07.10.202516</t>
+  </si>
+  <si>
+    <t>07.10.202517</t>
+  </si>
+  <si>
+    <t>07.10.202518</t>
+  </si>
+  <si>
+    <t>07.10.202519</t>
+  </si>
+  <si>
+    <t>07.10.202520</t>
+  </si>
+  <si>
+    <t>07.10.202521</t>
+  </si>
+  <si>
+    <t>07.10.202522</t>
+  </si>
+  <si>
+    <t>07.10.202523</t>
+  </si>
+  <si>
+    <t>07.10.202524</t>
+  </si>
+  <si>
+    <t>08.10.20251</t>
+  </si>
+  <si>
+    <t>08.10.20252</t>
+  </si>
+  <si>
+    <t>08.10.20253</t>
+  </si>
+  <si>
+    <t>08.10.20254</t>
+  </si>
+  <si>
+    <t>08.10.20255</t>
+  </si>
+  <si>
+    <t>08.10.20256</t>
+  </si>
+  <si>
+    <t>08.10.20257</t>
+  </si>
+  <si>
+    <t>08.10.20258</t>
+  </si>
+  <si>
+    <t>08.10.20259</t>
+  </si>
+  <si>
+    <t>08.10.202510</t>
+  </si>
+  <si>
+    <t>08.10.202511</t>
+  </si>
+  <si>
+    <t>08.10.202512</t>
+  </si>
+  <si>
+    <t>08.10.202513</t>
+  </si>
+  <si>
+    <t>08.10.202514</t>
+  </si>
+  <si>
+    <t>08.10.202515</t>
+  </si>
+  <si>
+    <t>08.10.202516</t>
+  </si>
+  <si>
+    <t>08.10.202517</t>
+  </si>
+  <si>
+    <t>08.10.202518</t>
+  </si>
+  <si>
+    <t>08.10.202519</t>
+  </si>
+  <si>
+    <t>08.10.202520</t>
+  </si>
+  <si>
+    <t>08.10.202521</t>
+  </si>
+  <si>
+    <t>08.10.202522</t>
+  </si>
+  <si>
+    <t>08.10.202523</t>
+  </si>
+  <si>
+    <t>08.10.202524</t>
+  </si>
+  <si>
+    <t>09.10.20251</t>
+  </si>
+  <si>
+    <t>09.10.20252</t>
+  </si>
+  <si>
+    <t>09.10.20253</t>
+  </si>
+  <si>
+    <t>09.10.20254</t>
+  </si>
+  <si>
+    <t>09.10.20255</t>
+  </si>
+  <si>
+    <t>09.10.20256</t>
+  </si>
+  <si>
+    <t>09.10.20257</t>
+  </si>
+  <si>
+    <t>09.10.20258</t>
+  </si>
+  <si>
+    <t>09.10.20259</t>
+  </si>
+  <si>
+    <t>09.10.202510</t>
+  </si>
+  <si>
+    <t>09.10.202511</t>
+  </si>
+  <si>
+    <t>09.10.202512</t>
+  </si>
+  <si>
+    <t>09.10.202513</t>
+  </si>
+  <si>
+    <t>09.10.202514</t>
+  </si>
+  <si>
+    <t>09.10.202515</t>
+  </si>
+  <si>
+    <t>09.10.202516</t>
+  </si>
+  <si>
+    <t>09.10.202517</t>
+  </si>
+  <si>
+    <t>09.10.202518</t>
+  </si>
+  <si>
+    <t>09.10.202519</t>
+  </si>
+  <si>
+    <t>09.10.202520</t>
+  </si>
+  <si>
+    <t>09.10.202521</t>
+  </si>
+  <si>
+    <t>09.10.202522</t>
+  </si>
+  <si>
+    <t>09.10.202523</t>
+  </si>
+  <si>
+    <t>09.10.202524</t>
+  </si>
+  <si>
+    <t>10.10.20251</t>
+  </si>
+  <si>
+    <t>10.10.20252</t>
+  </si>
+  <si>
+    <t>10.10.20253</t>
+  </si>
+  <si>
+    <t>10.10.20254</t>
+  </si>
+  <si>
+    <t>10.10.20255</t>
+  </si>
+  <si>
+    <t>10.10.20256</t>
+  </si>
+  <si>
+    <t>10.10.20257</t>
+  </si>
+  <si>
+    <t>10.10.20258</t>
+  </si>
+  <si>
+    <t>10.10.20259</t>
+  </si>
+  <si>
+    <t>10.10.202510</t>
+  </si>
+  <si>
+    <t>10.10.202511</t>
   </si>
 </sst>
 </file>
@@ -918,13 +921,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L170"/>
+  <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,10 +964,13 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -976,16 +982,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.099</v>
+        <v>0.102</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H2">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -996,13 +1002,13 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -1014,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.107</v>
+        <v>0.111</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H3">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1034,317 +1040,317 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B4">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>3.062</v>
+        <v>0.923</v>
       </c>
       <c r="D4">
-        <v>3.494</v>
+        <v>1.097</v>
       </c>
       <c r="E4">
-        <v>4.16</v>
+        <v>0.528</v>
       </c>
       <c r="F4">
-        <v>4.24</v>
+        <v>0.199</v>
       </c>
       <c r="G4">
-        <v>3.451</v>
+        <v>0.14</v>
       </c>
       <c r="H4">
-        <v>1.718</v>
+        <v>0.203</v>
       </c>
       <c r="I4">
-        <v>1.387</v>
+        <v>0.423</v>
       </c>
       <c r="J4">
-        <v>3.386</v>
+        <v>0.513</v>
       </c>
       <c r="K4">
-        <v>1.603</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.854</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B5">
         <v>14</v>
       </c>
       <c r="C5">
-        <v>2.614</v>
+        <v>1.106</v>
       </c>
       <c r="D5">
-        <v>3.087</v>
+        <v>1.153</v>
       </c>
       <c r="E5">
-        <v>3.677</v>
+        <v>0.406</v>
       </c>
       <c r="F5">
-        <v>3.572</v>
+        <v>0.271</v>
       </c>
       <c r="G5">
-        <v>3.098</v>
+        <v>0.251</v>
       </c>
       <c r="H5">
-        <v>1.357</v>
+        <v>0.203</v>
       </c>
       <c r="I5">
-        <v>1.444</v>
+        <v>0.339</v>
       </c>
       <c r="J5">
-        <v>3.267</v>
+        <v>0.408</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.459</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
       <c r="C6">
-        <v>2.453</v>
+        <v>0.92</v>
       </c>
       <c r="D6">
-        <v>2.849</v>
+        <v>0.994</v>
       </c>
       <c r="E6">
-        <v>3.504</v>
+        <v>0.394</v>
       </c>
       <c r="F6">
-        <v>3.028</v>
+        <v>0.271</v>
       </c>
       <c r="G6">
-        <v>2.754</v>
+        <v>0.257</v>
       </c>
       <c r="H6">
-        <v>0.772</v>
+        <v>0.221</v>
       </c>
       <c r="I6">
-        <v>1.165</v>
+        <v>0.307</v>
       </c>
       <c r="J6">
-        <v>3.226</v>
+        <v>0.408</v>
       </c>
       <c r="K6">
-        <v>1.362</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.319</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B7">
         <v>16</v>
       </c>
       <c r="C7">
-        <v>1.902</v>
+        <v>0.616</v>
       </c>
       <c r="D7">
-        <v>2.437</v>
+        <v>0.725</v>
       </c>
       <c r="E7">
-        <v>3.327</v>
+        <v>0.383</v>
       </c>
       <c r="F7">
-        <v>2.477</v>
+        <v>0.219</v>
       </c>
       <c r="G7">
-        <v>2.33</v>
+        <v>0.214</v>
       </c>
       <c r="H7">
-        <v>1.279</v>
+        <v>0.203</v>
       </c>
       <c r="I7">
-        <v>1.01</v>
+        <v>0.221</v>
       </c>
       <c r="J7">
-        <v>2.949</v>
+        <v>0.376</v>
       </c>
       <c r="K7">
-        <v>1.166</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.274</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B8">
         <v>17</v>
       </c>
       <c r="C8">
-        <v>1.532</v>
+        <v>0.327</v>
       </c>
       <c r="D8">
-        <v>1.827</v>
+        <v>0.345</v>
       </c>
       <c r="E8">
-        <v>2.623</v>
+        <v>0.312</v>
       </c>
       <c r="F8">
-        <v>1.856</v>
+        <v>0.155</v>
       </c>
       <c r="G8">
-        <v>1.828</v>
+        <v>0.181</v>
       </c>
       <c r="H8">
-        <v>1.199</v>
+        <v>0.145</v>
       </c>
       <c r="I8">
-        <v>0.434</v>
+        <v>0.146</v>
       </c>
       <c r="J8">
-        <v>1.972</v>
+        <v>0.292</v>
       </c>
       <c r="K8">
-        <v>0.779</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.182</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
       <c r="C9">
-        <v>0.889</v>
+        <v>0.116</v>
       </c>
       <c r="D9">
-        <v>1.227</v>
+        <v>0.143</v>
       </c>
       <c r="E9">
-        <v>1.607</v>
+        <v>0.132</v>
       </c>
       <c r="F9">
-        <v>0.8</v>
+        <v>0.055</v>
       </c>
       <c r="G9">
-        <v>1.017</v>
+        <v>0.081</v>
       </c>
       <c r="H9">
-        <v>0.657</v>
+        <v>0.053</v>
       </c>
       <c r="I9">
-        <v>0.4</v>
+        <v>0.064</v>
       </c>
       <c r="J9">
-        <v>1.282</v>
+        <v>0.246</v>
       </c>
       <c r="K9">
-        <v>0.362</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.035</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B10">
         <v>19</v>
       </c>
       <c r="C10">
-        <v>0.276</v>
+        <v>0.019</v>
       </c>
       <c r="D10">
-        <v>0.384</v>
+        <v>0.03</v>
       </c>
       <c r="E10">
-        <v>0.5659999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="F10">
-        <v>0.177</v>
+        <v>0.012</v>
       </c>
       <c r="G10">
-        <v>0.293</v>
+        <v>0.014</v>
       </c>
       <c r="H10">
-        <v>0.341</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.465</v>
+        <v>0.108</v>
       </c>
       <c r="K10">
-        <v>0.246</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.026</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H11">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.235</v>
+        <v>0.222</v>
       </c>
       <c r="K11">
-        <v>0.025</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.013</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B12">
         <v>21</v>
@@ -1362,27 +1368,27 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H12">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.068</v>
+        <v>0.209</v>
       </c>
       <c r="K12">
         <v>0.013</v>
       </c>
-      <c r="L12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B13">
         <v>22</v>
@@ -1400,27 +1406,27 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H13">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.015</v>
+        <v>0.119</v>
       </c>
       <c r="K13">
         <v>0.013</v>
       </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B14">
         <v>23</v>
@@ -1438,27 +1444,27 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H14">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.015</v>
+        <v>0.109</v>
       </c>
       <c r="K14">
         <v>0.013</v>
       </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
-        <v>45918</v>
+        <v>45933</v>
       </c>
       <c r="B15">
         <v>24</v>
@@ -1476,27 +1482,27 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H15">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
       <c r="K15">
         <v>0.013</v>
       </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1514,27 +1520,27 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H16">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0.014</v>
       </c>
-      <c r="L16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1552,27 +1558,27 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H17">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0.014</v>
       </c>
-      <c r="L17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1584,33 +1590,33 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H18">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0.014</v>
       </c>
-      <c r="L18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -1622,16 +1628,16 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H19">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1642,13 +1648,13 @@
       <c r="K19">
         <v>0.014</v>
       </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1660,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H20">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1680,13 +1686,13 @@
       <c r="K20">
         <v>0.014</v>
       </c>
-      <c r="L20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -1698,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H21">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1718,13 +1724,13 @@
       <c r="K21">
         <v>0.014</v>
       </c>
-      <c r="L21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -1742,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H22">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1756,469 +1762,469 @@
       <c r="K22">
         <v>0.014</v>
       </c>
-      <c r="L22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
       <c r="C23">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.122</v>
+        <v>0.015</v>
       </c>
       <c r="F23">
-        <v>0.495</v>
+        <v>0.037</v>
       </c>
       <c r="G23">
-        <v>0.275</v>
+        <v>0.021</v>
       </c>
       <c r="H23">
-        <v>0.144</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3</v>
+        <v>0.083</v>
       </c>
       <c r="K23">
         <v>0.038</v>
       </c>
-      <c r="L23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B24">
         <v>9</v>
       </c>
       <c r="C24">
-        <v>0.367</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D24">
-        <v>0.304</v>
+        <v>0.082</v>
       </c>
       <c r="E24">
-        <v>0.76</v>
+        <v>0.194</v>
       </c>
       <c r="F24">
-        <v>1.695</v>
+        <v>0.269</v>
       </c>
       <c r="G24">
-        <v>1.019</v>
+        <v>0.202</v>
       </c>
       <c r="H24">
-        <v>0.988</v>
+        <v>0.104</v>
       </c>
       <c r="I24">
-        <v>0.573</v>
+        <v>0.068</v>
       </c>
       <c r="J24">
-        <v>0.9370000000000001</v>
+        <v>0.265</v>
       </c>
       <c r="K24">
-        <v>0.349</v>
-      </c>
-      <c r="L24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.038</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.676</v>
+        <v>0.289</v>
       </c>
       <c r="D25">
-        <v>0.6899999999999999</v>
+        <v>0.226</v>
       </c>
       <c r="E25">
-        <v>1.869</v>
+        <v>0.6</v>
       </c>
       <c r="F25">
-        <v>2.76</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G25">
-        <v>1.956</v>
+        <v>0.419</v>
       </c>
       <c r="H25">
-        <v>1.629</v>
+        <v>0.203</v>
       </c>
       <c r="I25">
-        <v>1.006</v>
+        <v>0.165</v>
       </c>
       <c r="J25">
-        <v>2.183</v>
+        <v>0.368</v>
       </c>
       <c r="K25">
-        <v>0.826</v>
-      </c>
-      <c r="L25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.189</v>
+      </c>
+      <c r="M25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B26">
         <v>11</v>
       </c>
       <c r="C26">
-        <v>0.873</v>
+        <v>0.406</v>
       </c>
       <c r="D26">
-        <v>0.948</v>
+        <v>0.464</v>
       </c>
       <c r="E26">
-        <v>3.069</v>
+        <v>0.927</v>
       </c>
       <c r="F26">
-        <v>3.638</v>
+        <v>0.633</v>
       </c>
       <c r="G26">
-        <v>2.958</v>
+        <v>0.586</v>
       </c>
       <c r="H26">
-        <v>1.724</v>
+        <v>0.41</v>
       </c>
       <c r="I26">
-        <v>1.352</v>
+        <v>0.262</v>
       </c>
       <c r="J26">
-        <v>2.891</v>
+        <v>0.546</v>
       </c>
       <c r="K26">
-        <v>0.83</v>
-      </c>
-      <c r="L26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.298</v>
+      </c>
+      <c r="M26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B27">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>1.428</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="D27">
-        <v>1.495</v>
+        <v>0.577</v>
       </c>
       <c r="E27">
-        <v>3.892</v>
+        <v>1.486</v>
       </c>
       <c r="F27">
-        <v>4.029</v>
+        <v>0.926</v>
       </c>
       <c r="G27">
-        <v>3.331</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H27">
-        <v>1.441</v>
+        <v>0.73</v>
       </c>
       <c r="I27">
-        <v>1.437</v>
+        <v>0.384</v>
       </c>
       <c r="J27">
-        <v>3.411</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="K27">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="L27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.347</v>
+      </c>
+      <c r="M27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B28">
         <v>13</v>
       </c>
       <c r="C28">
-        <v>1.923</v>
+        <v>0.733</v>
       </c>
       <c r="D28">
-        <v>2.299</v>
+        <v>0.794</v>
       </c>
       <c r="E28">
-        <v>4.129</v>
+        <v>1.447</v>
       </c>
       <c r="F28">
-        <v>4.114</v>
+        <v>1.197</v>
       </c>
       <c r="G28">
-        <v>3.447</v>
+        <v>1.261</v>
       </c>
       <c r="H28">
-        <v>0.717</v>
+        <v>0.73</v>
       </c>
       <c r="I28">
-        <v>1.437</v>
+        <v>0.575</v>
       </c>
       <c r="J28">
-        <v>3.72</v>
+        <v>0.57</v>
       </c>
       <c r="K28">
-        <v>1.068</v>
-      </c>
-      <c r="L28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.441</v>
+      </c>
+      <c r="M28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B29">
         <v>14</v>
       </c>
       <c r="C29">
-        <v>2.087</v>
+        <v>0.804</v>
       </c>
       <c r="D29">
-        <v>2.486</v>
+        <v>0.989</v>
       </c>
       <c r="E29">
-        <v>4.021</v>
+        <v>1.484</v>
       </c>
       <c r="F29">
-        <v>4.063</v>
+        <v>1.38</v>
       </c>
       <c r="G29">
-        <v>3.42</v>
+        <v>1.62</v>
       </c>
       <c r="H29">
-        <v>0.452</v>
+        <v>0.73</v>
       </c>
       <c r="I29">
-        <v>1.494</v>
+        <v>0.661</v>
       </c>
       <c r="J29">
-        <v>3.472</v>
+        <v>0.916</v>
       </c>
       <c r="K29">
-        <v>1.064</v>
-      </c>
-      <c r="L29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>0.537</v>
+      </c>
+      <c r="M29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B30">
         <v>15</v>
       </c>
       <c r="C30">
-        <v>1.924</v>
+        <v>0.672</v>
       </c>
       <c r="D30">
-        <v>2.389</v>
+        <v>0.844</v>
       </c>
       <c r="E30">
-        <v>3.818</v>
+        <v>1.543</v>
       </c>
       <c r="F30">
-        <v>3.821</v>
+        <v>1.28</v>
       </c>
       <c r="G30">
-        <v>3.261</v>
+        <v>1.375</v>
       </c>
       <c r="H30">
-        <v>0.437</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="I30">
-        <v>1.494</v>
+        <v>0.589</v>
       </c>
       <c r="J30">
-        <v>3.265</v>
+        <v>0.971</v>
       </c>
       <c r="K30">
-        <v>1.025</v>
-      </c>
-      <c r="L30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>0.397</v>
+      </c>
+      <c r="M30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B31">
         <v>16</v>
       </c>
       <c r="C31">
-        <v>1.705</v>
+        <v>0.504</v>
       </c>
       <c r="D31">
-        <v>1.949</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="E31">
-        <v>3.49</v>
+        <v>1.419</v>
       </c>
       <c r="F31">
-        <v>3.078</v>
+        <v>1.024</v>
       </c>
       <c r="G31">
-        <v>2.821</v>
+        <v>1.129</v>
       </c>
       <c r="H31">
-        <v>1.127</v>
+        <v>0.444</v>
       </c>
       <c r="I31">
-        <v>1.174</v>
+        <v>0.573</v>
       </c>
       <c r="J31">
-        <v>3.1</v>
+        <v>1.014</v>
       </c>
       <c r="K31">
-        <v>1.023</v>
-      </c>
-      <c r="L31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>0.381</v>
+      </c>
+      <c r="M31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B32">
         <v>17</v>
       </c>
       <c r="C32">
-        <v>1.438</v>
+        <v>0.37</v>
       </c>
       <c r="D32">
-        <v>1.496</v>
+        <v>0.473</v>
       </c>
       <c r="E32">
-        <v>2.492</v>
+        <v>1.042</v>
       </c>
       <c r="F32">
-        <v>1.906</v>
+        <v>0.7</v>
       </c>
       <c r="G32">
-        <v>2.024</v>
+        <v>0.662</v>
       </c>
       <c r="H32">
-        <v>1.304</v>
+        <v>0.236</v>
       </c>
       <c r="I32">
-        <v>0.533</v>
+        <v>0.341</v>
       </c>
       <c r="J32">
-        <v>1.93</v>
+        <v>0.636</v>
       </c>
       <c r="K32">
-        <v>0.659</v>
-      </c>
-      <c r="L32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>0.269</v>
+      </c>
+      <c r="M32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B33">
         <v>18</v>
       </c>
       <c r="C33">
-        <v>0.788</v>
+        <v>0.152</v>
       </c>
       <c r="D33">
-        <v>0.806</v>
+        <v>0.178</v>
       </c>
       <c r="E33">
-        <v>1.441</v>
+        <v>0.599</v>
       </c>
       <c r="F33">
-        <v>0.883</v>
+        <v>0.214</v>
       </c>
       <c r="G33">
-        <v>1.132</v>
+        <v>0.248</v>
       </c>
       <c r="H33">
-        <v>1.01</v>
+        <v>0.106</v>
       </c>
       <c r="I33">
-        <v>0.4</v>
+        <v>0.112</v>
       </c>
       <c r="J33">
-        <v>1.193</v>
+        <v>0.297</v>
       </c>
       <c r="K33">
-        <v>0.245</v>
-      </c>
-      <c r="L33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>0.066</v>
+      </c>
+      <c r="M33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B34">
         <v>19</v>
       </c>
       <c r="C34">
-        <v>0.206</v>
+        <v>0.019</v>
       </c>
       <c r="D34">
-        <v>0.218</v>
+        <v>0.024</v>
       </c>
       <c r="E34">
-        <v>0.546</v>
+        <v>0.091</v>
       </c>
       <c r="F34">
-        <v>0.178</v>
+        <v>0.018</v>
       </c>
       <c r="G34">
-        <v>0.311</v>
+        <v>0.032</v>
       </c>
       <c r="H34">
-        <v>0.322</v>
+        <v>0.012</v>
       </c>
       <c r="I34">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.474</v>
+        <v>0.165</v>
       </c>
       <c r="K34">
-        <v>0.133</v>
-      </c>
-      <c r="L34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>0.026</v>
+      </c>
+      <c r="M34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B35">
         <v>20</v>
@@ -2230,33 +2236,33 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H35">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.213</v>
+        <v>0.048</v>
       </c>
       <c r="K35">
-        <v>0.019</v>
-      </c>
-      <c r="L35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>0.013</v>
+      </c>
+      <c r="M35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B36">
         <v>21</v>
@@ -2274,27 +2280,27 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H36">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.075</v>
+        <v>0.048</v>
       </c>
       <c r="K36">
         <v>0.013</v>
       </c>
-      <c r="L36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B37">
         <v>22</v>
@@ -2312,27 +2318,27 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H37">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.022</v>
+        <v>0.016</v>
       </c>
       <c r="K37">
         <v>0.013</v>
       </c>
-      <c r="L37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B38">
         <v>23</v>
@@ -2350,27 +2356,27 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H38">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.027</v>
+        <v>0.016</v>
       </c>
       <c r="K38">
         <v>0.013</v>
       </c>
-      <c r="L38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="2">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="B39">
         <v>24</v>
@@ -2388,27 +2394,27 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H39">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.027</v>
+        <v>0.016</v>
       </c>
       <c r="K39">
         <v>0.013</v>
       </c>
-      <c r="L39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2426,27 +2432,27 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H40">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.025</v>
+        <v>0.013</v>
       </c>
       <c r="K40">
         <v>0.014</v>
       </c>
-      <c r="L40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -2464,27 +2470,27 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H41">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.018</v>
+        <v>0.013</v>
       </c>
       <c r="K41">
         <v>0.014</v>
       </c>
-      <c r="L41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2502,27 +2508,27 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H42">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0.014</v>
       </c>
-      <c r="L42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -2540,10 +2546,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H43">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2554,13 +2560,13 @@
       <c r="K43">
         <v>0.014</v>
       </c>
-      <c r="L43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -2578,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H44">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2592,13 +2598,13 @@
       <c r="K44">
         <v>0.014</v>
       </c>
-      <c r="L44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -2616,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H45">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2630,13 +2636,13 @@
       <c r="K45">
         <v>0.014</v>
       </c>
-      <c r="L45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -2654,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H46">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2668,469 +2674,469 @@
       <c r="K46">
         <v>0.014</v>
       </c>
-      <c r="L46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B47">
         <v>8</v>
       </c>
       <c r="C47">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.107</v>
+        <v>0.011</v>
       </c>
       <c r="F47">
-        <v>0.366</v>
+        <v>0.222</v>
       </c>
       <c r="G47">
-        <v>0.178</v>
+        <v>0.094</v>
       </c>
       <c r="H47">
-        <v>0.119</v>
+        <v>0.05</v>
       </c>
       <c r="I47">
-        <v>0.074</v>
+        <v>0.044</v>
       </c>
       <c r="J47">
-        <v>0.392</v>
+        <v>0.26</v>
       </c>
       <c r="K47">
-        <v>0.046</v>
-      </c>
-      <c r="L47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>0.038</v>
+      </c>
+      <c r="M47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B48">
         <v>9</v>
       </c>
       <c r="C48">
-        <v>0.624</v>
+        <v>0.09</v>
       </c>
       <c r="D48">
-        <v>0.719</v>
+        <v>0.096</v>
       </c>
       <c r="E48">
-        <v>0.731</v>
+        <v>0.259</v>
       </c>
       <c r="F48">
-        <v>1.503</v>
+        <v>1.594</v>
       </c>
       <c r="G48">
-        <v>0.84</v>
+        <v>1.065</v>
       </c>
       <c r="H48">
-        <v>0.876</v>
+        <v>0.401</v>
       </c>
       <c r="I48">
-        <v>0.426</v>
+        <v>0.37</v>
       </c>
       <c r="J48">
-        <v>1.108</v>
+        <v>0.872</v>
       </c>
       <c r="K48">
-        <v>0.481</v>
-      </c>
-      <c r="L48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>0.189</v>
+      </c>
+      <c r="M48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B49">
         <v>10</v>
       </c>
       <c r="C49">
-        <v>1.464</v>
+        <v>0.325</v>
       </c>
       <c r="D49">
-        <v>1.655</v>
+        <v>0.323</v>
       </c>
       <c r="E49">
-        <v>1.777</v>
+        <v>0.947</v>
       </c>
       <c r="F49">
-        <v>2.481</v>
+        <v>2.721</v>
       </c>
       <c r="G49">
-        <v>1.801</v>
+        <v>2.276</v>
       </c>
       <c r="H49">
-        <v>1.531</v>
+        <v>1.041</v>
       </c>
       <c r="I49">
-        <v>0.828</v>
+        <v>0.664</v>
       </c>
       <c r="J49">
-        <v>2.107</v>
+        <v>1.931</v>
       </c>
       <c r="K49">
-        <v>0.844</v>
-      </c>
-      <c r="L49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>0.481</v>
+      </c>
+      <c r="M49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B50">
         <v>11</v>
       </c>
       <c r="C50">
-        <v>2.011</v>
+        <v>0.462</v>
       </c>
       <c r="D50">
-        <v>2.42</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="E50">
-        <v>2.849</v>
+        <v>1.58</v>
       </c>
       <c r="F50">
-        <v>3.103</v>
+        <v>3.435</v>
       </c>
       <c r="G50">
-        <v>2.497</v>
+        <v>2.974</v>
       </c>
       <c r="H50">
-        <v>1.681</v>
+        <v>1.546</v>
       </c>
       <c r="I50">
-        <v>1.217</v>
+        <v>1.266</v>
       </c>
       <c r="J50">
-        <v>2.799</v>
+        <v>2.538</v>
       </c>
       <c r="K50">
-        <v>1.184</v>
-      </c>
-      <c r="L50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>0.844</v>
+      </c>
+      <c r="M50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B51">
         <v>12</v>
       </c>
       <c r="C51">
-        <v>2.569</v>
+        <v>0.661</v>
       </c>
       <c r="D51">
-        <v>2.724</v>
+        <v>0.733</v>
       </c>
       <c r="E51">
-        <v>3.654</v>
+        <v>2.22</v>
       </c>
       <c r="F51">
-        <v>3.332</v>
+        <v>3.945</v>
       </c>
       <c r="G51">
-        <v>2.895</v>
+        <v>3.441</v>
       </c>
       <c r="H51">
-        <v>0.52</v>
+        <v>1.935</v>
       </c>
       <c r="I51">
-        <v>1.453</v>
+        <v>1.499</v>
       </c>
       <c r="J51">
-        <v>3.525</v>
+        <v>3.142</v>
       </c>
       <c r="K51">
-        <v>1.282</v>
-      </c>
-      <c r="L51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="M51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B52">
         <v>13</v>
       </c>
       <c r="C52">
-        <v>2.75</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="D52">
-        <v>2.897</v>
+        <v>0.829</v>
       </c>
       <c r="E52">
-        <v>3.939</v>
+        <v>2.999</v>
       </c>
       <c r="F52">
-        <v>3.248</v>
+        <v>4.091</v>
       </c>
       <c r="G52">
-        <v>2.907</v>
+        <v>3.486</v>
       </c>
       <c r="H52">
-        <v>0.378</v>
+        <v>1.935</v>
       </c>
       <c r="I52">
-        <v>1.472</v>
+        <v>1.535</v>
       </c>
       <c r="J52">
-        <v>3.536</v>
+        <v>3.487</v>
       </c>
       <c r="K52">
-        <v>1.429</v>
-      </c>
-      <c r="L52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>1.037</v>
+      </c>
+      <c r="M52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B53">
         <v>14</v>
       </c>
       <c r="C53">
-        <v>2.777</v>
+        <v>0.596</v>
       </c>
       <c r="D53">
-        <v>2.926</v>
+        <v>0.839</v>
       </c>
       <c r="E53">
-        <v>4.024</v>
+        <v>3.007</v>
       </c>
       <c r="F53">
-        <v>3.033</v>
+        <v>4.125</v>
       </c>
       <c r="G53">
-        <v>2.683</v>
+        <v>3.463</v>
       </c>
       <c r="H53">
-        <v>0.345</v>
+        <v>1.909</v>
       </c>
       <c r="I53">
-        <v>1.494</v>
+        <v>1.516</v>
       </c>
       <c r="J53">
-        <v>3.457</v>
+        <v>3.418</v>
       </c>
       <c r="K53">
-        <v>1.374</v>
-      </c>
-      <c r="L53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>0.909</v>
+      </c>
+      <c r="M53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B54">
         <v>15</v>
       </c>
       <c r="C54">
-        <v>2.67</v>
+        <v>0.485</v>
       </c>
       <c r="D54">
-        <v>2.874</v>
+        <v>0.731</v>
       </c>
       <c r="E54">
-        <v>3.788</v>
+        <v>2.794</v>
       </c>
       <c r="F54">
-        <v>2.317</v>
+        <v>3.688</v>
       </c>
       <c r="G54">
-        <v>2.001</v>
+        <v>3.415</v>
       </c>
       <c r="H54">
-        <v>1.522</v>
+        <v>1.894</v>
       </c>
       <c r="I54">
-        <v>1.474</v>
+        <v>1.094</v>
       </c>
       <c r="J54">
-        <v>3.284</v>
+        <v>3.159</v>
       </c>
       <c r="K54">
-        <v>1.17</v>
-      </c>
-      <c r="L54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>0.848</v>
+      </c>
+      <c r="M54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B55">
         <v>16</v>
       </c>
       <c r="C55">
-        <v>2.335</v>
+        <v>0.3</v>
       </c>
       <c r="D55">
-        <v>2.494</v>
+        <v>0.554</v>
       </c>
       <c r="E55">
-        <v>3.413</v>
+        <v>1.911</v>
       </c>
       <c r="F55">
-        <v>2.015</v>
+        <v>2.788</v>
       </c>
       <c r="G55">
-        <v>1.715</v>
+        <v>2.867</v>
       </c>
       <c r="H55">
-        <v>1.719</v>
+        <v>1.75</v>
       </c>
       <c r="I55">
-        <v>1.177</v>
+        <v>0.98</v>
       </c>
       <c r="J55">
-        <v>3.012</v>
+        <v>2.222</v>
       </c>
       <c r="K55">
-        <v>0.842</v>
-      </c>
-      <c r="L55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>0.793</v>
+      </c>
+      <c r="M55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B56">
         <v>17</v>
       </c>
       <c r="C56">
-        <v>1.798</v>
+        <v>0.196</v>
       </c>
       <c r="D56">
-        <v>2.093</v>
+        <v>0.351</v>
       </c>
       <c r="E56">
-        <v>2.505</v>
+        <v>1.443</v>
       </c>
       <c r="F56">
-        <v>1.205</v>
+        <v>1.728</v>
       </c>
       <c r="G56">
-        <v>1.498</v>
+        <v>1.994</v>
       </c>
       <c r="H56">
-        <v>1.314</v>
+        <v>1.294</v>
       </c>
       <c r="I56">
-        <v>0.825</v>
+        <v>0.636</v>
       </c>
       <c r="J56">
-        <v>2.279</v>
+        <v>1.686</v>
       </c>
       <c r="K56">
-        <v>0.613</v>
-      </c>
-      <c r="L56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>0.389</v>
+      </c>
+      <c r="M56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B57">
         <v>18</v>
       </c>
       <c r="C57">
-        <v>1.007</v>
+        <v>0.075</v>
       </c>
       <c r="D57">
-        <v>1.18</v>
+        <v>0.148</v>
       </c>
       <c r="E57">
-        <v>1.348</v>
+        <v>0.608</v>
       </c>
       <c r="F57">
-        <v>0.624</v>
+        <v>0.483</v>
       </c>
       <c r="G57">
-        <v>0.757</v>
+        <v>0.85</v>
       </c>
       <c r="H57">
-        <v>0.695</v>
+        <v>0.488</v>
       </c>
       <c r="I57">
-        <v>0.44</v>
+        <v>0.327</v>
       </c>
       <c r="J57">
-        <v>1.193</v>
+        <v>0.881</v>
       </c>
       <c r="K57">
-        <v>0.253</v>
-      </c>
-      <c r="L57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>0.191</v>
+      </c>
+      <c r="M57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B58">
         <v>19</v>
       </c>
       <c r="C58">
-        <v>0.232</v>
+        <v>0.012</v>
       </c>
       <c r="D58">
-        <v>0.376</v>
+        <v>0.013</v>
       </c>
       <c r="E58">
-        <v>0.495</v>
+        <v>0.105</v>
       </c>
       <c r="F58">
-        <v>0.142</v>
+        <v>0.052</v>
       </c>
       <c r="G58">
-        <v>0.21</v>
+        <v>0.102</v>
       </c>
       <c r="H58">
-        <v>0.346</v>
+        <v>0.106</v>
       </c>
       <c r="I58">
-        <v>0.112</v>
+        <v>0.034</v>
       </c>
       <c r="J58">
-        <v>0.471</v>
+        <v>0.236</v>
       </c>
       <c r="K58">
-        <v>0.153</v>
-      </c>
-      <c r="L58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>0.026</v>
+      </c>
+      <c r="M58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B59">
         <v>20</v>
@@ -3142,33 +3148,33 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.064</v>
+      </c>
+      <c r="K59">
         <v>0.013</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0.213</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B60">
         <v>21</v>
@@ -3186,27 +3192,27 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H60">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.075</v>
+        <v>0.064</v>
       </c>
       <c r="K60">
         <v>0.013</v>
       </c>
-      <c r="L60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B61">
         <v>22</v>
@@ -3224,27 +3230,27 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H61">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.027</v>
+        <v>0.011</v>
       </c>
       <c r="K61">
         <v>0.013</v>
       </c>
-      <c r="L61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B62">
         <v>23</v>
@@ -3262,27 +3268,27 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H62">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.027</v>
+        <v>0.016</v>
       </c>
       <c r="K62">
         <v>0.013</v>
       </c>
-      <c r="L62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="2">
-        <v>45920</v>
+        <v>45935</v>
       </c>
       <c r="B63">
         <v>24</v>
@@ -3300,27 +3306,27 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H63">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.027</v>
+        <v>0.016</v>
       </c>
       <c r="K63">
         <v>0.013</v>
       </c>
-      <c r="L63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3338,27 +3344,27 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H64">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.025</v>
+        <v>0.013</v>
       </c>
       <c r="K64">
         <v>0.014</v>
       </c>
-      <c r="L64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -3370,33 +3376,33 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H65">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.025</v>
+        <v>0.013</v>
       </c>
       <c r="K65">
         <v>0.014</v>
       </c>
-      <c r="L65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -3408,33 +3414,33 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H66">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K66">
         <v>0.014</v>
       </c>
-      <c r="L66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B67">
         <v>4</v>
@@ -3452,27 +3458,27 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H67">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K67">
-        <v>0.015</v>
-      </c>
-      <c r="L67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -3490,10 +3496,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H68">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3502,15 +3508,15 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0.015</v>
-      </c>
-      <c r="L68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -3528,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H69">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -3540,15 +3546,15 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0.015</v>
-      </c>
-      <c r="L69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B70">
         <v>7</v>
@@ -3566,10 +3572,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H70">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3578,471 +3584,471 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0.015</v>
-      </c>
-      <c r="L70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B71">
         <v>8</v>
       </c>
       <c r="C71">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0.089</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0.096</v>
+        <v>0.012</v>
       </c>
       <c r="F71">
-        <v>0.361</v>
+        <v>0.063</v>
       </c>
       <c r="G71">
-        <v>0.163</v>
+        <v>0.037</v>
       </c>
       <c r="H71">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>0.392</v>
+        <v>0.111</v>
       </c>
       <c r="K71">
-        <v>0.043</v>
-      </c>
-      <c r="L71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>0.038</v>
+      </c>
+      <c r="M71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B72">
         <v>9</v>
       </c>
       <c r="C72">
-        <v>0.632</v>
+        <v>0.153</v>
       </c>
       <c r="D72">
-        <v>0.749</v>
+        <v>0.109</v>
       </c>
       <c r="E72">
-        <v>0.721</v>
+        <v>0.145</v>
       </c>
       <c r="F72">
-        <v>1.451</v>
+        <v>0.575</v>
       </c>
       <c r="G72">
-        <v>0.823</v>
+        <v>0.39</v>
       </c>
       <c r="H72">
-        <v>1.12</v>
+        <v>0.142</v>
       </c>
       <c r="I72">
-        <v>0.475</v>
+        <v>0.09</v>
       </c>
       <c r="J72">
-        <v>0.819</v>
+        <v>0.316</v>
       </c>
       <c r="K72">
-        <v>0.478</v>
-      </c>
-      <c r="L72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>0.046</v>
+      </c>
+      <c r="M72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B73">
         <v>10</v>
       </c>
       <c r="C73">
-        <v>1.423</v>
+        <v>0.513</v>
       </c>
       <c r="D73">
-        <v>1.752</v>
+        <v>0.387</v>
       </c>
       <c r="E73">
-        <v>1.712</v>
+        <v>0.433</v>
       </c>
       <c r="F73">
-        <v>2.499</v>
+        <v>1.101</v>
       </c>
       <c r="G73">
-        <v>1.779</v>
+        <v>0.756</v>
       </c>
       <c r="H73">
-        <v>2.404</v>
+        <v>0.347</v>
       </c>
       <c r="I73">
-        <v>0.899</v>
+        <v>0.298</v>
       </c>
       <c r="J73">
-        <v>2.046</v>
+        <v>0.67</v>
       </c>
       <c r="K73">
-        <v>0.885</v>
-      </c>
-      <c r="L73" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>0.205</v>
+      </c>
+      <c r="M73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B74">
         <v>11</v>
       </c>
       <c r="C74">
-        <v>2.09</v>
+        <v>0.664</v>
       </c>
       <c r="D74">
-        <v>2.44</v>
+        <v>0.653</v>
       </c>
       <c r="E74">
-        <v>2.612</v>
+        <v>0.741</v>
       </c>
       <c r="F74">
-        <v>3.151</v>
+        <v>1.55</v>
       </c>
       <c r="G74">
-        <v>2.463</v>
+        <v>1.149</v>
       </c>
       <c r="H74">
-        <v>2.048</v>
+        <v>0.65</v>
       </c>
       <c r="I74">
-        <v>1.189</v>
+        <v>0.471</v>
       </c>
       <c r="J74">
-        <v>2.837</v>
+        <v>1.023</v>
       </c>
       <c r="K74">
-        <v>0.991</v>
-      </c>
-      <c r="L74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>0.347</v>
+      </c>
+      <c r="M74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B75">
         <v>12</v>
       </c>
       <c r="C75">
-        <v>2.715</v>
+        <v>1.073</v>
       </c>
       <c r="D75">
-        <v>3.028</v>
+        <v>0.878</v>
       </c>
       <c r="E75">
-        <v>3.437</v>
+        <v>1.041</v>
       </c>
       <c r="F75">
-        <v>3.428</v>
+        <v>2.006</v>
       </c>
       <c r="G75">
-        <v>2.915</v>
+        <v>1.74</v>
       </c>
       <c r="H75">
-        <v>2.363</v>
+        <v>0.738</v>
       </c>
       <c r="I75">
-        <v>1.555</v>
+        <v>0.626</v>
       </c>
       <c r="J75">
-        <v>3.513</v>
+        <v>0.976</v>
       </c>
       <c r="K75">
-        <v>1.191</v>
-      </c>
-      <c r="L75" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>0.398</v>
+      </c>
+      <c r="M75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B76">
         <v>13</v>
       </c>
       <c r="C76">
-        <v>2.991</v>
+        <v>1.318</v>
       </c>
       <c r="D76">
-        <v>3.176</v>
+        <v>1.015</v>
       </c>
       <c r="E76">
-        <v>3.734</v>
+        <v>1.406</v>
       </c>
       <c r="F76">
-        <v>3.603</v>
+        <v>2.079</v>
       </c>
       <c r="G76">
-        <v>2.961</v>
+        <v>1.755</v>
       </c>
       <c r="H76">
-        <v>2.813</v>
+        <v>0.73</v>
       </c>
       <c r="I76">
-        <v>1.472</v>
+        <v>0.626</v>
       </c>
       <c r="J76">
-        <v>3.742</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="K76">
-        <v>1.37</v>
-      </c>
-      <c r="L76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>0.379</v>
+      </c>
+      <c r="M76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B77">
         <v>14</v>
       </c>
       <c r="C77">
-        <v>2.978</v>
+        <v>1.431</v>
       </c>
       <c r="D77">
-        <v>3.138</v>
+        <v>1.26</v>
       </c>
       <c r="E77">
-        <v>3.714</v>
+        <v>1.42</v>
       </c>
       <c r="F77">
-        <v>3.589</v>
+        <v>1.39</v>
       </c>
       <c r="G77">
-        <v>2.959</v>
+        <v>1.743</v>
       </c>
       <c r="H77">
-        <v>2.039</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="I77">
-        <v>1.513</v>
+        <v>0.535</v>
       </c>
       <c r="J77">
-        <v>3.529</v>
+        <v>0.91</v>
       </c>
       <c r="K77">
-        <v>1.384</v>
-      </c>
-      <c r="L77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>0.347</v>
+      </c>
+      <c r="M77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B78">
         <v>15</v>
       </c>
       <c r="C78">
-        <v>2.882</v>
+        <v>1.428</v>
       </c>
       <c r="D78">
-        <v>2.992</v>
+        <v>1.486</v>
       </c>
       <c r="E78">
-        <v>3.654</v>
+        <v>1.469</v>
       </c>
       <c r="F78">
-        <v>3.274</v>
+        <v>1.278</v>
       </c>
       <c r="G78">
-        <v>2.891</v>
+        <v>1.456</v>
       </c>
       <c r="H78">
-        <v>3.011</v>
+        <v>0.628</v>
       </c>
       <c r="I78">
-        <v>1.494</v>
+        <v>0.525</v>
       </c>
       <c r="J78">
-        <v>3.337</v>
+        <v>0.96</v>
       </c>
       <c r="K78">
-        <v>1.272</v>
-      </c>
-      <c r="L78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>0.303</v>
+      </c>
+      <c r="M78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B79">
         <v>16</v>
       </c>
       <c r="C79">
-        <v>2.482</v>
+        <v>1.218</v>
       </c>
       <c r="D79">
-        <v>2.715</v>
+        <v>1.236</v>
       </c>
       <c r="E79">
-        <v>3.346</v>
+        <v>1.44</v>
       </c>
       <c r="F79">
-        <v>2.745</v>
+        <v>0.965</v>
       </c>
       <c r="G79">
-        <v>2.543</v>
+        <v>0.924</v>
       </c>
       <c r="H79">
-        <v>2.57</v>
+        <v>0.476</v>
       </c>
       <c r="I79">
-        <v>1.382</v>
+        <v>0.434</v>
       </c>
       <c r="J79">
-        <v>3.057</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="K79">
-        <v>1.044</v>
-      </c>
-      <c r="L79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>0.303</v>
+      </c>
+      <c r="M79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B80">
         <v>17</v>
       </c>
       <c r="C80">
-        <v>1.872</v>
+        <v>0.786</v>
       </c>
       <c r="D80">
-        <v>2.112</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="E80">
-        <v>2.475</v>
+        <v>1.265</v>
       </c>
       <c r="F80">
-        <v>1.866</v>
+        <v>0.532</v>
       </c>
       <c r="G80">
-        <v>1.707</v>
+        <v>0.499</v>
       </c>
       <c r="H80">
-        <v>2.046</v>
+        <v>0.236</v>
       </c>
       <c r="I80">
-        <v>1.022</v>
+        <v>0.239</v>
       </c>
       <c r="J80">
-        <v>2.237</v>
+        <v>0.398</v>
       </c>
       <c r="K80">
-        <v>0.773</v>
-      </c>
-      <c r="L80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>0.269</v>
+      </c>
+      <c r="M80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B81">
         <v>18</v>
       </c>
       <c r="C81">
-        <v>1.036</v>
+        <v>0.309</v>
       </c>
       <c r="D81">
-        <v>1.267</v>
+        <v>0.385</v>
       </c>
       <c r="E81">
-        <v>1.341</v>
+        <v>0.755</v>
       </c>
       <c r="F81">
-        <v>0.753</v>
+        <v>0.141</v>
       </c>
       <c r="G81">
-        <v>0.891</v>
+        <v>0.175</v>
       </c>
       <c r="H81">
-        <v>1.002</v>
+        <v>0.106</v>
       </c>
       <c r="I81">
-        <v>0.657</v>
+        <v>0.074</v>
       </c>
       <c r="J81">
-        <v>1.197</v>
+        <v>0.286</v>
       </c>
       <c r="K81">
-        <v>0.312</v>
-      </c>
-      <c r="L81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>0.125</v>
+      </c>
+      <c r="M81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B82">
         <v>19</v>
       </c>
       <c r="C82">
-        <v>0.227</v>
+        <v>0.039</v>
       </c>
       <c r="D82">
-        <v>0.352</v>
+        <v>0.045</v>
       </c>
       <c r="E82">
-        <v>0.47</v>
+        <v>0.128</v>
       </c>
       <c r="F82">
-        <v>0.168</v>
+        <v>0.013</v>
       </c>
       <c r="G82">
-        <v>0.235</v>
+        <v>0.022</v>
       </c>
       <c r="H82">
-        <v>0.402</v>
+        <v>0.011</v>
       </c>
       <c r="I82">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>0.436</v>
+        <v>0.115</v>
       </c>
       <c r="K82">
-        <v>0.137</v>
-      </c>
-      <c r="L82" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>0.026</v>
+      </c>
+      <c r="M82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B83">
         <v>20</v>
@@ -4054,33 +4060,33 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H83">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.213</v>
+        <v>0.068</v>
       </c>
       <c r="K83">
-        <v>0.011</v>
-      </c>
-      <c r="L83" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>0.013</v>
+      </c>
+      <c r="M83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B84">
         <v>21</v>
@@ -4098,27 +4104,27 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H84">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.075</v>
+        <v>0.068</v>
       </c>
       <c r="K84">
         <v>0.013</v>
       </c>
-      <c r="L84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B85">
         <v>22</v>
@@ -4136,27 +4142,27 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H85">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.027</v>
+        <v>0.011</v>
       </c>
       <c r="K85">
-        <v>0.019</v>
-      </c>
-      <c r="L85" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>0.013</v>
+      </c>
+      <c r="M85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B86">
         <v>23</v>
@@ -4174,27 +4180,27 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H86">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.027</v>
+        <v>0.011</v>
       </c>
       <c r="K86">
-        <v>0.019</v>
-      </c>
-      <c r="L86" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>0.013</v>
+      </c>
+      <c r="M86" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="2">
-        <v>45921</v>
+        <v>45936</v>
       </c>
       <c r="B87">
         <v>24</v>
@@ -4212,27 +4218,27 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H87">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0.018</v>
+        <v>0.011</v>
       </c>
       <c r="K87">
         <v>0.013</v>
       </c>
-      <c r="L87" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4250,27 +4256,27 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H88">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0.014</v>
       </c>
-      <c r="L88" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4288,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H89">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4302,13 +4308,13 @@
       <c r="K89">
         <v>0.014</v>
       </c>
-      <c r="L89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -4326,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H90">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -4338,15 +4344,15 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0.015</v>
-      </c>
-      <c r="L90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -4364,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H91">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -4376,15 +4382,15 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>0.015</v>
-      </c>
-      <c r="L91" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4402,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H92">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -4414,15 +4420,15 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0.015</v>
-      </c>
-      <c r="L92" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -4440,10 +4446,10 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H93">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -4452,15 +4458,15 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0.015</v>
-      </c>
-      <c r="L93" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B94">
         <v>7</v>
@@ -4478,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H94">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -4490,489 +4496,489 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>0.015</v>
-      </c>
-      <c r="L94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B95">
         <v>8</v>
       </c>
       <c r="C95">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0.02</v>
+      </c>
+      <c r="F95">
         <v>0.066</v>
       </c>
-      <c r="E95">
-        <v>0.081</v>
-      </c>
-      <c r="F95">
-        <v>0.405</v>
-      </c>
       <c r="G95">
-        <v>0.176</v>
+        <v>0.037</v>
       </c>
       <c r="H95">
-        <v>0.133</v>
+        <v>0.012</v>
       </c>
       <c r="I95">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <v>0.392</v>
       </c>
       <c r="K95">
-        <v>0.043</v>
-      </c>
-      <c r="L95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>0.038</v>
+      </c>
+      <c r="M95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B96">
         <v>9</v>
       </c>
       <c r="C96">
-        <v>0.632</v>
+        <v>0.196</v>
       </c>
       <c r="D96">
-        <v>0.768</v>
+        <v>0.191</v>
       </c>
       <c r="E96">
-        <v>0.672</v>
+        <v>0.371</v>
       </c>
       <c r="F96">
-        <v>1.667</v>
+        <v>0.631</v>
       </c>
       <c r="G96">
-        <v>0.83</v>
+        <v>0.36</v>
       </c>
       <c r="H96">
-        <v>1.255</v>
+        <v>0.203</v>
       </c>
       <c r="I96">
-        <v>0.47</v>
+        <v>0.146</v>
       </c>
       <c r="J96">
-        <v>0.826</v>
+        <v>0.637</v>
       </c>
       <c r="K96">
-        <v>0.478</v>
-      </c>
-      <c r="L96" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>0.059</v>
+      </c>
+      <c r="M96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B97">
         <v>10</v>
       </c>
       <c r="C97">
-        <v>1.477</v>
+        <v>0.608</v>
       </c>
       <c r="D97">
-        <v>1.764</v>
+        <v>0.653</v>
       </c>
       <c r="E97">
-        <v>1.692</v>
+        <v>1.397</v>
       </c>
       <c r="F97">
-        <v>2.632</v>
+        <v>1.485</v>
       </c>
       <c r="G97">
-        <v>1.831</v>
+        <v>1.116</v>
       </c>
       <c r="H97">
-        <v>2.522</v>
+        <v>0.587</v>
       </c>
       <c r="I97">
-        <v>0.841</v>
+        <v>0.417</v>
       </c>
       <c r="J97">
-        <v>1.869</v>
+        <v>1.161</v>
       </c>
       <c r="K97">
-        <v>0.885</v>
-      </c>
-      <c r="L97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>0.3</v>
+      </c>
+      <c r="M97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B98">
         <v>11</v>
       </c>
       <c r="C98">
-        <v>2.107</v>
+        <v>0.978</v>
       </c>
       <c r="D98">
-        <v>2.547</v>
+        <v>1.129</v>
       </c>
       <c r="E98">
-        <v>2.684</v>
+        <v>2.152</v>
       </c>
       <c r="F98">
-        <v>3.366</v>
+        <v>2.29</v>
       </c>
       <c r="G98">
-        <v>2.545</v>
+        <v>1.608</v>
       </c>
       <c r="H98">
-        <v>2.833</v>
+        <v>0.91</v>
       </c>
       <c r="I98">
-        <v>1.2</v>
+        <v>0.747</v>
       </c>
       <c r="J98">
-        <v>2.523</v>
+        <v>1.855</v>
       </c>
       <c r="K98">
-        <v>1.069</v>
-      </c>
-      <c r="L98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>0.553</v>
+      </c>
+      <c r="M98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B99">
         <v>12</v>
       </c>
       <c r="C99">
-        <v>2.589</v>
+        <v>1.528</v>
       </c>
       <c r="D99">
-        <v>3.019</v>
+        <v>1.623</v>
       </c>
       <c r="E99">
-        <v>3.422</v>
+        <v>2.944</v>
       </c>
       <c r="F99">
-        <v>3.556</v>
+        <v>2.722</v>
       </c>
       <c r="G99">
-        <v>3.005</v>
+        <v>2.004</v>
       </c>
       <c r="H99">
-        <v>2.425</v>
+        <v>1.324</v>
       </c>
       <c r="I99">
-        <v>1.555</v>
+        <v>0.983</v>
       </c>
       <c r="J99">
-        <v>3.668</v>
+        <v>2.459</v>
       </c>
       <c r="K99">
-        <v>1.193</v>
-      </c>
-      <c r="L99" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>0.779</v>
+      </c>
+      <c r="M99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B100">
         <v>13</v>
       </c>
       <c r="C100">
-        <v>2.967</v>
+        <v>1.583</v>
       </c>
       <c r="D100">
-        <v>3.108</v>
+        <v>1.77</v>
       </c>
       <c r="E100">
-        <v>3.761</v>
+        <v>3.02</v>
       </c>
       <c r="F100">
-        <v>3.862</v>
+        <v>2.543</v>
       </c>
       <c r="G100">
-        <v>3.143</v>
+        <v>1.923</v>
       </c>
       <c r="H100">
-        <v>2.425</v>
+        <v>1.444</v>
       </c>
       <c r="I100">
-        <v>1.555</v>
+        <v>0.962</v>
       </c>
       <c r="J100">
-        <v>3.749</v>
+        <v>2.509</v>
       </c>
       <c r="K100">
-        <v>1.484</v>
-      </c>
-      <c r="L100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>0.773</v>
+      </c>
+      <c r="M100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B101">
         <v>14</v>
       </c>
       <c r="C101">
-        <v>2.963</v>
+        <v>1.656</v>
       </c>
       <c r="D101">
-        <v>3.099</v>
+        <v>1.794</v>
       </c>
       <c r="E101">
-        <v>3.713</v>
+        <v>2.832</v>
       </c>
       <c r="F101">
-        <v>4.008</v>
+        <v>2.329</v>
       </c>
       <c r="G101">
-        <v>3.328</v>
+        <v>1.674</v>
       </c>
       <c r="H101">
-        <v>1.42</v>
+        <v>1.444</v>
       </c>
       <c r="I101">
-        <v>1.513</v>
+        <v>1.067</v>
       </c>
       <c r="J101">
-        <v>3.481</v>
+        <v>2.364</v>
       </c>
       <c r="K101">
-        <v>1.476</v>
-      </c>
-      <c r="L101" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+        <v>0.773</v>
+      </c>
+      <c r="M101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B102">
         <v>15</v>
       </c>
       <c r="C102">
-        <v>2.499</v>
+        <v>1.572</v>
       </c>
       <c r="D102">
-        <v>2.99</v>
+        <v>1.724</v>
       </c>
       <c r="E102">
-        <v>3.697</v>
+        <v>2.149</v>
       </c>
       <c r="F102">
-        <v>3.683</v>
+        <v>2.016</v>
       </c>
       <c r="G102">
-        <v>3.25</v>
+        <v>1.526</v>
       </c>
       <c r="H102">
-        <v>1.382</v>
+        <v>1.332</v>
       </c>
       <c r="I102">
-        <v>1.494</v>
+        <v>0.944</v>
       </c>
       <c r="J102">
-        <v>3.384</v>
+        <v>1.655</v>
       </c>
       <c r="K102">
-        <v>1.302</v>
-      </c>
-      <c r="L102" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>0.637</v>
+      </c>
+      <c r="M102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B103">
         <v>16</v>
       </c>
       <c r="C103">
-        <v>2.249</v>
+        <v>1.223</v>
       </c>
       <c r="D103">
-        <v>2.709</v>
+        <v>1.309</v>
       </c>
       <c r="E103">
-        <v>3.252</v>
+        <v>1.738</v>
       </c>
       <c r="F103">
-        <v>2.925</v>
+        <v>0.947</v>
       </c>
       <c r="G103">
-        <v>2.734</v>
+        <v>1.275</v>
       </c>
       <c r="H103">
-        <v>2.615</v>
+        <v>0.965</v>
       </c>
       <c r="I103">
-        <v>1.333</v>
+        <v>0.737</v>
       </c>
       <c r="J103">
-        <v>2.994</v>
+        <v>1.354</v>
       </c>
       <c r="K103">
-        <v>1.077</v>
-      </c>
-      <c r="L103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>0.469</v>
+      </c>
+      <c r="M103" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B104">
         <v>17</v>
       </c>
       <c r="C104">
-        <v>1.859</v>
+        <v>0.728</v>
       </c>
       <c r="D104">
-        <v>2.061</v>
+        <v>0.82</v>
       </c>
       <c r="E104">
-        <v>2.425</v>
+        <v>1.509</v>
       </c>
       <c r="F104">
-        <v>1.836</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G104">
-        <v>1.851</v>
+        <v>0.737</v>
       </c>
       <c r="H104">
-        <v>2.209</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="I104">
-        <v>0.8070000000000001</v>
+        <v>0.367</v>
       </c>
       <c r="J104">
-        <v>1.946</v>
+        <v>1.009</v>
       </c>
       <c r="K104">
-        <v>0.759</v>
-      </c>
-      <c r="L104" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>0.303</v>
+      </c>
+      <c r="M104" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B105">
         <v>18</v>
       </c>
       <c r="C105">
-        <v>0.986</v>
+        <v>0.252</v>
       </c>
       <c r="D105">
-        <v>1.235</v>
+        <v>0.322</v>
       </c>
       <c r="E105">
-        <v>1.337</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F105">
-        <v>0.718</v>
+        <v>0.137</v>
       </c>
       <c r="G105">
-        <v>0.888</v>
+        <v>0.211</v>
       </c>
       <c r="H105">
-        <v>0.995</v>
+        <v>0.232</v>
       </c>
       <c r="I105">
-        <v>0.455</v>
+        <v>0.146</v>
       </c>
       <c r="J105">
-        <v>1.122</v>
+        <v>0.473</v>
       </c>
       <c r="K105">
-        <v>0.302</v>
-      </c>
-      <c r="L105" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>0.121</v>
+      </c>
+      <c r="M105" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B106">
         <v>19</v>
       </c>
       <c r="C106">
-        <v>0.226</v>
+        <v>0.024</v>
       </c>
       <c r="D106">
-        <v>0.322</v>
+        <v>0.025</v>
       </c>
       <c r="E106">
-        <v>0.464</v>
+        <v>0.109</v>
       </c>
       <c r="F106">
-        <v>0.139</v>
+        <v>0.019</v>
       </c>
       <c r="G106">
-        <v>0.241</v>
+        <v>0.025</v>
       </c>
       <c r="H106">
-        <v>0.328</v>
+        <v>0.034</v>
       </c>
       <c r="I106">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>0.366</v>
+        <v>0.426</v>
       </c>
       <c r="K106">
-        <v>0.101</v>
-      </c>
-      <c r="L106" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>0.026</v>
+      </c>
+      <c r="M106" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B107">
         <v>20</v>
       </c>
       <c r="C107">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -4981,18 +4987,18 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0.213</v>
+        <v>0.048</v>
       </c>
       <c r="K107">
-        <v>0.012</v>
-      </c>
-      <c r="L107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>0.013</v>
+      </c>
+      <c r="M107" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B108">
         <v>21</v>
@@ -5010,27 +5016,27 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0.048</v>
+      </c>
+      <c r="K108">
         <v>0.013</v>
       </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>0.075</v>
-      </c>
-      <c r="K108">
-        <v>0.014</v>
-      </c>
-      <c r="L108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B109">
         <v>22</v>
@@ -5048,27 +5054,27 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H109">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0.022</v>
+        <v>0.016</v>
       </c>
       <c r="K109">
-        <v>0.02</v>
-      </c>
-      <c r="L109" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>0.013</v>
+      </c>
+      <c r="M109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B110">
         <v>23</v>
@@ -5086,27 +5092,27 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H110">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.027</v>
+        <v>0.016</v>
       </c>
       <c r="K110">
-        <v>0.014</v>
-      </c>
-      <c r="L110" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+        <v>0.013</v>
+      </c>
+      <c r="M110" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="2">
-        <v>45922</v>
+        <v>45937</v>
       </c>
       <c r="B111">
         <v>24</v>
@@ -5124,27 +5130,27 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H111">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="K111">
-        <v>0.014</v>
-      </c>
-      <c r="L111" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>0.013</v>
+      </c>
+      <c r="M111" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -5156,16 +5162,16 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H112">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -5174,15 +5180,15 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>0.015</v>
-      </c>
-      <c r="L112" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -5200,27 +5206,27 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H113">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K113">
-        <v>0.015</v>
-      </c>
-      <c r="L113" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M113" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -5232,33 +5238,33 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H114">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K114">
-        <v>0.015</v>
-      </c>
-      <c r="L114" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M114" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -5270,16 +5276,16 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H115">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -5288,15 +5294,15 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0.015</v>
-      </c>
-      <c r="L115" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M115" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5308,16 +5314,16 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H116">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -5326,15 +5332,15 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0.015</v>
-      </c>
-      <c r="L116" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M116" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B117">
         <v>6</v>
@@ -5346,16 +5352,16 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H117">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -5364,15 +5370,15 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>0.015</v>
-      </c>
-      <c r="L117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M117" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B118">
         <v>7</v>
@@ -5384,16 +5390,16 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H118">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5402,471 +5408,471 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>0.015</v>
-      </c>
-      <c r="L118" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M118" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B119">
         <v>8</v>
       </c>
       <c r="C119">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>0.07199999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="F119">
-        <v>0.333</v>
+        <v>0.064</v>
       </c>
       <c r="G119">
-        <v>0.148</v>
+        <v>0.032</v>
       </c>
       <c r="H119">
-        <v>0.107</v>
+        <v>0.011</v>
       </c>
       <c r="I119">
-        <v>0.064</v>
+        <v>0.012</v>
       </c>
       <c r="J119">
-        <v>0.347</v>
+        <v>0.275</v>
       </c>
       <c r="K119">
-        <v>0.039</v>
-      </c>
-      <c r="L119" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+        <v>0.038</v>
+      </c>
+      <c r="M119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B120">
         <v>9</v>
       </c>
       <c r="C120">
-        <v>0.614</v>
+        <v>0.274</v>
       </c>
       <c r="D120">
-        <v>0.756</v>
+        <v>0.254</v>
       </c>
       <c r="E120">
-        <v>0.622</v>
+        <v>0.374</v>
       </c>
       <c r="F120">
-        <v>1.513</v>
+        <v>0.516</v>
       </c>
       <c r="G120">
-        <v>0.89</v>
+        <v>0.368</v>
       </c>
       <c r="H120">
-        <v>1.227</v>
+        <v>0.172</v>
       </c>
       <c r="I120">
-        <v>0.447</v>
+        <v>0.179</v>
       </c>
       <c r="J120">
-        <v>0.8179999999999999</v>
+        <v>0.542</v>
       </c>
       <c r="K120">
-        <v>0.461</v>
-      </c>
-      <c r="L120" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+        <v>0.046</v>
+      </c>
+      <c r="M120" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B121">
         <v>10</v>
       </c>
       <c r="C121">
-        <v>1.431</v>
+        <v>0.762</v>
       </c>
       <c r="D121">
-        <v>1.712</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="E121">
-        <v>1.606</v>
+        <v>1.38</v>
       </c>
       <c r="F121">
-        <v>2.39</v>
+        <v>0.975</v>
       </c>
       <c r="G121">
-        <v>1.717</v>
+        <v>0.921</v>
       </c>
       <c r="H121">
-        <v>2.157</v>
+        <v>0.48</v>
       </c>
       <c r="I121">
-        <v>0.726</v>
+        <v>0.45</v>
       </c>
       <c r="J121">
-        <v>1.66</v>
+        <v>1.134</v>
       </c>
       <c r="K121">
-        <v>0.801</v>
-      </c>
-      <c r="L121" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+        <v>0.294</v>
+      </c>
+      <c r="M121" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B122">
         <v>11</v>
       </c>
       <c r="C122">
-        <v>2.086</v>
+        <v>1.29</v>
       </c>
       <c r="D122">
-        <v>2.487</v>
+        <v>1.246</v>
       </c>
       <c r="E122">
-        <v>2.674</v>
+        <v>2.217</v>
       </c>
       <c r="F122">
-        <v>2.902</v>
+        <v>1.939</v>
       </c>
       <c r="G122">
-        <v>2.177</v>
+        <v>1.55</v>
       </c>
       <c r="H122">
-        <v>2.753</v>
+        <v>0.995</v>
       </c>
       <c r="I122">
-        <v>1.022</v>
+        <v>0.712</v>
       </c>
       <c r="J122">
-        <v>2.343</v>
+        <v>2.007</v>
       </c>
       <c r="K122">
-        <v>1.134</v>
-      </c>
-      <c r="L122" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+        <v>0.461</v>
+      </c>
+      <c r="M122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B123">
         <v>12</v>
       </c>
       <c r="C123">
-        <v>2.58</v>
+        <v>1.561</v>
       </c>
       <c r="D123">
-        <v>2.893</v>
+        <v>1.664</v>
       </c>
       <c r="E123">
-        <v>3.438</v>
+        <v>2.965</v>
       </c>
       <c r="F123">
-        <v>3.237</v>
+        <v>2.644</v>
       </c>
       <c r="G123">
-        <v>2.812</v>
+        <v>1.959</v>
       </c>
       <c r="H123">
-        <v>2.33</v>
+        <v>1.354</v>
       </c>
       <c r="I123">
-        <v>1.443</v>
+        <v>0.837</v>
       </c>
       <c r="J123">
-        <v>3.088</v>
+        <v>2.464</v>
       </c>
       <c r="K123">
-        <v>1.314</v>
-      </c>
-      <c r="L123" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+        <v>0.76</v>
+      </c>
+      <c r="M123" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B124">
         <v>13</v>
       </c>
       <c r="C124">
-        <v>2.913</v>
+        <v>1.577</v>
       </c>
       <c r="D124">
-        <v>3.043</v>
+        <v>1.691</v>
       </c>
       <c r="E124">
-        <v>3.746</v>
+        <v>3.303</v>
       </c>
       <c r="F124">
-        <v>3.509</v>
+        <v>2.555</v>
       </c>
       <c r="G124">
-        <v>3.003</v>
+        <v>1.986</v>
       </c>
       <c r="H124">
-        <v>2.995</v>
+        <v>1.444</v>
       </c>
       <c r="I124">
-        <v>1.472</v>
+        <v>0.847</v>
       </c>
       <c r="J124">
-        <v>3.53</v>
+        <v>2.514</v>
       </c>
       <c r="K124">
-        <v>1.516</v>
-      </c>
-      <c r="L124" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
+        <v>0.806</v>
+      </c>
+      <c r="M124" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B125">
         <v>14</v>
       </c>
       <c r="C125">
-        <v>2.941</v>
+        <v>1.313</v>
       </c>
       <c r="D125">
-        <v>3.052</v>
+        <v>1.556</v>
       </c>
       <c r="E125">
-        <v>3.74</v>
+        <v>3.506</v>
       </c>
       <c r="F125">
-        <v>3.675</v>
+        <v>2.123</v>
       </c>
       <c r="G125">
-        <v>3.038</v>
+        <v>1.604</v>
       </c>
       <c r="H125">
-        <v>1.418</v>
+        <v>1.444</v>
       </c>
       <c r="I125">
-        <v>1.494</v>
+        <v>0.863</v>
       </c>
       <c r="J125">
-        <v>3.322</v>
+        <v>2.463</v>
       </c>
       <c r="K125">
-        <v>1.462</v>
-      </c>
-      <c r="L125" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
+        <v>0.857</v>
+      </c>
+      <c r="M125" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B126">
         <v>15</v>
       </c>
       <c r="C126">
-        <v>2.451</v>
+        <v>0.987</v>
       </c>
       <c r="D126">
-        <v>2.962</v>
+        <v>1.28</v>
       </c>
       <c r="E126">
-        <v>3.526</v>
+        <v>3.177</v>
       </c>
       <c r="F126">
-        <v>3.48</v>
+        <v>1.312</v>
       </c>
       <c r="G126">
-        <v>3.058</v>
+        <v>1.449</v>
       </c>
       <c r="H126">
-        <v>1.573</v>
+        <v>1.353</v>
       </c>
       <c r="I126">
-        <v>1.494</v>
+        <v>0.678</v>
       </c>
       <c r="J126">
-        <v>3.258</v>
+        <v>1.794</v>
       </c>
       <c r="K126">
-        <v>1.215</v>
-      </c>
-      <c r="L126" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
+        <v>0.622</v>
+      </c>
+      <c r="M126" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B127">
         <v>16</v>
       </c>
       <c r="C127">
-        <v>2.232</v>
+        <v>0.757</v>
       </c>
       <c r="D127">
-        <v>2.69</v>
+        <v>0.898</v>
       </c>
       <c r="E127">
-        <v>3.071</v>
+        <v>2.661</v>
       </c>
       <c r="F127">
-        <v>2.887</v>
+        <v>0.792</v>
       </c>
       <c r="G127">
-        <v>2.732</v>
+        <v>0.893</v>
       </c>
       <c r="H127">
-        <v>2.383</v>
+        <v>0.999</v>
       </c>
       <c r="I127">
-        <v>1.333</v>
+        <v>0.486</v>
       </c>
       <c r="J127">
-        <v>2.881</v>
+        <v>1.959</v>
       </c>
       <c r="K127">
-        <v>0.947</v>
-      </c>
-      <c r="L127" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
+        <v>0.425</v>
+      </c>
+      <c r="M127" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B128">
         <v>17</v>
       </c>
       <c r="C128">
-        <v>1.737</v>
+        <v>0.428</v>
       </c>
       <c r="D128">
-        <v>1.944</v>
+        <v>0.633</v>
       </c>
       <c r="E128">
-        <v>2.22</v>
+        <v>1.554</v>
       </c>
       <c r="F128">
-        <v>1.785</v>
+        <v>0.31</v>
       </c>
       <c r="G128">
-        <v>1.809</v>
+        <v>0.453</v>
       </c>
       <c r="H128">
-        <v>1.891</v>
+        <v>0.632</v>
       </c>
       <c r="I128">
-        <v>0.924</v>
+        <v>0.292</v>
       </c>
       <c r="J128">
-        <v>2.009</v>
+        <v>0.974</v>
       </c>
       <c r="K128">
-        <v>0.663</v>
-      </c>
-      <c r="L128" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+        <v>0.269</v>
+      </c>
+      <c r="M128" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B129">
         <v>18</v>
       </c>
       <c r="C129">
-        <v>0.902</v>
+        <v>0.152</v>
       </c>
       <c r="D129">
-        <v>1.178</v>
+        <v>0.184</v>
       </c>
       <c r="E129">
-        <v>1.32</v>
+        <v>0.679</v>
       </c>
       <c r="F129">
-        <v>0.681</v>
+        <v>0.097</v>
       </c>
       <c r="G129">
-        <v>0.901</v>
+        <v>0.141</v>
       </c>
       <c r="H129">
-        <v>1.008</v>
+        <v>0.203</v>
       </c>
       <c r="I129">
-        <v>0.455</v>
+        <v>0.074</v>
       </c>
       <c r="J129">
-        <v>1.021</v>
+        <v>0.386</v>
       </c>
       <c r="K129">
-        <v>0.274</v>
-      </c>
-      <c r="L129" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+        <v>0.037</v>
+      </c>
+      <c r="M129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B130">
         <v>19</v>
       </c>
       <c r="C130">
-        <v>0.184</v>
+        <v>0.021</v>
       </c>
       <c r="D130">
-        <v>0.252</v>
+        <v>0.023</v>
       </c>
       <c r="E130">
-        <v>0.348</v>
+        <v>0.1</v>
       </c>
       <c r="F130">
-        <v>0.132</v>
+        <v>0.012</v>
       </c>
       <c r="G130">
-        <v>0.217</v>
+        <v>0.019</v>
       </c>
       <c r="H130">
-        <v>0.277</v>
+        <v>0.016</v>
       </c>
       <c r="I130">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>0.338</v>
+        <v>0.276</v>
       </c>
       <c r="K130">
-        <v>0.113</v>
-      </c>
-      <c r="L130" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+        <v>0.026</v>
+      </c>
+      <c r="M130" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B131">
         <v>20</v>
@@ -5884,27 +5890,27 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H131">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0.205</v>
+        <v>0.048</v>
       </c>
       <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+        <v>0.013</v>
+      </c>
+      <c r="M131" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B132">
         <v>21</v>
@@ -5916,33 +5922,33 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H132">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0.075</v>
+        <v>0.048</v>
       </c>
       <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+        <v>0.013</v>
+      </c>
+      <c r="M132" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B133">
         <v>22</v>
@@ -5954,33 +5960,33 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0.016</v>
+      </c>
+      <c r="K133">
         <v>0.013</v>
       </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0.022</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B134">
         <v>23</v>
@@ -5992,33 +5998,33 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0.016</v>
+      </c>
+      <c r="K134">
         <v>0.013</v>
       </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <v>0.022</v>
-      </c>
-      <c r="K134">
-        <v>0.019</v>
-      </c>
-      <c r="L134" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="2">
-        <v>45923</v>
+        <v>45938</v>
       </c>
       <c r="B135">
         <v>24</v>
@@ -6030,33 +6036,33 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H135">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135">
-        <v>0.027</v>
+        <v>0.016</v>
       </c>
       <c r="K135">
-        <v>0.019</v>
-      </c>
-      <c r="L135" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+        <v>0.013</v>
+      </c>
+      <c r="M135" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -6068,33 +6074,33 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0.013</v>
+      </c>
+      <c r="K136">
         <v>0.014</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>0.025</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -6112,27 +6118,27 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
         <v>0.013</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>0.016</v>
-      </c>
       <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M137" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B138">
         <v>3</v>
@@ -6150,27 +6156,27 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H138">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K138">
-        <v>0.021</v>
-      </c>
-      <c r="L138" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M138" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -6182,33 +6188,33 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H139">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K139">
-        <v>0.015</v>
-      </c>
-      <c r="L139" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M139" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -6220,33 +6226,33 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H140">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K140">
-        <v>0.015</v>
-      </c>
-      <c r="L140" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+        <v>0.014</v>
+      </c>
+      <c r="M140" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B141">
         <v>6</v>
@@ -6258,33 +6264,33 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H141">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K141">
-        <v>0.015</v>
-      </c>
-      <c r="L141" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
+        <v>0.032</v>
+      </c>
+      <c r="M141" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B142">
         <v>7</v>
@@ -6296,489 +6302,489 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H142">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K142">
-        <v>0.015</v>
-      </c>
-      <c r="L142" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
+        <v>0.032</v>
+      </c>
+      <c r="M142" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B143">
         <v>8</v>
       </c>
       <c r="C143">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>0.074</v>
+        <v>0.019</v>
       </c>
       <c r="F143">
-        <v>0.325</v>
+        <v>0.083</v>
       </c>
       <c r="G143">
-        <v>0.144</v>
+        <v>0.037</v>
       </c>
       <c r="H143">
-        <v>0.108</v>
+        <v>0.012</v>
       </c>
       <c r="I143">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>0.354</v>
+        <v>0.182</v>
       </c>
       <c r="K143">
-        <v>0.045</v>
-      </c>
-      <c r="L143" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+        <v>0.038</v>
+      </c>
+      <c r="M143" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B144">
         <v>9</v>
       </c>
       <c r="C144">
-        <v>0.516</v>
+        <v>0.169</v>
       </c>
       <c r="D144">
-        <v>0.638</v>
+        <v>0.16</v>
       </c>
       <c r="E144">
-        <v>0.623</v>
+        <v>0.444</v>
       </c>
       <c r="F144">
-        <v>1.387</v>
+        <v>0.584</v>
       </c>
       <c r="G144">
-        <v>0.891</v>
+        <v>0.398</v>
       </c>
       <c r="H144">
-        <v>1.363</v>
+        <v>0.217</v>
       </c>
       <c r="I144">
-        <v>0.426</v>
+        <v>0.112</v>
       </c>
       <c r="J144">
-        <v>0.956</v>
+        <v>0.45</v>
       </c>
       <c r="K144">
-        <v>0.348</v>
-      </c>
-      <c r="L144" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+        <v>0.139</v>
+      </c>
+      <c r="M144" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B145">
         <v>10</v>
       </c>
       <c r="C145">
-        <v>1.175</v>
+        <v>0.538</v>
       </c>
       <c r="D145">
-        <v>1.532</v>
+        <v>0.722</v>
       </c>
       <c r="E145">
-        <v>1.639</v>
+        <v>1.626</v>
       </c>
       <c r="F145">
-        <v>2.537</v>
+        <v>1.592</v>
       </c>
       <c r="G145">
-        <v>1.826</v>
+        <v>1.1</v>
       </c>
       <c r="H145">
-        <v>2.413</v>
+        <v>0.75</v>
       </c>
       <c r="I145">
-        <v>0.869</v>
+        <v>0.455</v>
       </c>
       <c r="J145">
-        <v>2.002</v>
+        <v>1.144</v>
       </c>
       <c r="K145">
-        <v>0.829</v>
-      </c>
-      <c r="L145" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
+        <v>0.481</v>
+      </c>
+      <c r="M145" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B146">
         <v>11</v>
       </c>
       <c r="C146">
-        <v>1.928</v>
+        <v>0.912</v>
       </c>
       <c r="D146">
-        <v>2.285</v>
+        <v>1.197</v>
       </c>
       <c r="E146">
-        <v>2.644</v>
+        <v>2.295</v>
       </c>
       <c r="F146">
-        <v>3.281</v>
+        <v>2.321</v>
       </c>
       <c r="G146">
-        <v>2.634</v>
+        <v>1.887</v>
       </c>
       <c r="H146">
-        <v>2.377</v>
+        <v>1.245</v>
       </c>
       <c r="I146">
-        <v>1.154</v>
+        <v>0.753</v>
       </c>
       <c r="J146">
-        <v>2.762</v>
+        <v>1.945</v>
       </c>
       <c r="K146">
-        <v>1.121</v>
-      </c>
-      <c r="L146" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
+        <v>0.877</v>
+      </c>
+      <c r="M146" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B147">
         <v>12</v>
       </c>
       <c r="C147">
-        <v>2.336</v>
+        <v>1.549</v>
       </c>
       <c r="D147">
-        <v>2.633</v>
+        <v>1.695</v>
       </c>
       <c r="E147">
-        <v>3.476</v>
+        <v>3.214</v>
       </c>
       <c r="F147">
-        <v>3.7</v>
+        <v>2.784</v>
       </c>
       <c r="G147">
-        <v>3.185</v>
+        <v>2.245</v>
       </c>
       <c r="H147">
-        <v>2.657</v>
+        <v>1.437</v>
       </c>
       <c r="I147">
-        <v>1.437</v>
+        <v>0.97</v>
       </c>
       <c r="J147">
-        <v>3.591</v>
+        <v>2.31</v>
       </c>
       <c r="K147">
-        <v>1.353</v>
-      </c>
-      <c r="L147" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="M147" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B148">
         <v>13</v>
       </c>
       <c r="C148">
-        <v>2.604</v>
+        <v>1.723</v>
       </c>
       <c r="D148">
-        <v>2.894</v>
+        <v>1.826</v>
       </c>
       <c r="E148">
-        <v>3.658</v>
+        <v>3.694</v>
       </c>
       <c r="F148">
-        <v>3.989</v>
+        <v>2.957</v>
       </c>
       <c r="G148">
-        <v>3.289</v>
+        <v>2.534</v>
       </c>
       <c r="H148">
-        <v>1.749</v>
+        <v>1.622</v>
       </c>
       <c r="I148">
-        <v>1.437</v>
+        <v>0.776</v>
       </c>
       <c r="J148">
-        <v>3.551</v>
+        <v>2.793</v>
       </c>
       <c r="K148">
-        <v>1.495</v>
-      </c>
-      <c r="L148" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
+        <v>1.055</v>
+      </c>
+      <c r="M148" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B149">
         <v>14</v>
       </c>
       <c r="C149">
-        <v>2.682</v>
+        <v>1.815</v>
       </c>
       <c r="D149">
-        <v>2.892</v>
+        <v>1.968</v>
       </c>
       <c r="E149">
-        <v>3.673</v>
+        <v>3.691</v>
       </c>
       <c r="F149">
-        <v>3.943</v>
+        <v>3.09</v>
       </c>
       <c r="G149">
-        <v>3.289</v>
+        <v>2.774</v>
       </c>
       <c r="H149">
-        <v>1.751</v>
+        <v>1.63</v>
       </c>
       <c r="I149">
-        <v>1.494</v>
+        <v>0.776</v>
       </c>
       <c r="J149">
-        <v>3.414</v>
+        <v>2.7</v>
       </c>
       <c r="K149">
-        <v>1.418</v>
-      </c>
-      <c r="L149" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
+        <v>1.031</v>
+      </c>
+      <c r="M149" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B150">
         <v>15</v>
       </c>
       <c r="C150">
-        <v>2.575</v>
+        <v>1.743</v>
       </c>
       <c r="D150">
-        <v>2.863</v>
+        <v>1.876</v>
       </c>
       <c r="E150">
-        <v>3.564</v>
+        <v>3.64</v>
       </c>
       <c r="F150">
-        <v>3.565</v>
+        <v>2.702</v>
       </c>
       <c r="G150">
-        <v>3.144</v>
+        <v>2.601</v>
       </c>
       <c r="H150">
-        <v>2.966</v>
+        <v>1.612</v>
       </c>
       <c r="I150">
-        <v>1.494</v>
+        <v>0.966</v>
       </c>
       <c r="J150">
-        <v>3.345</v>
+        <v>2.405</v>
       </c>
       <c r="K150">
-        <v>1.141</v>
-      </c>
-      <c r="L150" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
+        <v>0.901</v>
+      </c>
+      <c r="M150" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B151">
         <v>16</v>
       </c>
       <c r="C151">
-        <v>2.02</v>
+        <v>1.375</v>
       </c>
       <c r="D151">
-        <v>2.515</v>
+        <v>1.597</v>
       </c>
       <c r="E151">
-        <v>3.259</v>
+        <v>2.886</v>
       </c>
       <c r="F151">
-        <v>2.696</v>
+        <v>1.992</v>
       </c>
       <c r="G151">
-        <v>2.588</v>
+        <v>2.232</v>
       </c>
       <c r="H151">
-        <v>3.606</v>
+        <v>1.345</v>
       </c>
       <c r="I151">
-        <v>1.091</v>
+        <v>0.842</v>
       </c>
       <c r="J151">
-        <v>2.968</v>
+        <v>1.81</v>
       </c>
       <c r="K151">
-        <v>0.987</v>
-      </c>
-      <c r="L151" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+        <v>0.87</v>
+      </c>
+      <c r="M151" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B152">
         <v>17</v>
       </c>
       <c r="C152">
-        <v>1.532</v>
+        <v>0.782</v>
       </c>
       <c r="D152">
-        <v>1.734</v>
+        <v>0.894</v>
       </c>
       <c r="E152">
-        <v>2.367</v>
+        <v>1.916</v>
       </c>
       <c r="F152">
-        <v>1.729</v>
+        <v>1.008</v>
       </c>
       <c r="G152">
-        <v>1.726</v>
+        <v>1.218</v>
       </c>
       <c r="H152">
-        <v>2.77</v>
+        <v>0.838</v>
       </c>
       <c r="I152">
-        <v>0.66</v>
+        <v>0.527</v>
       </c>
       <c r="J152">
-        <v>1.815</v>
+        <v>1.181</v>
       </c>
       <c r="K152">
-        <v>0.645</v>
-      </c>
-      <c r="L152" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
+        <v>0.403</v>
+      </c>
+      <c r="M152" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B153">
         <v>18</v>
       </c>
       <c r="C153">
-        <v>0.733</v>
+        <v>0.274</v>
       </c>
       <c r="D153">
-        <v>0.876</v>
+        <v>0.338</v>
       </c>
       <c r="E153">
-        <v>1.436</v>
+        <v>0.767</v>
       </c>
       <c r="F153">
-        <v>0.579</v>
+        <v>0.233</v>
       </c>
       <c r="G153">
-        <v>0.8149999999999999</v>
+        <v>0.368</v>
       </c>
       <c r="H153">
-        <v>1.25</v>
+        <v>0.296</v>
       </c>
       <c r="I153">
-        <v>0.412</v>
+        <v>0.188</v>
       </c>
       <c r="J153">
-        <v>1.005</v>
+        <v>0.637</v>
       </c>
       <c r="K153">
-        <v>0.272</v>
-      </c>
-      <c r="L153" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+        <v>0.176</v>
+      </c>
+      <c r="M153" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B154">
         <v>19</v>
       </c>
       <c r="C154">
-        <v>0.141</v>
+        <v>0.023</v>
       </c>
       <c r="D154">
-        <v>0.154</v>
+        <v>0.024</v>
       </c>
       <c r="E154">
-        <v>0.397</v>
+        <v>0.129</v>
       </c>
       <c r="F154">
-        <v>0.121</v>
+        <v>0.021</v>
       </c>
       <c r="G154">
-        <v>0.16</v>
+        <v>0.032</v>
       </c>
       <c r="H154">
-        <v>0.308</v>
+        <v>0.034</v>
       </c>
       <c r="I154">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="J154">
-        <v>0.289</v>
+        <v>0.411</v>
       </c>
       <c r="K154">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="L154" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
+        <v>0.026</v>
+      </c>
+      <c r="M154" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B155">
         <v>20</v>
@@ -6790,33 +6796,33 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H155">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
       </c>
       <c r="J155">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
       <c r="K155">
-        <v>0</v>
-      </c>
-      <c r="L155" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+        <v>0.013</v>
+      </c>
+      <c r="M155" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B156">
         <v>21</v>
@@ -6828,33 +6834,33 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0.016</v>
+        <v>0.011</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H156">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
       <c r="K156">
         <v>0.013</v>
       </c>
-      <c r="L156" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
+      <c r="M156" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B157">
         <v>22</v>
@@ -6866,33 +6872,33 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H157">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157">
+        <v>0.011</v>
+      </c>
+      <c r="K157">
         <v>0.013</v>
       </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="L157" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
+      <c r="M157" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B158">
         <v>23</v>
@@ -6904,33 +6910,33 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H158">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="K158">
         <v>0.013</v>
       </c>
-      <c r="L158" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
+      <c r="M158" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="2">
-        <v>45924</v>
+        <v>45939</v>
       </c>
       <c r="B159">
         <v>24</v>
@@ -6942,33 +6948,33 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H159">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="K159">
         <v>0.013</v>
       </c>
-      <c r="L159" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
+      <c r="M159" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="2">
-        <v>45925</v>
+        <v>45940</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -6980,13 +6986,13 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -6995,18 +7001,18 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="K160">
         <v>0.014</v>
       </c>
-      <c r="L160" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
+      <c r="M160" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="2">
-        <v>45925</v>
+        <v>45940</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -7018,13 +7024,13 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0.016</v>
+        <v>0.011</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -7033,18 +7039,18 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="K161">
         <v>0.014</v>
       </c>
-      <c r="L161" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
+      <c r="M161" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="2">
-        <v>45925</v>
+        <v>45940</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -7056,13 +7062,13 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>0.016</v>
+        <v>0.011</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -7071,18 +7077,18 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="K162">
         <v>0.014</v>
       </c>
-      <c r="L162" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
+      <c r="M162" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="2">
-        <v>45925</v>
+        <v>45940</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -7094,13 +7100,13 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -7109,18 +7115,18 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>0.08599999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="K163">
         <v>0.014</v>
       </c>
-      <c r="L163" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
+      <c r="M163" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="2">
-        <v>45925</v>
+        <v>45940</v>
       </c>
       <c r="B164">
         <v>5</v>
@@ -7132,33 +7138,33 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H164">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164">
-        <v>0.029</v>
+        <v>0.013</v>
       </c>
       <c r="K164">
         <v>0.014</v>
       </c>
-      <c r="L164" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
+      <c r="M164" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="2">
-        <v>45925</v>
+        <v>45940</v>
       </c>
       <c r="B165">
         <v>6</v>
@@ -7170,16 +7176,16 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H165">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -7190,13 +7196,13 @@
       <c r="K165">
         <v>0.014</v>
       </c>
-      <c r="L165" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
+      <c r="M165" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="2">
-        <v>45925</v>
+        <v>45940</v>
       </c>
       <c r="B166">
         <v>7</v>
@@ -7208,16 +7214,16 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H166">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -7228,160 +7234,160 @@
       <c r="K166">
         <v>0.014</v>
       </c>
-      <c r="L166" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
+      <c r="M166" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="2">
-        <v>45925</v>
+        <v>45940</v>
       </c>
       <c r="B167">
         <v>8</v>
       </c>
       <c r="C167">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="F167">
-        <v>0.174</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G167">
-        <v>0.076</v>
+        <v>0.032</v>
       </c>
       <c r="H167">
-        <v>0.07199999999999999</v>
+        <v>0.012</v>
       </c>
       <c r="I167">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="J167">
-        <v>0.525</v>
+        <v>0.267</v>
       </c>
       <c r="K167">
         <v>0.038</v>
       </c>
-      <c r="L167" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
+      <c r="M167" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="2">
-        <v>45925</v>
+        <v>45940</v>
       </c>
       <c r="B168">
         <v>9</v>
       </c>
       <c r="C168">
-        <v>0.159</v>
+        <v>0.275</v>
       </c>
       <c r="D168">
-        <v>0.157</v>
+        <v>0.257</v>
       </c>
       <c r="E168">
-        <v>0.37</v>
+        <v>0.494</v>
       </c>
       <c r="F168">
-        <v>0.859</v>
+        <v>0.587</v>
       </c>
       <c r="G168">
-        <v>0.499</v>
+        <v>0.39</v>
       </c>
       <c r="H168">
-        <v>0.634</v>
+        <v>0.221</v>
       </c>
       <c r="I168">
-        <v>0.293</v>
+        <v>0.146</v>
       </c>
       <c r="J168">
-        <v>0.594</v>
+        <v>0.518</v>
       </c>
       <c r="K168">
-        <v>0.169</v>
-      </c>
-      <c r="L168" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12">
+        <v>0.075</v>
+      </c>
+      <c r="M168" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="2">
-        <v>45925</v>
+        <v>45940</v>
       </c>
       <c r="B169">
         <v>10</v>
       </c>
       <c r="C169">
-        <v>0.4</v>
+        <v>0.904</v>
       </c>
       <c r="D169">
-        <v>0.466</v>
+        <v>0.986</v>
       </c>
       <c r="E169">
-        <v>0.917</v>
+        <v>1.662</v>
       </c>
       <c r="F169">
-        <v>1.4</v>
+        <v>1.082</v>
       </c>
       <c r="G169">
-        <v>0.923</v>
+        <v>0.881</v>
       </c>
       <c r="H169">
-        <v>1.203</v>
+        <v>0.75</v>
       </c>
       <c r="I169">
-        <v>0.603</v>
+        <v>0.463</v>
       </c>
       <c r="J169">
-        <v>0.951</v>
+        <v>1.065</v>
       </c>
       <c r="K169">
-        <v>0.481</v>
-      </c>
-      <c r="L169" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
+        <v>0.349</v>
+      </c>
+      <c r="M169" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="2">
-        <v>45925</v>
+        <v>45940</v>
       </c>
       <c r="B170">
         <v>11</v>
       </c>
       <c r="C170">
-        <v>0.633</v>
+        <v>1.625</v>
       </c>
       <c r="D170">
-        <v>0.698</v>
+        <v>1.939</v>
       </c>
       <c r="E170">
-        <v>1.534</v>
+        <v>2.184</v>
       </c>
       <c r="F170">
-        <v>2.183</v>
+        <v>1.834</v>
       </c>
       <c r="G170">
-        <v>1.638</v>
+        <v>1.582</v>
       </c>
       <c r="H170">
-        <v>1.783</v>
+        <v>1.245</v>
       </c>
       <c r="I170">
-        <v>0.828</v>
+        <v>0.787</v>
       </c>
       <c r="J170">
-        <v>1.731</v>
+        <v>1.566</v>
       </c>
       <c r="K170">
-        <v>0.801</v>
-      </c>
-      <c r="L170" t="s">
-        <v>180</v>
+        <v>0.59</v>
+      </c>
+      <c r="M170" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -58,511 +58,511 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>16.10.202516</t>
-  </si>
-  <si>
-    <t>16.10.202517</t>
-  </si>
-  <si>
-    <t>16.10.202518</t>
-  </si>
-  <si>
-    <t>16.10.202519</t>
-  </si>
-  <si>
-    <t>16.10.202520</t>
-  </si>
-  <si>
-    <t>16.10.202521</t>
-  </si>
-  <si>
-    <t>16.10.202522</t>
-  </si>
-  <si>
-    <t>16.10.202523</t>
-  </si>
-  <si>
-    <t>16.10.202524</t>
-  </si>
-  <si>
-    <t>17.10.20251</t>
-  </si>
-  <si>
-    <t>17.10.20252</t>
-  </si>
-  <si>
-    <t>17.10.20253</t>
-  </si>
-  <si>
-    <t>17.10.20254</t>
-  </si>
-  <si>
-    <t>17.10.20255</t>
-  </si>
-  <si>
-    <t>17.10.20256</t>
-  </si>
-  <si>
-    <t>17.10.20257</t>
-  </si>
-  <si>
-    <t>17.10.20258</t>
-  </si>
-  <si>
-    <t>17.10.20259</t>
-  </si>
-  <si>
-    <t>17.10.202510</t>
-  </si>
-  <si>
-    <t>17.10.202511</t>
-  </si>
-  <si>
-    <t>17.10.202512</t>
-  </si>
-  <si>
-    <t>17.10.202513</t>
-  </si>
-  <si>
-    <t>17.10.202514</t>
-  </si>
-  <si>
-    <t>17.10.202515</t>
-  </si>
-  <si>
-    <t>17.10.202516</t>
-  </si>
-  <si>
-    <t>17.10.202517</t>
-  </si>
-  <si>
-    <t>17.10.202518</t>
-  </si>
-  <si>
-    <t>17.10.202519</t>
-  </si>
-  <si>
-    <t>17.10.202520</t>
-  </si>
-  <si>
-    <t>17.10.202521</t>
-  </si>
-  <si>
-    <t>17.10.202522</t>
-  </si>
-  <si>
-    <t>17.10.202523</t>
-  </si>
-  <si>
-    <t>17.10.202524</t>
-  </si>
-  <si>
-    <t>18.10.20251</t>
-  </si>
-  <si>
-    <t>18.10.20252</t>
-  </si>
-  <si>
-    <t>18.10.20253</t>
-  </si>
-  <si>
-    <t>18.10.20254</t>
-  </si>
-  <si>
-    <t>18.10.20255</t>
-  </si>
-  <si>
-    <t>18.10.20256</t>
-  </si>
-  <si>
-    <t>18.10.20257</t>
-  </si>
-  <si>
-    <t>18.10.20258</t>
-  </si>
-  <si>
-    <t>18.10.20259</t>
-  </si>
-  <si>
-    <t>18.10.202510</t>
-  </si>
-  <si>
-    <t>18.10.202511</t>
-  </si>
-  <si>
-    <t>18.10.202512</t>
-  </si>
-  <si>
-    <t>18.10.202513</t>
-  </si>
-  <si>
-    <t>18.10.202514</t>
-  </si>
-  <si>
-    <t>18.10.202515</t>
-  </si>
-  <si>
-    <t>18.10.202516</t>
-  </si>
-  <si>
-    <t>18.10.202517</t>
-  </si>
-  <si>
-    <t>18.10.202518</t>
-  </si>
-  <si>
-    <t>18.10.202519</t>
-  </si>
-  <si>
-    <t>18.10.202520</t>
-  </si>
-  <si>
-    <t>18.10.202521</t>
-  </si>
-  <si>
-    <t>18.10.202522</t>
-  </si>
-  <si>
-    <t>18.10.202523</t>
-  </si>
-  <si>
-    <t>18.10.202524</t>
-  </si>
-  <si>
-    <t>19.10.20251</t>
-  </si>
-  <si>
-    <t>19.10.20252</t>
-  </si>
-  <si>
-    <t>19.10.20253</t>
-  </si>
-  <si>
-    <t>19.10.20254</t>
-  </si>
-  <si>
-    <t>19.10.20255</t>
-  </si>
-  <si>
-    <t>19.10.20256</t>
-  </si>
-  <si>
-    <t>19.10.20257</t>
-  </si>
-  <si>
-    <t>19.10.20258</t>
-  </si>
-  <si>
-    <t>19.10.20259</t>
-  </si>
-  <si>
-    <t>19.10.202510</t>
-  </si>
-  <si>
-    <t>19.10.202511</t>
-  </si>
-  <si>
-    <t>19.10.202512</t>
-  </si>
-  <si>
-    <t>19.10.202513</t>
-  </si>
-  <si>
-    <t>19.10.202514</t>
-  </si>
-  <si>
-    <t>19.10.202515</t>
-  </si>
-  <si>
-    <t>19.10.202516</t>
-  </si>
-  <si>
-    <t>19.10.202517</t>
-  </si>
-  <si>
-    <t>19.10.202518</t>
-  </si>
-  <si>
-    <t>19.10.202519</t>
-  </si>
-  <si>
-    <t>19.10.202520</t>
-  </si>
-  <si>
-    <t>19.10.202521</t>
-  </si>
-  <si>
-    <t>19.10.202522</t>
-  </si>
-  <si>
-    <t>19.10.202523</t>
-  </si>
-  <si>
-    <t>19.10.202524</t>
-  </si>
-  <si>
-    <t>20.10.20251</t>
-  </si>
-  <si>
-    <t>20.10.20252</t>
-  </si>
-  <si>
-    <t>20.10.20253</t>
-  </si>
-  <si>
-    <t>20.10.20254</t>
-  </si>
-  <si>
-    <t>20.10.20255</t>
-  </si>
-  <si>
-    <t>20.10.20256</t>
-  </si>
-  <si>
-    <t>20.10.20257</t>
-  </si>
-  <si>
-    <t>20.10.20258</t>
-  </si>
-  <si>
-    <t>20.10.20259</t>
-  </si>
-  <si>
-    <t>20.10.202510</t>
-  </si>
-  <si>
-    <t>20.10.202511</t>
-  </si>
-  <si>
-    <t>20.10.202512</t>
-  </si>
-  <si>
-    <t>20.10.202513</t>
-  </si>
-  <si>
-    <t>20.10.202514</t>
-  </si>
-  <si>
-    <t>20.10.202515</t>
-  </si>
-  <si>
-    <t>20.10.202516</t>
-  </si>
-  <si>
-    <t>20.10.202517</t>
-  </si>
-  <si>
-    <t>20.10.202518</t>
-  </si>
-  <si>
-    <t>20.10.202519</t>
-  </si>
-  <si>
-    <t>20.10.202520</t>
-  </si>
-  <si>
-    <t>20.10.202521</t>
-  </si>
-  <si>
-    <t>20.10.202522</t>
-  </si>
-  <si>
-    <t>20.10.202523</t>
-  </si>
-  <si>
-    <t>20.10.202524</t>
-  </si>
-  <si>
-    <t>21.10.20251</t>
-  </si>
-  <si>
-    <t>21.10.20252</t>
-  </si>
-  <si>
-    <t>21.10.20253</t>
-  </si>
-  <si>
-    <t>21.10.20254</t>
-  </si>
-  <si>
-    <t>21.10.20255</t>
-  </si>
-  <si>
-    <t>21.10.20256</t>
-  </si>
-  <si>
-    <t>21.10.20257</t>
-  </si>
-  <si>
-    <t>21.10.20258</t>
-  </si>
-  <si>
-    <t>21.10.20259</t>
-  </si>
-  <si>
-    <t>21.10.202510</t>
-  </si>
-  <si>
-    <t>21.10.202511</t>
-  </si>
-  <si>
-    <t>21.10.202512</t>
-  </si>
-  <si>
-    <t>21.10.202513</t>
-  </si>
-  <si>
-    <t>21.10.202514</t>
-  </si>
-  <si>
-    <t>21.10.202515</t>
-  </si>
-  <si>
-    <t>21.10.202516</t>
-  </si>
-  <si>
-    <t>21.10.202517</t>
-  </si>
-  <si>
-    <t>21.10.202518</t>
-  </si>
-  <si>
-    <t>21.10.202519</t>
-  </si>
-  <si>
-    <t>21.10.202520</t>
-  </si>
-  <si>
-    <t>21.10.202521</t>
-  </si>
-  <si>
-    <t>21.10.202522</t>
-  </si>
-  <si>
-    <t>21.10.202523</t>
-  </si>
-  <si>
-    <t>21.10.202524</t>
-  </si>
-  <si>
-    <t>22.10.20251</t>
-  </si>
-  <si>
-    <t>22.10.20252</t>
-  </si>
-  <si>
-    <t>22.10.20253</t>
-  </si>
-  <si>
-    <t>22.10.20254</t>
-  </si>
-  <si>
-    <t>22.10.20255</t>
-  </si>
-  <si>
-    <t>22.10.20256</t>
-  </si>
-  <si>
-    <t>22.10.20257</t>
-  </si>
-  <si>
-    <t>22.10.20258</t>
-  </si>
-  <si>
-    <t>22.10.20259</t>
-  </si>
-  <si>
-    <t>22.10.202510</t>
-  </si>
-  <si>
-    <t>22.10.202511</t>
-  </si>
-  <si>
-    <t>22.10.202512</t>
-  </si>
-  <si>
-    <t>22.10.202513</t>
-  </si>
-  <si>
-    <t>22.10.202514</t>
-  </si>
-  <si>
-    <t>22.10.202515</t>
-  </si>
-  <si>
-    <t>22.10.202516</t>
-  </si>
-  <si>
-    <t>22.10.202517</t>
-  </si>
-  <si>
-    <t>22.10.202518</t>
-  </si>
-  <si>
-    <t>22.10.202519</t>
-  </si>
-  <si>
-    <t>22.10.202520</t>
-  </si>
-  <si>
-    <t>22.10.202521</t>
-  </si>
-  <si>
-    <t>22.10.202522</t>
-  </si>
-  <si>
-    <t>22.10.202523</t>
-  </si>
-  <si>
-    <t>22.10.202524</t>
-  </si>
-  <si>
-    <t>23.10.20251</t>
-  </si>
-  <si>
-    <t>23.10.20252</t>
-  </si>
-  <si>
-    <t>23.10.20253</t>
-  </si>
-  <si>
-    <t>23.10.20254</t>
-  </si>
-  <si>
-    <t>23.10.20255</t>
-  </si>
-  <si>
-    <t>23.10.20256</t>
-  </si>
-  <si>
-    <t>23.10.20257</t>
-  </si>
-  <si>
-    <t>23.10.20258</t>
-  </si>
-  <si>
-    <t>23.10.20259</t>
-  </si>
-  <si>
-    <t>23.10.202510</t>
-  </si>
-  <si>
-    <t>23.10.202511</t>
-  </si>
-  <si>
-    <t>23.10.202512</t>
-  </si>
-  <si>
-    <t>23.10.202513</t>
-  </si>
-  <si>
-    <t>23.10.202514</t>
-  </si>
-  <si>
-    <t>23.10.202515</t>
-  </si>
-  <si>
-    <t>23.10.202516</t>
+    <t>25.10.202512</t>
+  </si>
+  <si>
+    <t>25.10.202513</t>
+  </si>
+  <si>
+    <t>25.10.202514</t>
+  </si>
+  <si>
+    <t>25.10.202515</t>
+  </si>
+  <si>
+    <t>25.10.202516</t>
+  </si>
+  <si>
+    <t>25.10.202517</t>
+  </si>
+  <si>
+    <t>25.10.202518</t>
+  </si>
+  <si>
+    <t>25.10.202519</t>
+  </si>
+  <si>
+    <t>25.10.202520</t>
+  </si>
+  <si>
+    <t>25.10.202521</t>
+  </si>
+  <si>
+    <t>25.10.202522</t>
+  </si>
+  <si>
+    <t>25.10.202523</t>
+  </si>
+  <si>
+    <t>25.10.202524</t>
+  </si>
+  <si>
+    <t>26.10.20251</t>
+  </si>
+  <si>
+    <t>26.10.20252</t>
+  </si>
+  <si>
+    <t>26.10.20253</t>
+  </si>
+  <si>
+    <t>26.10.20254</t>
+  </si>
+  <si>
+    <t>26.10.20255</t>
+  </si>
+  <si>
+    <t>26.10.20256</t>
+  </si>
+  <si>
+    <t>26.10.20257</t>
+  </si>
+  <si>
+    <t>26.10.20258</t>
+  </si>
+  <si>
+    <t>26.10.20259</t>
+  </si>
+  <si>
+    <t>26.10.202510</t>
+  </si>
+  <si>
+    <t>26.10.202511</t>
+  </si>
+  <si>
+    <t>26.10.202512</t>
+  </si>
+  <si>
+    <t>26.10.202513</t>
+  </si>
+  <si>
+    <t>26.10.202514</t>
+  </si>
+  <si>
+    <t>26.10.202515</t>
+  </si>
+  <si>
+    <t>26.10.202516</t>
+  </si>
+  <si>
+    <t>26.10.202517</t>
+  </si>
+  <si>
+    <t>26.10.202518</t>
+  </si>
+  <si>
+    <t>26.10.202519</t>
+  </si>
+  <si>
+    <t>26.10.202520</t>
+  </si>
+  <si>
+    <t>26.10.202521</t>
+  </si>
+  <si>
+    <t>26.10.202522</t>
+  </si>
+  <si>
+    <t>26.10.202523</t>
+  </si>
+  <si>
+    <t>26.10.202524</t>
+  </si>
+  <si>
+    <t>27.10.20251</t>
+  </si>
+  <si>
+    <t>27.10.20252</t>
+  </si>
+  <si>
+    <t>27.10.20253</t>
+  </si>
+  <si>
+    <t>27.10.20254</t>
+  </si>
+  <si>
+    <t>27.10.20255</t>
+  </si>
+  <si>
+    <t>27.10.20256</t>
+  </si>
+  <si>
+    <t>27.10.20257</t>
+  </si>
+  <si>
+    <t>27.10.20258</t>
+  </si>
+  <si>
+    <t>27.10.20259</t>
+  </si>
+  <si>
+    <t>27.10.202510</t>
+  </si>
+  <si>
+    <t>27.10.202511</t>
+  </si>
+  <si>
+    <t>27.10.202512</t>
+  </si>
+  <si>
+    <t>27.10.202513</t>
+  </si>
+  <si>
+    <t>27.10.202514</t>
+  </si>
+  <si>
+    <t>27.10.202515</t>
+  </si>
+  <si>
+    <t>27.10.202516</t>
+  </si>
+  <si>
+    <t>27.10.202517</t>
+  </si>
+  <si>
+    <t>27.10.202518</t>
+  </si>
+  <si>
+    <t>27.10.202519</t>
+  </si>
+  <si>
+    <t>27.10.202520</t>
+  </si>
+  <si>
+    <t>27.10.202521</t>
+  </si>
+  <si>
+    <t>27.10.202522</t>
+  </si>
+  <si>
+    <t>27.10.202523</t>
+  </si>
+  <si>
+    <t>27.10.202524</t>
+  </si>
+  <si>
+    <t>28.10.20251</t>
+  </si>
+  <si>
+    <t>28.10.20252</t>
+  </si>
+  <si>
+    <t>28.10.20253</t>
+  </si>
+  <si>
+    <t>28.10.20254</t>
+  </si>
+  <si>
+    <t>28.10.20255</t>
+  </si>
+  <si>
+    <t>28.10.20256</t>
+  </si>
+  <si>
+    <t>28.10.20257</t>
+  </si>
+  <si>
+    <t>28.10.20258</t>
+  </si>
+  <si>
+    <t>28.10.20259</t>
+  </si>
+  <si>
+    <t>28.10.202510</t>
+  </si>
+  <si>
+    <t>28.10.202511</t>
+  </si>
+  <si>
+    <t>28.10.202512</t>
+  </si>
+  <si>
+    <t>28.10.202513</t>
+  </si>
+  <si>
+    <t>28.10.202514</t>
+  </si>
+  <si>
+    <t>28.10.202515</t>
+  </si>
+  <si>
+    <t>28.10.202516</t>
+  </si>
+  <si>
+    <t>28.10.202517</t>
+  </si>
+  <si>
+    <t>28.10.202518</t>
+  </si>
+  <si>
+    <t>28.10.202519</t>
+  </si>
+  <si>
+    <t>28.10.202520</t>
+  </si>
+  <si>
+    <t>28.10.202521</t>
+  </si>
+  <si>
+    <t>28.10.202522</t>
+  </si>
+  <si>
+    <t>28.10.202523</t>
+  </si>
+  <si>
+    <t>28.10.202524</t>
+  </si>
+  <si>
+    <t>29.10.20251</t>
+  </si>
+  <si>
+    <t>29.10.20252</t>
+  </si>
+  <si>
+    <t>29.10.20253</t>
+  </si>
+  <si>
+    <t>29.10.20254</t>
+  </si>
+  <si>
+    <t>29.10.20255</t>
+  </si>
+  <si>
+    <t>29.10.20256</t>
+  </si>
+  <si>
+    <t>29.10.20257</t>
+  </si>
+  <si>
+    <t>29.10.20258</t>
+  </si>
+  <si>
+    <t>29.10.20259</t>
+  </si>
+  <si>
+    <t>29.10.202510</t>
+  </si>
+  <si>
+    <t>29.10.202511</t>
+  </si>
+  <si>
+    <t>29.10.202512</t>
+  </si>
+  <si>
+    <t>29.10.202513</t>
+  </si>
+  <si>
+    <t>29.10.202514</t>
+  </si>
+  <si>
+    <t>29.10.202515</t>
+  </si>
+  <si>
+    <t>29.10.202516</t>
+  </si>
+  <si>
+    <t>29.10.202517</t>
+  </si>
+  <si>
+    <t>29.10.202518</t>
+  </si>
+  <si>
+    <t>29.10.202519</t>
+  </si>
+  <si>
+    <t>29.10.202520</t>
+  </si>
+  <si>
+    <t>29.10.202521</t>
+  </si>
+  <si>
+    <t>29.10.202522</t>
+  </si>
+  <si>
+    <t>29.10.202523</t>
+  </si>
+  <si>
+    <t>29.10.202524</t>
+  </si>
+  <si>
+    <t>30.10.20251</t>
+  </si>
+  <si>
+    <t>30.10.20252</t>
+  </si>
+  <si>
+    <t>30.10.20253</t>
+  </si>
+  <si>
+    <t>30.10.20254</t>
+  </si>
+  <si>
+    <t>30.10.20255</t>
+  </si>
+  <si>
+    <t>30.10.20256</t>
+  </si>
+  <si>
+    <t>30.10.20257</t>
+  </si>
+  <si>
+    <t>30.10.20258</t>
+  </si>
+  <si>
+    <t>30.10.20259</t>
+  </si>
+  <si>
+    <t>30.10.202510</t>
+  </si>
+  <si>
+    <t>30.10.202511</t>
+  </si>
+  <si>
+    <t>30.10.202512</t>
+  </si>
+  <si>
+    <t>30.10.202513</t>
+  </si>
+  <si>
+    <t>30.10.202514</t>
+  </si>
+  <si>
+    <t>30.10.202515</t>
+  </si>
+  <si>
+    <t>30.10.202516</t>
+  </si>
+  <si>
+    <t>30.10.202517</t>
+  </si>
+  <si>
+    <t>30.10.202518</t>
+  </si>
+  <si>
+    <t>30.10.202519</t>
+  </si>
+  <si>
+    <t>30.10.202520</t>
+  </si>
+  <si>
+    <t>30.10.202521</t>
+  </si>
+  <si>
+    <t>30.10.202522</t>
+  </si>
+  <si>
+    <t>30.10.202523</t>
+  </si>
+  <si>
+    <t>30.10.202524</t>
+  </si>
+  <si>
+    <t>31.10.20251</t>
+  </si>
+  <si>
+    <t>31.10.20252</t>
+  </si>
+  <si>
+    <t>31.10.20253</t>
+  </si>
+  <si>
+    <t>31.10.20254</t>
+  </si>
+  <si>
+    <t>31.10.20255</t>
+  </si>
+  <si>
+    <t>31.10.20256</t>
+  </si>
+  <si>
+    <t>31.10.20257</t>
+  </si>
+  <si>
+    <t>31.10.20258</t>
+  </si>
+  <si>
+    <t>31.10.20259</t>
+  </si>
+  <si>
+    <t>31.10.202510</t>
+  </si>
+  <si>
+    <t>31.10.202511</t>
+  </si>
+  <si>
+    <t>31.10.202512</t>
+  </si>
+  <si>
+    <t>31.10.202513</t>
+  </si>
+  <si>
+    <t>31.10.202514</t>
+  </si>
+  <si>
+    <t>31.10.202515</t>
+  </si>
+  <si>
+    <t>31.10.202516</t>
+  </si>
+  <si>
+    <t>31.10.202517</t>
+  </si>
+  <si>
+    <t>31.10.202518</t>
+  </si>
+  <si>
+    <t>31.10.202519</t>
+  </si>
+  <si>
+    <t>31.10.202520</t>
+  </si>
+  <si>
+    <t>31.10.202521</t>
+  </si>
+  <si>
+    <t>31.10.202522</t>
+  </si>
+  <si>
+    <t>31.10.202523</t>
+  </si>
+  <si>
+    <t>31.10.202524</t>
+  </si>
+  <si>
+    <t>01.11.20251</t>
+  </si>
+  <si>
+    <t>01.11.20252</t>
+  </si>
+  <si>
+    <t>01.11.20253</t>
+  </si>
+  <si>
+    <t>01.11.20254</t>
+  </si>
+  <si>
+    <t>01.11.20255</t>
+  </si>
+  <si>
+    <t>01.11.20256</t>
+  </si>
+  <si>
+    <t>01.11.20257</t>
+  </si>
+  <si>
+    <t>01.11.20258</t>
+  </si>
+  <si>
+    <t>01.11.20259</t>
+  </si>
+  <si>
+    <t>01.11.202510</t>
+  </si>
+  <si>
+    <t>01.11.202511</t>
+  </si>
+  <si>
+    <t>01.11.202512</t>
   </si>
 </sst>
 </file>
@@ -976,10 +976,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45946</v>
+        <v>45955</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.116</v>
+        <v>0.111</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0.034</v>
       </c>
       <c r="K2">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45946</v>
+        <v>45955</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.112</v>
+        <v>0.11</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0.034</v>
       </c>
       <c r="K3">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="N3" t="s">
         <v>15</v>
@@ -1052,37 +1052,37 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45946</v>
+        <v>45955</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0.281</v>
+        <v>2.204</v>
       </c>
       <c r="D4">
-        <v>0.422</v>
+        <v>2.98</v>
       </c>
       <c r="E4">
-        <v>0.415</v>
+        <v>1.928</v>
       </c>
       <c r="F4">
-        <v>0.216</v>
+        <v>3.741</v>
       </c>
       <c r="G4">
-        <v>0.371</v>
+        <v>3.396</v>
       </c>
       <c r="H4">
-        <v>0.106</v>
+        <v>1.893</v>
       </c>
       <c r="I4">
-        <v>0.074</v>
+        <v>1.397</v>
       </c>
       <c r="J4">
-        <v>0.286</v>
+        <v>3.069</v>
       </c>
       <c r="K4">
-        <v>0.295</v>
+        <v>1.288</v>
       </c>
       <c r="N4" t="s">
         <v>16</v>
@@ -1090,37 +1090,37 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45946</v>
+        <v>45955</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>0.017</v>
+        <v>2.16</v>
       </c>
       <c r="D5">
-        <v>0.024</v>
+        <v>2.619</v>
       </c>
       <c r="E5">
-        <v>0.049</v>
+        <v>1.925</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3.032</v>
       </c>
       <c r="G5">
-        <v>0.011</v>
+        <v>3.143</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.455</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.956</v>
       </c>
       <c r="J5">
-        <v>0.115</v>
+        <v>2.379</v>
       </c>
       <c r="K5">
-        <v>0.045</v>
+        <v>1.295</v>
       </c>
       <c r="N5" t="s">
         <v>17</v>
@@ -1128,37 +1128,37 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45946</v>
+        <v>45955</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.829</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.202</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2.111</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.107</v>
       </c>
       <c r="G6">
-        <v>0.011</v>
+        <v>2.509</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.265</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.745</v>
       </c>
       <c r="J6">
-        <v>0.068</v>
+        <v>2.02</v>
       </c>
       <c r="K6">
-        <v>0.031</v>
+        <v>0.837</v>
       </c>
       <c r="N6" t="s">
         <v>18</v>
@@ -1166,37 +1166,37 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45946</v>
+        <v>45955</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.453</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.547</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.787</v>
       </c>
       <c r="G7">
-        <v>0.011</v>
+        <v>1.406</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.569</v>
       </c>
       <c r="J7">
-        <v>0.048</v>
+        <v>0.991</v>
       </c>
       <c r="K7">
-        <v>0.031</v>
+        <v>0.571</v>
       </c>
       <c r="N7" t="s">
         <v>19</v>
@@ -1204,37 +1204,37 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45946</v>
+        <v>45955</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.206</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.348</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.415</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="G8">
-        <v>0.011</v>
+        <v>0.268</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="J8">
-        <v>0.016</v>
+        <v>0.429</v>
       </c>
       <c r="K8">
-        <v>0.031</v>
+        <v>0.213</v>
       </c>
       <c r="N8" t="s">
         <v>20</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45946</v>
+        <v>45955</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.016</v>
+        <v>0.116</v>
       </c>
       <c r="K9">
-        <v>0.031</v>
+        <v>0.051</v>
       </c>
       <c r="N9" t="s">
         <v>21</v>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45946</v>
+        <v>45955</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.016</v>
+        <v>0.073</v>
       </c>
       <c r="K10">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45947</v>
+        <v>45955</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.013</v>
+        <v>0.073</v>
       </c>
       <c r="K11">
-        <v>0.032</v>
+        <v>0.037</v>
       </c>
       <c r="N11" t="s">
         <v>23</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45947</v>
+        <v>45955</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K12">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N12" t="s">
         <v>24</v>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45947</v>
+        <v>45955</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="K13">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N13" t="s">
         <v>25</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45947</v>
+        <v>45955</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K14">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N14" t="s">
         <v>26</v>
@@ -1470,10 +1470,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K15">
         <v>0.032</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K16">
         <v>0.032</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K17">
         <v>0.032</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1599,22 +1599,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G18">
+        <v>0.011</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.013</v>
+      </c>
+      <c r="K18">
         <v>0.032</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.201</v>
-      </c>
-      <c r="K18">
-        <v>0.051</v>
       </c>
       <c r="N18" t="s">
         <v>30</v>
@@ -1622,37 +1622,37 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.666</v>
+        <v>0.011</v>
       </c>
       <c r="H19">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.698</v>
+        <v>0.013</v>
       </c>
       <c r="K19">
-        <v>0.218</v>
+        <v>0.032</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -1660,37 +1660,37 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>0.865</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1.012</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.599</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2.224</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1.96</v>
+        <v>0.011</v>
       </c>
       <c r="H20">
-        <v>0.742</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.353</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1.292</v>
+        <v>0.013</v>
       </c>
       <c r="K20">
-        <v>0.836</v>
+        <v>0.032</v>
       </c>
       <c r="N20" t="s">
         <v>32</v>
@@ -1698,37 +1698,37 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>1.923</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>2.209</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9429999999999999</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>3.036</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>2.64</v>
+        <v>0.011</v>
       </c>
       <c r="H21">
-        <v>1.355</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.729</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>2.273</v>
+        <v>0.013</v>
       </c>
       <c r="K21">
-        <v>1.068</v>
+        <v>0.032</v>
       </c>
       <c r="N21" t="s">
         <v>33</v>
@@ -1736,37 +1736,37 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>2.605</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>2.978</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1.334</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>3.431</v>
+        <v>0.022</v>
       </c>
       <c r="G22">
-        <v>3.065</v>
+        <v>0.011</v>
       </c>
       <c r="H22">
-        <v>1.664</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1.062</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>2.547</v>
+        <v>0.04</v>
       </c>
       <c r="K22">
-        <v>1.29</v>
+        <v>0.032</v>
       </c>
       <c r="N22" t="s">
         <v>34</v>
@@ -1774,37 +1774,37 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>2.967</v>
+        <v>0.044</v>
       </c>
       <c r="D23">
-        <v>3.326</v>
+        <v>0.042</v>
       </c>
       <c r="E23">
-        <v>1.483</v>
+        <v>0.06</v>
       </c>
       <c r="F23">
-        <v>3.27</v>
+        <v>0.144</v>
       </c>
       <c r="G23">
-        <v>2.989</v>
+        <v>0.091</v>
       </c>
       <c r="H23">
-        <v>1.776</v>
+        <v>0.05</v>
       </c>
       <c r="I23">
-        <v>1.267</v>
+        <v>0.064</v>
       </c>
       <c r="J23">
-        <v>3.069</v>
+        <v>0.265</v>
       </c>
       <c r="K23">
-        <v>1.336</v>
+        <v>0.051</v>
       </c>
       <c r="N23" t="s">
         <v>35</v>
@@ -1812,37 +1812,37 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>2.968</v>
+        <v>0.266</v>
       </c>
       <c r="D24">
-        <v>3.319</v>
+        <v>0.204</v>
       </c>
       <c r="E24">
-        <v>1.515</v>
+        <v>0.225</v>
       </c>
       <c r="F24">
-        <v>2.868</v>
+        <v>0.373</v>
       </c>
       <c r="G24">
-        <v>2.614</v>
+        <v>0.309</v>
       </c>
       <c r="H24">
-        <v>1.584</v>
+        <v>0.174</v>
       </c>
       <c r="I24">
-        <v>1.168</v>
+        <v>0.18</v>
       </c>
       <c r="J24">
-        <v>2.766</v>
+        <v>0.324</v>
       </c>
       <c r="K24">
-        <v>1.219</v>
+        <v>0.183</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -1850,37 +1850,37 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>2.707</v>
+        <v>0.541</v>
       </c>
       <c r="D25">
-        <v>3.083</v>
+        <v>0.625</v>
       </c>
       <c r="E25">
-        <v>1.515</v>
+        <v>0.583</v>
       </c>
       <c r="F25">
-        <v>2.323</v>
+        <v>0.519</v>
       </c>
       <c r="G25">
-        <v>2.405</v>
+        <v>0.496</v>
       </c>
       <c r="H25">
-        <v>1.414</v>
+        <v>0.302</v>
       </c>
       <c r="I25">
-        <v>0.975</v>
+        <v>0.423</v>
       </c>
       <c r="J25">
-        <v>2.217</v>
+        <v>0.551</v>
       </c>
       <c r="K25">
-        <v>1.224</v>
+        <v>0.36</v>
       </c>
       <c r="N25" t="s">
         <v>37</v>
@@ -1888,37 +1888,37 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>2.158</v>
+        <v>0.9</v>
       </c>
       <c r="D26">
-        <v>2.434</v>
+        <v>1.022</v>
       </c>
       <c r="E26">
-        <v>1.063</v>
+        <v>0.853</v>
       </c>
       <c r="F26">
-        <v>1.653</v>
+        <v>0.748</v>
       </c>
       <c r="G26">
-        <v>1.982</v>
+        <v>0.714</v>
       </c>
       <c r="H26">
-        <v>1.057</v>
+        <v>0.41</v>
       </c>
       <c r="I26">
-        <v>0.827</v>
+        <v>0.465</v>
       </c>
       <c r="J26">
-        <v>1.552</v>
+        <v>0.832</v>
       </c>
       <c r="K26">
-        <v>1.019</v>
+        <v>0.461</v>
       </c>
       <c r="N26" t="s">
         <v>38</v>
@@ -1926,37 +1926,37 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>1.264</v>
+        <v>1.089</v>
       </c>
       <c r="D27">
-        <v>1.579</v>
+        <v>1.155</v>
       </c>
       <c r="E27">
-        <v>0.642</v>
+        <v>1.027</v>
       </c>
       <c r="F27">
-        <v>0.783</v>
+        <v>1.023</v>
       </c>
       <c r="G27">
-        <v>0.964</v>
+        <v>1.043</v>
       </c>
       <c r="H27">
-        <v>0.676</v>
+        <v>0.716</v>
       </c>
       <c r="I27">
-        <v>0.527</v>
+        <v>0.64</v>
       </c>
       <c r="J27">
-        <v>1.001</v>
+        <v>0.976</v>
       </c>
       <c r="K27">
-        <v>0.773</v>
+        <v>0.578</v>
       </c>
       <c r="N27" t="s">
         <v>39</v>
@@ -1964,37 +1964,37 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>0.303</v>
+        <v>0.82</v>
       </c>
       <c r="D28">
-        <v>0.432</v>
+        <v>1.038</v>
       </c>
       <c r="E28">
-        <v>0.209</v>
+        <v>1.08</v>
       </c>
       <c r="F28">
-        <v>0.169</v>
+        <v>1.081</v>
       </c>
       <c r="G28">
-        <v>0.275</v>
+        <v>1.016</v>
       </c>
       <c r="H28">
-        <v>0.174</v>
+        <v>0.716</v>
       </c>
       <c r="I28">
-        <v>0.146</v>
+        <v>0.775</v>
       </c>
       <c r="J28">
-        <v>0.423</v>
+        <v>1.036</v>
       </c>
       <c r="K28">
-        <v>0.255</v>
+        <v>0.578</v>
       </c>
       <c r="N28" t="s">
         <v>40</v>
@@ -2002,37 +2002,37 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>0.019</v>
+        <v>0.696</v>
       </c>
       <c r="D29">
-        <v>0.023</v>
+        <v>0.975</v>
       </c>
       <c r="E29">
-        <v>0.017</v>
+        <v>0.991</v>
       </c>
       <c r="F29">
-        <v>0.012</v>
+        <v>0.983</v>
       </c>
       <c r="G29">
-        <v>0.016</v>
+        <v>0.974</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.628</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.654</v>
       </c>
       <c r="J29">
-        <v>0.115</v>
+        <v>0.997</v>
       </c>
       <c r="K29">
-        <v>0.026</v>
+        <v>0.395</v>
       </c>
       <c r="N29" t="s">
         <v>41</v>
@@ -2040,37 +2040,37 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.513</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.676</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.779</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.772</v>
       </c>
       <c r="G30">
-        <v>0.011</v>
+        <v>0.876</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.463</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.498</v>
       </c>
       <c r="J30">
-        <v>0.068</v>
+        <v>0.979</v>
       </c>
       <c r="K30">
-        <v>0.013</v>
+        <v>0.325</v>
       </c>
       <c r="N30" t="s">
         <v>42</v>
@@ -2078,37 +2078,37 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.388</v>
       </c>
       <c r="G31">
-        <v>0.011</v>
+        <v>0.488</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.276</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="J31">
-        <v>0.068</v>
+        <v>0.577</v>
       </c>
       <c r="K31">
-        <v>0.013</v>
+        <v>0.182</v>
       </c>
       <c r="N31" t="s">
         <v>43</v>
@@ -2116,37 +2116,37 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.081</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G32">
-        <v>0.011</v>
+        <v>0.109</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.074</v>
       </c>
       <c r="J32">
-        <v>0.016</v>
+        <v>0.241</v>
       </c>
       <c r="K32">
-        <v>0.013</v>
+        <v>0.035</v>
       </c>
       <c r="N32" t="s">
         <v>44</v>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.016</v>
+        <v>0.111</v>
       </c>
       <c r="K33">
         <v>0.013</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45947</v>
+        <v>45956</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.016</v>
+        <v>0.068</v>
       </c>
       <c r="K34">
         <v>0.013</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45948</v>
+        <v>45956</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="J35">
+        <v>0.063</v>
+      </c>
+      <c r="K35">
         <v>0.013</v>
-      </c>
-      <c r="K35">
-        <v>0.014</v>
       </c>
       <c r="N35" t="s">
         <v>47</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45948</v>
+        <v>45956</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="J36">
+        <v>0.011</v>
+      </c>
+      <c r="K36">
         <v>0.013</v>
-      </c>
-      <c r="K36">
-        <v>0.014</v>
       </c>
       <c r="N36" t="s">
         <v>48</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45948</v>
+        <v>45956</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="J37">
+        <v>0.011</v>
+      </c>
+      <c r="K37">
         <v>0.013</v>
-      </c>
-      <c r="K37">
-        <v>0.014</v>
       </c>
       <c r="N37" t="s">
         <v>49</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45948</v>
+        <v>45956</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="J38">
+        <v>0.011</v>
+      </c>
+      <c r="K38">
         <v>0.013</v>
-      </c>
-      <c r="K38">
-        <v>0.014</v>
       </c>
       <c r="N38" t="s">
         <v>50</v>
@@ -2382,10 +2382,10 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2458,10 +2458,10 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0.011</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0.024</v>
+        <v>0.014</v>
       </c>
       <c r="N42" t="s">
         <v>54</v>
@@ -2534,37 +2534,37 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.162</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.177</v>
+        <v>0.011</v>
       </c>
       <c r="H43">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0.255</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>0.038</v>
+        <v>0.014</v>
       </c>
       <c r="N43" t="s">
         <v>55</v>
@@ -2572,37 +2572,37 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>0.516</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0.409</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0.329</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.431</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.334</v>
+        <v>0.011</v>
       </c>
       <c r="H44">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0.496</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>0.15</v>
+        <v>0.014</v>
       </c>
       <c r="N44" t="s">
         <v>56</v>
@@ -2610,37 +2610,37 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0.9340000000000001</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>1.072</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0.642</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.694</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0.694</v>
+        <v>0.011</v>
       </c>
       <c r="H45">
-        <v>0.389</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>1.048</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>0.298</v>
+        <v>0.014</v>
       </c>
       <c r="N45" t="s">
         <v>57</v>
@@ -2648,37 +2648,37 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>1.662</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1.723</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0.793</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.916</v>
+        <v>0.022</v>
       </c>
       <c r="G46">
-        <v>0.973</v>
+        <v>0.011</v>
       </c>
       <c r="H46">
-        <v>0.595</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0.367</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1.104</v>
+        <v>0.056</v>
       </c>
       <c r="K46">
-        <v>0.347</v>
+        <v>0.014</v>
       </c>
       <c r="N46" t="s">
         <v>58</v>
@@ -2686,37 +2686,37 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>1.755</v>
+        <v>0.103</v>
       </c>
       <c r="D47">
-        <v>1.738</v>
+        <v>0.106</v>
       </c>
       <c r="E47">
-        <v>0.916</v>
+        <v>0.096</v>
       </c>
       <c r="F47">
-        <v>0.924</v>
+        <v>0.123</v>
       </c>
       <c r="G47">
-        <v>0.995</v>
+        <v>0.079</v>
       </c>
       <c r="H47">
-        <v>0.627</v>
+        <v>0.05</v>
       </c>
       <c r="I47">
-        <v>0.399</v>
+        <v>0.042</v>
       </c>
       <c r="J47">
-        <v>1.099</v>
+        <v>0.255</v>
       </c>
       <c r="K47">
-        <v>0.379</v>
+        <v>0.038</v>
       </c>
       <c r="N47" t="s">
         <v>59</v>
@@ -2724,37 +2724,37 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>1.609</v>
+        <v>0.6</v>
       </c>
       <c r="D48">
-        <v>1.729</v>
+        <v>0.748</v>
       </c>
       <c r="E48">
-        <v>0.909</v>
+        <v>0.62</v>
       </c>
       <c r="F48">
-        <v>0.957</v>
+        <v>0.325</v>
       </c>
       <c r="G48">
-        <v>0.964</v>
+        <v>0.254</v>
       </c>
       <c r="H48">
-        <v>0.595</v>
+        <v>0.203</v>
       </c>
       <c r="I48">
-        <v>0.386</v>
+        <v>0.173</v>
       </c>
       <c r="J48">
-        <v>1.025</v>
+        <v>0.423</v>
       </c>
       <c r="K48">
-        <v>0.347</v>
+        <v>0.169</v>
       </c>
       <c r="N48" t="s">
         <v>60</v>
@@ -2762,37 +2762,37 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>0.959</v>
+        <v>1.45</v>
       </c>
       <c r="D49">
-        <v>1.189</v>
+        <v>1.755</v>
       </c>
       <c r="E49">
-        <v>1.065</v>
+        <v>1.248</v>
       </c>
       <c r="F49">
-        <v>0.8070000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="G49">
-        <v>0.655</v>
+        <v>0.471</v>
       </c>
       <c r="H49">
-        <v>0.467</v>
+        <v>0.406</v>
       </c>
       <c r="I49">
-        <v>0.331</v>
+        <v>0.303</v>
       </c>
       <c r="J49">
-        <v>0.994</v>
+        <v>0.695</v>
       </c>
       <c r="K49">
-        <v>0.264</v>
+        <v>0.298</v>
       </c>
       <c r="N49" t="s">
         <v>61</v>
@@ -2800,37 +2800,37 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>0.718</v>
+        <v>2.041</v>
       </c>
       <c r="D50">
-        <v>0.844</v>
+        <v>2.369</v>
       </c>
       <c r="E50">
-        <v>1.009</v>
+        <v>1.759</v>
       </c>
       <c r="F50">
-        <v>0.584</v>
+        <v>0.734</v>
       </c>
       <c r="G50">
-        <v>0.5580000000000001</v>
+        <v>0.654</v>
       </c>
       <c r="H50">
-        <v>0.376</v>
+        <v>0.733</v>
       </c>
       <c r="I50">
-        <v>0.254</v>
+        <v>0.434</v>
       </c>
       <c r="J50">
-        <v>0.861</v>
+        <v>0.987</v>
       </c>
       <c r="K50">
-        <v>0.258</v>
+        <v>0.461</v>
       </c>
       <c r="N50" t="s">
         <v>62</v>
@@ -2838,37 +2838,37 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>0.332</v>
+        <v>2.321</v>
       </c>
       <c r="D51">
-        <v>0.48</v>
+        <v>2.735</v>
       </c>
       <c r="E51">
-        <v>0.773</v>
+        <v>2.173</v>
       </c>
       <c r="F51">
-        <v>0.256</v>
+        <v>0.968</v>
       </c>
       <c r="G51">
-        <v>0.218</v>
+        <v>1.107</v>
       </c>
       <c r="H51">
-        <v>0.221</v>
+        <v>0.993</v>
       </c>
       <c r="I51">
-        <v>0.141</v>
+        <v>0.465</v>
       </c>
       <c r="J51">
-        <v>0.454</v>
+        <v>1.238</v>
       </c>
       <c r="K51">
-        <v>0.147</v>
+        <v>0.455</v>
       </c>
       <c r="N51" t="s">
         <v>63</v>
@@ -2876,37 +2876,37 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>0.104</v>
+        <v>2.336</v>
       </c>
       <c r="D52">
-        <v>0.126</v>
+        <v>2.674</v>
       </c>
       <c r="E52">
-        <v>0.278</v>
+        <v>2.253</v>
       </c>
       <c r="F52">
-        <v>0.058</v>
+        <v>0.973</v>
       </c>
       <c r="G52">
-        <v>0.076</v>
+        <v>1.131</v>
       </c>
       <c r="H52">
-        <v>0.106</v>
+        <v>0.997</v>
       </c>
       <c r="I52">
-        <v>0.058</v>
+        <v>0.43</v>
       </c>
       <c r="J52">
-        <v>0.236</v>
+        <v>1.142</v>
       </c>
       <c r="K52">
-        <v>0.026</v>
+        <v>0.441</v>
       </c>
       <c r="N52" t="s">
         <v>64</v>
@@ -2914,37 +2914,37 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1.985</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>2.261</v>
       </c>
       <c r="E53">
-        <v>0.028</v>
+        <v>2.276</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="G53">
-        <v>0.011</v>
+        <v>1.133</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>0.995</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>0.312</v>
       </c>
       <c r="J53">
-        <v>0.106</v>
+        <v>1.098</v>
       </c>
       <c r="K53">
-        <v>0.026</v>
+        <v>0.39</v>
       </c>
       <c r="N53" t="s">
         <v>65</v>
@@ -2952,37 +2952,37 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1.613</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1.659</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>2.027</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>0.803</v>
       </c>
       <c r="G54">
-        <v>0.011</v>
+        <v>0.733</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>0.731</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="J54">
-        <v>0.063</v>
+        <v>0.849</v>
       </c>
       <c r="K54">
-        <v>0.013</v>
+        <v>0.319</v>
       </c>
       <c r="N54" t="s">
         <v>66</v>
@@ -2990,37 +2990,37 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B55">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.681</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.867</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1.478</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="G55">
-        <v>0.011</v>
+        <v>0.444</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>0.393</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="J55">
-        <v>0.063</v>
+        <v>0.426</v>
       </c>
       <c r="K55">
-        <v>0.013</v>
+        <v>0.182</v>
       </c>
       <c r="N55" t="s">
         <v>67</v>
@@ -3028,37 +3028,37 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B56">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.197</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.556</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>0.079</v>
       </c>
       <c r="G56">
-        <v>0.011</v>
+        <v>0.115</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="J56">
-        <v>0.011</v>
+        <v>0.251</v>
       </c>
       <c r="K56">
-        <v>0.013</v>
+        <v>0.026</v>
       </c>
       <c r="N56" t="s">
         <v>68</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.011</v>
+        <v>0.043</v>
       </c>
       <c r="K57">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="N57" t="s">
         <v>69</v>
@@ -3104,10 +3104,10 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45948</v>
+        <v>45957</v>
       </c>
       <c r="B58">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.011</v>
+        <v>0.048</v>
       </c>
       <c r="K58">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="N58" t="s">
         <v>70</v>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45949</v>
+        <v>45957</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3169,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="K59">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N59" t="s">
         <v>71</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45949</v>
+        <v>45957</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0.011</v>
+        <v>0.046</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K60">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N60" t="s">
         <v>72</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45949</v>
+        <v>45957</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0.01</v>
+        <v>0.235</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K61">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N61" t="s">
         <v>73</v>
@@ -3256,10 +3256,10 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45949</v>
+        <v>45957</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.246</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K62">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N62" t="s">
         <v>74</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.015</v>
+        <v>0.045</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K63">
         <v>0.032</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.016</v>
+        <v>0.046</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3370,10 +3370,10 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.013</v>
+        <v>0.047</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3420,13 +3420,13 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0.015</v>
+        <v>0.043</v>
       </c>
       <c r="F66">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0.08799999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="K66">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N66" t="s">
         <v>78</v>
@@ -3446,37 +3446,37 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0.161</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0.383</v>
+        <v>0.043</v>
       </c>
       <c r="F67">
-        <v>0.347</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.252</v>
+        <v>0.011</v>
       </c>
       <c r="H67">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0.316</v>
+        <v>0.013</v>
       </c>
       <c r="K67">
-        <v>0.102</v>
+        <v>0.032</v>
       </c>
       <c r="N67" t="s">
         <v>79</v>
@@ -3484,37 +3484,37 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>0.606</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0.8139999999999999</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>1.658</v>
+        <v>0.047</v>
       </c>
       <c r="F68">
-        <v>0.834</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0.666</v>
+        <v>0.011</v>
       </c>
       <c r="H68">
-        <v>0.479</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0.67</v>
+        <v>0.013</v>
       </c>
       <c r="K68">
-        <v>0.494</v>
+        <v>0.032</v>
       </c>
       <c r="N68" t="s">
         <v>80</v>
@@ -3522,37 +3522,37 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>1.591</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>1.725</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>2.782</v>
+        <v>0.047</v>
       </c>
       <c r="F69">
-        <v>1.181</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.958</v>
+        <v>0.011</v>
       </c>
       <c r="H69">
-        <v>0.838</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0.758</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1.065</v>
+        <v>0.013</v>
       </c>
       <c r="K69">
-        <v>0.891</v>
+        <v>0.032</v>
       </c>
       <c r="N69" t="s">
         <v>81</v>
@@ -3560,37 +3560,37 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>1.949</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>2.337</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>3.583</v>
+        <v>0.057</v>
       </c>
       <c r="F70">
-        <v>1.361</v>
+        <v>0.029</v>
       </c>
       <c r="G70">
-        <v>1.16</v>
+        <v>0.011</v>
       </c>
       <c r="H70">
-        <v>1.247</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1.241</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>1.435</v>
+        <v>0.04</v>
       </c>
       <c r="K70">
-        <v>0.973</v>
+        <v>0.032</v>
       </c>
       <c r="N70" t="s">
         <v>82</v>
@@ -3598,37 +3598,37 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>2.144</v>
+        <v>0.032</v>
       </c>
       <c r="D71">
-        <v>2.567</v>
+        <v>0.032</v>
       </c>
       <c r="E71">
-        <v>3.992</v>
+        <v>0.117</v>
       </c>
       <c r="F71">
-        <v>1.383</v>
+        <v>0.57</v>
       </c>
       <c r="G71">
-        <v>1.406</v>
+        <v>0.385</v>
       </c>
       <c r="H71">
-        <v>1.343</v>
+        <v>0.079</v>
       </c>
       <c r="I71">
-        <v>1.51</v>
+        <v>0.064</v>
       </c>
       <c r="J71">
-        <v>1.742</v>
+        <v>0.27</v>
       </c>
       <c r="K71">
-        <v>1.139</v>
+        <v>0.051</v>
       </c>
       <c r="N71" t="s">
         <v>83</v>
@@ -3636,37 +3636,37 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>1.79</v>
+        <v>0.268</v>
       </c>
       <c r="D72">
-        <v>2.267</v>
+        <v>0.288</v>
       </c>
       <c r="E72">
-        <v>3.966</v>
+        <v>0.637</v>
       </c>
       <c r="F72">
-        <v>1.185</v>
+        <v>1.416</v>
       </c>
       <c r="G72">
-        <v>1.282</v>
+        <v>0.946</v>
       </c>
       <c r="H72">
-        <v>1.322</v>
+        <v>0.306</v>
       </c>
       <c r="I72">
-        <v>1.51</v>
+        <v>0.307</v>
       </c>
       <c r="J72">
-        <v>1.572</v>
+        <v>0.626</v>
       </c>
       <c r="K72">
-        <v>1.084</v>
+        <v>0.218</v>
       </c>
       <c r="N72" t="s">
         <v>84</v>
@@ -3674,37 +3674,37 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>1.375</v>
+        <v>0.58</v>
       </c>
       <c r="D73">
-        <v>1.726</v>
+        <v>0.695</v>
       </c>
       <c r="E73">
-        <v>3.93</v>
+        <v>1.629</v>
       </c>
       <c r="F73">
-        <v>1.027</v>
+        <v>2.019</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>1.838</v>
       </c>
       <c r="H73">
-        <v>1.04</v>
+        <v>0.76</v>
       </c>
       <c r="I73">
-        <v>1.274</v>
+        <v>0.534</v>
       </c>
       <c r="J73">
-        <v>1.726</v>
+        <v>1.085</v>
       </c>
       <c r="K73">
-        <v>0.9370000000000001</v>
+        <v>0.461</v>
       </c>
       <c r="N73" t="s">
         <v>85</v>
@@ -3712,37 +3712,37 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>0.915</v>
+        <v>0.881</v>
       </c>
       <c r="D74">
-        <v>1.274</v>
+        <v>1.186</v>
       </c>
       <c r="E74">
-        <v>3.402</v>
+        <v>2.067</v>
       </c>
       <c r="F74">
-        <v>0.857</v>
+        <v>2.25</v>
       </c>
       <c r="G74">
-        <v>0.871</v>
+        <v>1.838</v>
       </c>
       <c r="H74">
-        <v>0.957</v>
+        <v>1.003</v>
       </c>
       <c r="I74">
-        <v>1.156</v>
+        <v>0.796</v>
       </c>
       <c r="J74">
-        <v>1.41</v>
+        <v>2.004</v>
       </c>
       <c r="K74">
-        <v>0.867</v>
+        <v>0.855</v>
       </c>
       <c r="N74" t="s">
         <v>86</v>
@@ -3750,37 +3750,37 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>0.521</v>
+        <v>1.095</v>
       </c>
       <c r="D75">
-        <v>0.744</v>
+        <v>1.35</v>
       </c>
       <c r="E75">
-        <v>2.3</v>
+        <v>2.717</v>
       </c>
       <c r="F75">
-        <v>0.484</v>
+        <v>2.236</v>
       </c>
       <c r="G75">
-        <v>0.487</v>
+        <v>1.88</v>
       </c>
       <c r="H75">
-        <v>0.672</v>
+        <v>1.247</v>
       </c>
       <c r="I75">
-        <v>0.723</v>
+        <v>0.621</v>
       </c>
       <c r="J75">
-        <v>0.947</v>
+        <v>2.005</v>
       </c>
       <c r="K75">
-        <v>0.444</v>
+        <v>0.909</v>
       </c>
       <c r="N75" t="s">
         <v>87</v>
@@ -3788,37 +3788,37 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B76">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>0.168</v>
+        <v>1.003</v>
       </c>
       <c r="D76">
-        <v>0.188</v>
+        <v>1.246</v>
       </c>
       <c r="E76">
-        <v>1.075</v>
+        <v>2.935</v>
       </c>
       <c r="F76">
-        <v>0.149</v>
+        <v>1.973</v>
       </c>
       <c r="G76">
-        <v>0.185</v>
+        <v>1.778</v>
       </c>
       <c r="H76">
-        <v>0.221</v>
+        <v>1.245</v>
       </c>
       <c r="I76">
-        <v>0.2</v>
+        <v>0.62</v>
       </c>
       <c r="J76">
-        <v>0.406</v>
+        <v>1.816</v>
       </c>
       <c r="K76">
-        <v>0.2</v>
+        <v>0.909</v>
       </c>
       <c r="N76" t="s">
         <v>88</v>
@@ -3826,37 +3826,37 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B77">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>0.997</v>
       </c>
       <c r="E77">
-        <v>0.369</v>
+        <v>2.394</v>
       </c>
       <c r="F77">
-        <v>0.012</v>
+        <v>1.435</v>
       </c>
       <c r="G77">
-        <v>0.014</v>
+        <v>1.646</v>
       </c>
       <c r="H77">
-        <v>0.011</v>
+        <v>0.999</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>0.635</v>
       </c>
       <c r="J77">
-        <v>0.091</v>
+        <v>1.835</v>
       </c>
       <c r="K77">
-        <v>0.045</v>
+        <v>0.825</v>
       </c>
       <c r="N77" t="s">
         <v>89</v>
@@ -3864,37 +3864,37 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>0.785</v>
       </c>
       <c r="E78">
-        <v>0.28</v>
+        <v>2.037</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.886</v>
       </c>
       <c r="G78">
-        <v>0.011</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>0.671</v>
       </c>
       <c r="J78">
-        <v>0.044</v>
+        <v>1.936</v>
       </c>
       <c r="K78">
-        <v>0.031</v>
+        <v>0.411</v>
       </c>
       <c r="N78" t="s">
         <v>90</v>
@@ -3902,37 +3902,37 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B79">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.318</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.403</v>
       </c>
       <c r="E79">
-        <v>0.262</v>
+        <v>1.411</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="G79">
-        <v>0.011</v>
+        <v>0.43</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>0.371</v>
       </c>
       <c r="J79">
-        <v>0.044</v>
+        <v>0.853</v>
       </c>
       <c r="K79">
-        <v>0.031</v>
+        <v>0.269</v>
       </c>
       <c r="N79" t="s">
         <v>91</v>
@@ -3940,37 +3940,37 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B80">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="E80">
-        <v>0.246</v>
+        <v>0.407</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.078</v>
       </c>
       <c r="G80">
-        <v>0.011</v>
+        <v>0.112</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J80">
-        <v>0.011</v>
+        <v>0.287</v>
       </c>
       <c r="K80">
-        <v>0.031</v>
+        <v>0.035</v>
       </c>
       <c r="N80" t="s">
         <v>92</v>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B81">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.243</v>
+        <v>0.016</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.011</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K81">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="N81" t="s">
         <v>93</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45949</v>
+        <v>45958</v>
       </c>
       <c r="B82">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0.243</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4043,10 +4043,10 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0.011</v>
+        <v>0.044</v>
       </c>
       <c r="K82">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="N82" t="s">
         <v>94</v>
@@ -4054,10 +4054,10 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45950</v>
+        <v>45958</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.047</v>
+        <v>0.011</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4081,10 +4081,10 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="K83">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="N83" t="s">
         <v>95</v>
@@ -4092,10 +4092,10 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45950</v>
+        <v>45958</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.046</v>
+        <v>0.01</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K84">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="N84" t="s">
         <v>96</v>
@@ -4130,10 +4130,10 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45950</v>
+        <v>45958</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4157,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K85">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="N85" t="s">
         <v>97</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45950</v>
+        <v>45958</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.04</v>
+        <v>0.016</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K86">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="N86" t="s">
         <v>98</v>
@@ -4206,10 +4206,10 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.041</v>
+        <v>0.013</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N87" t="s">
         <v>99</v>
@@ -4244,10 +4244,10 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0.032</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.038</v>
+        <v>0.012</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="K89">
         <v>0.032</v>
@@ -4320,10 +4320,10 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -4332,13 +4332,13 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0.039</v>
+        <v>0.049</v>
       </c>
       <c r="F90">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.025</v>
+        <v>0.011</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4347,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N90" t="s">
         <v>102</v>
@@ -4358,37 +4358,37 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>0.486</v>
+        <v>0.063</v>
       </c>
       <c r="F91">
-        <v>1.123</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0.671</v>
+        <v>0.011</v>
       </c>
       <c r="H91">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0.497</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>0.163</v>
+        <v>0.032</v>
       </c>
       <c r="N91" t="s">
         <v>103</v>
@@ -4396,37 +4396,37 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>0.871</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>1.945</v>
+        <v>0.041</v>
       </c>
       <c r="F92">
-        <v>2.306</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>2.317</v>
+        <v>0.011</v>
       </c>
       <c r="H92">
-        <v>0.764</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0.722</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>1.878</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>0.617</v>
+        <v>0.032</v>
       </c>
       <c r="N92" t="s">
         <v>104</v>
@@ -4434,37 +4434,37 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>1.829</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>1.742</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>2.621</v>
+        <v>0.041</v>
       </c>
       <c r="F93">
-        <v>3.363</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>2.949</v>
+        <v>0.011</v>
       </c>
       <c r="H93">
-        <v>1.351</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>2.306</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>0.951</v>
+        <v>0.032</v>
       </c>
       <c r="N93" t="s">
         <v>105</v>
@@ -4472,37 +4472,37 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B94">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>2.332</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>2.655</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>3.287</v>
+        <v>0.041</v>
       </c>
       <c r="F94">
-        <v>3.681</v>
+        <v>0.025</v>
       </c>
       <c r="G94">
-        <v>3.308</v>
+        <v>0.011</v>
       </c>
       <c r="H94">
-        <v>1.477</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1.409</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>2.902</v>
+        <v>0.036</v>
       </c>
       <c r="K94">
-        <v>1.315</v>
+        <v>0.032</v>
       </c>
       <c r="N94" t="s">
         <v>106</v>
@@ -4510,37 +4510,37 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B95">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>2.726</v>
+        <v>0.074</v>
       </c>
       <c r="D95">
-        <v>2.985</v>
+        <v>0.09</v>
       </c>
       <c r="E95">
-        <v>3.686</v>
+        <v>0.305</v>
       </c>
       <c r="F95">
-        <v>3.558</v>
+        <v>0.642</v>
       </c>
       <c r="G95">
-        <v>3.348</v>
+        <v>0.41</v>
       </c>
       <c r="H95">
-        <v>1.794</v>
+        <v>0.145</v>
       </c>
       <c r="I95">
-        <v>1.55</v>
+        <v>0.074</v>
       </c>
       <c r="J95">
-        <v>3.31</v>
+        <v>0.313</v>
       </c>
       <c r="K95">
-        <v>1.31</v>
+        <v>0.06</v>
       </c>
       <c r="N95" t="s">
         <v>107</v>
@@ -4548,37 +4548,37 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>2.784</v>
+        <v>0.38</v>
       </c>
       <c r="D96">
-        <v>3.222</v>
+        <v>0.625</v>
       </c>
       <c r="E96">
-        <v>3.654</v>
+        <v>1.218</v>
       </c>
       <c r="F96">
-        <v>3.538</v>
+        <v>1.797</v>
       </c>
       <c r="G96">
-        <v>3.298</v>
+        <v>1.567</v>
       </c>
       <c r="H96">
-        <v>1.811</v>
+        <v>0.71</v>
       </c>
       <c r="I96">
-        <v>1.398</v>
+        <v>0.371</v>
       </c>
       <c r="J96">
-        <v>3.289</v>
+        <v>1.025</v>
       </c>
       <c r="K96">
-        <v>1.245</v>
+        <v>0.384</v>
       </c>
       <c r="N96" t="s">
         <v>108</v>
@@ -4586,37 +4586,37 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B97">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>2.525</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="D97">
-        <v>3.233</v>
+        <v>1.256</v>
       </c>
       <c r="E97">
-        <v>3.586</v>
+        <v>2.394</v>
       </c>
       <c r="F97">
-        <v>3.06</v>
+        <v>2.807</v>
       </c>
       <c r="G97">
-        <v>3.168</v>
+        <v>2.692</v>
       </c>
       <c r="H97">
-        <v>1.673</v>
+        <v>1.294</v>
       </c>
       <c r="I97">
-        <v>1.285</v>
+        <v>0.67</v>
       </c>
       <c r="J97">
-        <v>3.04</v>
+        <v>1.849</v>
       </c>
       <c r="K97">
-        <v>1.299</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="N97" t="s">
         <v>109</v>
@@ -4624,37 +4624,37 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B98">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>2.068</v>
+        <v>1.612</v>
       </c>
       <c r="D98">
-        <v>2.559</v>
+        <v>1.988</v>
       </c>
       <c r="E98">
-        <v>3.041</v>
+        <v>3.095</v>
       </c>
       <c r="F98">
-        <v>2.126</v>
+        <v>3.397</v>
       </c>
       <c r="G98">
-        <v>2.547</v>
+        <v>3.078</v>
       </c>
       <c r="H98">
-        <v>1.365</v>
+        <v>1.588</v>
       </c>
       <c r="I98">
-        <v>1.073</v>
+        <v>0.869</v>
       </c>
       <c r="J98">
-        <v>2.069</v>
+        <v>2.289</v>
       </c>
       <c r="K98">
-        <v>1.064</v>
+        <v>1.011</v>
       </c>
       <c r="N98" t="s">
         <v>110</v>
@@ -4662,37 +4662,37 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B99">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <v>1.273</v>
+        <v>1.795</v>
       </c>
       <c r="D99">
-        <v>1.627</v>
+        <v>2.298</v>
       </c>
       <c r="E99">
-        <v>1.85</v>
+        <v>3.377</v>
       </c>
       <c r="F99">
-        <v>0.802</v>
+        <v>3.641</v>
       </c>
       <c r="G99">
-        <v>1.426</v>
+        <v>3.282</v>
       </c>
       <c r="H99">
-        <v>0.881</v>
+        <v>1.8</v>
       </c>
       <c r="I99">
-        <v>0.706</v>
+        <v>0.852</v>
       </c>
       <c r="J99">
-        <v>1.724</v>
+        <v>2.841</v>
       </c>
       <c r="K99">
-        <v>0.778</v>
+        <v>1.318</v>
       </c>
       <c r="N99" t="s">
         <v>111</v>
@@ -4700,37 +4700,37 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B100">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C100">
-        <v>0.282</v>
+        <v>1.845</v>
       </c>
       <c r="D100">
-        <v>0.424</v>
+        <v>2.307</v>
       </c>
       <c r="E100">
-        <v>0.719</v>
+        <v>3.393</v>
       </c>
       <c r="F100">
-        <v>0.202</v>
+        <v>3.361</v>
       </c>
       <c r="G100">
-        <v>0.38</v>
+        <v>3.249</v>
       </c>
       <c r="H100">
-        <v>0.236</v>
+        <v>1.803</v>
       </c>
       <c r="I100">
-        <v>0.188</v>
+        <v>0.716</v>
       </c>
       <c r="J100">
-        <v>0.483</v>
+        <v>2.73</v>
       </c>
       <c r="K100">
-        <v>0.276</v>
+        <v>1.204</v>
       </c>
       <c r="N100" t="s">
         <v>112</v>
@@ -4738,37 +4738,37 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B101">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>0.013</v>
+        <v>1.828</v>
       </c>
       <c r="D101">
-        <v>0.019</v>
+        <v>2.111</v>
       </c>
       <c r="E101">
-        <v>0.07000000000000001</v>
+        <v>3.261</v>
       </c>
       <c r="F101">
-        <v>0.012</v>
+        <v>2.669</v>
       </c>
       <c r="G101">
-        <v>0.014</v>
+        <v>2.864</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>0.712</v>
       </c>
       <c r="J101">
-        <v>0.1</v>
+        <v>2.261</v>
       </c>
       <c r="K101">
-        <v>0.051</v>
+        <v>1.095</v>
       </c>
       <c r="N101" t="s">
         <v>113</v>
@@ -4776,37 +4776,37 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B102">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1.386</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="E102">
-        <v>0.044</v>
+        <v>2.368</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1.779</v>
       </c>
       <c r="G102">
-        <v>0.011</v>
+        <v>2.355</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1.294</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>0.669</v>
       </c>
       <c r="J102">
-        <v>0.055</v>
+        <v>1.843</v>
       </c>
       <c r="K102">
-        <v>0.037</v>
+        <v>0.858</v>
       </c>
       <c r="N102" t="s">
         <v>114</v>
@@ -4814,37 +4814,37 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B103">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>0.644</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>0.906</v>
       </c>
       <c r="E103">
-        <v>0.044</v>
+        <v>1.553</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="G103">
-        <v>0.011</v>
+        <v>1.075</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="J103">
-        <v>0.044</v>
+        <v>0.862</v>
       </c>
       <c r="K103">
-        <v>0.037</v>
+        <v>0.379</v>
       </c>
       <c r="N103" t="s">
         <v>115</v>
@@ -4852,37 +4852,37 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B104">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="E104">
-        <v>0.046</v>
+        <v>0.418</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="G104">
-        <v>0.011</v>
+        <v>0.189</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>0.168</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J104">
-        <v>0.011</v>
+        <v>0.291</v>
       </c>
       <c r="K104">
-        <v>0.037</v>
+        <v>0.15</v>
       </c>
       <c r="N104" t="s">
         <v>116</v>
@@ -4890,10 +4890,10 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B105">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0.046</v>
+        <v>0.04</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4917,10 +4917,10 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0.011</v>
+        <v>0.068</v>
       </c>
       <c r="K105">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="N105" t="s">
         <v>117</v>
@@ -4928,10 +4928,10 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="2">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B106">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4940,25 +4940,25 @@
         <v>0</v>
       </c>
       <c r="E106">
+        <v>0.022</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0.011</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
         <v>0.044</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0.011</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0.011</v>
-      </c>
       <c r="K106">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="N106" t="s">
         <v>118</v>
@@ -4966,10 +4966,10 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="2">
-        <v>45951</v>
+        <v>45959</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -4993,10 +4993,10 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="K107">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N107" t="s">
         <v>119</v>
@@ -5004,10 +5004,10 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="2">
-        <v>45951</v>
+        <v>45959</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0.017</v>
+        <v>0.031</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K108">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N108" t="s">
         <v>120</v>
@@ -5042,10 +5042,10 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="2">
-        <v>45951</v>
+        <v>45959</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0.017</v>
+        <v>0.031</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5069,10 +5069,10 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K109">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N109" t="s">
         <v>121</v>
@@ -5080,10 +5080,10 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="2">
-        <v>45951</v>
+        <v>45959</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0.017</v>
+        <v>0.046</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5107,10 +5107,10 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K110">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N110" t="s">
         <v>122</v>
@@ -5118,10 +5118,10 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0.014</v>
+        <v>0.02</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5156,10 +5156,10 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0.014</v>
+        <v>0.02</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0.012</v>
+        <v>0.057</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -5244,13 +5244,13 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="F114">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5259,10 +5259,10 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N114" t="s">
         <v>126</v>
@@ -5270,37 +5270,37 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>0.148</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>0.216</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="F115">
-        <v>1.051</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>0.486</v>
+        <v>0.011</v>
       </c>
       <c r="H115">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>0.184</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>0.495</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>0.152</v>
+        <v>0.032</v>
       </c>
       <c r="N115" t="s">
         <v>127</v>
@@ -5308,37 +5308,37 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>0.572</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>0.876</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>0.849</v>
+        <v>0.052</v>
       </c>
       <c r="F116">
-        <v>2.133</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>1.462</v>
+        <v>0.011</v>
       </c>
       <c r="H116">
-        <v>0.821</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0.695</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>1.484</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>0.617</v>
+        <v>0.032</v>
       </c>
       <c r="N116" t="s">
         <v>128</v>
@@ -5346,37 +5346,37 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>1.605</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>1.796</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>1.667</v>
+        <v>0.052</v>
       </c>
       <c r="F117">
-        <v>2.907</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>2.654</v>
+        <v>0.011</v>
       </c>
       <c r="H117">
-        <v>1.344</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1.068</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>2.032</v>
+        <v>0</v>
       </c>
       <c r="K117">
-        <v>0.951</v>
+        <v>0.032</v>
       </c>
       <c r="N117" t="s">
         <v>129</v>
@@ -5384,37 +5384,37 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>1.992</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>2.417</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>2.114</v>
+        <v>0.077</v>
       </c>
       <c r="F118">
-        <v>3.523</v>
+        <v>0.026</v>
       </c>
       <c r="G118">
-        <v>3.042</v>
+        <v>0.011</v>
       </c>
       <c r="H118">
-        <v>1.431</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1.373</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>2.495</v>
+        <v>0.036</v>
       </c>
       <c r="K118">
-        <v>1.208</v>
+        <v>0.032</v>
       </c>
       <c r="N118" t="s">
         <v>130</v>
@@ -5422,37 +5422,37 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B119">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>2.22</v>
+        <v>0.073</v>
       </c>
       <c r="D119">
-        <v>2.752</v>
+        <v>0.095</v>
       </c>
       <c r="E119">
-        <v>2.352</v>
+        <v>0.295</v>
       </c>
       <c r="F119">
-        <v>3.662</v>
+        <v>0.526</v>
       </c>
       <c r="G119">
-        <v>3.171</v>
+        <v>0.408</v>
       </c>
       <c r="H119">
-        <v>1.604</v>
+        <v>0.145</v>
       </c>
       <c r="I119">
-        <v>1.453</v>
+        <v>0.112</v>
       </c>
       <c r="J119">
-        <v>3.036</v>
+        <v>0.313</v>
       </c>
       <c r="K119">
-        <v>1.32</v>
+        <v>0.06</v>
       </c>
       <c r="N119" t="s">
         <v>131</v>
@@ -5460,37 +5460,37 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>2.234</v>
+        <v>0.49</v>
       </c>
       <c r="D120">
-        <v>2.662</v>
+        <v>0.676</v>
       </c>
       <c r="E120">
-        <v>2.723</v>
+        <v>1.054</v>
       </c>
       <c r="F120">
-        <v>3.647</v>
+        <v>1.613</v>
       </c>
       <c r="G120">
-        <v>3.253</v>
+        <v>1.27</v>
       </c>
       <c r="H120">
-        <v>1.818</v>
+        <v>0.667</v>
       </c>
       <c r="I120">
-        <v>1.454</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J120">
-        <v>2.996</v>
+        <v>0.917</v>
       </c>
       <c r="K120">
-        <v>1.329</v>
+        <v>0.482</v>
       </c>
       <c r="N120" t="s">
         <v>132</v>
@@ -5498,37 +5498,37 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>1.89</v>
+        <v>1.21</v>
       </c>
       <c r="D121">
-        <v>2.386</v>
+        <v>1.429</v>
       </c>
       <c r="E121">
-        <v>2.318</v>
+        <v>1.899</v>
       </c>
       <c r="F121">
-        <v>3.099</v>
+        <v>2.274</v>
       </c>
       <c r="G121">
-        <v>3.181</v>
+        <v>2.328</v>
       </c>
       <c r="H121">
-        <v>1.728</v>
+        <v>1.024</v>
       </c>
       <c r="I121">
-        <v>1.218</v>
+        <v>0.833</v>
       </c>
       <c r="J121">
-        <v>2.659</v>
+        <v>1.984</v>
       </c>
       <c r="K121">
-        <v>1.248</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="N121" t="s">
         <v>133</v>
@@ -5536,37 +5536,37 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>1.402</v>
+        <v>1.874</v>
       </c>
       <c r="D122">
-        <v>1.794</v>
+        <v>2.132</v>
       </c>
       <c r="E122">
-        <v>1.861</v>
+        <v>2.8</v>
       </c>
       <c r="F122">
-        <v>2.18</v>
+        <v>2.878</v>
       </c>
       <c r="G122">
-        <v>2.304</v>
+        <v>2.598</v>
       </c>
       <c r="H122">
-        <v>1.386</v>
+        <v>1.429</v>
       </c>
       <c r="I122">
-        <v>1.018</v>
+        <v>1.112</v>
       </c>
       <c r="J122">
-        <v>1.965</v>
+        <v>2.259</v>
       </c>
       <c r="K122">
-        <v>0.84</v>
+        <v>1.026</v>
       </c>
       <c r="N122" t="s">
         <v>134</v>
@@ -5574,37 +5574,37 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C123">
-        <v>0.655</v>
+        <v>2.111</v>
       </c>
       <c r="D123">
-        <v>0.901</v>
+        <v>2.575</v>
       </c>
       <c r="E123">
-        <v>1.113</v>
+        <v>3.078</v>
       </c>
       <c r="F123">
-        <v>0.953</v>
+        <v>2.861</v>
       </c>
       <c r="G123">
-        <v>1.342</v>
+        <v>2.794</v>
       </c>
       <c r="H123">
-        <v>0.745</v>
+        <v>1.456</v>
       </c>
       <c r="I123">
-        <v>0.701</v>
+        <v>1.085</v>
       </c>
       <c r="J123">
-        <v>1.234</v>
+        <v>2.391</v>
       </c>
       <c r="K123">
-        <v>0.5620000000000001</v>
+        <v>1.318</v>
       </c>
       <c r="N123" t="s">
         <v>135</v>
@@ -5612,37 +5612,37 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B124">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C124">
-        <v>0.161</v>
+        <v>2.062</v>
       </c>
       <c r="D124">
-        <v>0.225</v>
+        <v>2.66</v>
       </c>
       <c r="E124">
-        <v>0.353</v>
+        <v>3.049</v>
       </c>
       <c r="F124">
-        <v>0.179</v>
+        <v>2.562</v>
       </c>
       <c r="G124">
-        <v>0.329</v>
+        <v>2.586</v>
       </c>
       <c r="H124">
-        <v>0.203</v>
+        <v>1.47</v>
       </c>
       <c r="I124">
-        <v>0.187</v>
+        <v>1.109</v>
       </c>
       <c r="J124">
-        <v>0.395</v>
+        <v>2.616</v>
       </c>
       <c r="K124">
-        <v>0.2</v>
+        <v>1.259</v>
       </c>
       <c r="N124" t="s">
         <v>136</v>
@@ -5650,37 +5650,37 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B125">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1.845</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>2.174</v>
       </c>
       <c r="E125">
-        <v>0.027</v>
+        <v>2.747</v>
       </c>
       <c r="F125">
-        <v>0.01</v>
+        <v>2.27</v>
       </c>
       <c r="G125">
-        <v>0.011</v>
+        <v>2.184</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1.445</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1.113</v>
       </c>
       <c r="J125">
-        <v>0.111</v>
+        <v>2.32</v>
       </c>
       <c r="K125">
-        <v>0.051</v>
+        <v>1.14</v>
       </c>
       <c r="N125" t="s">
         <v>137</v>
@@ -5688,37 +5688,37 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B126">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1.385</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1.653</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1.894</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1.485</v>
       </c>
       <c r="G126">
-        <v>0.011</v>
+        <v>1.802</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1.265</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>0.552</v>
       </c>
       <c r="J126">
-        <v>0.068</v>
+        <v>1.846</v>
       </c>
       <c r="K126">
-        <v>0.037</v>
+        <v>0.858</v>
       </c>
       <c r="N126" t="s">
         <v>138</v>
@@ -5726,37 +5726,37 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B127">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>0.512</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.929</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>0.513</v>
       </c>
       <c r="G127">
-        <v>0.011</v>
+        <v>1.09</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>0.738</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>0.483</v>
       </c>
       <c r="J127">
-        <v>0.048</v>
+        <v>0.862</v>
       </c>
       <c r="K127">
-        <v>0.037</v>
+        <v>0.418</v>
       </c>
       <c r="N127" t="s">
         <v>139</v>
@@ -5764,37 +5764,37 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B128">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>0.165</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.307</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="G128">
-        <v>0.011</v>
+        <v>0.185</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>0.168</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="J128">
-        <v>0.016</v>
+        <v>0.29</v>
       </c>
       <c r="K128">
-        <v>0.037</v>
+        <v>0.077</v>
       </c>
       <c r="N128" t="s">
         <v>140</v>
@@ -5802,10 +5802,10 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B129">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -5829,10 +5829,10 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0.016</v>
+        <v>0.068</v>
       </c>
       <c r="K129">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="N129" t="s">
         <v>141</v>
@@ -5840,10 +5840,10 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="2">
-        <v>45951</v>
+        <v>45960</v>
       </c>
       <c r="B130">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5867,10 +5867,10 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0.016</v>
+        <v>0.073</v>
       </c>
       <c r="K130">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="N130" t="s">
         <v>142</v>
@@ -5878,10 +5878,10 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="2">
-        <v>45952</v>
+        <v>45960</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0.013</v>
+        <v>0.073</v>
       </c>
       <c r="K131">
-        <v>0.032</v>
+        <v>0.037</v>
       </c>
       <c r="N131" t="s">
         <v>143</v>
@@ -5916,10 +5916,10 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="2">
-        <v>45952</v>
+        <v>45960</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5943,10 +5943,10 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
       <c r="K132">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N132" t="s">
         <v>144</v>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="2">
-        <v>45952</v>
+        <v>45960</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -5981,10 +5981,10 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
       <c r="K133">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N133" t="s">
         <v>145</v>
@@ -5992,10 +5992,10 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="2">
-        <v>45952</v>
+        <v>45960</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -6019,10 +6019,10 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
       <c r="K134">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N134" t="s">
         <v>146</v>
@@ -6030,10 +6030,10 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>0.013</v>
+        <v>0.018</v>
       </c>
       <c r="K135">
         <v>0.032</v>
@@ -6068,10 +6068,10 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K136">
         <v>0.032</v>
@@ -6106,10 +6106,10 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6144,10 +6144,10 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -6156,13 +6156,13 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F138">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="K138">
         <v>0.032</v>
@@ -6182,37 +6182,37 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C139">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>0.09</v>
+        <v>0.025</v>
       </c>
       <c r="F139">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>0.345</v>
+        <v>0.011</v>
       </c>
       <c r="H139">
-        <v>0.168</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>0.265</v>
+        <v>0</v>
       </c>
       <c r="K139">
-        <v>0.051</v>
+        <v>0.032</v>
       </c>
       <c r="N139" t="s">
         <v>151</v>
@@ -6220,37 +6220,37 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C140">
-        <v>0.359</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>0.374</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>0.5570000000000001</v>
+        <v>0.025</v>
       </c>
       <c r="F140">
-        <v>1.122</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>0.8</v>
+        <v>0.011</v>
       </c>
       <c r="H140">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>0.285</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>0.733</v>
+        <v>0</v>
       </c>
       <c r="K140">
-        <v>0.307</v>
+        <v>0.032</v>
       </c>
       <c r="N140" t="s">
         <v>152</v>
@@ -6258,37 +6258,37 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B141">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C141">
-        <v>0.708</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>0.797</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>1.061</v>
+        <v>0.024</v>
       </c>
       <c r="F141">
-        <v>1.695</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>1.486</v>
+        <v>0.011</v>
       </c>
       <c r="H141">
-        <v>1.057</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>1.255</v>
+        <v>0.013</v>
       </c>
       <c r="K141">
-        <v>0.475</v>
+        <v>0.032</v>
       </c>
       <c r="N141" t="s">
         <v>153</v>
@@ -6296,37 +6296,37 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B142">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C142">
-        <v>0.918</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>1.167</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>1.525</v>
+        <v>0.019</v>
       </c>
       <c r="F142">
-        <v>2.041</v>
+        <v>0.029</v>
       </c>
       <c r="G142">
-        <v>1.752</v>
+        <v>0.011</v>
       </c>
       <c r="H142">
-        <v>1.433</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0.795</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>1.796</v>
+        <v>0.04</v>
       </c>
       <c r="K142">
-        <v>0.915</v>
+        <v>0.032</v>
       </c>
       <c r="N142" t="s">
         <v>154</v>
@@ -6334,37 +6334,37 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B143">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C143">
-        <v>1.231</v>
+        <v>0.03</v>
       </c>
       <c r="D143">
-        <v>1.645</v>
+        <v>0.031</v>
       </c>
       <c r="E143">
-        <v>1.848</v>
+        <v>0.145</v>
       </c>
       <c r="F143">
-        <v>2.28</v>
+        <v>0.497</v>
       </c>
       <c r="G143">
-        <v>1.806</v>
+        <v>0.322</v>
       </c>
       <c r="H143">
-        <v>1.624</v>
+        <v>0.106</v>
       </c>
       <c r="I143">
-        <v>0.853</v>
+        <v>0.109</v>
       </c>
       <c r="J143">
-        <v>2.059</v>
+        <v>0.318</v>
       </c>
       <c r="K143">
-        <v>0.9330000000000001</v>
+        <v>0.051</v>
       </c>
       <c r="N143" t="s">
         <v>155</v>
@@ -6372,37 +6372,37 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B144">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C144">
-        <v>1.254</v>
+        <v>0.313</v>
       </c>
       <c r="D144">
-        <v>1.685</v>
+        <v>0.334</v>
       </c>
       <c r="E144">
-        <v>2.056</v>
+        <v>0.73</v>
       </c>
       <c r="F144">
-        <v>2.24</v>
+        <v>1.352</v>
       </c>
       <c r="G144">
-        <v>1.971</v>
+        <v>0.897</v>
       </c>
       <c r="H144">
-        <v>1.44</v>
+        <v>0.38</v>
       </c>
       <c r="I144">
-        <v>0.865</v>
+        <v>0.504</v>
       </c>
       <c r="J144">
-        <v>1.973</v>
+        <v>0.952</v>
       </c>
       <c r="K144">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="N144" t="s">
         <v>156</v>
@@ -6410,37 +6410,37 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B145">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C145">
-        <v>1.038</v>
+        <v>0.549</v>
       </c>
       <c r="D145">
-        <v>1.37</v>
+        <v>0.748</v>
       </c>
       <c r="E145">
-        <v>1.927</v>
+        <v>1.701</v>
       </c>
       <c r="F145">
-        <v>1.921</v>
+        <v>1.948</v>
       </c>
       <c r="G145">
-        <v>1.916</v>
+        <v>2.147</v>
       </c>
       <c r="H145">
-        <v>1.345</v>
+        <v>0.792</v>
       </c>
       <c r="I145">
-        <v>0.8100000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="J145">
-        <v>1.855</v>
+        <v>2.05</v>
       </c>
       <c r="K145">
-        <v>0.887</v>
+        <v>0.919</v>
       </c>
       <c r="N145" t="s">
         <v>157</v>
@@ -6448,37 +6448,37 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B146">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C146">
-        <v>0.8070000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="D146">
-        <v>0.985</v>
+        <v>1.172</v>
       </c>
       <c r="E146">
-        <v>1.58</v>
+        <v>2.141</v>
       </c>
       <c r="F146">
-        <v>1.276</v>
+        <v>2.524</v>
       </c>
       <c r="G146">
-        <v>1.49</v>
+        <v>2.439</v>
       </c>
       <c r="H146">
-        <v>0.999</v>
+        <v>1.247</v>
       </c>
       <c r="I146">
-        <v>0.669</v>
+        <v>0.92</v>
       </c>
       <c r="J146">
-        <v>1.51</v>
+        <v>2.239</v>
       </c>
       <c r="K146">
-        <v>0.597</v>
+        <v>0.876</v>
       </c>
       <c r="N146" t="s">
         <v>158</v>
@@ -6486,37 +6486,37 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B147">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C147">
-        <v>0.424</v>
+        <v>0.973</v>
       </c>
       <c r="D147">
-        <v>0.57</v>
+        <v>1.333</v>
       </c>
       <c r="E147">
-        <v>0.89</v>
+        <v>2.269</v>
       </c>
       <c r="F147">
-        <v>0.603</v>
+        <v>2.696</v>
       </c>
       <c r="G147">
-        <v>0.715</v>
+        <v>2.583</v>
       </c>
       <c r="H147">
-        <v>0.665</v>
+        <v>1.362</v>
       </c>
       <c r="I147">
-        <v>0.346</v>
+        <v>0.792</v>
       </c>
       <c r="J147">
-        <v>0.9389999999999999</v>
+        <v>2.355</v>
       </c>
       <c r="K147">
-        <v>0.303</v>
+        <v>0.974</v>
       </c>
       <c r="N147" t="s">
         <v>159</v>
@@ -6524,37 +6524,37 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B148">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C148">
-        <v>0.08799999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="D148">
-        <v>0.104</v>
+        <v>1.263</v>
       </c>
       <c r="E148">
-        <v>0.295</v>
+        <v>2.298</v>
       </c>
       <c r="F148">
-        <v>0.103</v>
+        <v>2.483</v>
       </c>
       <c r="G148">
-        <v>0.149</v>
+        <v>2.447</v>
       </c>
       <c r="H148">
-        <v>0.174</v>
+        <v>1.411</v>
       </c>
       <c r="I148">
-        <v>0.074</v>
+        <v>0.635</v>
       </c>
       <c r="J148">
-        <v>0.286</v>
+        <v>2.274</v>
       </c>
       <c r="K148">
-        <v>0.043</v>
+        <v>0.974</v>
       </c>
       <c r="N148" t="s">
         <v>160</v>
@@ -6562,37 +6562,37 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B149">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>0.777</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>0.987</v>
       </c>
       <c r="E149">
-        <v>0.019</v>
+        <v>2.097</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1.982</v>
       </c>
       <c r="G149">
-        <v>0.011</v>
+        <v>2.202</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1.342</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>0.919</v>
       </c>
       <c r="J149">
-        <v>0.111</v>
+        <v>2.043</v>
       </c>
       <c r="K149">
-        <v>0.013</v>
+        <v>0.921</v>
       </c>
       <c r="N149" t="s">
         <v>161</v>
@@ -6600,37 +6600,37 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>0.513</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>0.676</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1.597</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>0.955</v>
       </c>
       <c r="G150">
-        <v>0.011</v>
+        <v>1.283</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>0.728</v>
       </c>
       <c r="J150">
-        <v>0.068</v>
+        <v>1.362</v>
       </c>
       <c r="K150">
-        <v>0.013</v>
+        <v>0.616</v>
       </c>
       <c r="N150" t="s">
         <v>162</v>
@@ -6638,37 +6638,37 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B151">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>0.223</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>0.276</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.857</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>0.406</v>
       </c>
       <c r="G151">
-        <v>0.011</v>
+        <v>0.5</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>0.455</v>
       </c>
       <c r="J151">
-        <v>0.068</v>
+        <v>0.654</v>
       </c>
       <c r="K151">
-        <v>0.013</v>
+        <v>0.309</v>
       </c>
       <c r="N151" t="s">
         <v>163</v>
@@ -6676,37 +6676,37 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B152">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.259</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="G152">
-        <v>0.011</v>
+        <v>0.11</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J152">
-        <v>0.016</v>
+        <v>0.25</v>
       </c>
       <c r="K152">
-        <v>0.013</v>
+        <v>0.059</v>
       </c>
       <c r="N152" t="s">
         <v>164</v>
@@ -6714,10 +6714,10 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B153">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -6741,10 +6741,10 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>0.016</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="K153">
-        <v>0.013</v>
+        <v>0.037</v>
       </c>
       <c r="N153" t="s">
         <v>165</v>
@@ -6752,10 +6752,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="2">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B154">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -6779,10 +6779,10 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>0.016</v>
+        <v>0.077</v>
       </c>
       <c r="K154">
-        <v>0.013</v>
+        <v>0.037</v>
       </c>
       <c r="N154" t="s">
         <v>166</v>
@@ -6790,10 +6790,10 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="2">
-        <v>45953</v>
+        <v>45961</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -6817,10 +6817,10 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>0.013</v>
+        <v>0.077</v>
       </c>
       <c r="K155">
-        <v>0.014</v>
+        <v>0.037</v>
       </c>
       <c r="N155" t="s">
         <v>167</v>
@@ -6828,10 +6828,10 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="2">
-        <v>45953</v>
+        <v>45961</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6855,10 +6855,10 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>0.013</v>
+        <v>0.025</v>
       </c>
       <c r="K156">
-        <v>0.014</v>
+        <v>0.037</v>
       </c>
       <c r="N156" t="s">
         <v>168</v>
@@ -6866,10 +6866,10 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="2">
-        <v>45953</v>
+        <v>45961</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -6893,10 +6893,10 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="K157">
-        <v>0.014</v>
+        <v>0.037</v>
       </c>
       <c r="N157" t="s">
         <v>169</v>
@@ -6904,10 +6904,10 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="2">
-        <v>45953</v>
+        <v>45961</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -6931,10 +6931,10 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="K158">
-        <v>0.014</v>
+        <v>0.037</v>
       </c>
       <c r="N158" t="s">
         <v>170</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="2">
-        <v>45953</v>
+        <v>45962</v>
       </c>
       <c r="B159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6969,10 +6969,10 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="K159">
-        <v>0.014</v>
+        <v>0.038</v>
       </c>
       <c r="N159" t="s">
         <v>171</v>
@@ -6980,10 +6980,10 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="2">
-        <v>45953</v>
+        <v>45962</v>
       </c>
       <c r="B160">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -7007,10 +7007,10 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="K160">
-        <v>0.014</v>
+        <v>0.038</v>
       </c>
       <c r="N160" t="s">
         <v>172</v>
@@ -7018,10 +7018,10 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="2">
-        <v>45953</v>
+        <v>45962</v>
       </c>
       <c r="B161">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -7045,10 +7045,10 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="K161">
-        <v>0.014</v>
+        <v>0.038</v>
       </c>
       <c r="N161" t="s">
         <v>173</v>
@@ -7056,10 +7056,10 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="2">
-        <v>45953</v>
+        <v>45962</v>
       </c>
       <c r="B162">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -7071,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -7083,10 +7083,10 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>0.08799999999999999</v>
+        <v>0.022</v>
       </c>
       <c r="K162">
-        <v>0.014</v>
+        <v>0.038</v>
       </c>
       <c r="N162" t="s">
         <v>174</v>
@@ -7094,37 +7094,37 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="2">
-        <v>45953</v>
+        <v>45962</v>
       </c>
       <c r="B163">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>0.06900000000000001</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>0.151</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.5620000000000001</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>0.383</v>
+        <v>0.011</v>
       </c>
       <c r="H163">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="J163">
-        <v>0.41</v>
+        <v>0.022</v>
       </c>
       <c r="K163">
-        <v>0.046</v>
+        <v>0.038</v>
       </c>
       <c r="N163" t="s">
         <v>175</v>
@@ -7132,37 +7132,37 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="2">
-        <v>45953</v>
+        <v>45962</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C164">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>0.407</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>0.759</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.664</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>1.104</v>
+        <v>0.011</v>
       </c>
       <c r="H164">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>0.285</v>
+        <v>0</v>
       </c>
       <c r="J164">
-        <v>1.134</v>
+        <v>0.022</v>
       </c>
       <c r="K164">
-        <v>0.349</v>
+        <v>0.038</v>
       </c>
       <c r="N164" t="s">
         <v>176</v>
@@ -7170,37 +7170,37 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="2">
-        <v>45953</v>
+        <v>45962</v>
       </c>
       <c r="B165">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C165">
-        <v>0.746</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>0.859</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>1.673</v>
+        <v>0.013</v>
       </c>
       <c r="F165">
-        <v>2.356</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>2.05</v>
+        <v>0.011</v>
       </c>
       <c r="H165">
-        <v>0.763</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>0.632</v>
+        <v>0</v>
       </c>
       <c r="J165">
-        <v>1.742</v>
+        <v>0.022</v>
       </c>
       <c r="K165">
-        <v>0.76</v>
+        <v>0.014</v>
       </c>
       <c r="N165" t="s">
         <v>177</v>
@@ -7208,37 +7208,37 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="2">
-        <v>45953</v>
+        <v>45962</v>
       </c>
       <c r="B166">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C166">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>1.333</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>1.957</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>2.709</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>2.235</v>
+        <v>0.011</v>
       </c>
       <c r="H166">
-        <v>1.241</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>0.806</v>
+        <v>0</v>
       </c>
       <c r="J166">
-        <v>2.017</v>
+        <v>0.049</v>
       </c>
       <c r="K166">
-        <v>0.869</v>
+        <v>0.014</v>
       </c>
       <c r="N166" t="s">
         <v>178</v>
@@ -7246,37 +7246,37 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="2">
-        <v>45953</v>
+        <v>45962</v>
       </c>
       <c r="B167">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C167">
-        <v>1.535</v>
+        <v>0.035</v>
       </c>
       <c r="D167">
-        <v>1.7</v>
+        <v>0.048</v>
       </c>
       <c r="E167">
-        <v>2.745</v>
+        <v>0.1</v>
       </c>
       <c r="F167">
-        <v>2.922</v>
+        <v>0.415</v>
       </c>
       <c r="G167">
-        <v>2.516</v>
+        <v>0.291</v>
       </c>
       <c r="H167">
-        <v>1.343</v>
+        <v>0.106</v>
       </c>
       <c r="I167">
-        <v>0.898</v>
+        <v>0.064</v>
       </c>
       <c r="J167">
-        <v>2.251</v>
+        <v>0.281</v>
       </c>
       <c r="K167">
-        <v>0.976</v>
+        <v>0.038</v>
       </c>
       <c r="N167" t="s">
         <v>179</v>
@@ -7284,37 +7284,37 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="2">
-        <v>45953</v>
+        <v>45962</v>
       </c>
       <c r="B168">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C168">
-        <v>1.697</v>
+        <v>0.382</v>
       </c>
       <c r="D168">
-        <v>1.721</v>
+        <v>0.396</v>
       </c>
       <c r="E168">
-        <v>2.791</v>
+        <v>0.62</v>
       </c>
       <c r="F168">
-        <v>2.808</v>
+        <v>1.304</v>
       </c>
       <c r="G168">
-        <v>2.537</v>
+        <v>0.849</v>
       </c>
       <c r="H168">
-        <v>1.343</v>
+        <v>0.444</v>
       </c>
       <c r="I168">
-        <v>1.024</v>
+        <v>0.319</v>
       </c>
       <c r="J168">
-        <v>1.994</v>
+        <v>0.705</v>
       </c>
       <c r="K168">
-        <v>0.989</v>
+        <v>0.294</v>
       </c>
       <c r="N168" t="s">
         <v>180</v>
@@ -7322,37 +7322,37 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="2">
-        <v>45953</v>
+        <v>45962</v>
       </c>
       <c r="B169">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C169">
-        <v>1.626</v>
+        <v>0.749</v>
       </c>
       <c r="D169">
-        <v>1.762</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="E169">
-        <v>2.092</v>
+        <v>1.267</v>
       </c>
       <c r="F169">
-        <v>2.324</v>
+        <v>1.912</v>
       </c>
       <c r="G169">
-        <v>2.312</v>
+        <v>2.029</v>
       </c>
       <c r="H169">
-        <v>1.242</v>
+        <v>0.968</v>
       </c>
       <c r="I169">
-        <v>0.804</v>
+        <v>0.532</v>
       </c>
       <c r="J169">
-        <v>1.835</v>
+        <v>1.394</v>
       </c>
       <c r="K169">
-        <v>0.9340000000000001</v>
+        <v>0.583</v>
       </c>
       <c r="N169" t="s">
         <v>181</v>
@@ -7360,37 +7360,37 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="2">
-        <v>45953</v>
+        <v>45962</v>
       </c>
       <c r="B170">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C170">
-        <v>0.968</v>
+        <v>1.355</v>
       </c>
       <c r="D170">
-        <v>1.27</v>
+        <v>1.66</v>
       </c>
       <c r="E170">
-        <v>1.686</v>
+        <v>1.675</v>
       </c>
       <c r="F170">
-        <v>1.384</v>
+        <v>2.407</v>
       </c>
       <c r="G170">
-        <v>2.01</v>
+        <v>2.403</v>
       </c>
       <c r="H170">
-        <v>0.8149999999999999</v>
+        <v>1.351</v>
       </c>
       <c r="I170">
-        <v>0.678</v>
+        <v>0.676</v>
       </c>
       <c r="J170">
-        <v>1.792</v>
+        <v>1.725</v>
       </c>
       <c r="K170">
-        <v>0.753</v>
+        <v>0.839</v>
       </c>
       <c r="N170" t="s">
         <v>182</v>

--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -58,511 +58,511 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>25.10.202512</t>
-  </si>
-  <si>
-    <t>25.10.202513</t>
-  </si>
-  <si>
-    <t>25.10.202514</t>
-  </si>
-  <si>
-    <t>25.10.202515</t>
-  </si>
-  <si>
-    <t>25.10.202516</t>
-  </si>
-  <si>
-    <t>25.10.202517</t>
-  </si>
-  <si>
-    <t>25.10.202518</t>
-  </si>
-  <si>
-    <t>25.10.202519</t>
-  </si>
-  <si>
-    <t>25.10.202520</t>
-  </si>
-  <si>
-    <t>25.10.202521</t>
-  </si>
-  <si>
-    <t>25.10.202522</t>
-  </si>
-  <si>
-    <t>25.10.202523</t>
-  </si>
-  <si>
-    <t>25.10.202524</t>
-  </si>
-  <si>
-    <t>26.10.20251</t>
-  </si>
-  <si>
-    <t>26.10.20252</t>
-  </si>
-  <si>
-    <t>26.10.20253</t>
-  </si>
-  <si>
-    <t>26.10.20254</t>
-  </si>
-  <si>
-    <t>26.10.20255</t>
-  </si>
-  <si>
-    <t>26.10.20256</t>
-  </si>
-  <si>
-    <t>26.10.20257</t>
-  </si>
-  <si>
-    <t>26.10.20258</t>
-  </si>
-  <si>
-    <t>26.10.20259</t>
-  </si>
-  <si>
-    <t>26.10.202510</t>
-  </si>
-  <si>
-    <t>26.10.202511</t>
-  </si>
-  <si>
-    <t>26.10.202512</t>
-  </si>
-  <si>
-    <t>26.10.202513</t>
-  </si>
-  <si>
-    <t>26.10.202514</t>
-  </si>
-  <si>
-    <t>26.10.202515</t>
-  </si>
-  <si>
-    <t>26.10.202516</t>
-  </si>
-  <si>
-    <t>26.10.202517</t>
-  </si>
-  <si>
-    <t>26.10.202518</t>
-  </si>
-  <si>
-    <t>26.10.202519</t>
-  </si>
-  <si>
-    <t>26.10.202520</t>
-  </si>
-  <si>
-    <t>26.10.202521</t>
-  </si>
-  <si>
-    <t>26.10.202522</t>
-  </si>
-  <si>
-    <t>26.10.202523</t>
-  </si>
-  <si>
-    <t>26.10.202524</t>
-  </si>
-  <si>
-    <t>27.10.20251</t>
-  </si>
-  <si>
-    <t>27.10.20252</t>
-  </si>
-  <si>
-    <t>27.10.20253</t>
-  </si>
-  <si>
-    <t>27.10.20254</t>
-  </si>
-  <si>
-    <t>27.10.20255</t>
-  </si>
-  <si>
-    <t>27.10.20256</t>
-  </si>
-  <si>
-    <t>27.10.20257</t>
-  </si>
-  <si>
-    <t>27.10.20258</t>
-  </si>
-  <si>
-    <t>27.10.20259</t>
-  </si>
-  <si>
-    <t>27.10.202510</t>
-  </si>
-  <si>
-    <t>27.10.202511</t>
-  </si>
-  <si>
-    <t>27.10.202512</t>
-  </si>
-  <si>
-    <t>27.10.202513</t>
-  </si>
-  <si>
-    <t>27.10.202514</t>
-  </si>
-  <si>
-    <t>27.10.202515</t>
-  </si>
-  <si>
-    <t>27.10.202516</t>
-  </si>
-  <si>
-    <t>27.10.202517</t>
-  </si>
-  <si>
-    <t>27.10.202518</t>
-  </si>
-  <si>
-    <t>27.10.202519</t>
-  </si>
-  <si>
-    <t>27.10.202520</t>
-  </si>
-  <si>
-    <t>27.10.202521</t>
-  </si>
-  <si>
-    <t>27.10.202522</t>
-  </si>
-  <si>
-    <t>27.10.202523</t>
-  </si>
-  <si>
-    <t>27.10.202524</t>
-  </si>
-  <si>
-    <t>28.10.20251</t>
-  </si>
-  <si>
-    <t>28.10.20252</t>
-  </si>
-  <si>
-    <t>28.10.20253</t>
-  </si>
-  <si>
-    <t>28.10.20254</t>
-  </si>
-  <si>
-    <t>28.10.20255</t>
-  </si>
-  <si>
-    <t>28.10.20256</t>
-  </si>
-  <si>
-    <t>28.10.20257</t>
-  </si>
-  <si>
-    <t>28.10.20258</t>
-  </si>
-  <si>
-    <t>28.10.20259</t>
-  </si>
-  <si>
-    <t>28.10.202510</t>
-  </si>
-  <si>
-    <t>28.10.202511</t>
-  </si>
-  <si>
-    <t>28.10.202512</t>
-  </si>
-  <si>
-    <t>28.10.202513</t>
-  </si>
-  <si>
-    <t>28.10.202514</t>
-  </si>
-  <si>
-    <t>28.10.202515</t>
-  </si>
-  <si>
-    <t>28.10.202516</t>
-  </si>
-  <si>
-    <t>28.10.202517</t>
-  </si>
-  <si>
-    <t>28.10.202518</t>
-  </si>
-  <si>
-    <t>28.10.202519</t>
-  </si>
-  <si>
-    <t>28.10.202520</t>
-  </si>
-  <si>
-    <t>28.10.202521</t>
-  </si>
-  <si>
-    <t>28.10.202522</t>
-  </si>
-  <si>
-    <t>28.10.202523</t>
-  </si>
-  <si>
-    <t>28.10.202524</t>
-  </si>
-  <si>
-    <t>29.10.20251</t>
-  </si>
-  <si>
-    <t>29.10.20252</t>
-  </si>
-  <si>
-    <t>29.10.20253</t>
-  </si>
-  <si>
-    <t>29.10.20254</t>
-  </si>
-  <si>
-    <t>29.10.20255</t>
-  </si>
-  <si>
-    <t>29.10.20256</t>
-  </si>
-  <si>
-    <t>29.10.20257</t>
-  </si>
-  <si>
-    <t>29.10.20258</t>
-  </si>
-  <si>
-    <t>29.10.20259</t>
-  </si>
-  <si>
-    <t>29.10.202510</t>
-  </si>
-  <si>
-    <t>29.10.202511</t>
-  </si>
-  <si>
-    <t>29.10.202512</t>
-  </si>
-  <si>
-    <t>29.10.202513</t>
-  </si>
-  <si>
-    <t>29.10.202514</t>
-  </si>
-  <si>
-    <t>29.10.202515</t>
-  </si>
-  <si>
-    <t>29.10.202516</t>
-  </si>
-  <si>
-    <t>29.10.202517</t>
-  </si>
-  <si>
-    <t>29.10.202518</t>
-  </si>
-  <si>
-    <t>29.10.202519</t>
-  </si>
-  <si>
-    <t>29.10.202520</t>
-  </si>
-  <si>
-    <t>29.10.202521</t>
-  </si>
-  <si>
-    <t>29.10.202522</t>
-  </si>
-  <si>
-    <t>29.10.202523</t>
-  </si>
-  <si>
-    <t>29.10.202524</t>
-  </si>
-  <si>
-    <t>30.10.20251</t>
-  </si>
-  <si>
-    <t>30.10.20252</t>
-  </si>
-  <si>
-    <t>30.10.20253</t>
-  </si>
-  <si>
-    <t>30.10.20254</t>
-  </si>
-  <si>
-    <t>30.10.20255</t>
-  </si>
-  <si>
-    <t>30.10.20256</t>
-  </si>
-  <si>
-    <t>30.10.20257</t>
-  </si>
-  <si>
-    <t>30.10.20258</t>
-  </si>
-  <si>
-    <t>30.10.20259</t>
-  </si>
-  <si>
-    <t>30.10.202510</t>
-  </si>
-  <si>
-    <t>30.10.202511</t>
-  </si>
-  <si>
-    <t>30.10.202512</t>
-  </si>
-  <si>
-    <t>30.10.202513</t>
-  </si>
-  <si>
-    <t>30.10.202514</t>
-  </si>
-  <si>
-    <t>30.10.202515</t>
-  </si>
-  <si>
-    <t>30.10.202516</t>
-  </si>
-  <si>
-    <t>30.10.202517</t>
-  </si>
-  <si>
-    <t>30.10.202518</t>
-  </si>
-  <si>
-    <t>30.10.202519</t>
-  </si>
-  <si>
-    <t>30.10.202520</t>
-  </si>
-  <si>
-    <t>30.10.202521</t>
-  </si>
-  <si>
-    <t>30.10.202522</t>
-  </si>
-  <si>
-    <t>30.10.202523</t>
-  </si>
-  <si>
-    <t>30.10.202524</t>
-  </si>
-  <si>
-    <t>31.10.20251</t>
-  </si>
-  <si>
-    <t>31.10.20252</t>
-  </si>
-  <si>
-    <t>31.10.20253</t>
-  </si>
-  <si>
-    <t>31.10.20254</t>
-  </si>
-  <si>
-    <t>31.10.20255</t>
-  </si>
-  <si>
-    <t>31.10.20256</t>
-  </si>
-  <si>
-    <t>31.10.20257</t>
-  </si>
-  <si>
-    <t>31.10.20258</t>
-  </si>
-  <si>
-    <t>31.10.20259</t>
-  </si>
-  <si>
-    <t>31.10.202510</t>
-  </si>
-  <si>
-    <t>31.10.202511</t>
-  </si>
-  <si>
-    <t>31.10.202512</t>
-  </si>
-  <si>
-    <t>31.10.202513</t>
-  </si>
-  <si>
-    <t>31.10.202514</t>
-  </si>
-  <si>
-    <t>31.10.202515</t>
-  </si>
-  <si>
-    <t>31.10.202516</t>
-  </si>
-  <si>
-    <t>31.10.202517</t>
-  </si>
-  <si>
-    <t>31.10.202518</t>
-  </si>
-  <si>
-    <t>31.10.202519</t>
-  </si>
-  <si>
-    <t>31.10.202520</t>
-  </si>
-  <si>
-    <t>31.10.202521</t>
-  </si>
-  <si>
-    <t>31.10.202522</t>
-  </si>
-  <si>
-    <t>31.10.202523</t>
-  </si>
-  <si>
-    <t>31.10.202524</t>
-  </si>
-  <si>
-    <t>01.11.20251</t>
-  </si>
-  <si>
-    <t>01.11.20252</t>
-  </si>
-  <si>
-    <t>01.11.20253</t>
-  </si>
-  <si>
-    <t>01.11.20254</t>
-  </si>
-  <si>
-    <t>01.11.20255</t>
-  </si>
-  <si>
-    <t>01.11.20256</t>
-  </si>
-  <si>
-    <t>01.11.20257</t>
-  </si>
-  <si>
-    <t>01.11.20258</t>
-  </si>
-  <si>
-    <t>01.11.20259</t>
-  </si>
-  <si>
-    <t>01.11.202510</t>
-  </si>
-  <si>
-    <t>01.11.202511</t>
-  </si>
-  <si>
-    <t>01.11.202512</t>
+    <t>09.11.20258</t>
+  </si>
+  <si>
+    <t>09.11.20259</t>
+  </si>
+  <si>
+    <t>09.11.202510</t>
+  </si>
+  <si>
+    <t>09.11.202511</t>
+  </si>
+  <si>
+    <t>09.11.202512</t>
+  </si>
+  <si>
+    <t>09.11.202513</t>
+  </si>
+  <si>
+    <t>09.11.202514</t>
+  </si>
+  <si>
+    <t>09.11.202515</t>
+  </si>
+  <si>
+    <t>09.11.202516</t>
+  </si>
+  <si>
+    <t>09.11.202517</t>
+  </si>
+  <si>
+    <t>09.11.202518</t>
+  </si>
+  <si>
+    <t>09.11.202519</t>
+  </si>
+  <si>
+    <t>09.11.202520</t>
+  </si>
+  <si>
+    <t>09.11.202521</t>
+  </si>
+  <si>
+    <t>09.11.202522</t>
+  </si>
+  <si>
+    <t>09.11.202523</t>
+  </si>
+  <si>
+    <t>09.11.202524</t>
+  </si>
+  <si>
+    <t>10.11.20251</t>
+  </si>
+  <si>
+    <t>10.11.20252</t>
+  </si>
+  <si>
+    <t>10.11.20253</t>
+  </si>
+  <si>
+    <t>10.11.20254</t>
+  </si>
+  <si>
+    <t>10.11.20255</t>
+  </si>
+  <si>
+    <t>10.11.20256</t>
+  </si>
+  <si>
+    <t>10.11.20257</t>
+  </si>
+  <si>
+    <t>10.11.20258</t>
+  </si>
+  <si>
+    <t>10.11.20259</t>
+  </si>
+  <si>
+    <t>10.11.202510</t>
+  </si>
+  <si>
+    <t>10.11.202511</t>
+  </si>
+  <si>
+    <t>10.11.202512</t>
+  </si>
+  <si>
+    <t>10.11.202513</t>
+  </si>
+  <si>
+    <t>10.11.202514</t>
+  </si>
+  <si>
+    <t>10.11.202515</t>
+  </si>
+  <si>
+    <t>10.11.202516</t>
+  </si>
+  <si>
+    <t>10.11.202517</t>
+  </si>
+  <si>
+    <t>10.11.202518</t>
+  </si>
+  <si>
+    <t>10.11.202519</t>
+  </si>
+  <si>
+    <t>10.11.202520</t>
+  </si>
+  <si>
+    <t>10.11.202521</t>
+  </si>
+  <si>
+    <t>10.11.202522</t>
+  </si>
+  <si>
+    <t>10.11.202523</t>
+  </si>
+  <si>
+    <t>10.11.202524</t>
+  </si>
+  <si>
+    <t>11.11.20251</t>
+  </si>
+  <si>
+    <t>11.11.20252</t>
+  </si>
+  <si>
+    <t>11.11.20253</t>
+  </si>
+  <si>
+    <t>11.11.20254</t>
+  </si>
+  <si>
+    <t>11.11.20255</t>
+  </si>
+  <si>
+    <t>11.11.20256</t>
+  </si>
+  <si>
+    <t>11.11.20257</t>
+  </si>
+  <si>
+    <t>11.11.20258</t>
+  </si>
+  <si>
+    <t>11.11.20259</t>
+  </si>
+  <si>
+    <t>11.11.202510</t>
+  </si>
+  <si>
+    <t>11.11.202511</t>
+  </si>
+  <si>
+    <t>11.11.202512</t>
+  </si>
+  <si>
+    <t>11.11.202513</t>
+  </si>
+  <si>
+    <t>11.11.202514</t>
+  </si>
+  <si>
+    <t>11.11.202515</t>
+  </si>
+  <si>
+    <t>11.11.202516</t>
+  </si>
+  <si>
+    <t>11.11.202517</t>
+  </si>
+  <si>
+    <t>11.11.202518</t>
+  </si>
+  <si>
+    <t>11.11.202519</t>
+  </si>
+  <si>
+    <t>11.11.202520</t>
+  </si>
+  <si>
+    <t>11.11.202521</t>
+  </si>
+  <si>
+    <t>11.11.202522</t>
+  </si>
+  <si>
+    <t>11.11.202523</t>
+  </si>
+  <si>
+    <t>11.11.202524</t>
+  </si>
+  <si>
+    <t>12.11.20251</t>
+  </si>
+  <si>
+    <t>12.11.20252</t>
+  </si>
+  <si>
+    <t>12.11.20253</t>
+  </si>
+  <si>
+    <t>12.11.20254</t>
+  </si>
+  <si>
+    <t>12.11.20255</t>
+  </si>
+  <si>
+    <t>12.11.20256</t>
+  </si>
+  <si>
+    <t>12.11.20257</t>
+  </si>
+  <si>
+    <t>12.11.20258</t>
+  </si>
+  <si>
+    <t>12.11.20259</t>
+  </si>
+  <si>
+    <t>12.11.202510</t>
+  </si>
+  <si>
+    <t>12.11.202511</t>
+  </si>
+  <si>
+    <t>12.11.202512</t>
+  </si>
+  <si>
+    <t>12.11.202513</t>
+  </si>
+  <si>
+    <t>12.11.202514</t>
+  </si>
+  <si>
+    <t>12.11.202515</t>
+  </si>
+  <si>
+    <t>12.11.202516</t>
+  </si>
+  <si>
+    <t>12.11.202517</t>
+  </si>
+  <si>
+    <t>12.11.202518</t>
+  </si>
+  <si>
+    <t>12.11.202519</t>
+  </si>
+  <si>
+    <t>12.11.202520</t>
+  </si>
+  <si>
+    <t>12.11.202521</t>
+  </si>
+  <si>
+    <t>12.11.202522</t>
+  </si>
+  <si>
+    <t>12.11.202523</t>
+  </si>
+  <si>
+    <t>12.11.202524</t>
+  </si>
+  <si>
+    <t>13.11.20251</t>
+  </si>
+  <si>
+    <t>13.11.20252</t>
+  </si>
+  <si>
+    <t>13.11.20253</t>
+  </si>
+  <si>
+    <t>13.11.20254</t>
+  </si>
+  <si>
+    <t>13.11.20255</t>
+  </si>
+  <si>
+    <t>13.11.20256</t>
+  </si>
+  <si>
+    <t>13.11.20257</t>
+  </si>
+  <si>
+    <t>13.11.20258</t>
+  </si>
+  <si>
+    <t>13.11.20259</t>
+  </si>
+  <si>
+    <t>13.11.202510</t>
+  </si>
+  <si>
+    <t>13.11.202511</t>
+  </si>
+  <si>
+    <t>13.11.202512</t>
+  </si>
+  <si>
+    <t>13.11.202513</t>
+  </si>
+  <si>
+    <t>13.11.202514</t>
+  </si>
+  <si>
+    <t>13.11.202515</t>
+  </si>
+  <si>
+    <t>13.11.202516</t>
+  </si>
+  <si>
+    <t>13.11.202517</t>
+  </si>
+  <si>
+    <t>13.11.202518</t>
+  </si>
+  <si>
+    <t>13.11.202519</t>
+  </si>
+  <si>
+    <t>13.11.202520</t>
+  </si>
+  <si>
+    <t>13.11.202521</t>
+  </si>
+  <si>
+    <t>13.11.202522</t>
+  </si>
+  <si>
+    <t>13.11.202523</t>
+  </si>
+  <si>
+    <t>13.11.202524</t>
+  </si>
+  <si>
+    <t>14.11.20251</t>
+  </si>
+  <si>
+    <t>14.11.20252</t>
+  </si>
+  <si>
+    <t>14.11.20253</t>
+  </si>
+  <si>
+    <t>14.11.20254</t>
+  </si>
+  <si>
+    <t>14.11.20255</t>
+  </si>
+  <si>
+    <t>14.11.20256</t>
+  </si>
+  <si>
+    <t>14.11.20257</t>
+  </si>
+  <si>
+    <t>14.11.20258</t>
+  </si>
+  <si>
+    <t>14.11.20259</t>
+  </si>
+  <si>
+    <t>14.11.202510</t>
+  </si>
+  <si>
+    <t>14.11.202511</t>
+  </si>
+  <si>
+    <t>14.11.202512</t>
+  </si>
+  <si>
+    <t>14.11.202513</t>
+  </si>
+  <si>
+    <t>14.11.202514</t>
+  </si>
+  <si>
+    <t>14.11.202515</t>
+  </si>
+  <si>
+    <t>14.11.202516</t>
+  </si>
+  <si>
+    <t>14.11.202517</t>
+  </si>
+  <si>
+    <t>14.11.202518</t>
+  </si>
+  <si>
+    <t>14.11.202519</t>
+  </si>
+  <si>
+    <t>14.11.202520</t>
+  </si>
+  <si>
+    <t>14.11.202521</t>
+  </si>
+  <si>
+    <t>14.11.202522</t>
+  </si>
+  <si>
+    <t>14.11.202523</t>
+  </si>
+  <si>
+    <t>14.11.202524</t>
+  </si>
+  <si>
+    <t>15.11.20251</t>
+  </si>
+  <si>
+    <t>15.11.20252</t>
+  </si>
+  <si>
+    <t>15.11.20253</t>
+  </si>
+  <si>
+    <t>15.11.20254</t>
+  </si>
+  <si>
+    <t>15.11.20255</t>
+  </si>
+  <si>
+    <t>15.11.20256</t>
+  </si>
+  <si>
+    <t>15.11.20257</t>
+  </si>
+  <si>
+    <t>15.11.20258</t>
+  </si>
+  <si>
+    <t>15.11.20259</t>
+  </si>
+  <si>
+    <t>15.11.202510</t>
+  </si>
+  <si>
+    <t>15.11.202511</t>
+  </si>
+  <si>
+    <t>15.11.202512</t>
+  </si>
+  <si>
+    <t>15.11.202513</t>
+  </si>
+  <si>
+    <t>15.11.202514</t>
+  </si>
+  <si>
+    <t>15.11.202515</t>
+  </si>
+  <si>
+    <t>15.11.202516</t>
+  </si>
+  <si>
+    <t>15.11.202517</t>
+  </si>
+  <si>
+    <t>15.11.202518</t>
+  </si>
+  <si>
+    <t>15.11.202519</t>
+  </si>
+  <si>
+    <t>15.11.202520</t>
+  </si>
+  <si>
+    <t>15.11.202521</t>
+  </si>
+  <si>
+    <t>15.11.202522</t>
+  </si>
+  <si>
+    <t>15.11.202523</t>
+  </si>
+  <si>
+    <t>15.11.202524</t>
+  </si>
+  <si>
+    <t>16.11.20251</t>
+  </si>
+  <si>
+    <t>16.11.20252</t>
+  </si>
+  <si>
+    <t>16.11.20253</t>
+  </si>
+  <si>
+    <t>16.11.20254</t>
+  </si>
+  <si>
+    <t>16.11.20255</t>
+  </si>
+  <si>
+    <t>16.11.20256</t>
+  </si>
+  <si>
+    <t>16.11.20257</t>
+  </si>
+  <si>
+    <t>16.11.20258</t>
   </si>
 </sst>
 </file>
@@ -976,10 +976,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.111</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1052,37 +1052,37 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>2.204</v>
+        <v>0.319</v>
       </c>
       <c r="D4">
-        <v>2.98</v>
+        <v>0.288</v>
       </c>
       <c r="E4">
-        <v>1.928</v>
+        <v>0.246</v>
       </c>
       <c r="F4">
-        <v>3.741</v>
+        <v>0.353</v>
       </c>
       <c r="G4">
-        <v>3.396</v>
+        <v>0.275</v>
       </c>
       <c r="H4">
-        <v>1.893</v>
+        <v>0.145</v>
       </c>
       <c r="I4">
-        <v>1.397</v>
+        <v>0.079</v>
       </c>
       <c r="J4">
-        <v>3.069</v>
+        <v>0.313</v>
       </c>
       <c r="K4">
-        <v>1.288</v>
+        <v>0.3</v>
       </c>
       <c r="N4" t="s">
         <v>16</v>
@@ -1090,37 +1090,37 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>2.16</v>
+        <v>0.623</v>
       </c>
       <c r="D5">
-        <v>2.619</v>
+        <v>0.706</v>
       </c>
       <c r="E5">
-        <v>1.925</v>
+        <v>0.876</v>
       </c>
       <c r="F5">
-        <v>3.032</v>
+        <v>0.712</v>
       </c>
       <c r="G5">
-        <v>3.143</v>
+        <v>0.522</v>
       </c>
       <c r="H5">
-        <v>1.455</v>
+        <v>0.203</v>
       </c>
       <c r="I5">
-        <v>0.956</v>
+        <v>0.149</v>
       </c>
       <c r="J5">
-        <v>2.379</v>
+        <v>0.597</v>
       </c>
       <c r="K5">
-        <v>1.295</v>
+        <v>0.728</v>
       </c>
       <c r="N5" t="s">
         <v>17</v>
@@ -1128,37 +1128,37 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>1.829</v>
+        <v>0.827</v>
       </c>
       <c r="D6">
-        <v>2.202</v>
+        <v>0.996</v>
       </c>
       <c r="E6">
-        <v>2.111</v>
+        <v>1.474</v>
       </c>
       <c r="F6">
-        <v>2.107</v>
+        <v>0.868</v>
       </c>
       <c r="G6">
-        <v>2.509</v>
+        <v>0.585</v>
       </c>
       <c r="H6">
-        <v>1.265</v>
+        <v>0.368</v>
       </c>
       <c r="I6">
-        <v>0.745</v>
+        <v>0.264</v>
       </c>
       <c r="J6">
-        <v>2.02</v>
+        <v>0.877</v>
       </c>
       <c r="K6">
-        <v>0.837</v>
+        <v>0.84</v>
       </c>
       <c r="N6" t="s">
         <v>18</v>
@@ -1166,37 +1166,37 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>0.97</v>
+        <v>1.345</v>
       </c>
       <c r="D7">
-        <v>1.453</v>
+        <v>1.59</v>
       </c>
       <c r="E7">
-        <v>1.547</v>
+        <v>1.538</v>
       </c>
       <c r="F7">
-        <v>0.787</v>
+        <v>0.806</v>
       </c>
       <c r="G7">
-        <v>1.406</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H7">
-        <v>0.753</v>
+        <v>0.587</v>
       </c>
       <c r="I7">
-        <v>0.569</v>
+        <v>0.429</v>
       </c>
       <c r="J7">
-        <v>0.991</v>
+        <v>1.013</v>
       </c>
       <c r="K7">
-        <v>0.571</v>
+        <v>0.852</v>
       </c>
       <c r="N7" t="s">
         <v>19</v>
@@ -1204,37 +1204,37 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>0.206</v>
+        <v>1.347</v>
       </c>
       <c r="D8">
-        <v>0.348</v>
+        <v>1.92</v>
       </c>
       <c r="E8">
-        <v>0.415</v>
+        <v>1.508</v>
       </c>
       <c r="F8">
-        <v>0.174</v>
+        <v>0.679</v>
       </c>
       <c r="G8">
-        <v>0.268</v>
+        <v>0.632</v>
       </c>
       <c r="H8">
-        <v>0.217</v>
+        <v>0.619</v>
       </c>
       <c r="I8">
-        <v>0.139</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="J8">
-        <v>0.429</v>
+        <v>1.021</v>
       </c>
       <c r="K8">
-        <v>0.213</v>
+        <v>0.852</v>
       </c>
       <c r="N8" t="s">
         <v>20</v>
@@ -1242,37 +1242,37 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.952</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1.769</v>
       </c>
       <c r="E9">
-        <v>0.02</v>
+        <v>1.427</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.592</v>
       </c>
       <c r="G9">
-        <v>0.011</v>
+        <v>0.54</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.431</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.498</v>
       </c>
       <c r="J9">
-        <v>0.116</v>
+        <v>0.925</v>
       </c>
       <c r="K9">
-        <v>0.051</v>
+        <v>0.762</v>
       </c>
       <c r="N9" t="s">
         <v>21</v>
@@ -1280,37 +1280,37 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.103</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.088</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="G10">
-        <v>0.011</v>
+        <v>0.513</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.301</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="J10">
-        <v>0.073</v>
+        <v>0.732</v>
       </c>
       <c r="K10">
-        <v>0.037</v>
+        <v>0.528</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
@@ -1318,37 +1318,37 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.332</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.523</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.638</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.199</v>
       </c>
       <c r="G11">
-        <v>0.011</v>
+        <v>0.214</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="J11">
-        <v>0.073</v>
+        <v>0.427</v>
       </c>
       <c r="K11">
-        <v>0.037</v>
+        <v>0.269</v>
       </c>
       <c r="N11" t="s">
         <v>23</v>
@@ -1356,37 +1356,37 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="G12">
-        <v>0.011</v>
+        <v>0.044</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="J12">
-        <v>0.02</v>
+        <v>0.415</v>
       </c>
       <c r="K12">
-        <v>0.031</v>
+        <v>0.026</v>
       </c>
       <c r="N12" t="s">
         <v>24</v>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.025</v>
+        <v>0.064</v>
       </c>
       <c r="K13">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="N13" t="s">
         <v>25</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.016</v>
+        <v>0.068</v>
       </c>
       <c r="K14">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="N14" t="s">
         <v>26</v>
@@ -1470,10 +1470,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45956</v>
+        <v>45970</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="J15">
+        <v>0.068</v>
+      </c>
+      <c r="K15">
         <v>0.013</v>
-      </c>
-      <c r="K15">
-        <v>0.032</v>
       </c>
       <c r="N15" t="s">
         <v>27</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45956</v>
+        <v>45970</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="J16">
+        <v>0.016</v>
+      </c>
+      <c r="K16">
         <v>0.013</v>
-      </c>
-      <c r="K16">
-        <v>0.032</v>
       </c>
       <c r="N16" t="s">
         <v>28</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45956</v>
+        <v>45970</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="J17">
+        <v>0.016</v>
+      </c>
+      <c r="K17">
         <v>0.013</v>
-      </c>
-      <c r="K17">
-        <v>0.032</v>
       </c>
       <c r="N17" t="s">
         <v>29</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45956</v>
+        <v>45970</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1611,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="J18">
+        <v>0.011</v>
+      </c>
+      <c r="K18">
         <v>0.013</v>
-      </c>
-      <c r="K18">
-        <v>0.032</v>
       </c>
       <c r="N18" t="s">
         <v>30</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -1660,10 +1660,10 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1687,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N20" t="s">
         <v>32</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0.013</v>
       </c>
       <c r="K21">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N21" t="s">
         <v>33</v>
@@ -1736,10 +1736,10 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0.011</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04</v>
+        <v>0.013</v>
       </c>
       <c r="K22">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N22" t="s">
         <v>34</v>
@@ -1774,37 +1774,37 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.144</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.091</v>
+        <v>0.011</v>
       </c>
       <c r="H23">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.265</v>
+        <v>0.013</v>
       </c>
       <c r="K23">
-        <v>0.051</v>
+        <v>0.014</v>
       </c>
       <c r="N23" t="s">
         <v>35</v>
@@ -1812,37 +1812,37 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>0.266</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.204</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.373</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.309</v>
+        <v>0.011</v>
       </c>
       <c r="H24">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.324</v>
+        <v>0.013</v>
       </c>
       <c r="K24">
-        <v>0.183</v>
+        <v>0.014</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -1850,37 +1850,37 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>0.541</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.519</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.496</v>
+        <v>0.011</v>
       </c>
       <c r="H25">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.423</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.551</v>
+        <v>0.013</v>
       </c>
       <c r="K25">
-        <v>0.36</v>
+        <v>0.014</v>
       </c>
       <c r="N25" t="s">
         <v>37</v>
@@ -1888,37 +1888,37 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1.022</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.853</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.748</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.714</v>
+        <v>0.011</v>
       </c>
       <c r="H26">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0.465</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.832</v>
+        <v>0.04</v>
       </c>
       <c r="K26">
-        <v>0.461</v>
+        <v>0.014</v>
       </c>
       <c r="N26" t="s">
         <v>38</v>
@@ -1926,37 +1926,37 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>1.089</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1.155</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1.027</v>
+        <v>0.024</v>
       </c>
       <c r="F27">
-        <v>1.023</v>
+        <v>0.056</v>
       </c>
       <c r="G27">
-        <v>1.043</v>
+        <v>0.041</v>
       </c>
       <c r="H27">
-        <v>0.716</v>
+        <v>0.012</v>
       </c>
       <c r="I27">
-        <v>0.64</v>
+        <v>0.015</v>
       </c>
       <c r="J27">
-        <v>0.976</v>
+        <v>0.306</v>
       </c>
       <c r="K27">
-        <v>0.578</v>
+        <v>0.038</v>
       </c>
       <c r="N27" t="s">
         <v>39</v>
@@ -1964,37 +1964,37 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>0.82</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D28">
-        <v>1.038</v>
+        <v>0.098</v>
       </c>
       <c r="E28">
-        <v>1.08</v>
+        <v>0.103</v>
       </c>
       <c r="F28">
-        <v>1.081</v>
+        <v>0.263</v>
       </c>
       <c r="G28">
-        <v>1.016</v>
+        <v>0.174</v>
       </c>
       <c r="H28">
-        <v>0.716</v>
+        <v>0.106</v>
       </c>
       <c r="I28">
-        <v>0.775</v>
+        <v>0.109</v>
       </c>
       <c r="J28">
-        <v>1.036</v>
+        <v>0.305</v>
       </c>
       <c r="K28">
-        <v>0.578</v>
+        <v>0.046</v>
       </c>
       <c r="N28" t="s">
         <v>40</v>
@@ -2002,37 +2002,37 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>0.696</v>
+        <v>0.242</v>
       </c>
       <c r="D29">
-        <v>0.975</v>
+        <v>0.238</v>
       </c>
       <c r="E29">
-        <v>0.991</v>
+        <v>0.216</v>
       </c>
       <c r="F29">
-        <v>0.983</v>
+        <v>0.446</v>
       </c>
       <c r="G29">
-        <v>0.974</v>
+        <v>0.37</v>
       </c>
       <c r="H29">
-        <v>0.628</v>
+        <v>0.174</v>
       </c>
       <c r="I29">
-        <v>0.654</v>
+        <v>0.184</v>
       </c>
       <c r="J29">
-        <v>0.997</v>
+        <v>0.416</v>
       </c>
       <c r="K29">
-        <v>0.395</v>
+        <v>0.189</v>
       </c>
       <c r="N29" t="s">
         <v>41</v>
@@ -2040,37 +2040,37 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>0.513</v>
+        <v>0.3</v>
       </c>
       <c r="D30">
-        <v>0.676</v>
+        <v>0.369</v>
       </c>
       <c r="E30">
-        <v>0.779</v>
+        <v>0.353</v>
       </c>
       <c r="F30">
-        <v>0.772</v>
+        <v>0.653</v>
       </c>
       <c r="G30">
-        <v>0.876</v>
+        <v>0.604</v>
       </c>
       <c r="H30">
-        <v>0.463</v>
+        <v>0.221</v>
       </c>
       <c r="I30">
-        <v>0.498</v>
+        <v>0.298</v>
       </c>
       <c r="J30">
-        <v>0.979</v>
+        <v>0.398</v>
       </c>
       <c r="K30">
-        <v>0.325</v>
+        <v>0.205</v>
       </c>
       <c r="N30" t="s">
         <v>42</v>
@@ -2078,37 +2078,37 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>0.214</v>
+        <v>0.334</v>
       </c>
       <c r="D31">
-        <v>0.352</v>
+        <v>0.376</v>
       </c>
       <c r="E31">
-        <v>0.452</v>
+        <v>0.401</v>
       </c>
       <c r="F31">
-        <v>0.388</v>
+        <v>0.724</v>
       </c>
       <c r="G31">
-        <v>0.488</v>
+        <v>0.589</v>
       </c>
       <c r="H31">
-        <v>0.276</v>
+        <v>0.236</v>
       </c>
       <c r="I31">
-        <v>0.333</v>
+        <v>0.298</v>
       </c>
       <c r="J31">
-        <v>0.577</v>
+        <v>0.408</v>
       </c>
       <c r="K31">
-        <v>0.182</v>
+        <v>0.298</v>
       </c>
       <c r="N31" t="s">
         <v>43</v>
@@ -2116,37 +2116,37 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>0.06</v>
+        <v>0.265</v>
       </c>
       <c r="D32">
-        <v>0.081</v>
+        <v>0.289</v>
       </c>
       <c r="E32">
-        <v>0.13</v>
+        <v>0.452</v>
       </c>
       <c r="F32">
-        <v>0.08</v>
+        <v>0.714</v>
       </c>
       <c r="G32">
-        <v>0.109</v>
+        <v>0.624</v>
       </c>
       <c r="H32">
-        <v>0.106</v>
+        <v>0.236</v>
       </c>
       <c r="I32">
-        <v>0.074</v>
+        <v>0.2</v>
       </c>
       <c r="J32">
-        <v>0.241</v>
+        <v>0.408</v>
       </c>
       <c r="K32">
-        <v>0.035</v>
+        <v>0.298</v>
       </c>
       <c r="N32" t="s">
         <v>44</v>
@@ -2154,37 +2154,37 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.163</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.201</v>
       </c>
       <c r="E33">
-        <v>0.01</v>
+        <v>0.385</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="G33">
-        <v>0.011</v>
+        <v>0.53</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>0.232</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="J33">
-        <v>0.111</v>
+        <v>0.34</v>
       </c>
       <c r="K33">
-        <v>0.013</v>
+        <v>0.258</v>
       </c>
       <c r="N33" t="s">
         <v>45</v>
@@ -2192,37 +2192,37 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.165</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.309</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.395</v>
       </c>
       <c r="G34">
-        <v>0.011</v>
+        <v>0.386</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="J34">
-        <v>0.068</v>
+        <v>0.286</v>
       </c>
       <c r="K34">
-        <v>0.013</v>
+        <v>0.177</v>
       </c>
       <c r="N34" t="s">
         <v>46</v>
@@ -2230,37 +2230,37 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="G35">
-        <v>0.011</v>
+        <v>0.159</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="J35">
-        <v>0.063</v>
+        <v>0.241</v>
       </c>
       <c r="K35">
-        <v>0.013</v>
+        <v>0.041</v>
       </c>
       <c r="N35" t="s">
         <v>47</v>
@@ -2268,37 +2268,37 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="G36">
-        <v>0.011</v>
+        <v>0.034</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.011</v>
+        <v>0.154</v>
       </c>
       <c r="K36">
-        <v>0.013</v>
+        <v>0.026</v>
       </c>
       <c r="N36" t="s">
         <v>48</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.011</v>
+        <v>0.064</v>
       </c>
       <c r="K37">
         <v>0.013</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45956</v>
+        <v>45971</v>
       </c>
       <c r="B38">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.011</v>
+        <v>0.068</v>
       </c>
       <c r="K38">
         <v>0.013</v>
@@ -2382,10 +2382,10 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45957</v>
+        <v>45971</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="K39">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N39" t="s">
         <v>51</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45957</v>
+        <v>45971</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K40">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N40" t="s">
         <v>52</v>
@@ -2458,10 +2458,10 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45957</v>
+        <v>45971</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K41">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N41" t="s">
         <v>53</v>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45957</v>
+        <v>45971</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K42">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N42" t="s">
         <v>54</v>
@@ -2534,10 +2534,10 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2572,10 +2572,10 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0.011</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0.014</v>
@@ -2686,37 +2686,37 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.096</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.079</v>
+        <v>0.011</v>
       </c>
       <c r="H47">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0.255</v>
+        <v>0.013</v>
       </c>
       <c r="K47">
-        <v>0.038</v>
+        <v>0.014</v>
       </c>
       <c r="N47" t="s">
         <v>59</v>
@@ -2724,37 +2724,37 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0.748</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.325</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.254</v>
+        <v>0.011</v>
       </c>
       <c r="H48">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0.423</v>
+        <v>0.013</v>
       </c>
       <c r="K48">
-        <v>0.169</v>
+        <v>0.014</v>
       </c>
       <c r="N48" t="s">
         <v>60</v>
@@ -2762,37 +2762,37 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1.755</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1.248</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.505</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0.471</v>
+        <v>0.011</v>
       </c>
       <c r="H49">
-        <v>0.406</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0.303</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0.695</v>
+        <v>0.013</v>
       </c>
       <c r="K49">
-        <v>0.298</v>
+        <v>0.014</v>
       </c>
       <c r="N49" t="s">
         <v>61</v>
@@ -2800,37 +2800,37 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>2.041</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>2.369</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1.759</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.734</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0.654</v>
+        <v>0.011</v>
       </c>
       <c r="H50">
-        <v>0.733</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0.434</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0.987</v>
+        <v>0.04</v>
       </c>
       <c r="K50">
-        <v>0.461</v>
+        <v>0.014</v>
       </c>
       <c r="N50" t="s">
         <v>62</v>
@@ -2838,37 +2838,37 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>2.321</v>
+        <v>0.01</v>
       </c>
       <c r="D51">
-        <v>2.735</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>2.173</v>
+        <v>0.049</v>
       </c>
       <c r="F51">
-        <v>0.968</v>
+        <v>0.041</v>
       </c>
       <c r="G51">
-        <v>1.107</v>
+        <v>0.024</v>
       </c>
       <c r="H51">
-        <v>0.993</v>
+        <v>0.012</v>
       </c>
       <c r="I51">
-        <v>0.465</v>
+        <v>0.012</v>
       </c>
       <c r="J51">
-        <v>1.238</v>
+        <v>0.184</v>
       </c>
       <c r="K51">
-        <v>0.455</v>
+        <v>0.038</v>
       </c>
       <c r="N51" t="s">
         <v>63</v>
@@ -2876,37 +2876,37 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>2.336</v>
+        <v>0.137</v>
       </c>
       <c r="D52">
-        <v>2.674</v>
+        <v>0.156</v>
       </c>
       <c r="E52">
-        <v>2.253</v>
+        <v>0.434</v>
       </c>
       <c r="F52">
-        <v>0.973</v>
+        <v>0.173</v>
       </c>
       <c r="G52">
-        <v>1.131</v>
+        <v>0.147</v>
       </c>
       <c r="H52">
-        <v>0.997</v>
+        <v>0.106</v>
       </c>
       <c r="I52">
-        <v>0.43</v>
+        <v>0.095</v>
       </c>
       <c r="J52">
-        <v>1.142</v>
+        <v>0.3</v>
       </c>
       <c r="K52">
-        <v>0.441</v>
+        <v>0.046</v>
       </c>
       <c r="N52" t="s">
         <v>64</v>
@@ -2914,37 +2914,37 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C53">
-        <v>1.985</v>
+        <v>0.431</v>
       </c>
       <c r="D53">
-        <v>2.261</v>
+        <v>0.52</v>
       </c>
       <c r="E53">
-        <v>2.276</v>
+        <v>1.145</v>
       </c>
       <c r="F53">
-        <v>0.99</v>
+        <v>0.31</v>
       </c>
       <c r="G53">
-        <v>1.133</v>
+        <v>0.28</v>
       </c>
       <c r="H53">
-        <v>0.995</v>
+        <v>0.203</v>
       </c>
       <c r="I53">
-        <v>0.312</v>
+        <v>0.192</v>
       </c>
       <c r="J53">
-        <v>1.098</v>
+        <v>0.354</v>
       </c>
       <c r="K53">
-        <v>0.39</v>
+        <v>0.205</v>
       </c>
       <c r="N53" t="s">
         <v>65</v>
@@ -2952,37 +2952,37 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C54">
-        <v>1.613</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D54">
-        <v>1.659</v>
+        <v>0.944</v>
       </c>
       <c r="E54">
-        <v>2.027</v>
+        <v>1.657</v>
       </c>
       <c r="F54">
-        <v>0.803</v>
+        <v>0.491</v>
       </c>
       <c r="G54">
-        <v>0.733</v>
+        <v>0.44</v>
       </c>
       <c r="H54">
-        <v>0.731</v>
+        <v>0.302</v>
       </c>
       <c r="I54">
-        <v>0.18</v>
+        <v>0.321</v>
       </c>
       <c r="J54">
-        <v>0.849</v>
+        <v>0.404</v>
       </c>
       <c r="K54">
-        <v>0.319</v>
+        <v>0.347</v>
       </c>
       <c r="N54" t="s">
         <v>66</v>
@@ -2990,37 +2990,37 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C55">
-        <v>0.681</v>
+        <v>1.036</v>
       </c>
       <c r="D55">
-        <v>0.867</v>
+        <v>1.274</v>
       </c>
       <c r="E55">
-        <v>1.478</v>
+        <v>2.024</v>
       </c>
       <c r="F55">
-        <v>0.373</v>
+        <v>0.592</v>
       </c>
       <c r="G55">
-        <v>0.444</v>
+        <v>0.455</v>
       </c>
       <c r="H55">
+        <v>0.347</v>
+      </c>
+      <c r="I55">
+        <v>0.339</v>
+      </c>
+      <c r="J55">
+        <v>0.528</v>
+      </c>
+      <c r="K55">
         <v>0.393</v>
-      </c>
-      <c r="I55">
-        <v>0.095</v>
-      </c>
-      <c r="J55">
-        <v>0.426</v>
-      </c>
-      <c r="K55">
-        <v>0.182</v>
       </c>
       <c r="N55" t="s">
         <v>67</v>
@@ -3028,37 +3028,37 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C56">
-        <v>0.156</v>
+        <v>1.101</v>
       </c>
       <c r="D56">
-        <v>0.197</v>
+        <v>1.354</v>
       </c>
       <c r="E56">
-        <v>0.556</v>
+        <v>2.153</v>
       </c>
       <c r="F56">
-        <v>0.079</v>
+        <v>0.526</v>
       </c>
       <c r="G56">
-        <v>0.115</v>
+        <v>0.446</v>
       </c>
       <c r="H56">
-        <v>0.106</v>
+        <v>0.306</v>
       </c>
       <c r="I56">
-        <v>0.025</v>
+        <v>0.301</v>
       </c>
       <c r="J56">
-        <v>0.251</v>
+        <v>0.479</v>
       </c>
       <c r="K56">
-        <v>0.026</v>
+        <v>0.455</v>
       </c>
       <c r="N56" t="s">
         <v>68</v>
@@ -3066,37 +3066,37 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1.188</v>
       </c>
       <c r="E57">
-        <v>0.031</v>
+        <v>1.945</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="G57">
-        <v>0.011</v>
+        <v>0.236</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>0.232</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>0.184</v>
       </c>
       <c r="J57">
-        <v>0.043</v>
+        <v>0.403</v>
       </c>
       <c r="K57">
-        <v>0.031</v>
+        <v>0.411</v>
       </c>
       <c r="N57" t="s">
         <v>69</v>
@@ -3104,37 +3104,37 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.612</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.797</v>
       </c>
       <c r="E58">
-        <v>0.025</v>
+        <v>1.479</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.172</v>
       </c>
       <c r="G58">
-        <v>0.011</v>
+        <v>0.156</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="J58">
-        <v>0.048</v>
+        <v>0.308</v>
       </c>
       <c r="K58">
-        <v>0.031</v>
+        <v>0.319</v>
       </c>
       <c r="N58" t="s">
         <v>70</v>
@@ -3142,37 +3142,37 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.271</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.368</v>
       </c>
       <c r="E59">
-        <v>0.023</v>
+        <v>0.754</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="G59">
-        <v>0.011</v>
+        <v>0.082</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J59">
-        <v>0.048</v>
+        <v>0.246</v>
       </c>
       <c r="K59">
-        <v>0.031</v>
+        <v>0.162</v>
       </c>
       <c r="N59" t="s">
         <v>71</v>
@@ -3180,37 +3180,37 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="E60">
-        <v>0.046</v>
+        <v>0.173</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="G60">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.016</v>
+        <v>0.132</v>
       </c>
       <c r="K60">
-        <v>0.031</v>
+        <v>0.026</v>
       </c>
       <c r="N60" t="s">
         <v>72</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B61">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0.235</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.016</v>
+        <v>0.038</v>
       </c>
       <c r="K61">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="N61" t="s">
         <v>73</v>
@@ -3256,10 +3256,10 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B62">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.016</v>
+        <v>0.043</v>
       </c>
       <c r="K62">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="N62" t="s">
         <v>74</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45958</v>
+        <v>45972</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3321,10 +3321,10 @@
         <v>0</v>
       </c>
       <c r="J63">
+        <v>0.043</v>
+      </c>
+      <c r="K63">
         <v>0.013</v>
-      </c>
-      <c r="K63">
-        <v>0.032</v>
       </c>
       <c r="N63" t="s">
         <v>75</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45958</v>
+        <v>45972</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="J64">
+        <v>0.011</v>
+      </c>
+      <c r="K64">
         <v>0.013</v>
-      </c>
-      <c r="K64">
-        <v>0.032</v>
       </c>
       <c r="N64" t="s">
         <v>76</v>
@@ -3370,10 +3370,10 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45958</v>
+        <v>45972</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.047</v>
+        <v>0.01</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="J65">
+        <v>0.011</v>
+      </c>
+      <c r="K65">
         <v>0.013</v>
-      </c>
-      <c r="K65">
-        <v>0.032</v>
       </c>
       <c r="N65" t="s">
         <v>77</v>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45958</v>
+        <v>45972</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0.043</v>
+        <v>0.01</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="J66">
+        <v>0.011</v>
+      </c>
+      <c r="K66">
         <v>0.013</v>
-      </c>
-      <c r="K66">
-        <v>0.032</v>
       </c>
       <c r="N66" t="s">
         <v>78</v>
@@ -3446,10 +3446,10 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.043</v>
+        <v>0.01</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N67" t="s">
         <v>79</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.047</v>
+        <v>0.011</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N68" t="s">
         <v>80</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.047</v>
+        <v>0.021</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3549,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N69" t="s">
         <v>81</v>
@@ -3560,10 +3560,10 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3572,10 +3572,10 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0.057</v>
+        <v>0.021</v>
       </c>
       <c r="F70">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0.011</v>
@@ -3587,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N70" t="s">
         <v>82</v>
@@ -3598,37 +3598,37 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0.117</v>
+        <v>0.011</v>
       </c>
       <c r="F71">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.385</v>
+        <v>0.011</v>
       </c>
       <c r="H71">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>0.051</v>
+        <v>0.014</v>
       </c>
       <c r="N71" t="s">
         <v>83</v>
@@ -3636,37 +3636,37 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>0.268</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>0.288</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0.637</v>
+        <v>0.013</v>
       </c>
       <c r="F72">
-        <v>1.416</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.946</v>
+        <v>0.011</v>
       </c>
       <c r="H72">
-        <v>0.306</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0.307</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0.626</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>0.218</v>
+        <v>0.014</v>
       </c>
       <c r="N72" t="s">
         <v>84</v>
@@ -3674,37 +3674,37 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C73">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0.695</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>1.629</v>
+        <v>0.012</v>
       </c>
       <c r="F73">
-        <v>2.019</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>1.838</v>
+        <v>0.011</v>
       </c>
       <c r="H73">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0.534</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>1.085</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>0.461</v>
+        <v>0.014</v>
       </c>
       <c r="N73" t="s">
         <v>85</v>
@@ -3712,37 +3712,37 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C74">
-        <v>0.881</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>1.186</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>2.067</v>
+        <v>0.012</v>
       </c>
       <c r="F74">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>1.838</v>
+        <v>0.011</v>
       </c>
       <c r="H74">
-        <v>1.003</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0.796</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>2.004</v>
+        <v>0.035</v>
       </c>
       <c r="K74">
-        <v>0.855</v>
+        <v>0.014</v>
       </c>
       <c r="N74" t="s">
         <v>86</v>
@@ -3750,37 +3750,37 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>1.095</v>
+        <v>0.01</v>
       </c>
       <c r="D75">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>2.717</v>
+        <v>0.058</v>
       </c>
       <c r="F75">
-        <v>2.236</v>
+        <v>0.06</v>
       </c>
       <c r="G75">
-        <v>1.88</v>
+        <v>0.033</v>
       </c>
       <c r="H75">
-        <v>1.247</v>
+        <v>0.012</v>
       </c>
       <c r="I75">
-        <v>0.621</v>
+        <v>0.044</v>
       </c>
       <c r="J75">
-        <v>2.005</v>
+        <v>0.184</v>
       </c>
       <c r="K75">
-        <v>0.909</v>
+        <v>0.038</v>
       </c>
       <c r="N75" t="s">
         <v>87</v>
@@ -3788,37 +3788,37 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>1.003</v>
+        <v>0.115</v>
       </c>
       <c r="D76">
-        <v>1.246</v>
+        <v>0.138</v>
       </c>
       <c r="E76">
-        <v>2.935</v>
+        <v>0.607</v>
       </c>
       <c r="F76">
-        <v>1.973</v>
+        <v>0.347</v>
       </c>
       <c r="G76">
-        <v>1.778</v>
+        <v>0.272</v>
       </c>
       <c r="H76">
-        <v>1.245</v>
+        <v>0.145</v>
       </c>
       <c r="I76">
-        <v>0.62</v>
+        <v>0.333</v>
       </c>
       <c r="J76">
-        <v>1.816</v>
+        <v>0.316</v>
       </c>
       <c r="K76">
-        <v>0.909</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="N76" t="s">
         <v>88</v>
@@ -3826,37 +3826,37 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C77">
-        <v>0.84</v>
+        <v>0.338</v>
       </c>
       <c r="D77">
-        <v>0.997</v>
+        <v>0.39</v>
       </c>
       <c r="E77">
-        <v>2.394</v>
+        <v>1.639</v>
       </c>
       <c r="F77">
-        <v>1.435</v>
+        <v>0.582</v>
       </c>
       <c r="G77">
-        <v>1.646</v>
+        <v>0.493</v>
       </c>
       <c r="H77">
-        <v>0.999</v>
+        <v>0.306</v>
       </c>
       <c r="I77">
-        <v>0.635</v>
+        <v>0.695</v>
       </c>
       <c r="J77">
-        <v>1.835</v>
+        <v>0.602</v>
       </c>
       <c r="K77">
-        <v>0.825</v>
+        <v>0.347</v>
       </c>
       <c r="N77" t="s">
         <v>89</v>
@@ -3864,37 +3864,37 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C78">
-        <v>0.6820000000000001</v>
+        <v>0.614</v>
       </c>
       <c r="D78">
-        <v>0.785</v>
+        <v>0.75</v>
       </c>
       <c r="E78">
-        <v>2.037</v>
+        <v>2.127</v>
       </c>
       <c r="F78">
-        <v>0.886</v>
+        <v>0.926</v>
       </c>
       <c r="G78">
-        <v>0.9379999999999999</v>
+        <v>0.624</v>
       </c>
       <c r="H78">
-        <v>0.838</v>
+        <v>0.631</v>
       </c>
       <c r="I78">
-        <v>0.671</v>
+        <v>0.975</v>
       </c>
       <c r="J78">
-        <v>1.936</v>
+        <v>1.012</v>
       </c>
       <c r="K78">
-        <v>0.411</v>
+        <v>0.585</v>
       </c>
       <c r="N78" t="s">
         <v>90</v>
@@ -3902,37 +3902,37 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C79">
-        <v>0.318</v>
+        <v>0.758</v>
       </c>
       <c r="D79">
-        <v>0.403</v>
+        <v>0.913</v>
       </c>
       <c r="E79">
-        <v>1.411</v>
+        <v>2.904</v>
       </c>
       <c r="F79">
-        <v>0.369</v>
+        <v>1.063</v>
       </c>
       <c r="G79">
-        <v>0.43</v>
+        <v>0.584</v>
       </c>
       <c r="H79">
-        <v>0.48</v>
+        <v>0.728</v>
       </c>
       <c r="I79">
-        <v>0.371</v>
+        <v>1.132</v>
       </c>
       <c r="J79">
-        <v>0.853</v>
+        <v>0.997</v>
       </c>
       <c r="K79">
-        <v>0.269</v>
+        <v>0.806</v>
       </c>
       <c r="N79" t="s">
         <v>91</v>
@@ -3940,37 +3940,37 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C80">
-        <v>0.093</v>
+        <v>0.824</v>
       </c>
       <c r="D80">
-        <v>0.119</v>
+        <v>1.042</v>
       </c>
       <c r="E80">
-        <v>0.407</v>
+        <v>2.956</v>
       </c>
       <c r="F80">
-        <v>0.078</v>
+        <v>1.006</v>
       </c>
       <c r="G80">
-        <v>0.112</v>
+        <v>0.61</v>
       </c>
       <c r="H80">
-        <v>0.145</v>
+        <v>0.781</v>
       </c>
       <c r="I80">
-        <v>0.064</v>
+        <v>1.114</v>
       </c>
       <c r="J80">
-        <v>0.287</v>
+        <v>1.136</v>
       </c>
       <c r="K80">
-        <v>0.035</v>
+        <v>0.806</v>
       </c>
       <c r="N80" t="s">
         <v>92</v>
@@ -3978,37 +3978,37 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B81">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.764</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1.059</v>
       </c>
       <c r="E81">
-        <v>0.016</v>
+        <v>2.255</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="G81">
-        <v>0.011</v>
+        <v>0.644</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>0.918</v>
       </c>
       <c r="J81">
-        <v>0.08599999999999999</v>
+        <v>1.137</v>
       </c>
       <c r="K81">
-        <v>0.013</v>
+        <v>0.569</v>
       </c>
       <c r="N81" t="s">
         <v>93</v>
@@ -4016,37 +4016,37 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.482</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.769</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1.789</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.504</v>
       </c>
       <c r="G82">
-        <v>0.011</v>
+        <v>0.472</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>0.541</v>
       </c>
       <c r="J82">
-        <v>0.044</v>
+        <v>0.974</v>
       </c>
       <c r="K82">
-        <v>0.013</v>
+        <v>0.404</v>
       </c>
       <c r="N82" t="s">
         <v>94</v>
@@ -4054,37 +4054,37 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B83">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="E83">
-        <v>0.011</v>
+        <v>0.779</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>0.172</v>
       </c>
       <c r="G83">
-        <v>0.011</v>
+        <v>0.223</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="J83">
-        <v>0.044</v>
+        <v>0.498</v>
       </c>
       <c r="K83">
-        <v>0.013</v>
+        <v>0.198</v>
       </c>
       <c r="N83" t="s">
         <v>95</v>
@@ -4092,37 +4092,37 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B84">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="E84">
-        <v>0.01</v>
+        <v>0.185</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="G84">
-        <v>0.011</v>
+        <v>0.034</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="J84">
-        <v>0.011</v>
+        <v>0.415</v>
       </c>
       <c r="K84">
-        <v>0.013</v>
+        <v>0.026</v>
       </c>
       <c r="N84" t="s">
         <v>96</v>
@@ -4130,10 +4130,10 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B85">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.011</v>
+        <v>0.064</v>
       </c>
       <c r="K85">
         <v>0.013</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45958</v>
+        <v>45973</v>
       </c>
       <c r="B86">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.011</v>
+        <v>0.044</v>
       </c>
       <c r="K86">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="N86" t="s">
         <v>98</v>
@@ -4206,10 +4206,10 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45959</v>
+        <v>45973</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4233,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="K87">
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
       <c r="N87" t="s">
         <v>99</v>
@@ -4244,10 +4244,10 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45959</v>
+        <v>45973</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N88" t="s">
         <v>100</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45959</v>
+        <v>45973</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N89" t="s">
         <v>101</v>
@@ -4320,10 +4320,10 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45959</v>
+        <v>45973</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0.049</v>
+        <v>0.01</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N90" t="s">
         <v>102</v>
@@ -4358,10 +4358,10 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0.063</v>
+        <v>0.01</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4396,10 +4396,10 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0.041</v>
+        <v>0.01</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K92">
         <v>0.032</v>
@@ -4434,10 +4434,10 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K93">
         <v>0.032</v>
@@ -4472,10 +4472,10 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4484,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>0.011</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0.036</v>
+        <v>0.013</v>
       </c>
       <c r="K94">
         <v>0.032</v>
@@ -4510,37 +4510,37 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C95">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>0.305</v>
+        <v>0.011</v>
       </c>
       <c r="F95">
-        <v>0.642</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0.41</v>
+        <v>0.011</v>
       </c>
       <c r="H95">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0.313</v>
+        <v>0.013</v>
       </c>
       <c r="K95">
-        <v>0.06</v>
+        <v>0.032</v>
       </c>
       <c r="N95" t="s">
         <v>107</v>
@@ -4548,37 +4548,37 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>1.218</v>
+        <v>0.014</v>
       </c>
       <c r="F96">
-        <v>1.797</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>1.567</v>
+        <v>0.011</v>
       </c>
       <c r="H96">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0.371</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>1.025</v>
+        <v>0.013</v>
       </c>
       <c r="K96">
-        <v>0.384</v>
+        <v>0.032</v>
       </c>
       <c r="N96" t="s">
         <v>108</v>
@@ -4586,37 +4586,37 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C97">
-        <v>0.9429999999999999</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>1.256</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>2.394</v>
+        <v>0.014</v>
       </c>
       <c r="F97">
-        <v>2.807</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>2.692</v>
+        <v>0.011</v>
       </c>
       <c r="H97">
-        <v>1.294</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>1.849</v>
+        <v>0.013</v>
       </c>
       <c r="K97">
-        <v>0.9370000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="N97" t="s">
         <v>109</v>
@@ -4624,37 +4624,37 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B98">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C98">
-        <v>1.612</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>1.988</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>3.095</v>
+        <v>0.013</v>
       </c>
       <c r="F98">
-        <v>3.397</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>3.078</v>
+        <v>0.011</v>
       </c>
       <c r="H98">
-        <v>1.588</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0.869</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>2.289</v>
+        <v>0.04</v>
       </c>
       <c r="K98">
-        <v>1.011</v>
+        <v>0.032</v>
       </c>
       <c r="N98" t="s">
         <v>110</v>
@@ -4662,37 +4662,37 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C99">
-        <v>1.795</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>2.298</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>3.377</v>
+        <v>0.054</v>
       </c>
       <c r="F99">
-        <v>3.641</v>
+        <v>0.195</v>
       </c>
       <c r="G99">
-        <v>3.282</v>
+        <v>0.13</v>
       </c>
       <c r="H99">
-        <v>1.8</v>
+        <v>0.053</v>
       </c>
       <c r="I99">
-        <v>0.852</v>
+        <v>0.025</v>
       </c>
       <c r="J99">
-        <v>2.841</v>
+        <v>0.447</v>
       </c>
       <c r="K99">
-        <v>1.318</v>
+        <v>0.051</v>
       </c>
       <c r="N99" t="s">
         <v>111</v>
@@ -4700,37 +4700,37 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B100">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C100">
-        <v>1.845</v>
+        <v>0.11</v>
       </c>
       <c r="D100">
-        <v>2.307</v>
+        <v>0.138</v>
       </c>
       <c r="E100">
-        <v>3.393</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="F100">
-        <v>3.361</v>
+        <v>0.778</v>
       </c>
       <c r="G100">
-        <v>3.249</v>
+        <v>0.597</v>
       </c>
       <c r="H100">
-        <v>1.803</v>
+        <v>0.349</v>
       </c>
       <c r="I100">
-        <v>0.716</v>
+        <v>0.184</v>
       </c>
       <c r="J100">
-        <v>2.73</v>
+        <v>0.518</v>
       </c>
       <c r="K100">
-        <v>1.204</v>
+        <v>0.203</v>
       </c>
       <c r="N100" t="s">
         <v>112</v>
@@ -4738,37 +4738,37 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B101">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C101">
-        <v>1.828</v>
+        <v>0.368</v>
       </c>
       <c r="D101">
-        <v>2.111</v>
+        <v>0.489</v>
       </c>
       <c r="E101">
-        <v>3.261</v>
+        <v>1.589</v>
       </c>
       <c r="F101">
-        <v>2.669</v>
+        <v>1.654</v>
       </c>
       <c r="G101">
-        <v>2.864</v>
+        <v>0.859</v>
       </c>
       <c r="H101">
-        <v>1.57</v>
+        <v>0.804</v>
       </c>
       <c r="I101">
-        <v>0.712</v>
+        <v>0.442</v>
       </c>
       <c r="J101">
-        <v>2.261</v>
+        <v>1.029</v>
       </c>
       <c r="K101">
-        <v>1.095</v>
+        <v>0.475</v>
       </c>
       <c r="N101" t="s">
         <v>113</v>
@@ -4776,37 +4776,37 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C102">
-        <v>1.386</v>
+        <v>0.732</v>
       </c>
       <c r="D102">
-        <v>1.66</v>
+        <v>0.853</v>
       </c>
       <c r="E102">
-        <v>2.368</v>
+        <v>2.051</v>
       </c>
       <c r="F102">
-        <v>1.779</v>
+        <v>2.388</v>
       </c>
       <c r="G102">
-        <v>2.355</v>
+        <v>2.172</v>
       </c>
       <c r="H102">
-        <v>1.294</v>
+        <v>1.263</v>
       </c>
       <c r="I102">
-        <v>0.669</v>
+        <v>0.535</v>
       </c>
       <c r="J102">
-        <v>1.843</v>
+        <v>1.606</v>
       </c>
       <c r="K102">
-        <v>0.858</v>
+        <v>0.877</v>
       </c>
       <c r="N102" t="s">
         <v>114</v>
@@ -4814,37 +4814,37 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B103">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C103">
-        <v>0.644</v>
+        <v>0.895</v>
       </c>
       <c r="D103">
-        <v>0.906</v>
+        <v>1.252</v>
       </c>
       <c r="E103">
-        <v>1.553</v>
+        <v>2.289</v>
       </c>
       <c r="F103">
-        <v>0.64</v>
+        <v>2.452</v>
       </c>
       <c r="G103">
-        <v>1.075</v>
+        <v>2.513</v>
       </c>
       <c r="H103">
-        <v>0.748</v>
+        <v>1.368</v>
       </c>
       <c r="I103">
-        <v>0.352</v>
+        <v>0.669</v>
       </c>
       <c r="J103">
-        <v>0.862</v>
+        <v>1.984</v>
       </c>
       <c r="K103">
-        <v>0.379</v>
+        <v>0.909</v>
       </c>
       <c r="N103" t="s">
         <v>115</v>
@@ -4852,37 +4852,37 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B104">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C104">
-        <v>0.134</v>
+        <v>1.013</v>
       </c>
       <c r="D104">
-        <v>0.173</v>
+        <v>1.482</v>
       </c>
       <c r="E104">
-        <v>0.418</v>
+        <v>2.319</v>
       </c>
       <c r="F104">
-        <v>0.131</v>
+        <v>2.524</v>
       </c>
       <c r="G104">
-        <v>0.189</v>
+        <v>2.712</v>
       </c>
       <c r="H104">
-        <v>0.168</v>
+        <v>1.368</v>
       </c>
       <c r="I104">
-        <v>0.064</v>
+        <v>0.535</v>
       </c>
       <c r="J104">
-        <v>0.291</v>
+        <v>1.894</v>
       </c>
       <c r="K104">
-        <v>0.15</v>
+        <v>0.931</v>
       </c>
       <c r="N104" t="s">
         <v>116</v>
@@ -4890,37 +4890,37 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B105">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>0.922</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1.591</v>
       </c>
       <c r="E105">
-        <v>0.04</v>
+        <v>2.088</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1.921</v>
       </c>
       <c r="G105">
-        <v>0.011</v>
+        <v>2.489</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1.243</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>0.449</v>
       </c>
       <c r="J105">
-        <v>0.068</v>
+        <v>1.014</v>
       </c>
       <c r="K105">
-        <v>0.037</v>
+        <v>0.884</v>
       </c>
       <c r="N105" t="s">
         <v>117</v>
@@ -4928,37 +4928,37 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.603</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1.171</v>
       </c>
       <c r="E106">
-        <v>0.022</v>
+        <v>1.613</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1.151</v>
       </c>
       <c r="G106">
-        <v>0.011</v>
+        <v>1.464</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>0.858</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>0.292</v>
       </c>
       <c r="J106">
-        <v>0.044</v>
+        <v>0.708</v>
       </c>
       <c r="K106">
-        <v>0.037</v>
+        <v>0.743</v>
       </c>
       <c r="N106" t="s">
         <v>118</v>
@@ -4966,37 +4966,37 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B107">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>0.418</v>
       </c>
       <c r="E107">
-        <v>0.02</v>
+        <v>0.679</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.342</v>
       </c>
       <c r="G107">
-        <v>0.011</v>
+        <v>0.448</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>0.349</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="J107">
-        <v>0.044</v>
+        <v>0.386</v>
       </c>
       <c r="K107">
-        <v>0.031</v>
+        <v>0.285</v>
       </c>
       <c r="N107" t="s">
         <v>119</v>
@@ -5004,37 +5004,37 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B108">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="E108">
-        <v>0.031</v>
+        <v>0.139</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="G108">
-        <v>0.011</v>
+        <v>0.067</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="J108">
-        <v>0.011</v>
+        <v>0.415</v>
       </c>
       <c r="K108">
-        <v>0.031</v>
+        <v>0.026</v>
       </c>
       <c r="N108" t="s">
         <v>120</v>
@@ -5042,10 +5042,10 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B109">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0.031</v>
+        <v>0.012</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5069,10 +5069,10 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0.011</v>
+        <v>0.064</v>
       </c>
       <c r="K109">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="N109" t="s">
         <v>121</v>
@@ -5080,10 +5080,10 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="2">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B110">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0.046</v>
+        <v>0.011</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5107,10 +5107,10 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.011</v>
+        <v>0.048</v>
       </c>
       <c r="K110">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="N110" t="s">
         <v>122</v>
@@ -5118,10 +5118,10 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="2">
-        <v>45960</v>
+        <v>45974</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5145,10 +5145,10 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="K111">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="N111" t="s">
         <v>123</v>
@@ -5156,10 +5156,10 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="2">
-        <v>45960</v>
+        <v>45974</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -5183,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K112">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="N112" t="s">
         <v>124</v>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="2">
-        <v>45960</v>
+        <v>45974</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0.057</v>
+        <v>0.01</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5221,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K113">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="N113" t="s">
         <v>125</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="2">
-        <v>45960</v>
+        <v>45974</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -5259,10 +5259,10 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K114">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="N114" t="s">
         <v>126</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0.07199999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5297,10 +5297,10 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K115">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N115" t="s">
         <v>127</v>
@@ -5308,10 +5308,10 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -5335,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K116">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N116" t="s">
         <v>128</v>
@@ -5346,10 +5346,10 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0.052</v>
+        <v>0.012</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -5384,10 +5384,10 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -5396,10 +5396,10 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0.077</v>
+        <v>0.015</v>
       </c>
       <c r="F118">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <v>0.011</v>
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>0.032</v>
@@ -5422,37 +5422,37 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>0.295</v>
+        <v>0.019</v>
       </c>
       <c r="F119">
-        <v>0.526</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>0.408</v>
+        <v>0.011</v>
       </c>
       <c r="H119">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>0.313</v>
+        <v>0</v>
       </c>
       <c r="K119">
-        <v>0.06</v>
+        <v>0.032</v>
       </c>
       <c r="N119" t="s">
         <v>131</v>
@@ -5460,37 +5460,37 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C120">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>0.676</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>1.054</v>
+        <v>0.019</v>
       </c>
       <c r="F120">
-        <v>1.613</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>1.27</v>
+        <v>0.011</v>
       </c>
       <c r="H120">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>0.917</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <v>0.482</v>
+        <v>0.032</v>
       </c>
       <c r="N120" t="s">
         <v>132</v>
@@ -5498,37 +5498,37 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C121">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>1.429</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>1.899</v>
+        <v>0.019</v>
       </c>
       <c r="F121">
-        <v>2.274</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>2.328</v>
+        <v>0.011</v>
       </c>
       <c r="H121">
-        <v>1.024</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>0.833</v>
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>1.984</v>
+        <v>0</v>
       </c>
       <c r="K121">
-        <v>0.9429999999999999</v>
+        <v>0.032</v>
       </c>
       <c r="N121" t="s">
         <v>133</v>
@@ -5536,37 +5536,37 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C122">
-        <v>1.874</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>2.132</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>2.8</v>
+        <v>0.056</v>
       </c>
       <c r="F122">
-        <v>2.878</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>2.598</v>
+        <v>0.011</v>
       </c>
       <c r="H122">
-        <v>1.429</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1.112</v>
+        <v>0</v>
       </c>
       <c r="J122">
-        <v>2.259</v>
+        <v>0.036</v>
       </c>
       <c r="K122">
-        <v>1.026</v>
+        <v>0.032</v>
       </c>
       <c r="N122" t="s">
         <v>134</v>
@@ -5574,37 +5574,37 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C123">
-        <v>2.111</v>
+        <v>0.014</v>
       </c>
       <c r="D123">
-        <v>2.575</v>
+        <v>0.024</v>
       </c>
       <c r="E123">
-        <v>3.078</v>
+        <v>0.167</v>
       </c>
       <c r="F123">
-        <v>2.861</v>
+        <v>0.206</v>
       </c>
       <c r="G123">
-        <v>2.794</v>
+        <v>0.138</v>
       </c>
       <c r="H123">
-        <v>1.456</v>
+        <v>0.053</v>
       </c>
       <c r="I123">
-        <v>1.085</v>
+        <v>0.044</v>
       </c>
       <c r="J123">
-        <v>2.391</v>
+        <v>0.268</v>
       </c>
       <c r="K123">
-        <v>1.318</v>
+        <v>0.051</v>
       </c>
       <c r="N123" t="s">
         <v>135</v>
@@ -5612,37 +5612,37 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C124">
-        <v>2.062</v>
+        <v>0.207</v>
       </c>
       <c r="D124">
-        <v>2.66</v>
+        <v>0.307</v>
       </c>
       <c r="E124">
-        <v>3.049</v>
+        <v>0.585</v>
       </c>
       <c r="F124">
-        <v>2.562</v>
+        <v>0.954</v>
       </c>
       <c r="G124">
-        <v>2.586</v>
+        <v>0.681</v>
       </c>
       <c r="H124">
-        <v>1.47</v>
+        <v>0.349</v>
       </c>
       <c r="I124">
-        <v>1.109</v>
+        <v>0.317</v>
       </c>
       <c r="J124">
-        <v>2.616</v>
+        <v>0.659</v>
       </c>
       <c r="K124">
-        <v>1.259</v>
+        <v>0.307</v>
       </c>
       <c r="N124" t="s">
         <v>136</v>
@@ -5650,37 +5650,37 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B125">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C125">
-        <v>1.845</v>
+        <v>0.65</v>
       </c>
       <c r="D125">
-        <v>2.174</v>
+        <v>1.026</v>
       </c>
       <c r="E125">
-        <v>2.747</v>
+        <v>1.657</v>
       </c>
       <c r="F125">
-        <v>2.27</v>
+        <v>1.82</v>
       </c>
       <c r="G125">
-        <v>2.184</v>
+        <v>2.036</v>
       </c>
       <c r="H125">
-        <v>1.445</v>
+        <v>0.828</v>
       </c>
       <c r="I125">
-        <v>1.113</v>
+        <v>0.731</v>
       </c>
       <c r="J125">
-        <v>2.32</v>
+        <v>1.769</v>
       </c>
       <c r="K125">
-        <v>1.14</v>
+        <v>0.655</v>
       </c>
       <c r="N125" t="s">
         <v>137</v>
@@ -5688,37 +5688,37 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C126">
-        <v>1.385</v>
+        <v>1.45</v>
       </c>
       <c r="D126">
-        <v>1.653</v>
+        <v>1.844</v>
       </c>
       <c r="E126">
-        <v>1.894</v>
+        <v>2.103</v>
       </c>
       <c r="F126">
-        <v>1.485</v>
+        <v>2.418</v>
       </c>
       <c r="G126">
-        <v>1.802</v>
+        <v>2.586</v>
       </c>
       <c r="H126">
-        <v>1.265</v>
+        <v>1.294</v>
       </c>
       <c r="I126">
-        <v>0.552</v>
+        <v>0.974</v>
       </c>
       <c r="J126">
-        <v>1.846</v>
+        <v>1.919</v>
       </c>
       <c r="K126">
-        <v>0.858</v>
+        <v>0.93</v>
       </c>
       <c r="N126" t="s">
         <v>138</v>
@@ -5726,37 +5726,37 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B127">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C127">
-        <v>0.512</v>
+        <v>1.99</v>
       </c>
       <c r="D127">
-        <v>0.8129999999999999</v>
+        <v>2.339</v>
       </c>
       <c r="E127">
-        <v>0.929</v>
+        <v>2.904</v>
       </c>
       <c r="F127">
-        <v>0.513</v>
+        <v>2.734</v>
       </c>
       <c r="G127">
-        <v>1.09</v>
+        <v>2.733</v>
       </c>
       <c r="H127">
-        <v>0.738</v>
+        <v>1.428</v>
       </c>
       <c r="I127">
-        <v>0.483</v>
+        <v>1.134</v>
       </c>
       <c r="J127">
-        <v>0.862</v>
+        <v>2.228</v>
       </c>
       <c r="K127">
-        <v>0.418</v>
+        <v>1.087</v>
       </c>
       <c r="N127" t="s">
         <v>139</v>
@@ -5764,37 +5764,37 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B128">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C128">
-        <v>0.11</v>
+        <v>2.105</v>
       </c>
       <c r="D128">
-        <v>0.165</v>
+        <v>2.401</v>
       </c>
       <c r="E128">
-        <v>0.307</v>
+        <v>2.918</v>
       </c>
       <c r="F128">
-        <v>0.122</v>
+        <v>2.556</v>
       </c>
       <c r="G128">
-        <v>0.185</v>
+        <v>2.726</v>
       </c>
       <c r="H128">
-        <v>0.168</v>
+        <v>1.481</v>
       </c>
       <c r="I128">
-        <v>0.09</v>
+        <v>1.113</v>
       </c>
       <c r="J128">
-        <v>0.29</v>
+        <v>2.059</v>
       </c>
       <c r="K128">
-        <v>0.077</v>
+        <v>1.113</v>
       </c>
       <c r="N128" t="s">
         <v>140</v>
@@ -5802,37 +5802,37 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B129">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>2.044</v>
       </c>
       <c r="E129">
-        <v>0.029</v>
+        <v>2.142</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1.998</v>
       </c>
       <c r="G129">
-        <v>0.011</v>
+        <v>2.316</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1.294</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>0.955</v>
       </c>
       <c r="J129">
-        <v>0.068</v>
+        <v>1.818</v>
       </c>
       <c r="K129">
-        <v>0.037</v>
+        <v>0.922</v>
       </c>
       <c r="N129" t="s">
         <v>141</v>
@@ -5840,37 +5840,37 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B130">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>0.977</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1.618</v>
       </c>
       <c r="E130">
-        <v>0.018</v>
+        <v>1.581</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1.077</v>
       </c>
       <c r="G130">
-        <v>0.011</v>
+        <v>0.971</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>0.881</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>0.708</v>
       </c>
       <c r="J130">
-        <v>0.073</v>
+        <v>1.807</v>
       </c>
       <c r="K130">
-        <v>0.037</v>
+        <v>0.84</v>
       </c>
       <c r="N130" t="s">
         <v>142</v>
@@ -5878,37 +5878,37 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B131">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>0.281</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="E131">
-        <v>0.016</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>0.311</v>
       </c>
       <c r="G131">
-        <v>0.011</v>
+        <v>0.463</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>0.319</v>
       </c>
       <c r="J131">
-        <v>0.073</v>
+        <v>0.596</v>
       </c>
       <c r="K131">
-        <v>0.037</v>
+        <v>0.312</v>
       </c>
       <c r="N131" t="s">
         <v>143</v>
@@ -5916,37 +5916,37 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B132">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.176</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="G132">
-        <v>0.011</v>
+        <v>0.064</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="J132">
-        <v>0.02</v>
+        <v>0.236</v>
       </c>
       <c r="K132">
-        <v>0.031</v>
+        <v>0.046</v>
       </c>
       <c r="N132" t="s">
         <v>144</v>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B133">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -5981,10 +5981,10 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0.02</v>
+        <v>0.059</v>
       </c>
       <c r="K133">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="N133" t="s">
         <v>145</v>
@@ -5992,10 +5992,10 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="2">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="B134">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -6019,10 +6019,10 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0.02</v>
+        <v>0.044</v>
       </c>
       <c r="K134">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="N134" t="s">
         <v>146</v>
@@ -6030,10 +6030,10 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="2">
-        <v>45961</v>
+        <v>45975</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>0.018</v>
+        <v>0.044</v>
       </c>
       <c r="K135">
         <v>0.032</v>
@@ -6068,10 +6068,10 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="2">
-        <v>45961</v>
+        <v>45975</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K136">
         <v>0.032</v>
@@ -6106,10 +6106,10 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="2">
-        <v>45961</v>
+        <v>45975</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0.024</v>
+        <v>0.011</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K137">
         <v>0.032</v>
@@ -6144,10 +6144,10 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="2">
-        <v>45961</v>
+        <v>45975</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0.024</v>
+        <v>0.015</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K138">
         <v>0.032</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0.025</v>
+        <v>0.013</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -6212,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="N139" t="s">
         <v>151</v>
@@ -6220,10 +6220,10 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>0.025</v>
+        <v>0.013</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="N140" t="s">
         <v>152</v>
@@ -6258,10 +6258,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>0.024</v>
+        <v>0.015</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -6285,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="N141" t="s">
         <v>153</v>
@@ -6296,10 +6296,10 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -6308,10 +6308,10 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>0.019</v>
+        <v>0.015</v>
       </c>
       <c r="F142">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="G142">
         <v>0.011</v>
@@ -6323,10 +6323,10 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="N142" t="s">
         <v>154</v>
@@ -6334,37 +6334,37 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C143">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>0.145</v>
+        <v>0.012</v>
       </c>
       <c r="F143">
-        <v>0.497</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>0.322</v>
+        <v>0.011</v>
       </c>
       <c r="H143">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>0.318</v>
+        <v>0</v>
       </c>
       <c r="K143">
-        <v>0.051</v>
+        <v>0.033</v>
       </c>
       <c r="N143" t="s">
         <v>155</v>
@@ -6372,37 +6372,37 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C144">
-        <v>0.313</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>0.334</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>0.73</v>
+        <v>0.013</v>
       </c>
       <c r="F144">
-        <v>1.352</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>0.897</v>
+        <v>0.011</v>
       </c>
       <c r="H144">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0.504</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>0.952</v>
+        <v>0</v>
       </c>
       <c r="K144">
-        <v>0.363</v>
+        <v>0.033</v>
       </c>
       <c r="N144" t="s">
         <v>156</v>
@@ -6410,37 +6410,37 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B145">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C145">
-        <v>0.549</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>0.748</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>1.701</v>
+        <v>0.013</v>
       </c>
       <c r="F145">
-        <v>1.948</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>2.147</v>
+        <v>0.011</v>
       </c>
       <c r="H145">
-        <v>0.792</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0.885</v>
+        <v>0</v>
       </c>
       <c r="J145">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="K145">
-        <v>0.919</v>
+        <v>0.033</v>
       </c>
       <c r="N145" t="s">
         <v>157</v>
@@ -6448,37 +6448,37 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B146">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C146">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>1.172</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>2.141</v>
+        <v>0.013</v>
       </c>
       <c r="F146">
-        <v>2.524</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>2.439</v>
+        <v>0.011</v>
       </c>
       <c r="H146">
-        <v>1.247</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>2.239</v>
+        <v>0.036</v>
       </c>
       <c r="K146">
-        <v>0.876</v>
+        <v>0.033</v>
       </c>
       <c r="N146" t="s">
         <v>158</v>
@@ -6486,37 +6486,37 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B147">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C147">
-        <v>0.973</v>
+        <v>0.012</v>
       </c>
       <c r="D147">
-        <v>1.333</v>
+        <v>0.019</v>
       </c>
       <c r="E147">
-        <v>2.269</v>
+        <v>0.038</v>
       </c>
       <c r="F147">
-        <v>2.696</v>
+        <v>0.206</v>
       </c>
       <c r="G147">
-        <v>2.583</v>
+        <v>0.13</v>
       </c>
       <c r="H147">
-        <v>1.362</v>
+        <v>0.05</v>
       </c>
       <c r="I147">
-        <v>0.792</v>
+        <v>0.044</v>
       </c>
       <c r="J147">
-        <v>2.355</v>
+        <v>0.268</v>
       </c>
       <c r="K147">
-        <v>0.974</v>
+        <v>0.052</v>
       </c>
       <c r="N147" t="s">
         <v>159</v>
@@ -6524,37 +6524,37 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B148">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C148">
-        <v>0.944</v>
+        <v>0.199</v>
       </c>
       <c r="D148">
-        <v>1.263</v>
+        <v>0.328</v>
       </c>
       <c r="E148">
-        <v>2.298</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F148">
-        <v>2.483</v>
+        <v>0.968</v>
       </c>
       <c r="G148">
-        <v>2.447</v>
+        <v>0.927</v>
       </c>
       <c r="H148">
-        <v>1.411</v>
+        <v>0.347</v>
       </c>
       <c r="I148">
-        <v>0.635</v>
+        <v>0.289</v>
       </c>
       <c r="J148">
-        <v>2.274</v>
+        <v>0.659</v>
       </c>
       <c r="K148">
-        <v>0.974</v>
+        <v>0.304</v>
       </c>
       <c r="N148" t="s">
         <v>160</v>
@@ -6562,37 +6562,37 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B149">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C149">
-        <v>0.777</v>
+        <v>0.626</v>
       </c>
       <c r="D149">
-        <v>0.987</v>
+        <v>1.031</v>
       </c>
       <c r="E149">
-        <v>2.097</v>
+        <v>1.517</v>
       </c>
       <c r="F149">
-        <v>1.982</v>
+        <v>1.986</v>
       </c>
       <c r="G149">
-        <v>2.202</v>
+        <v>2.406</v>
       </c>
       <c r="H149">
-        <v>1.342</v>
+        <v>0.819</v>
       </c>
       <c r="I149">
-        <v>0.919</v>
+        <v>0.731</v>
       </c>
       <c r="J149">
-        <v>2.043</v>
+        <v>1.843</v>
       </c>
       <c r="K149">
-        <v>0.921</v>
+        <v>0.67</v>
       </c>
       <c r="N149" t="s">
         <v>161</v>
@@ -6600,37 +6600,37 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B150">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C150">
-        <v>0.513</v>
+        <v>1.617</v>
       </c>
       <c r="D150">
-        <v>0.676</v>
+        <v>1.987</v>
       </c>
       <c r="E150">
-        <v>1.597</v>
+        <v>2.045</v>
       </c>
       <c r="F150">
-        <v>0.955</v>
+        <v>2.805</v>
       </c>
       <c r="G150">
-        <v>1.283</v>
+        <v>2.913</v>
       </c>
       <c r="H150">
-        <v>0.999</v>
+        <v>1.292</v>
       </c>
       <c r="I150">
-        <v>0.728</v>
+        <v>0.973</v>
       </c>
       <c r="J150">
-        <v>1.362</v>
+        <v>1.847</v>
       </c>
       <c r="K150">
-        <v>0.616</v>
+        <v>0.946</v>
       </c>
       <c r="N150" t="s">
         <v>162</v>
@@ -6638,37 +6638,37 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B151">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C151">
-        <v>0.223</v>
+        <v>2.119</v>
       </c>
       <c r="D151">
-        <v>0.276</v>
+        <v>2.444</v>
       </c>
       <c r="E151">
-        <v>0.857</v>
+        <v>2.789</v>
       </c>
       <c r="F151">
-        <v>0.406</v>
+        <v>2.985</v>
       </c>
       <c r="G151">
-        <v>0.5</v>
+        <v>3.181</v>
       </c>
       <c r="H151">
-        <v>0.41</v>
+        <v>1.476</v>
       </c>
       <c r="I151">
-        <v>0.455</v>
+        <v>1.15</v>
       </c>
       <c r="J151">
-        <v>0.654</v>
+        <v>2.22</v>
       </c>
       <c r="K151">
-        <v>0.309</v>
+        <v>1.032</v>
       </c>
       <c r="N151" t="s">
         <v>163</v>
@@ -6676,37 +6676,37 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B152">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C152">
-        <v>0.037</v>
+        <v>2.207</v>
       </c>
       <c r="D152">
-        <v>0.046</v>
+        <v>2.573</v>
       </c>
       <c r="E152">
-        <v>0.259</v>
+        <v>2.853</v>
       </c>
       <c r="F152">
-        <v>0.061</v>
+        <v>2.73</v>
       </c>
       <c r="G152">
-        <v>0.11</v>
+        <v>3.145</v>
       </c>
       <c r="H152">
-        <v>0.106</v>
+        <v>1.476</v>
       </c>
       <c r="I152">
-        <v>0.064</v>
+        <v>1.129</v>
       </c>
       <c r="J152">
-        <v>0.25</v>
+        <v>2.088</v>
       </c>
       <c r="K152">
-        <v>0.059</v>
+        <v>1.095</v>
       </c>
       <c r="N152" t="s">
         <v>164</v>
@@ -6714,37 +6714,37 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B153">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1.952</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="E153">
-        <v>0.019</v>
+        <v>2.164</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>2.215</v>
       </c>
       <c r="G153">
-        <v>0.011</v>
+        <v>2.664</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>0.955</v>
       </c>
       <c r="J153">
-        <v>0.07199999999999999</v>
+        <v>1.827</v>
       </c>
       <c r="K153">
-        <v>0.037</v>
+        <v>0.883</v>
       </c>
       <c r="N153" t="s">
         <v>165</v>
@@ -6752,37 +6752,37 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B154">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1.669</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1.127</v>
       </c>
       <c r="G154">
-        <v>0.011</v>
+        <v>2.115</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>0.871</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>0.708</v>
       </c>
       <c r="J154">
-        <v>0.077</v>
+        <v>1.883</v>
       </c>
       <c r="K154">
-        <v>0.037</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="N154" t="s">
         <v>166</v>
@@ -6790,37 +6790,37 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B155">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>0.271</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>0.719</v>
       </c>
       <c r="E155">
-        <v>0.012</v>
+        <v>0.802</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="G155">
-        <v>0.011</v>
+        <v>0.571</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>0.393</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>0.327</v>
       </c>
       <c r="J155">
-        <v>0.077</v>
+        <v>0.596</v>
       </c>
       <c r="K155">
-        <v>0.037</v>
+        <v>0.318</v>
       </c>
       <c r="N155" t="s">
         <v>167</v>
@@ -6828,37 +6828,37 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B156">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="G156">
-        <v>0.011</v>
+        <v>0.065</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="J156">
-        <v>0.025</v>
+        <v>0.236</v>
       </c>
       <c r="K156">
-        <v>0.037</v>
+        <v>0.051</v>
       </c>
       <c r="N156" t="s">
         <v>168</v>
@@ -6866,10 +6866,10 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B157">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -6893,10 +6893,10 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>0.025</v>
+        <v>0.059</v>
       </c>
       <c r="K157">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="N157" t="s">
         <v>169</v>
@@ -6904,10 +6904,10 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="2">
-        <v>45961</v>
+        <v>45976</v>
       </c>
       <c r="B158">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -6931,10 +6931,10 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0.025</v>
+        <v>0.044</v>
       </c>
       <c r="K158">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="N158" t="s">
         <v>170</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="2">
-        <v>45962</v>
+        <v>45976</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -6969,10 +6969,10 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0.022</v>
+        <v>0.044</v>
       </c>
       <c r="K159">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N159" t="s">
         <v>171</v>
@@ -6980,10 +6980,10 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="2">
-        <v>45962</v>
+        <v>45976</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -7007,10 +7007,10 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="K160">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N160" t="s">
         <v>172</v>
@@ -7018,10 +7018,10 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="2">
-        <v>45962</v>
+        <v>45976</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -7045,10 +7045,10 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="K161">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N161" t="s">
         <v>173</v>
@@ -7056,10 +7056,10 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="2">
-        <v>45962</v>
+        <v>45976</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -7083,10 +7083,10 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="K162">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N162" t="s">
         <v>174</v>
@@ -7094,10 +7094,10 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="2">
-        <v>45962</v>
+        <v>45977</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7121,10 +7121,10 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="K163">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N163" t="s">
         <v>175</v>
@@ -7132,10 +7132,10 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="2">
-        <v>45962</v>
+        <v>45977</v>
       </c>
       <c r="B164">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -7159,10 +7159,10 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="K164">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N164" t="s">
         <v>176</v>
@@ -7170,10 +7170,10 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="2">
-        <v>45962</v>
+        <v>45977</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -7197,10 +7197,10 @@
         <v>0</v>
       </c>
       <c r="J165">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="K165">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="N165" t="s">
         <v>177</v>
@@ -7208,10 +7208,10 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="2">
-        <v>45962</v>
+        <v>45977</v>
       </c>
       <c r="B166">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -7235,10 +7235,10 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="K166">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="N166" t="s">
         <v>178</v>
@@ -7246,37 +7246,37 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="2">
-        <v>45962</v>
+        <v>45977</v>
       </c>
       <c r="B167">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C167">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>0.1</v>
+        <v>0.019</v>
       </c>
       <c r="F167">
-        <v>0.415</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>0.291</v>
+        <v>0.011</v>
       </c>
       <c r="H167">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J167">
-        <v>0.281</v>
+        <v>0</v>
       </c>
       <c r="K167">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N167" t="s">
         <v>179</v>
@@ -7284,37 +7284,37 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="2">
-        <v>45962</v>
+        <v>45977</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C168">
-        <v>0.382</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>0.396</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.304</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>0.849</v>
+        <v>0.011</v>
       </c>
       <c r="H168">
-        <v>0.444</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>0.319</v>
+        <v>0</v>
       </c>
       <c r="J168">
-        <v>0.705</v>
+        <v>0</v>
       </c>
       <c r="K168">
-        <v>0.294</v>
+        <v>0.032</v>
       </c>
       <c r="N168" t="s">
         <v>180</v>
@@ -7322,37 +7322,37 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="2">
-        <v>45962</v>
+        <v>45977</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C169">
-        <v>0.749</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>0.9389999999999999</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>1.267</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.912</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>2.029</v>
+        <v>0.011</v>
       </c>
       <c r="H169">
-        <v>0.968</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>0.532</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>1.394</v>
+        <v>0</v>
       </c>
       <c r="K169">
-        <v>0.583</v>
+        <v>0.032</v>
       </c>
       <c r="N169" t="s">
         <v>181</v>
@@ -7360,37 +7360,37 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="2">
-        <v>45962</v>
+        <v>45977</v>
       </c>
       <c r="B170">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C170">
-        <v>1.355</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>1.675</v>
+        <v>0.018</v>
       </c>
       <c r="F170">
-        <v>2.407</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>2.403</v>
+        <v>0.011</v>
       </c>
       <c r="H170">
-        <v>1.351</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>0.676</v>
+        <v>0</v>
       </c>
       <c r="J170">
-        <v>1.725</v>
+        <v>0.036</v>
       </c>
       <c r="K170">
-        <v>0.839</v>
+        <v>0.032</v>
       </c>
       <c r="N170" t="s">
         <v>182</v>

--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -58,396 +58,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>09.11.20258</t>
-  </si>
-  <si>
-    <t>09.11.20259</t>
-  </si>
-  <si>
-    <t>09.11.202510</t>
-  </si>
-  <si>
-    <t>09.11.202511</t>
-  </si>
-  <si>
-    <t>09.11.202512</t>
-  </si>
-  <si>
-    <t>09.11.202513</t>
-  </si>
-  <si>
-    <t>09.11.202514</t>
-  </si>
-  <si>
-    <t>09.11.202515</t>
-  </si>
-  <si>
-    <t>09.11.202516</t>
-  </si>
-  <si>
-    <t>09.11.202517</t>
-  </si>
-  <si>
-    <t>09.11.202518</t>
-  </si>
-  <si>
-    <t>09.11.202519</t>
-  </si>
-  <si>
-    <t>09.11.202520</t>
-  </si>
-  <si>
-    <t>09.11.202521</t>
-  </si>
-  <si>
-    <t>09.11.202522</t>
-  </si>
-  <si>
-    <t>09.11.202523</t>
-  </si>
-  <si>
-    <t>09.11.202524</t>
-  </si>
-  <si>
-    <t>10.11.20251</t>
-  </si>
-  <si>
-    <t>10.11.20252</t>
-  </si>
-  <si>
-    <t>10.11.20253</t>
-  </si>
-  <si>
-    <t>10.11.20254</t>
-  </si>
-  <si>
-    <t>10.11.20255</t>
-  </si>
-  <si>
-    <t>10.11.20256</t>
-  </si>
-  <si>
-    <t>10.11.20257</t>
-  </si>
-  <si>
-    <t>10.11.20258</t>
-  </si>
-  <si>
-    <t>10.11.20259</t>
-  </si>
-  <si>
-    <t>10.11.202510</t>
-  </si>
-  <si>
-    <t>10.11.202511</t>
-  </si>
-  <si>
-    <t>10.11.202512</t>
-  </si>
-  <si>
-    <t>10.11.202513</t>
-  </si>
-  <si>
-    <t>10.11.202514</t>
-  </si>
-  <si>
-    <t>10.11.202515</t>
-  </si>
-  <si>
-    <t>10.11.202516</t>
-  </si>
-  <si>
-    <t>10.11.202517</t>
-  </si>
-  <si>
-    <t>10.11.202518</t>
-  </si>
-  <si>
-    <t>10.11.202519</t>
-  </si>
-  <si>
-    <t>10.11.202520</t>
-  </si>
-  <si>
-    <t>10.11.202521</t>
-  </si>
-  <si>
-    <t>10.11.202522</t>
-  </si>
-  <si>
-    <t>10.11.202523</t>
-  </si>
-  <si>
-    <t>10.11.202524</t>
-  </si>
-  <si>
-    <t>11.11.20251</t>
-  </si>
-  <si>
-    <t>11.11.20252</t>
-  </si>
-  <si>
-    <t>11.11.20253</t>
-  </si>
-  <si>
-    <t>11.11.20254</t>
-  </si>
-  <si>
-    <t>11.11.20255</t>
-  </si>
-  <si>
-    <t>11.11.20256</t>
-  </si>
-  <si>
-    <t>11.11.20257</t>
-  </si>
-  <si>
-    <t>11.11.20258</t>
-  </si>
-  <si>
-    <t>11.11.20259</t>
-  </si>
-  <si>
-    <t>11.11.202510</t>
-  </si>
-  <si>
-    <t>11.11.202511</t>
-  </si>
-  <si>
-    <t>11.11.202512</t>
-  </si>
-  <si>
-    <t>11.11.202513</t>
-  </si>
-  <si>
-    <t>11.11.202514</t>
-  </si>
-  <si>
-    <t>11.11.202515</t>
-  </si>
-  <si>
-    <t>11.11.202516</t>
-  </si>
-  <si>
-    <t>11.11.202517</t>
-  </si>
-  <si>
-    <t>11.11.202518</t>
-  </si>
-  <si>
-    <t>11.11.202519</t>
-  </si>
-  <si>
-    <t>11.11.202520</t>
-  </si>
-  <si>
-    <t>11.11.202521</t>
-  </si>
-  <si>
-    <t>11.11.202522</t>
-  </si>
-  <si>
-    <t>11.11.202523</t>
-  </si>
-  <si>
-    <t>11.11.202524</t>
-  </si>
-  <si>
-    <t>12.11.20251</t>
-  </si>
-  <si>
-    <t>12.11.20252</t>
-  </si>
-  <si>
-    <t>12.11.20253</t>
-  </si>
-  <si>
-    <t>12.11.20254</t>
-  </si>
-  <si>
-    <t>12.11.20255</t>
-  </si>
-  <si>
-    <t>12.11.20256</t>
-  </si>
-  <si>
-    <t>12.11.20257</t>
-  </si>
-  <si>
-    <t>12.11.20258</t>
-  </si>
-  <si>
-    <t>12.11.20259</t>
-  </si>
-  <si>
-    <t>12.11.202510</t>
-  </si>
-  <si>
-    <t>12.11.202511</t>
-  </si>
-  <si>
-    <t>12.11.202512</t>
-  </si>
-  <si>
-    <t>12.11.202513</t>
-  </si>
-  <si>
-    <t>12.11.202514</t>
-  </si>
-  <si>
-    <t>12.11.202515</t>
-  </si>
-  <si>
-    <t>12.11.202516</t>
-  </si>
-  <si>
-    <t>12.11.202517</t>
-  </si>
-  <si>
-    <t>12.11.202518</t>
-  </si>
-  <si>
-    <t>12.11.202519</t>
-  </si>
-  <si>
-    <t>12.11.202520</t>
-  </si>
-  <si>
-    <t>12.11.202521</t>
-  </si>
-  <si>
-    <t>12.11.202522</t>
-  </si>
-  <si>
-    <t>12.11.202523</t>
-  </si>
-  <si>
-    <t>12.11.202524</t>
-  </si>
-  <si>
-    <t>13.11.20251</t>
-  </si>
-  <si>
-    <t>13.11.20252</t>
-  </si>
-  <si>
-    <t>13.11.20253</t>
-  </si>
-  <si>
-    <t>13.11.20254</t>
-  </si>
-  <si>
-    <t>13.11.20255</t>
-  </si>
-  <si>
-    <t>13.11.20256</t>
-  </si>
-  <si>
-    <t>13.11.20257</t>
-  </si>
-  <si>
-    <t>13.11.20258</t>
-  </si>
-  <si>
-    <t>13.11.20259</t>
-  </si>
-  <si>
-    <t>13.11.202510</t>
-  </si>
-  <si>
-    <t>13.11.202511</t>
-  </si>
-  <si>
-    <t>13.11.202512</t>
-  </si>
-  <si>
-    <t>13.11.202513</t>
-  </si>
-  <si>
-    <t>13.11.202514</t>
-  </si>
-  <si>
-    <t>13.11.202515</t>
-  </si>
-  <si>
-    <t>13.11.202516</t>
-  </si>
-  <si>
-    <t>13.11.202517</t>
-  </si>
-  <si>
-    <t>13.11.202518</t>
-  </si>
-  <si>
-    <t>13.11.202519</t>
-  </si>
-  <si>
-    <t>13.11.202520</t>
-  </si>
-  <si>
-    <t>13.11.202521</t>
-  </si>
-  <si>
-    <t>13.11.202522</t>
-  </si>
-  <si>
-    <t>13.11.202523</t>
-  </si>
-  <si>
-    <t>13.11.202524</t>
-  </si>
-  <si>
-    <t>14.11.20251</t>
-  </si>
-  <si>
-    <t>14.11.20252</t>
-  </si>
-  <si>
-    <t>14.11.20253</t>
-  </si>
-  <si>
-    <t>14.11.20254</t>
-  </si>
-  <si>
-    <t>14.11.20255</t>
-  </si>
-  <si>
-    <t>14.11.20256</t>
-  </si>
-  <si>
-    <t>14.11.20257</t>
-  </si>
-  <si>
-    <t>14.11.20258</t>
-  </si>
-  <si>
-    <t>14.11.20259</t>
-  </si>
-  <si>
-    <t>14.11.202510</t>
-  </si>
-  <si>
-    <t>14.11.202511</t>
-  </si>
-  <si>
-    <t>14.11.202512</t>
-  </si>
-  <si>
-    <t>14.11.202513</t>
-  </si>
-  <si>
-    <t>14.11.202514</t>
-  </si>
-  <si>
-    <t>14.11.202515</t>
-  </si>
-  <si>
-    <t>14.11.202516</t>
-  </si>
-  <si>
-    <t>14.11.202517</t>
-  </si>
-  <si>
     <t>14.11.202518</t>
   </si>
   <si>
@@ -563,6 +173,396 @@
   </si>
   <si>
     <t>16.11.20258</t>
+  </si>
+  <si>
+    <t>16.11.20259</t>
+  </si>
+  <si>
+    <t>16.11.202510</t>
+  </si>
+  <si>
+    <t>16.11.202511</t>
+  </si>
+  <si>
+    <t>16.11.202512</t>
+  </si>
+  <si>
+    <t>16.11.202513</t>
+  </si>
+  <si>
+    <t>16.11.202514</t>
+  </si>
+  <si>
+    <t>16.11.202515</t>
+  </si>
+  <si>
+    <t>16.11.202516</t>
+  </si>
+  <si>
+    <t>16.11.202517</t>
+  </si>
+  <si>
+    <t>16.11.202518</t>
+  </si>
+  <si>
+    <t>16.11.202519</t>
+  </si>
+  <si>
+    <t>16.11.202520</t>
+  </si>
+  <si>
+    <t>16.11.202521</t>
+  </si>
+  <si>
+    <t>16.11.202522</t>
+  </si>
+  <si>
+    <t>16.11.202523</t>
+  </si>
+  <si>
+    <t>16.11.202524</t>
+  </si>
+  <si>
+    <t>17.11.20251</t>
+  </si>
+  <si>
+    <t>17.11.20252</t>
+  </si>
+  <si>
+    <t>17.11.20253</t>
+  </si>
+  <si>
+    <t>17.11.20254</t>
+  </si>
+  <si>
+    <t>17.11.20255</t>
+  </si>
+  <si>
+    <t>17.11.20256</t>
+  </si>
+  <si>
+    <t>17.11.20257</t>
+  </si>
+  <si>
+    <t>17.11.20258</t>
+  </si>
+  <si>
+    <t>17.11.20259</t>
+  </si>
+  <si>
+    <t>17.11.202510</t>
+  </si>
+  <si>
+    <t>17.11.202511</t>
+  </si>
+  <si>
+    <t>17.11.202512</t>
+  </si>
+  <si>
+    <t>17.11.202513</t>
+  </si>
+  <si>
+    <t>17.11.202514</t>
+  </si>
+  <si>
+    <t>17.11.202515</t>
+  </si>
+  <si>
+    <t>17.11.202516</t>
+  </si>
+  <si>
+    <t>17.11.202517</t>
+  </si>
+  <si>
+    <t>17.11.202518</t>
+  </si>
+  <si>
+    <t>17.11.202519</t>
+  </si>
+  <si>
+    <t>17.11.202520</t>
+  </si>
+  <si>
+    <t>17.11.202521</t>
+  </si>
+  <si>
+    <t>17.11.202522</t>
+  </si>
+  <si>
+    <t>17.11.202523</t>
+  </si>
+  <si>
+    <t>17.11.202524</t>
+  </si>
+  <si>
+    <t>18.11.20251</t>
+  </si>
+  <si>
+    <t>18.11.20252</t>
+  </si>
+  <si>
+    <t>18.11.20253</t>
+  </si>
+  <si>
+    <t>18.11.20254</t>
+  </si>
+  <si>
+    <t>18.11.20255</t>
+  </si>
+  <si>
+    <t>18.11.20256</t>
+  </si>
+  <si>
+    <t>18.11.20257</t>
+  </si>
+  <si>
+    <t>18.11.20258</t>
+  </si>
+  <si>
+    <t>18.11.20259</t>
+  </si>
+  <si>
+    <t>18.11.202510</t>
+  </si>
+  <si>
+    <t>18.11.202511</t>
+  </si>
+  <si>
+    <t>18.11.202512</t>
+  </si>
+  <si>
+    <t>18.11.202513</t>
+  </si>
+  <si>
+    <t>18.11.202514</t>
+  </si>
+  <si>
+    <t>18.11.202515</t>
+  </si>
+  <si>
+    <t>18.11.202516</t>
+  </si>
+  <si>
+    <t>18.11.202517</t>
+  </si>
+  <si>
+    <t>18.11.202518</t>
+  </si>
+  <si>
+    <t>18.11.202519</t>
+  </si>
+  <si>
+    <t>18.11.202520</t>
+  </si>
+  <si>
+    <t>18.11.202521</t>
+  </si>
+  <si>
+    <t>18.11.202522</t>
+  </si>
+  <si>
+    <t>18.11.202523</t>
+  </si>
+  <si>
+    <t>18.11.202524</t>
+  </si>
+  <si>
+    <t>19.11.20251</t>
+  </si>
+  <si>
+    <t>19.11.20252</t>
+  </si>
+  <si>
+    <t>19.11.20253</t>
+  </si>
+  <si>
+    <t>19.11.20254</t>
+  </si>
+  <si>
+    <t>19.11.20255</t>
+  </si>
+  <si>
+    <t>19.11.20256</t>
+  </si>
+  <si>
+    <t>19.11.20257</t>
+  </si>
+  <si>
+    <t>19.11.20258</t>
+  </si>
+  <si>
+    <t>19.11.20259</t>
+  </si>
+  <si>
+    <t>19.11.202510</t>
+  </si>
+  <si>
+    <t>19.11.202511</t>
+  </si>
+  <si>
+    <t>19.11.202512</t>
+  </si>
+  <si>
+    <t>19.11.202513</t>
+  </si>
+  <si>
+    <t>19.11.202514</t>
+  </si>
+  <si>
+    <t>19.11.202515</t>
+  </si>
+  <si>
+    <t>19.11.202516</t>
+  </si>
+  <si>
+    <t>19.11.202517</t>
+  </si>
+  <si>
+    <t>19.11.202518</t>
+  </si>
+  <si>
+    <t>19.11.202519</t>
+  </si>
+  <si>
+    <t>19.11.202520</t>
+  </si>
+  <si>
+    <t>19.11.202521</t>
+  </si>
+  <si>
+    <t>19.11.202522</t>
+  </si>
+  <si>
+    <t>19.11.202523</t>
+  </si>
+  <si>
+    <t>19.11.202524</t>
+  </si>
+  <si>
+    <t>20.11.20251</t>
+  </si>
+  <si>
+    <t>20.11.20252</t>
+  </si>
+  <si>
+    <t>20.11.20253</t>
+  </si>
+  <si>
+    <t>20.11.20254</t>
+  </si>
+  <si>
+    <t>20.11.20255</t>
+  </si>
+  <si>
+    <t>20.11.20256</t>
+  </si>
+  <si>
+    <t>20.11.20257</t>
+  </si>
+  <si>
+    <t>20.11.20258</t>
+  </si>
+  <si>
+    <t>20.11.20259</t>
+  </si>
+  <si>
+    <t>20.11.202510</t>
+  </si>
+  <si>
+    <t>20.11.202511</t>
+  </si>
+  <si>
+    <t>20.11.202512</t>
+  </si>
+  <si>
+    <t>20.11.202513</t>
+  </si>
+  <si>
+    <t>20.11.202514</t>
+  </si>
+  <si>
+    <t>20.11.202515</t>
+  </si>
+  <si>
+    <t>20.11.202516</t>
+  </si>
+  <si>
+    <t>20.11.202517</t>
+  </si>
+  <si>
+    <t>20.11.202518</t>
+  </si>
+  <si>
+    <t>20.11.202519</t>
+  </si>
+  <si>
+    <t>20.11.202520</t>
+  </si>
+  <si>
+    <t>20.11.202521</t>
+  </si>
+  <si>
+    <t>20.11.202522</t>
+  </si>
+  <si>
+    <t>20.11.202523</t>
+  </si>
+  <si>
+    <t>20.11.202524</t>
+  </si>
+  <si>
+    <t>21.11.20251</t>
+  </si>
+  <si>
+    <t>21.11.20252</t>
+  </si>
+  <si>
+    <t>21.11.20253</t>
+  </si>
+  <si>
+    <t>21.11.20254</t>
+  </si>
+  <si>
+    <t>21.11.20255</t>
+  </si>
+  <si>
+    <t>21.11.20256</t>
+  </si>
+  <si>
+    <t>21.11.20257</t>
+  </si>
+  <si>
+    <t>21.11.20258</t>
+  </si>
+  <si>
+    <t>21.11.20259</t>
+  </si>
+  <si>
+    <t>21.11.202510</t>
+  </si>
+  <si>
+    <t>21.11.202511</t>
+  </si>
+  <si>
+    <t>21.11.202512</t>
+  </si>
+  <si>
+    <t>21.11.202513</t>
+  </si>
+  <si>
+    <t>21.11.202514</t>
+  </si>
+  <si>
+    <t>21.11.202515</t>
+  </si>
+  <si>
+    <t>21.11.202516</t>
+  </si>
+  <si>
+    <t>21.11.202517</t>
+  </si>
+  <si>
+    <t>21.11.202518</t>
   </si>
 </sst>
 </file>
@@ -976,10 +976,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45970</v>
+        <v>45975</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08400000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45970</v>
+        <v>45975</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>0.106</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0.034</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="N3" t="s">
         <v>15</v>
@@ -1052,37 +1052,37 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45970</v>
+        <v>45975</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>0.319</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.288</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.246</v>
+        <v>0.014</v>
       </c>
       <c r="F4">
-        <v>0.353</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.275</v>
+        <v>0.011</v>
       </c>
       <c r="H4">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.313</v>
+        <v>0.044</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>0.031</v>
       </c>
       <c r="N4" t="s">
         <v>16</v>
@@ -1090,37 +1090,37 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45970</v>
+        <v>45975</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>0.623</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.706</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.876</v>
+        <v>0.015</v>
       </c>
       <c r="F5">
-        <v>0.712</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.522</v>
+        <v>0.011</v>
       </c>
       <c r="H5">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.149</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.597</v>
+        <v>0.044</v>
       </c>
       <c r="K5">
-        <v>0.728</v>
+        <v>0.031</v>
       </c>
       <c r="N5" t="s">
         <v>17</v>
@@ -1128,37 +1128,37 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45970</v>
+        <v>45975</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>0.827</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.996</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.474</v>
+        <v>0.019</v>
       </c>
       <c r="F6">
-        <v>0.868</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.585</v>
+        <v>0.011</v>
       </c>
       <c r="H6">
-        <v>0.368</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.264</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.877</v>
+        <v>0.016</v>
       </c>
       <c r="K6">
-        <v>0.84</v>
+        <v>0.031</v>
       </c>
       <c r="N6" t="s">
         <v>18</v>
@@ -1166,37 +1166,37 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45970</v>
+        <v>45975</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>1.345</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.538</v>
+        <v>0.017</v>
       </c>
       <c r="F7">
-        <v>0.806</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5610000000000001</v>
+        <v>0.011</v>
       </c>
       <c r="H7">
-        <v>0.587</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1.013</v>
+        <v>0.016</v>
       </c>
       <c r="K7">
-        <v>0.852</v>
+        <v>0.031</v>
       </c>
       <c r="N7" t="s">
         <v>19</v>
@@ -1204,37 +1204,37 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45970</v>
+        <v>45975</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>1.347</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1.508</v>
+        <v>0.015</v>
       </c>
       <c r="F8">
-        <v>0.679</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.632</v>
+        <v>0.011</v>
       </c>
       <c r="H8">
-        <v>0.619</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5659999999999999</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1.021</v>
+        <v>0.016</v>
       </c>
       <c r="K8">
-        <v>0.852</v>
+        <v>0.031</v>
       </c>
       <c r="N8" t="s">
         <v>20</v>
@@ -1242,37 +1242,37 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45970</v>
+        <v>45976</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.952</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.769</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.427</v>
+        <v>0.019</v>
       </c>
       <c r="F9">
-        <v>0.592</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.54</v>
+        <v>0.011</v>
       </c>
       <c r="H9">
-        <v>0.431</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.498</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.925</v>
+        <v>0.013</v>
       </c>
       <c r="K9">
-        <v>0.762</v>
+        <v>0.032</v>
       </c>
       <c r="N9" t="s">
         <v>21</v>
@@ -1280,37 +1280,37 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45970</v>
+        <v>45976</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.103</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1.088</v>
+        <v>0.019</v>
       </c>
       <c r="F10">
-        <v>0.421</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.513</v>
+        <v>0.011</v>
       </c>
       <c r="H10">
-        <v>0.301</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.732</v>
+        <v>0.013</v>
       </c>
       <c r="K10">
-        <v>0.528</v>
+        <v>0.032</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
@@ -1318,37 +1318,37 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45970</v>
+        <v>45976</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.332</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.523</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.638</v>
+        <v>0.019</v>
       </c>
       <c r="F11">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.214</v>
+        <v>0.011</v>
       </c>
       <c r="H11">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.427</v>
+        <v>0.013</v>
       </c>
       <c r="K11">
-        <v>0.269</v>
+        <v>0.032</v>
       </c>
       <c r="N11" t="s">
         <v>23</v>
@@ -1356,37 +1356,37 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45970</v>
+        <v>45976</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06900000000000001</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.131</v>
+        <v>0.013</v>
       </c>
       <c r="F12">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.044</v>
+        <v>0.011</v>
       </c>
       <c r="H12">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.415</v>
+        <v>0.013</v>
       </c>
       <c r="K12">
-        <v>0.026</v>
+        <v>0.032</v>
       </c>
       <c r="N12" t="s">
         <v>24</v>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45970</v>
+        <v>45976</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.064</v>
+        <v>0.013</v>
       </c>
       <c r="K13">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="N13" t="s">
         <v>25</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45970</v>
+        <v>45976</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.068</v>
+        <v>0.013</v>
       </c>
       <c r="K14">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="N14" t="s">
         <v>26</v>
@@ -1470,10 +1470,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45970</v>
+        <v>45976</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.068</v>
+        <v>0.013</v>
       </c>
       <c r="K15">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="N15" t="s">
         <v>27</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45970</v>
+        <v>45976</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.016</v>
+        <v>0.04</v>
       </c>
       <c r="K16">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="N16" t="s">
         <v>28</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45970</v>
+        <v>45976</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1558,25 +1558,25 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="G17">
-        <v>0.011</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="J17">
-        <v>0.016</v>
+        <v>0.184</v>
       </c>
       <c r="K17">
-        <v>0.013</v>
+        <v>0.051</v>
       </c>
       <c r="N17" t="s">
         <v>29</v>
@@ -1584,37 +1584,37 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45970</v>
+        <v>45976</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.241</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.493</v>
       </c>
       <c r="G18">
-        <v>0.011</v>
+        <v>0.441</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="J18">
-        <v>0.011</v>
+        <v>0.316</v>
       </c>
       <c r="K18">
-        <v>0.013</v>
+        <v>0.183</v>
       </c>
       <c r="N18" t="s">
         <v>30</v>
@@ -1622,37 +1622,37 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.337</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.392</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.732</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="G19">
-        <v>0.011</v>
+        <v>0.617</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.318</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.312</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.613</v>
       </c>
       <c r="K19">
-        <v>0.014</v>
+        <v>0.382</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -1660,37 +1660,37 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.612</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.751</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1.066</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="G20">
-        <v>0.011</v>
+        <v>0.741</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.486</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.912</v>
       </c>
       <c r="K20">
-        <v>0.014</v>
+        <v>0.639</v>
       </c>
       <c r="N20" t="s">
         <v>32</v>
@@ -1698,37 +1698,37 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.872</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.945</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1.494</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1.387</v>
       </c>
       <c r="G21">
-        <v>0.011</v>
+        <v>1.468</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.669</v>
       </c>
       <c r="J21">
-        <v>0.013</v>
+        <v>1.098</v>
       </c>
       <c r="K21">
-        <v>0.014</v>
+        <v>0.925</v>
       </c>
       <c r="N21" t="s">
         <v>33</v>
@@ -1736,37 +1736,37 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.028</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1.242</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1.564</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.395</v>
       </c>
       <c r="G22">
-        <v>0.011</v>
+        <v>1.553</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.781</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.669</v>
       </c>
       <c r="J22">
-        <v>0.013</v>
+        <v>1.278</v>
       </c>
       <c r="K22">
-        <v>0.014</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="N22" t="s">
         <v>34</v>
@@ -1774,37 +1774,37 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.051</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1.289</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1.442</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1.386</v>
       </c>
       <c r="G23">
-        <v>0.011</v>
+        <v>1.821</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.783</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.541</v>
       </c>
       <c r="J23">
-        <v>0.013</v>
+        <v>1.092</v>
       </c>
       <c r="K23">
-        <v>0.014</v>
+        <v>0.925</v>
       </c>
       <c r="N23" t="s">
         <v>35</v>
@@ -1812,37 +1812,37 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.853</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.922</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1.019</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.975</v>
       </c>
       <c r="G24">
-        <v>0.011</v>
+        <v>0.598</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.676</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.469</v>
       </c>
       <c r="J24">
-        <v>0.013</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="K24">
-        <v>0.014</v>
+        <v>0.784</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -1850,37 +1850,37 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.265</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.412</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.587</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.296</v>
       </c>
       <c r="G25">
-        <v>0.011</v>
+        <v>0.425</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.276</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="J25">
-        <v>0.013</v>
+        <v>0.526</v>
       </c>
       <c r="K25">
-        <v>0.014</v>
+        <v>0.303</v>
       </c>
       <c r="N25" t="s">
         <v>37</v>
@@ -1888,37 +1888,37 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="G26">
-        <v>0.011</v>
+        <v>0.065</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="J26">
-        <v>0.04</v>
+        <v>0.415</v>
       </c>
       <c r="K26">
-        <v>0.014</v>
+        <v>0.045</v>
       </c>
       <c r="N26" t="s">
         <v>38</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1938,25 +1938,25 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.024</v>
+        <v>0.01</v>
       </c>
       <c r="F27">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.041</v>
+        <v>0.011</v>
       </c>
       <c r="H27">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.306</v>
+        <v>0.059</v>
       </c>
       <c r="K27">
-        <v>0.038</v>
+        <v>0.031</v>
       </c>
       <c r="N27" t="s">
         <v>39</v>
@@ -1964,37 +1964,37 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0.098</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.103</v>
+        <v>0.01</v>
       </c>
       <c r="F28">
-        <v>0.263</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.174</v>
+        <v>0.011</v>
       </c>
       <c r="H28">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0.305</v>
+        <v>0.044</v>
       </c>
       <c r="K28">
-        <v>0.046</v>
+        <v>0.032</v>
       </c>
       <c r="N28" t="s">
         <v>40</v>
@@ -2002,37 +2002,37 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>0.242</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0.238</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.216</v>
+        <v>0.01</v>
       </c>
       <c r="F29">
-        <v>0.446</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0.37</v>
+        <v>0.011</v>
       </c>
       <c r="H29">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0.184</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.416</v>
+        <v>0.044</v>
       </c>
       <c r="K29">
-        <v>0.189</v>
+        <v>0.032</v>
       </c>
       <c r="N29" t="s">
         <v>41</v>
@@ -2040,37 +2040,37 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.353</v>
+        <v>0.011</v>
       </c>
       <c r="F30">
-        <v>0.653</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.604</v>
+        <v>0.011</v>
       </c>
       <c r="H30">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0.298</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0.398</v>
+        <v>0.011</v>
       </c>
       <c r="K30">
-        <v>0.205</v>
+        <v>0.032</v>
       </c>
       <c r="N30" t="s">
         <v>42</v>
@@ -2078,37 +2078,37 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>0.334</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.376</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.401</v>
+        <v>0.021</v>
       </c>
       <c r="F31">
-        <v>0.724</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.589</v>
+        <v>0.011</v>
       </c>
       <c r="H31">
-        <v>0.236</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0.298</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.408</v>
+        <v>0.011</v>
       </c>
       <c r="K31">
-        <v>0.298</v>
+        <v>0.032</v>
       </c>
       <c r="N31" t="s">
         <v>43</v>
@@ -2116,37 +2116,37 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C32">
-        <v>0.265</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.289</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.452</v>
+        <v>0.028</v>
       </c>
       <c r="F32">
-        <v>0.714</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.624</v>
+        <v>0.011</v>
       </c>
       <c r="H32">
-        <v>0.236</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.408</v>
+        <v>0.011</v>
       </c>
       <c r="K32">
-        <v>0.298</v>
+        <v>0.031</v>
       </c>
       <c r="N32" t="s">
         <v>44</v>
@@ -2154,37 +2154,37 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0.163</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0.201</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.385</v>
+        <v>0.031</v>
       </c>
       <c r="F33">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.53</v>
+        <v>0.011</v>
       </c>
       <c r="H33">
-        <v>0.232</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0.34</v>
+        <v>0.013</v>
       </c>
       <c r="K33">
-        <v>0.258</v>
+        <v>0.032</v>
       </c>
       <c r="N33" t="s">
         <v>45</v>
@@ -2192,37 +2192,37 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0.165</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.309</v>
+        <v>0.026</v>
       </c>
       <c r="F34">
-        <v>0.395</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.386</v>
+        <v>0.011</v>
       </c>
       <c r="H34">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.286</v>
+        <v>0.013</v>
       </c>
       <c r="K34">
-        <v>0.177</v>
+        <v>0.032</v>
       </c>
       <c r="N34" t="s">
         <v>46</v>
@@ -2230,37 +2230,37 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.15</v>
+        <v>0.026</v>
       </c>
       <c r="F35">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.159</v>
+        <v>0.011</v>
       </c>
       <c r="H35">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.241</v>
+        <v>0.013</v>
       </c>
       <c r="K35">
-        <v>0.041</v>
+        <v>0.032</v>
       </c>
       <c r="N35" t="s">
         <v>47</v>
@@ -2268,37 +2268,37 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0.052</v>
+        <v>0.026</v>
       </c>
       <c r="F36">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.034</v>
+        <v>0.011</v>
       </c>
       <c r="H36">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.154</v>
+        <v>0.013</v>
       </c>
       <c r="K36">
-        <v>0.026</v>
+        <v>0.032</v>
       </c>
       <c r="N36" t="s">
         <v>48</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.064</v>
+        <v>0.013</v>
       </c>
       <c r="K37">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="N37" t="s">
         <v>49</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.068</v>
+        <v>0.013</v>
       </c>
       <c r="K38">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="N38" t="s">
         <v>50</v>
@@ -2382,10 +2382,10 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.068</v>
+        <v>0.013</v>
       </c>
       <c r="K39">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N39" t="s">
         <v>51</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B40">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.016</v>
+        <v>0.04</v>
       </c>
       <c r="K40">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N40" t="s">
         <v>52</v>
@@ -2458,10 +2458,10 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B41">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2470,25 +2470,25 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G41">
-        <v>0.011</v>
+        <v>0.055</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="J41">
-        <v>0.016</v>
+        <v>0.306</v>
       </c>
       <c r="K41">
-        <v>0.013</v>
+        <v>0.038</v>
       </c>
       <c r="N41" t="s">
         <v>53</v>
@@ -2496,37 +2496,37 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.469</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.505</v>
       </c>
       <c r="G42">
-        <v>0.011</v>
+        <v>0.404</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>0.172</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="J42">
-        <v>0.011</v>
+        <v>0.329</v>
       </c>
       <c r="K42">
-        <v>0.013</v>
+        <v>0.075</v>
       </c>
       <c r="N42" t="s">
         <v>54</v>
@@ -2534,37 +2534,37 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.391</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1.185</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="G43">
-        <v>0.011</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>0.492</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>0.878</v>
       </c>
       <c r="K43">
-        <v>0.014</v>
+        <v>0.347</v>
       </c>
       <c r="N43" t="s">
         <v>55</v>
@@ -2572,37 +2572,37 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.645</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1.615</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="G44">
-        <v>0.011</v>
+        <v>0.709</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>0.696</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.669</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1.102</v>
       </c>
       <c r="K44">
-        <v>0.014</v>
+        <v>0.603</v>
       </c>
       <c r="N44" t="s">
         <v>56</v>
@@ -2610,37 +2610,37 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.837</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1.942</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.388</v>
       </c>
       <c r="G45">
-        <v>0.011</v>
+        <v>1.467</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.764</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="K45">
-        <v>0.014</v>
+        <v>0.895</v>
       </c>
       <c r="N45" t="s">
         <v>57</v>
@@ -2648,37 +2648,37 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.879</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2.203</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1.604</v>
       </c>
       <c r="G46">
-        <v>0.011</v>
+        <v>1.824</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>0.957</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1.334</v>
       </c>
       <c r="K46">
-        <v>0.014</v>
+        <v>0.905</v>
       </c>
       <c r="N46" t="s">
         <v>58</v>
@@ -2686,37 +2686,37 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.404</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1.982</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1.182</v>
       </c>
       <c r="G47">
-        <v>0.011</v>
+        <v>0.66</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>0.792</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>0.535</v>
       </c>
       <c r="J47">
-        <v>0.013</v>
+        <v>0.999</v>
       </c>
       <c r="K47">
-        <v>0.014</v>
+        <v>0.662</v>
       </c>
       <c r="N47" t="s">
         <v>59</v>
@@ -2724,37 +2724,37 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1.525</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.758</v>
       </c>
       <c r="G48">
-        <v>0.011</v>
+        <v>0.639</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.629</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.428</v>
       </c>
       <c r="J48">
-        <v>0.013</v>
+        <v>0.963</v>
       </c>
       <c r="K48">
-        <v>0.014</v>
+        <v>0.431</v>
       </c>
       <c r="N48" t="s">
         <v>60</v>
@@ -2762,37 +2762,37 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.079</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.226</v>
       </c>
       <c r="G49">
-        <v>0.011</v>
+        <v>0.35</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="J49">
-        <v>0.013</v>
+        <v>0.476</v>
       </c>
       <c r="K49">
-        <v>0.014</v>
+        <v>0.188</v>
       </c>
       <c r="N49" t="s">
         <v>61</v>
@@ -2800,37 +2800,37 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="G50">
-        <v>0.011</v>
+        <v>0.045</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="J50">
-        <v>0.04</v>
+        <v>0.415</v>
       </c>
       <c r="K50">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="N50" t="s">
         <v>62</v>
@@ -2838,37 +2838,37 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
         <v>0.01</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0.049</v>
-      </c>
       <c r="F51">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.024</v>
+        <v>0.011</v>
       </c>
       <c r="H51">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0.184</v>
+        <v>0.064</v>
       </c>
       <c r="K51">
-        <v>0.038</v>
+        <v>0.019</v>
       </c>
       <c r="N51" t="s">
         <v>63</v>
@@ -2876,37 +2876,37 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0.156</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0.434</v>
+        <v>0.01</v>
       </c>
       <c r="F52">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.147</v>
+        <v>0.011</v>
       </c>
       <c r="H52">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0.3</v>
+        <v>0.048</v>
       </c>
       <c r="K52">
-        <v>0.046</v>
+        <v>0.013</v>
       </c>
       <c r="N52" t="s">
         <v>64</v>
@@ -2914,37 +2914,37 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C53">
-        <v>0.431</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>1.145</v>
+        <v>0.011</v>
       </c>
       <c r="F53">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.28</v>
+        <v>0.011</v>
       </c>
       <c r="H53">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0.354</v>
+        <v>0.048</v>
       </c>
       <c r="K53">
-        <v>0.205</v>
+        <v>0.013</v>
       </c>
       <c r="N53" t="s">
         <v>65</v>
@@ -2952,37 +2952,37 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C54">
-        <v>0.8110000000000001</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.944</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>1.657</v>
+        <v>0.011</v>
       </c>
       <c r="F54">
-        <v>0.491</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.44</v>
+        <v>0.011</v>
       </c>
       <c r="H54">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0.321</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0.404</v>
+        <v>0.016</v>
       </c>
       <c r="K54">
-        <v>0.347</v>
+        <v>0.013</v>
       </c>
       <c r="N54" t="s">
         <v>66</v>
@@ -2990,37 +2990,37 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B55">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C55">
-        <v>1.036</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>1.274</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>2.024</v>
+        <v>0.011</v>
       </c>
       <c r="F55">
-        <v>0.592</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.455</v>
+        <v>0.011</v>
       </c>
       <c r="H55">
-        <v>0.347</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0.339</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0.528</v>
+        <v>0.016</v>
       </c>
       <c r="K55">
-        <v>0.393</v>
+        <v>0.013</v>
       </c>
       <c r="N55" t="s">
         <v>67</v>
@@ -3028,37 +3028,37 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C56">
-        <v>1.101</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>1.354</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>2.153</v>
+        <v>0.01</v>
       </c>
       <c r="F56">
-        <v>0.526</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.446</v>
+        <v>0.011</v>
       </c>
       <c r="H56">
-        <v>0.306</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0.301</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0.479</v>
+        <v>0.016</v>
       </c>
       <c r="K56">
-        <v>0.455</v>
+        <v>0.013</v>
       </c>
       <c r="N56" t="s">
         <v>68</v>
@@ -3066,37 +3066,37 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45972</v>
+        <v>45978</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>1.188</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>1.945</v>
+        <v>0.011</v>
       </c>
       <c r="F57">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.236</v>
+        <v>0.011</v>
       </c>
       <c r="H57">
-        <v>0.232</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0.184</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0.403</v>
+        <v>0.013</v>
       </c>
       <c r="K57">
-        <v>0.411</v>
+        <v>0.014</v>
       </c>
       <c r="N57" t="s">
         <v>69</v>
@@ -3104,37 +3104,37 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45972</v>
+        <v>45978</v>
       </c>
       <c r="B58">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>0.612</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.797</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>1.479</v>
+        <v>0.011</v>
       </c>
       <c r="F58">
-        <v>0.172</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.156</v>
+        <v>0.011</v>
       </c>
       <c r="H58">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0.308</v>
+        <v>0.013</v>
       </c>
       <c r="K58">
-        <v>0.319</v>
+        <v>0.014</v>
       </c>
       <c r="N58" t="s">
         <v>70</v>
@@ -3142,37 +3142,37 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45972</v>
+        <v>45978</v>
       </c>
       <c r="B59">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>0.271</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0.368</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0.754</v>
+        <v>0.01</v>
       </c>
       <c r="F59">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.082</v>
+        <v>0.011</v>
       </c>
       <c r="H59">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>0.246</v>
+        <v>0.013</v>
       </c>
       <c r="K59">
-        <v>0.162</v>
+        <v>0.014</v>
       </c>
       <c r="N59" t="s">
         <v>71</v>
@@ -3180,37 +3180,37 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45972</v>
+        <v>45978</v>
       </c>
       <c r="B60">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.016</v>
+        <v>0.011</v>
       </c>
       <c r="H60">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.132</v>
+        <v>0.013</v>
       </c>
       <c r="K60">
-        <v>0.026</v>
+        <v>0.014</v>
       </c>
       <c r="N60" t="s">
         <v>72</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45972</v>
+        <v>45978</v>
       </c>
       <c r="B61">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.038</v>
+        <v>0.013</v>
       </c>
       <c r="K61">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="N61" t="s">
         <v>73</v>
@@ -3256,10 +3256,10 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45972</v>
+        <v>45978</v>
       </c>
       <c r="B62">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.043</v>
+        <v>0.013</v>
       </c>
       <c r="K62">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="N62" t="s">
         <v>74</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45972</v>
+        <v>45978</v>
       </c>
       <c r="B63">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3321,10 +3321,10 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.043</v>
+        <v>0.013</v>
       </c>
       <c r="K63">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="N63" t="s">
         <v>75</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45972</v>
+        <v>45978</v>
       </c>
       <c r="B64">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.011</v>
+        <v>0.04</v>
       </c>
       <c r="K64">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="N64" t="s">
         <v>76</v>
@@ -3370,10 +3370,10 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45972</v>
+        <v>45978</v>
       </c>
       <c r="B65">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3382,25 +3382,25 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.01</v>
+        <v>0.041</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="G65">
-        <v>0.011</v>
+        <v>0.081</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="J65">
-        <v>0.011</v>
+        <v>0.447</v>
       </c>
       <c r="K65">
-        <v>0.013</v>
+        <v>0.051</v>
       </c>
       <c r="N65" t="s">
         <v>77</v>
@@ -3408,37 +3408,37 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45972</v>
+        <v>45978</v>
       </c>
       <c r="B66">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="E66">
-        <v>0.01</v>
+        <v>0.311</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.605</v>
       </c>
       <c r="G66">
-        <v>0.011</v>
+        <v>0.423</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="J66">
-        <v>0.011</v>
+        <v>0.549</v>
       </c>
       <c r="K66">
-        <v>0.013</v>
+        <v>0.152</v>
       </c>
       <c r="N66" t="s">
         <v>78</v>
@@ -3446,37 +3446,37 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>0.409</v>
       </c>
       <c r="E67">
-        <v>0.01</v>
+        <v>0.826</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1.366</v>
       </c>
       <c r="G67">
-        <v>0.011</v>
+        <v>0.679</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>0.541</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1.026</v>
       </c>
       <c r="K67">
-        <v>0.014</v>
+        <v>0.382</v>
       </c>
       <c r="N67" t="s">
         <v>79</v>
@@ -3484,37 +3484,37 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>0.771</v>
       </c>
       <c r="E68">
-        <v>0.011</v>
+        <v>1.388</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1.545</v>
       </c>
       <c r="G68">
-        <v>0.011</v>
+        <v>2.271</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>0.863</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1.524</v>
       </c>
       <c r="K68">
-        <v>0.014</v>
+        <v>0.662</v>
       </c>
       <c r="N68" t="s">
         <v>80</v>
@@ -3522,37 +3522,37 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.924</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>0.882</v>
       </c>
       <c r="E69">
-        <v>0.021</v>
+        <v>1.634</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>2.154</v>
       </c>
       <c r="G69">
-        <v>0.011</v>
+        <v>2.362</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1.061</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>0.881</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1.839</v>
       </c>
       <c r="K69">
-        <v>0.014</v>
+        <v>0.895</v>
       </c>
       <c r="N69" t="s">
         <v>81</v>
@@ -3560,37 +3560,37 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.829</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.791</v>
       </c>
       <c r="E70">
-        <v>0.021</v>
+        <v>1.49</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2.038</v>
       </c>
       <c r="G70">
-        <v>0.011</v>
+        <v>2.358</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1.003</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1.826</v>
       </c>
       <c r="K70">
-        <v>0.014</v>
+        <v>0.905</v>
       </c>
       <c r="N70" t="s">
         <v>82</v>
@@ -3598,37 +3598,37 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.617</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>0.605</v>
       </c>
       <c r="E71">
-        <v>0.011</v>
+        <v>1.018</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1.305</v>
       </c>
       <c r="G71">
-        <v>0.011</v>
+        <v>2.193</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.792</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1.438</v>
       </c>
       <c r="K71">
-        <v>0.014</v>
+        <v>0.628</v>
       </c>
       <c r="N71" t="s">
         <v>83</v>
@@ -3636,37 +3636,37 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.388</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>0.341</v>
       </c>
       <c r="E72">
-        <v>0.013</v>
+        <v>0.698</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="G72">
-        <v>0.011</v>
+        <v>0.493</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>0.492</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>0.972</v>
       </c>
       <c r="K72">
-        <v>0.014</v>
+        <v>0.415</v>
       </c>
       <c r="N72" t="s">
         <v>84</v>
@@ -3674,37 +3674,37 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="E73">
-        <v>0.012</v>
+        <v>0.276</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.195</v>
       </c>
       <c r="G73">
-        <v>0.011</v>
+        <v>0.287</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>0.531</v>
       </c>
       <c r="K73">
-        <v>0.014</v>
+        <v>0.188</v>
       </c>
       <c r="N73" t="s">
         <v>85</v>
@@ -3712,37 +3712,37 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="E74">
-        <v>0.012</v>
+        <v>0.043</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="G74">
-        <v>0.011</v>
+        <v>0.032</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0.035</v>
+        <v>0.424</v>
       </c>
       <c r="K74">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="N74" t="s">
         <v>86</v>
@@ -3750,37 +3750,37 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C75">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0.033</v>
+        <v>0.011</v>
       </c>
       <c r="H75">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>0.184</v>
+        <v>0.064</v>
       </c>
       <c r="K75">
-        <v>0.038</v>
+        <v>0.013</v>
       </c>
       <c r="N75" t="s">
         <v>87</v>
@@ -3788,37 +3788,37 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C76">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0.607</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.347</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0.272</v>
+        <v>0.011</v>
       </c>
       <c r="H76">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>0.316</v>
+        <v>0.068</v>
       </c>
       <c r="K76">
-        <v>0.08799999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="N76" t="s">
         <v>88</v>
@@ -3826,37 +3826,37 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B77">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C77">
-        <v>0.338</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>1.639</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.582</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.493</v>
+        <v>0.011</v>
       </c>
       <c r="H77">
-        <v>0.306</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0.695</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>0.602</v>
+        <v>0.068</v>
       </c>
       <c r="K77">
-        <v>0.347</v>
+        <v>0.013</v>
       </c>
       <c r="N77" t="s">
         <v>89</v>
@@ -3864,37 +3864,37 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C78">
-        <v>0.614</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>2.127</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.926</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0.624</v>
+        <v>0.011</v>
       </c>
       <c r="H78">
-        <v>0.631</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0.975</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>1.012</v>
+        <v>0.016</v>
       </c>
       <c r="K78">
-        <v>0.585</v>
+        <v>0.013</v>
       </c>
       <c r="N78" t="s">
         <v>90</v>
@@ -3902,37 +3902,37 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B79">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C79">
-        <v>0.758</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0.913</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>2.904</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.063</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0.584</v>
+        <v>0.011</v>
       </c>
       <c r="H79">
-        <v>0.728</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1.132</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0.997</v>
+        <v>0.011</v>
       </c>
       <c r="K79">
-        <v>0.806</v>
+        <v>0.013</v>
       </c>
       <c r="N79" t="s">
         <v>91</v>
@@ -3940,37 +3940,37 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B80">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C80">
-        <v>0.824</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>1.042</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>2.956</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.006</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0.61</v>
+        <v>0.011</v>
       </c>
       <c r="H80">
-        <v>0.781</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>1.114</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>1.136</v>
+        <v>0.016</v>
       </c>
       <c r="K80">
-        <v>0.806</v>
+        <v>0.013</v>
       </c>
       <c r="N80" t="s">
         <v>92</v>
@@ -3978,37 +3978,37 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="B81">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>0.764</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>1.059</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>2.255</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.8179999999999999</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0.644</v>
+        <v>0.011</v>
       </c>
       <c r="H81">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0.918</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>1.137</v>
+        <v>0.013</v>
       </c>
       <c r="K81">
-        <v>0.569</v>
+        <v>0.014</v>
       </c>
       <c r="N81" t="s">
         <v>93</v>
@@ -4016,37 +4016,37 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="B82">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>0.482</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>1.789</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.504</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.472</v>
+        <v>0.011</v>
       </c>
       <c r="H82">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0.541</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>0.974</v>
+        <v>0.013</v>
       </c>
       <c r="K82">
-        <v>0.404</v>
+        <v>0.014</v>
       </c>
       <c r="N82" t="s">
         <v>94</v>
@@ -4054,37 +4054,37 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="B83">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>0.189</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>0.779</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.172</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>0.223</v>
+        <v>0.011</v>
       </c>
       <c r="H83">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>0.498</v>
+        <v>0.013</v>
       </c>
       <c r="K83">
-        <v>0.198</v>
+        <v>0.014</v>
       </c>
       <c r="N83" t="s">
         <v>95</v>
@@ -4092,37 +4092,37 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="B84">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0.034</v>
+        <v>0.011</v>
       </c>
       <c r="H84">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>0.415</v>
+        <v>0.013</v>
       </c>
       <c r="K84">
-        <v>0.026</v>
+        <v>0.014</v>
       </c>
       <c r="N84" t="s">
         <v>96</v>
@@ -4130,10 +4130,10 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="B85">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4157,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.064</v>
+        <v>0.013</v>
       </c>
       <c r="K85">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N85" t="s">
         <v>97</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="B86">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.044</v>
+        <v>0.013</v>
       </c>
       <c r="K86">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="N86" t="s">
         <v>98</v>
@@ -4206,10 +4206,10 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="B87">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4233,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0.039</v>
+        <v>0.013</v>
       </c>
       <c r="K87">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="N87" t="s">
         <v>99</v>
@@ -4244,10 +4244,10 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="B88">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4271,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K88">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="N88" t="s">
         <v>100</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="B89">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4294,13 +4294,13 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.01</v>
+        <v>0.023</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="G89">
-        <v>0.011</v>
+        <v>0.039</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4309,10 +4309,10 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="K89">
-        <v>0.031</v>
+        <v>0.038</v>
       </c>
       <c r="N89" t="s">
         <v>101</v>
@@ -4320,37 +4320,37 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="B90">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E90">
-        <v>0.01</v>
+        <v>0.148</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.423</v>
       </c>
       <c r="G90">
-        <v>0.011</v>
+        <v>0.327</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>0.305</v>
       </c>
       <c r="K90">
-        <v>0.031</v>
+        <v>0.046</v>
       </c>
       <c r="N90" t="s">
         <v>102</v>
@@ -4358,37 +4358,37 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.208</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>0.257</v>
       </c>
       <c r="E91">
-        <v>0.01</v>
+        <v>0.414</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.958</v>
       </c>
       <c r="G91">
-        <v>0.011</v>
+        <v>0.649</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>0.306</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>0.346</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>0.652</v>
       </c>
       <c r="K91">
-        <v>0.032</v>
+        <v>0.205</v>
       </c>
       <c r="N91" t="s">
         <v>103</v>
@@ -4396,37 +4396,37 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.353</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>0.472</v>
       </c>
       <c r="E92">
-        <v>0.01</v>
+        <v>0.642</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1.272</v>
       </c>
       <c r="G92">
-        <v>0.011</v>
+        <v>0.926</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>0.532</v>
       </c>
       <c r="J92">
-        <v>0.013</v>
+        <v>1.03</v>
       </c>
       <c r="K92">
-        <v>0.032</v>
+        <v>0.298</v>
       </c>
       <c r="N92" t="s">
         <v>104</v>
@@ -4434,37 +4434,37 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.486</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>0.578</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.784</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1.373</v>
       </c>
       <c r="G93">
-        <v>0.011</v>
+        <v>1.732</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>0.761</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>0.669</v>
       </c>
       <c r="J93">
-        <v>0.013</v>
+        <v>1.038</v>
       </c>
       <c r="K93">
-        <v>0.032</v>
+        <v>0.347</v>
       </c>
       <c r="N93" t="s">
         <v>105</v>
@@ -4472,37 +4472,37 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>0.536</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>0.532</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.785</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="G94">
-        <v>0.011</v>
+        <v>1.388</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>0.733</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.669</v>
       </c>
       <c r="J94">
-        <v>0.013</v>
+        <v>0.994</v>
       </c>
       <c r="K94">
-        <v>0.032</v>
+        <v>0.347</v>
       </c>
       <c r="N94" t="s">
         <v>106</v>
@@ -4510,37 +4510,37 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>0.434</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>0.397</v>
       </c>
       <c r="E95">
-        <v>0.011</v>
+        <v>0.655</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="G95">
-        <v>0.011</v>
+        <v>0.507</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>0.482</v>
       </c>
       <c r="J95">
-        <v>0.013</v>
+        <v>0.95</v>
       </c>
       <c r="K95">
-        <v>0.032</v>
+        <v>0.264</v>
       </c>
       <c r="N95" t="s">
         <v>107</v>
@@ -4548,37 +4548,37 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.224</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="E96">
-        <v>0.014</v>
+        <v>0.396</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.519</v>
       </c>
       <c r="G96">
-        <v>0.011</v>
+        <v>0.476</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>0.313</v>
       </c>
       <c r="J96">
-        <v>0.013</v>
+        <v>0.543</v>
       </c>
       <c r="K96">
-        <v>0.032</v>
+        <v>0.177</v>
       </c>
       <c r="N96" t="s">
         <v>108</v>
@@ -4586,37 +4586,37 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="E97">
-        <v>0.014</v>
+        <v>0.187</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="G97">
-        <v>0.011</v>
+        <v>0.219</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="J97">
-        <v>0.013</v>
+        <v>0.286</v>
       </c>
       <c r="K97">
-        <v>0.032</v>
+        <v>0.041</v>
       </c>
       <c r="N97" t="s">
         <v>109</v>
@@ -4624,10 +4624,10 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4636,25 +4636,25 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0.013</v>
+        <v>0.033</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="G98">
-        <v>0.011</v>
+        <v>0.026</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0.04</v>
+        <v>0.157</v>
       </c>
       <c r="K98">
-        <v>0.032</v>
+        <v>0.026</v>
       </c>
       <c r="N98" t="s">
         <v>110</v>
@@ -4662,10 +4662,10 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B99">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -4674,25 +4674,25 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>0.13</v>
+        <v>0.011</v>
       </c>
       <c r="H99">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0.447</v>
+        <v>0.064</v>
       </c>
       <c r="K99">
-        <v>0.051</v>
+        <v>0.013</v>
       </c>
       <c r="N99" t="s">
         <v>111</v>
@@ -4700,37 +4700,37 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B100">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C100">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>0.5610000000000001</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.778</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0.597</v>
+        <v>0.011</v>
       </c>
       <c r="H100">
-        <v>0.349</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0.184</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>0.518</v>
+        <v>0.068</v>
       </c>
       <c r="K100">
-        <v>0.203</v>
+        <v>0.013</v>
       </c>
       <c r="N100" t="s">
         <v>112</v>
@@ -4738,37 +4738,37 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B101">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C101">
-        <v>0.368</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>0.489</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>1.589</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.654</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>0.859</v>
+        <v>0.011</v>
       </c>
       <c r="H101">
-        <v>0.804</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>0.442</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>1.029</v>
+        <v>0.068</v>
       </c>
       <c r="K101">
-        <v>0.475</v>
+        <v>0.013</v>
       </c>
       <c r="N101" t="s">
         <v>113</v>
@@ -4776,37 +4776,37 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B102">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C102">
-        <v>0.732</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>0.853</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>2.051</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>2.388</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>2.172</v>
+        <v>0.011</v>
       </c>
       <c r="H102">
-        <v>1.263</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>0.535</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>1.606</v>
+        <v>0.016</v>
       </c>
       <c r="K102">
-        <v>0.877</v>
+        <v>0.013</v>
       </c>
       <c r="N102" t="s">
         <v>114</v>
@@ -4814,37 +4814,37 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B103">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C103">
-        <v>0.895</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>1.252</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>2.289</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>2.452</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>2.513</v>
+        <v>0.011</v>
       </c>
       <c r="H103">
-        <v>1.368</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>0.669</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>1.984</v>
+        <v>0.016</v>
       </c>
       <c r="K103">
-        <v>0.909</v>
+        <v>0.013</v>
       </c>
       <c r="N103" t="s">
         <v>115</v>
@@ -4852,37 +4852,37 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="2">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B104">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C104">
-        <v>1.013</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>1.482</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>2.319</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>2.524</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>2.712</v>
+        <v>0.011</v>
       </c>
       <c r="H104">
-        <v>1.368</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0.535</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>1.894</v>
+        <v>0.016</v>
       </c>
       <c r="K104">
-        <v>0.931</v>
+        <v>0.013</v>
       </c>
       <c r="N104" t="s">
         <v>116</v>
@@ -4890,37 +4890,37 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="2">
-        <v>45974</v>
+        <v>45980</v>
       </c>
       <c r="B105">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>0.922</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>1.591</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>2.088</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.921</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>2.489</v>
+        <v>0.011</v>
       </c>
       <c r="H105">
-        <v>1.243</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0.449</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>1.014</v>
+        <v>0.013</v>
       </c>
       <c r="K105">
-        <v>0.884</v>
+        <v>0.014</v>
       </c>
       <c r="N105" t="s">
         <v>117</v>
@@ -4928,37 +4928,37 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="2">
-        <v>45974</v>
+        <v>45980</v>
       </c>
       <c r="B106">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>0.603</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>1.171</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>1.613</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.151</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>1.464</v>
+        <v>0.011</v>
       </c>
       <c r="H106">
-        <v>0.858</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>0.292</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>0.708</v>
+        <v>0.013</v>
       </c>
       <c r="K106">
-        <v>0.743</v>
+        <v>0.014</v>
       </c>
       <c r="N106" t="s">
         <v>118</v>
@@ -4966,37 +4966,37 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="2">
-        <v>45974</v>
+        <v>45980</v>
       </c>
       <c r="B107">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>0.418</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>0.679</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.342</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>0.448</v>
+        <v>0.011</v>
       </c>
       <c r="H107">
-        <v>0.349</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>0.386</v>
+        <v>0.013</v>
       </c>
       <c r="K107">
-        <v>0.285</v>
+        <v>0.014</v>
       </c>
       <c r="N107" t="s">
         <v>119</v>
@@ -5004,37 +5004,37 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="2">
-        <v>45974</v>
+        <v>45980</v>
       </c>
       <c r="B108">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>0.139</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>0.067</v>
+        <v>0.011</v>
       </c>
       <c r="H108">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>0.415</v>
+        <v>0.013</v>
       </c>
       <c r="K108">
-        <v>0.026</v>
+        <v>0.014</v>
       </c>
       <c r="N108" t="s">
         <v>120</v>
@@ -5042,10 +5042,10 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="2">
-        <v>45974</v>
+        <v>45980</v>
       </c>
       <c r="B109">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5069,10 +5069,10 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N109" t="s">
         <v>121</v>
@@ -5080,10 +5080,10 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="2">
-        <v>45974</v>
+        <v>45980</v>
       </c>
       <c r="B110">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5107,10 +5107,10 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N110" t="s">
         <v>122</v>
@@ -5118,10 +5118,10 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="2">
-        <v>45974</v>
+        <v>45980</v>
       </c>
       <c r="B111">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5145,10 +5145,10 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N111" t="s">
         <v>123</v>
@@ -5156,10 +5156,10 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="2">
-        <v>45974</v>
+        <v>45980</v>
       </c>
       <c r="B112">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -5183,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0.016</v>
+        <v>0.035</v>
       </c>
       <c r="K112">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N112" t="s">
         <v>124</v>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="2">
-        <v>45974</v>
+        <v>45980</v>
       </c>
       <c r="B113">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -5206,13 +5206,13 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="G113">
-        <v>0.011</v>
+        <v>0.021</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5221,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0.016</v>
+        <v>0.242</v>
       </c>
       <c r="K113">
-        <v>0.013</v>
+        <v>0.038</v>
       </c>
       <c r="N113" t="s">
         <v>125</v>
@@ -5232,37 +5232,37 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="2">
-        <v>45974</v>
+        <v>45980</v>
       </c>
       <c r="B114">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="G114">
-        <v>0.011</v>
+        <v>0.14</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="J114">
-        <v>0.016</v>
+        <v>0.47</v>
       </c>
       <c r="K114">
-        <v>0.013</v>
+        <v>0.038</v>
       </c>
       <c r="N114" t="s">
         <v>126</v>
@@ -5270,37 +5270,37 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>0.314</v>
       </c>
       <c r="E115">
-        <v>0.01</v>
+        <v>0.446</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.442</v>
       </c>
       <c r="G115">
-        <v>0.011</v>
+        <v>0.354</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="J115">
-        <v>0.013</v>
+        <v>0.305</v>
       </c>
       <c r="K115">
-        <v>0.014</v>
+        <v>0.189</v>
       </c>
       <c r="N115" t="s">
         <v>127</v>
@@ -5308,37 +5308,37 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>0.527</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>0.483</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.609</v>
       </c>
       <c r="G116">
-        <v>0.011</v>
+        <v>0.515</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>0.302</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="J116">
-        <v>0.013</v>
+        <v>0.404</v>
       </c>
       <c r="K116">
-        <v>0.014</v>
+        <v>0.298</v>
       </c>
       <c r="N116" t="s">
         <v>128</v>
@@ -5346,37 +5346,37 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>0.765</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>0.617</v>
       </c>
       <c r="E117">
-        <v>0.012</v>
+        <v>0.796</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.588</v>
       </c>
       <c r="G117">
-        <v>0.011</v>
+        <v>0.638</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>0.306</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>0.404</v>
       </c>
       <c r="K117">
-        <v>0.032</v>
+        <v>0.347</v>
       </c>
       <c r="N117" t="s">
         <v>129</v>
@@ -5384,37 +5384,37 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.794</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>0.711</v>
       </c>
       <c r="E118">
-        <v>0.015</v>
+        <v>0.793</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.489</v>
       </c>
       <c r="G118">
-        <v>0.011</v>
+        <v>0.471</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>0.268</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>0.403</v>
       </c>
       <c r="K118">
-        <v>0.032</v>
+        <v>0.36</v>
       </c>
       <c r="N118" t="s">
         <v>130</v>
@@ -5422,37 +5422,37 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.663</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>0.676</v>
       </c>
       <c r="E119">
-        <v>0.019</v>
+        <v>0.735</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>0.267</v>
       </c>
       <c r="G119">
-        <v>0.011</v>
+        <v>0.269</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>0.403</v>
       </c>
       <c r="K119">
-        <v>0.032</v>
+        <v>0.298</v>
       </c>
       <c r="N119" t="s">
         <v>131</v>
@@ -5460,37 +5460,37 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.291</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>0.364</v>
       </c>
       <c r="E120">
-        <v>0.019</v>
+        <v>0.548</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="G120">
-        <v>0.011</v>
+        <v>0.173</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>0.292</v>
       </c>
       <c r="K120">
-        <v>0.032</v>
+        <v>0.211</v>
       </c>
       <c r="N120" t="s">
         <v>132</v>
@@ -5498,37 +5498,37 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>0.137</v>
       </c>
       <c r="E121">
-        <v>0.019</v>
+        <v>0.216</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="G121">
-        <v>0.011</v>
+        <v>0.099</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>0.073</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>0.251</v>
       </c>
       <c r="K121">
-        <v>0.032</v>
+        <v>0.06</v>
       </c>
       <c r="N121" t="s">
         <v>133</v>
@@ -5536,25 +5536,25 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B122">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="E122">
-        <v>0.056</v>
+        <v>0.033</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="G122">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -5563,10 +5563,10 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0.036</v>
+        <v>0.095</v>
       </c>
       <c r="K122">
-        <v>0.032</v>
+        <v>0.045</v>
       </c>
       <c r="N122" t="s">
         <v>134</v>
@@ -5574,37 +5574,37 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C123">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>0.138</v>
+        <v>0.011</v>
       </c>
       <c r="H123">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>0.268</v>
+        <v>0.043</v>
       </c>
       <c r="K123">
-        <v>0.051</v>
+        <v>0.031</v>
       </c>
       <c r="N123" t="s">
         <v>135</v>
@@ -5612,37 +5612,37 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C124">
-        <v>0.207</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>0.307</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>0.585</v>
+        <v>0.017</v>
       </c>
       <c r="F124">
-        <v>0.954</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>0.681</v>
+        <v>0.011</v>
       </c>
       <c r="H124">
-        <v>0.349</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0.317</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>0.659</v>
+        <v>0.048</v>
       </c>
       <c r="K124">
-        <v>0.307</v>
+        <v>0.031</v>
       </c>
       <c r="N124" t="s">
         <v>136</v>
@@ -5650,37 +5650,37 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B125">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C125">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>1.026</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>1.657</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>2.036</v>
+        <v>0.011</v>
       </c>
       <c r="H125">
-        <v>0.828</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>0.731</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>1.769</v>
+        <v>0.048</v>
       </c>
       <c r="K125">
-        <v>0.655</v>
+        <v>0.031</v>
       </c>
       <c r="N125" t="s">
         <v>137</v>
@@ -5688,37 +5688,37 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C126">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>1.844</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>2.103</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>2.418</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>2.586</v>
+        <v>0.011</v>
       </c>
       <c r="H126">
-        <v>1.294</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>0.974</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>1.919</v>
+        <v>0.016</v>
       </c>
       <c r="K126">
-        <v>0.93</v>
+        <v>0.031</v>
       </c>
       <c r="N126" t="s">
         <v>138</v>
@@ -5726,37 +5726,37 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B127">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C127">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>2.339</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>2.904</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>2.734</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>2.733</v>
+        <v>0.011</v>
       </c>
       <c r="H127">
-        <v>1.428</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>1.134</v>
+        <v>0</v>
       </c>
       <c r="J127">
-        <v>2.228</v>
+        <v>0.016</v>
       </c>
       <c r="K127">
-        <v>1.087</v>
+        <v>0.031</v>
       </c>
       <c r="N127" t="s">
         <v>139</v>
@@ -5764,37 +5764,37 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="2">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="B128">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C128">
-        <v>2.105</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>2.401</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>2.918</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>2.556</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>2.726</v>
+        <v>0.011</v>
       </c>
       <c r="H128">
-        <v>1.481</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1.113</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>2.059</v>
+        <v>0.016</v>
       </c>
       <c r="K128">
-        <v>1.113</v>
+        <v>0.031</v>
       </c>
       <c r="N128" t="s">
         <v>140</v>
@@ -5802,37 +5802,37 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="2">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B129">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C129">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>2.044</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>2.142</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.998</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>2.316</v>
+        <v>0.011</v>
       </c>
       <c r="H129">
-        <v>1.294</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>0.955</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>1.818</v>
+        <v>0.013</v>
       </c>
       <c r="K129">
-        <v>0.922</v>
+        <v>0.032</v>
       </c>
       <c r="N129" t="s">
         <v>141</v>
@@ -5840,37 +5840,37 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="2">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B130">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>0.977</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>1.618</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>1.581</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.077</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0.971</v>
+        <v>0.011</v>
       </c>
       <c r="H130">
-        <v>0.881</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>0.708</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>1.807</v>
+        <v>0.013</v>
       </c>
       <c r="K130">
-        <v>0.84</v>
+        <v>0.032</v>
       </c>
       <c r="N130" t="s">
         <v>142</v>
@@ -5878,37 +5878,37 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="2">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B131">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>0.281</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>0.6850000000000001</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>0.8090000000000001</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.311</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>0.463</v>
+        <v>0.011</v>
       </c>
       <c r="H131">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>0.319</v>
+        <v>0</v>
       </c>
       <c r="J131">
-        <v>0.596</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>0.312</v>
+        <v>0.032</v>
       </c>
       <c r="N131" t="s">
         <v>143</v>
@@ -5916,37 +5916,37 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="2">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B132">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>0.176</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>0.064</v>
+        <v>0.011</v>
       </c>
       <c r="H132">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>0.236</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>0.046</v>
+        <v>0.032</v>
       </c>
       <c r="N132" t="s">
         <v>144</v>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="2">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B133">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="K133">
         <v>0.032</v>
@@ -5992,10 +5992,10 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="2">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B134">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="K134">
         <v>0.032</v>
@@ -6030,10 +6030,10 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="2">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B135">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="K135">
         <v>0.032</v>
@@ -6068,10 +6068,10 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="2">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B136">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0.011</v>
+        <v>0.031</v>
       </c>
       <c r="K136">
         <v>0.032</v>
@@ -6106,10 +6106,10 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="2">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B137">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -6118,25 +6118,25 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="G137">
-        <v>0.011</v>
+        <v>0.039</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="J137">
-        <v>0.011</v>
+        <v>0.438</v>
       </c>
       <c r="K137">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
       <c r="N137" t="s">
         <v>149</v>
@@ -6144,37 +6144,37 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="2">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B138">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="E138">
-        <v>0.015</v>
+        <v>0.201</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>0.405</v>
       </c>
       <c r="G138">
-        <v>0.011</v>
+        <v>0.316</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>0.184</v>
       </c>
       <c r="J138">
-        <v>0.011</v>
+        <v>0.601</v>
       </c>
       <c r="K138">
-        <v>0.032</v>
+        <v>0.203</v>
       </c>
       <c r="N138" t="s">
         <v>150</v>
@@ -6182,37 +6182,37 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>0.397</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>0.483</v>
       </c>
       <c r="E139">
-        <v>0.013</v>
+        <v>0.658</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>0.874</v>
       </c>
       <c r="G139">
-        <v>0.011</v>
+        <v>0.622</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>0.447</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>1.003</v>
       </c>
       <c r="K139">
-        <v>0.033</v>
+        <v>0.475</v>
       </c>
       <c r="N139" t="s">
         <v>151</v>
@@ -6220,37 +6220,37 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>0.857</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>0.898</v>
       </c>
       <c r="E140">
-        <v>0.013</v>
+        <v>0.922</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="G140">
-        <v>0.011</v>
+        <v>0.88</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>0.717</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>1.873</v>
       </c>
       <c r="K140">
-        <v>0.033</v>
+        <v>0.895</v>
       </c>
       <c r="N140" t="s">
         <v>152</v>
@@ -6258,37 +6258,37 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>0.951</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>1.202</v>
       </c>
       <c r="E141">
-        <v>0.015</v>
+        <v>1.34</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1.515</v>
       </c>
       <c r="G141">
-        <v>0.011</v>
+        <v>1.84</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>0.847</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>0.847</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>1.914</v>
       </c>
       <c r="K141">
-        <v>0.033</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="N141" t="s">
         <v>153</v>
@@ -6296,37 +6296,37 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="E142">
-        <v>0.015</v>
+        <v>1.393</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="G142">
-        <v>0.011</v>
+        <v>2.214</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1.832</v>
       </c>
       <c r="K142">
-        <v>0.033</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N142" t="s">
         <v>154</v>
@@ -6334,37 +6334,37 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>1.015</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1.318</v>
       </c>
       <c r="E143">
-        <v>0.012</v>
+        <v>1.18</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1.431</v>
       </c>
       <c r="G143">
-        <v>0.011</v>
+        <v>2.171</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>0.847</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1.579</v>
       </c>
       <c r="K143">
-        <v>0.033</v>
+        <v>0.916</v>
       </c>
       <c r="N143" t="s">
         <v>155</v>
@@ -6372,37 +6372,37 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B144">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>0.598</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>0.854</v>
       </c>
       <c r="E144">
-        <v>0.013</v>
+        <v>0.741</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="G144">
-        <v>0.011</v>
+        <v>0.528</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>0.545</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>1.011</v>
       </c>
       <c r="K144">
-        <v>0.033</v>
+        <v>0.775</v>
       </c>
       <c r="N144" t="s">
         <v>156</v>
@@ -6410,37 +6410,37 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>0.195</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="E145">
-        <v>0.013</v>
+        <v>0.359</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>0.233</v>
       </c>
       <c r="G145">
-        <v>0.011</v>
+        <v>0.357</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>0.505</v>
       </c>
       <c r="K145">
-        <v>0.033</v>
+        <v>0.288</v>
       </c>
       <c r="N145" t="s">
         <v>157</v>
@@ -6448,37 +6448,37 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B146">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="E146">
-        <v>0.013</v>
+        <v>0.042</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="G146">
-        <v>0.011</v>
+        <v>0.045</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="J146">
-        <v>0.036</v>
+        <v>0.421</v>
       </c>
       <c r="K146">
-        <v>0.033</v>
+        <v>0.046</v>
       </c>
       <c r="N146" t="s">
         <v>158</v>
@@ -6486,37 +6486,37 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B147">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C147">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>0.13</v>
+        <v>0.011</v>
       </c>
       <c r="H147">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="J147">
-        <v>0.268</v>
+        <v>0.039</v>
       </c>
       <c r="K147">
-        <v>0.052</v>
+        <v>0.032</v>
       </c>
       <c r="N147" t="s">
         <v>159</v>
@@ -6524,37 +6524,37 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B148">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C148">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>0.328</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>0.5580000000000001</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.968</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>0.927</v>
+        <v>0.011</v>
       </c>
       <c r="H148">
-        <v>0.347</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>0.289</v>
+        <v>0</v>
       </c>
       <c r="J148">
-        <v>0.659</v>
+        <v>0.044</v>
       </c>
       <c r="K148">
-        <v>0.304</v>
+        <v>0.032</v>
       </c>
       <c r="N148" t="s">
         <v>160</v>
@@ -6562,37 +6562,37 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B149">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C149">
-        <v>0.626</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>1.031</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>1.517</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.986</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>2.406</v>
+        <v>0.011</v>
       </c>
       <c r="H149">
-        <v>0.819</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>0.731</v>
+        <v>0</v>
       </c>
       <c r="J149">
-        <v>1.843</v>
+        <v>0.044</v>
       </c>
       <c r="K149">
-        <v>0.67</v>
+        <v>0.032</v>
       </c>
       <c r="N149" t="s">
         <v>161</v>
@@ -6600,37 +6600,37 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B150">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C150">
-        <v>1.617</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>1.987</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>2.045</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>2.805</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>2.913</v>
+        <v>0.011</v>
       </c>
       <c r="H150">
-        <v>1.292</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>0.973</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>1.847</v>
+        <v>0.011</v>
       </c>
       <c r="K150">
-        <v>0.946</v>
+        <v>0.032</v>
       </c>
       <c r="N150" t="s">
         <v>162</v>
@@ -6638,37 +6638,37 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B151">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C151">
-        <v>2.119</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>2.444</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>2.789</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>2.985</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>3.181</v>
+        <v>0.011</v>
       </c>
       <c r="H151">
-        <v>1.476</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="J151">
-        <v>2.22</v>
+        <v>0.011</v>
       </c>
       <c r="K151">
-        <v>1.032</v>
+        <v>0.032</v>
       </c>
       <c r="N151" t="s">
         <v>163</v>
@@ -6676,37 +6676,37 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="2">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="B152">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C152">
-        <v>2.207</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>2.573</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>2.853</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>3.145</v>
+        <v>0.011</v>
       </c>
       <c r="H152">
-        <v>1.476</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1.129</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>2.088</v>
+        <v>0.011</v>
       </c>
       <c r="K152">
-        <v>1.095</v>
+        <v>0.032</v>
       </c>
       <c r="N152" t="s">
         <v>164</v>
@@ -6714,37 +6714,37 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B153">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>1.952</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>2.164</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>2.215</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>2.664</v>
+        <v>0.011</v>
       </c>
       <c r="H153">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>0.955</v>
+        <v>0</v>
       </c>
       <c r="J153">
-        <v>1.827</v>
+        <v>0</v>
       </c>
       <c r="K153">
-        <v>0.883</v>
+        <v>0.032</v>
       </c>
       <c r="N153" t="s">
         <v>165</v>
@@ -6752,37 +6752,37 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B154">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>1.669</v>
+        <v>0.018</v>
       </c>
       <c r="F154">
-        <v>1.127</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>2.115</v>
+        <v>0.011</v>
       </c>
       <c r="H154">
-        <v>0.871</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>0.708</v>
+        <v>0</v>
       </c>
       <c r="J154">
-        <v>1.883</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>0.8090000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="N154" t="s">
         <v>166</v>
@@ -6790,37 +6790,37 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B155">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C155">
-        <v>0.271</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>0.719</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>0.802</v>
+        <v>0.017</v>
       </c>
       <c r="F155">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>0.571</v>
+        <v>0.011</v>
       </c>
       <c r="H155">
-        <v>0.393</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>0.327</v>
+        <v>0</v>
       </c>
       <c r="J155">
-        <v>0.596</v>
+        <v>0</v>
       </c>
       <c r="K155">
-        <v>0.318</v>
+        <v>0.032</v>
       </c>
       <c r="N155" t="s">
         <v>167</v>
@@ -6828,37 +6828,37 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B156">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>0.19</v>
+        <v>0.017</v>
       </c>
       <c r="F156">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>0.065</v>
+        <v>0.011</v>
       </c>
       <c r="H156">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="J156">
-        <v>0.236</v>
+        <v>0.013</v>
       </c>
       <c r="K156">
-        <v>0.051</v>
+        <v>0.032</v>
       </c>
       <c r="N156" t="s">
         <v>168</v>
@@ -6866,10 +6866,10 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B157">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0.021</v>
+        <v>0.015</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -6893,10 +6893,10 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>0.059</v>
+        <v>0.013</v>
       </c>
       <c r="K157">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N157" t="s">
         <v>169</v>
@@ -6904,10 +6904,10 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B158">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -6931,10 +6931,10 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="K158">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N158" t="s">
         <v>170</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B159">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="K159">
         <v>0.032</v>
@@ -6980,10 +6980,10 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B160">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0.011</v>
+        <v>0.035</v>
       </c>
       <c r="K160">
         <v>0.032</v>
@@ -7018,10 +7018,10 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B161">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -7030,13 +7030,13 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>0.098</v>
       </c>
       <c r="G161">
-        <v>0.011</v>
+        <v>0.041</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -7045,10 +7045,10 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>0.011</v>
+        <v>0.156</v>
       </c>
       <c r="K161">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
       <c r="N161" t="s">
         <v>173</v>
@@ -7056,37 +7056,37 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B162">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>0.077</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E162">
-        <v>0.01</v>
+        <v>0.144</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>0.414</v>
       </c>
       <c r="G162">
-        <v>0.011</v>
+        <v>0.365</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>0.074</v>
       </c>
       <c r="J162">
-        <v>0.011</v>
+        <v>0.316</v>
       </c>
       <c r="K162">
-        <v>0.032</v>
+        <v>0.073</v>
       </c>
       <c r="N162" t="s">
         <v>174</v>
@@ -7094,37 +7094,37 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="2">
-        <v>45977</v>
+        <v>45982</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>0.247</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="E163">
-        <v>0.01</v>
+        <v>0.464</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1.178</v>
       </c>
       <c r="G163">
-        <v>0.011</v>
+        <v>0.703</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>0.663</v>
       </c>
       <c r="K163">
-        <v>0.032</v>
+        <v>0.298</v>
       </c>
       <c r="N163" t="s">
         <v>175</v>
@@ -7132,37 +7132,37 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="2">
-        <v>45977</v>
+        <v>45982</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>0.393</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="E164">
-        <v>0.012</v>
+        <v>0.794</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G164">
-        <v>0.011</v>
+        <v>1.286</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>0.634</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>0.348</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>1.023</v>
       </c>
       <c r="K164">
-        <v>0.032</v>
+        <v>0.461</v>
       </c>
       <c r="N164" t="s">
         <v>176</v>
@@ -7170,37 +7170,37 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="2">
-        <v>45977</v>
+        <v>45982</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>0.582</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>0.751</v>
       </c>
       <c r="E165">
-        <v>0.011</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1.478</v>
       </c>
       <c r="G165">
-        <v>0.011</v>
+        <v>1.874</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>0.728</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>0.465</v>
       </c>
       <c r="J165">
-        <v>0</v>
+        <v>1.163</v>
       </c>
       <c r="K165">
-        <v>0.032</v>
+        <v>0.578</v>
       </c>
       <c r="N165" t="s">
         <v>177</v>
@@ -7208,37 +7208,37 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="2">
-        <v>45977</v>
+        <v>45982</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>0.722</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>0.896</v>
       </c>
       <c r="E166">
-        <v>0.012</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="G166">
-        <v>0.011</v>
+        <v>1.608</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>0.761</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>0.465</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>1.162</v>
       </c>
       <c r="K166">
-        <v>0.032</v>
+        <v>0.601</v>
       </c>
       <c r="N166" t="s">
         <v>178</v>
@@ -7246,37 +7246,37 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="2">
-        <v>45977</v>
+        <v>45982</v>
       </c>
       <c r="B167">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>0.576</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="E167">
-        <v>0.019</v>
+        <v>0.788</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1.065</v>
       </c>
       <c r="G167">
-        <v>0.011</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>0.728</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>0.399</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>1.021</v>
       </c>
       <c r="K167">
-        <v>0.032</v>
+        <v>0.411</v>
       </c>
       <c r="N167" t="s">
         <v>179</v>
@@ -7284,37 +7284,37 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="2">
-        <v>45977</v>
+        <v>45982</v>
       </c>
       <c r="B168">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>0.329</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>0.511</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.623</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>0.633</v>
       </c>
       <c r="G168">
-        <v>0.011</v>
+        <v>0.536</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>0.277</v>
       </c>
       <c r="J168">
-        <v>0</v>
+        <v>0.704</v>
       </c>
       <c r="K168">
-        <v>0.032</v>
+        <v>0.319</v>
       </c>
       <c r="N168" t="s">
         <v>180</v>
@@ -7322,37 +7322,37 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="2">
-        <v>45977</v>
+        <v>45982</v>
       </c>
       <c r="B169">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>0.144</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>0.206</v>
       </c>
       <c r="G169">
-        <v>0.011</v>
+        <v>0.234</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>0.172</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>0.292</v>
       </c>
       <c r="K169">
-        <v>0.032</v>
+        <v>0.073</v>
       </c>
       <c r="N169" t="s">
         <v>181</v>
@@ -7360,37 +7360,37 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="2">
-        <v>45977</v>
+        <v>45982</v>
       </c>
       <c r="B170">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="E170">
-        <v>0.018</v>
+        <v>0.033</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="G170">
-        <v>0.011</v>
+        <v>0.031</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="I170">
         <v>0</v>
       </c>
       <c r="J170">
-        <v>0.036</v>
+        <v>0.165</v>
       </c>
       <c r="K170">
-        <v>0.032</v>
+        <v>0.026</v>
       </c>
       <c r="N170" t="s">
         <v>182</v>

--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -58,21 +58,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>14.11.202518</t>
-  </si>
-  <si>
-    <t>14.11.202519</t>
-  </si>
-  <si>
-    <t>14.11.202520</t>
-  </si>
-  <si>
-    <t>14.11.202521</t>
-  </si>
-  <si>
-    <t>14.11.202522</t>
-  </si>
-  <si>
     <t>14.11.202523</t>
   </si>
   <si>
@@ -563,6 +548,21 @@
   </si>
   <si>
     <t>21.11.202518</t>
+  </si>
+  <si>
+    <t>21.11.202519</t>
+  </si>
+  <si>
+    <t>21.11.202520</t>
+  </si>
+  <si>
+    <t>21.11.202521</t>
+  </si>
+  <si>
+    <t>21.11.202522</t>
+  </si>
+  <si>
+    <t>21.11.202523</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
         <v>45975</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.112</v>
+        <v>0.104</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0.037</v>
@@ -1017,7 +1017,7 @@
         <v>45975</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.106</v>
+        <v>0.104</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0.037</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45975</v>
+        <v>45976</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="N4" t="s">
         <v>16</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45975</v>
+        <v>45976</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.044</v>
+        <v>0.013</v>
       </c>
       <c r="K5">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="N5" t="s">
         <v>17</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45975</v>
+        <v>45976</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K6">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="N6" t="s">
         <v>18</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45975</v>
+        <v>45976</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K7">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="N7" t="s">
         <v>19</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45975</v>
+        <v>45976</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K8">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="N8" t="s">
         <v>20</v>
@@ -1245,7 +1245,7 @@
         <v>45976</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>45976</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.019</v>
+        <v>0.014</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>45976</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.013</v>
+        <v>0.04</v>
       </c>
       <c r="K11">
         <v>0.032</v>
@@ -1359,7 +1359,7 @@
         <v>45976</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1368,25 +1368,25 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.013</v>
+        <v>0.022</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G12">
-        <v>0.011</v>
+        <v>0.055</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="J12">
-        <v>0.013</v>
+        <v>0.184</v>
       </c>
       <c r="K12">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
       <c r="N12" t="s">
         <v>24</v>
@@ -1397,34 +1397,34 @@
         <v>45976</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.129</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.436</v>
       </c>
       <c r="G13">
-        <v>0.011</v>
+        <v>0.323</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="J13">
-        <v>0.013</v>
+        <v>0.316</v>
       </c>
       <c r="K13">
-        <v>0.032</v>
+        <v>0.203</v>
       </c>
       <c r="N13" t="s">
         <v>25</v>
@@ -1435,34 +1435,34 @@
         <v>45976</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.345</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.389</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.725</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.891</v>
       </c>
       <c r="G14">
-        <v>0.011</v>
+        <v>0.618</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.339</v>
       </c>
       <c r="J14">
-        <v>0.013</v>
+        <v>0.613</v>
       </c>
       <c r="K14">
-        <v>0.032</v>
+        <v>0.475</v>
       </c>
       <c r="N14" t="s">
         <v>26</v>
@@ -1473,34 +1473,34 @@
         <v>45976</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.751</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.749</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1.144</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1.189</v>
       </c>
       <c r="G15">
-        <v>0.011</v>
+        <v>0.605</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.534</v>
       </c>
       <c r="J15">
-        <v>0.013</v>
+        <v>0.868</v>
       </c>
       <c r="K15">
-        <v>0.032</v>
+        <v>0.909</v>
       </c>
       <c r="N15" t="s">
         <v>27</v>
@@ -1511,34 +1511,34 @@
         <v>45976</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.918</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1.531</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1.294</v>
       </c>
       <c r="G16">
-        <v>0.011</v>
+        <v>0.965</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="J16">
-        <v>0.04</v>
+        <v>1.993</v>
       </c>
       <c r="K16">
-        <v>0.032</v>
+        <v>0.963</v>
       </c>
       <c r="N16" t="s">
         <v>28</v>
@@ -1549,34 +1549,34 @@
         <v>45976</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.127</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1.057</v>
       </c>
       <c r="E17">
-        <v>0.021</v>
+        <v>1.523</v>
       </c>
       <c r="F17">
-        <v>0.113</v>
+        <v>1.333</v>
       </c>
       <c r="G17">
-        <v>0.07199999999999999</v>
+        <v>1.378</v>
       </c>
       <c r="H17">
-        <v>0.012</v>
+        <v>0.999</v>
       </c>
       <c r="I17">
-        <v>0.012</v>
+        <v>0.705</v>
       </c>
       <c r="J17">
-        <v>0.184</v>
+        <v>1.415</v>
       </c>
       <c r="K17">
-        <v>0.051</v>
+        <v>0.944</v>
       </c>
       <c r="N17" t="s">
         <v>29</v>
@@ -1587,34 +1587,34 @@
         <v>45976</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>0.116</v>
+        <v>1.184</v>
       </c>
       <c r="D18">
-        <v>0.13</v>
+        <v>1.054</v>
       </c>
       <c r="E18">
-        <v>0.241</v>
+        <v>1.447</v>
       </c>
       <c r="F18">
-        <v>0.493</v>
+        <v>1.117</v>
       </c>
       <c r="G18">
-        <v>0.441</v>
+        <v>0.65</v>
       </c>
       <c r="H18">
-        <v>0.145</v>
+        <v>0.847</v>
       </c>
       <c r="I18">
-        <v>0.112</v>
+        <v>0.68</v>
       </c>
       <c r="J18">
-        <v>0.316</v>
+        <v>1.442</v>
       </c>
       <c r="K18">
-        <v>0.183</v>
+        <v>0.925</v>
       </c>
       <c r="N18" t="s">
         <v>30</v>
@@ -1625,34 +1625,34 @@
         <v>45976</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>0.337</v>
+        <v>0.879</v>
       </c>
       <c r="D19">
-        <v>0.392</v>
+        <v>0.889</v>
       </c>
       <c r="E19">
-        <v>0.732</v>
+        <v>1.02</v>
       </c>
       <c r="F19">
-        <v>0.93</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="G19">
-        <v>0.617</v>
+        <v>0.451</v>
       </c>
       <c r="H19">
-        <v>0.318</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="I19">
-        <v>0.312</v>
+        <v>0.527</v>
       </c>
       <c r="J19">
-        <v>0.613</v>
+        <v>1.002</v>
       </c>
       <c r="K19">
-        <v>0.382</v>
+        <v>0.848</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -1663,34 +1663,34 @@
         <v>45976</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>0.612</v>
+        <v>0.26</v>
       </c>
       <c r="D20">
-        <v>0.751</v>
+        <v>0.388</v>
       </c>
       <c r="E20">
-        <v>1.066</v>
+        <v>0.591</v>
       </c>
       <c r="F20">
-        <v>1.17</v>
+        <v>0.254</v>
       </c>
       <c r="G20">
-        <v>0.741</v>
+        <v>0.41</v>
       </c>
       <c r="H20">
-        <v>0.66</v>
+        <v>0.302</v>
       </c>
       <c r="I20">
-        <v>0.486</v>
+        <v>0.2</v>
       </c>
       <c r="J20">
-        <v>0.912</v>
+        <v>0.635</v>
       </c>
       <c r="K20">
-        <v>0.639</v>
+        <v>0.321</v>
       </c>
       <c r="N20" t="s">
         <v>32</v>
@@ -1701,34 +1701,34 @@
         <v>45976</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>0.872</v>
+        <v>0.032</v>
       </c>
       <c r="D21">
-        <v>0.945</v>
+        <v>0.048</v>
       </c>
       <c r="E21">
-        <v>1.494</v>
+        <v>0.113</v>
       </c>
       <c r="F21">
-        <v>1.387</v>
+        <v>0.042</v>
       </c>
       <c r="G21">
-        <v>1.468</v>
+        <v>0.064</v>
       </c>
       <c r="H21">
-        <v>0.75</v>
+        <v>0.053</v>
       </c>
       <c r="I21">
-        <v>0.669</v>
+        <v>0.025</v>
       </c>
       <c r="J21">
-        <v>1.098</v>
+        <v>0.236</v>
       </c>
       <c r="K21">
-        <v>0.925</v>
+        <v>0.045</v>
       </c>
       <c r="N21" t="s">
         <v>33</v>
@@ -1739,34 +1739,34 @@
         <v>45976</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>1.028</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1.242</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1.564</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.395</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1.553</v>
+        <v>0.011</v>
       </c>
       <c r="H22">
-        <v>0.781</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.669</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.278</v>
+        <v>0.059</v>
       </c>
       <c r="K22">
-        <v>0.9389999999999999</v>
+        <v>0.031</v>
       </c>
       <c r="N22" t="s">
         <v>34</v>
@@ -1777,34 +1777,34 @@
         <v>45976</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>1.051</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1.289</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1.442</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.386</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1.821</v>
+        <v>0.011</v>
       </c>
       <c r="H23">
-        <v>0.783</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.541</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.092</v>
+        <v>0.044</v>
       </c>
       <c r="K23">
-        <v>0.925</v>
+        <v>0.031</v>
       </c>
       <c r="N23" t="s">
         <v>35</v>
@@ -1815,34 +1815,34 @@
         <v>45976</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>0.853</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.922</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1.019</v>
+        <v>0.01</v>
       </c>
       <c r="F24">
-        <v>0.975</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.598</v>
+        <v>0.011</v>
       </c>
       <c r="H24">
-        <v>0.676</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.469</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9429999999999999</v>
+        <v>0.044</v>
       </c>
       <c r="K24">
-        <v>0.784</v>
+        <v>0.031</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -1853,34 +1853,34 @@
         <v>45976</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>0.265</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.412</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.587</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.296</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.425</v>
+        <v>0.011</v>
       </c>
       <c r="H25">
-        <v>0.276</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.526</v>
+        <v>0.011</v>
       </c>
       <c r="K25">
-        <v>0.303</v>
+        <v>0.031</v>
       </c>
       <c r="N25" t="s">
         <v>37</v>
@@ -1891,34 +1891,34 @@
         <v>45976</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.106</v>
+        <v>0.026</v>
       </c>
       <c r="F26">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.065</v>
+        <v>0.011</v>
       </c>
       <c r="H26">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.415</v>
+        <v>0.011</v>
       </c>
       <c r="K26">
-        <v>0.045</v>
+        <v>0.031</v>
       </c>
       <c r="N26" t="s">
         <v>38</v>
@@ -1929,7 +1929,7 @@
         <v>45976</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.01</v>
+        <v>0.028</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.059</v>
+        <v>0.011</v>
       </c>
       <c r="K27">
         <v>0.031</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45976</v>
+        <v>45977</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0.027</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.044</v>
+        <v>0.013</v>
       </c>
       <c r="K28">
         <v>0.032</v>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45976</v>
+        <v>45977</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.01</v>
+        <v>0.027</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.044</v>
+        <v>0.013</v>
       </c>
       <c r="K29">
         <v>0.032</v>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45976</v>
+        <v>45977</v>
       </c>
       <c r="B30">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.011</v>
+        <v>0.03</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K30">
         <v>0.032</v>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45976</v>
+        <v>45977</v>
       </c>
       <c r="B31">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.021</v>
+        <v>0.027</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K31">
         <v>0.032</v>
@@ -2116,10 +2116,10 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45976</v>
+        <v>45977</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K32">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="N32" t="s">
         <v>44</v>
@@ -2157,7 +2157,7 @@
         <v>45977</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>0.013</v>
       </c>
       <c r="K33">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N33" t="s">
         <v>45</v>
@@ -2195,7 +2195,7 @@
         <v>45977</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0.013</v>
       </c>
       <c r="K34">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N34" t="s">
         <v>46</v>
@@ -2233,7 +2233,7 @@
         <v>45977</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.013</v>
+        <v>0.04</v>
       </c>
       <c r="K35">
         <v>0.032</v>
@@ -2271,7 +2271,7 @@
         <v>45977</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2280,25 +2280,25 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.026</v>
+        <v>0.043</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.082</v>
       </c>
       <c r="G36">
-        <v>0.011</v>
+        <v>0.055</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="J36">
-        <v>0.013</v>
+        <v>0.447</v>
       </c>
       <c r="K36">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
       <c r="N36" t="s">
         <v>48</v>
@@ -2309,34 +2309,34 @@
         <v>45977</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.076</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="E37">
-        <v>0.022</v>
+        <v>0.407</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.407</v>
       </c>
       <c r="G37">
-        <v>0.011</v>
+        <v>0.319</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="J37">
-        <v>0.013</v>
+        <v>0.436</v>
       </c>
       <c r="K37">
-        <v>0.032</v>
+        <v>0.189</v>
       </c>
       <c r="N37" t="s">
         <v>49</v>
@@ -2347,34 +2347,34 @@
         <v>45977</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="E38">
-        <v>0.028</v>
+        <v>0.948</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.733</v>
       </c>
       <c r="G38">
-        <v>0.011</v>
+        <v>0.463</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="J38">
-        <v>0.013</v>
+        <v>1.049</v>
       </c>
       <c r="K38">
-        <v>0.032</v>
+        <v>0.461</v>
       </c>
       <c r="N38" t="s">
         <v>50</v>
@@ -2385,34 +2385,34 @@
         <v>45977</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.376</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.496</v>
       </c>
       <c r="E39">
-        <v>0.021</v>
+        <v>1.646</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="G39">
-        <v>0.011</v>
+        <v>0.583</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>0.671</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>0.671</v>
       </c>
       <c r="J39">
-        <v>0.013</v>
+        <v>1.055</v>
       </c>
       <c r="K39">
-        <v>0.014</v>
+        <v>0.906</v>
       </c>
       <c r="N39" t="s">
         <v>51</v>
@@ -2423,34 +2423,34 @@
         <v>45977</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.442</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.672</v>
       </c>
       <c r="E40">
-        <v>0.011</v>
+        <v>1.99</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1.184</v>
       </c>
       <c r="G40">
-        <v>0.011</v>
+        <v>0.622</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.795</v>
       </c>
       <c r="J40">
-        <v>0.04</v>
+        <v>1.993</v>
       </c>
       <c r="K40">
-        <v>0.014</v>
+        <v>0.871</v>
       </c>
       <c r="N40" t="s">
         <v>52</v>
@@ -2461,34 +2461,34 @@
         <v>45977</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.454</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.665</v>
       </c>
       <c r="E41">
-        <v>0.043</v>
+        <v>2.181</v>
       </c>
       <c r="F41">
-        <v>0.09</v>
+        <v>1.113</v>
       </c>
       <c r="G41">
-        <v>0.055</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H41">
-        <v>0.016</v>
+        <v>0.847</v>
       </c>
       <c r="I41">
-        <v>0.021</v>
+        <v>0.753</v>
       </c>
       <c r="J41">
-        <v>0.306</v>
+        <v>1.535</v>
       </c>
       <c r="K41">
-        <v>0.038</v>
+        <v>0.83</v>
       </c>
       <c r="N41" t="s">
         <v>53</v>
@@ -2499,34 +2499,34 @@
         <v>45977</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>0.092</v>
+        <v>0.398</v>
       </c>
       <c r="D42">
-        <v>0.11</v>
+        <v>0.513</v>
       </c>
       <c r="E42">
-        <v>0.469</v>
+        <v>1.98</v>
       </c>
       <c r="F42">
-        <v>0.505</v>
+        <v>0.968</v>
       </c>
       <c r="G42">
-        <v>0.404</v>
+        <v>0.483</v>
       </c>
       <c r="H42">
-        <v>0.172</v>
+        <v>0.792</v>
       </c>
       <c r="I42">
-        <v>0.188</v>
+        <v>0.662</v>
       </c>
       <c r="J42">
-        <v>0.329</v>
+        <v>1.258</v>
       </c>
       <c r="K42">
-        <v>0.075</v>
+        <v>0.58</v>
       </c>
       <c r="N42" t="s">
         <v>54</v>
@@ -2537,34 +2537,34 @@
         <v>45977</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C43">
-        <v>0.31</v>
+        <v>0.218</v>
       </c>
       <c r="D43">
-        <v>0.391</v>
+        <v>0.364</v>
       </c>
       <c r="E43">
-        <v>1.185</v>
+        <v>1.525</v>
       </c>
       <c r="F43">
-        <v>0.9409999999999999</v>
+        <v>0.711</v>
       </c>
       <c r="G43">
-        <v>0.6879999999999999</v>
+        <v>0.602</v>
       </c>
       <c r="H43">
-        <v>0.41</v>
+        <v>0.64</v>
       </c>
       <c r="I43">
-        <v>0.492</v>
+        <v>0.455</v>
       </c>
       <c r="J43">
-        <v>0.878</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="K43">
-        <v>0.347</v>
+        <v>0.436</v>
       </c>
       <c r="N43" t="s">
         <v>55</v>
@@ -2575,34 +2575,34 @@
         <v>45977</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C44">
-        <v>0.433</v>
+        <v>0.095</v>
       </c>
       <c r="D44">
-        <v>0.645</v>
+        <v>0.134</v>
       </c>
       <c r="E44">
-        <v>1.615</v>
+        <v>0.646</v>
       </c>
       <c r="F44">
-        <v>1.16</v>
+        <v>0.226</v>
       </c>
       <c r="G44">
-        <v>0.709</v>
+        <v>0.342</v>
       </c>
       <c r="H44">
-        <v>0.696</v>
+        <v>0.221</v>
       </c>
       <c r="I44">
-        <v>0.669</v>
+        <v>0.146</v>
       </c>
       <c r="J44">
-        <v>1.102</v>
+        <v>0.476</v>
       </c>
       <c r="K44">
-        <v>0.603</v>
+        <v>0.204</v>
       </c>
       <c r="N44" t="s">
         <v>56</v>
@@ -2613,34 +2613,34 @@
         <v>45977</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C45">
-        <v>0.57</v>
+        <v>0.014</v>
       </c>
       <c r="D45">
-        <v>0.837</v>
+        <v>0.023</v>
       </c>
       <c r="E45">
-        <v>1.942</v>
+        <v>0.121</v>
       </c>
       <c r="F45">
-        <v>1.388</v>
+        <v>0.028</v>
       </c>
       <c r="G45">
-        <v>1.467</v>
+        <v>0.045</v>
       </c>
       <c r="H45">
-        <v>0.764</v>
+        <v>0.041</v>
       </c>
       <c r="I45">
-        <v>0.753</v>
+        <v>0.015</v>
       </c>
       <c r="J45">
-        <v>1.52</v>
+        <v>0.415</v>
       </c>
       <c r="K45">
-        <v>0.895</v>
+        <v>0.051</v>
       </c>
       <c r="N45" t="s">
         <v>57</v>
@@ -2651,34 +2651,34 @@
         <v>45977</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C46">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0.879</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>2.203</v>
+        <v>0.011</v>
       </c>
       <c r="F46">
-        <v>1.604</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1.824</v>
+        <v>0.011</v>
       </c>
       <c r="H46">
-        <v>0.957</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0.753</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1.334</v>
+        <v>0.064</v>
       </c>
       <c r="K46">
-        <v>0.905</v>
+        <v>0.037</v>
       </c>
       <c r="N46" t="s">
         <v>58</v>
@@ -2689,34 +2689,34 @@
         <v>45977</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>0.404</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>1.982</v>
+        <v>0.011</v>
       </c>
       <c r="F47">
-        <v>1.182</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.66</v>
+        <v>0.011</v>
       </c>
       <c r="H47">
-        <v>0.792</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0.535</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0.999</v>
+        <v>0.048</v>
       </c>
       <c r="K47">
-        <v>0.662</v>
+        <v>0.037</v>
       </c>
       <c r="N47" t="s">
         <v>59</v>
@@ -2727,34 +2727,34 @@
         <v>45977</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C48">
-        <v>0.191</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>1.525</v>
+        <v>0.011</v>
       </c>
       <c r="F48">
-        <v>0.758</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.639</v>
+        <v>0.011</v>
       </c>
       <c r="H48">
-        <v>0.629</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0.428</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0.963</v>
+        <v>0.048</v>
       </c>
       <c r="K48">
-        <v>0.431</v>
+        <v>0.031</v>
       </c>
       <c r="N48" t="s">
         <v>60</v>
@@ -2765,34 +2765,34 @@
         <v>45977</v>
       </c>
       <c r="B49">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C49">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.66</v>
+        <v>0.011</v>
       </c>
       <c r="F49">
-        <v>0.226</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0.35</v>
+        <v>0.011</v>
       </c>
       <c r="H49">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0.476</v>
+        <v>0.016</v>
       </c>
       <c r="K49">
-        <v>0.188</v>
+        <v>0.013</v>
       </c>
       <c r="N49" t="s">
         <v>61</v>
@@ -2803,34 +2803,34 @@
         <v>45977</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0.133</v>
+        <v>0.011</v>
       </c>
       <c r="F50">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0.045</v>
+        <v>0.011</v>
       </c>
       <c r="H50">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0.415</v>
+        <v>0.016</v>
       </c>
       <c r="K50">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="N50" t="s">
         <v>62</v>
@@ -2841,7 +2841,7 @@
         <v>45977</v>
       </c>
       <c r="B51">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2865,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.064</v>
+        <v>0.016</v>
       </c>
       <c r="K51">
-        <v>0.019</v>
+        <v>0.013</v>
       </c>
       <c r="N51" t="s">
         <v>63</v>
@@ -2876,10 +2876,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B52">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0.048</v>
+        <v>0.013</v>
       </c>
       <c r="K52">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N52" t="s">
         <v>64</v>
@@ -2914,10 +2914,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B53">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2941,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0.048</v>
+        <v>0.013</v>
       </c>
       <c r="K53">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N53" t="s">
         <v>65</v>
@@ -2952,10 +2952,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B54">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K54">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="N54" t="s">
         <v>66</v>
@@ -2990,10 +2990,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B55">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K55">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="N55" t="s">
         <v>67</v>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B56">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3055,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K56">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="N56" t="s">
         <v>68</v>
@@ -3069,7 +3069,7 @@
         <v>45978</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0.013</v>
       </c>
       <c r="K57">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="N57" t="s">
         <v>69</v>
@@ -3107,7 +3107,7 @@
         <v>45978</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.011</v>
+        <v>0.017</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>0.013</v>
       </c>
       <c r="K58">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="N58" t="s">
         <v>70</v>
@@ -3145,7 +3145,7 @@
         <v>45978</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.01</v>
+        <v>0.017</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3169,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.013</v>
+        <v>0.04</v>
       </c>
       <c r="K59">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="N59" t="s">
         <v>71</v>
@@ -3183,7 +3183,7 @@
         <v>45978</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3192,25 +3192,25 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="G60">
-        <v>0.011</v>
+        <v>0.081</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="J60">
-        <v>0.013</v>
+        <v>0.447</v>
       </c>
       <c r="K60">
-        <v>0.014</v>
+        <v>0.051</v>
       </c>
       <c r="N60" t="s">
         <v>72</v>
@@ -3221,34 +3221,34 @@
         <v>45978</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.117</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E61">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.613</v>
       </c>
       <c r="G61">
-        <v>0.011</v>
+        <v>0.431</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>0.293</v>
       </c>
       <c r="J61">
-        <v>0.013</v>
+        <v>0.549</v>
       </c>
       <c r="K61">
-        <v>0.032</v>
+        <v>0.152</v>
       </c>
       <c r="N61" t="s">
         <v>73</v>
@@ -3259,34 +3259,34 @@
         <v>45978</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.385</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.409</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1.357</v>
       </c>
       <c r="G62">
-        <v>0.011</v>
+        <v>0.67</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>0.674</v>
       </c>
       <c r="J62">
-        <v>0.013</v>
+        <v>1.026</v>
       </c>
       <c r="K62">
-        <v>0.032</v>
+        <v>0.407</v>
       </c>
       <c r="N62" t="s">
         <v>74</v>
@@ -3297,34 +3297,34 @@
         <v>45978</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>0.775</v>
       </c>
       <c r="E63">
-        <v>0.017</v>
+        <v>1.544</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1.597</v>
       </c>
       <c r="G63">
-        <v>0.011</v>
+        <v>2.284</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="J63">
-        <v>0.013</v>
+        <v>1.614</v>
       </c>
       <c r="K63">
-        <v>0.032</v>
+        <v>0.793</v>
       </c>
       <c r="N63" t="s">
         <v>75</v>
@@ -3335,34 +3335,34 @@
         <v>45978</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>0.882</v>
       </c>
       <c r="E64">
-        <v>0.017</v>
+        <v>1.542</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>2.138</v>
       </c>
       <c r="G64">
-        <v>0.011</v>
+        <v>2.325</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1.061</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>0.832</v>
       </c>
       <c r="J64">
-        <v>0.04</v>
+        <v>1.839</v>
       </c>
       <c r="K64">
-        <v>0.032</v>
+        <v>0.905</v>
       </c>
       <c r="N64" t="s">
         <v>76</v>
@@ -3373,34 +3373,34 @@
         <v>45978</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.795</v>
       </c>
       <c r="E65">
-        <v>0.041</v>
+        <v>1.587</v>
       </c>
       <c r="F65">
-        <v>0.141</v>
+        <v>2.023</v>
       </c>
       <c r="G65">
-        <v>0.081</v>
+        <v>2.283</v>
       </c>
       <c r="H65">
-        <v>0.03</v>
+        <v>0.999</v>
       </c>
       <c r="I65">
-        <v>0.025</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="J65">
-        <v>0.447</v>
+        <v>1.683</v>
       </c>
       <c r="K65">
-        <v>0.051</v>
+        <v>0.93</v>
       </c>
       <c r="N65" t="s">
         <v>77</v>
@@ -3411,34 +3411,34 @@
         <v>45978</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>0.111</v>
+        <v>0.59</v>
       </c>
       <c r="D66">
-        <v>0.114</v>
+        <v>0.607</v>
       </c>
       <c r="E66">
-        <v>0.311</v>
+        <v>1.165</v>
       </c>
       <c r="F66">
-        <v>0.605</v>
+        <v>1.317</v>
       </c>
       <c r="G66">
-        <v>0.423</v>
+        <v>1.987</v>
       </c>
       <c r="H66">
-        <v>0.221</v>
+        <v>0.76</v>
       </c>
       <c r="I66">
-        <v>0.27</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J66">
-        <v>0.549</v>
+        <v>1.388</v>
       </c>
       <c r="K66">
-        <v>0.152</v>
+        <v>0.834</v>
       </c>
       <c r="N66" t="s">
         <v>78</v>
@@ -3449,34 +3449,34 @@
         <v>45978</v>
       </c>
       <c r="B67">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="D67">
-        <v>0.409</v>
+        <v>0.343</v>
       </c>
       <c r="E67">
-        <v>0.826</v>
+        <v>0.752</v>
       </c>
       <c r="F67">
-        <v>1.366</v>
+        <v>0.707</v>
       </c>
       <c r="G67">
-        <v>0.679</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H67">
-        <v>0.753</v>
+        <v>0.41</v>
       </c>
       <c r="I67">
-        <v>0.541</v>
+        <v>0.492</v>
       </c>
       <c r="J67">
-        <v>1.026</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="K67">
-        <v>0.382</v>
+        <v>0.405</v>
       </c>
       <c r="N67" t="s">
         <v>79</v>
@@ -3487,34 +3487,34 @@
         <v>45978</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68">
-        <v>0.773</v>
+        <v>0.102</v>
       </c>
       <c r="D68">
-        <v>0.771</v>
+        <v>0.106</v>
       </c>
       <c r="E68">
-        <v>1.388</v>
+        <v>0.296</v>
       </c>
       <c r="F68">
-        <v>1.545</v>
+        <v>0.184</v>
       </c>
       <c r="G68">
-        <v>2.271</v>
+        <v>0.245</v>
       </c>
       <c r="H68">
-        <v>0.999</v>
+        <v>0.203</v>
       </c>
       <c r="I68">
-        <v>0.863</v>
+        <v>0.146</v>
       </c>
       <c r="J68">
-        <v>1.524</v>
+        <v>0.471</v>
       </c>
       <c r="K68">
-        <v>0.662</v>
+        <v>0.188</v>
       </c>
       <c r="N68" t="s">
         <v>80</v>
@@ -3525,34 +3525,34 @@
         <v>45978</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C69">
-        <v>0.924</v>
+        <v>0.012</v>
       </c>
       <c r="D69">
-        <v>0.882</v>
+        <v>0.01</v>
       </c>
       <c r="E69">
-        <v>1.634</v>
+        <v>0.043</v>
       </c>
       <c r="F69">
-        <v>2.154</v>
+        <v>0.019</v>
       </c>
       <c r="G69">
-        <v>2.362</v>
+        <v>0.03</v>
       </c>
       <c r="H69">
-        <v>1.061</v>
+        <v>0.03</v>
       </c>
       <c r="I69">
-        <v>0.881</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1.839</v>
+        <v>0.415</v>
       </c>
       <c r="K69">
-        <v>0.895</v>
+        <v>0.032</v>
       </c>
       <c r="N69" t="s">
         <v>81</v>
@@ -3563,34 +3563,34 @@
         <v>45978</v>
       </c>
       <c r="B70">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C70">
-        <v>0.829</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0.791</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>2.038</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>2.358</v>
+        <v>0.011</v>
       </c>
       <c r="H70">
-        <v>1.003</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0.8090000000000001</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>1.826</v>
+        <v>0.064</v>
       </c>
       <c r="K70">
-        <v>0.905</v>
+        <v>0.019</v>
       </c>
       <c r="N70" t="s">
         <v>82</v>
@@ -3601,34 +3601,34 @@
         <v>45978</v>
       </c>
       <c r="B71">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C71">
-        <v>0.617</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0.605</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>1.018</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.305</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>2.193</v>
+        <v>0.011</v>
       </c>
       <c r="H71">
-        <v>0.792</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>1.438</v>
+        <v>0.068</v>
       </c>
       <c r="K71">
-        <v>0.628</v>
+        <v>0.013</v>
       </c>
       <c r="N71" t="s">
         <v>83</v>
@@ -3639,34 +3639,34 @@
         <v>45978</v>
       </c>
       <c r="B72">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C72">
-        <v>0.388</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>0.341</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0.698</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.6860000000000001</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.493</v>
+        <v>0.011</v>
       </c>
       <c r="H72">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0.492</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0.972</v>
+        <v>0.068</v>
       </c>
       <c r="K72">
-        <v>0.415</v>
+        <v>0.013</v>
       </c>
       <c r="N72" t="s">
         <v>84</v>
@@ -3677,34 +3677,34 @@
         <v>45978</v>
       </c>
       <c r="B73">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C73">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>0.276</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0.287</v>
+        <v>0.011</v>
       </c>
       <c r="H73">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>0.531</v>
+        <v>0.016</v>
       </c>
       <c r="K73">
-        <v>0.188</v>
+        <v>0.013</v>
       </c>
       <c r="N73" t="s">
         <v>85</v>
@@ -3715,34 +3715,34 @@
         <v>45978</v>
       </c>
       <c r="B74">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C74">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.032</v>
+        <v>0.011</v>
       </c>
       <c r="H74">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0.424</v>
+        <v>0.011</v>
       </c>
       <c r="K74">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="N74" t="s">
         <v>86</v>
@@ -3753,7 +3753,7 @@
         <v>45978</v>
       </c>
       <c r="B75">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.064</v>
+        <v>0.011</v>
       </c>
       <c r="K75">
         <v>0.013</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B76">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3815,10 +3815,10 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0.068</v>
+        <v>0.013</v>
       </c>
       <c r="K76">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N76" t="s">
         <v>88</v>
@@ -3826,10 +3826,10 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B77">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.068</v>
+        <v>0.013</v>
       </c>
       <c r="K77">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N77" t="s">
         <v>89</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B78">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3891,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K78">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N78" t="s">
         <v>90</v>
@@ -3902,10 +3902,10 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B79">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3929,10 +3929,10 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K79">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N79" t="s">
         <v>91</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B80">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3967,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K80">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N80" t="s">
         <v>92</v>
@@ -3981,7 +3981,7 @@
         <v>45979</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>45979</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>45979</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.013</v>
+        <v>0.04</v>
       </c>
       <c r="K83">
         <v>0.014</v>
@@ -4095,7 +4095,7 @@
         <v>45979</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.083</v>
       </c>
       <c r="G84">
-        <v>0.011</v>
+        <v>0.041</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.013</v>
+        <v>0.156</v>
       </c>
       <c r="K84">
-        <v>0.014</v>
+        <v>0.038</v>
       </c>
       <c r="N84" t="s">
         <v>96</v>
@@ -4133,34 +4133,34 @@
         <v>45979</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.424</v>
       </c>
       <c r="G85">
-        <v>0.011</v>
+        <v>0.336</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="J85">
-        <v>0.013</v>
+        <v>0.305</v>
       </c>
       <c r="K85">
-        <v>0.014</v>
+        <v>0.046</v>
       </c>
       <c r="N85" t="s">
         <v>97</v>
@@ -4171,34 +4171,34 @@
         <v>45979</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.414</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1.005</v>
       </c>
       <c r="G86">
-        <v>0.011</v>
+        <v>0.67</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>0.306</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>0.365</v>
       </c>
       <c r="J86">
-        <v>0.013</v>
+        <v>0.67</v>
       </c>
       <c r="K86">
-        <v>0.014</v>
+        <v>0.205</v>
       </c>
       <c r="N86" t="s">
         <v>98</v>
@@ -4209,34 +4209,34 @@
         <v>45979</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.292</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>0.435</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.639</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1.216</v>
       </c>
       <c r="G87">
-        <v>0.011</v>
+        <v>0.913</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>0.657</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>0.541</v>
       </c>
       <c r="J87">
-        <v>0.013</v>
+        <v>1.026</v>
       </c>
       <c r="K87">
-        <v>0.014</v>
+        <v>0.347</v>
       </c>
       <c r="N87" t="s">
         <v>99</v>
@@ -4247,34 +4247,34 @@
         <v>45979</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>0.547</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.775</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="G88">
-        <v>0.011</v>
+        <v>1.298</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>0.755</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>0.669</v>
       </c>
       <c r="J88">
-        <v>0.04</v>
+        <v>1.23</v>
       </c>
       <c r="K88">
-        <v>0.014</v>
+        <v>0.347</v>
       </c>
       <c r="N88" t="s">
         <v>100</v>
@@ -4285,34 +4285,34 @@
         <v>45979</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>0.397</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>0.465</v>
       </c>
       <c r="E89">
-        <v>0.023</v>
+        <v>0.777</v>
       </c>
       <c r="F89">
-        <v>0.075</v>
+        <v>1.129</v>
       </c>
       <c r="G89">
-        <v>0.039</v>
+        <v>0.765</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>0.783</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>0.669</v>
       </c>
       <c r="J89">
-        <v>0.156</v>
+        <v>1.076</v>
       </c>
       <c r="K89">
-        <v>0.038</v>
+        <v>0.347</v>
       </c>
       <c r="N89" t="s">
         <v>101</v>
@@ -4323,34 +4323,34 @@
         <v>45979</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>0.057</v>
+        <v>0.305</v>
       </c>
       <c r="D90">
-        <v>0.07199999999999999</v>
+        <v>0.326</v>
       </c>
       <c r="E90">
-        <v>0.148</v>
+        <v>0.635</v>
       </c>
       <c r="F90">
-        <v>0.423</v>
+        <v>0.872</v>
       </c>
       <c r="G90">
-        <v>0.327</v>
+        <v>0.533</v>
       </c>
       <c r="H90">
-        <v>0.106</v>
+        <v>0.744</v>
       </c>
       <c r="I90">
-        <v>0.095</v>
+        <v>0.486</v>
       </c>
       <c r="J90">
-        <v>0.305</v>
+        <v>0.988</v>
       </c>
       <c r="K90">
-        <v>0.046</v>
+        <v>0.264</v>
       </c>
       <c r="N90" t="s">
         <v>102</v>
@@ -4361,34 +4361,34 @@
         <v>45979</v>
       </c>
       <c r="B91">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C91">
-        <v>0.208</v>
+        <v>0.158</v>
       </c>
       <c r="D91">
-        <v>0.257</v>
+        <v>0.196</v>
       </c>
       <c r="E91">
-        <v>0.414</v>
+        <v>0.374</v>
       </c>
       <c r="F91">
-        <v>0.958</v>
+        <v>0.504</v>
       </c>
       <c r="G91">
-        <v>0.649</v>
+        <v>0.459</v>
       </c>
       <c r="H91">
-        <v>0.306</v>
+        <v>0.38</v>
       </c>
       <c r="I91">
-        <v>0.346</v>
+        <v>0.313</v>
       </c>
       <c r="J91">
-        <v>0.652</v>
+        <v>0.543</v>
       </c>
       <c r="K91">
-        <v>0.205</v>
+        <v>0.177</v>
       </c>
       <c r="N91" t="s">
         <v>103</v>
@@ -4399,34 +4399,34 @@
         <v>45979</v>
       </c>
       <c r="B92">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C92">
-        <v>0.353</v>
+        <v>0.058</v>
       </c>
       <c r="D92">
-        <v>0.472</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="E92">
-        <v>0.642</v>
+        <v>0.15</v>
       </c>
       <c r="F92">
-        <v>1.272</v>
+        <v>0.164</v>
       </c>
       <c r="G92">
-        <v>0.926</v>
+        <v>0.23</v>
       </c>
       <c r="H92">
-        <v>0.667</v>
+        <v>0.145</v>
       </c>
       <c r="I92">
-        <v>0.532</v>
+        <v>0.095</v>
       </c>
       <c r="J92">
-        <v>1.03</v>
+        <v>0.286</v>
       </c>
       <c r="K92">
-        <v>0.298</v>
+        <v>0.041</v>
       </c>
       <c r="N92" t="s">
         <v>104</v>
@@ -4437,34 +4437,34 @@
         <v>45979</v>
       </c>
       <c r="B93">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C93">
-        <v>0.486</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>0.578</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>0.784</v>
+        <v>0.033</v>
       </c>
       <c r="F93">
-        <v>1.373</v>
+        <v>0.016</v>
       </c>
       <c r="G93">
-        <v>1.732</v>
+        <v>0.03</v>
       </c>
       <c r="H93">
-        <v>0.761</v>
+        <v>0.016</v>
       </c>
       <c r="I93">
-        <v>0.669</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>1.038</v>
+        <v>0.157</v>
       </c>
       <c r="K93">
-        <v>0.347</v>
+        <v>0.026</v>
       </c>
       <c r="N93" t="s">
         <v>105</v>
@@ -4475,34 +4475,34 @@
         <v>45979</v>
       </c>
       <c r="B94">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C94">
-        <v>0.536</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>0.532</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>0.785</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>1.388</v>
+        <v>0.011</v>
       </c>
       <c r="H94">
-        <v>0.733</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0.669</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>0.994</v>
+        <v>0.064</v>
       </c>
       <c r="K94">
-        <v>0.347</v>
+        <v>0.013</v>
       </c>
       <c r="N94" t="s">
         <v>106</v>
@@ -4513,34 +4513,34 @@
         <v>45979</v>
       </c>
       <c r="B95">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C95">
-        <v>0.434</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0.397</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>0.655</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0.507</v>
+        <v>0.011</v>
       </c>
       <c r="H95">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0.482</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0.95</v>
+        <v>0.068</v>
       </c>
       <c r="K95">
-        <v>0.264</v>
+        <v>0.013</v>
       </c>
       <c r="N95" t="s">
         <v>107</v>
@@ -4551,34 +4551,34 @@
         <v>45979</v>
       </c>
       <c r="B96">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C96">
-        <v>0.224</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>0.396</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.519</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0.476</v>
+        <v>0.011</v>
       </c>
       <c r="H96">
-        <v>0.347</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0.313</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0.543</v>
+        <v>0.068</v>
       </c>
       <c r="K96">
-        <v>0.177</v>
+        <v>0.013</v>
       </c>
       <c r="N96" t="s">
         <v>108</v>
@@ -4589,34 +4589,34 @@
         <v>45979</v>
       </c>
       <c r="B97">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C97">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>0.089</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.166</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0.219</v>
+        <v>0.011</v>
       </c>
       <c r="H97">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0.286</v>
+        <v>0.016</v>
       </c>
       <c r="K97">
-        <v>0.041</v>
+        <v>0.013</v>
       </c>
       <c r="N97" t="s">
         <v>109</v>
@@ -4627,7 +4627,7 @@
         <v>45979</v>
       </c>
       <c r="B98">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4636,25 +4636,25 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>0.026</v>
+        <v>0.011</v>
       </c>
       <c r="H98">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0.157</v>
+        <v>0.016</v>
       </c>
       <c r="K98">
-        <v>0.026</v>
+        <v>0.013</v>
       </c>
       <c r="N98" t="s">
         <v>110</v>
@@ -4665,7 +4665,7 @@
         <v>45979</v>
       </c>
       <c r="B99">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0.064</v>
+        <v>0.016</v>
       </c>
       <c r="K99">
         <v>0.013</v>
@@ -4700,10 +4700,10 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B100">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -4727,10 +4727,10 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0.068</v>
+        <v>0.013</v>
       </c>
       <c r="K100">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N100" t="s">
         <v>112</v>
@@ -4738,10 +4738,10 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B101">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4765,10 +4765,10 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0.068</v>
+        <v>0.013</v>
       </c>
       <c r="K101">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N101" t="s">
         <v>113</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="2">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B102">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -4803,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K102">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N102" t="s">
         <v>114</v>
@@ -4814,10 +4814,10 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="2">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B103">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -4841,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K103">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N103" t="s">
         <v>115</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="2">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B104">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4879,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K104">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="N104" t="s">
         <v>116</v>
@@ -4893,7 +4893,7 @@
         <v>45980</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>45980</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>45980</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0.013</v>
+        <v>0.04</v>
       </c>
       <c r="K107">
         <v>0.014</v>
@@ -5007,7 +5007,7 @@
         <v>45980</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -5016,13 +5016,13 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="G108">
-        <v>0.011</v>
+        <v>0.021</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.013</v>
+        <v>0.091</v>
       </c>
       <c r="K108">
-        <v>0.014</v>
+        <v>0.038</v>
       </c>
       <c r="N108" t="s">
         <v>120</v>
@@ -5045,34 +5045,34 @@
         <v>45980</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="G109">
-        <v>0.011</v>
+        <v>0.151</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="K109">
-        <v>0.014</v>
+        <v>0.046</v>
       </c>
       <c r="N109" t="s">
         <v>121</v>
@@ -5083,34 +5083,34 @@
         <v>45980</v>
       </c>
       <c r="B110">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>0.294</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.371</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>0.497</v>
       </c>
       <c r="G110">
-        <v>0.011</v>
+        <v>0.422</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>0.354</v>
       </c>
       <c r="K110">
-        <v>0.014</v>
+        <v>0.205</v>
       </c>
       <c r="N110" t="s">
         <v>122</v>
@@ -5121,34 +5121,34 @@
         <v>45980</v>
       </c>
       <c r="B111">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>0.464</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>0.483</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.627</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>0.678</v>
       </c>
       <c r="G111">
-        <v>0.011</v>
+        <v>0.59</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>0.302</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>0.184</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>0.409</v>
       </c>
       <c r="K111">
-        <v>0.014</v>
+        <v>0.347</v>
       </c>
       <c r="N111" t="s">
         <v>123</v>
@@ -5159,34 +5159,34 @@
         <v>45980</v>
       </c>
       <c r="B112">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>0.572</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.721</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>0.586</v>
       </c>
       <c r="G112">
-        <v>0.011</v>
+        <v>0.55</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>0.306</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="J112">
-        <v>0.035</v>
+        <v>0.404</v>
       </c>
       <c r="K112">
-        <v>0.014</v>
+        <v>0.347</v>
       </c>
       <c r="N112" t="s">
         <v>124</v>
@@ -5197,34 +5197,34 @@
         <v>45980</v>
       </c>
       <c r="B113">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>0.529</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>0.585</v>
       </c>
       <c r="E113">
-        <v>0.019</v>
+        <v>0.737</v>
       </c>
       <c r="F113">
-        <v>0.037</v>
+        <v>0.417</v>
       </c>
       <c r="G113">
-        <v>0.021</v>
+        <v>0.423</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="J113">
-        <v>0.242</v>
+        <v>0.403</v>
       </c>
       <c r="K113">
-        <v>0.038</v>
+        <v>0.369</v>
       </c>
       <c r="N113" t="s">
         <v>125</v>
@@ -5235,34 +5235,34 @@
         <v>45980</v>
       </c>
       <c r="B114">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C114">
-        <v>0.063</v>
+        <v>0.503</v>
       </c>
       <c r="D114">
-        <v>0.08500000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="E114">
-        <v>0.145</v>
+        <v>0.64</v>
       </c>
       <c r="F114">
-        <v>0.192</v>
+        <v>0.228</v>
       </c>
       <c r="G114">
-        <v>0.14</v>
+        <v>0.253</v>
       </c>
       <c r="H114">
-        <v>0.106</v>
+        <v>0.203</v>
       </c>
       <c r="I114">
-        <v>0.058</v>
+        <v>0.174</v>
       </c>
       <c r="J114">
-        <v>0.47</v>
+        <v>0.335</v>
       </c>
       <c r="K114">
-        <v>0.038</v>
+        <v>0.28</v>
       </c>
       <c r="N114" t="s">
         <v>126</v>
@@ -5273,34 +5273,34 @@
         <v>45980</v>
       </c>
       <c r="B115">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C115">
-        <v>0.228</v>
+        <v>0.287</v>
       </c>
       <c r="D115">
-        <v>0.314</v>
+        <v>0.337</v>
       </c>
       <c r="E115">
-        <v>0.446</v>
+        <v>0.451</v>
       </c>
       <c r="F115">
-        <v>0.442</v>
+        <v>0.148</v>
       </c>
       <c r="G115">
-        <v>0.354</v>
+        <v>0.162</v>
       </c>
       <c r="H115">
-        <v>0.203</v>
+        <v>0.145</v>
       </c>
       <c r="I115">
-        <v>0.132</v>
+        <v>0.115</v>
       </c>
       <c r="J115">
-        <v>0.305</v>
+        <v>0.287</v>
       </c>
       <c r="K115">
-        <v>0.189</v>
+        <v>0.193</v>
       </c>
       <c r="N115" t="s">
         <v>127</v>
@@ -5311,34 +5311,34 @@
         <v>45980</v>
       </c>
       <c r="B116">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C116">
-        <v>0.527</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D116">
-        <v>0.483</v>
+        <v>0.12</v>
       </c>
       <c r="E116">
-        <v>0.6860000000000001</v>
+        <v>0.212</v>
       </c>
       <c r="F116">
-        <v>0.609</v>
+        <v>0.066</v>
       </c>
       <c r="G116">
-        <v>0.515</v>
+        <v>0.095</v>
       </c>
       <c r="H116">
-        <v>0.302</v>
+        <v>0.079</v>
       </c>
       <c r="I116">
-        <v>0.169</v>
+        <v>0.058</v>
       </c>
       <c r="J116">
-        <v>0.404</v>
+        <v>0.246</v>
       </c>
       <c r="K116">
-        <v>0.298</v>
+        <v>0.041</v>
       </c>
       <c r="N116" t="s">
         <v>128</v>
@@ -5349,34 +5349,34 @@
         <v>45980</v>
       </c>
       <c r="B117">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C117">
-        <v>0.765</v>
+        <v>0.01</v>
       </c>
       <c r="D117">
-        <v>0.617</v>
+        <v>0.011</v>
       </c>
       <c r="E117">
-        <v>0.796</v>
+        <v>0.033</v>
       </c>
       <c r="F117">
-        <v>0.588</v>
+        <v>0.013</v>
       </c>
       <c r="G117">
-        <v>0.638</v>
+        <v>0.019</v>
       </c>
       <c r="H117">
-        <v>0.306</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>0.169</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>0.404</v>
+        <v>0.09</v>
       </c>
       <c r="K117">
-        <v>0.347</v>
+        <v>0.026</v>
       </c>
       <c r="N117" t="s">
         <v>129</v>
@@ -5387,34 +5387,34 @@
         <v>45980</v>
       </c>
       <c r="B118">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C118">
-        <v>0.794</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>0.711</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>0.793</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.489</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>0.471</v>
+        <v>0.011</v>
       </c>
       <c r="H118">
-        <v>0.268</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>0.169</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>0.403</v>
+        <v>0.038</v>
       </c>
       <c r="K118">
-        <v>0.36</v>
+        <v>0.013</v>
       </c>
       <c r="N118" t="s">
         <v>130</v>
@@ -5425,34 +5425,34 @@
         <v>45980</v>
       </c>
       <c r="B119">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C119">
-        <v>0.663</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>0.676</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>0.735</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.267</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>0.269</v>
+        <v>0.011</v>
       </c>
       <c r="H119">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>0.403</v>
+        <v>0.043</v>
       </c>
       <c r="K119">
-        <v>0.298</v>
+        <v>0.013</v>
       </c>
       <c r="N119" t="s">
         <v>131</v>
@@ -5463,34 +5463,34 @@
         <v>45980</v>
       </c>
       <c r="B120">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C120">
-        <v>0.291</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>0.364</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>0.548</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>0.173</v>
+        <v>0.011</v>
       </c>
       <c r="H120">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>0.292</v>
+        <v>0.043</v>
       </c>
       <c r="K120">
-        <v>0.211</v>
+        <v>0.013</v>
       </c>
       <c r="N120" t="s">
         <v>132</v>
@@ -5501,34 +5501,34 @@
         <v>45980</v>
       </c>
       <c r="B121">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C121">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>0.216</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>0.099</v>
+        <v>0.011</v>
       </c>
       <c r="H121">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>0.251</v>
+        <v>0.011</v>
       </c>
       <c r="K121">
-        <v>0.06</v>
+        <v>0.013</v>
       </c>
       <c r="N121" t="s">
         <v>133</v>
@@ -5539,22 +5539,22 @@
         <v>45980</v>
       </c>
       <c r="B122">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C122">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>0.016</v>
+        <v>0.011</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -5563,10 +5563,10 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0.095</v>
+        <v>0.011</v>
       </c>
       <c r="K122">
-        <v>0.045</v>
+        <v>0.013</v>
       </c>
       <c r="N122" t="s">
         <v>134</v>
@@ -5577,7 +5577,7 @@
         <v>45980</v>
       </c>
       <c r="B123">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5601,10 +5601,10 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0.043</v>
+        <v>0.011</v>
       </c>
       <c r="K123">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="N123" t="s">
         <v>135</v>
@@ -5612,10 +5612,10 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="2">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="B124">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -5639,10 +5639,10 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="K124">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="N124" t="s">
         <v>136</v>
@@ -5650,10 +5650,10 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="2">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="B125">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5677,10 +5677,10 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="N125" t="s">
         <v>137</v>
@@ -5688,10 +5688,10 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="2">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="B126">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5715,10 +5715,10 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="N126" t="s">
         <v>138</v>
@@ -5726,10 +5726,10 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="2">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="B127">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="N127" t="s">
         <v>139</v>
@@ -5764,10 +5764,10 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="2">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="B128">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -5791,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="K128">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="N128" t="s">
         <v>140</v>
@@ -5805,7 +5805,7 @@
         <v>45981</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -5829,10 +5829,10 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K129">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N129" t="s">
         <v>141</v>
@@ -5843,7 +5843,7 @@
         <v>45981</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5867,10 +5867,10 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N130" t="s">
         <v>142</v>
@@ -5881,7 +5881,7 @@
         <v>45981</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="K131">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N131" t="s">
         <v>143</v>
@@ -5919,7 +5919,7 @@
         <v>45981</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5928,25 +5928,25 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.103</v>
       </c>
       <c r="G132">
-        <v>0.011</v>
+        <v>0.041</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>0.438</v>
       </c>
       <c r="K132">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
       <c r="N132" t="s">
         <v>144</v>
@@ -5957,34 +5957,34 @@
         <v>45981</v>
       </c>
       <c r="B133">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>0.164</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>0.456</v>
       </c>
       <c r="G133">
-        <v>0.011</v>
+        <v>0.393</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>0.172</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>0.218</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>0.657</v>
       </c>
       <c r="K133">
-        <v>0.032</v>
+        <v>0.218</v>
       </c>
       <c r="N133" t="s">
         <v>145</v>
@@ -5995,34 +5995,34 @@
         <v>45981</v>
       </c>
       <c r="B134">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>0.448</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1.205</v>
       </c>
       <c r="G134">
-        <v>0.011</v>
+        <v>0.6</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>0.479</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>0.501</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1.073</v>
       </c>
       <c r="K134">
-        <v>0.032</v>
+        <v>0.574</v>
       </c>
       <c r="N134" t="s">
         <v>146</v>
@@ -6033,34 +6033,34 @@
         <v>45981</v>
       </c>
       <c r="B135">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>0.964</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1.124</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1.506</v>
       </c>
       <c r="G135">
-        <v>0.011</v>
+        <v>1.723</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>0.792</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>0.777</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="K135">
-        <v>0.032</v>
+        <v>0.916</v>
       </c>
       <c r="N135" t="s">
         <v>147</v>
@@ -6071,34 +6071,34 @@
         <v>45981</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1.308</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1.413</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1.351</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>2.005</v>
       </c>
       <c r="G136">
-        <v>0.011</v>
+        <v>2.135</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1.003</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>0.862</v>
       </c>
       <c r="J136">
-        <v>0.031</v>
+        <v>2.139</v>
       </c>
       <c r="K136">
-        <v>0.032</v>
+        <v>0.91</v>
       </c>
       <c r="N136" t="s">
         <v>148</v>
@@ -6109,34 +6109,34 @@
         <v>45981</v>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1.636</v>
       </c>
       <c r="E137">
-        <v>0.014</v>
+        <v>1.389</v>
       </c>
       <c r="F137">
-        <v>0.061</v>
+        <v>1.96</v>
       </c>
       <c r="G137">
-        <v>0.039</v>
+        <v>2.216</v>
       </c>
       <c r="H137">
-        <v>0.011</v>
+        <v>1.061</v>
       </c>
       <c r="I137">
-        <v>0.021</v>
+        <v>0.872</v>
       </c>
       <c r="J137">
-        <v>0.438</v>
+        <v>1.931</v>
       </c>
       <c r="K137">
-        <v>0.051</v>
+        <v>0.91</v>
       </c>
       <c r="N137" t="s">
         <v>149</v>
@@ -6147,34 +6147,34 @@
         <v>45981</v>
       </c>
       <c r="B138">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C138">
-        <v>0.112</v>
+        <v>1.223</v>
       </c>
       <c r="D138">
-        <v>0.139</v>
+        <v>1.525</v>
       </c>
       <c r="E138">
-        <v>0.201</v>
+        <v>1.178</v>
       </c>
       <c r="F138">
-        <v>0.405</v>
+        <v>1.419</v>
       </c>
       <c r="G138">
-        <v>0.316</v>
+        <v>2.07</v>
       </c>
       <c r="H138">
-        <v>0.145</v>
+        <v>0.995</v>
       </c>
       <c r="I138">
-        <v>0.184</v>
+        <v>0.879</v>
       </c>
       <c r="J138">
-        <v>0.601</v>
+        <v>1.764</v>
       </c>
       <c r="K138">
-        <v>0.203</v>
+        <v>0.88</v>
       </c>
       <c r="N138" t="s">
         <v>150</v>
@@ -6185,34 +6185,34 @@
         <v>45981</v>
       </c>
       <c r="B139">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C139">
-        <v>0.397</v>
+        <v>0.635</v>
       </c>
       <c r="D139">
-        <v>0.483</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="E139">
-        <v>0.658</v>
+        <v>0.783</v>
       </c>
       <c r="F139">
-        <v>0.874</v>
+        <v>0.88</v>
       </c>
       <c r="G139">
-        <v>0.622</v>
+        <v>0.641</v>
       </c>
       <c r="H139">
-        <v>0.38</v>
+        <v>0.726</v>
       </c>
       <c r="I139">
-        <v>0.447</v>
+        <v>0.54</v>
       </c>
       <c r="J139">
-        <v>1.003</v>
+        <v>1.218</v>
       </c>
       <c r="K139">
-        <v>0.475</v>
+        <v>0.74</v>
       </c>
       <c r="N139" t="s">
         <v>151</v>
@@ -6223,34 +6223,34 @@
         <v>45981</v>
       </c>
       <c r="B140">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C140">
-        <v>0.857</v>
+        <v>0.228</v>
       </c>
       <c r="D140">
-        <v>0.898</v>
+        <v>0.346</v>
       </c>
       <c r="E140">
-        <v>0.922</v>
+        <v>0.371</v>
       </c>
       <c r="F140">
-        <v>1.21</v>
+        <v>0.257</v>
       </c>
       <c r="G140">
-        <v>0.88</v>
+        <v>0.349</v>
       </c>
       <c r="H140">
-        <v>0.76</v>
+        <v>0.268</v>
       </c>
       <c r="I140">
-        <v>0.717</v>
+        <v>0.192</v>
       </c>
       <c r="J140">
-        <v>1.873</v>
+        <v>0.614</v>
       </c>
       <c r="K140">
-        <v>0.895</v>
+        <v>0.269</v>
       </c>
       <c r="N140" t="s">
         <v>152</v>
@@ -6261,34 +6261,34 @@
         <v>45981</v>
       </c>
       <c r="B141">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C141">
-        <v>0.951</v>
+        <v>0.022</v>
       </c>
       <c r="D141">
-        <v>1.202</v>
+        <v>0.025</v>
       </c>
       <c r="E141">
-        <v>1.34</v>
+        <v>0.048</v>
       </c>
       <c r="F141">
-        <v>1.515</v>
+        <v>0.027</v>
       </c>
       <c r="G141">
-        <v>1.84</v>
+        <v>0.045</v>
       </c>
       <c r="H141">
-        <v>0.847</v>
+        <v>0.041</v>
       </c>
       <c r="I141">
-        <v>0.847</v>
+        <v>0.021</v>
       </c>
       <c r="J141">
-        <v>1.914</v>
+        <v>0.411</v>
       </c>
       <c r="K141">
-        <v>0.9429999999999999</v>
+        <v>0.026</v>
       </c>
       <c r="N141" t="s">
         <v>153</v>
@@ -6299,34 +6299,34 @@
         <v>45981</v>
       </c>
       <c r="B142">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C142">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>1.393</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>2.214</v>
+        <v>0.011</v>
       </c>
       <c r="H142">
-        <v>0.999</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0.9340000000000001</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>1.832</v>
+        <v>0.039</v>
       </c>
       <c r="K142">
-        <v>0.9399999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="N142" t="s">
         <v>154</v>
@@ -6337,34 +6337,34 @@
         <v>45981</v>
       </c>
       <c r="B143">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C143">
-        <v>1.015</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>1.318</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.431</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>2.171</v>
+        <v>0.011</v>
       </c>
       <c r="H143">
-        <v>0.847</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>1.579</v>
+        <v>0.044</v>
       </c>
       <c r="K143">
-        <v>0.916</v>
+        <v>0.013</v>
       </c>
       <c r="N143" t="s">
         <v>155</v>
@@ -6375,34 +6375,34 @@
         <v>45981</v>
       </c>
       <c r="B144">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C144">
-        <v>0.598</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>0.854</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>0.741</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>0.528</v>
+        <v>0.011</v>
       </c>
       <c r="H144">
-        <v>0.6830000000000001</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0.545</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>1.011</v>
+        <v>0.044</v>
       </c>
       <c r="K144">
-        <v>0.775</v>
+        <v>0.013</v>
       </c>
       <c r="N144" t="s">
         <v>156</v>
@@ -6413,34 +6413,34 @@
         <v>45981</v>
       </c>
       <c r="B145">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C145">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>0.359</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.233</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>0.357</v>
+        <v>0.011</v>
       </c>
       <c r="H145">
-        <v>0.236</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J145">
-        <v>0.505</v>
+        <v>0.011</v>
       </c>
       <c r="K145">
-        <v>0.288</v>
+        <v>0.013</v>
       </c>
       <c r="N145" t="s">
         <v>157</v>
@@ -6451,34 +6451,34 @@
         <v>45981</v>
       </c>
       <c r="B146">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C146">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>0.045</v>
+        <v>0.011</v>
       </c>
       <c r="H146">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>0.421</v>
+        <v>0.011</v>
       </c>
       <c r="K146">
-        <v>0.046</v>
+        <v>0.013</v>
       </c>
       <c r="N146" t="s">
         <v>158</v>
@@ -6489,7 +6489,7 @@
         <v>45981</v>
       </c>
       <c r="B147">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -6513,10 +6513,10 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>0.039</v>
+        <v>0.011</v>
       </c>
       <c r="K147">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="N147" t="s">
         <v>159</v>
@@ -6524,10 +6524,10 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="2">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B148">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -6551,10 +6551,10 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="K148">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N148" t="s">
         <v>160</v>
@@ -6562,10 +6562,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="2">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B149">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -6589,10 +6589,10 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="K149">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N149" t="s">
         <v>161</v>
@@ -6600,10 +6600,10 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="2">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B150">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -6627,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="K150">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N150" t="s">
         <v>162</v>
@@ -6638,10 +6638,10 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="2">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B151">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -6665,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="K151">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N151" t="s">
         <v>163</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="2">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B152">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -6703,10 +6703,10 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="K152">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N152" t="s">
         <v>164</v>
@@ -6717,7 +6717,7 @@
         <v>45982</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N153" t="s">
         <v>165</v>
@@ -6755,7 +6755,7 @@
         <v>45982</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="K154">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N154" t="s">
         <v>166</v>
@@ -6793,7 +6793,7 @@
         <v>45982</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -6817,10 +6817,10 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="K155">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="N155" t="s">
         <v>167</v>
@@ -6831,7 +6831,7 @@
         <v>45982</v>
       </c>
       <c r="B156">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6843,10 +6843,10 @@
         <v>0.017</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="G156">
-        <v>0.011</v>
+        <v>0.06</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -6855,10 +6855,10 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>0.013</v>
+        <v>0.151</v>
       </c>
       <c r="K156">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="N156" t="s">
         <v>168</v>
@@ -6869,34 +6869,34 @@
         <v>45982</v>
       </c>
       <c r="B157">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E157">
-        <v>0.015</v>
+        <v>0.131</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>0.603</v>
       </c>
       <c r="G157">
-        <v>0.011</v>
+        <v>0.419</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>0.079</v>
       </c>
       <c r="J157">
-        <v>0.013</v>
+        <v>0.311</v>
       </c>
       <c r="K157">
-        <v>0.032</v>
+        <v>0.046</v>
       </c>
       <c r="N157" t="s">
         <v>169</v>
@@ -6907,34 +6907,34 @@
         <v>45982</v>
       </c>
       <c r="B158">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>0.281</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>0.362</v>
       </c>
       <c r="E158">
-        <v>0.015</v>
+        <v>0.422</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1.421</v>
       </c>
       <c r="G158">
-        <v>0.011</v>
+        <v>0.961</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>0.306</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>0.254</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>0.722</v>
       </c>
       <c r="K158">
-        <v>0.032</v>
+        <v>0.292</v>
       </c>
       <c r="N158" t="s">
         <v>170</v>
@@ -6945,34 +6945,34 @@
         <v>45982</v>
       </c>
       <c r="B159">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.703</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>1.538</v>
       </c>
       <c r="G159">
-        <v>0.011</v>
+        <v>1.971</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>0.601</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>0.386</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1.105</v>
       </c>
       <c r="K159">
-        <v>0.032</v>
+        <v>0.393</v>
       </c>
       <c r="N159" t="s">
         <v>171</v>
@@ -6983,34 +6983,34 @@
         <v>45982</v>
       </c>
       <c r="B160">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>0.724</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.775</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>2.285</v>
       </c>
       <c r="G160">
-        <v>0.011</v>
+        <v>2.051</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="J160">
-        <v>0.035</v>
+        <v>1.267</v>
       </c>
       <c r="K160">
-        <v>0.032</v>
+        <v>0.455</v>
       </c>
       <c r="N160" t="s">
         <v>172</v>
@@ -7021,34 +7021,34 @@
         <v>45982</v>
       </c>
       <c r="B161">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>0.707</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>0.859</v>
       </c>
       <c r="E161">
-        <v>0.015</v>
+        <v>0.791</v>
       </c>
       <c r="F161">
-        <v>0.098</v>
+        <v>2.053</v>
       </c>
       <c r="G161">
-        <v>0.041</v>
+        <v>2.085</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>0.728</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>0.618</v>
       </c>
       <c r="J161">
-        <v>0.156</v>
+        <v>1.23</v>
       </c>
       <c r="K161">
-        <v>0.051</v>
+        <v>0.455</v>
       </c>
       <c r="N161" t="s">
         <v>173</v>
@@ -7059,34 +7059,34 @@
         <v>45982</v>
       </c>
       <c r="B162">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C162">
-        <v>0.077</v>
+        <v>0.555</v>
       </c>
       <c r="D162">
-        <v>0.09</v>
+        <v>0.734</v>
       </c>
       <c r="E162">
-        <v>0.144</v>
+        <v>0.695</v>
       </c>
       <c r="F162">
-        <v>0.414</v>
+        <v>1.366</v>
       </c>
       <c r="G162">
+        <v>1.896</v>
+      </c>
+      <c r="H162">
+        <v>0.695</v>
+      </c>
+      <c r="I162">
+        <v>0.498</v>
+      </c>
+      <c r="J162">
+        <v>0.961</v>
+      </c>
+      <c r="K162">
         <v>0.365</v>
-      </c>
-      <c r="H162">
-        <v>0.145</v>
-      </c>
-      <c r="I162">
-        <v>0.074</v>
-      </c>
-      <c r="J162">
-        <v>0.316</v>
-      </c>
-      <c r="K162">
-        <v>0.073</v>
       </c>
       <c r="N162" t="s">
         <v>174</v>
@@ -7097,34 +7097,34 @@
         <v>45982</v>
       </c>
       <c r="B163">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C163">
-        <v>0.247</v>
+        <v>0.31</v>
       </c>
       <c r="D163">
-        <v>0.36</v>
+        <v>0.417</v>
       </c>
       <c r="E163">
-        <v>0.464</v>
+        <v>0.456</v>
       </c>
       <c r="F163">
-        <v>1.178</v>
+        <v>0.73</v>
       </c>
       <c r="G163">
-        <v>0.703</v>
+        <v>0.603</v>
       </c>
       <c r="H163">
-        <v>0.347</v>
+        <v>0.44</v>
       </c>
       <c r="I163">
-        <v>0.228</v>
+        <v>0.35</v>
       </c>
       <c r="J163">
-        <v>0.663</v>
+        <v>0.979</v>
       </c>
       <c r="K163">
-        <v>0.298</v>
+        <v>0.258</v>
       </c>
       <c r="N163" t="s">
         <v>175</v>
@@ -7135,34 +7135,34 @@
         <v>45982</v>
       </c>
       <c r="B164">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C164">
-        <v>0.393</v>
+        <v>0.101</v>
       </c>
       <c r="D164">
-        <v>0.62</v>
+        <v>0.133</v>
       </c>
       <c r="E164">
-        <v>0.794</v>
+        <v>0.203</v>
       </c>
       <c r="F164">
-        <v>1.4</v>
+        <v>0.232</v>
       </c>
       <c r="G164">
-        <v>1.286</v>
+        <v>0.342</v>
       </c>
       <c r="H164">
-        <v>0.634</v>
+        <v>0.174</v>
       </c>
       <c r="I164">
-        <v>0.348</v>
+        <v>0.109</v>
       </c>
       <c r="J164">
-        <v>1.023</v>
+        <v>0.281</v>
       </c>
       <c r="K164">
-        <v>0.461</v>
+        <v>0.044</v>
       </c>
       <c r="N164" t="s">
         <v>176</v>
@@ -7173,34 +7173,34 @@
         <v>45982</v>
       </c>
       <c r="B165">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C165">
-        <v>0.582</v>
+        <v>0.01</v>
       </c>
       <c r="D165">
-        <v>0.751</v>
+        <v>0.011</v>
       </c>
       <c r="E165">
-        <v>0.9370000000000001</v>
+        <v>0.034</v>
       </c>
       <c r="F165">
-        <v>1.478</v>
+        <v>0.026</v>
       </c>
       <c r="G165">
-        <v>1.874</v>
+        <v>0.034</v>
       </c>
       <c r="H165">
-        <v>0.728</v>
+        <v>0.016</v>
       </c>
       <c r="I165">
-        <v>0.465</v>
+        <v>0</v>
       </c>
       <c r="J165">
-        <v>1.163</v>
+        <v>0.154</v>
       </c>
       <c r="K165">
-        <v>0.578</v>
+        <v>0.026</v>
       </c>
       <c r="N165" t="s">
         <v>177</v>
@@ -7211,34 +7211,34 @@
         <v>45982</v>
       </c>
       <c r="B166">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C166">
-        <v>0.722</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>0.896</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>0.9370000000000001</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>1.608</v>
+        <v>0.011</v>
       </c>
       <c r="H166">
-        <v>0.761</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>0.465</v>
+        <v>0</v>
       </c>
       <c r="J166">
-        <v>1.162</v>
+        <v>0.064</v>
       </c>
       <c r="K166">
-        <v>0.601</v>
+        <v>0.013</v>
       </c>
       <c r="N166" t="s">
         <v>178</v>
@@ -7249,34 +7249,34 @@
         <v>45982</v>
       </c>
       <c r="B167">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C167">
-        <v>0.576</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>0.8080000000000001</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>0.788</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.065</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>0.8080000000000001</v>
+        <v>0.011</v>
       </c>
       <c r="H167">
-        <v>0.728</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>0.399</v>
+        <v>0</v>
       </c>
       <c r="J167">
-        <v>1.021</v>
+        <v>0.068</v>
       </c>
       <c r="K167">
-        <v>0.411</v>
+        <v>0.013</v>
       </c>
       <c r="N167" t="s">
         <v>179</v>
@@ -7287,34 +7287,34 @@
         <v>45982</v>
       </c>
       <c r="B168">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C168">
-        <v>0.329</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>0.511</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>0.623</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.633</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>0.536</v>
+        <v>0.011</v>
       </c>
       <c r="H168">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>0.277</v>
+        <v>0</v>
       </c>
       <c r="J168">
-        <v>0.704</v>
+        <v>0.063</v>
       </c>
       <c r="K168">
-        <v>0.319</v>
+        <v>0.013</v>
       </c>
       <c r="N168" t="s">
         <v>180</v>
@@ -7325,34 +7325,34 @@
         <v>45982</v>
       </c>
       <c r="B169">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C169">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>0.144</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>0.216</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>0.234</v>
+        <v>0.011</v>
       </c>
       <c r="H169">
-        <v>0.172</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>0.292</v>
+        <v>0.011</v>
       </c>
       <c r="K169">
-        <v>0.073</v>
+        <v>0.013</v>
       </c>
       <c r="N169" t="s">
         <v>181</v>
@@ -7363,34 +7363,34 @@
         <v>45982</v>
       </c>
       <c r="B170">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C170">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>0.031</v>
+        <v>0.011</v>
       </c>
       <c r="H170">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
       </c>
       <c r="J170">
-        <v>0.165</v>
+        <v>0.011</v>
       </c>
       <c r="K170">
-        <v>0.026</v>
+        <v>0.013</v>
       </c>
       <c r="N170" t="s">
         <v>182</v>

--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -58,486 +58,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>14.11.202523</t>
-  </si>
-  <si>
-    <t>14.11.202524</t>
-  </si>
-  <si>
-    <t>15.11.20251</t>
-  </si>
-  <si>
-    <t>15.11.20252</t>
-  </si>
-  <si>
-    <t>15.11.20253</t>
-  </si>
-  <si>
-    <t>15.11.20254</t>
-  </si>
-  <si>
-    <t>15.11.20255</t>
-  </si>
-  <si>
-    <t>15.11.20256</t>
-  </si>
-  <si>
-    <t>15.11.20257</t>
-  </si>
-  <si>
-    <t>15.11.20258</t>
-  </si>
-  <si>
-    <t>15.11.20259</t>
-  </si>
-  <si>
-    <t>15.11.202510</t>
-  </si>
-  <si>
-    <t>15.11.202511</t>
-  </si>
-  <si>
-    <t>15.11.202512</t>
-  </si>
-  <si>
-    <t>15.11.202513</t>
-  </si>
-  <si>
-    <t>15.11.202514</t>
-  </si>
-  <si>
-    <t>15.11.202515</t>
-  </si>
-  <si>
-    <t>15.11.202516</t>
-  </si>
-  <si>
-    <t>15.11.202517</t>
-  </si>
-  <si>
-    <t>15.11.202518</t>
-  </si>
-  <si>
-    <t>15.11.202519</t>
-  </si>
-  <si>
-    <t>15.11.202520</t>
-  </si>
-  <si>
-    <t>15.11.202521</t>
-  </si>
-  <si>
-    <t>15.11.202522</t>
-  </si>
-  <si>
-    <t>15.11.202523</t>
-  </si>
-  <si>
-    <t>15.11.202524</t>
-  </si>
-  <si>
-    <t>16.11.20251</t>
-  </si>
-  <si>
-    <t>16.11.20252</t>
-  </si>
-  <si>
-    <t>16.11.20253</t>
-  </si>
-  <si>
-    <t>16.11.20254</t>
-  </si>
-  <si>
-    <t>16.11.20255</t>
-  </si>
-  <si>
-    <t>16.11.20256</t>
-  </si>
-  <si>
-    <t>16.11.20257</t>
-  </si>
-  <si>
-    <t>16.11.20258</t>
-  </si>
-  <si>
-    <t>16.11.20259</t>
-  </si>
-  <si>
-    <t>16.11.202510</t>
-  </si>
-  <si>
-    <t>16.11.202511</t>
-  </si>
-  <si>
-    <t>16.11.202512</t>
-  </si>
-  <si>
-    <t>16.11.202513</t>
-  </si>
-  <si>
-    <t>16.11.202514</t>
-  </si>
-  <si>
-    <t>16.11.202515</t>
-  </si>
-  <si>
-    <t>16.11.202516</t>
-  </si>
-  <si>
-    <t>16.11.202517</t>
-  </si>
-  <si>
-    <t>16.11.202518</t>
-  </si>
-  <si>
-    <t>16.11.202519</t>
-  </si>
-  <si>
-    <t>16.11.202520</t>
-  </si>
-  <si>
-    <t>16.11.202521</t>
-  </si>
-  <si>
-    <t>16.11.202522</t>
-  </si>
-  <si>
-    <t>16.11.202523</t>
-  </si>
-  <si>
-    <t>16.11.202524</t>
-  </si>
-  <si>
-    <t>17.11.20251</t>
-  </si>
-  <si>
-    <t>17.11.20252</t>
-  </si>
-  <si>
-    <t>17.11.20253</t>
-  </si>
-  <si>
-    <t>17.11.20254</t>
-  </si>
-  <si>
-    <t>17.11.20255</t>
-  </si>
-  <si>
-    <t>17.11.20256</t>
-  </si>
-  <si>
-    <t>17.11.20257</t>
-  </si>
-  <si>
-    <t>17.11.20258</t>
-  </si>
-  <si>
-    <t>17.11.20259</t>
-  </si>
-  <si>
-    <t>17.11.202510</t>
-  </si>
-  <si>
-    <t>17.11.202511</t>
-  </si>
-  <si>
-    <t>17.11.202512</t>
-  </si>
-  <si>
-    <t>17.11.202513</t>
-  </si>
-  <si>
-    <t>17.11.202514</t>
-  </si>
-  <si>
-    <t>17.11.202515</t>
-  </si>
-  <si>
-    <t>17.11.202516</t>
-  </si>
-  <si>
-    <t>17.11.202517</t>
-  </si>
-  <si>
-    <t>17.11.202518</t>
-  </si>
-  <si>
-    <t>17.11.202519</t>
-  </si>
-  <si>
-    <t>17.11.202520</t>
-  </si>
-  <si>
-    <t>17.11.202521</t>
-  </si>
-  <si>
-    <t>17.11.202522</t>
-  </si>
-  <si>
-    <t>17.11.202523</t>
-  </si>
-  <si>
-    <t>17.11.202524</t>
-  </si>
-  <si>
-    <t>18.11.20251</t>
-  </si>
-  <si>
-    <t>18.11.20252</t>
-  </si>
-  <si>
-    <t>18.11.20253</t>
-  </si>
-  <si>
-    <t>18.11.20254</t>
-  </si>
-  <si>
-    <t>18.11.20255</t>
-  </si>
-  <si>
-    <t>18.11.20256</t>
-  </si>
-  <si>
-    <t>18.11.20257</t>
-  </si>
-  <si>
-    <t>18.11.20258</t>
-  </si>
-  <si>
-    <t>18.11.20259</t>
-  </si>
-  <si>
-    <t>18.11.202510</t>
-  </si>
-  <si>
-    <t>18.11.202511</t>
-  </si>
-  <si>
-    <t>18.11.202512</t>
-  </si>
-  <si>
-    <t>18.11.202513</t>
-  </si>
-  <si>
-    <t>18.11.202514</t>
-  </si>
-  <si>
-    <t>18.11.202515</t>
-  </si>
-  <si>
-    <t>18.11.202516</t>
-  </si>
-  <si>
-    <t>18.11.202517</t>
-  </si>
-  <si>
-    <t>18.11.202518</t>
-  </si>
-  <si>
-    <t>18.11.202519</t>
-  </si>
-  <si>
-    <t>18.11.202520</t>
-  </si>
-  <si>
-    <t>18.11.202521</t>
-  </si>
-  <si>
-    <t>18.11.202522</t>
-  </si>
-  <si>
-    <t>18.11.202523</t>
-  </si>
-  <si>
-    <t>18.11.202524</t>
-  </si>
-  <si>
-    <t>19.11.20251</t>
-  </si>
-  <si>
-    <t>19.11.20252</t>
-  </si>
-  <si>
-    <t>19.11.20253</t>
-  </si>
-  <si>
-    <t>19.11.20254</t>
-  </si>
-  <si>
-    <t>19.11.20255</t>
-  </si>
-  <si>
-    <t>19.11.20256</t>
-  </si>
-  <si>
-    <t>19.11.20257</t>
-  </si>
-  <si>
-    <t>19.11.20258</t>
-  </si>
-  <si>
-    <t>19.11.20259</t>
-  </si>
-  <si>
-    <t>19.11.202510</t>
-  </si>
-  <si>
-    <t>19.11.202511</t>
-  </si>
-  <si>
-    <t>19.11.202512</t>
-  </si>
-  <si>
-    <t>19.11.202513</t>
-  </si>
-  <si>
-    <t>19.11.202514</t>
-  </si>
-  <si>
-    <t>19.11.202515</t>
-  </si>
-  <si>
-    <t>19.11.202516</t>
-  </si>
-  <si>
-    <t>19.11.202517</t>
-  </si>
-  <si>
-    <t>19.11.202518</t>
-  </si>
-  <si>
-    <t>19.11.202519</t>
-  </si>
-  <si>
-    <t>19.11.202520</t>
-  </si>
-  <si>
-    <t>19.11.202521</t>
-  </si>
-  <si>
-    <t>19.11.202522</t>
-  </si>
-  <si>
-    <t>19.11.202523</t>
-  </si>
-  <si>
-    <t>19.11.202524</t>
-  </si>
-  <si>
-    <t>20.11.20251</t>
-  </si>
-  <si>
-    <t>20.11.20252</t>
-  </si>
-  <si>
-    <t>20.11.20253</t>
-  </si>
-  <si>
-    <t>20.11.20254</t>
-  </si>
-  <si>
-    <t>20.11.20255</t>
-  </si>
-  <si>
-    <t>20.11.20256</t>
-  </si>
-  <si>
-    <t>20.11.20257</t>
-  </si>
-  <si>
-    <t>20.11.20258</t>
-  </si>
-  <si>
-    <t>20.11.20259</t>
-  </si>
-  <si>
-    <t>20.11.202510</t>
-  </si>
-  <si>
-    <t>20.11.202511</t>
-  </si>
-  <si>
-    <t>20.11.202512</t>
-  </si>
-  <si>
-    <t>20.11.202513</t>
-  </si>
-  <si>
-    <t>20.11.202514</t>
-  </si>
-  <si>
-    <t>20.11.202515</t>
-  </si>
-  <si>
-    <t>20.11.202516</t>
-  </si>
-  <si>
-    <t>20.11.202517</t>
-  </si>
-  <si>
-    <t>20.11.202518</t>
-  </si>
-  <si>
-    <t>20.11.202519</t>
-  </si>
-  <si>
-    <t>20.11.202520</t>
-  </si>
-  <si>
-    <t>20.11.202521</t>
-  </si>
-  <si>
-    <t>20.11.202522</t>
-  </si>
-  <si>
-    <t>20.11.202523</t>
-  </si>
-  <si>
-    <t>20.11.202524</t>
-  </si>
-  <si>
-    <t>21.11.20251</t>
-  </si>
-  <si>
-    <t>21.11.20252</t>
-  </si>
-  <si>
-    <t>21.11.20253</t>
-  </si>
-  <si>
-    <t>21.11.20254</t>
-  </si>
-  <si>
-    <t>21.11.20255</t>
-  </si>
-  <si>
-    <t>21.11.20256</t>
-  </si>
-  <si>
-    <t>21.11.20257</t>
-  </si>
-  <si>
-    <t>21.11.20258</t>
-  </si>
-  <si>
-    <t>21.11.20259</t>
-  </si>
-  <si>
-    <t>21.11.202510</t>
-  </si>
-  <si>
-    <t>21.11.202511</t>
-  </si>
-  <si>
-    <t>21.11.202512</t>
-  </si>
-  <si>
-    <t>21.11.202513</t>
-  </si>
-  <si>
-    <t>21.11.202514</t>
-  </si>
-  <si>
     <t>21.11.202515</t>
   </si>
   <si>
@@ -563,6 +83,486 @@
   </si>
   <si>
     <t>21.11.202523</t>
+  </si>
+  <si>
+    <t>21.11.202524</t>
+  </si>
+  <si>
+    <t>22.11.20251</t>
+  </si>
+  <si>
+    <t>22.11.20252</t>
+  </si>
+  <si>
+    <t>22.11.20253</t>
+  </si>
+  <si>
+    <t>22.11.20254</t>
+  </si>
+  <si>
+    <t>22.11.20255</t>
+  </si>
+  <si>
+    <t>22.11.20256</t>
+  </si>
+  <si>
+    <t>22.11.20257</t>
+  </si>
+  <si>
+    <t>22.11.20258</t>
+  </si>
+  <si>
+    <t>22.11.20259</t>
+  </si>
+  <si>
+    <t>22.11.202510</t>
+  </si>
+  <si>
+    <t>22.11.202511</t>
+  </si>
+  <si>
+    <t>22.11.202512</t>
+  </si>
+  <si>
+    <t>22.11.202513</t>
+  </si>
+  <si>
+    <t>22.11.202514</t>
+  </si>
+  <si>
+    <t>22.11.202515</t>
+  </si>
+  <si>
+    <t>22.11.202516</t>
+  </si>
+  <si>
+    <t>22.11.202517</t>
+  </si>
+  <si>
+    <t>22.11.202518</t>
+  </si>
+  <si>
+    <t>22.11.202519</t>
+  </si>
+  <si>
+    <t>22.11.202520</t>
+  </si>
+  <si>
+    <t>22.11.202521</t>
+  </si>
+  <si>
+    <t>22.11.202522</t>
+  </si>
+  <si>
+    <t>22.11.202523</t>
+  </si>
+  <si>
+    <t>22.11.202524</t>
+  </si>
+  <si>
+    <t>23.11.20251</t>
+  </si>
+  <si>
+    <t>23.11.20252</t>
+  </si>
+  <si>
+    <t>23.11.20253</t>
+  </si>
+  <si>
+    <t>23.11.20254</t>
+  </si>
+  <si>
+    <t>23.11.20255</t>
+  </si>
+  <si>
+    <t>23.11.20256</t>
+  </si>
+  <si>
+    <t>23.11.20257</t>
+  </si>
+  <si>
+    <t>23.11.20258</t>
+  </si>
+  <si>
+    <t>23.11.20259</t>
+  </si>
+  <si>
+    <t>23.11.202510</t>
+  </si>
+  <si>
+    <t>23.11.202511</t>
+  </si>
+  <si>
+    <t>23.11.202512</t>
+  </si>
+  <si>
+    <t>23.11.202513</t>
+  </si>
+  <si>
+    <t>23.11.202514</t>
+  </si>
+  <si>
+    <t>23.11.202515</t>
+  </si>
+  <si>
+    <t>23.11.202516</t>
+  </si>
+  <si>
+    <t>23.11.202517</t>
+  </si>
+  <si>
+    <t>23.11.202518</t>
+  </si>
+  <si>
+    <t>23.11.202519</t>
+  </si>
+  <si>
+    <t>23.11.202520</t>
+  </si>
+  <si>
+    <t>23.11.202521</t>
+  </si>
+  <si>
+    <t>23.11.202522</t>
+  </si>
+  <si>
+    <t>23.11.202523</t>
+  </si>
+  <si>
+    <t>23.11.202524</t>
+  </si>
+  <si>
+    <t>24.11.20251</t>
+  </si>
+  <si>
+    <t>24.11.20252</t>
+  </si>
+  <si>
+    <t>24.11.20253</t>
+  </si>
+  <si>
+    <t>24.11.20254</t>
+  </si>
+  <si>
+    <t>24.11.20255</t>
+  </si>
+  <si>
+    <t>24.11.20256</t>
+  </si>
+  <si>
+    <t>24.11.20257</t>
+  </si>
+  <si>
+    <t>24.11.20258</t>
+  </si>
+  <si>
+    <t>24.11.20259</t>
+  </si>
+  <si>
+    <t>24.11.202510</t>
+  </si>
+  <si>
+    <t>24.11.202511</t>
+  </si>
+  <si>
+    <t>24.11.202512</t>
+  </si>
+  <si>
+    <t>24.11.202513</t>
+  </si>
+  <si>
+    <t>24.11.202514</t>
+  </si>
+  <si>
+    <t>24.11.202515</t>
+  </si>
+  <si>
+    <t>24.11.202516</t>
+  </si>
+  <si>
+    <t>24.11.202517</t>
+  </si>
+  <si>
+    <t>24.11.202518</t>
+  </si>
+  <si>
+    <t>24.11.202519</t>
+  </si>
+  <si>
+    <t>24.11.202520</t>
+  </si>
+  <si>
+    <t>24.11.202521</t>
+  </si>
+  <si>
+    <t>24.11.202522</t>
+  </si>
+  <si>
+    <t>24.11.202523</t>
+  </si>
+  <si>
+    <t>24.11.202524</t>
+  </si>
+  <si>
+    <t>25.11.20251</t>
+  </si>
+  <si>
+    <t>25.11.20252</t>
+  </si>
+  <si>
+    <t>25.11.20253</t>
+  </si>
+  <si>
+    <t>25.11.20254</t>
+  </si>
+  <si>
+    <t>25.11.20255</t>
+  </si>
+  <si>
+    <t>25.11.20256</t>
+  </si>
+  <si>
+    <t>25.11.20257</t>
+  </si>
+  <si>
+    <t>25.11.20258</t>
+  </si>
+  <si>
+    <t>25.11.20259</t>
+  </si>
+  <si>
+    <t>25.11.202510</t>
+  </si>
+  <si>
+    <t>25.11.202511</t>
+  </si>
+  <si>
+    <t>25.11.202512</t>
+  </si>
+  <si>
+    <t>25.11.202513</t>
+  </si>
+  <si>
+    <t>25.11.202514</t>
+  </si>
+  <si>
+    <t>25.11.202515</t>
+  </si>
+  <si>
+    <t>25.11.202516</t>
+  </si>
+  <si>
+    <t>25.11.202517</t>
+  </si>
+  <si>
+    <t>25.11.202518</t>
+  </si>
+  <si>
+    <t>25.11.202519</t>
+  </si>
+  <si>
+    <t>25.11.202520</t>
+  </si>
+  <si>
+    <t>25.11.202521</t>
+  </si>
+  <si>
+    <t>25.11.202522</t>
+  </si>
+  <si>
+    <t>25.11.202523</t>
+  </si>
+  <si>
+    <t>25.11.202524</t>
+  </si>
+  <si>
+    <t>26.11.20251</t>
+  </si>
+  <si>
+    <t>26.11.20252</t>
+  </si>
+  <si>
+    <t>26.11.20253</t>
+  </si>
+  <si>
+    <t>26.11.20254</t>
+  </si>
+  <si>
+    <t>26.11.20255</t>
+  </si>
+  <si>
+    <t>26.11.20256</t>
+  </si>
+  <si>
+    <t>26.11.20257</t>
+  </si>
+  <si>
+    <t>26.11.20258</t>
+  </si>
+  <si>
+    <t>26.11.20259</t>
+  </si>
+  <si>
+    <t>26.11.202510</t>
+  </si>
+  <si>
+    <t>26.11.202511</t>
+  </si>
+  <si>
+    <t>26.11.202512</t>
+  </si>
+  <si>
+    <t>26.11.202513</t>
+  </si>
+  <si>
+    <t>26.11.202514</t>
+  </si>
+  <si>
+    <t>26.11.202515</t>
+  </si>
+  <si>
+    <t>26.11.202516</t>
+  </si>
+  <si>
+    <t>26.11.202517</t>
+  </si>
+  <si>
+    <t>26.11.202518</t>
+  </si>
+  <si>
+    <t>26.11.202519</t>
+  </si>
+  <si>
+    <t>26.11.202520</t>
+  </si>
+  <si>
+    <t>26.11.202521</t>
+  </si>
+  <si>
+    <t>26.11.202522</t>
+  </si>
+  <si>
+    <t>26.11.202523</t>
+  </si>
+  <si>
+    <t>26.11.202524</t>
+  </si>
+  <si>
+    <t>27.11.20251</t>
+  </si>
+  <si>
+    <t>27.11.20252</t>
+  </si>
+  <si>
+    <t>27.11.20253</t>
+  </si>
+  <si>
+    <t>27.11.20254</t>
+  </si>
+  <si>
+    <t>27.11.20255</t>
+  </si>
+  <si>
+    <t>27.11.20256</t>
+  </si>
+  <si>
+    <t>27.11.20257</t>
+  </si>
+  <si>
+    <t>27.11.20258</t>
+  </si>
+  <si>
+    <t>27.11.20259</t>
+  </si>
+  <si>
+    <t>27.11.202510</t>
+  </si>
+  <si>
+    <t>27.11.202511</t>
+  </si>
+  <si>
+    <t>27.11.202512</t>
+  </si>
+  <si>
+    <t>27.11.202513</t>
+  </si>
+  <si>
+    <t>27.11.202514</t>
+  </si>
+  <si>
+    <t>27.11.202515</t>
+  </si>
+  <si>
+    <t>27.11.202516</t>
+  </si>
+  <si>
+    <t>27.11.202517</t>
+  </si>
+  <si>
+    <t>27.11.202518</t>
+  </si>
+  <si>
+    <t>27.11.202519</t>
+  </si>
+  <si>
+    <t>27.11.202520</t>
+  </si>
+  <si>
+    <t>27.11.202521</t>
+  </si>
+  <si>
+    <t>27.11.202522</t>
+  </si>
+  <si>
+    <t>27.11.202523</t>
+  </si>
+  <si>
+    <t>27.11.202524</t>
+  </si>
+  <si>
+    <t>28.11.20251</t>
+  </si>
+  <si>
+    <t>28.11.20252</t>
+  </si>
+  <si>
+    <t>28.11.20253</t>
+  </si>
+  <si>
+    <t>28.11.20254</t>
+  </si>
+  <si>
+    <t>28.11.20255</t>
+  </si>
+  <si>
+    <t>28.11.20256</t>
+  </si>
+  <si>
+    <t>28.11.20257</t>
+  </si>
+  <si>
+    <t>28.11.20258</t>
+  </si>
+  <si>
+    <t>28.11.20259</t>
+  </si>
+  <si>
+    <t>28.11.202510</t>
+  </si>
+  <si>
+    <t>28.11.202511</t>
+  </si>
+  <si>
+    <t>28.11.202512</t>
+  </si>
+  <si>
+    <t>28.11.202513</t>
+  </si>
+  <si>
+    <t>28.11.202514</t>
+  </si>
+  <si>
+    <t>28.11.202515</t>
   </si>
 </sst>
 </file>
@@ -976,10 +976,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45975</v>
+        <v>45982</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="K2">
         <v>0.037</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45975</v>
+        <v>45982</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.104</v>
+        <v>0.116</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="K3">
         <v>0.037</v>
@@ -1052,37 +1052,37 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.214</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.226</v>
       </c>
       <c r="G4">
-        <v>0.011</v>
+        <v>0.246</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.184</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K4">
-        <v>0.032</v>
+        <v>0.167</v>
       </c>
       <c r="N4" t="s">
         <v>16</v>
@@ -1090,37 +1090,37 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.029</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="G5">
         <v>0.011</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.013</v>
+        <v>0.157</v>
       </c>
       <c r="K5">
-        <v>0.032</v>
+        <v>0.026</v>
       </c>
       <c r="N5" t="s">
         <v>17</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0.064</v>
+      </c>
+      <c r="K6">
         <v>0.013</v>
-      </c>
-      <c r="K6">
-        <v>0.032</v>
       </c>
       <c r="N6" t="s">
         <v>18</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="J7">
+        <v>0.068</v>
+      </c>
+      <c r="K7">
         <v>0.013</v>
-      </c>
-      <c r="K7">
-        <v>0.032</v>
       </c>
       <c r="N7" t="s">
         <v>19</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="J8">
+        <v>0.068</v>
+      </c>
+      <c r="K8">
         <v>0.013</v>
-      </c>
-      <c r="K8">
-        <v>0.032</v>
       </c>
       <c r="N8" t="s">
         <v>20</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0.011</v>
+      </c>
+      <c r="K9">
         <v>0.013</v>
-      </c>
-      <c r="K9">
-        <v>0.032</v>
       </c>
       <c r="N9" t="s">
         <v>21</v>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0.011</v>
+      </c>
+      <c r="K10">
         <v>0.013</v>
-      </c>
-      <c r="K10">
-        <v>0.032</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45976</v>
+        <v>45982</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04</v>
+        <v>0.011</v>
       </c>
       <c r="K11">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="N11" t="s">
         <v>23</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1368,25 +1368,25 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.055</v>
+        <v>0.011</v>
       </c>
       <c r="H12">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.184</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.051</v>
+        <v>0.014</v>
       </c>
       <c r="N12" t="s">
         <v>24</v>
@@ -1394,37 +1394,37 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.129</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.436</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.323</v>
+        <v>0.011</v>
       </c>
       <c r="H13">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.316</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.203</v>
+        <v>0.014</v>
       </c>
       <c r="N13" t="s">
         <v>25</v>
@@ -1432,37 +1432,37 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0.345</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.389</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.725</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.891</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.618</v>
+        <v>0.011</v>
       </c>
       <c r="H14">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.339</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.613</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.475</v>
+        <v>0.014</v>
       </c>
       <c r="N14" t="s">
         <v>26</v>
@@ -1470,37 +1470,37 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0.751</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.749</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1.144</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.189</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.605</v>
+        <v>0.011</v>
       </c>
       <c r="H15">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.534</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.868</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.909</v>
+        <v>0.014</v>
       </c>
       <c r="N15" t="s">
         <v>27</v>
@@ -1508,37 +1508,37 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>0.9409999999999999</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.918</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1.531</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.294</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.965</v>
+        <v>0.011</v>
       </c>
       <c r="H16">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6830000000000001</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1.993</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.963</v>
+        <v>0.014</v>
       </c>
       <c r="N16" t="s">
         <v>28</v>
@@ -1546,37 +1546,37 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>1.127</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1.057</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1.523</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.333</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1.378</v>
+        <v>0.011</v>
       </c>
       <c r="H17">
-        <v>0.999</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.705</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1.415</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.944</v>
+        <v>0.014</v>
       </c>
       <c r="N17" t="s">
         <v>29</v>
@@ -1584,37 +1584,37 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>1.184</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1.054</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1.447</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.117</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.65</v>
+        <v>0.011</v>
       </c>
       <c r="H18">
-        <v>0.847</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1.442</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.925</v>
+        <v>0.014</v>
       </c>
       <c r="N18" t="s">
         <v>30</v>
@@ -1622,37 +1622,37 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>0.879</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.889</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8120000000000001</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.451</v>
+        <v>0.011</v>
       </c>
       <c r="H19">
-        <v>0.6830000000000001</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.527</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1.002</v>
+        <v>0.035</v>
       </c>
       <c r="K19">
-        <v>0.848</v>
+        <v>0.014</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -1660,37 +1660,37 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.388</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.591</v>
+        <v>0.017</v>
       </c>
       <c r="F20">
-        <v>0.254</v>
+        <v>0.104</v>
       </c>
       <c r="G20">
-        <v>0.41</v>
+        <v>0.06</v>
       </c>
       <c r="H20">
-        <v>0.302</v>
+        <v>0.012</v>
       </c>
       <c r="I20">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.635</v>
+        <v>0.245</v>
       </c>
       <c r="K20">
-        <v>0.321</v>
+        <v>0.038</v>
       </c>
       <c r="N20" t="s">
         <v>32</v>
@@ -1698,37 +1698,37 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
       <c r="D21">
-        <v>0.048</v>
+        <v>0.08</v>
       </c>
       <c r="E21">
-        <v>0.113</v>
+        <v>0.129</v>
       </c>
       <c r="F21">
-        <v>0.042</v>
+        <v>0.695</v>
       </c>
       <c r="G21">
-        <v>0.064</v>
+        <v>0.532</v>
       </c>
       <c r="H21">
-        <v>0.053</v>
+        <v>0.203</v>
       </c>
       <c r="I21">
-        <v>0.025</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J21">
-        <v>0.236</v>
+        <v>0.418</v>
       </c>
       <c r="K21">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="N21" t="s">
         <v>33</v>
@@ -1736,37 +1736,37 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.393</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G22">
-        <v>0.011</v>
+        <v>0.868</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.246</v>
       </c>
       <c r="J22">
-        <v>0.059</v>
+        <v>0.853</v>
       </c>
       <c r="K22">
-        <v>0.031</v>
+        <v>0.205</v>
       </c>
       <c r="N22" t="s">
         <v>34</v>
@@ -1774,37 +1774,37 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.276</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.641</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1.991</v>
       </c>
       <c r="G23">
-        <v>0.011</v>
+        <v>2.386</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.718</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.332</v>
       </c>
       <c r="J23">
-        <v>0.044</v>
+        <v>1.11</v>
       </c>
       <c r="K23">
-        <v>0.031</v>
+        <v>0.347</v>
       </c>
       <c r="N23" t="s">
         <v>35</v>
@@ -1812,37 +1812,37 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.292</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.387</v>
       </c>
       <c r="E24">
-        <v>0.01</v>
+        <v>0.852</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2.249</v>
       </c>
       <c r="G24">
-        <v>0.011</v>
+        <v>2.362</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.469</v>
       </c>
       <c r="J24">
-        <v>0.044</v>
+        <v>1.152</v>
       </c>
       <c r="K24">
-        <v>0.031</v>
+        <v>0.455</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -1850,37 +1850,37 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.241</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.358</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.915</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2.077</v>
       </c>
       <c r="G25">
-        <v>0.011</v>
+        <v>2.301</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.916</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="J25">
-        <v>0.011</v>
+        <v>1.041</v>
       </c>
       <c r="K25">
-        <v>0.031</v>
+        <v>0.442</v>
       </c>
       <c r="N25" t="s">
         <v>37</v>
@@ -1888,37 +1888,37 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.296</v>
       </c>
       <c r="E26">
-        <v>0.026</v>
+        <v>0.775</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1.609</v>
       </c>
       <c r="G26">
-        <v>0.011</v>
+        <v>2.114</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>0.445</v>
       </c>
       <c r="J26">
-        <v>0.011</v>
+        <v>0.865</v>
       </c>
       <c r="K26">
-        <v>0.031</v>
+        <v>0.303</v>
       </c>
       <c r="N26" t="s">
         <v>38</v>
@@ -1926,37 +1926,37 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.117</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="E27">
-        <v>0.028</v>
+        <v>0.624</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.949</v>
       </c>
       <c r="G27">
-        <v>0.011</v>
+        <v>0.857</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.398</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.288</v>
       </c>
       <c r="J27">
-        <v>0.011</v>
+        <v>0.732</v>
       </c>
       <c r="K27">
-        <v>0.031</v>
+        <v>0.193</v>
       </c>
       <c r="N27" t="s">
         <v>39</v>
@@ -1964,37 +1964,37 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45977</v>
+        <v>45983</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E28">
-        <v>0.027</v>
+        <v>0.31</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.251</v>
       </c>
       <c r="G28">
-        <v>0.011</v>
+        <v>0.406</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="J28">
-        <v>0.013</v>
+        <v>0.308</v>
       </c>
       <c r="K28">
-        <v>0.032</v>
+        <v>0.044</v>
       </c>
       <c r="N28" t="s">
         <v>40</v>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45977</v>
+        <v>45983</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2014,25 +2014,25 @@
         <v>0</v>
       </c>
       <c r="E29">
+        <v>0.05</v>
+      </c>
+      <c r="F29">
         <v>0.027</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
-        <v>0.011</v>
+        <v>0.045</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.013</v>
+        <v>0.276</v>
       </c>
       <c r="K29">
-        <v>0.032</v>
+        <v>0.026</v>
       </c>
       <c r="N29" t="s">
         <v>41</v>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45977</v>
+        <v>45983</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="J30">
+        <v>0.054</v>
+      </c>
+      <c r="K30">
         <v>0.013</v>
-      </c>
-      <c r="K30">
-        <v>0.032</v>
       </c>
       <c r="N30" t="s">
         <v>42</v>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45977</v>
+        <v>45983</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2105,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="J31">
+        <v>0.059</v>
+      </c>
+      <c r="K31">
         <v>0.013</v>
-      </c>
-      <c r="K31">
-        <v>0.032</v>
       </c>
       <c r="N31" t="s">
         <v>43</v>
@@ -2116,10 +2116,10 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45977</v>
+        <v>45983</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="J32">
+        <v>0.059</v>
+      </c>
+      <c r="K32">
         <v>0.013</v>
-      </c>
-      <c r="K32">
-        <v>0.032</v>
       </c>
       <c r="N32" t="s">
         <v>44</v>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45977</v>
+        <v>45983</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2181,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>0.013</v>
-      </c>
-      <c r="K33">
-        <v>0.014</v>
       </c>
       <c r="N33" t="s">
         <v>45</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45977</v>
+        <v>45983</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2219,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="J34">
+        <v>0.011</v>
+      </c>
+      <c r="K34">
         <v>0.013</v>
-      </c>
-      <c r="K34">
-        <v>0.014</v>
       </c>
       <c r="N34" t="s">
         <v>46</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45977</v>
+        <v>45983</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.04</v>
+        <v>0.011</v>
       </c>
       <c r="K35">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="N35" t="s">
         <v>47</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2280,25 +2280,25 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.082</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.055</v>
+        <v>0.011</v>
       </c>
       <c r="H36">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0.447</v>
+        <v>0.013</v>
       </c>
       <c r="K36">
-        <v>0.051</v>
+        <v>0.014</v>
       </c>
       <c r="N36" t="s">
         <v>48</v>
@@ -2306,37 +2306,37 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.407</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.407</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.319</v>
+        <v>0.011</v>
       </c>
       <c r="H37">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0.436</v>
+        <v>0.013</v>
       </c>
       <c r="K37">
-        <v>0.189</v>
+        <v>0.014</v>
       </c>
       <c r="N37" t="s">
         <v>49</v>
@@ -2344,37 +2344,37 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0.373</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.948</v>
+        <v>0.015</v>
       </c>
       <c r="F38">
-        <v>0.733</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.463</v>
+        <v>0.011</v>
       </c>
       <c r="H38">
-        <v>0.347</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>1.049</v>
+        <v>0.013</v>
       </c>
       <c r="K38">
-        <v>0.461</v>
+        <v>0.014</v>
       </c>
       <c r="N38" t="s">
         <v>50</v>
@@ -2382,37 +2382,37 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>0.376</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0.496</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1.646</v>
+        <v>0.015</v>
       </c>
       <c r="F39">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.583</v>
+        <v>0.011</v>
       </c>
       <c r="H39">
-        <v>0.671</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0.671</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>1.055</v>
+        <v>0.013</v>
       </c>
       <c r="K39">
-        <v>0.906</v>
+        <v>0.014</v>
       </c>
       <c r="N39" t="s">
         <v>51</v>
@@ -2420,37 +2420,37 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>0.442</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0.672</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.184</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.622</v>
+        <v>0.011</v>
       </c>
       <c r="H40">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0.795</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1.993</v>
+        <v>0.013</v>
       </c>
       <c r="K40">
-        <v>0.871</v>
+        <v>0.014</v>
       </c>
       <c r="N40" t="s">
         <v>52</v>
@@ -2458,37 +2458,37 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>0.454</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0.665</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>2.181</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.113</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.5649999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="H41">
-        <v>0.847</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0.753</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1.535</v>
+        <v>0.013</v>
       </c>
       <c r="K41">
-        <v>0.83</v>
+        <v>0.014</v>
       </c>
       <c r="N41" t="s">
         <v>53</v>
@@ -2496,37 +2496,37 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>0.398</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0.513</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.968</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.483</v>
+        <v>0.011</v>
       </c>
       <c r="H42">
-        <v>0.792</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0.662</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>1.258</v>
+        <v>0.013</v>
       </c>
       <c r="K42">
-        <v>0.58</v>
+        <v>0.014</v>
       </c>
       <c r="N42" t="s">
         <v>54</v>
@@ -2534,37 +2534,37 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B43">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>0.218</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.364</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1.525</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.711</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.602</v>
+        <v>0.011</v>
       </c>
       <c r="H43">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0.9429999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="K43">
-        <v>0.436</v>
+        <v>0.014</v>
       </c>
       <c r="N43" t="s">
         <v>55</v>
@@ -2572,37 +2572,37 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B44">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0.134</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0.646</v>
+        <v>0.037</v>
       </c>
       <c r="F44">
-        <v>0.226</v>
+        <v>0.074</v>
       </c>
       <c r="G44">
-        <v>0.342</v>
+        <v>0.033</v>
       </c>
       <c r="H44">
-        <v>0.221</v>
+        <v>0.011</v>
       </c>
       <c r="I44">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0.476</v>
+        <v>0.25</v>
       </c>
       <c r="K44">
-        <v>0.204</v>
+        <v>0.038</v>
       </c>
       <c r="N44" t="s">
         <v>56</v>
@@ -2610,37 +2610,37 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B45">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>0.014</v>
+        <v>0.061</v>
       </c>
       <c r="D45">
-        <v>0.023</v>
+        <v>0.082</v>
       </c>
       <c r="E45">
-        <v>0.121</v>
+        <v>0.213</v>
       </c>
       <c r="F45">
-        <v>0.028</v>
+        <v>0.302</v>
       </c>
       <c r="G45">
-        <v>0.045</v>
+        <v>0.233</v>
       </c>
       <c r="H45">
-        <v>0.041</v>
+        <v>0.106</v>
       </c>
       <c r="I45">
-        <v>0.015</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J45">
-        <v>0.415</v>
+        <v>0.311</v>
       </c>
       <c r="K45">
-        <v>0.051</v>
+        <v>0.06</v>
       </c>
       <c r="N45" t="s">
         <v>57</v>
@@ -2648,37 +2648,37 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B46">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="E46">
-        <v>0.011</v>
+        <v>0.674</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.302</v>
       </c>
       <c r="G46">
-        <v>0.011</v>
+        <v>0.299</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="J46">
-        <v>0.064</v>
+        <v>0.349</v>
       </c>
       <c r="K46">
-        <v>0.037</v>
+        <v>0.163</v>
       </c>
       <c r="N46" t="s">
         <v>58</v>
@@ -2686,37 +2686,37 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.309</v>
       </c>
       <c r="E47">
-        <v>0.011</v>
+        <v>1.07</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.368</v>
       </c>
       <c r="G47">
-        <v>0.011</v>
+        <v>0.435</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>0.306</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="J47">
-        <v>0.048</v>
+        <v>0.404</v>
       </c>
       <c r="K47">
-        <v>0.037</v>
+        <v>0.218</v>
       </c>
       <c r="N47" t="s">
         <v>59</v>
@@ -2724,37 +2724,37 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B48">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.257</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.339</v>
       </c>
       <c r="E48">
-        <v>0.011</v>
+        <v>1.556</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.431</v>
       </c>
       <c r="G48">
-        <v>0.011</v>
+        <v>0.4</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="J48">
-        <v>0.048</v>
+        <v>0.533</v>
       </c>
       <c r="K48">
-        <v>0.031</v>
+        <v>0.305</v>
       </c>
       <c r="N48" t="s">
         <v>60</v>
@@ -2762,37 +2762,37 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B49">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.351</v>
       </c>
       <c r="E49">
-        <v>0.011</v>
+        <v>1.544</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.531</v>
       </c>
       <c r="G49">
-        <v>0.011</v>
+        <v>0.425</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>0.258</v>
       </c>
       <c r="J49">
-        <v>0.016</v>
+        <v>0.59</v>
       </c>
       <c r="K49">
-        <v>0.013</v>
+        <v>0.305</v>
       </c>
       <c r="N49" t="s">
         <v>61</v>
@@ -2800,37 +2800,37 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B50">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.218</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.323</v>
       </c>
       <c r="E50">
-        <v>0.011</v>
+        <v>1.125</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.399</v>
       </c>
       <c r="G50">
-        <v>0.011</v>
+        <v>0.455</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>0.302</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="J50">
-        <v>0.016</v>
+        <v>0.469</v>
       </c>
       <c r="K50">
-        <v>0.013</v>
+        <v>0.227</v>
       </c>
       <c r="N50" t="s">
         <v>62</v>
@@ -2838,37 +2838,37 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B51">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.194</v>
       </c>
       <c r="E51">
-        <v>0.011</v>
+        <v>0.765</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="G51">
-        <v>0.011</v>
+        <v>0.241</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>0.184</v>
       </c>
       <c r="J51">
-        <v>0.016</v>
+        <v>0.408</v>
       </c>
       <c r="K51">
-        <v>0.013</v>
+        <v>0.102</v>
       </c>
       <c r="N51" t="s">
         <v>63</v>
@@ -2876,37 +2876,37 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45978</v>
+        <v>45984</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="E52">
-        <v>0.011</v>
+        <v>0.349</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="G52">
-        <v>0.011</v>
+        <v>0.116</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J52">
-        <v>0.013</v>
+        <v>0.297</v>
       </c>
       <c r="K52">
-        <v>0.014</v>
+        <v>0.051</v>
       </c>
       <c r="N52" t="s">
         <v>64</v>
@@ -2914,37 +2914,37 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45978</v>
+        <v>45984</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="G53">
-        <v>0.011</v>
+        <v>0.022</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0.013</v>
+        <v>0.095</v>
       </c>
       <c r="K53">
-        <v>0.014</v>
+        <v>0.045</v>
       </c>
       <c r="N53" t="s">
         <v>65</v>
@@ -2952,10 +2952,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45978</v>
+        <v>45984</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.013</v>
+        <v>0.043</v>
       </c>
       <c r="K54">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N54" t="s">
         <v>66</v>
@@ -2990,10 +2990,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45978</v>
+        <v>45984</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0.013</v>
+        <v>0.048</v>
       </c>
       <c r="K55">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N55" t="s">
         <v>67</v>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45978</v>
+        <v>45984</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3055,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.013</v>
+        <v>0.048</v>
       </c>
       <c r="K56">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N56" t="s">
         <v>68</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45978</v>
+        <v>45984</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.01</v>
+        <v>0.212</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="K57">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N57" t="s">
         <v>69</v>
@@ -3104,10 +3104,10 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45978</v>
+        <v>45984</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.017</v>
+        <v>0.247</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="K58">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N58" t="s">
         <v>70</v>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45978</v>
+        <v>45984</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.017</v>
+        <v>0.23</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3169,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.04</v>
+        <v>0.016</v>
       </c>
       <c r="K59">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N59" t="s">
         <v>71</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3192,25 +3192,25 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0.041</v>
+        <v>0.036</v>
       </c>
       <c r="F60">
-        <v>0.142</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.081</v>
+        <v>0.011</v>
       </c>
       <c r="H60">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0.447</v>
+        <v>0.013</v>
       </c>
       <c r="K60">
-        <v>0.051</v>
+        <v>0.032</v>
       </c>
       <c r="N60" t="s">
         <v>72</v>
@@ -3218,37 +3218,37 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0.31</v>
+        <v>0.036</v>
       </c>
       <c r="F61">
-        <v>0.613</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>0.431</v>
+        <v>0.011</v>
       </c>
       <c r="H61">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0.293</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>0.549</v>
+        <v>0.013</v>
       </c>
       <c r="K61">
-        <v>0.152</v>
+        <v>0.032</v>
       </c>
       <c r="N61" t="s">
         <v>73</v>
@@ -3256,37 +3256,37 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0.409</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0.86</v>
+        <v>0.036</v>
       </c>
       <c r="F62">
-        <v>1.357</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0.67</v>
+        <v>0.011</v>
       </c>
       <c r="H62">
-        <v>0.753</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0.674</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>1.026</v>
+        <v>0.011</v>
       </c>
       <c r="K62">
-        <v>0.407</v>
+        <v>0.032</v>
       </c>
       <c r="N62" t="s">
         <v>74</v>
@@ -3294,37 +3294,37 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>0.753</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0.775</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>1.544</v>
+        <v>0.036</v>
       </c>
       <c r="F63">
-        <v>1.597</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>2.284</v>
+        <v>0.011</v>
       </c>
       <c r="H63">
-        <v>0.999</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0.773</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>1.614</v>
+        <v>0.011</v>
       </c>
       <c r="K63">
-        <v>0.793</v>
+        <v>0.032</v>
       </c>
       <c r="N63" t="s">
         <v>75</v>
@@ -3332,37 +3332,37 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B64">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>0.9330000000000001</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0.882</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>1.542</v>
+        <v>0.036</v>
       </c>
       <c r="F64">
-        <v>2.138</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>2.325</v>
+        <v>0.011</v>
       </c>
       <c r="H64">
-        <v>1.061</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0.832</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>1.839</v>
+        <v>0.011</v>
       </c>
       <c r="K64">
-        <v>0.905</v>
+        <v>0.032</v>
       </c>
       <c r="N64" t="s">
         <v>76</v>
@@ -3370,37 +3370,37 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>0.8080000000000001</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0.795</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>1.587</v>
+        <v>0.036</v>
       </c>
       <c r="F65">
-        <v>2.023</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>2.283</v>
+        <v>0.011</v>
       </c>
       <c r="H65">
-        <v>0.999</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0.8090000000000001</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>1.683</v>
+        <v>0.011</v>
       </c>
       <c r="K65">
-        <v>0.93</v>
+        <v>0.032</v>
       </c>
       <c r="N65" t="s">
         <v>77</v>
@@ -3408,37 +3408,37 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>0.607</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1.165</v>
+        <v>0.036</v>
       </c>
       <c r="F66">
-        <v>1.317</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1.987</v>
+        <v>0.011</v>
       </c>
       <c r="H66">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>1.388</v>
+        <v>0.011</v>
       </c>
       <c r="K66">
-        <v>0.834</v>
+        <v>0.032</v>
       </c>
       <c r="N66" t="s">
         <v>78</v>
@@ -3446,37 +3446,37 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0.343</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0.752</v>
+        <v>0.036</v>
       </c>
       <c r="F67">
-        <v>0.707</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.5649999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="H67">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0.492</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0.9429999999999999</v>
+        <v>0.038</v>
       </c>
       <c r="K67">
-        <v>0.405</v>
+        <v>0.032</v>
       </c>
       <c r="N67" t="s">
         <v>79</v>
@@ -3484,37 +3484,37 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>0.296</v>
+        <v>0.128</v>
       </c>
       <c r="F68">
-        <v>0.184</v>
+        <v>0.139</v>
       </c>
       <c r="G68">
-        <v>0.245</v>
+        <v>0.076</v>
       </c>
       <c r="H68">
-        <v>0.203</v>
+        <v>0.034</v>
       </c>
       <c r="I68">
-        <v>0.146</v>
+        <v>0.015</v>
       </c>
       <c r="J68">
-        <v>0.471</v>
+        <v>0.445</v>
       </c>
       <c r="K68">
-        <v>0.188</v>
+        <v>0.051</v>
       </c>
       <c r="N68" t="s">
         <v>80</v>
@@ -3522,37 +3522,37 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B69">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>0.012</v>
+        <v>0.143</v>
       </c>
       <c r="D69">
-        <v>0.01</v>
+        <v>0.169</v>
       </c>
       <c r="E69">
-        <v>0.043</v>
+        <v>0.549</v>
       </c>
       <c r="F69">
-        <v>0.019</v>
+        <v>0.761</v>
       </c>
       <c r="G69">
-        <v>0.03</v>
+        <v>0.616</v>
       </c>
       <c r="H69">
-        <v>0.03</v>
+        <v>0.306</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="J69">
-        <v>0.415</v>
+        <v>0.67</v>
       </c>
       <c r="K69">
-        <v>0.032</v>
+        <v>0.203</v>
       </c>
       <c r="N69" t="s">
         <v>81</v>
@@ -3560,37 +3560,37 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B70">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.404</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.732</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1.674</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1.793</v>
       </c>
       <c r="G70">
-        <v>0.011</v>
+        <v>1.832</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>0.826</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="J70">
-        <v>0.064</v>
+        <v>1.299</v>
       </c>
       <c r="K70">
-        <v>0.019</v>
+        <v>0.598</v>
       </c>
       <c r="N70" t="s">
         <v>82</v>
@@ -3598,37 +3598,37 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B71">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1.037</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1.174</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>2.315</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2.531</v>
       </c>
       <c r="G71">
-        <v>0.011</v>
+        <v>2.828</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1.294</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>0.896</v>
       </c>
       <c r="J71">
-        <v>0.068</v>
+        <v>2.053</v>
       </c>
       <c r="K71">
-        <v>0.013</v>
+        <v>0.918</v>
       </c>
       <c r="N71" t="s">
         <v>83</v>
@@ -3636,37 +3636,37 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B72">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1.314</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1.737</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>2.572</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>2.808</v>
       </c>
       <c r="G72">
-        <v>0.011</v>
+        <v>2.949</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1.443</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1.024</v>
       </c>
       <c r="J72">
-        <v>0.068</v>
+        <v>2.356</v>
       </c>
       <c r="K72">
-        <v>0.013</v>
+        <v>0.961</v>
       </c>
       <c r="N72" t="s">
         <v>84</v>
@@ -3674,37 +3674,37 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B73">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1.319</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>2.625</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>2.664</v>
       </c>
       <c r="G73">
-        <v>0.011</v>
+        <v>2.898</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1.443</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1.137</v>
       </c>
       <c r="J73">
-        <v>0.016</v>
+        <v>2.284</v>
       </c>
       <c r="K73">
-        <v>0.013</v>
+        <v>0.961</v>
       </c>
       <c r="N73" t="s">
         <v>85</v>
@@ -3712,37 +3712,37 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1.054</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1.612</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>2.421</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1.883</v>
       </c>
       <c r="G74">
-        <v>0.011</v>
+        <v>2.596</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1.294</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1.033</v>
       </c>
       <c r="J74">
-        <v>0.011</v>
+        <v>1.933</v>
       </c>
       <c r="K74">
-        <v>0.013</v>
+        <v>0.922</v>
       </c>
       <c r="N74" t="s">
         <v>86</v>
@@ -3750,37 +3750,37 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B75">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.606</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1.226</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>2.048</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1.151</v>
       </c>
       <c r="G75">
-        <v>0.011</v>
+        <v>1.508</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>0.881</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>0.739</v>
       </c>
       <c r="J75">
-        <v>0.011</v>
+        <v>1.559</v>
       </c>
       <c r="K75">
-        <v>0.013</v>
+        <v>0.616</v>
       </c>
       <c r="N75" t="s">
         <v>87</v>
@@ -3788,37 +3788,37 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45979</v>
+        <v>45985</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.212</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>0.389</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.993</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>0.297</v>
       </c>
       <c r="G76">
-        <v>0.011</v>
+        <v>0.475</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>0.293</v>
       </c>
       <c r="J76">
-        <v>0.013</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="K76">
-        <v>0.014</v>
+        <v>0.288</v>
       </c>
       <c r="N76" t="s">
         <v>88</v>
@@ -3826,37 +3826,37 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45979</v>
+        <v>45985</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="G77">
-        <v>0.011</v>
+        <v>0.06</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="J77">
-        <v>0.013</v>
+        <v>0.421</v>
       </c>
       <c r="K77">
-        <v>0.014</v>
+        <v>0.046</v>
       </c>
       <c r="N77" t="s">
         <v>89</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45979</v>
+        <v>45985</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.265</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3891,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.013</v>
+        <v>0.039</v>
       </c>
       <c r="K78">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="N78" t="s">
         <v>90</v>
@@ -3902,10 +3902,10 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45979</v>
+        <v>45985</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.234</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3929,10 +3929,10 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0.013</v>
+        <v>0.044</v>
       </c>
       <c r="K79">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="N79" t="s">
         <v>91</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45979</v>
+        <v>45985</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.232</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3967,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0.013</v>
+        <v>0.044</v>
       </c>
       <c r="K80">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="N80" t="s">
         <v>92</v>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45979</v>
+        <v>45985</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.232</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="K81">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="N81" t="s">
         <v>93</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45979</v>
+        <v>45985</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.232</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4043,10 +4043,10 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="K82">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="N82" t="s">
         <v>94</v>
@@ -4054,10 +4054,10 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45979</v>
+        <v>45985</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4081,10 +4081,10 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.04</v>
+        <v>0.011</v>
       </c>
       <c r="K83">
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
       <c r="N83" t="s">
         <v>95</v>
@@ -4092,10 +4092,10 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.023</v>
+        <v>0.047</v>
       </c>
       <c r="F84">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0.041</v>
+        <v>0.011</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.156</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N84" t="s">
         <v>96</v>
@@ -4130,37 +4130,37 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0.136</v>
+        <v>0.047</v>
       </c>
       <c r="F85">
-        <v>0.424</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>0.336</v>
+        <v>0.011</v>
       </c>
       <c r="H85">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>0.046</v>
+        <v>0.032</v>
       </c>
       <c r="N85" t="s">
         <v>97</v>
@@ -4168,37 +4168,37 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>0.414</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.005</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>0.67</v>
+        <v>0.011</v>
       </c>
       <c r="H86">
-        <v>0.306</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0.365</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>0.205</v>
+        <v>0.032</v>
       </c>
       <c r="N86" t="s">
         <v>98</v>
@@ -4206,37 +4206,37 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B87">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>0.292</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>0.435</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>0.639</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.216</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>0.913</v>
+        <v>0.011</v>
       </c>
       <c r="H87">
-        <v>0.657</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0.541</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>1.026</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>0.347</v>
+        <v>0.032</v>
       </c>
       <c r="N87" t="s">
         <v>99</v>
@@ -4244,37 +4244,37 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B88">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>0.378</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>0.547</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0.775</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>1.298</v>
+        <v>0.011</v>
       </c>
       <c r="H88">
-        <v>0.755</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0.669</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>0.347</v>
+        <v>0.032</v>
       </c>
       <c r="N88" t="s">
         <v>100</v>
@@ -4282,37 +4282,37 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B89">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>0.397</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>0.465</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>0.777</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.129</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>0.765</v>
+        <v>0.011</v>
       </c>
       <c r="H89">
-        <v>0.783</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0.669</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>1.076</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>0.347</v>
+        <v>0.032</v>
       </c>
       <c r="N89" t="s">
         <v>101</v>
@@ -4320,37 +4320,37 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B90">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C90">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>0.326</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0.635</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.872</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.533</v>
+        <v>0.011</v>
       </c>
       <c r="H90">
-        <v>0.744</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0.486</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>0.988</v>
+        <v>0.013</v>
       </c>
       <c r="K90">
-        <v>0.264</v>
+        <v>0.032</v>
       </c>
       <c r="N90" t="s">
         <v>102</v>
@@ -4358,37 +4358,37 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B91">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0.196</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>0.374</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.504</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0.459</v>
+        <v>0.011</v>
       </c>
       <c r="H91">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0.313</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0.543</v>
+        <v>0.04</v>
       </c>
       <c r="K91">
-        <v>0.177</v>
+        <v>0.032</v>
       </c>
       <c r="N91" t="s">
         <v>103</v>
@@ -4396,37 +4396,37 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B92">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C92">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>0.15</v>
+        <v>0.015</v>
       </c>
       <c r="F92">
-        <v>0.164</v>
+        <v>0.082</v>
       </c>
       <c r="G92">
-        <v>0.23</v>
+        <v>0.038</v>
       </c>
       <c r="H92">
-        <v>0.145</v>
+        <v>0.012</v>
       </c>
       <c r="I92">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>0.286</v>
+        <v>0.181</v>
       </c>
       <c r="K92">
-        <v>0.041</v>
+        <v>0.051</v>
       </c>
       <c r="N92" t="s">
         <v>104</v>
@@ -4434,37 +4434,37 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B93">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="E93">
-        <v>0.033</v>
+        <v>0.203</v>
       </c>
       <c r="F93">
-        <v>0.016</v>
+        <v>0.438</v>
       </c>
       <c r="G93">
-        <v>0.03</v>
+        <v>0.313</v>
       </c>
       <c r="H93">
-        <v>0.016</v>
+        <v>0.221</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="J93">
-        <v>0.157</v>
+        <v>0.544</v>
       </c>
       <c r="K93">
-        <v>0.026</v>
+        <v>0.102</v>
       </c>
       <c r="N93" t="s">
         <v>105</v>
@@ -4472,37 +4472,37 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B94">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>0.276</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.628</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.872</v>
       </c>
       <c r="G94">
-        <v>0.011</v>
+        <v>0.64</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>0.707</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.455</v>
       </c>
       <c r="J94">
-        <v>0.064</v>
+        <v>1.033</v>
       </c>
       <c r="K94">
-        <v>0.013</v>
+        <v>0.382</v>
       </c>
       <c r="N94" t="s">
         <v>106</v>
@@ -4510,37 +4510,37 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B95">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>0.743</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1.107</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1.109</v>
       </c>
       <c r="G95">
-        <v>0.011</v>
+        <v>0.653</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>0.663</v>
       </c>
       <c r="J95">
-        <v>0.068</v>
+        <v>1.897</v>
       </c>
       <c r="K95">
-        <v>0.013</v>
+        <v>0.826</v>
       </c>
       <c r="N95" t="s">
         <v>107</v>
@@ -4548,37 +4548,37 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B96">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.742</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.886</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1.683</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1.437</v>
       </c>
       <c r="G96">
-        <v>0.011</v>
+        <v>1.759</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1.061</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>0.679</v>
       </c>
       <c r="J96">
-        <v>0.068</v>
+        <v>1.932</v>
       </c>
       <c r="K96">
-        <v>0.013</v>
+        <v>0.901</v>
       </c>
       <c r="N96" t="s">
         <v>108</v>
@@ -4586,37 +4586,37 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B97">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.732</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.902</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1.616</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1.489</v>
       </c>
       <c r="G97">
-        <v>0.011</v>
+        <v>2.026</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1.061</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>0.679</v>
       </c>
       <c r="J97">
-        <v>0.016</v>
+        <v>2.042</v>
       </c>
       <c r="K97">
-        <v>0.013</v>
+        <v>0.919</v>
       </c>
       <c r="N97" t="s">
         <v>109</v>
@@ -4624,37 +4624,37 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B98">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>0.806</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1.562</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1.417</v>
       </c>
       <c r="G98">
-        <v>0.011</v>
+        <v>2.114</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>0.541</v>
       </c>
       <c r="J98">
-        <v>0.016</v>
+        <v>1.692</v>
       </c>
       <c r="K98">
-        <v>0.013</v>
+        <v>0.774</v>
       </c>
       <c r="N98" t="s">
         <v>110</v>
@@ -4662,37 +4662,37 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B99">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.554</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.945</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="G99">
-        <v>0.011</v>
+        <v>0.475</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>0.729</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>0.346</v>
       </c>
       <c r="J99">
-        <v>0.016</v>
+        <v>1.033</v>
       </c>
       <c r="K99">
-        <v>0.013</v>
+        <v>0.365</v>
       </c>
       <c r="N99" t="s">
         <v>111</v>
@@ -4700,37 +4700,37 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>45980</v>
+        <v>45986</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.428</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.182</v>
       </c>
       <c r="G100">
-        <v>0.011</v>
+        <v>0.269</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="J100">
-        <v>0.013</v>
+        <v>0.518</v>
       </c>
       <c r="K100">
-        <v>0.014</v>
+        <v>0.143</v>
       </c>
       <c r="N100" t="s">
         <v>112</v>
@@ -4738,37 +4738,37 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>45980</v>
+        <v>45986</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="G101">
-        <v>0.011</v>
+        <v>0.032</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0.013</v>
+        <v>0.426</v>
       </c>
       <c r="K101">
-        <v>0.014</v>
+        <v>0.026</v>
       </c>
       <c r="N101" t="s">
         <v>113</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="2">
-        <v>45980</v>
+        <v>45986</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -4803,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="J102">
+        <v>0.039</v>
+      </c>
+      <c r="K102">
         <v>0.013</v>
-      </c>
-      <c r="K102">
-        <v>0.014</v>
       </c>
       <c r="N102" t="s">
         <v>114</v>
@@ -4814,10 +4814,10 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="2">
-        <v>45980</v>
+        <v>45986</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4841,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0.013</v>
+        <v>0.044</v>
       </c>
       <c r="K103">
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
       <c r="N103" t="s">
         <v>115</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="2">
-        <v>45980</v>
+        <v>45986</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4879,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0.013</v>
+        <v>0.044</v>
       </c>
       <c r="K104">
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
       <c r="N104" t="s">
         <v>116</v>
@@ -4890,10 +4890,10 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="2">
-        <v>45980</v>
+        <v>45986</v>
       </c>
       <c r="B105">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4917,10 +4917,10 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="K105">
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
       <c r="N105" t="s">
         <v>117</v>
@@ -4928,10 +4928,10 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="2">
-        <v>45980</v>
+        <v>45986</v>
       </c>
       <c r="B106">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4955,10 +4955,10 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="K106">
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
       <c r="N106" t="s">
         <v>118</v>
@@ -4966,10 +4966,10 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="2">
-        <v>45980</v>
+        <v>45986</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4993,10 +4993,10 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0.04</v>
+        <v>0.011</v>
       </c>
       <c r="K107">
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
       <c r="N107" t="s">
         <v>119</v>
@@ -5004,10 +5004,10 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B108">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -5016,13 +5016,13 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>0.021</v>
+        <v>0.011</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="N108" t="s">
         <v>120</v>
@@ -5042,37 +5042,37 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B109">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>0.133</v>
+        <v>0.018</v>
       </c>
       <c r="F109">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>0.151</v>
+        <v>0.011</v>
       </c>
       <c r="H109">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>0.046</v>
+        <v>0.032</v>
       </c>
       <c r="N109" t="s">
         <v>121</v>
@@ -5080,37 +5080,37 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B110">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>0.294</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>0.371</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.497</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>0.422</v>
+        <v>0.011</v>
       </c>
       <c r="H110">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>0.354</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>0.205</v>
+        <v>0.032</v>
       </c>
       <c r="N110" t="s">
         <v>122</v>
@@ -5118,37 +5118,37 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B111">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>0.464</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>0.483</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>0.627</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.678</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>0.59</v>
+        <v>0.011</v>
       </c>
       <c r="H111">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>0.184</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>0.409</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>0.347</v>
+        <v>0.032</v>
       </c>
       <c r="N111" t="s">
         <v>123</v>
@@ -5156,37 +5156,37 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B112">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C112">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>0.572</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>0.721</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.586</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>0.55</v>
+        <v>0.011</v>
       </c>
       <c r="H112">
-        <v>0.306</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>0.404</v>
+        <v>0.013</v>
       </c>
       <c r="K112">
-        <v>0.347</v>
+        <v>0.032</v>
       </c>
       <c r="N112" t="s">
         <v>124</v>
@@ -5194,37 +5194,37 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B113">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>0.529</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>0.585</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>0.737</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.417</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>0.423</v>
+        <v>0.011</v>
       </c>
       <c r="H113">
-        <v>0.236</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>0.403</v>
+        <v>0.013</v>
       </c>
       <c r="K113">
-        <v>0.369</v>
+        <v>0.032</v>
       </c>
       <c r="N113" t="s">
         <v>125</v>
@@ -5232,37 +5232,37 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B114">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>0.503</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>0.551</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.228</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>0.253</v>
+        <v>0.011</v>
       </c>
       <c r="H114">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>0.335</v>
+        <v>0.013</v>
       </c>
       <c r="K114">
-        <v>0.28</v>
+        <v>0.032</v>
       </c>
       <c r="N114" t="s">
         <v>126</v>
@@ -5270,37 +5270,37 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B115">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <v>0.287</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>0.337</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>0.451</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.148</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>0.162</v>
+        <v>0.011</v>
       </c>
       <c r="H115">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>0.287</v>
+        <v>0.036</v>
       </c>
       <c r="K115">
-        <v>0.193</v>
+        <v>0.032</v>
       </c>
       <c r="N115" t="s">
         <v>127</v>
@@ -5308,37 +5308,37 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B116">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C116">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>0.212</v>
+        <v>0.016</v>
       </c>
       <c r="F116">
-        <v>0.066</v>
+        <v>0.08</v>
       </c>
       <c r="G116">
-        <v>0.095</v>
+        <v>0.044</v>
       </c>
       <c r="H116">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>0.246</v>
+        <v>0.153</v>
       </c>
       <c r="K116">
-        <v>0.041</v>
+        <v>0.038</v>
       </c>
       <c r="N116" t="s">
         <v>128</v>
@@ -5346,37 +5346,37 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B117">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>0.01</v>
+        <v>0.067</v>
       </c>
       <c r="D117">
-        <v>0.011</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E117">
-        <v>0.033</v>
+        <v>0.117</v>
       </c>
       <c r="F117">
-        <v>0.013</v>
+        <v>0.671</v>
       </c>
       <c r="G117">
-        <v>0.019</v>
+        <v>0.428</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>0.179</v>
       </c>
       <c r="J117">
-        <v>0.09</v>
+        <v>0.45</v>
       </c>
       <c r="K117">
-        <v>0.026</v>
+        <v>0.06</v>
       </c>
       <c r="N117" t="s">
         <v>129</v>
@@ -5384,37 +5384,37 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B118">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.229</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>0.258</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.374</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="G118">
-        <v>0.011</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="J118">
-        <v>0.038</v>
+        <v>1.025</v>
       </c>
       <c r="K118">
-        <v>0.013</v>
+        <v>0.305</v>
       </c>
       <c r="N118" t="s">
         <v>130</v>
@@ -5422,37 +5422,37 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B119">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.388</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.644</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1.484</v>
       </c>
       <c r="G119">
-        <v>0.011</v>
+        <v>2.391</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="J119">
-        <v>0.043</v>
+        <v>1.761</v>
       </c>
       <c r="K119">
-        <v>0.013</v>
+        <v>0.407</v>
       </c>
       <c r="N119" t="s">
         <v>131</v>
@@ -5460,37 +5460,37 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B120">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.551</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>0.668</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.792</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>2.139</v>
       </c>
       <c r="G120">
-        <v>0.011</v>
+        <v>2.474</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>0.995</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>0.916</v>
       </c>
       <c r="J120">
-        <v>0.043</v>
+        <v>1.806</v>
       </c>
       <c r="K120">
-        <v>0.013</v>
+        <v>0.596</v>
       </c>
       <c r="N120" t="s">
         <v>132</v>
@@ -5498,37 +5498,37 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B121">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>0.756</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.784</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1.994</v>
       </c>
       <c r="G121">
-        <v>0.011</v>
+        <v>2.37</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>0.783</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>0.901</v>
       </c>
       <c r="J121">
-        <v>0.011</v>
+        <v>1.894</v>
       </c>
       <c r="K121">
-        <v>0.013</v>
+        <v>0.596</v>
       </c>
       <c r="N121" t="s">
         <v>133</v>
@@ -5536,37 +5536,37 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B122">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>0.436</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>0.647</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.642</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1.323</v>
       </c>
       <c r="G122">
-        <v>0.011</v>
+        <v>2.128</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>0.678</v>
       </c>
       <c r="J122">
-        <v>0.011</v>
+        <v>1.084</v>
       </c>
       <c r="K122">
-        <v>0.013</v>
+        <v>0.425</v>
       </c>
       <c r="N122" t="s">
         <v>134</v>
@@ -5574,37 +5574,37 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="2">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B123">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>0.284</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>0.372</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.461</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>0.755</v>
       </c>
       <c r="G123">
-        <v>0.011</v>
+        <v>0.583</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>0.302</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="J123">
-        <v>0.011</v>
+        <v>0.652</v>
       </c>
       <c r="K123">
-        <v>0.013</v>
+        <v>0.307</v>
       </c>
       <c r="N123" t="s">
         <v>135</v>
@@ -5612,37 +5612,37 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="2">
-        <v>45981</v>
+        <v>45987</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.198</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>0.172</v>
       </c>
       <c r="G124">
-        <v>0.011</v>
+        <v>0.235</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>0.153</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="K124">
-        <v>0.014</v>
+        <v>0.053</v>
       </c>
       <c r="N124" t="s">
         <v>136</v>
@@ -5650,10 +5650,10 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="2">
-        <v>45981</v>
+        <v>45987</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5662,25 +5662,25 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="G125">
-        <v>0.011</v>
+        <v>0.022</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>0.157</v>
       </c>
       <c r="K125">
-        <v>0.014</v>
+        <v>0.026</v>
       </c>
       <c r="N125" t="s">
         <v>137</v>
@@ -5688,10 +5688,10 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="2">
-        <v>45981</v>
+        <v>45987</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5715,10 +5715,10 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="K126">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N126" t="s">
         <v>138</v>
@@ -5726,10 +5726,10 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="2">
-        <v>45981</v>
+        <v>45987</v>
       </c>
       <c r="B127">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="K127">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N127" t="s">
         <v>139</v>
@@ -5764,10 +5764,10 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="2">
-        <v>45981</v>
+        <v>45987</v>
       </c>
       <c r="B128">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -5791,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="K128">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N128" t="s">
         <v>140</v>
@@ -5802,10 +5802,10 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="2">
-        <v>45981</v>
+        <v>45987</v>
       </c>
       <c r="B129">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -5829,10 +5829,10 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K129">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N129" t="s">
         <v>141</v>
@@ -5840,10 +5840,10 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="2">
-        <v>45981</v>
+        <v>45987</v>
       </c>
       <c r="B130">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5867,10 +5867,10 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K130">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N130" t="s">
         <v>142</v>
@@ -5878,10 +5878,10 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="2">
-        <v>45981</v>
+        <v>45987</v>
       </c>
       <c r="B131">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0.031</v>
+        <v>0.016</v>
       </c>
       <c r="K131">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N131" t="s">
         <v>143</v>
@@ -5916,10 +5916,10 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B132">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5928,25 +5928,25 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>0.041</v>
+        <v>0.011</v>
       </c>
       <c r="H132">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>0.438</v>
+        <v>0.013</v>
       </c>
       <c r="K132">
-        <v>0.051</v>
+        <v>0.014</v>
       </c>
       <c r="N132" t="s">
         <v>144</v>
@@ -5954,37 +5954,37 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B133">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>0.164</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>0.216</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.456</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>0.393</v>
+        <v>0.011</v>
       </c>
       <c r="H133">
-        <v>0.172</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>0.218</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>0.657</v>
+        <v>0.013</v>
       </c>
       <c r="K133">
-        <v>0.218</v>
+        <v>0.014</v>
       </c>
       <c r="N133" t="s">
         <v>145</v>
@@ -5992,37 +5992,37 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B134">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C134">
-        <v>0.448</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.205</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>0.6</v>
+        <v>0.011</v>
       </c>
       <c r="H134">
-        <v>0.479</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>0.501</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>1.073</v>
+        <v>0.013</v>
       </c>
       <c r="K134">
-        <v>0.574</v>
+        <v>0.014</v>
       </c>
       <c r="N134" t="s">
         <v>146</v>
@@ -6030,37 +6030,37 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B135">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C135">
-        <v>0.964</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>1.124</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.506</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>1.723</v>
+        <v>0.011</v>
       </c>
       <c r="H135">
-        <v>0.792</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>0.777</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>1.76</v>
+        <v>0.013</v>
       </c>
       <c r="K135">
-        <v>0.916</v>
+        <v>0.014</v>
       </c>
       <c r="N135" t="s">
         <v>147</v>
@@ -6068,37 +6068,37 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B136">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C136">
-        <v>1.308</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>1.413</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>1.351</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>2.005</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>2.135</v>
+        <v>0.011</v>
       </c>
       <c r="H136">
-        <v>1.003</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0.862</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>2.139</v>
+        <v>0.013</v>
       </c>
       <c r="K136">
-        <v>0.91</v>
+        <v>0.014</v>
       </c>
       <c r="N136" t="s">
         <v>148</v>
@@ -6106,37 +6106,37 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B137">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C137">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>1.636</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>1.389</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>2.216</v>
+        <v>0.011</v>
       </c>
       <c r="H137">
-        <v>1.061</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>0.872</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>1.931</v>
+        <v>0.013</v>
       </c>
       <c r="K137">
-        <v>0.91</v>
+        <v>0.014</v>
       </c>
       <c r="N137" t="s">
         <v>149</v>
@@ -6144,37 +6144,37 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B138">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C138">
-        <v>1.223</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>1.525</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>1.178</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.419</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>2.07</v>
+        <v>0.011</v>
       </c>
       <c r="H138">
-        <v>0.995</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>0.879</v>
+        <v>0</v>
       </c>
       <c r="J138">
-        <v>1.764</v>
+        <v>0.013</v>
       </c>
       <c r="K138">
-        <v>0.88</v>
+        <v>0.014</v>
       </c>
       <c r="N138" t="s">
         <v>150</v>
@@ -6182,37 +6182,37 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B139">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C139">
-        <v>0.635</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>0.9379999999999999</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>0.783</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>0.641</v>
+        <v>0.011</v>
       </c>
       <c r="H139">
-        <v>0.726</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>1.218</v>
+        <v>0.04</v>
       </c>
       <c r="K139">
-        <v>0.74</v>
+        <v>0.014</v>
       </c>
       <c r="N139" t="s">
         <v>151</v>
@@ -6220,37 +6220,37 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B140">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C140">
-        <v>0.228</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>0.371</v>
+        <v>0.016</v>
       </c>
       <c r="F140">
-        <v>0.257</v>
+        <v>0.032</v>
       </c>
       <c r="G140">
-        <v>0.349</v>
+        <v>0.018</v>
       </c>
       <c r="H140">
-        <v>0.268</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>0.614</v>
+        <v>0.091</v>
       </c>
       <c r="K140">
-        <v>0.269</v>
+        <v>0.024</v>
       </c>
       <c r="N140" t="s">
         <v>152</v>
@@ -6258,37 +6258,37 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B141">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C141">
-        <v>0.022</v>
+        <v>0.049</v>
       </c>
       <c r="D141">
-        <v>0.025</v>
+        <v>0.054</v>
       </c>
       <c r="E141">
-        <v>0.048</v>
+        <v>0.102</v>
       </c>
       <c r="F141">
-        <v>0.027</v>
+        <v>0.22</v>
       </c>
       <c r="G141">
-        <v>0.045</v>
+        <v>0.158</v>
       </c>
       <c r="H141">
-        <v>0.041</v>
+        <v>0.106</v>
       </c>
       <c r="I141">
-        <v>0.021</v>
+        <v>0.074</v>
       </c>
       <c r="J141">
-        <v>0.411</v>
+        <v>0.27</v>
       </c>
       <c r="K141">
-        <v>0.026</v>
+        <v>0.038</v>
       </c>
       <c r="N141" t="s">
         <v>153</v>
@@ -6296,37 +6296,37 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B142">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>0.211</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>0.448</v>
       </c>
       <c r="G142">
-        <v>0.011</v>
+        <v>0.438</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="J142">
-        <v>0.039</v>
+        <v>0.488</v>
       </c>
       <c r="K142">
-        <v>0.013</v>
+        <v>0.189</v>
       </c>
       <c r="N142" t="s">
         <v>154</v>
@@ -6334,37 +6334,37 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B143">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>0.398</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>0.399</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.585</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="G143">
-        <v>0.011</v>
+        <v>0.647</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>0.313</v>
       </c>
       <c r="J143">
-        <v>0.044</v>
+        <v>0.594</v>
       </c>
       <c r="K143">
-        <v>0.013</v>
+        <v>0.298</v>
       </c>
       <c r="N143" t="s">
         <v>155</v>
@@ -6372,37 +6372,37 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B144">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>0.547</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>0.574</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.676</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>0.857</v>
       </c>
       <c r="G144">
-        <v>0.011</v>
+        <v>0.704</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>0.401</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>0.365</v>
       </c>
       <c r="J144">
-        <v>0.044</v>
+        <v>0.641</v>
       </c>
       <c r="K144">
-        <v>0.013</v>
+        <v>0.369</v>
       </c>
       <c r="N144" t="s">
         <v>156</v>
@@ -6410,37 +6410,37 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B145">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>0.534</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>0.578</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.704</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>0.819</v>
       </c>
       <c r="G145">
-        <v>0.011</v>
+        <v>0.675</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>0.393</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>0.327</v>
       </c>
       <c r="J145">
-        <v>0.011</v>
+        <v>0.522</v>
       </c>
       <c r="K145">
-        <v>0.013</v>
+        <v>0.369</v>
       </c>
       <c r="N145" t="s">
         <v>157</v>
@@ -6448,37 +6448,37 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B146">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>0.473</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.622</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>0.637</v>
       </c>
       <c r="G146">
-        <v>0.011</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>0.302</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="J146">
-        <v>0.011</v>
+        <v>0.398</v>
       </c>
       <c r="K146">
-        <v>0.013</v>
+        <v>0.307</v>
       </c>
       <c r="N146" t="s">
         <v>158</v>
@@ -6486,37 +6486,37 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="2">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B147">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>0.186</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>0.263</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.372</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>0.331</v>
       </c>
       <c r="G147">
-        <v>0.011</v>
+        <v>0.417</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="J147">
-        <v>0.011</v>
+        <v>0.286</v>
       </c>
       <c r="K147">
-        <v>0.013</v>
+        <v>0.193</v>
       </c>
       <c r="N147" t="s">
         <v>159</v>
@@ -6524,37 +6524,37 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="2">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G148">
-        <v>0.011</v>
+        <v>0.114</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>0.241</v>
       </c>
       <c r="K148">
-        <v>0.014</v>
+        <v>0.041</v>
       </c>
       <c r="N148" t="s">
         <v>160</v>
@@ -6562,10 +6562,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="2">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -6574,13 +6574,13 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G149">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -6589,10 +6589,10 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="K149">
-        <v>0.014</v>
+        <v>0.026</v>
       </c>
       <c r="N149" t="s">
         <v>161</v>
@@ -6600,10 +6600,10 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="2">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -6627,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="K150">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N150" t="s">
         <v>162</v>
@@ -6638,10 +6638,10 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="2">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -6665,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="K151">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N151" t="s">
         <v>163</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="2">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B152">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -6703,10 +6703,10 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="K152">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N152" t="s">
         <v>164</v>
@@ -6714,10 +6714,10 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="2">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B153">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -6741,10 +6741,10 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K153">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N153" t="s">
         <v>165</v>
@@ -6752,10 +6752,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="2">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B154">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -6779,10 +6779,10 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K154">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N154" t="s">
         <v>166</v>
@@ -6790,10 +6790,10 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="2">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B155">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -6817,10 +6817,10 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>0.035</v>
+        <v>0.016</v>
       </c>
       <c r="K155">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N155" t="s">
         <v>167</v>
@@ -6828,10 +6828,10 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B156">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6840,13 +6840,13 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>0.06</v>
+        <v>0.011</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -6855,10 +6855,10 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>0.151</v>
+        <v>0.013</v>
       </c>
       <c r="K156">
-        <v>0.038</v>
+        <v>0.014</v>
       </c>
       <c r="N156" t="s">
         <v>168</v>
@@ -6866,37 +6866,37 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B157">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C157">
-        <v>0.06900000000000001</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>0.08599999999999999</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>0.131</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.603</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>0.419</v>
+        <v>0.011</v>
       </c>
       <c r="H157">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="J157">
-        <v>0.311</v>
+        <v>0.013</v>
       </c>
       <c r="K157">
-        <v>0.046</v>
+        <v>0.014</v>
       </c>
       <c r="N157" t="s">
         <v>169</v>
@@ -6904,37 +6904,37 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B158">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C158">
-        <v>0.281</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>0.362</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>0.422</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.421</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>0.961</v>
+        <v>0.011</v>
       </c>
       <c r="H158">
-        <v>0.306</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>0.254</v>
+        <v>0</v>
       </c>
       <c r="J158">
-        <v>0.722</v>
+        <v>0.013</v>
       </c>
       <c r="K158">
-        <v>0.292</v>
+        <v>0.014</v>
       </c>
       <c r="N158" t="s">
         <v>170</v>
@@ -6942,37 +6942,37 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B159">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C159">
-        <v>0.5620000000000001</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>0.6850000000000001</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>0.703</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.538</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>1.971</v>
+        <v>0.011</v>
       </c>
       <c r="H159">
-        <v>0.601</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>0.386</v>
+        <v>0</v>
       </c>
       <c r="J159">
-        <v>1.105</v>
+        <v>0.013</v>
       </c>
       <c r="K159">
-        <v>0.393</v>
+        <v>0.014</v>
       </c>
       <c r="N159" t="s">
         <v>171</v>
@@ -6980,37 +6980,37 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B160">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C160">
-        <v>0.724</v>
+        <v>0</v>
       </c>
       <c r="D160">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>0.775</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>2.285</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>2.051</v>
+        <v>0.011</v>
       </c>
       <c r="H160">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>0.5590000000000001</v>
+        <v>0</v>
       </c>
       <c r="J160">
-        <v>1.267</v>
+        <v>0.013</v>
       </c>
       <c r="K160">
-        <v>0.455</v>
+        <v>0.014</v>
       </c>
       <c r="N160" t="s">
         <v>172</v>
@@ -7018,37 +7018,37 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B161">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C161">
-        <v>0.707</v>
+        <v>0</v>
       </c>
       <c r="D161">
-        <v>0.859</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>0.791</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>2.053</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>2.085</v>
+        <v>0.011</v>
       </c>
       <c r="H161">
-        <v>0.728</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>0.618</v>
+        <v>0</v>
       </c>
       <c r="J161">
-        <v>1.23</v>
+        <v>0.013</v>
       </c>
       <c r="K161">
-        <v>0.455</v>
+        <v>0.014</v>
       </c>
       <c r="N161" t="s">
         <v>173</v>
@@ -7056,37 +7056,37 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B162">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C162">
-        <v>0.555</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>0.734</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>0.695</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.366</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>1.896</v>
+        <v>0.011</v>
       </c>
       <c r="H162">
-        <v>0.695</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>0.498</v>
+        <v>0</v>
       </c>
       <c r="J162">
-        <v>0.961</v>
+        <v>0.013</v>
       </c>
       <c r="K162">
-        <v>0.365</v>
+        <v>0.014</v>
       </c>
       <c r="N162" t="s">
         <v>174</v>
@@ -7094,37 +7094,37 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B163">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C163">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>0.417</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>0.456</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>0.603</v>
+        <v>0.011</v>
       </c>
       <c r="H163">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J163">
-        <v>0.979</v>
+        <v>0.04</v>
       </c>
       <c r="K163">
-        <v>0.258</v>
+        <v>0.014</v>
       </c>
       <c r="N163" t="s">
         <v>175</v>
@@ -7132,37 +7132,37 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B164">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C164">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>0.203</v>
+        <v>0.018</v>
       </c>
       <c r="F164">
-        <v>0.232</v>
+        <v>0.032</v>
       </c>
       <c r="G164">
-        <v>0.342</v>
+        <v>0.016</v>
       </c>
       <c r="H164">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="J164">
-        <v>0.281</v>
+        <v>0.091</v>
       </c>
       <c r="K164">
-        <v>0.044</v>
+        <v>0.024</v>
       </c>
       <c r="N164" t="s">
         <v>176</v>
@@ -7170,37 +7170,37 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B165">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C165">
-        <v>0.01</v>
+        <v>0.047</v>
       </c>
       <c r="D165">
-        <v>0.011</v>
+        <v>0.054</v>
       </c>
       <c r="E165">
-        <v>0.034</v>
+        <v>0.098</v>
       </c>
       <c r="F165">
-        <v>0.026</v>
+        <v>0.195</v>
       </c>
       <c r="G165">
-        <v>0.034</v>
+        <v>0.139</v>
       </c>
       <c r="H165">
-        <v>0.016</v>
+        <v>0.106</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J165">
-        <v>0.154</v>
+        <v>0.27</v>
       </c>
       <c r="K165">
-        <v>0.026</v>
+        <v>0.046</v>
       </c>
       <c r="N165" t="s">
         <v>177</v>
@@ -7208,37 +7208,37 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B166">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>0.179</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.313</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>0.498</v>
       </c>
       <c r="G166">
-        <v>0.011</v>
+        <v>0.429</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>0.184</v>
       </c>
       <c r="J166">
-        <v>0.064</v>
+        <v>0.42</v>
       </c>
       <c r="K166">
-        <v>0.013</v>
+        <v>0.298</v>
       </c>
       <c r="N166" t="s">
         <v>178</v>
@@ -7246,37 +7246,37 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B167">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>0.341</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>0.435</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.609</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>0.652</v>
       </c>
       <c r="G167">
-        <v>0.011</v>
+        <v>0.594</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>0.401</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>0.307</v>
       </c>
       <c r="J167">
-        <v>0.068</v>
+        <v>0.545</v>
       </c>
       <c r="K167">
-        <v>0.013</v>
+        <v>0.461</v>
       </c>
       <c r="N167" t="s">
         <v>179</v>
@@ -7284,37 +7284,37 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B168">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>0.489</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>0.573</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="G168">
-        <v>0.011</v>
+        <v>0.633</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>0.631</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>0.401</v>
       </c>
       <c r="J168">
-        <v>0.063</v>
+        <v>0.652</v>
       </c>
       <c r="K168">
-        <v>0.013</v>
+        <v>0.721</v>
       </c>
       <c r="N168" t="s">
         <v>180</v>
@@ -7322,37 +7322,37 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B169">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>0.455</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.659</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>0.743</v>
       </c>
       <c r="G169">
-        <v>0.011</v>
+        <v>0.59</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>0.631</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="J169">
-        <v>0.011</v>
+        <v>0.601</v>
       </c>
       <c r="K169">
-        <v>0.013</v>
+        <v>0.721</v>
       </c>
       <c r="N169" t="s">
         <v>181</v>
@@ -7360,37 +7360,37 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B170">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>0.343</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>0.461</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.573</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>0.497</v>
       </c>
       <c r="G170">
-        <v>0.011</v>
+        <v>0.508</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>0.211</v>
       </c>
       <c r="J170">
-        <v>0.011</v>
+        <v>0.469</v>
       </c>
       <c r="K170">
-        <v>0.013</v>
+        <v>0.473</v>
       </c>
       <c r="N170" t="s">
         <v>182</v>

--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -61,147 +61,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>30.11.202514</t>
-  </si>
-  <si>
-    <t>30.11.202515</t>
-  </si>
-  <si>
-    <t>30.11.202516</t>
-  </si>
-  <si>
-    <t>30.11.202517</t>
-  </si>
-  <si>
-    <t>30.11.202518</t>
-  </si>
-  <si>
-    <t>30.11.202519</t>
-  </si>
-  <si>
-    <t>30.11.202520</t>
-  </si>
-  <si>
-    <t>30.11.202521</t>
-  </si>
-  <si>
-    <t>30.11.202522</t>
-  </si>
-  <si>
-    <t>30.11.202523</t>
-  </si>
-  <si>
-    <t>30.11.202524</t>
-  </si>
-  <si>
-    <t>01.12.20251</t>
-  </si>
-  <si>
-    <t>01.12.20252</t>
-  </si>
-  <si>
-    <t>01.12.20253</t>
-  </si>
-  <si>
-    <t>01.12.20254</t>
-  </si>
-  <si>
-    <t>01.12.20255</t>
-  </si>
-  <si>
-    <t>01.12.20256</t>
-  </si>
-  <si>
-    <t>01.12.20257</t>
-  </si>
-  <si>
-    <t>01.12.20258</t>
-  </si>
-  <si>
-    <t>01.12.20259</t>
-  </si>
-  <si>
-    <t>01.12.202510</t>
-  </si>
-  <si>
-    <t>01.12.202511</t>
-  </si>
-  <si>
-    <t>01.12.202512</t>
-  </si>
-  <si>
-    <t>01.12.202513</t>
-  </si>
-  <si>
-    <t>01.12.202514</t>
-  </si>
-  <si>
-    <t>01.12.202515</t>
-  </si>
-  <si>
-    <t>01.12.202516</t>
-  </si>
-  <si>
-    <t>01.12.202517</t>
-  </si>
-  <si>
-    <t>01.12.202518</t>
-  </si>
-  <si>
-    <t>01.12.202519</t>
-  </si>
-  <si>
-    <t>01.12.202520</t>
-  </si>
-  <si>
-    <t>01.12.202521</t>
-  </si>
-  <si>
-    <t>01.12.202522</t>
-  </si>
-  <si>
-    <t>01.12.202523</t>
-  </si>
-  <si>
-    <t>01.12.202524</t>
-  </si>
-  <si>
-    <t>02.12.20251</t>
-  </si>
-  <si>
-    <t>02.12.20252</t>
-  </si>
-  <si>
-    <t>02.12.20253</t>
-  </si>
-  <si>
-    <t>02.12.20254</t>
-  </si>
-  <si>
-    <t>02.12.20255</t>
-  </si>
-  <si>
-    <t>02.12.20256</t>
-  </si>
-  <si>
-    <t>02.12.20257</t>
-  </si>
-  <si>
-    <t>02.12.20258</t>
-  </si>
-  <si>
-    <t>02.12.20259</t>
-  </si>
-  <si>
-    <t>02.12.202510</t>
-  </si>
-  <si>
-    <t>02.12.202511</t>
-  </si>
-  <si>
-    <t>02.12.202512</t>
-  </si>
-  <si>
     <t>02.12.202513</t>
   </si>
   <si>
@@ -566,6 +425,147 @@
   </si>
   <si>
     <t>07.12.202514</t>
+  </si>
+  <si>
+    <t>07.12.202515</t>
+  </si>
+  <si>
+    <t>07.12.202516</t>
+  </si>
+  <si>
+    <t>07.12.202517</t>
+  </si>
+  <si>
+    <t>07.12.202518</t>
+  </si>
+  <si>
+    <t>07.12.202519</t>
+  </si>
+  <si>
+    <t>07.12.202520</t>
+  </si>
+  <si>
+    <t>07.12.202521</t>
+  </si>
+  <si>
+    <t>07.12.202522</t>
+  </si>
+  <si>
+    <t>07.12.202523</t>
+  </si>
+  <si>
+    <t>07.12.202524</t>
+  </si>
+  <si>
+    <t>08.12.20251</t>
+  </si>
+  <si>
+    <t>08.12.20252</t>
+  </si>
+  <si>
+    <t>08.12.20253</t>
+  </si>
+  <si>
+    <t>08.12.20254</t>
+  </si>
+  <si>
+    <t>08.12.20255</t>
+  </si>
+  <si>
+    <t>08.12.20256</t>
+  </si>
+  <si>
+    <t>08.12.20257</t>
+  </si>
+  <si>
+    <t>08.12.20258</t>
+  </si>
+  <si>
+    <t>08.12.20259</t>
+  </si>
+  <si>
+    <t>08.12.202510</t>
+  </si>
+  <si>
+    <t>08.12.202511</t>
+  </si>
+  <si>
+    <t>08.12.202512</t>
+  </si>
+  <si>
+    <t>08.12.202513</t>
+  </si>
+  <si>
+    <t>08.12.202514</t>
+  </si>
+  <si>
+    <t>08.12.202515</t>
+  </si>
+  <si>
+    <t>08.12.202516</t>
+  </si>
+  <si>
+    <t>08.12.202517</t>
+  </si>
+  <si>
+    <t>08.12.202518</t>
+  </si>
+  <si>
+    <t>08.12.202519</t>
+  </si>
+  <si>
+    <t>08.12.202520</t>
+  </si>
+  <si>
+    <t>08.12.202521</t>
+  </si>
+  <si>
+    <t>08.12.202522</t>
+  </si>
+  <si>
+    <t>08.12.202523</t>
+  </si>
+  <si>
+    <t>08.12.202524</t>
+  </si>
+  <si>
+    <t>09.12.20251</t>
+  </si>
+  <si>
+    <t>09.12.20252</t>
+  </si>
+  <si>
+    <t>09.12.20253</t>
+  </si>
+  <si>
+    <t>09.12.20254</t>
+  </si>
+  <si>
+    <t>09.12.20255</t>
+  </si>
+  <si>
+    <t>09.12.20256</t>
+  </si>
+  <si>
+    <t>09.12.20257</t>
+  </si>
+  <si>
+    <t>09.12.20258</t>
+  </si>
+  <si>
+    <t>09.12.20259</t>
+  </si>
+  <si>
+    <t>09.12.202510</t>
+  </si>
+  <si>
+    <t>09.12.202511</t>
+  </si>
+  <si>
+    <t>09.12.202512</t>
+  </si>
+  <si>
+    <t>09.12.202513</t>
   </si>
 </sst>
 </file>
@@ -982,10 +982,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.106</v>
+        <v>0.11</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0.034</v>
       </c>
       <c r="K3">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="O3" t="s">
         <v>16</v>
@@ -1058,37 +1058,37 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>0.07099999999999999</v>
+        <v>0.331</v>
       </c>
       <c r="D4">
-        <v>0.111</v>
+        <v>0.365</v>
       </c>
       <c r="E4">
-        <v>0.207</v>
+        <v>0.205</v>
       </c>
       <c r="F4">
-        <v>0.127</v>
+        <v>0.496</v>
       </c>
       <c r="G4">
-        <v>0.126</v>
+        <v>0.768</v>
       </c>
       <c r="H4">
-        <v>0.145</v>
+        <v>0.302</v>
       </c>
       <c r="I4">
-        <v>0.068</v>
+        <v>0.447</v>
       </c>
       <c r="J4">
-        <v>0.269</v>
+        <v>0.408</v>
       </c>
       <c r="K4">
-        <v>0.033</v>
+        <v>0.193</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
@@ -1096,37 +1096,37 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>0.026</v>
+        <v>0.234</v>
       </c>
       <c r="D5">
-        <v>0.031</v>
+        <v>0.312</v>
       </c>
       <c r="E5">
-        <v>0.096</v>
+        <v>0.207</v>
       </c>
       <c r="F5">
-        <v>0.053</v>
+        <v>0.343</v>
       </c>
       <c r="G5">
-        <v>0.091</v>
+        <v>0.73</v>
       </c>
       <c r="H5">
-        <v>0.034</v>
+        <v>0.217</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="J5">
-        <v>0.154</v>
+        <v>0.47</v>
       </c>
       <c r="K5">
-        <v>0.033</v>
+        <v>0.193</v>
       </c>
       <c r="O5" t="s">
         <v>18</v>
@@ -1134,37 +1134,37 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="E6">
-        <v>0.015</v>
+        <v>0.143</v>
       </c>
       <c r="F6">
-        <v>0.011</v>
+        <v>0.148</v>
       </c>
       <c r="G6">
-        <v>0.014</v>
+        <v>0.249</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="J6">
-        <v>0.08599999999999999</v>
+        <v>0.251</v>
       </c>
       <c r="K6">
-        <v>0.013</v>
+        <v>0.044</v>
       </c>
       <c r="O6" t="s">
         <v>19</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.016</v>
+        <v>0.026</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="G7">
-        <v>0.011</v>
+        <v>0.019</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.038</v>
+        <v>0.09</v>
       </c>
       <c r="K7">
-        <v>0.013</v>
+        <v>0.026</v>
       </c>
       <c r="O7" t="s">
         <v>20</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.043</v>
+        <v>0.038</v>
       </c>
       <c r="K8">
         <v>0.013</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.011</v>
+        <v>0.043</v>
       </c>
       <c r="K10">
         <v>0.013</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0.011</v>
       </c>
       <c r="K12">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K13">
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
       <c r="O13" t="s">
         <v>26</v>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O14" t="s">
         <v>27</v>
@@ -1476,10 +1476,10 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O15" t="s">
         <v>28</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O16" t="s">
         <v>29</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O17" t="s">
         <v>30</v>
@@ -1590,10 +1590,10 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O18" t="s">
         <v>31</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O19" t="s">
         <v>32</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O20" t="s">
         <v>33</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1716,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08599999999999999</v>
+        <v>0.123</v>
       </c>
       <c r="K21">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O21" t="s">
         <v>34</v>
@@ -1742,34 +1742,34 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.138</v>
+        <v>0.016</v>
       </c>
       <c r="F22">
-        <v>0.106</v>
+        <v>0.035</v>
       </c>
       <c r="G22">
-        <v>0.114</v>
+        <v>0.018</v>
       </c>
       <c r="H22">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.265</v>
+        <v>0.173</v>
       </c>
       <c r="K22">
         <v>0.038</v>
@@ -1780,37 +1780,37 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>0.06900000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="D23">
-        <v>0.097</v>
+        <v>0.083</v>
       </c>
       <c r="E23">
-        <v>0.591</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="F23">
-        <v>0.278</v>
+        <v>0.351</v>
       </c>
       <c r="G23">
-        <v>0.388</v>
+        <v>0.37</v>
       </c>
       <c r="H23">
-        <v>0.221</v>
+        <v>0.106</v>
       </c>
       <c r="I23">
-        <v>0.107</v>
+        <v>0.061</v>
       </c>
       <c r="J23">
-        <v>0.305</v>
+        <v>0.265</v>
       </c>
       <c r="K23">
-        <v>0.038</v>
+        <v>0.06</v>
       </c>
       <c r="O23" t="s">
         <v>36</v>
@@ -1818,37 +1818,37 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>0.15</v>
+        <v>0.247</v>
       </c>
       <c r="D24">
-        <v>0.196</v>
+        <v>0.406</v>
       </c>
       <c r="E24">
-        <v>1.212</v>
+        <v>0.214</v>
       </c>
       <c r="F24">
-        <v>0.471</v>
+        <v>0.636</v>
       </c>
       <c r="G24">
-        <v>0.929</v>
+        <v>1.228</v>
       </c>
       <c r="H24">
-        <v>0.41</v>
+        <v>0.268</v>
       </c>
       <c r="I24">
-        <v>0.184</v>
+        <v>0.103</v>
       </c>
       <c r="J24">
-        <v>0.409</v>
+        <v>0.483</v>
       </c>
       <c r="K24">
-        <v>0.075</v>
+        <v>0.311</v>
       </c>
       <c r="O24" t="s">
         <v>37</v>
@@ -1856,37 +1856,37 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>0.21</v>
+        <v>0.613</v>
       </c>
       <c r="D25">
-        <v>0.223</v>
+        <v>0.87</v>
       </c>
       <c r="E25">
-        <v>1.672</v>
+        <v>0.383</v>
       </c>
       <c r="F25">
-        <v>0.606</v>
+        <v>0.857</v>
       </c>
       <c r="G25">
-        <v>1.272</v>
+        <v>1.602</v>
       </c>
       <c r="H25">
-        <v>0.76</v>
+        <v>0.397</v>
       </c>
       <c r="I25">
-        <v>0.25</v>
+        <v>0.173</v>
       </c>
       <c r="J25">
-        <v>0.652</v>
+        <v>0.647</v>
       </c>
       <c r="K25">
-        <v>0.169</v>
+        <v>0.598</v>
       </c>
       <c r="O25" t="s">
         <v>38</v>
@@ -1894,37 +1894,37 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>0.211</v>
+        <v>0.799</v>
       </c>
       <c r="D26">
-        <v>0.227</v>
+        <v>1.223</v>
       </c>
       <c r="E26">
-        <v>1.769</v>
+        <v>0.636</v>
       </c>
       <c r="F26">
-        <v>0.8</v>
+        <v>1.032</v>
       </c>
       <c r="G26">
-        <v>1.642</v>
+        <v>1.53</v>
       </c>
       <c r="H26">
-        <v>0.794</v>
+        <v>0.48</v>
       </c>
       <c r="I26">
-        <v>0.298</v>
+        <v>0.229</v>
       </c>
       <c r="J26">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="K26">
-        <v>0.169</v>
+        <v>0.901</v>
       </c>
       <c r="O26" t="s">
         <v>39</v>
@@ -1932,37 +1932,37 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>0.147</v>
+        <v>0.846</v>
       </c>
       <c r="D27">
-        <v>0.198</v>
+        <v>1.277</v>
       </c>
       <c r="E27">
-        <v>1.613</v>
+        <v>0.781</v>
       </c>
       <c r="F27">
-        <v>0.713</v>
+        <v>1.107</v>
       </c>
       <c r="G27">
-        <v>1.699</v>
+        <v>1.769</v>
       </c>
       <c r="H27">
-        <v>0.764</v>
+        <v>0.478</v>
       </c>
       <c r="I27">
-        <v>0.192</v>
+        <v>0.239</v>
       </c>
       <c r="J27">
-        <v>0.636</v>
+        <v>0.984</v>
       </c>
       <c r="K27">
-        <v>0.07000000000000001</v>
+        <v>0.901</v>
       </c>
       <c r="O27" t="s">
         <v>40</v>
@@ -1970,37 +1970,37 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>0.091</v>
+        <v>0.786</v>
       </c>
       <c r="D28">
-        <v>0.113</v>
+        <v>1.182</v>
       </c>
       <c r="E28">
-        <v>0.95</v>
+        <v>0.727</v>
       </c>
       <c r="F28">
-        <v>0.414</v>
+        <v>0.987</v>
       </c>
       <c r="G28">
-        <v>0.72</v>
+        <v>1.811</v>
       </c>
       <c r="H28">
-        <v>0.479</v>
+        <v>0.38</v>
       </c>
       <c r="I28">
-        <v>0.146</v>
+        <v>0.218</v>
       </c>
       <c r="J28">
-        <v>0.47</v>
+        <v>0.706</v>
       </c>
       <c r="K28">
-        <v>0.041</v>
+        <v>0.647</v>
       </c>
       <c r="O28" t="s">
         <v>41</v>
@@ -2008,37 +2008,37 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>0.027</v>
+        <v>0.344</v>
       </c>
       <c r="D29">
-        <v>0.043</v>
+        <v>0.767</v>
       </c>
       <c r="E29">
-        <v>0.482</v>
+        <v>0.461</v>
       </c>
       <c r="F29">
-        <v>0.145</v>
+        <v>0.599</v>
       </c>
       <c r="G29">
-        <v>0.337</v>
+        <v>1.292</v>
       </c>
       <c r="H29">
-        <v>0.203</v>
+        <v>0.232</v>
       </c>
       <c r="I29">
-        <v>0.064</v>
+        <v>0.141</v>
       </c>
       <c r="J29">
-        <v>0.251</v>
+        <v>0.47</v>
       </c>
       <c r="K29">
-        <v>0.033</v>
+        <v>0.365</v>
       </c>
       <c r="O29" t="s">
         <v>42</v>
@@ -2046,37 +2046,37 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.147</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="E30">
-        <v>0.065</v>
+        <v>0.149</v>
       </c>
       <c r="F30">
-        <v>0.013</v>
+        <v>0.149</v>
       </c>
       <c r="G30">
-        <v>0.022</v>
+        <v>0.29</v>
       </c>
       <c r="H30">
-        <v>0.012</v>
+        <v>0.106</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="J30">
-        <v>0.095</v>
+        <v>0.246</v>
       </c>
       <c r="K30">
-        <v>0.013</v>
+        <v>0.132</v>
       </c>
       <c r="O30" t="s">
         <v>43</v>
@@ -2084,25 +2084,25 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="G31">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2111,10 +2111,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.038</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K31">
-        <v>0.013</v>
+        <v>0.026</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
@@ -2122,10 +2122,10 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.043</v>
+        <v>0.038</v>
       </c>
       <c r="K32">
         <v>0.013</v>
@@ -2160,10 +2160,10 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.011</v>
+        <v>0.043</v>
       </c>
       <c r="K34">
         <v>0.013</v>
@@ -2236,10 +2236,10 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0.011</v>
       </c>
       <c r="K36">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O36" t="s">
         <v>49</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2339,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K37">
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
       <c r="O37" t="s">
         <v>50</v>
@@ -2350,10 +2350,10 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O38" t="s">
         <v>51</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O39" t="s">
         <v>52</v>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O40" t="s">
         <v>53</v>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O41" t="s">
         <v>54</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O42" t="s">
         <v>55</v>
@@ -2540,10 +2540,10 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O43" t="s">
         <v>56</v>
@@ -2578,10 +2578,10 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O44" t="s">
         <v>57</v>
@@ -2616,10 +2616,10 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2628,13 +2628,13 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0.028</v>
+        <v>0.011</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2643,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.08599999999999999</v>
+        <v>0.192</v>
       </c>
       <c r="K45">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="O45" t="s">
         <v>58</v>
@@ -2654,34 +2654,34 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0.128</v>
+        <v>0.016</v>
       </c>
       <c r="F46">
-        <v>0.367</v>
+        <v>0.037</v>
       </c>
       <c r="G46">
-        <v>0.511</v>
+        <v>0.018</v>
       </c>
       <c r="H46">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0.318</v>
+        <v>0.242</v>
       </c>
       <c r="K46">
         <v>0.038</v>
@@ -2692,37 +2692,37 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>0.187</v>
+        <v>0.068</v>
       </c>
       <c r="D47">
-        <v>0.202</v>
+        <v>0.083</v>
       </c>
       <c r="E47">
-        <v>0.428</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F47">
-        <v>0.577</v>
+        <v>0.264</v>
       </c>
       <c r="G47">
-        <v>1.342</v>
+        <v>0.337</v>
       </c>
       <c r="H47">
-        <v>0.221</v>
+        <v>0.106</v>
       </c>
       <c r="I47">
-        <v>0.25</v>
+        <v>0.068</v>
       </c>
       <c r="J47">
-        <v>0.497</v>
+        <v>0.484</v>
       </c>
       <c r="K47">
-        <v>0.189</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="O47" t="s">
         <v>60</v>
@@ -2730,37 +2730,37 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48">
-        <v>0.374</v>
+        <v>0.266</v>
       </c>
       <c r="D48">
-        <v>0.435</v>
+        <v>0.38</v>
       </c>
       <c r="E48">
-        <v>0.87</v>
+        <v>0.213</v>
       </c>
       <c r="F48">
-        <v>0.879</v>
+        <v>0.645</v>
       </c>
       <c r="G48">
-        <v>1.901</v>
+        <v>1.042</v>
       </c>
       <c r="H48">
-        <v>0.38</v>
+        <v>0.221</v>
       </c>
       <c r="I48">
-        <v>0.382</v>
+        <v>0.197</v>
       </c>
       <c r="J48">
-        <v>0.714</v>
+        <v>0.609</v>
       </c>
       <c r="K48">
-        <v>0.347</v>
+        <v>0.407</v>
       </c>
       <c r="O48" t="s">
         <v>61</v>
@@ -2768,37 +2768,37 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>0.503</v>
+        <v>0.657</v>
       </c>
       <c r="D49">
-        <v>0.5570000000000001</v>
+        <v>0.931</v>
       </c>
       <c r="E49">
-        <v>1.082</v>
+        <v>0.435</v>
       </c>
       <c r="F49">
-        <v>1.073</v>
+        <v>1.032</v>
       </c>
       <c r="G49">
-        <v>2.023</v>
+        <v>1.619</v>
       </c>
       <c r="H49">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
       <c r="I49">
-        <v>0.437</v>
+        <v>0.313</v>
       </c>
       <c r="J49">
-        <v>1.014</v>
+        <v>0.465</v>
       </c>
       <c r="K49">
-        <v>0.455</v>
+        <v>0.791</v>
       </c>
       <c r="O49" t="s">
         <v>62</v>
@@ -2806,37 +2806,37 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>0.535</v>
+        <v>0.981</v>
       </c>
       <c r="D50">
-        <v>0.662</v>
+        <v>1.394</v>
       </c>
       <c r="E50">
-        <v>1.153</v>
+        <v>0.646</v>
       </c>
       <c r="F50">
-        <v>1.16</v>
+        <v>1.304</v>
       </c>
       <c r="G50">
-        <v>1.909</v>
+        <v>2.237</v>
       </c>
       <c r="H50">
-        <v>0.76</v>
+        <v>0.653</v>
       </c>
       <c r="I50">
-        <v>0.454</v>
+        <v>0.401</v>
       </c>
       <c r="J50">
-        <v>1.022</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="K50">
-        <v>0.455</v>
+        <v>0.91</v>
       </c>
       <c r="O50" t="s">
         <v>63</v>
@@ -2844,37 +2844,37 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>0.399</v>
+        <v>1.051</v>
       </c>
       <c r="D51">
-        <v>0.547</v>
+        <v>1.577</v>
       </c>
       <c r="E51">
-        <v>0.908</v>
+        <v>0.731</v>
       </c>
       <c r="F51">
-        <v>0.9340000000000001</v>
+        <v>1.384</v>
       </c>
       <c r="G51">
-        <v>1.682</v>
+        <v>2.217</v>
       </c>
       <c r="H51">
-        <v>0.696</v>
+        <v>0.75</v>
       </c>
       <c r="I51">
-        <v>0.423</v>
+        <v>0.38</v>
       </c>
       <c r="J51">
-        <v>1.014</v>
+        <v>1.023</v>
       </c>
       <c r="K51">
-        <v>0.411</v>
+        <v>0.91</v>
       </c>
       <c r="O51" t="s">
         <v>64</v>
@@ -2882,37 +2882,37 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52">
-        <v>0.235</v>
+        <v>0.863</v>
       </c>
       <c r="D52">
-        <v>0.33</v>
+        <v>1.648</v>
       </c>
       <c r="E52">
-        <v>0.633</v>
+        <v>0.621</v>
       </c>
       <c r="F52">
-        <v>0.485</v>
+        <v>1.105</v>
       </c>
       <c r="G52">
-        <v>0.93</v>
+        <v>1.616</v>
       </c>
       <c r="H52">
-        <v>0.38</v>
+        <v>0.744</v>
       </c>
       <c r="I52">
-        <v>0.192</v>
+        <v>0.286</v>
       </c>
       <c r="J52">
-        <v>0.587</v>
+        <v>0.897</v>
       </c>
       <c r="K52">
-        <v>0.28</v>
+        <v>0.827</v>
       </c>
       <c r="O52" t="s">
         <v>65</v>
@@ -2920,37 +2920,37 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53">
-        <v>0.07099999999999999</v>
+        <v>0.496</v>
       </c>
       <c r="D53">
-        <v>0.081</v>
+        <v>0.98</v>
       </c>
       <c r="E53">
-        <v>0.204</v>
+        <v>0.389</v>
       </c>
       <c r="F53">
-        <v>0.14</v>
+        <v>0.657</v>
       </c>
       <c r="G53">
-        <v>0.286</v>
+        <v>1.158</v>
       </c>
       <c r="H53">
-        <v>0.106</v>
+        <v>0.41</v>
       </c>
       <c r="I53">
-        <v>0.064</v>
+        <v>0.184</v>
       </c>
       <c r="J53">
-        <v>0.251</v>
+        <v>0.47</v>
       </c>
       <c r="K53">
-        <v>0.044</v>
+        <v>0.409</v>
       </c>
       <c r="O53" t="s">
         <v>66</v>
@@ -2958,37 +2958,37 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B54">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.307</v>
       </c>
       <c r="E54">
-        <v>0.028</v>
+        <v>0.148</v>
       </c>
       <c r="F54">
-        <v>0.011</v>
+        <v>0.151</v>
       </c>
       <c r="G54">
-        <v>0.016</v>
+        <v>0.4</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>0.172</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J54">
-        <v>0.091</v>
+        <v>0.251</v>
       </c>
       <c r="K54">
-        <v>0.026</v>
+        <v>0.182</v>
       </c>
       <c r="O54" t="s">
         <v>67</v>
@@ -2996,37 +2996,37 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="G55">
-        <v>0.011</v>
+        <v>0.022</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0.043</v>
+        <v>0.091</v>
       </c>
       <c r="K55">
-        <v>0.013</v>
+        <v>0.026</v>
       </c>
       <c r="O55" t="s">
         <v>68</v>
@@ -3034,10 +3034,10 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.048</v>
+        <v>0.043</v>
       </c>
       <c r="K56">
         <v>0.013</v>
@@ -3072,10 +3072,10 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B58">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.016</v>
+        <v>0.048</v>
       </c>
       <c r="K58">
         <v>0.013</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B59">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="K59">
         <v>0.013</v>
@@ -3186,10 +3186,10 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="2">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3251,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="K61">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="O61" t="s">
         <v>74</v>
@@ -3262,10 +3262,10 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3300,10 +3300,10 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O63" t="s">
         <v>76</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O64" t="s">
         <v>77</v>
@@ -3376,10 +3376,10 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O65" t="s">
         <v>78</v>
@@ -3414,10 +3414,10 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O66" t="s">
         <v>79</v>
@@ -3452,10 +3452,10 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O67" t="s">
         <v>80</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O68" t="s">
         <v>81</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3540,25 +3540,25 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0.011</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
         <v>0.035</v>
       </c>
-      <c r="G69">
-        <v>0.018</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0.08599999999999999</v>
-      </c>
       <c r="K69">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O69" t="s">
         <v>82</v>
@@ -3566,37 +3566,37 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0.109</v>
+        <v>0.016</v>
       </c>
       <c r="F70">
-        <v>0.309</v>
+        <v>0.02</v>
       </c>
       <c r="G70">
-        <v>0.326</v>
+        <v>0.011</v>
       </c>
       <c r="H70">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0.265</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K70">
-        <v>0.06</v>
+        <v>0.014</v>
       </c>
       <c r="O70" t="s">
         <v>83</v>
@@ -3604,37 +3604,37 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>0.245</v>
+        <v>0.057</v>
       </c>
       <c r="D71">
-        <v>0.342</v>
+        <v>0.066</v>
       </c>
       <c r="E71">
-        <v>0.377</v>
+        <v>0.073</v>
       </c>
       <c r="F71">
-        <v>0.496</v>
+        <v>0.123</v>
       </c>
       <c r="G71">
-        <v>1.263</v>
+        <v>0.152</v>
       </c>
       <c r="H71">
-        <v>0.221</v>
+        <v>0.053</v>
       </c>
       <c r="I71">
-        <v>0.174</v>
+        <v>0.061</v>
       </c>
       <c r="J71">
-        <v>0.451</v>
+        <v>0.265</v>
       </c>
       <c r="K71">
-        <v>0.305</v>
+        <v>0.046</v>
       </c>
       <c r="O71" t="s">
         <v>84</v>
@@ -3642,37 +3642,37 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72">
-        <v>0.617</v>
+        <v>0.294</v>
       </c>
       <c r="D72">
-        <v>0.794</v>
+        <v>0.348</v>
       </c>
       <c r="E72">
-        <v>0.704</v>
+        <v>0.218</v>
       </c>
       <c r="F72">
-        <v>0.981</v>
+        <v>0.44</v>
       </c>
       <c r="G72">
-        <v>1.828</v>
+        <v>0.618</v>
       </c>
       <c r="H72">
-        <v>0.382</v>
+        <v>0.174</v>
       </c>
       <c r="I72">
-        <v>0.245</v>
+        <v>0.132</v>
       </c>
       <c r="J72">
-        <v>0.647</v>
+        <v>0.305</v>
       </c>
       <c r="K72">
-        <v>0.475</v>
+        <v>0.298</v>
       </c>
       <c r="O72" t="s">
         <v>85</v>
@@ -3680,37 +3680,37 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B73">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73">
-        <v>0.883</v>
+        <v>0.603</v>
       </c>
       <c r="D73">
-        <v>1.229</v>
+        <v>0.739</v>
       </c>
       <c r="E73">
-        <v>0.9409999999999999</v>
+        <v>0.437</v>
       </c>
       <c r="F73">
-        <v>1.276</v>
+        <v>0.661</v>
       </c>
       <c r="G73">
-        <v>1.99</v>
+        <v>1.364</v>
       </c>
       <c r="H73">
-        <v>0.48</v>
+        <v>0.236</v>
       </c>
       <c r="I73">
-        <v>0.322</v>
+        <v>0.199</v>
       </c>
       <c r="J73">
-        <v>0.969</v>
+        <v>0.404</v>
       </c>
       <c r="K73">
-        <v>0.631</v>
+        <v>0.461</v>
       </c>
       <c r="O73" t="s">
         <v>86</v>
@@ -3718,37 +3718,37 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C74">
-        <v>0.903</v>
+        <v>0.787</v>
       </c>
       <c r="D74">
-        <v>1.334</v>
+        <v>1.006</v>
       </c>
       <c r="E74">
-        <v>0.949</v>
+        <v>0.652</v>
       </c>
       <c r="F74">
-        <v>1.35</v>
+        <v>0.791</v>
       </c>
       <c r="G74">
-        <v>1.971</v>
+        <v>1.189</v>
       </c>
       <c r="H74">
-        <v>0.653</v>
+        <v>0.38</v>
       </c>
       <c r="I74">
-        <v>0.348</v>
+        <v>0.245</v>
       </c>
       <c r="J74">
-        <v>0.977</v>
+        <v>0.528</v>
       </c>
       <c r="K74">
-        <v>0.836</v>
+        <v>0.806</v>
       </c>
       <c r="O74" t="s">
         <v>87</v>
@@ -3756,37 +3756,37 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B75">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75">
-        <v>0.8110000000000001</v>
+        <v>0.865</v>
       </c>
       <c r="D75">
-        <v>1.084</v>
+        <v>1.318</v>
       </c>
       <c r="E75">
-        <v>0.781</v>
+        <v>0.646</v>
       </c>
       <c r="F75">
-        <v>1.008</v>
+        <v>0.721</v>
       </c>
       <c r="G75">
-        <v>1.913</v>
+        <v>1.173</v>
       </c>
       <c r="H75">
-        <v>0.41</v>
+        <v>0.393</v>
       </c>
       <c r="I75">
-        <v>0.311</v>
+        <v>0.245</v>
       </c>
       <c r="J75">
-        <v>0.978</v>
+        <v>0.651</v>
       </c>
       <c r="K75">
-        <v>0.411</v>
+        <v>0.871</v>
       </c>
       <c r="O75" t="s">
         <v>88</v>
@@ -3794,37 +3794,37 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B76">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76">
-        <v>0.369</v>
+        <v>0.849</v>
       </c>
       <c r="D76">
-        <v>0.681</v>
+        <v>1.093</v>
       </c>
       <c r="E76">
-        <v>0.535</v>
+        <v>0.631</v>
       </c>
       <c r="F76">
-        <v>0.62</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="G76">
-        <v>1.338</v>
+        <v>0.752</v>
       </c>
       <c r="H76">
-        <v>0.236</v>
+        <v>0.347</v>
       </c>
       <c r="I76">
-        <v>0.184</v>
+        <v>0.218</v>
       </c>
       <c r="J76">
-        <v>0.47</v>
+        <v>0.636</v>
       </c>
       <c r="K76">
-        <v>0.28</v>
+        <v>0.76</v>
       </c>
       <c r="O76" t="s">
         <v>89</v>
@@ -3832,37 +3832,37 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77">
-        <v>0.152</v>
+        <v>0.472</v>
       </c>
       <c r="D77">
-        <v>0.178</v>
+        <v>0.714</v>
       </c>
       <c r="E77">
-        <v>0.185</v>
+        <v>0.386</v>
       </c>
       <c r="F77">
-        <v>0.147</v>
+        <v>0.252</v>
       </c>
       <c r="G77">
-        <v>0.346</v>
+        <v>0.486</v>
       </c>
       <c r="H77">
-        <v>0.106</v>
+        <v>0.221</v>
       </c>
       <c r="I77">
-        <v>0.064</v>
+        <v>0.146</v>
       </c>
       <c r="J77">
-        <v>0.251</v>
+        <v>0.47</v>
       </c>
       <c r="K77">
-        <v>0.044</v>
+        <v>0.409</v>
       </c>
       <c r="O77" t="s">
         <v>90</v>
@@ -3870,37 +3870,37 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B78">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78">
-        <v>0.01</v>
+        <v>0.188</v>
       </c>
       <c r="D78">
-        <v>0.01</v>
+        <v>0.225</v>
       </c>
       <c r="E78">
-        <v>0.02</v>
+        <v>0.144</v>
       </c>
       <c r="F78">
-        <v>0.011</v>
+        <v>0.075</v>
       </c>
       <c r="G78">
-        <v>0.016</v>
+        <v>0.117</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J78">
-        <v>0.091</v>
+        <v>0.251</v>
       </c>
       <c r="K78">
-        <v>0.026</v>
+        <v>0.198</v>
       </c>
       <c r="O78" t="s">
         <v>91</v>
@@ -3908,25 +3908,25 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="G79">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3935,10 +3935,10 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0.043</v>
+        <v>0.091</v>
       </c>
       <c r="K79">
-        <v>0.013</v>
+        <v>0.026</v>
       </c>
       <c r="O79" t="s">
         <v>92</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B80">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3984,10 +3984,10 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B81">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.043</v>
+        <v>0.048</v>
       </c>
       <c r="K81">
         <v>0.013</v>
@@ -4022,10 +4022,10 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B82">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0.011</v>
+        <v>0.048</v>
       </c>
       <c r="K82">
         <v>0.013</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B83">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="K83">
         <v>0.013</v>
@@ -4098,10 +4098,10 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B84">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="K84">
         <v>0.013</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="2">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4163,10 +4163,10 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K85">
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
       <c r="O85" t="s">
         <v>98</v>
@@ -4174,10 +4174,10 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O86" t="s">
         <v>99</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4250,10 +4250,10 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4288,10 +4288,10 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4326,10 +4326,10 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -4364,10 +4364,10 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0.032</v>
@@ -4440,10 +4440,10 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -4452,10 +4452,10 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>0.011</v>
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0.242</v>
+        <v>0.035</v>
       </c>
       <c r="K93">
         <v>0.032</v>
@@ -4478,37 +4478,37 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B94">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.08500000000000001</v>
+        <v>0.017</v>
       </c>
       <c r="G94">
-        <v>0.11</v>
+        <v>0.011</v>
       </c>
       <c r="H94">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>0.484</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K94">
-        <v>0.06</v>
+        <v>0.032</v>
       </c>
       <c r="O94" t="s">
         <v>107</v>
@@ -4516,37 +4516,37 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B95">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>0.264</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D95">
-        <v>0.308</v>
+        <v>0.099</v>
       </c>
       <c r="E95">
-        <v>0.213</v>
+        <v>0.065</v>
       </c>
       <c r="F95">
-        <v>0.261</v>
+        <v>0.073</v>
       </c>
       <c r="G95">
-        <v>0.337</v>
+        <v>0.08</v>
       </c>
       <c r="H95">
-        <v>0.174</v>
+        <v>0.053</v>
       </c>
       <c r="I95">
-        <v>0.107</v>
+        <v>0.068</v>
       </c>
       <c r="J95">
-        <v>0.524</v>
+        <v>0.265</v>
       </c>
       <c r="K95">
-        <v>0.36</v>
+        <v>0.073</v>
       </c>
       <c r="O95" t="s">
         <v>108</v>
@@ -4554,37 +4554,37 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B96">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96">
-        <v>0.425</v>
+        <v>0.262</v>
       </c>
       <c r="D96">
-        <v>0.6929999999999999</v>
+        <v>0.588</v>
       </c>
       <c r="E96">
-        <v>0.383</v>
+        <v>0.247</v>
       </c>
       <c r="F96">
-        <v>0.463</v>
+        <v>0.224</v>
       </c>
       <c r="G96">
-        <v>0.945</v>
+        <v>0.241</v>
       </c>
       <c r="H96">
-        <v>0.302</v>
+        <v>0.174</v>
       </c>
       <c r="I96">
-        <v>0.169</v>
+        <v>0.211</v>
       </c>
       <c r="J96">
-        <v>0.501</v>
+        <v>0.488</v>
       </c>
       <c r="K96">
-        <v>0.585</v>
+        <v>0.407</v>
       </c>
       <c r="O96" t="s">
         <v>109</v>
@@ -4592,37 +4592,37 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B97">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C97">
-        <v>0.71</v>
+        <v>0.638</v>
       </c>
       <c r="D97">
-        <v>0.931</v>
+        <v>1.308</v>
       </c>
       <c r="E97">
-        <v>0.625</v>
+        <v>0.412</v>
       </c>
       <c r="F97">
-        <v>0.5659999999999999</v>
+        <v>0.243</v>
       </c>
       <c r="G97">
-        <v>1.004</v>
+        <v>0.343</v>
       </c>
       <c r="H97">
-        <v>0.382</v>
+        <v>0.236</v>
       </c>
       <c r="I97">
-        <v>0.232</v>
+        <v>0.341</v>
       </c>
       <c r="J97">
-        <v>0.597</v>
+        <v>0.706</v>
       </c>
       <c r="K97">
-        <v>0.875</v>
+        <v>0.892</v>
       </c>
       <c r="O97" t="s">
         <v>110</v>
@@ -4630,37 +4630,37 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B98">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C98">
-        <v>0.741</v>
+        <v>1.028</v>
       </c>
       <c r="D98">
-        <v>1.279</v>
+        <v>1.736</v>
       </c>
       <c r="E98">
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="F98">
-        <v>0.514</v>
+        <v>0.316</v>
       </c>
       <c r="G98">
-        <v>0.924</v>
+        <v>0.453</v>
       </c>
       <c r="H98">
-        <v>0.38</v>
+        <v>0.318</v>
       </c>
       <c r="I98">
-        <v>0.229</v>
+        <v>0.451</v>
       </c>
       <c r="J98">
-        <v>0.6860000000000001</v>
+        <v>1.021</v>
       </c>
       <c r="K98">
-        <v>0.875</v>
+        <v>0.961</v>
       </c>
       <c r="O98" t="s">
         <v>111</v>
@@ -4668,37 +4668,37 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B99">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C99">
-        <v>0.724</v>
+        <v>1.192</v>
       </c>
       <c r="D99">
-        <v>1.151</v>
+        <v>1.792</v>
       </c>
       <c r="E99">
-        <v>0.613</v>
+        <v>0.694</v>
       </c>
       <c r="F99">
-        <v>0.354</v>
+        <v>0.417</v>
       </c>
       <c r="G99">
-        <v>0.678</v>
+        <v>0.65</v>
       </c>
       <c r="H99">
-        <v>0.302</v>
+        <v>0.318</v>
       </c>
       <c r="I99">
-        <v>0.205</v>
+        <v>0.454</v>
       </c>
       <c r="J99">
-        <v>0.511</v>
+        <v>0.721</v>
       </c>
       <c r="K99">
-        <v>0.588</v>
+        <v>0.929</v>
       </c>
       <c r="O99" t="s">
         <v>112</v>
@@ -4706,37 +4706,37 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B100">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C100">
-        <v>0.404</v>
+        <v>0.86</v>
       </c>
       <c r="D100">
-        <v>0.843</v>
+        <v>1.655</v>
       </c>
       <c r="E100">
-        <v>0.378</v>
+        <v>0.657</v>
       </c>
       <c r="F100">
-        <v>0.215</v>
+        <v>0.344</v>
       </c>
       <c r="G100">
-        <v>0.422</v>
+        <v>0.519</v>
       </c>
       <c r="H100">
-        <v>0.203</v>
+        <v>0.236</v>
       </c>
       <c r="I100">
-        <v>0.146</v>
+        <v>0.35</v>
       </c>
       <c r="J100">
-        <v>0.331</v>
+        <v>0.636</v>
       </c>
       <c r="K100">
-        <v>0.409</v>
+        <v>0.617</v>
       </c>
       <c r="O100" t="s">
         <v>113</v>
@@ -4744,37 +4744,37 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B101">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C101">
-        <v>0.192</v>
+        <v>0.523</v>
       </c>
       <c r="D101">
-        <v>0.27</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="E101">
-        <v>0.14</v>
+        <v>0.415</v>
       </c>
       <c r="F101">
-        <v>0.07099999999999999</v>
+        <v>0.169</v>
       </c>
       <c r="G101">
-        <v>0.101</v>
+        <v>0.347</v>
       </c>
       <c r="H101">
-        <v>0.104</v>
+        <v>0.174</v>
       </c>
       <c r="I101">
-        <v>0.044</v>
+        <v>0.18</v>
       </c>
       <c r="J101">
-        <v>0.246</v>
+        <v>0.402</v>
       </c>
       <c r="K101">
-        <v>0.182</v>
+        <v>0.365</v>
       </c>
       <c r="O101" t="s">
         <v>114</v>
@@ -4782,37 +4782,37 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B102">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C102">
-        <v>0.013</v>
+        <v>0.19</v>
       </c>
       <c r="D102">
-        <v>0.023</v>
+        <v>0.238</v>
       </c>
       <c r="E102">
-        <v>0.022</v>
+        <v>0.166</v>
       </c>
       <c r="F102">
-        <v>0.011</v>
+        <v>0.05</v>
       </c>
       <c r="G102">
-        <v>0.014</v>
+        <v>0.092</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>0.079</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J102">
-        <v>0.08599999999999999</v>
+        <v>0.251</v>
       </c>
       <c r="K102">
-        <v>0.026</v>
+        <v>0.187</v>
       </c>
       <c r="O102" t="s">
         <v>115</v>
@@ -4820,16 +4820,16 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B103">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4847,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0.038</v>
+        <v>0.091</v>
       </c>
       <c r="K103">
-        <v>0.013</v>
+        <v>0.045</v>
       </c>
       <c r="O103" t="s">
         <v>116</v>
@@ -4858,10 +4858,10 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B104">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>0.043</v>
       </c>
       <c r="K104">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O104" t="s">
         <v>117</v>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B105">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4923,10 +4923,10 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0.043</v>
+        <v>0.048</v>
       </c>
       <c r="K105">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O105" t="s">
         <v>118</v>
@@ -4934,10 +4934,10 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B106">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4961,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0.011</v>
+        <v>0.048</v>
       </c>
       <c r="K106">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O106" t="s">
         <v>119</v>
@@ -4972,10 +4972,10 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B107">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4999,10 +4999,10 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="K107">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O107" t="s">
         <v>120</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B108">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -5037,10 +5037,10 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="K108">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O108" t="s">
         <v>121</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="2">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5075,10 +5075,10 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="K109">
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
       <c r="O109" t="s">
         <v>122</v>
@@ -5086,10 +5086,10 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5113,10 +5113,10 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K110">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O110" t="s">
         <v>123</v>
@@ -5124,10 +5124,10 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5151,10 +5151,10 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K111">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O111" t="s">
         <v>124</v>
@@ -5162,10 +5162,10 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -5189,10 +5189,10 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K112">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O112" t="s">
         <v>125</v>
@@ -5200,10 +5200,10 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -5227,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K113">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O113" t="s">
         <v>126</v>
@@ -5238,10 +5238,10 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -5265,10 +5265,10 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K114">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O114" t="s">
         <v>127</v>
@@ -5276,10 +5276,10 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -5303,10 +5303,10 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K115">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O115" t="s">
         <v>128</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B116">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -5341,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0.035</v>
+        <v>0.013</v>
       </c>
       <c r="K116">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O116" t="s">
         <v>129</v>
@@ -5352,10 +5352,10 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -5364,10 +5364,10 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>0.011</v>
@@ -5379,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>0.08599999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="K117">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O117" t="s">
         <v>130</v>
@@ -5390,37 +5390,37 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B118">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C118">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.082</v>
+        <v>0.018</v>
       </c>
       <c r="G118">
-        <v>0.094</v>
+        <v>0.011</v>
       </c>
       <c r="H118">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>0.265</v>
+        <v>0.091</v>
       </c>
       <c r="K118">
-        <v>0.046</v>
+        <v>0.032</v>
       </c>
       <c r="O118" t="s">
         <v>131</v>
@@ -5428,37 +5428,37 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B119">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C119">
-        <v>0.237</v>
+        <v>0.056</v>
       </c>
       <c r="D119">
-        <v>0.263</v>
+        <v>0.067</v>
       </c>
       <c r="E119">
-        <v>0.213</v>
+        <v>0.074</v>
       </c>
       <c r="F119">
-        <v>0.214</v>
+        <v>0.079</v>
       </c>
       <c r="G119">
-        <v>0.312</v>
+        <v>0.08</v>
       </c>
       <c r="H119">
-        <v>0.172</v>
+        <v>0.053</v>
       </c>
       <c r="I119">
-        <v>0.141</v>
+        <v>0.064</v>
       </c>
       <c r="J119">
-        <v>0.292</v>
+        <v>0.27</v>
       </c>
       <c r="K119">
-        <v>0.298</v>
+        <v>0.06</v>
       </c>
       <c r="O119" t="s">
         <v>132</v>
@@ -5466,37 +5466,37 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B120">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120">
-        <v>0.451</v>
+        <v>0.271</v>
       </c>
       <c r="D120">
-        <v>0.555</v>
+        <v>0.366</v>
       </c>
       <c r="E120">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="F120">
-        <v>0.338</v>
+        <v>0.231</v>
       </c>
       <c r="G120">
-        <v>0.475</v>
+        <v>0.299</v>
       </c>
       <c r="H120">
-        <v>0.236</v>
+        <v>0.168</v>
       </c>
       <c r="I120">
-        <v>0.192</v>
+        <v>0.18</v>
       </c>
       <c r="J120">
-        <v>0.331</v>
+        <v>0.31</v>
       </c>
       <c r="K120">
-        <v>0.546</v>
+        <v>0.311</v>
       </c>
       <c r="O120" t="s">
         <v>133</v>
@@ -5504,37 +5504,37 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B121">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121">
-        <v>0.671</v>
+        <v>0.571</v>
       </c>
       <c r="D121">
-        <v>0.767</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E121">
-        <v>0.467</v>
+        <v>0.62</v>
       </c>
       <c r="F121">
-        <v>0.416</v>
+        <v>0.398</v>
       </c>
       <c r="G121">
-        <v>0.763</v>
+        <v>0.5</v>
       </c>
       <c r="H121">
-        <v>0.306</v>
+        <v>0.232</v>
       </c>
       <c r="I121">
-        <v>0.247</v>
+        <v>0.307</v>
       </c>
       <c r="J121">
-        <v>0.404</v>
+        <v>0.409</v>
       </c>
       <c r="K121">
-        <v>0.806</v>
+        <v>0.578</v>
       </c>
       <c r="O121" t="s">
         <v>134</v>
@@ -5542,37 +5542,37 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B122">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C122">
-        <v>0.698</v>
+        <v>0.799</v>
       </c>
       <c r="D122">
-        <v>0.879</v>
+        <v>1.165</v>
       </c>
       <c r="E122">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="F122">
-        <v>0.553</v>
+        <v>0.492</v>
       </c>
       <c r="G122">
-        <v>0.901</v>
+        <v>0.926</v>
       </c>
       <c r="H122">
-        <v>0.347</v>
+        <v>0.318</v>
       </c>
       <c r="I122">
-        <v>0.273</v>
+        <v>0.423</v>
       </c>
       <c r="J122">
-        <v>0.484</v>
+        <v>0.533</v>
       </c>
       <c r="K122">
-        <v>0.806</v>
+        <v>0.854</v>
       </c>
       <c r="O122" t="s">
         <v>135</v>
@@ -5580,37 +5580,37 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B123">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C123">
-        <v>0.572</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="D123">
-        <v>0.759</v>
+        <v>1.225</v>
       </c>
       <c r="E123">
-        <v>0.611</v>
+        <v>0.903</v>
       </c>
       <c r="F123">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="G123">
-        <v>0.713</v>
+        <v>0.835</v>
       </c>
       <c r="H123">
-        <v>0.276</v>
+        <v>0.38</v>
       </c>
       <c r="I123">
-        <v>0.234</v>
+        <v>0.434</v>
       </c>
       <c r="J123">
-        <v>0.408</v>
+        <v>0.59</v>
       </c>
       <c r="K123">
-        <v>0.411</v>
+        <v>0.86</v>
       </c>
       <c r="O123" t="s">
         <v>136</v>
@@ -5618,37 +5618,37 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B124">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C124">
-        <v>0.351</v>
+        <v>0.67</v>
       </c>
       <c r="D124">
-        <v>0.409</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E124">
-        <v>0.378</v>
+        <v>0.762</v>
       </c>
       <c r="F124">
-        <v>0.254</v>
+        <v>0.377</v>
       </c>
       <c r="G124">
-        <v>0.491</v>
+        <v>0.538</v>
       </c>
       <c r="H124">
-        <v>0.203</v>
+        <v>0.306</v>
       </c>
       <c r="I124">
-        <v>0.146</v>
+        <v>0.358</v>
       </c>
       <c r="J124">
-        <v>0.292</v>
+        <v>0.469</v>
       </c>
       <c r="K124">
-        <v>0.319</v>
+        <v>0.572</v>
       </c>
       <c r="O124" t="s">
         <v>137</v>
@@ -5656,37 +5656,37 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B125">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C125">
-        <v>0.091</v>
+        <v>0.362</v>
       </c>
       <c r="D125">
-        <v>0.102</v>
+        <v>0.636</v>
       </c>
       <c r="E125">
-        <v>0.141</v>
+        <v>0.605</v>
       </c>
       <c r="F125">
-        <v>0.075</v>
+        <v>0.168</v>
       </c>
       <c r="G125">
-        <v>0.12</v>
+        <v>0.307</v>
       </c>
       <c r="H125">
-        <v>0.104</v>
+        <v>0.203</v>
       </c>
       <c r="I125">
-        <v>0.064</v>
+        <v>0.184</v>
       </c>
       <c r="J125">
-        <v>0.251</v>
+        <v>0.336</v>
       </c>
       <c r="K125">
-        <v>0.073</v>
+        <v>0.343</v>
       </c>
       <c r="O125" t="s">
         <v>138</v>
@@ -5694,37 +5694,37 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B126">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>0.183</v>
       </c>
       <c r="E126">
-        <v>0.019</v>
+        <v>0.176</v>
       </c>
       <c r="F126">
-        <v>0.011</v>
+        <v>0.047</v>
       </c>
       <c r="G126">
-        <v>0.014</v>
+        <v>0.092</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>0.079</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J126">
+        <v>0.251</v>
+      </c>
+      <c r="K126">
         <v>0.091</v>
-      </c>
-      <c r="K126">
-        <v>0.026</v>
       </c>
       <c r="O126" t="s">
         <v>139</v>
@@ -5732,19 +5732,19 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B127">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5759,10 +5759,10 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0.043</v>
+        <v>0.091</v>
       </c>
       <c r="K127">
-        <v>0.013</v>
+        <v>0.045</v>
       </c>
       <c r="O127" t="s">
         <v>140</v>
@@ -5770,10 +5770,10 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B128">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5797,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0.048</v>
+        <v>0.043</v>
       </c>
       <c r="K128">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O128" t="s">
         <v>141</v>
@@ -5808,10 +5808,10 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B129">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5838,7 +5838,7 @@
         <v>0.048</v>
       </c>
       <c r="K129">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O129" t="s">
         <v>142</v>
@@ -5846,10 +5846,10 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B130">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5873,10 +5873,10 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0.016</v>
+        <v>0.048</v>
       </c>
       <c r="K130">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O130" t="s">
         <v>143</v>
@@ -5884,10 +5884,10 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B131">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>0.016</v>
       </c>
       <c r="K131">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O131" t="s">
         <v>144</v>
@@ -5922,10 +5922,10 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B132">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>0.016</v>
       </c>
       <c r="K132">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O132" t="s">
         <v>145</v>
@@ -5960,10 +5960,10 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="2">
-        <v>45997</v>
+        <v>45998</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5987,10 +5987,10 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="K133">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="O133" t="s">
         <v>146</v>
@@ -5998,10 +5998,10 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -6036,10 +6036,10 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6074,10 +6074,10 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K136">
         <v>0.032</v>
@@ -6112,10 +6112,10 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B137">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K137">
         <v>0.032</v>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B138">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K138">
         <v>0.032</v>
@@ -6188,10 +6188,10 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K139">
         <v>0.032</v>
@@ -6226,10 +6226,10 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K140">
         <v>0.032</v>
@@ -6264,10 +6264,10 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B141">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -6276,10 +6276,10 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0.011</v>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>0.091</v>
+        <v>0.035</v>
       </c>
       <c r="K141">
         <v>0.032</v>
@@ -6302,37 +6302,37 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B142">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C142">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="G142">
-        <v>0.104</v>
+        <v>0.011</v>
       </c>
       <c r="H142">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>0.27</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K142">
-        <v>0.06</v>
+        <v>0.032</v>
       </c>
       <c r="O142" t="s">
         <v>155</v>
@@ -6340,37 +6340,37 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B143">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C143">
-        <v>0.255</v>
+        <v>0.033</v>
       </c>
       <c r="D143">
-        <v>0.365</v>
+        <v>0.045</v>
       </c>
       <c r="E143">
-        <v>0.345</v>
+        <v>0.082</v>
       </c>
       <c r="F143">
+        <v>0.113</v>
+      </c>
+      <c r="G143">
+        <v>0.137</v>
+      </c>
+      <c r="H143">
+        <v>0.104</v>
+      </c>
+      <c r="I143">
+        <v>0.064</v>
+      </c>
+      <c r="J143">
         <v>0.265</v>
       </c>
-      <c r="G143">
-        <v>0.382</v>
-      </c>
-      <c r="H143">
-        <v>0.203</v>
-      </c>
-      <c r="I143">
-        <v>0.179</v>
-      </c>
-      <c r="J143">
-        <v>0.42</v>
-      </c>
       <c r="K143">
-        <v>0.36</v>
+        <v>0.051</v>
       </c>
       <c r="O143" t="s">
         <v>156</v>
@@ -6378,37 +6378,37 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B144">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C144">
-        <v>0.543</v>
+        <v>0.248</v>
       </c>
       <c r="D144">
-        <v>0.832</v>
+        <v>0.286</v>
       </c>
       <c r="E144">
-        <v>0.606</v>
+        <v>0.412</v>
       </c>
       <c r="F144">
-        <v>0.441</v>
+        <v>0.358</v>
       </c>
       <c r="G144">
-        <v>0.776</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H144">
-        <v>0.306</v>
+        <v>0.236</v>
       </c>
       <c r="I144">
-        <v>0.305</v>
+        <v>0.184</v>
       </c>
       <c r="J144">
-        <v>0.594</v>
+        <v>0.497</v>
       </c>
       <c r="K144">
-        <v>0.598</v>
+        <v>0.203</v>
       </c>
       <c r="O144" t="s">
         <v>157</v>
@@ -6416,37 +6416,37 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B145">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145">
-        <v>0.782</v>
+        <v>0.389</v>
       </c>
       <c r="D145">
-        <v>1.177</v>
+        <v>0.62</v>
       </c>
       <c r="E145">
-        <v>0.824</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="F145">
-        <v>0.477</v>
+        <v>0.592</v>
       </c>
       <c r="G145">
-        <v>0.996</v>
+        <v>0.922</v>
       </c>
       <c r="H145">
-        <v>0.397</v>
+        <v>0.479</v>
       </c>
       <c r="I145">
-        <v>0.434</v>
+        <v>0.393</v>
       </c>
       <c r="J145">
-        <v>0.722</v>
+        <v>1.014</v>
       </c>
       <c r="K145">
-        <v>0.923</v>
+        <v>0.36</v>
       </c>
       <c r="O145" t="s">
         <v>158</v>
@@ -6454,37 +6454,37 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B146">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C146">
-        <v>0.822</v>
+        <v>0.54</v>
       </c>
       <c r="D146">
-        <v>1.292</v>
+        <v>0.79</v>
       </c>
       <c r="E146">
-        <v>0.908</v>
+        <v>1.189</v>
       </c>
       <c r="F146">
-        <v>0.481</v>
+        <v>0.788</v>
       </c>
       <c r="G146">
-        <v>0.872</v>
+        <v>1.158</v>
       </c>
       <c r="H146">
-        <v>0.393</v>
+        <v>0.707</v>
       </c>
       <c r="I146">
-        <v>0.434</v>
+        <v>0.471</v>
       </c>
       <c r="J146">
-        <v>1.021</v>
+        <v>1.022</v>
       </c>
       <c r="K146">
-        <v>0.929</v>
+        <v>0.485</v>
       </c>
       <c r="O146" t="s">
         <v>159</v>
@@ -6492,37 +6492,37 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B147">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C147">
-        <v>0.8120000000000001</v>
+        <v>0.499</v>
       </c>
       <c r="D147">
-        <v>1.184</v>
+        <v>0.826</v>
       </c>
       <c r="E147">
-        <v>0.838</v>
+        <v>1.245</v>
       </c>
       <c r="F147">
-        <v>0.342</v>
+        <v>0.75</v>
       </c>
       <c r="G147">
-        <v>0.529</v>
+        <v>1.144</v>
       </c>
       <c r="H147">
-        <v>0.306</v>
+        <v>0.696</v>
       </c>
       <c r="I147">
-        <v>0.358</v>
+        <v>0.471</v>
       </c>
       <c r="J147">
-        <v>0.706</v>
+        <v>1.031</v>
       </c>
       <c r="K147">
-        <v>0.82</v>
+        <v>0.485</v>
       </c>
       <c r="O147" t="s">
         <v>160</v>
@@ -6530,37 +6530,37 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B148">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C148">
-        <v>0.414</v>
+        <v>0.37</v>
       </c>
       <c r="D148">
-        <v>0.8159999999999999</v>
+        <v>0.717</v>
       </c>
       <c r="E148">
-        <v>0.595</v>
+        <v>0.898</v>
       </c>
       <c r="F148">
-        <v>0.159</v>
+        <v>0.529</v>
       </c>
       <c r="G148">
-        <v>0.3</v>
+        <v>0.711</v>
       </c>
       <c r="H148">
-        <v>0.203</v>
+        <v>0.444</v>
       </c>
       <c r="I148">
-        <v>0.192</v>
+        <v>0.434</v>
       </c>
       <c r="J148">
-        <v>0.47</v>
+        <v>1.014</v>
       </c>
       <c r="K148">
-        <v>0.451</v>
+        <v>0.359</v>
       </c>
       <c r="O148" t="s">
         <v>161</v>
@@ -6568,37 +6568,37 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B149">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C149">
-        <v>0.186</v>
+        <v>0.287</v>
       </c>
       <c r="D149">
-        <v>0.305</v>
+        <v>0.372</v>
       </c>
       <c r="E149">
-        <v>0.166</v>
+        <v>0.619</v>
       </c>
       <c r="F149">
-        <v>0.049</v>
+        <v>0.245</v>
       </c>
       <c r="G149">
-        <v>0.07199999999999999</v>
+        <v>0.396</v>
       </c>
       <c r="H149">
-        <v>0.104</v>
+        <v>0.268</v>
       </c>
       <c r="I149">
-        <v>0.064</v>
+        <v>0.2</v>
       </c>
       <c r="J149">
-        <v>0.251</v>
+        <v>0.587</v>
       </c>
       <c r="K149">
-        <v>0.201</v>
+        <v>0.292</v>
       </c>
       <c r="O149" t="s">
         <v>162</v>
@@ -6606,37 +6606,37 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B150">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C150">
-        <v>0.012</v>
+        <v>0.078</v>
       </c>
       <c r="D150">
-        <v>0.023</v>
+        <v>0.116</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.243</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G150">
-        <v>0.011</v>
+        <v>0.118</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>0.074</v>
       </c>
       <c r="J150">
-        <v>0.091</v>
+        <v>0.297</v>
       </c>
       <c r="K150">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="O150" t="s">
         <v>163</v>
@@ -6644,10 +6644,10 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B151">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -6656,13 +6656,13 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="G151">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -6671,10 +6671,10 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>0.043</v>
+        <v>0.095</v>
       </c>
       <c r="K151">
-        <v>0.031</v>
+        <v>0.045</v>
       </c>
       <c r="O151" t="s">
         <v>164</v>
@@ -6682,10 +6682,10 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B152">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>0.048</v>
+        <v>0.043</v>
       </c>
       <c r="K152">
         <v>0.031</v>
@@ -6720,10 +6720,10 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B153">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -6758,10 +6758,10 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B154">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>0.016</v>
+        <v>0.048</v>
       </c>
       <c r="K154">
         <v>0.031</v>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B155">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -6834,10 +6834,10 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B156">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -6872,10 +6872,10 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="2">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -6899,10 +6899,10 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="K157">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="O157" t="s">
         <v>170</v>
@@ -6910,10 +6910,10 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K158">
         <v>0.032</v>
@@ -6948,10 +6948,10 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K159">
         <v>0.032</v>
@@ -6986,10 +6986,10 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K160">
         <v>0.032</v>
@@ -7024,10 +7024,10 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B161">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K161">
         <v>0.032</v>
@@ -7062,10 +7062,10 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B162">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K162">
         <v>0.032</v>
@@ -7100,10 +7100,10 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B163">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K163">
         <v>0.032</v>
@@ -7138,10 +7138,10 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B164">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>0.04</v>
+        <v>0.013</v>
       </c>
       <c r="K164">
         <v>0.032</v>
@@ -7176,10 +7176,10 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B165">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="G165">
         <v>0.011</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="J165">
-        <v>0.091</v>
+        <v>0.043</v>
       </c>
       <c r="K165">
         <v>0.032</v>
@@ -7214,37 +7214,37 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B166">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C166">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>0.07000000000000001</v>
+        <v>0.011</v>
       </c>
       <c r="F166">
-        <v>0.075</v>
+        <v>0.018</v>
       </c>
       <c r="G166">
-        <v>0.073</v>
+        <v>0.011</v>
       </c>
       <c r="H166">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J166">
-        <v>0.27</v>
+        <v>0.093</v>
       </c>
       <c r="K166">
-        <v>0.051</v>
+        <v>0.032</v>
       </c>
       <c r="O166" t="s">
         <v>179</v>
@@ -7252,37 +7252,37 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B167">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C167">
-        <v>0.216</v>
+        <v>0.018</v>
       </c>
       <c r="D167">
-        <v>0.279</v>
+        <v>0.025</v>
       </c>
       <c r="E167">
-        <v>0.284</v>
+        <v>0.095</v>
       </c>
       <c r="F167">
-        <v>0.266</v>
+        <v>0.131</v>
       </c>
       <c r="G167">
-        <v>0.383</v>
+        <v>0.132</v>
       </c>
       <c r="H167">
-        <v>0.174</v>
+        <v>0.053</v>
       </c>
       <c r="I167">
-        <v>0.146</v>
+        <v>0.064</v>
       </c>
       <c r="J167">
-        <v>0.31</v>
+        <v>0.273</v>
       </c>
       <c r="K167">
-        <v>0.203</v>
+        <v>0.051</v>
       </c>
       <c r="O167" t="s">
         <v>180</v>
@@ -7290,37 +7290,37 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B168">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C168">
-        <v>0.41</v>
+        <v>0.102</v>
       </c>
       <c r="D168">
-        <v>0.583</v>
+        <v>0.139</v>
       </c>
       <c r="E168">
-        <v>0.598</v>
+        <v>0.419</v>
       </c>
       <c r="F168">
-        <v>0.45</v>
+        <v>0.344</v>
       </c>
       <c r="G168">
-        <v>0.635</v>
+        <v>0.364</v>
       </c>
       <c r="H168">
-        <v>0.268</v>
+        <v>0.203</v>
       </c>
       <c r="I168">
-        <v>0.239</v>
+        <v>0.247</v>
       </c>
       <c r="J168">
-        <v>0.419</v>
+        <v>0.418</v>
       </c>
       <c r="K168">
-        <v>0.36</v>
+        <v>0.102</v>
       </c>
       <c r="O168" t="s">
         <v>181</v>
@@ -7328,37 +7328,37 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B169">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C169">
-        <v>0.634</v>
+        <v>0.225</v>
       </c>
       <c r="D169">
-        <v>0.775</v>
+        <v>0.336</v>
       </c>
       <c r="E169">
-        <v>0.694</v>
+        <v>0.859</v>
       </c>
       <c r="F169">
-        <v>0.521</v>
+        <v>0.49</v>
       </c>
       <c r="G169">
-        <v>0.891</v>
+        <v>0.777</v>
       </c>
       <c r="H169">
-        <v>0.38</v>
+        <v>0.306</v>
       </c>
       <c r="I169">
-        <v>0.321</v>
+        <v>0.443</v>
       </c>
       <c r="J169">
-        <v>0.652</v>
+        <v>0.654</v>
       </c>
       <c r="K169">
-        <v>0.485</v>
+        <v>0.305</v>
       </c>
       <c r="O169" t="s">
         <v>182</v>
@@ -7366,37 +7366,37 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B170">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C170">
-        <v>0.694</v>
+        <v>0.323</v>
       </c>
       <c r="D170">
-        <v>0.842</v>
+        <v>0.425</v>
       </c>
       <c r="E170">
-        <v>0.718</v>
+        <v>1.254</v>
       </c>
       <c r="F170">
-        <v>0.451</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="G170">
-        <v>0.707</v>
+        <v>1.239</v>
       </c>
       <c r="H170">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="I170">
-        <v>0.331</v>
+        <v>0.547</v>
       </c>
       <c r="J170">
-        <v>0.721</v>
+        <v>1.023</v>
       </c>
       <c r="K170">
-        <v>0.485</v>
+        <v>0.311</v>
       </c>
       <c r="O170" t="s">
         <v>183</v>

--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -61,162 +61,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>02.12.202513</t>
-  </si>
-  <si>
-    <t>02.12.202514</t>
-  </si>
-  <si>
-    <t>02.12.202515</t>
-  </si>
-  <si>
-    <t>02.12.202516</t>
-  </si>
-  <si>
-    <t>02.12.202517</t>
-  </si>
-  <si>
-    <t>02.12.202518</t>
-  </si>
-  <si>
-    <t>02.12.202519</t>
-  </si>
-  <si>
-    <t>02.12.202520</t>
-  </si>
-  <si>
-    <t>02.12.202521</t>
-  </si>
-  <si>
-    <t>02.12.202522</t>
-  </si>
-  <si>
-    <t>02.12.202523</t>
-  </si>
-  <si>
-    <t>02.12.202524</t>
-  </si>
-  <si>
-    <t>03.12.20251</t>
-  </si>
-  <si>
-    <t>03.12.20252</t>
-  </si>
-  <si>
-    <t>03.12.20253</t>
-  </si>
-  <si>
-    <t>03.12.20254</t>
-  </si>
-  <si>
-    <t>03.12.20255</t>
-  </si>
-  <si>
-    <t>03.12.20256</t>
-  </si>
-  <si>
-    <t>03.12.20257</t>
-  </si>
-  <si>
-    <t>03.12.20258</t>
-  </si>
-  <si>
-    <t>03.12.20259</t>
-  </si>
-  <si>
-    <t>03.12.202510</t>
-  </si>
-  <si>
-    <t>03.12.202511</t>
-  </si>
-  <si>
-    <t>03.12.202512</t>
-  </si>
-  <si>
-    <t>03.12.202513</t>
-  </si>
-  <si>
-    <t>03.12.202514</t>
-  </si>
-  <si>
-    <t>03.12.202515</t>
-  </si>
-  <si>
-    <t>03.12.202516</t>
-  </si>
-  <si>
-    <t>03.12.202517</t>
-  </si>
-  <si>
-    <t>03.12.202518</t>
-  </si>
-  <si>
-    <t>03.12.202519</t>
-  </si>
-  <si>
-    <t>03.12.202520</t>
-  </si>
-  <si>
-    <t>03.12.202521</t>
-  </si>
-  <si>
-    <t>03.12.202522</t>
-  </si>
-  <si>
-    <t>03.12.202523</t>
-  </si>
-  <si>
-    <t>03.12.202524</t>
-  </si>
-  <si>
-    <t>04.12.20251</t>
-  </si>
-  <si>
-    <t>04.12.20252</t>
-  </si>
-  <si>
-    <t>04.12.20253</t>
-  </si>
-  <si>
-    <t>04.12.20254</t>
-  </si>
-  <si>
-    <t>04.12.20255</t>
-  </si>
-  <si>
-    <t>04.12.20256</t>
-  </si>
-  <si>
-    <t>04.12.20257</t>
-  </si>
-  <si>
-    <t>04.12.20258</t>
-  </si>
-  <si>
-    <t>04.12.20259</t>
-  </si>
-  <si>
-    <t>04.12.202510</t>
-  </si>
-  <si>
-    <t>04.12.202511</t>
-  </si>
-  <si>
-    <t>04.12.202512</t>
-  </si>
-  <si>
-    <t>04.12.202513</t>
-  </si>
-  <si>
-    <t>04.12.202514</t>
-  </si>
-  <si>
-    <t>04.12.202515</t>
-  </si>
-  <si>
-    <t>04.12.202516</t>
-  </si>
-  <si>
     <t>04.12.202517</t>
   </si>
   <si>
@@ -566,6 +410,162 @@
   </si>
   <si>
     <t>09.12.202513</t>
+  </si>
+  <si>
+    <t>09.12.202514</t>
+  </si>
+  <si>
+    <t>09.12.202515</t>
+  </si>
+  <si>
+    <t>09.12.202516</t>
+  </si>
+  <si>
+    <t>09.12.202517</t>
+  </si>
+  <si>
+    <t>09.12.202518</t>
+  </si>
+  <si>
+    <t>09.12.202519</t>
+  </si>
+  <si>
+    <t>09.12.202520</t>
+  </si>
+  <si>
+    <t>09.12.202521</t>
+  </si>
+  <si>
+    <t>09.12.202522</t>
+  </si>
+  <si>
+    <t>09.12.202523</t>
+  </si>
+  <si>
+    <t>09.12.202524</t>
+  </si>
+  <si>
+    <t>10.12.20251</t>
+  </si>
+  <si>
+    <t>10.12.20252</t>
+  </si>
+  <si>
+    <t>10.12.20253</t>
+  </si>
+  <si>
+    <t>10.12.20254</t>
+  </si>
+  <si>
+    <t>10.12.20255</t>
+  </si>
+  <si>
+    <t>10.12.20256</t>
+  </si>
+  <si>
+    <t>10.12.20257</t>
+  </si>
+  <si>
+    <t>10.12.20258</t>
+  </si>
+  <si>
+    <t>10.12.20259</t>
+  </si>
+  <si>
+    <t>10.12.202510</t>
+  </si>
+  <si>
+    <t>10.12.202511</t>
+  </si>
+  <si>
+    <t>10.12.202512</t>
+  </si>
+  <si>
+    <t>10.12.202513</t>
+  </si>
+  <si>
+    <t>10.12.202514</t>
+  </si>
+  <si>
+    <t>10.12.202515</t>
+  </si>
+  <si>
+    <t>10.12.202516</t>
+  </si>
+  <si>
+    <t>10.12.202517</t>
+  </si>
+  <si>
+    <t>10.12.202518</t>
+  </si>
+  <si>
+    <t>10.12.202519</t>
+  </si>
+  <si>
+    <t>10.12.202520</t>
+  </si>
+  <si>
+    <t>10.12.202521</t>
+  </si>
+  <si>
+    <t>10.12.202522</t>
+  </si>
+  <si>
+    <t>10.12.202523</t>
+  </si>
+  <si>
+    <t>10.12.202524</t>
+  </si>
+  <si>
+    <t>11.12.20251</t>
+  </si>
+  <si>
+    <t>11.12.20252</t>
+  </si>
+  <si>
+    <t>11.12.20253</t>
+  </si>
+  <si>
+    <t>11.12.20254</t>
+  </si>
+  <si>
+    <t>11.12.20255</t>
+  </si>
+  <si>
+    <t>11.12.20256</t>
+  </si>
+  <si>
+    <t>11.12.20257</t>
+  </si>
+  <si>
+    <t>11.12.20258</t>
+  </si>
+  <si>
+    <t>11.12.20259</t>
+  </si>
+  <si>
+    <t>11.12.202510</t>
+  </si>
+  <si>
+    <t>11.12.202511</t>
+  </si>
+  <si>
+    <t>11.12.202512</t>
+  </si>
+  <si>
+    <t>11.12.202513</t>
+  </si>
+  <si>
+    <t>11.12.202514</t>
+  </si>
+  <si>
+    <t>11.12.202515</t>
+  </si>
+  <si>
+    <t>11.12.202516</t>
+  </si>
+  <si>
+    <t>11.12.202517</t>
   </si>
 </sst>
 </file>
@@ -982,10 +982,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.11</v>
+        <v>0.112</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0.034</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="O2" t="s">
         <v>15</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.106</v>
+        <v>0.112</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0.034</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="O3" t="s">
         <v>16</v>
@@ -1058,37 +1058,37 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>0.331</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.365</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.496</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.768</v>
+        <v>0.011</v>
       </c>
       <c r="H4">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.447</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.408</v>
+        <v>0.043</v>
       </c>
       <c r="K4">
-        <v>0.193</v>
+        <v>0.013</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
@@ -1096,37 +1096,37 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>0.234</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.312</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.207</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.343</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.73</v>
+        <v>0.011</v>
       </c>
       <c r="H5">
-        <v>0.217</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.47</v>
+        <v>0.048</v>
       </c>
       <c r="K5">
-        <v>0.193</v>
+        <v>0.013</v>
       </c>
       <c r="O5" t="s">
         <v>18</v>
@@ -1134,37 +1134,37 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>0.089</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.119</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.148</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.249</v>
+        <v>0.011</v>
       </c>
       <c r="H6">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.251</v>
+        <v>0.048</v>
       </c>
       <c r="K6">
-        <v>0.044</v>
+        <v>0.013</v>
       </c>
       <c r="O6" t="s">
         <v>19</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.026</v>
+        <v>0.01</v>
       </c>
       <c r="F7">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09</v>
+        <v>0.011</v>
       </c>
       <c r="K7">
-        <v>0.026</v>
+        <v>0.013</v>
       </c>
       <c r="O7" t="s">
         <v>20</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.038</v>
+        <v>0.011</v>
       </c>
       <c r="K8">
         <v>0.013</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.043</v>
+        <v>0.109</v>
       </c>
       <c r="K9">
         <v>0.013</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="O10" t="s">
         <v>23</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="O11" t="s">
         <v>24</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1389,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="O13" t="s">
         <v>26</v>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O14" t="s">
         <v>27</v>
@@ -1476,10 +1476,10 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O15" t="s">
         <v>28</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O16" t="s">
         <v>29</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="K17">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O17" t="s">
         <v>30</v>
@@ -1590,10 +1590,10 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1602,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="G18">
         <v>0.011</v>
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K18">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O18" t="s">
         <v>31</v>
@@ -1628,37 +1628,37 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="G19">
-        <v>0.011</v>
+        <v>0.135</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.079</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.265</v>
       </c>
       <c r="K19">
-        <v>0.032</v>
+        <v>0.046</v>
       </c>
       <c r="O19" t="s">
         <v>32</v>
@@ -1666,37 +1666,37 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.271</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.265</v>
       </c>
       <c r="G20">
-        <v>0.011</v>
+        <v>0.368</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.305</v>
       </c>
       <c r="K20">
-        <v>0.032</v>
+        <v>0.298</v>
       </c>
       <c r="O20" t="s">
         <v>33</v>
@@ -1704,37 +1704,37 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.488</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.731</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.215</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.435</v>
       </c>
       <c r="G21">
-        <v>0.011</v>
+        <v>0.754</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.302</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="J21">
-        <v>0.123</v>
+        <v>0.404</v>
       </c>
       <c r="K21">
-        <v>0.032</v>
+        <v>0.585</v>
       </c>
       <c r="O21" t="s">
         <v>34</v>
@@ -1742,37 +1742,37 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.731</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.972</v>
       </c>
       <c r="E22">
-        <v>0.016</v>
+        <v>0.324</v>
       </c>
       <c r="F22">
-        <v>0.035</v>
+        <v>0.584</v>
       </c>
       <c r="G22">
-        <v>0.018</v>
+        <v>1.016</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.318</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="J22">
-        <v>0.173</v>
+        <v>0.409</v>
       </c>
       <c r="K22">
-        <v>0.038</v>
+        <v>0.861</v>
       </c>
       <c r="O22" t="s">
         <v>35</v>
@@ -1780,37 +1780,37 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>0.06</v>
+        <v>0.785</v>
       </c>
       <c r="D23">
-        <v>0.083</v>
+        <v>1.297</v>
       </c>
       <c r="E23">
-        <v>0.08799999999999999</v>
+        <v>0.391</v>
       </c>
       <c r="F23">
-        <v>0.351</v>
+        <v>0.632</v>
       </c>
       <c r="G23">
-        <v>0.37</v>
+        <v>1.172</v>
       </c>
       <c r="H23">
-        <v>0.106</v>
+        <v>0.349</v>
       </c>
       <c r="I23">
-        <v>0.061</v>
+        <v>0.178</v>
       </c>
       <c r="J23">
-        <v>0.265</v>
+        <v>0.408</v>
       </c>
       <c r="K23">
-        <v>0.06</v>
+        <v>0.823</v>
       </c>
       <c r="O23" t="s">
         <v>36</v>
@@ -1818,37 +1818,37 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>0.247</v>
+        <v>0.715</v>
       </c>
       <c r="D24">
-        <v>0.406</v>
+        <v>1.255</v>
       </c>
       <c r="E24">
-        <v>0.214</v>
+        <v>0.418</v>
       </c>
       <c r="F24">
-        <v>0.636</v>
+        <v>0.517</v>
       </c>
       <c r="G24">
-        <v>1.228</v>
+        <v>0.783</v>
       </c>
       <c r="H24">
-        <v>0.268</v>
+        <v>0.306</v>
       </c>
       <c r="I24">
-        <v>0.103</v>
+        <v>0.173</v>
       </c>
       <c r="J24">
-        <v>0.483</v>
+        <v>0.335</v>
       </c>
       <c r="K24">
-        <v>0.311</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="O24" t="s">
         <v>37</v>
@@ -1856,37 +1856,37 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>0.613</v>
+        <v>0.409</v>
       </c>
       <c r="D25">
-        <v>0.87</v>
+        <v>0.842</v>
       </c>
       <c r="E25">
-        <v>0.383</v>
+        <v>0.312</v>
       </c>
       <c r="F25">
-        <v>0.857</v>
+        <v>0.25</v>
       </c>
       <c r="G25">
-        <v>1.602</v>
+        <v>0.524</v>
       </c>
       <c r="H25">
-        <v>0.397</v>
+        <v>0.203</v>
       </c>
       <c r="I25">
-        <v>0.173</v>
+        <v>0.103</v>
       </c>
       <c r="J25">
-        <v>0.647</v>
+        <v>0.292</v>
       </c>
       <c r="K25">
-        <v>0.598</v>
+        <v>0.409</v>
       </c>
       <c r="O25" t="s">
         <v>38</v>
@@ -1894,37 +1894,37 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>0.799</v>
+        <v>0.185</v>
       </c>
       <c r="D26">
-        <v>1.223</v>
+        <v>0.255</v>
       </c>
       <c r="E26">
-        <v>0.636</v>
+        <v>0.128</v>
       </c>
       <c r="F26">
-        <v>1.032</v>
+        <v>0.053</v>
       </c>
       <c r="G26">
-        <v>1.53</v>
+        <v>0.11</v>
       </c>
       <c r="H26">
-        <v>0.48</v>
+        <v>0.079</v>
       </c>
       <c r="I26">
-        <v>0.229</v>
+        <v>0.042</v>
       </c>
       <c r="J26">
-        <v>0.722</v>
+        <v>0.246</v>
       </c>
       <c r="K26">
-        <v>0.901</v>
+        <v>0.198</v>
       </c>
       <c r="O26" t="s">
         <v>39</v>
@@ -1932,37 +1932,37 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>0.846</v>
+        <v>0.012</v>
       </c>
       <c r="D27">
-        <v>1.277</v>
+        <v>0.017</v>
       </c>
       <c r="E27">
-        <v>0.781</v>
+        <v>0.019</v>
       </c>
       <c r="F27">
-        <v>1.107</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1.769</v>
+        <v>0.011</v>
       </c>
       <c r="H27">
-        <v>0.478</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0.239</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.984</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K27">
-        <v>0.901</v>
+        <v>0.026</v>
       </c>
       <c r="O27" t="s">
         <v>40</v>
@@ -1970,37 +1970,37 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C28">
-        <v>0.786</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1.182</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.727</v>
+        <v>0.01</v>
       </c>
       <c r="F28">
-        <v>0.987</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1.811</v>
+        <v>0.011</v>
       </c>
       <c r="H28">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0.218</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0.706</v>
+        <v>0.043</v>
       </c>
       <c r="K28">
-        <v>0.647</v>
+        <v>0.013</v>
       </c>
       <c r="O28" t="s">
         <v>41</v>
@@ -2008,37 +2008,37 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>0.344</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0.767</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.461</v>
+        <v>0.01</v>
       </c>
       <c r="F29">
-        <v>0.599</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1.292</v>
+        <v>0.011</v>
       </c>
       <c r="H29">
-        <v>0.232</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0.141</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.47</v>
+        <v>0.048</v>
       </c>
       <c r="K29">
-        <v>0.365</v>
+        <v>0.013</v>
       </c>
       <c r="O29" t="s">
         <v>42</v>
@@ -2046,37 +2046,37 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C30">
-        <v>0.147</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.149</v>
+        <v>0.01</v>
       </c>
       <c r="F30">
-        <v>0.149</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.29</v>
+        <v>0.011</v>
       </c>
       <c r="H30">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0.246</v>
+        <v>0.048</v>
       </c>
       <c r="K30">
-        <v>0.132</v>
+        <v>0.013</v>
       </c>
       <c r="O30" t="s">
         <v>43</v>
@@ -2084,37 +2084,37 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>0.01</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0.011</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>0.016</v>
       </c>
-      <c r="F31">
-        <v>0.011</v>
-      </c>
-      <c r="G31">
-        <v>0.016</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0.08599999999999999</v>
-      </c>
       <c r="K31">
-        <v>0.026</v>
+        <v>0.013</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
@@ -2122,10 +2122,10 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.038</v>
+        <v>0.016</v>
       </c>
       <c r="K32">
         <v>0.013</v>
@@ -2160,10 +2160,10 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.043</v>
+        <v>0.016</v>
       </c>
       <c r="K33">
         <v>0.013</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="B34">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.043</v>
+        <v>0.013</v>
       </c>
       <c r="K34">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="O34" t="s">
         <v>47</v>
@@ -2236,10 +2236,10 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K35">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="O35" t="s">
         <v>48</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="B36">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K36">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="O36" t="s">
         <v>49</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="B37">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2339,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K37">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="O37" t="s">
         <v>50</v>
@@ -2350,10 +2350,10 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K38">
         <v>0.032</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K39">
         <v>0.032</v>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K40">
         <v>0.032</v>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K41">
         <v>0.032</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="G42">
         <v>0.011</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="K42">
         <v>0.032</v>
@@ -2540,37 +2540,37 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.055</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.081</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="G43">
-        <v>0.011</v>
+        <v>0.046</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>0.445</v>
       </c>
       <c r="K43">
-        <v>0.032</v>
+        <v>0.06</v>
       </c>
       <c r="O43" t="s">
         <v>56</v>
@@ -2578,37 +2578,37 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.219</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.469</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="G44">
-        <v>0.011</v>
+        <v>0.15</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>0.297</v>
       </c>
       <c r="K44">
-        <v>0.032</v>
+        <v>0.348</v>
       </c>
       <c r="O44" t="s">
         <v>57</v>
@@ -2616,37 +2616,37 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.549</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.995</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.448</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="G45">
-        <v>0.011</v>
+        <v>0.187</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="J45">
-        <v>0.192</v>
+        <v>0.292</v>
       </c>
       <c r="K45">
-        <v>0.032</v>
+        <v>0.598</v>
       </c>
       <c r="O45" t="s">
         <v>58</v>
@@ -2654,37 +2654,37 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.879</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1.544</v>
       </c>
       <c r="E46">
-        <v>0.016</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="F46">
-        <v>0.037</v>
+        <v>0.217</v>
       </c>
       <c r="G46">
-        <v>0.018</v>
+        <v>0.337</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>0.184</v>
       </c>
       <c r="J46">
-        <v>0.242</v>
+        <v>0.341</v>
       </c>
       <c r="K46">
-        <v>0.038</v>
+        <v>0.923</v>
       </c>
       <c r="O46" t="s">
         <v>59</v>
@@ -2692,37 +2692,37 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>0.068</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="D47">
-        <v>0.083</v>
+        <v>1.628</v>
       </c>
       <c r="E47">
-        <v>0.07000000000000001</v>
+        <v>0.734</v>
       </c>
       <c r="F47">
-        <v>0.264</v>
+        <v>0.297</v>
       </c>
       <c r="G47">
-        <v>0.337</v>
+        <v>0.469</v>
       </c>
       <c r="H47">
-        <v>0.106</v>
+        <v>0.236</v>
       </c>
       <c r="I47">
-        <v>0.068</v>
+        <v>0.277</v>
       </c>
       <c r="J47">
-        <v>0.484</v>
+        <v>0.47</v>
       </c>
       <c r="K47">
-        <v>0.08799999999999999</v>
+        <v>0.923</v>
       </c>
       <c r="O47" t="s">
         <v>60</v>
@@ -2730,37 +2730,37 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>0.266</v>
+        <v>0.617</v>
       </c>
       <c r="D48">
-        <v>0.38</v>
+        <v>1.475</v>
       </c>
       <c r="E48">
-        <v>0.213</v>
+        <v>0.667</v>
       </c>
       <c r="F48">
-        <v>0.645</v>
+        <v>0.236</v>
       </c>
       <c r="G48">
-        <v>1.042</v>
+        <v>0.323</v>
       </c>
       <c r="H48">
         <v>0.221</v>
       </c>
       <c r="I48">
-        <v>0.197</v>
+        <v>0.184</v>
       </c>
       <c r="J48">
-        <v>0.609</v>
+        <v>0.47</v>
       </c>
       <c r="K48">
-        <v>0.407</v>
+        <v>0.617</v>
       </c>
       <c r="O48" t="s">
         <v>61</v>
@@ -2768,37 +2768,37 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>0.657</v>
+        <v>0.316</v>
       </c>
       <c r="D49">
-        <v>0.931</v>
+        <v>0.837</v>
       </c>
       <c r="E49">
-        <v>0.435</v>
+        <v>0.395</v>
       </c>
       <c r="F49">
-        <v>1.032</v>
+        <v>0.121</v>
       </c>
       <c r="G49">
-        <v>1.619</v>
+        <v>0.17</v>
       </c>
       <c r="H49">
-        <v>0.38</v>
+        <v>0.145</v>
       </c>
       <c r="I49">
-        <v>0.313</v>
+        <v>0.109</v>
       </c>
       <c r="J49">
-        <v>0.465</v>
+        <v>0.297</v>
       </c>
       <c r="K49">
-        <v>0.791</v>
+        <v>0.365</v>
       </c>
       <c r="O49" t="s">
         <v>62</v>
@@ -2806,37 +2806,37 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C50">
-        <v>0.981</v>
+        <v>0.155</v>
       </c>
       <c r="D50">
-        <v>1.394</v>
+        <v>0.202</v>
       </c>
       <c r="E50">
-        <v>0.646</v>
+        <v>0.12</v>
       </c>
       <c r="F50">
-        <v>1.304</v>
+        <v>0.038</v>
       </c>
       <c r="G50">
-        <v>2.237</v>
+        <v>0.063</v>
       </c>
       <c r="H50">
-        <v>0.653</v>
+        <v>0.053</v>
       </c>
       <c r="I50">
-        <v>0.401</v>
+        <v>0.034</v>
       </c>
       <c r="J50">
-        <v>0.6879999999999999</v>
+        <v>0.426</v>
       </c>
       <c r="K50">
-        <v>0.91</v>
+        <v>0.091</v>
       </c>
       <c r="O50" t="s">
         <v>63</v>
@@ -2844,37 +2844,37 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C51">
-        <v>1.051</v>
+        <v>0.01</v>
       </c>
       <c r="D51">
-        <v>1.577</v>
+        <v>0.011</v>
       </c>
       <c r="E51">
-        <v>0.731</v>
+        <v>0.029</v>
       </c>
       <c r="F51">
-        <v>1.384</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>2.217</v>
+        <v>0.011</v>
       </c>
       <c r="H51">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1.023</v>
+        <v>0.091</v>
       </c>
       <c r="K51">
-        <v>0.91</v>
+        <v>0.045</v>
       </c>
       <c r="O51" t="s">
         <v>64</v>
@@ -2882,37 +2882,37 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C52">
-        <v>0.863</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1.648</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0.621</v>
+        <v>0.019</v>
       </c>
       <c r="F52">
-        <v>1.105</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1.616</v>
+        <v>0.011</v>
       </c>
       <c r="H52">
-        <v>0.744</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0.897</v>
+        <v>0.043</v>
       </c>
       <c r="K52">
-        <v>0.827</v>
+        <v>0.031</v>
       </c>
       <c r="O52" t="s">
         <v>65</v>
@@ -2920,37 +2920,37 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C53">
-        <v>0.496</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0.389</v>
+        <v>0.016</v>
       </c>
       <c r="F53">
-        <v>0.657</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1.158</v>
+        <v>0.011</v>
       </c>
       <c r="H53">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0.184</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0.47</v>
+        <v>0.048</v>
       </c>
       <c r="K53">
-        <v>0.409</v>
+        <v>0.031</v>
       </c>
       <c r="O53" t="s">
         <v>66</v>
@@ -2958,37 +2958,37 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C54">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.307</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0.148</v>
+        <v>0.014</v>
       </c>
       <c r="F54">
-        <v>0.151</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.4</v>
+        <v>0.011</v>
       </c>
       <c r="H54">
-        <v>0.172</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0.251</v>
+        <v>0.048</v>
       </c>
       <c r="K54">
-        <v>0.182</v>
+        <v>0.031</v>
       </c>
       <c r="O54" t="s">
         <v>67</v>
@@ -2996,37 +2996,37 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C55">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="H55">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0.091</v>
+        <v>0.016</v>
       </c>
       <c r="K55">
-        <v>0.026</v>
+        <v>0.031</v>
       </c>
       <c r="O55" t="s">
         <v>68</v>
@@ -3034,10 +3034,10 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B56">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3061,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.043</v>
+        <v>0.016</v>
       </c>
       <c r="K56">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O56" t="s">
         <v>69</v>
@@ -3072,10 +3072,10 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3099,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.048</v>
+        <v>0.016</v>
       </c>
       <c r="K57">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O57" t="s">
         <v>70</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="2">
-        <v>45995</v>
+        <v>45998</v>
       </c>
       <c r="B58">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3137,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="O58" t="s">
         <v>71</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="2">
-        <v>45995</v>
+        <v>45998</v>
       </c>
       <c r="B59">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="O59" t="s">
         <v>72</v>
@@ -3186,10 +3186,10 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="2">
-        <v>45995</v>
+        <v>45998</v>
       </c>
       <c r="B60">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3213,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K60">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="O60" t="s">
         <v>73</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="2">
-        <v>45995</v>
+        <v>45998</v>
       </c>
       <c r="B61">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3251,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.109</v>
+        <v>0.013</v>
       </c>
       <c r="K61">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="O61" t="s">
         <v>74</v>
@@ -3262,10 +3262,10 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3289,10 +3289,10 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K62">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O62" t="s">
         <v>75</v>
@@ -3300,10 +3300,10 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3327,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K63">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O63" t="s">
         <v>76</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3365,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K64">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O64" t="s">
         <v>77</v>
@@ -3376,10 +3376,10 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3403,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K65">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O65" t="s">
         <v>78</v>
@@ -3414,10 +3414,10 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="G66">
         <v>0.011</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="K66">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="O66" t="s">
         <v>79</v>
@@ -3452,37 +3452,37 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="G67">
-        <v>0.011</v>
+        <v>0.073</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="K67">
-        <v>0.014</v>
+        <v>0.051</v>
       </c>
       <c r="O67" t="s">
         <v>80</v>
@@ -3490,37 +3490,37 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.184</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="G68">
-        <v>0.011</v>
+        <v>0.243</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="K68">
-        <v>0.014</v>
+        <v>0.292</v>
       </c>
       <c r="O68" t="s">
         <v>81</v>
@@ -3528,37 +3528,37 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.359</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.372</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.309</v>
       </c>
       <c r="G69">
-        <v>0.011</v>
+        <v>0.505</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="J69">
-        <v>0.035</v>
+        <v>0.545</v>
       </c>
       <c r="K69">
-        <v>0.014</v>
+        <v>0.461</v>
       </c>
       <c r="O69" t="s">
         <v>82</v>
@@ -3566,37 +3566,37 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.436</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="E70">
-        <v>0.016</v>
+        <v>0.619</v>
       </c>
       <c r="F70">
-        <v>0.02</v>
+        <v>0.433</v>
       </c>
       <c r="G70">
-        <v>0.011</v>
+        <v>0.751</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>0.306</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="J70">
-        <v>0.08599999999999999</v>
+        <v>0.714</v>
       </c>
       <c r="K70">
-        <v>0.014</v>
+        <v>0.631</v>
       </c>
       <c r="O70" t="s">
         <v>83</v>
@@ -3604,37 +3604,37 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C71">
-        <v>0.057</v>
+        <v>0.512</v>
       </c>
       <c r="D71">
-        <v>0.066</v>
+        <v>0.754</v>
       </c>
       <c r="E71">
-        <v>0.073</v>
+        <v>0.653</v>
       </c>
       <c r="F71">
-        <v>0.123</v>
+        <v>0.389</v>
       </c>
       <c r="G71">
-        <v>0.152</v>
+        <v>0.508</v>
       </c>
       <c r="H71">
-        <v>0.053</v>
+        <v>0.347</v>
       </c>
       <c r="I71">
-        <v>0.061</v>
+        <v>0.304</v>
       </c>
       <c r="J71">
-        <v>0.265</v>
+        <v>0.951</v>
       </c>
       <c r="K71">
-        <v>0.046</v>
+        <v>0.631</v>
       </c>
       <c r="O71" t="s">
         <v>84</v>
@@ -3642,37 +3642,37 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>0.294</v>
+        <v>0.355</v>
       </c>
       <c r="D72">
-        <v>0.348</v>
+        <v>0.633</v>
       </c>
       <c r="E72">
-        <v>0.218</v>
+        <v>0.613</v>
       </c>
       <c r="F72">
-        <v>0.44</v>
+        <v>0.219</v>
       </c>
       <c r="G72">
-        <v>0.618</v>
+        <v>0.293</v>
       </c>
       <c r="H72">
-        <v>0.174</v>
+        <v>0.302</v>
       </c>
       <c r="I72">
-        <v>0.132</v>
+        <v>0.258</v>
       </c>
       <c r="J72">
-        <v>0.305</v>
+        <v>0.86</v>
       </c>
       <c r="K72">
-        <v>0.298</v>
+        <v>0.535</v>
       </c>
       <c r="O72" t="s">
         <v>85</v>
@@ -3680,37 +3680,37 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C73">
-        <v>0.603</v>
+        <v>0.266</v>
       </c>
       <c r="D73">
-        <v>0.739</v>
+        <v>0.327</v>
       </c>
       <c r="E73">
-        <v>0.437</v>
+        <v>0.426</v>
       </c>
       <c r="F73">
-        <v>0.661</v>
+        <v>0.127</v>
       </c>
       <c r="G73">
-        <v>1.364</v>
+        <v>0.177</v>
       </c>
       <c r="H73">
-        <v>0.236</v>
+        <v>0.203</v>
       </c>
       <c r="I73">
-        <v>0.199</v>
+        <v>0.146</v>
       </c>
       <c r="J73">
-        <v>0.404</v>
+        <v>0.478</v>
       </c>
       <c r="K73">
-        <v>0.461</v>
+        <v>0.319</v>
       </c>
       <c r="O73" t="s">
         <v>86</v>
@@ -3718,37 +3718,37 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B74">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C74">
-        <v>0.787</v>
+        <v>0.075</v>
       </c>
       <c r="D74">
-        <v>1.006</v>
+        <v>0.089</v>
       </c>
       <c r="E74">
-        <v>0.652</v>
+        <v>0.145</v>
       </c>
       <c r="F74">
-        <v>0.791</v>
+        <v>0.041</v>
       </c>
       <c r="G74">
-        <v>1.189</v>
+        <v>0.063</v>
       </c>
       <c r="H74">
-        <v>0.38</v>
+        <v>0.079</v>
       </c>
       <c r="I74">
-        <v>0.245</v>
+        <v>0.064</v>
       </c>
       <c r="J74">
-        <v>0.528</v>
+        <v>0.251</v>
       </c>
       <c r="K74">
-        <v>0.806</v>
+        <v>0.132</v>
       </c>
       <c r="O74" t="s">
         <v>87</v>
@@ -3756,37 +3756,37 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B75">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C75">
-        <v>0.865</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>1.318</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0.646</v>
+        <v>0.021</v>
       </c>
       <c r="F75">
-        <v>0.721</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>1.173</v>
+        <v>0.011</v>
       </c>
       <c r="H75">
-        <v>0.393</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0.245</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>0.651</v>
+        <v>0.091</v>
       </c>
       <c r="K75">
-        <v>0.871</v>
+        <v>0.026</v>
       </c>
       <c r="O75" t="s">
         <v>88</v>
@@ -3794,37 +3794,37 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B76">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C76">
-        <v>0.849</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>1.093</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0.631</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.5610000000000001</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0.752</v>
+        <v>0.011</v>
       </c>
       <c r="H76">
-        <v>0.347</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0.218</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>0.636</v>
+        <v>0.043</v>
       </c>
       <c r="K76">
-        <v>0.76</v>
+        <v>0.013</v>
       </c>
       <c r="O76" t="s">
         <v>89</v>
@@ -3832,37 +3832,37 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B77">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C77">
-        <v>0.472</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0.714</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0.386</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.252</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.486</v>
+        <v>0.011</v>
       </c>
       <c r="H77">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>0.47</v>
+        <v>0.048</v>
       </c>
       <c r="K77">
-        <v>0.409</v>
+        <v>0.031</v>
       </c>
       <c r="O77" t="s">
         <v>90</v>
@@ -3870,37 +3870,37 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B78">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C78">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>0.144</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0.117</v>
+        <v>0.011</v>
       </c>
       <c r="H78">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0.251</v>
+        <v>0.048</v>
       </c>
       <c r="K78">
-        <v>0.198</v>
+        <v>0.031</v>
       </c>
       <c r="O78" t="s">
         <v>91</v>
@@ -3908,25 +3908,25 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C79">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0.014</v>
+        <v>0.011</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3935,10 +3935,10 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0.091</v>
+        <v>0.016</v>
       </c>
       <c r="K79">
-        <v>0.026</v>
+        <v>0.031</v>
       </c>
       <c r="O79" t="s">
         <v>92</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B80">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3973,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0.043</v>
+        <v>0.016</v>
       </c>
       <c r="K80">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O80" t="s">
         <v>93</v>
@@ -3984,10 +3984,10 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="B81">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4011,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.048</v>
+        <v>0.016</v>
       </c>
       <c r="K81">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="O81" t="s">
         <v>94</v>
@@ -4022,10 +4022,10 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="2">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="B82">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4049,10 +4049,10 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0.048</v>
+        <v>0.013</v>
       </c>
       <c r="K82">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="O82" t="s">
         <v>95</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="2">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="B83">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4087,10 +4087,10 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K83">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="O83" t="s">
         <v>96</v>
@@ -4098,10 +4098,10 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="2">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="B84">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4125,10 +4125,10 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K84">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="O84" t="s">
         <v>97</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="2">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="B85">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4163,10 +4163,10 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K85">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="O85" t="s">
         <v>98</v>
@@ -4174,10 +4174,10 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.011</v>
+        <v>0.019</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K86">
         <v>0.032</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.014</v>
+        <v>0.019</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K87">
         <v>0.032</v>
@@ -4250,10 +4250,10 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0.019</v>
+        <v>0.01</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K88">
         <v>0.032</v>
@@ -4288,10 +4288,10 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.019</v>
+        <v>0.01</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K89">
         <v>0.032</v>
@@ -4326,10 +4326,10 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -4338,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="G90">
         <v>0.011</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="K90">
         <v>0.032</v>
@@ -4364,37 +4364,37 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.135</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G91">
-        <v>0.011</v>
+        <v>0.073</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="K91">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
       <c r="O91" t="s">
         <v>104</v>
@@ -4402,37 +4402,37 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.594</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.259</v>
       </c>
       <c r="G92">
-        <v>0.011</v>
+        <v>0.391</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="K92">
-        <v>0.032</v>
+        <v>0.183</v>
       </c>
       <c r="O92" t="s">
         <v>105</v>
@@ -4440,37 +4440,37 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.368</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1.241</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="G93">
-        <v>0.011</v>
+        <v>0.597</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>0.479</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="J93">
-        <v>0.035</v>
+        <v>0.644</v>
       </c>
       <c r="K93">
-        <v>0.032</v>
+        <v>0.311</v>
       </c>
       <c r="O93" t="s">
         <v>106</v>
@@ -4478,37 +4478,37 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>0.506</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>0.705</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1.655</v>
       </c>
       <c r="F94">
-        <v>0.017</v>
+        <v>0.491</v>
       </c>
       <c r="G94">
-        <v>0.011</v>
+        <v>0.944</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.614</v>
       </c>
       <c r="J94">
-        <v>0.08599999999999999</v>
+        <v>1.014</v>
       </c>
       <c r="K94">
-        <v>0.032</v>
+        <v>0.436</v>
       </c>
       <c r="O94" t="s">
         <v>107</v>
@@ -4516,37 +4516,37 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C95">
-        <v>0.07199999999999999</v>
+        <v>0.552</v>
       </c>
       <c r="D95">
-        <v>0.099</v>
+        <v>0.787</v>
       </c>
       <c r="E95">
-        <v>0.065</v>
+        <v>1.831</v>
       </c>
       <c r="F95">
-        <v>0.073</v>
+        <v>0.512</v>
       </c>
       <c r="G95">
-        <v>0.08</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="H95">
-        <v>0.053</v>
+        <v>0.753</v>
       </c>
       <c r="I95">
-        <v>0.068</v>
+        <v>0.649</v>
       </c>
       <c r="J95">
-        <v>0.265</v>
+        <v>1.014</v>
       </c>
       <c r="K95">
-        <v>0.073</v>
+        <v>0.485</v>
       </c>
       <c r="O95" t="s">
         <v>108</v>
@@ -4554,37 +4554,37 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B96">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C96">
-        <v>0.262</v>
+        <v>0.518</v>
       </c>
       <c r="D96">
-        <v>0.588</v>
+        <v>0.678</v>
       </c>
       <c r="E96">
-        <v>0.247</v>
+        <v>1.682</v>
       </c>
       <c r="F96">
-        <v>0.224</v>
+        <v>0.362</v>
       </c>
       <c r="G96">
-        <v>0.241</v>
+        <v>0.587</v>
       </c>
       <c r="H96">
-        <v>0.174</v>
+        <v>0.48</v>
       </c>
       <c r="I96">
-        <v>0.211</v>
+        <v>0.516</v>
       </c>
       <c r="J96">
-        <v>0.488</v>
+        <v>1.014</v>
       </c>
       <c r="K96">
-        <v>0.407</v>
+        <v>0.365</v>
       </c>
       <c r="O96" t="s">
         <v>109</v>
@@ -4592,37 +4592,37 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B97">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C97">
-        <v>0.638</v>
+        <v>0.322</v>
       </c>
       <c r="D97">
-        <v>1.308</v>
+        <v>0.398</v>
       </c>
       <c r="E97">
-        <v>0.412</v>
+        <v>1.262</v>
       </c>
       <c r="F97">
-        <v>0.243</v>
+        <v>0.217</v>
       </c>
       <c r="G97">
-        <v>0.343</v>
+        <v>0.327</v>
       </c>
       <c r="H97">
-        <v>0.236</v>
+        <v>0.306</v>
       </c>
       <c r="I97">
-        <v>0.341</v>
+        <v>0.447</v>
       </c>
       <c r="J97">
-        <v>0.706</v>
+        <v>0.715</v>
       </c>
       <c r="K97">
-        <v>0.892</v>
+        <v>0.274</v>
       </c>
       <c r="O97" t="s">
         <v>110</v>
@@ -4630,37 +4630,37 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B98">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C98">
-        <v>1.028</v>
+        <v>0.093</v>
       </c>
       <c r="D98">
-        <v>1.736</v>
+        <v>0.125</v>
       </c>
       <c r="E98">
-        <v>0.61</v>
+        <v>0.547</v>
       </c>
       <c r="F98">
-        <v>0.316</v>
+        <v>0.066</v>
       </c>
       <c r="G98">
-        <v>0.453</v>
+        <v>0.117</v>
       </c>
       <c r="H98">
-        <v>0.318</v>
+        <v>0.142</v>
       </c>
       <c r="I98">
-        <v>0.451</v>
+        <v>0.146</v>
       </c>
       <c r="J98">
-        <v>1.021</v>
+        <v>0.292</v>
       </c>
       <c r="K98">
-        <v>0.961</v>
+        <v>0.044</v>
       </c>
       <c r="O98" t="s">
         <v>111</v>
@@ -4668,37 +4668,37 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B99">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C99">
-        <v>1.192</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>1.792</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>0.694</v>
+        <v>0.063</v>
       </c>
       <c r="F99">
-        <v>0.417</v>
+        <v>0.011</v>
       </c>
       <c r="G99">
-        <v>0.65</v>
+        <v>0.014</v>
       </c>
       <c r="H99">
-        <v>0.318</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0.454</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0.721</v>
+        <v>0.137</v>
       </c>
       <c r="K99">
-        <v>0.929</v>
+        <v>0.026</v>
       </c>
       <c r="O99" t="s">
         <v>112</v>
@@ -4706,37 +4706,37 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B100">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C100">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>1.655</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>0.657</v>
+        <v>0.01</v>
       </c>
       <c r="F100">
-        <v>0.344</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0.519</v>
+        <v>0.011</v>
       </c>
       <c r="H100">
-        <v>0.236</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>0.636</v>
+        <v>0.043</v>
       </c>
       <c r="K100">
-        <v>0.617</v>
+        <v>0.013</v>
       </c>
       <c r="O100" t="s">
         <v>113</v>
@@ -4744,37 +4744,37 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B101">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C101">
-        <v>0.523</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>0.9360000000000001</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>0.415</v>
+        <v>0.01</v>
       </c>
       <c r="F101">
-        <v>0.169</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>0.347</v>
+        <v>0.011</v>
       </c>
       <c r="H101">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>0.402</v>
+        <v>0.048</v>
       </c>
       <c r="K101">
-        <v>0.365</v>
+        <v>0.013</v>
       </c>
       <c r="O101" t="s">
         <v>114</v>
@@ -4782,37 +4782,37 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B102">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C102">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>0.238</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>0.166</v>
+        <v>0.01</v>
       </c>
       <c r="F102">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>0.092</v>
+        <v>0.011</v>
       </c>
       <c r="H102">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0.251</v>
+        <v>0.048</v>
       </c>
       <c r="K102">
-        <v>0.187</v>
+        <v>0.013</v>
       </c>
       <c r="O102" t="s">
         <v>115</v>
@@ -4820,19 +4820,19 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B103">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C103">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4847,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0.091</v>
+        <v>0.016</v>
       </c>
       <c r="K103">
-        <v>0.045</v>
+        <v>0.013</v>
       </c>
       <c r="O103" t="s">
         <v>116</v>
@@ -4858,10 +4858,10 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B104">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0.043</v>
+        <v>0.016</v>
       </c>
       <c r="K104">
         <v>0.031</v>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B105">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0.048</v>
+        <v>0.016</v>
       </c>
       <c r="K105">
         <v>0.031</v>
@@ -4934,10 +4934,10 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="2">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="B106">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -4961,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0.048</v>
+        <v>0.013</v>
       </c>
       <c r="K106">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="O106" t="s">
         <v>119</v>
@@ -4972,10 +4972,10 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="2">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="B107">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4999,10 +4999,10 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K107">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="O107" t="s">
         <v>120</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="2">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="B108">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -5037,10 +5037,10 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="O108" t="s">
         <v>121</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="2">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="B109">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5075,10 +5075,10 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="O109" t="s">
         <v>122</v>
@@ -5086,10 +5086,10 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>0.032</v>
@@ -5124,10 +5124,10 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>0.032</v>
@@ -5162,10 +5162,10 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K112">
         <v>0.032</v>
@@ -5200,10 +5200,10 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -5227,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0.013</v>
+        <v>0.035</v>
       </c>
       <c r="K113">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O113" t="s">
         <v>126</v>
@@ -5238,10 +5238,10 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -5253,10 +5253,10 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G114">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5265,10 +5265,10 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0.013</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K114">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O114" t="s">
         <v>127</v>
@@ -5276,37 +5276,37 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.366</v>
       </c>
       <c r="G115">
-        <v>0.011</v>
+        <v>0.529</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="J115">
-        <v>0.013</v>
+        <v>0.265</v>
       </c>
       <c r="K115">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="O115" t="s">
         <v>128</v>
@@ -5314,37 +5314,37 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B116">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.874</v>
       </c>
       <c r="G116">
-        <v>0.011</v>
+        <v>1.687</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="J116">
-        <v>0.013</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="K116">
-        <v>0.032</v>
+        <v>0.169</v>
       </c>
       <c r="O116" t="s">
         <v>129</v>
@@ -5352,37 +5352,37 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>0.269</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>0.381</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.733</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1.143</v>
       </c>
       <c r="G117">
-        <v>0.011</v>
+        <v>2.182</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>0.464</v>
       </c>
       <c r="J117">
-        <v>0.04</v>
+        <v>1.014</v>
       </c>
       <c r="K117">
-        <v>0.032</v>
+        <v>0.298</v>
       </c>
       <c r="O117" t="s">
         <v>130</v>
@@ -5390,37 +5390,37 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.361</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>0.482</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="F118">
-        <v>0.018</v>
+        <v>1.753</v>
       </c>
       <c r="G118">
-        <v>0.011</v>
+        <v>2.465</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>0.707</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>0.587</v>
       </c>
       <c r="J118">
-        <v>0.091</v>
+        <v>1.054</v>
       </c>
       <c r="K118">
-        <v>0.032</v>
+        <v>0.406</v>
       </c>
       <c r="O118" t="s">
         <v>131</v>
@@ -5428,37 +5428,37 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B119">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C119">
-        <v>0.056</v>
+        <v>0.404</v>
       </c>
       <c r="D119">
-        <v>0.067</v>
+        <v>0.508</v>
       </c>
       <c r="E119">
-        <v>0.074</v>
+        <v>1.236</v>
       </c>
       <c r="F119">
-        <v>0.079</v>
+        <v>1.772</v>
       </c>
       <c r="G119">
-        <v>0.08</v>
+        <v>2.674</v>
       </c>
       <c r="H119">
-        <v>0.053</v>
+        <v>0.76</v>
       </c>
       <c r="I119">
-        <v>0.064</v>
+        <v>0.64</v>
       </c>
       <c r="J119">
-        <v>0.27</v>
+        <v>0.99</v>
       </c>
       <c r="K119">
-        <v>0.06</v>
+        <v>0.455</v>
       </c>
       <c r="O119" t="s">
         <v>132</v>
@@ -5466,37 +5466,37 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B120">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C120">
-        <v>0.271</v>
+        <v>0.333</v>
       </c>
       <c r="D120">
-        <v>0.366</v>
+        <v>0.389</v>
       </c>
       <c r="E120">
-        <v>0.29</v>
+        <v>1.153</v>
       </c>
       <c r="F120">
-        <v>0.231</v>
+        <v>1.34</v>
       </c>
       <c r="G120">
-        <v>0.299</v>
+        <v>2.454</v>
       </c>
       <c r="H120">
-        <v>0.168</v>
+        <v>0.66</v>
       </c>
       <c r="I120">
-        <v>0.18</v>
+        <v>0.632</v>
       </c>
       <c r="J120">
-        <v>0.31</v>
+        <v>1.034</v>
       </c>
       <c r="K120">
-        <v>0.311</v>
+        <v>0.411</v>
       </c>
       <c r="O120" t="s">
         <v>133</v>
@@ -5504,37 +5504,37 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B121">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C121">
-        <v>0.571</v>
+        <v>0.163</v>
       </c>
       <c r="D121">
-        <v>0.8159999999999999</v>
+        <v>0.205</v>
       </c>
       <c r="E121">
-        <v>0.62</v>
+        <v>0.754</v>
       </c>
       <c r="F121">
-        <v>0.398</v>
+        <v>0.723</v>
       </c>
       <c r="G121">
-        <v>0.5</v>
+        <v>1.64</v>
       </c>
       <c r="H121">
-        <v>0.232</v>
+        <v>0.349</v>
       </c>
       <c r="I121">
+        <v>0.42</v>
+      </c>
+      <c r="J121">
+        <v>0.975</v>
+      </c>
+      <c r="K121">
         <v>0.307</v>
-      </c>
-      <c r="J121">
-        <v>0.409</v>
-      </c>
-      <c r="K121">
-        <v>0.578</v>
       </c>
       <c r="O121" t="s">
         <v>134</v>
@@ -5542,37 +5542,37 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B122">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C122">
-        <v>0.799</v>
+        <v>0.061</v>
       </c>
       <c r="D122">
-        <v>1.165</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E122">
-        <v>0.76</v>
+        <v>0.281</v>
       </c>
       <c r="F122">
-        <v>0.492</v>
+        <v>0.144</v>
       </c>
       <c r="G122">
-        <v>0.926</v>
+        <v>0.356</v>
       </c>
       <c r="H122">
-        <v>0.318</v>
+        <v>0.172</v>
       </c>
       <c r="I122">
-        <v>0.423</v>
+        <v>0.121</v>
       </c>
       <c r="J122">
-        <v>0.533</v>
+        <v>0.292</v>
       </c>
       <c r="K122">
-        <v>0.854</v>
+        <v>0.041</v>
       </c>
       <c r="O122" t="s">
         <v>135</v>
@@ -5580,37 +5580,37 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B123">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C123">
-        <v>0.8070000000000001</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>1.225</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>0.903</v>
+        <v>0.021</v>
       </c>
       <c r="F123">
-        <v>0.478</v>
+        <v>0.011</v>
       </c>
       <c r="G123">
-        <v>0.835</v>
+        <v>0.016</v>
       </c>
       <c r="H123">
-        <v>0.38</v>
+        <v>0.012</v>
       </c>
       <c r="I123">
-        <v>0.434</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>0.59</v>
+        <v>0.137</v>
       </c>
       <c r="K123">
-        <v>0.86</v>
+        <v>0.026</v>
       </c>
       <c r="O123" t="s">
         <v>136</v>
@@ -5618,37 +5618,37 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B124">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C124">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>0.762</v>
+        <v>0.016</v>
       </c>
       <c r="F124">
-        <v>0.377</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>0.538</v>
+        <v>0.011</v>
       </c>
       <c r="H124">
-        <v>0.306</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0.358</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>0.469</v>
+        <v>0.043</v>
       </c>
       <c r="K124">
-        <v>0.572</v>
+        <v>0.013</v>
       </c>
       <c r="O124" t="s">
         <v>137</v>
@@ -5656,37 +5656,37 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B125">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C125">
-        <v>0.362</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>0.636</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>0.605</v>
+        <v>0.017</v>
       </c>
       <c r="F125">
-        <v>0.168</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>0.307</v>
+        <v>0.011</v>
       </c>
       <c r="H125">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>0.184</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>0.336</v>
+        <v>0.048</v>
       </c>
       <c r="K125">
-        <v>0.343</v>
+        <v>0.013</v>
       </c>
       <c r="O125" t="s">
         <v>138</v>
@@ -5694,37 +5694,37 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B126">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C126">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>0.183</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>0.176</v>
+        <v>0.017</v>
       </c>
       <c r="F126">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.092</v>
+        <v>0.011</v>
       </c>
       <c r="H126">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>0.251</v>
+        <v>0.048</v>
       </c>
       <c r="K126">
-        <v>0.091</v>
+        <v>0.013</v>
       </c>
       <c r="O126" t="s">
         <v>139</v>
@@ -5732,19 +5732,19 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B127">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C127">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5759,10 +5759,10 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0.091</v>
+        <v>0.016</v>
       </c>
       <c r="K127">
-        <v>0.045</v>
+        <v>0.013</v>
       </c>
       <c r="O127" t="s">
         <v>140</v>
@@ -5770,10 +5770,10 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B128">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5797,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0.043</v>
+        <v>0.016</v>
       </c>
       <c r="K128">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="O128" t="s">
         <v>141</v>
@@ -5808,10 +5808,10 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="B129">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5835,10 +5835,10 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0.048</v>
+        <v>0.016</v>
       </c>
       <c r="K129">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="O129" t="s">
         <v>142</v>
@@ -5846,10 +5846,10 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="B130">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5873,10 +5873,10 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0.048</v>
+        <v>0.013</v>
       </c>
       <c r="K130">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="O130" t="s">
         <v>143</v>
@@ -5884,10 +5884,10 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="B131">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5911,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K131">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="O131" t="s">
         <v>144</v>
@@ -5922,10 +5922,10 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="B132">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5949,10 +5949,10 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K132">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="O132" t="s">
         <v>145</v>
@@ -5960,10 +5960,10 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="B133">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5987,10 +5987,10 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K133">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="O133" t="s">
         <v>146</v>
@@ -5998,10 +5998,10 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0.013</v>
       </c>
       <c r="K134">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O134" t="s">
         <v>147</v>
@@ -6036,10 +6036,10 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -6066,7 +6066,7 @@
         <v>0.013</v>
       </c>
       <c r="K135">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O135" t="s">
         <v>148</v>
@@ -6074,10 +6074,10 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -6101,10 +6101,10 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K136">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O136" t="s">
         <v>149</v>
@@ -6112,10 +6112,10 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -6139,10 +6139,10 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K137">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O137" t="s">
         <v>150</v>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B138">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -6162,10 +6162,10 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="G138">
         <v>0.011</v>
@@ -6177,10 +6177,10 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="K138">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O138" t="s">
         <v>151</v>
@@ -6188,37 +6188,37 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B139">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.129</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>0.267</v>
       </c>
       <c r="G139">
-        <v>0.011</v>
+        <v>0.256</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>0.318</v>
       </c>
       <c r="K139">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="O139" t="s">
         <v>152</v>
@@ -6226,37 +6226,37 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B140">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>0.242</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.578</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>0.537</v>
       </c>
       <c r="G140">
-        <v>0.011</v>
+        <v>0.976</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>0.349</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>0.734</v>
       </c>
       <c r="K140">
-        <v>0.032</v>
+        <v>0.292</v>
       </c>
       <c r="O140" t="s">
         <v>153</v>
@@ -6264,37 +6264,37 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B141">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>0.489</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>0.679</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1.014</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.848</v>
       </c>
       <c r="G141">
-        <v>0.011</v>
+        <v>1.913</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J141">
-        <v>0.035</v>
+        <v>1.011</v>
       </c>
       <c r="K141">
-        <v>0.032</v>
+        <v>0.461</v>
       </c>
       <c r="O141" t="s">
         <v>154</v>
@@ -6302,37 +6302,37 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B142">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>0.679</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1.615</v>
       </c>
       <c r="F142">
-        <v>0.02</v>
+        <v>0.964</v>
       </c>
       <c r="G142">
-        <v>0.011</v>
+        <v>1.854</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>0.432</v>
       </c>
       <c r="J142">
-        <v>0.08599999999999999</v>
+        <v>1.599</v>
       </c>
       <c r="K142">
-        <v>0.032</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="O142" t="s">
         <v>155</v>
@@ -6340,37 +6340,37 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B143">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C143">
-        <v>0.033</v>
+        <v>0.735</v>
       </c>
       <c r="D143">
-        <v>0.045</v>
+        <v>1.106</v>
       </c>
       <c r="E143">
-        <v>0.082</v>
+        <v>1.572</v>
       </c>
       <c r="F143">
-        <v>0.113</v>
+        <v>0.978</v>
       </c>
       <c r="G143">
-        <v>0.137</v>
+        <v>1.842</v>
       </c>
       <c r="H143">
-        <v>0.104</v>
+        <v>0.838</v>
       </c>
       <c r="I143">
-        <v>0.064</v>
+        <v>0.432</v>
       </c>
       <c r="J143">
-        <v>0.265</v>
+        <v>1.812</v>
       </c>
       <c r="K143">
-        <v>0.051</v>
+        <v>0.59</v>
       </c>
       <c r="O143" t="s">
         <v>156</v>
@@ -6378,37 +6378,37 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B144">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C144">
-        <v>0.248</v>
+        <v>0.73</v>
       </c>
       <c r="D144">
-        <v>0.286</v>
+        <v>1.094</v>
       </c>
       <c r="E144">
-        <v>0.412</v>
+        <v>1.507</v>
       </c>
       <c r="F144">
-        <v>0.358</v>
+        <v>0.847</v>
       </c>
       <c r="G144">
-        <v>0.5610000000000001</v>
+        <v>1.802</v>
       </c>
       <c r="H144">
-        <v>0.236</v>
+        <v>0.755</v>
       </c>
       <c r="I144">
-        <v>0.184</v>
+        <v>0.407</v>
       </c>
       <c r="J144">
-        <v>0.497</v>
+        <v>1.139</v>
       </c>
       <c r="K144">
-        <v>0.203</v>
+        <v>0.411</v>
       </c>
       <c r="O144" t="s">
         <v>157</v>
@@ -6416,37 +6416,37 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B145">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C145">
-        <v>0.389</v>
+        <v>0.406</v>
       </c>
       <c r="D145">
-        <v>0.62</v>
+        <v>0.715</v>
       </c>
       <c r="E145">
-        <v>0.8179999999999999</v>
+        <v>0.853</v>
       </c>
       <c r="F145">
-        <v>0.592</v>
+        <v>0.474</v>
       </c>
       <c r="G145">
-        <v>0.922</v>
+        <v>1.215</v>
       </c>
       <c r="H145">
         <v>0.479</v>
       </c>
       <c r="I145">
-        <v>0.393</v>
+        <v>0.239</v>
       </c>
       <c r="J145">
-        <v>1.014</v>
+        <v>0.991</v>
       </c>
       <c r="K145">
-        <v>0.36</v>
+        <v>0.319</v>
       </c>
       <c r="O145" t="s">
         <v>158</v>
@@ -6454,37 +6454,37 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B146">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C146">
-        <v>0.54</v>
+        <v>0.181</v>
       </c>
       <c r="D146">
-        <v>0.79</v>
+        <v>0.19</v>
       </c>
       <c r="E146">
-        <v>1.189</v>
+        <v>0.4</v>
       </c>
       <c r="F146">
-        <v>0.788</v>
+        <v>0.138</v>
       </c>
       <c r="G146">
-        <v>1.158</v>
+        <v>0.351</v>
       </c>
       <c r="H146">
-        <v>0.707</v>
+        <v>0.203</v>
       </c>
       <c r="I146">
-        <v>0.471</v>
+        <v>0.074</v>
       </c>
       <c r="J146">
-        <v>1.022</v>
+        <v>0.292</v>
       </c>
       <c r="K146">
-        <v>0.485</v>
+        <v>0.132</v>
       </c>
       <c r="O146" t="s">
         <v>159</v>
@@ -6492,37 +6492,37 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B147">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C147">
-        <v>0.499</v>
+        <v>0.01</v>
       </c>
       <c r="D147">
-        <v>0.826</v>
+        <v>0.01</v>
       </c>
       <c r="E147">
-        <v>1.245</v>
+        <v>0.053</v>
       </c>
       <c r="F147">
-        <v>0.75</v>
+        <v>0.011</v>
       </c>
       <c r="G147">
-        <v>1.144</v>
+        <v>0.019</v>
       </c>
       <c r="H147">
-        <v>0.696</v>
+        <v>0.012</v>
       </c>
       <c r="I147">
-        <v>0.471</v>
+        <v>0</v>
       </c>
       <c r="J147">
-        <v>1.031</v>
+        <v>0.095</v>
       </c>
       <c r="K147">
-        <v>0.485</v>
+        <v>0.026</v>
       </c>
       <c r="O147" t="s">
         <v>160</v>
@@ -6530,37 +6530,37 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B148">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C148">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>0.717</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>0.898</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.529</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>0.711</v>
+        <v>0.011</v>
       </c>
       <c r="H148">
-        <v>0.444</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>0.434</v>
+        <v>0</v>
       </c>
       <c r="J148">
-        <v>1.014</v>
+        <v>0.043</v>
       </c>
       <c r="K148">
-        <v>0.359</v>
+        <v>0.013</v>
       </c>
       <c r="O148" t="s">
         <v>161</v>
@@ -6568,37 +6568,37 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B149">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C149">
-        <v>0.287</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>0.372</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>0.619</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.245</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>0.396</v>
+        <v>0.011</v>
       </c>
       <c r="H149">
-        <v>0.268</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J149">
-        <v>0.587</v>
+        <v>0.048</v>
       </c>
       <c r="K149">
-        <v>0.292</v>
+        <v>0.013</v>
       </c>
       <c r="O149" t="s">
         <v>162</v>
@@ -6606,37 +6606,37 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B150">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C150">
-        <v>0.078</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>0.243</v>
+        <v>0.01</v>
       </c>
       <c r="F150">
-        <v>0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>0.118</v>
+        <v>0.011</v>
       </c>
       <c r="H150">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>0.297</v>
+        <v>0.048</v>
       </c>
       <c r="K150">
-        <v>0.06</v>
+        <v>0.013</v>
       </c>
       <c r="O150" t="s">
         <v>163</v>
@@ -6644,10 +6644,10 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B151">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -6656,13 +6656,13 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>0.023</v>
+        <v>0.01</v>
       </c>
       <c r="F151">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>0.014</v>
+        <v>0.011</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -6671,10 +6671,10 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>0.095</v>
+        <v>0.016</v>
       </c>
       <c r="K151">
-        <v>0.045</v>
+        <v>0.013</v>
       </c>
       <c r="O151" t="s">
         <v>164</v>
@@ -6682,10 +6682,10 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B152">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -6709,10 +6709,10 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>0.043</v>
+        <v>0.016</v>
       </c>
       <c r="K152">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="O152" t="s">
         <v>165</v>
@@ -6720,10 +6720,10 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="B153">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -6747,10 +6747,10 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>0.048</v>
+        <v>0.016</v>
       </c>
       <c r="K153">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="O153" t="s">
         <v>166</v>
@@ -6758,10 +6758,10 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="2">
-        <v>45999</v>
+        <v>46002</v>
       </c>
       <c r="B154">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -6785,10 +6785,10 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>0.048</v>
+        <v>0.013</v>
       </c>
       <c r="K154">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="O154" t="s">
         <v>167</v>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="2">
-        <v>45999</v>
+        <v>46002</v>
       </c>
       <c r="B155">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -6823,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K155">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="O155" t="s">
         <v>168</v>
@@ -6834,10 +6834,10 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="2">
-        <v>45999</v>
+        <v>46002</v>
       </c>
       <c r="B156">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6846,25 +6846,25 @@
         <v>0</v>
       </c>
       <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0.011</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0.013</v>
+      </c>
+      <c r="K156">
         <v>0.014</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>0.011</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>0.016</v>
-      </c>
-      <c r="K156">
-        <v>0.031</v>
       </c>
       <c r="O156" t="s">
         <v>169</v>
@@ -6872,10 +6872,10 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="2">
-        <v>45999</v>
+        <v>46002</v>
       </c>
       <c r="B157">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -6899,10 +6899,10 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K157">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="O157" t="s">
         <v>170</v>
@@ -6910,10 +6910,10 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -6937,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K158">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="O158" t="s">
         <v>171</v>
@@ -6948,10 +6948,10 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K159">
         <v>0.032</v>
@@ -6986,10 +6986,10 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K160">
         <v>0.032</v>
@@ -7024,10 +7024,10 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K161">
         <v>0.032</v>
@@ -7062,10 +7062,10 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B162">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -7074,10 +7074,10 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="G162">
         <v>0.011</v>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="K162">
         <v>0.032</v>
@@ -7100,37 +7100,37 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B163">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>0.358</v>
       </c>
       <c r="G163">
-        <v>0.011</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>0.318</v>
       </c>
       <c r="K163">
-        <v>0.032</v>
+        <v>0.06</v>
       </c>
       <c r="O163" t="s">
         <v>176</v>
@@ -7138,37 +7138,37 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B164">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>0.361</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.576</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>0.823</v>
       </c>
       <c r="G164">
-        <v>0.011</v>
+        <v>1.38</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>0.465</v>
       </c>
       <c r="J164">
-        <v>0.013</v>
+        <v>0.712</v>
       </c>
       <c r="K164">
-        <v>0.032</v>
+        <v>0.36</v>
       </c>
       <c r="O164" t="s">
         <v>177</v>
@@ -7176,37 +7176,37 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B165">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>0.455</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1.107</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="G165">
-        <v>0.011</v>
+        <v>1.85</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>0.764</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="J165">
-        <v>0.043</v>
+        <v>1.028</v>
       </c>
       <c r="K165">
-        <v>0.032</v>
+        <v>0.621</v>
       </c>
       <c r="O165" t="s">
         <v>178</v>
@@ -7214,37 +7214,37 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B166">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>0.758</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1.089</v>
       </c>
       <c r="E166">
-        <v>0.011</v>
+        <v>1.685</v>
       </c>
       <c r="F166">
-        <v>0.018</v>
+        <v>1.119</v>
       </c>
       <c r="G166">
-        <v>0.011</v>
+        <v>2.347</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>0.797</v>
       </c>
       <c r="J166">
-        <v>0.093</v>
+        <v>1.878</v>
       </c>
       <c r="K166">
-        <v>0.032</v>
+        <v>0.905</v>
       </c>
       <c r="O166" t="s">
         <v>179</v>
@@ -7252,37 +7252,37 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B167">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C167">
-        <v>0.018</v>
+        <v>0.857</v>
       </c>
       <c r="D167">
-        <v>0.025</v>
+        <v>1.297</v>
       </c>
       <c r="E167">
-        <v>0.095</v>
+        <v>1.593</v>
       </c>
       <c r="F167">
-        <v>0.131</v>
+        <v>1.387</v>
       </c>
       <c r="G167">
-        <v>0.132</v>
+        <v>2.382</v>
       </c>
       <c r="H167">
-        <v>0.053</v>
+        <v>1.003</v>
       </c>
       <c r="I167">
-        <v>0.064</v>
+        <v>0.846</v>
       </c>
       <c r="J167">
-        <v>0.273</v>
+        <v>1.64</v>
       </c>
       <c r="K167">
-        <v>0.051</v>
+        <v>0.958</v>
       </c>
       <c r="O167" t="s">
         <v>180</v>
@@ -7290,37 +7290,37 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B168">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C168">
-        <v>0.102</v>
+        <v>0.841</v>
       </c>
       <c r="D168">
-        <v>0.139</v>
+        <v>1.352</v>
       </c>
       <c r="E168">
-        <v>0.419</v>
+        <v>1.638</v>
       </c>
       <c r="F168">
-        <v>0.344</v>
+        <v>1.09</v>
       </c>
       <c r="G168">
-        <v>0.364</v>
+        <v>2.435</v>
       </c>
       <c r="H168">
-        <v>0.203</v>
+        <v>0.847</v>
       </c>
       <c r="I168">
-        <v>0.247</v>
+        <v>0.75</v>
       </c>
       <c r="J168">
-        <v>0.418</v>
+        <v>1.434</v>
       </c>
       <c r="K168">
-        <v>0.102</v>
+        <v>0.878</v>
       </c>
       <c r="O168" t="s">
         <v>181</v>
@@ -7328,37 +7328,37 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B169">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C169">
-        <v>0.225</v>
+        <v>0.399</v>
       </c>
       <c r="D169">
-        <v>0.336</v>
+        <v>0.881</v>
       </c>
       <c r="E169">
-        <v>0.859</v>
+        <v>1.069</v>
       </c>
       <c r="F169">
-        <v>0.49</v>
+        <v>0.589</v>
       </c>
       <c r="G169">
-        <v>0.777</v>
+        <v>1.457</v>
       </c>
       <c r="H169">
-        <v>0.306</v>
+        <v>0.646</v>
       </c>
       <c r="I169">
-        <v>0.443</v>
+        <v>0.517</v>
       </c>
       <c r="J169">
-        <v>0.654</v>
+        <v>0.971</v>
       </c>
       <c r="K169">
-        <v>0.305</v>
+        <v>0.547</v>
       </c>
       <c r="O169" t="s">
         <v>182</v>
@@ -7366,37 +7366,37 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B170">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C170">
-        <v>0.323</v>
+        <v>0.178</v>
       </c>
       <c r="D170">
-        <v>0.425</v>
+        <v>0.276</v>
       </c>
       <c r="E170">
-        <v>1.254</v>
+        <v>0.545</v>
       </c>
       <c r="F170">
-        <v>0.6919999999999999</v>
+        <v>0.202</v>
       </c>
       <c r="G170">
-        <v>1.239</v>
+        <v>0.526</v>
       </c>
       <c r="H170">
+        <v>0.221</v>
+      </c>
+      <c r="I170">
+        <v>0.188</v>
+      </c>
+      <c r="J170">
         <v>0.41</v>
       </c>
-      <c r="I170">
-        <v>0.547</v>
-      </c>
-      <c r="J170">
-        <v>1.023</v>
-      </c>
       <c r="K170">
-        <v>0.311</v>
+        <v>0.213</v>
       </c>
       <c r="O170" t="s">
         <v>183</v>

--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -70,511 +70,511 @@
     <t>Prediction_3D_Steel</t>
   </si>
   <si>
-    <t>31.12.202511</t>
-  </si>
-  <si>
-    <t>31.12.202512</t>
-  </si>
-  <si>
-    <t>31.12.202513</t>
-  </si>
-  <si>
-    <t>31.12.202514</t>
-  </si>
-  <si>
-    <t>31.12.202515</t>
-  </si>
-  <si>
-    <t>31.12.202516</t>
-  </si>
-  <si>
-    <t>31.12.202517</t>
-  </si>
-  <si>
-    <t>31.12.202518</t>
-  </si>
-  <si>
-    <t>31.12.202519</t>
-  </si>
-  <si>
-    <t>31.12.202520</t>
-  </si>
-  <si>
-    <t>31.12.202521</t>
-  </si>
-  <si>
-    <t>31.12.202522</t>
-  </si>
-  <si>
-    <t>31.12.202523</t>
-  </si>
-  <si>
-    <t>31.12.202524</t>
-  </si>
-  <si>
-    <t>01.01.20261</t>
-  </si>
-  <si>
-    <t>01.01.20262</t>
-  </si>
-  <si>
-    <t>01.01.20263</t>
-  </si>
-  <si>
-    <t>01.01.20264</t>
-  </si>
-  <si>
-    <t>01.01.20265</t>
-  </si>
-  <si>
-    <t>01.01.20266</t>
-  </si>
-  <si>
-    <t>01.01.20267</t>
-  </si>
-  <si>
-    <t>01.01.20268</t>
-  </si>
-  <si>
-    <t>01.01.20269</t>
-  </si>
-  <si>
-    <t>01.01.202610</t>
-  </si>
-  <si>
-    <t>01.01.202611</t>
-  </si>
-  <si>
-    <t>01.01.202612</t>
-  </si>
-  <si>
-    <t>01.01.202613</t>
-  </si>
-  <si>
-    <t>01.01.202614</t>
-  </si>
-  <si>
-    <t>01.01.202615</t>
-  </si>
-  <si>
-    <t>01.01.202616</t>
-  </si>
-  <si>
-    <t>01.01.202617</t>
-  </si>
-  <si>
-    <t>01.01.202618</t>
-  </si>
-  <si>
-    <t>01.01.202619</t>
-  </si>
-  <si>
-    <t>01.01.202620</t>
-  </si>
-  <si>
-    <t>01.01.202621</t>
-  </si>
-  <si>
-    <t>01.01.202622</t>
-  </si>
-  <si>
-    <t>01.01.202623</t>
-  </si>
-  <si>
-    <t>01.01.202624</t>
-  </si>
-  <si>
-    <t>02.01.20261</t>
-  </si>
-  <si>
-    <t>02.01.20262</t>
-  </si>
-  <si>
-    <t>02.01.20263</t>
-  </si>
-  <si>
-    <t>02.01.20264</t>
-  </si>
-  <si>
-    <t>02.01.20265</t>
-  </si>
-  <si>
-    <t>02.01.20266</t>
-  </si>
-  <si>
-    <t>02.01.20267</t>
-  </si>
-  <si>
-    <t>02.01.20268</t>
-  </si>
-  <si>
-    <t>02.01.20269</t>
-  </si>
-  <si>
-    <t>02.01.202610</t>
-  </si>
-  <si>
-    <t>02.01.202611</t>
-  </si>
-  <si>
-    <t>02.01.202612</t>
-  </si>
-  <si>
-    <t>02.01.202613</t>
-  </si>
-  <si>
-    <t>02.01.202614</t>
-  </si>
-  <si>
-    <t>02.01.202615</t>
-  </si>
-  <si>
-    <t>02.01.202616</t>
-  </si>
-  <si>
-    <t>02.01.202617</t>
-  </si>
-  <si>
-    <t>02.01.202618</t>
-  </si>
-  <si>
-    <t>02.01.202619</t>
-  </si>
-  <si>
-    <t>02.01.202620</t>
-  </si>
-  <si>
-    <t>02.01.202621</t>
-  </si>
-  <si>
-    <t>02.01.202622</t>
-  </si>
-  <si>
-    <t>02.01.202623</t>
-  </si>
-  <si>
-    <t>02.01.202624</t>
-  </si>
-  <si>
-    <t>03.01.20261</t>
-  </si>
-  <si>
-    <t>03.01.20262</t>
-  </si>
-  <si>
-    <t>03.01.20263</t>
-  </si>
-  <si>
-    <t>03.01.20264</t>
-  </si>
-  <si>
-    <t>03.01.20265</t>
-  </si>
-  <si>
-    <t>03.01.20266</t>
-  </si>
-  <si>
-    <t>03.01.20267</t>
-  </si>
-  <si>
-    <t>03.01.20268</t>
-  </si>
-  <si>
-    <t>03.01.20269</t>
-  </si>
-  <si>
-    <t>03.01.202610</t>
-  </si>
-  <si>
-    <t>03.01.202611</t>
-  </si>
-  <si>
-    <t>03.01.202612</t>
-  </si>
-  <si>
-    <t>03.01.202613</t>
-  </si>
-  <si>
-    <t>03.01.202614</t>
-  </si>
-  <si>
-    <t>03.01.202615</t>
-  </si>
-  <si>
-    <t>03.01.202616</t>
-  </si>
-  <si>
-    <t>03.01.202617</t>
-  </si>
-  <si>
-    <t>03.01.202618</t>
-  </si>
-  <si>
-    <t>03.01.202619</t>
-  </si>
-  <si>
-    <t>03.01.202620</t>
-  </si>
-  <si>
-    <t>03.01.202621</t>
-  </si>
-  <si>
-    <t>03.01.202622</t>
-  </si>
-  <si>
-    <t>03.01.202623</t>
-  </si>
-  <si>
-    <t>03.01.202624</t>
-  </si>
-  <si>
-    <t>04.01.20261</t>
-  </si>
-  <si>
-    <t>04.01.20262</t>
-  </si>
-  <si>
-    <t>04.01.20263</t>
-  </si>
-  <si>
-    <t>04.01.20264</t>
-  </si>
-  <si>
-    <t>04.01.20265</t>
-  </si>
-  <si>
-    <t>04.01.20266</t>
-  </si>
-  <si>
-    <t>04.01.20267</t>
-  </si>
-  <si>
-    <t>04.01.20268</t>
-  </si>
-  <si>
-    <t>04.01.20269</t>
-  </si>
-  <si>
-    <t>04.01.202610</t>
-  </si>
-  <si>
-    <t>04.01.202611</t>
-  </si>
-  <si>
-    <t>04.01.202612</t>
-  </si>
-  <si>
-    <t>04.01.202613</t>
-  </si>
-  <si>
-    <t>04.01.202614</t>
-  </si>
-  <si>
-    <t>04.01.202615</t>
-  </si>
-  <si>
-    <t>04.01.202616</t>
-  </si>
-  <si>
-    <t>04.01.202617</t>
-  </si>
-  <si>
-    <t>04.01.202618</t>
-  </si>
-  <si>
-    <t>04.01.202619</t>
-  </si>
-  <si>
-    <t>04.01.202620</t>
-  </si>
-  <si>
-    <t>04.01.202621</t>
-  </si>
-  <si>
-    <t>04.01.202622</t>
-  </si>
-  <si>
-    <t>04.01.202623</t>
-  </si>
-  <si>
-    <t>04.01.202624</t>
-  </si>
-  <si>
-    <t>05.01.20261</t>
-  </si>
-  <si>
-    <t>05.01.20262</t>
-  </si>
-  <si>
-    <t>05.01.20263</t>
-  </si>
-  <si>
-    <t>05.01.20264</t>
-  </si>
-  <si>
-    <t>05.01.20265</t>
-  </si>
-  <si>
-    <t>05.01.20266</t>
-  </si>
-  <si>
-    <t>05.01.20267</t>
-  </si>
-  <si>
-    <t>05.01.20268</t>
-  </si>
-  <si>
-    <t>05.01.20269</t>
-  </si>
-  <si>
-    <t>05.01.202610</t>
-  </si>
-  <si>
-    <t>05.01.202611</t>
-  </si>
-  <si>
-    <t>05.01.202612</t>
-  </si>
-  <si>
-    <t>05.01.202613</t>
-  </si>
-  <si>
-    <t>05.01.202614</t>
-  </si>
-  <si>
-    <t>05.01.202615</t>
-  </si>
-  <si>
-    <t>05.01.202616</t>
-  </si>
-  <si>
-    <t>05.01.202617</t>
-  </si>
-  <si>
-    <t>05.01.202618</t>
-  </si>
-  <si>
-    <t>05.01.202619</t>
-  </si>
-  <si>
-    <t>05.01.202620</t>
-  </si>
-  <si>
-    <t>05.01.202621</t>
-  </si>
-  <si>
-    <t>05.01.202622</t>
-  </si>
-  <si>
-    <t>05.01.202623</t>
-  </si>
-  <si>
-    <t>05.01.202624</t>
-  </si>
-  <si>
-    <t>06.01.20261</t>
-  </si>
-  <si>
-    <t>06.01.20262</t>
-  </si>
-  <si>
-    <t>06.01.20263</t>
-  </si>
-  <si>
-    <t>06.01.20264</t>
-  </si>
-  <si>
-    <t>06.01.20265</t>
-  </si>
-  <si>
-    <t>06.01.20266</t>
-  </si>
-  <si>
-    <t>06.01.20267</t>
-  </si>
-  <si>
-    <t>06.01.20268</t>
-  </si>
-  <si>
-    <t>06.01.20269</t>
-  </si>
-  <si>
-    <t>06.01.202610</t>
-  </si>
-  <si>
-    <t>06.01.202611</t>
-  </si>
-  <si>
-    <t>06.01.202612</t>
-  </si>
-  <si>
-    <t>06.01.202613</t>
-  </si>
-  <si>
-    <t>06.01.202614</t>
-  </si>
-  <si>
-    <t>06.01.202615</t>
-  </si>
-  <si>
-    <t>06.01.202616</t>
-  </si>
-  <si>
-    <t>06.01.202617</t>
-  </si>
-  <si>
-    <t>06.01.202618</t>
-  </si>
-  <si>
-    <t>06.01.202619</t>
-  </si>
-  <si>
-    <t>06.01.202620</t>
-  </si>
-  <si>
-    <t>06.01.202621</t>
-  </si>
-  <si>
-    <t>06.01.202622</t>
-  </si>
-  <si>
-    <t>06.01.202623</t>
-  </si>
-  <si>
-    <t>06.01.202624</t>
-  </si>
-  <si>
-    <t>07.01.20261</t>
-  </si>
-  <si>
-    <t>07.01.20262</t>
-  </si>
-  <si>
-    <t>07.01.20263</t>
-  </si>
-  <si>
-    <t>07.01.20264</t>
-  </si>
-  <si>
-    <t>07.01.20265</t>
-  </si>
-  <si>
-    <t>07.01.20266</t>
-  </si>
-  <si>
-    <t>07.01.20267</t>
-  </si>
-  <si>
-    <t>07.01.20268</t>
-  </si>
-  <si>
-    <t>07.01.20269</t>
-  </si>
-  <si>
-    <t>07.01.202610</t>
-  </si>
-  <si>
-    <t>07.01.202611</t>
+    <t>22.01.202615</t>
+  </si>
+  <si>
+    <t>22.01.202616</t>
+  </si>
+  <si>
+    <t>22.01.202617</t>
+  </si>
+  <si>
+    <t>22.01.202618</t>
+  </si>
+  <si>
+    <t>22.01.202619</t>
+  </si>
+  <si>
+    <t>22.01.202620</t>
+  </si>
+  <si>
+    <t>22.01.202621</t>
+  </si>
+  <si>
+    <t>22.01.202622</t>
+  </si>
+  <si>
+    <t>22.01.202623</t>
+  </si>
+  <si>
+    <t>22.01.202624</t>
+  </si>
+  <si>
+    <t>23.01.20261</t>
+  </si>
+  <si>
+    <t>23.01.20262</t>
+  </si>
+  <si>
+    <t>23.01.20263</t>
+  </si>
+  <si>
+    <t>23.01.20264</t>
+  </si>
+  <si>
+    <t>23.01.20265</t>
+  </si>
+  <si>
+    <t>23.01.20266</t>
+  </si>
+  <si>
+    <t>23.01.20267</t>
+  </si>
+  <si>
+    <t>23.01.20268</t>
+  </si>
+  <si>
+    <t>23.01.20269</t>
+  </si>
+  <si>
+    <t>23.01.202610</t>
+  </si>
+  <si>
+    <t>23.01.202611</t>
+  </si>
+  <si>
+    <t>23.01.202612</t>
+  </si>
+  <si>
+    <t>23.01.202613</t>
+  </si>
+  <si>
+    <t>23.01.202614</t>
+  </si>
+  <si>
+    <t>23.01.202615</t>
+  </si>
+  <si>
+    <t>23.01.202616</t>
+  </si>
+  <si>
+    <t>23.01.202617</t>
+  </si>
+  <si>
+    <t>23.01.202618</t>
+  </si>
+  <si>
+    <t>23.01.202619</t>
+  </si>
+  <si>
+    <t>23.01.202620</t>
+  </si>
+  <si>
+    <t>23.01.202621</t>
+  </si>
+  <si>
+    <t>23.01.202622</t>
+  </si>
+  <si>
+    <t>23.01.202623</t>
+  </si>
+  <si>
+    <t>23.01.202624</t>
+  </si>
+  <si>
+    <t>24.01.20261</t>
+  </si>
+  <si>
+    <t>24.01.20262</t>
+  </si>
+  <si>
+    <t>24.01.20263</t>
+  </si>
+  <si>
+    <t>24.01.20264</t>
+  </si>
+  <si>
+    <t>24.01.20265</t>
+  </si>
+  <si>
+    <t>24.01.20266</t>
+  </si>
+  <si>
+    <t>24.01.20267</t>
+  </si>
+  <si>
+    <t>24.01.20268</t>
+  </si>
+  <si>
+    <t>24.01.20269</t>
+  </si>
+  <si>
+    <t>24.01.202610</t>
+  </si>
+  <si>
+    <t>24.01.202611</t>
+  </si>
+  <si>
+    <t>24.01.202612</t>
+  </si>
+  <si>
+    <t>24.01.202613</t>
+  </si>
+  <si>
+    <t>24.01.202614</t>
+  </si>
+  <si>
+    <t>24.01.202615</t>
+  </si>
+  <si>
+    <t>24.01.202616</t>
+  </si>
+  <si>
+    <t>24.01.202617</t>
+  </si>
+  <si>
+    <t>24.01.202618</t>
+  </si>
+  <si>
+    <t>24.01.202619</t>
+  </si>
+  <si>
+    <t>24.01.202620</t>
+  </si>
+  <si>
+    <t>24.01.202621</t>
+  </si>
+  <si>
+    <t>24.01.202622</t>
+  </si>
+  <si>
+    <t>24.01.202623</t>
+  </si>
+  <si>
+    <t>24.01.202624</t>
+  </si>
+  <si>
+    <t>25.01.20261</t>
+  </si>
+  <si>
+    <t>25.01.20262</t>
+  </si>
+  <si>
+    <t>25.01.20263</t>
+  </si>
+  <si>
+    <t>25.01.20264</t>
+  </si>
+  <si>
+    <t>25.01.20265</t>
+  </si>
+  <si>
+    <t>25.01.20266</t>
+  </si>
+  <si>
+    <t>25.01.20267</t>
+  </si>
+  <si>
+    <t>25.01.20268</t>
+  </si>
+  <si>
+    <t>25.01.20269</t>
+  </si>
+  <si>
+    <t>25.01.202610</t>
+  </si>
+  <si>
+    <t>25.01.202611</t>
+  </si>
+  <si>
+    <t>25.01.202612</t>
+  </si>
+  <si>
+    <t>25.01.202613</t>
+  </si>
+  <si>
+    <t>25.01.202614</t>
+  </si>
+  <si>
+    <t>25.01.202615</t>
+  </si>
+  <si>
+    <t>25.01.202616</t>
+  </si>
+  <si>
+    <t>25.01.202617</t>
+  </si>
+  <si>
+    <t>25.01.202618</t>
+  </si>
+  <si>
+    <t>25.01.202619</t>
+  </si>
+  <si>
+    <t>25.01.202620</t>
+  </si>
+  <si>
+    <t>25.01.202621</t>
+  </si>
+  <si>
+    <t>25.01.202622</t>
+  </si>
+  <si>
+    <t>25.01.202623</t>
+  </si>
+  <si>
+    <t>25.01.202624</t>
+  </si>
+  <si>
+    <t>26.01.20261</t>
+  </si>
+  <si>
+    <t>26.01.20262</t>
+  </si>
+  <si>
+    <t>26.01.20263</t>
+  </si>
+  <si>
+    <t>26.01.20264</t>
+  </si>
+  <si>
+    <t>26.01.20265</t>
+  </si>
+  <si>
+    <t>26.01.20266</t>
+  </si>
+  <si>
+    <t>26.01.20267</t>
+  </si>
+  <si>
+    <t>26.01.20268</t>
+  </si>
+  <si>
+    <t>26.01.20269</t>
+  </si>
+  <si>
+    <t>26.01.202610</t>
+  </si>
+  <si>
+    <t>26.01.202611</t>
+  </si>
+  <si>
+    <t>26.01.202612</t>
+  </si>
+  <si>
+    <t>26.01.202613</t>
+  </si>
+  <si>
+    <t>26.01.202614</t>
+  </si>
+  <si>
+    <t>26.01.202615</t>
+  </si>
+  <si>
+    <t>26.01.202616</t>
+  </si>
+  <si>
+    <t>26.01.202617</t>
+  </si>
+  <si>
+    <t>26.01.202618</t>
+  </si>
+  <si>
+    <t>26.01.202619</t>
+  </si>
+  <si>
+    <t>26.01.202620</t>
+  </si>
+  <si>
+    <t>26.01.202621</t>
+  </si>
+  <si>
+    <t>26.01.202622</t>
+  </si>
+  <si>
+    <t>26.01.202623</t>
+  </si>
+  <si>
+    <t>26.01.202624</t>
+  </si>
+  <si>
+    <t>27.01.20261</t>
+  </si>
+  <si>
+    <t>27.01.20262</t>
+  </si>
+  <si>
+    <t>27.01.20263</t>
+  </si>
+  <si>
+    <t>27.01.20264</t>
+  </si>
+  <si>
+    <t>27.01.20265</t>
+  </si>
+  <si>
+    <t>27.01.20266</t>
+  </si>
+  <si>
+    <t>27.01.20267</t>
+  </si>
+  <si>
+    <t>27.01.20268</t>
+  </si>
+  <si>
+    <t>27.01.20269</t>
+  </si>
+  <si>
+    <t>27.01.202610</t>
+  </si>
+  <si>
+    <t>27.01.202611</t>
+  </si>
+  <si>
+    <t>27.01.202612</t>
+  </si>
+  <si>
+    <t>27.01.202613</t>
+  </si>
+  <si>
+    <t>27.01.202614</t>
+  </si>
+  <si>
+    <t>27.01.202615</t>
+  </si>
+  <si>
+    <t>27.01.202616</t>
+  </si>
+  <si>
+    <t>27.01.202617</t>
+  </si>
+  <si>
+    <t>27.01.202618</t>
+  </si>
+  <si>
+    <t>27.01.202619</t>
+  </si>
+  <si>
+    <t>27.01.202620</t>
+  </si>
+  <si>
+    <t>27.01.202621</t>
+  </si>
+  <si>
+    <t>27.01.202622</t>
+  </si>
+  <si>
+    <t>27.01.202623</t>
+  </si>
+  <si>
+    <t>27.01.202624</t>
+  </si>
+  <si>
+    <t>28.01.20261</t>
+  </si>
+  <si>
+    <t>28.01.20262</t>
+  </si>
+  <si>
+    <t>28.01.20263</t>
+  </si>
+  <si>
+    <t>28.01.20264</t>
+  </si>
+  <si>
+    <t>28.01.20265</t>
+  </si>
+  <si>
+    <t>28.01.20266</t>
+  </si>
+  <si>
+    <t>28.01.20267</t>
+  </si>
+  <si>
+    <t>28.01.20268</t>
+  </si>
+  <si>
+    <t>28.01.20269</t>
+  </si>
+  <si>
+    <t>28.01.202610</t>
+  </si>
+  <si>
+    <t>28.01.202611</t>
+  </si>
+  <si>
+    <t>28.01.202612</t>
+  </si>
+  <si>
+    <t>28.01.202613</t>
+  </si>
+  <si>
+    <t>28.01.202614</t>
+  </si>
+  <si>
+    <t>28.01.202615</t>
+  </si>
+  <si>
+    <t>28.01.202616</t>
+  </si>
+  <si>
+    <t>28.01.202617</t>
+  </si>
+  <si>
+    <t>28.01.202618</t>
+  </si>
+  <si>
+    <t>28.01.202619</t>
+  </si>
+  <si>
+    <t>28.01.202620</t>
+  </si>
+  <si>
+    <t>28.01.202621</t>
+  </si>
+  <si>
+    <t>28.01.202622</t>
+  </si>
+  <si>
+    <t>28.01.202623</t>
+  </si>
+  <si>
+    <t>28.01.202624</t>
+  </si>
+  <si>
+    <t>29.01.20261</t>
+  </si>
+  <si>
+    <t>29.01.20262</t>
+  </si>
+  <si>
+    <t>29.01.20263</t>
+  </si>
+  <si>
+    <t>29.01.20264</t>
+  </si>
+  <si>
+    <t>29.01.20265</t>
+  </si>
+  <si>
+    <t>29.01.20266</t>
+  </si>
+  <si>
+    <t>29.01.20267</t>
+  </si>
+  <si>
+    <t>29.01.20268</t>
+  </si>
+  <si>
+    <t>29.01.20269</t>
+  </si>
+  <si>
+    <t>29.01.202610</t>
+  </si>
+  <si>
+    <t>29.01.202611</t>
+  </si>
+  <si>
+    <t>29.01.202612</t>
+  </si>
+  <si>
+    <t>29.01.202613</t>
+  </si>
+  <si>
+    <t>29.01.202614</t>
+  </si>
+  <si>
+    <t>29.01.202615</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.102</v>
+        <v>0.089</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1050,13 +1050,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.111</v>
+        <v>0.104</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -1076,34 +1076,34 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.603</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D4">
-        <v>0.883</v>
+        <v>0.062</v>
       </c>
       <c r="E4">
-        <v>2.467</v>
+        <v>0.075</v>
       </c>
       <c r="F4">
-        <v>1.068</v>
+        <v>0.016</v>
       </c>
       <c r="G4">
-        <v>2.72</v>
+        <v>0.025</v>
       </c>
       <c r="H4">
-        <v>1.482</v>
+        <v>0.019</v>
       </c>
       <c r="I4">
-        <v>1.111</v>
+        <v>0.058</v>
       </c>
       <c r="J4">
-        <v>0.485</v>
+        <v>0.051</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -1114,34 +1114,34 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.486</v>
+        <v>0.012</v>
       </c>
       <c r="D5">
-        <v>0.711</v>
+        <v>0.01</v>
       </c>
       <c r="E5">
-        <v>2.486</v>
+        <v>0.025</v>
       </c>
       <c r="F5">
-        <v>1.268</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.622</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.544</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.866</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.485</v>
+        <v>0.045</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -1152,34 +1152,34 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.598</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.846</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.309</v>
+        <v>0.199</v>
       </c>
       <c r="F6">
-        <v>1.113</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.472</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.791</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.325</v>
+        <v>0.031</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -1190,34 +1190,34 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.352</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.699</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2.186</v>
+        <v>0.194</v>
       </c>
       <c r="F7">
-        <v>0.571</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1.207</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.227</v>
+        <v>0.031</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
@@ -1228,34 +1228,34 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>0.168</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.247</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1.085</v>
+        <v>0.199</v>
       </c>
       <c r="F8">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.642</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.347</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.062</v>
+        <v>0.031</v>
       </c>
       <c r="Q8" t="s">
         <v>24</v>
@@ -1266,34 +1266,34 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.404</v>
+        <v>0.212</v>
       </c>
       <c r="F9">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.045</v>
+        <v>0.031</v>
       </c>
       <c r="Q9" t="s">
         <v>25</v>
@@ -1304,10 +1304,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1316,13 +1316,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.283</v>
+        <v>0.185</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1342,10 +1342,10 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.266</v>
+        <v>0.185</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2">
-        <v>46022</v>
+        <v>46045</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.24</v>
+        <v>0.024</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q12" t="s">
         <v>28</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2">
-        <v>46022</v>
+        <v>46045</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.24</v>
+        <v>0.026</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q13" t="s">
         <v>29</v>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2">
-        <v>46022</v>
+        <v>46045</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1468,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.239</v>
+        <v>0.026</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q14" t="s">
         <v>30</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2">
-        <v>46022</v>
+        <v>46045</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.242</v>
+        <v>0.034</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q15" t="s">
         <v>31</v>
@@ -1532,10 +1532,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1646,10 +1646,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.029</v>
+        <v>0.012</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.027</v>
+        <v>0.083</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1722,34 +1722,34 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="E21">
-        <v>0.025</v>
+        <v>0.138</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.074</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="J21">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
       <c r="Q21" t="s">
         <v>37</v>
@@ -1760,34 +1760,34 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="E22">
-        <v>0.024</v>
+        <v>0.38</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.164</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.232</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="J22">
-        <v>0.032</v>
+        <v>0.203</v>
       </c>
       <c r="Q22" t="s">
         <v>38</v>
@@ -1798,34 +1798,34 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.302</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.343</v>
       </c>
       <c r="E23">
-        <v>0.023</v>
+        <v>0.38</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.295</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.679</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="J23">
-        <v>0.032</v>
+        <v>0.348</v>
       </c>
       <c r="Q23" t="s">
         <v>39</v>
@@ -1836,34 +1836,34 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.497</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.543</v>
       </c>
       <c r="E24">
-        <v>0.101</v>
+        <v>0.549</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.362</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.377</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.796</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="J24">
-        <v>0.032</v>
+        <v>0.472</v>
       </c>
       <c r="Q24" t="s">
         <v>40</v>
@@ -1874,34 +1874,34 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>0.026</v>
+        <v>0.544</v>
       </c>
       <c r="D25">
-        <v>0.024</v>
+        <v>0.595</v>
       </c>
       <c r="E25">
-        <v>0.208</v>
+        <v>0.58</v>
       </c>
       <c r="F25">
-        <v>0.314</v>
+        <v>0.348</v>
       </c>
       <c r="G25">
-        <v>0.318</v>
+        <v>0.331</v>
       </c>
       <c r="H25">
-        <v>0.264</v>
+        <v>0.867</v>
       </c>
       <c r="I25">
-        <v>0.08599999999999999</v>
+        <v>0.198</v>
       </c>
       <c r="J25">
-        <v>0.051</v>
+        <v>0.585</v>
       </c>
       <c r="Q25" t="s">
         <v>41</v>
@@ -1912,34 +1912,34 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>0.16</v>
+        <v>0.556</v>
       </c>
       <c r="D26">
-        <v>0.31</v>
+        <v>0.606</v>
       </c>
       <c r="E26">
-        <v>0.605</v>
+        <v>0.572</v>
       </c>
       <c r="F26">
-        <v>1.049</v>
+        <v>0.319</v>
       </c>
       <c r="G26">
-        <v>1.235</v>
+        <v>0.347</v>
       </c>
       <c r="H26">
-        <v>0.751</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="I26">
-        <v>0.449</v>
+        <v>0.178</v>
       </c>
       <c r="J26">
-        <v>0.203</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="Q26" t="s">
         <v>42</v>
@@ -1950,34 +1950,34 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>0.504</v>
+        <v>0.403</v>
       </c>
       <c r="D27">
-        <v>0.734</v>
+        <v>0.488</v>
       </c>
       <c r="E27">
-        <v>1.252</v>
+        <v>0.475</v>
       </c>
       <c r="F27">
-        <v>1.108</v>
+        <v>0.194</v>
       </c>
       <c r="G27">
-        <v>2.542</v>
+        <v>0.237</v>
       </c>
       <c r="H27">
-        <v>1.154</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="I27">
-        <v>1.122</v>
+        <v>0.136</v>
       </c>
       <c r="J27">
-        <v>0.462</v>
+        <v>0.446</v>
       </c>
       <c r="Q27" t="s">
         <v>43</v>
@@ -1988,34 +1988,34 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>0.67</v>
+        <v>0.207</v>
       </c>
       <c r="D28">
-        <v>1.018</v>
+        <v>0.275</v>
       </c>
       <c r="E28">
-        <v>1.446</v>
+        <v>0.28</v>
       </c>
       <c r="F28">
-        <v>1.555</v>
+        <v>0.103</v>
       </c>
       <c r="G28">
-        <v>3.108</v>
+        <v>0.104</v>
       </c>
       <c r="H28">
-        <v>1.303</v>
+        <v>0.24</v>
       </c>
       <c r="I28">
-        <v>1.313</v>
+        <v>0.068</v>
       </c>
       <c r="J28">
-        <v>0.637</v>
+        <v>0.288</v>
       </c>
       <c r="Q28" t="s">
         <v>44</v>
@@ -2026,34 +2026,34 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>0.722</v>
+        <v>0.046</v>
       </c>
       <c r="D29">
-        <v>1.135</v>
+        <v>0.066</v>
       </c>
       <c r="E29">
-        <v>1.475</v>
+        <v>0.077</v>
       </c>
       <c r="F29">
-        <v>1.482</v>
+        <v>0.032</v>
       </c>
       <c r="G29">
-        <v>3.033</v>
+        <v>0.046</v>
       </c>
       <c r="H29">
-        <v>1.4</v>
+        <v>0.053</v>
       </c>
       <c r="I29">
-        <v>1.35</v>
+        <v>0.021</v>
       </c>
       <c r="J29">
-        <v>0.823</v>
+        <v>0.053</v>
       </c>
       <c r="Q29" t="s">
         <v>45</v>
@@ -2064,34 +2064,34 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>0.519</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.901</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1.419</v>
+        <v>0.011</v>
       </c>
       <c r="F30">
-        <v>1.331</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>2.433</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1.242</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0.605</v>
+        <v>0.031</v>
       </c>
       <c r="Q30" t="s">
         <v>46</v>
@@ -2102,34 +2102,34 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>0.378</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.553</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1.076</v>
+        <v>0.012</v>
       </c>
       <c r="F31">
-        <v>0.6820000000000001</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1.592</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.798</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1.035</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.337</v>
+        <v>0.031</v>
       </c>
       <c r="Q31" t="s">
         <v>47</v>
@@ -2140,34 +2140,34 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>0.156</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.198</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.624</v>
+        <v>0.201</v>
       </c>
       <c r="F32">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.528</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.473</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0.363</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.201</v>
+        <v>0.031</v>
       </c>
       <c r="Q32" t="s">
         <v>48</v>
@@ -2178,34 +2178,34 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.286</v>
+        <v>0.201</v>
       </c>
       <c r="F33">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0.045</v>
+        <v>0.031</v>
       </c>
       <c r="Q33" t="s">
         <v>49</v>
@@ -2216,10 +2216,10 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.219</v>
+        <v>0.201</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.22</v>
+        <v>0.201</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="2">
-        <v>46023</v>
+        <v>46046</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.216</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q36" t="s">
         <v>52</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="2">
-        <v>46023</v>
+        <v>46046</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.216</v>
+        <v>0.03</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q37" t="s">
         <v>53</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="2">
-        <v>46023</v>
+        <v>46046</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.216</v>
+        <v>0.03</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q38" t="s">
         <v>54</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="2">
-        <v>46023</v>
+        <v>46046</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.214</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q39" t="s">
         <v>55</v>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.021</v>
+        <v>0.034</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2482,10 +2482,10 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.023</v>
+        <v>0.034</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.023</v>
+        <v>0.034</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.026</v>
+        <v>0.034</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.021</v>
+        <v>0.104</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2634,34 +2634,34 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="E45">
-        <v>0.021</v>
+        <v>0.151</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="J45">
-        <v>0.032</v>
+        <v>0.06</v>
       </c>
       <c r="Q45" t="s">
         <v>61</v>
@@ -2672,34 +2672,34 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.219</v>
       </c>
       <c r="E46">
-        <v>0.021</v>
+        <v>0.127</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.231</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>0.331</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J46">
-        <v>0.032</v>
+        <v>0.336</v>
       </c>
       <c r="Q46" t="s">
         <v>62</v>
@@ -2710,34 +2710,34 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.365</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="E47">
-        <v>0.021</v>
+        <v>0.351</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.312</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>0.629</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="J47">
-        <v>0.032</v>
+        <v>0.597</v>
       </c>
       <c r="Q47" t="s">
         <v>63</v>
@@ -2748,34 +2748,34 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.492</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.618</v>
       </c>
       <c r="E48">
-        <v>0.099</v>
+        <v>0.424</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.294</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.761</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="J48">
-        <v>0.032</v>
+        <v>0.856</v>
       </c>
       <c r="Q48" t="s">
         <v>64</v>
@@ -2786,34 +2786,34 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>0.021</v>
+        <v>0.895</v>
       </c>
       <c r="D49">
-        <v>0.023</v>
+        <v>0.945</v>
       </c>
       <c r="E49">
-        <v>0.178</v>
+        <v>0.455</v>
       </c>
       <c r="F49">
-        <v>0.278</v>
+        <v>0.387</v>
       </c>
       <c r="G49">
-        <v>0.215</v>
+        <v>0.376</v>
       </c>
       <c r="H49">
-        <v>0.107</v>
+        <v>0.761</v>
       </c>
       <c r="I49">
-        <v>0.08400000000000001</v>
+        <v>0.187</v>
       </c>
       <c r="J49">
-        <v>0.051</v>
+        <v>0.87</v>
       </c>
       <c r="Q49" t="s">
         <v>65</v>
@@ -2824,34 +2824,34 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>0.113</v>
+        <v>0.843</v>
       </c>
       <c r="D50">
-        <v>0.22</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="E50">
-        <v>0.486</v>
+        <v>0.421</v>
       </c>
       <c r="F50">
-        <v>0.8129999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="G50">
-        <v>0.761</v>
+        <v>0.396</v>
       </c>
       <c r="H50">
-        <v>0.555</v>
+        <v>0.743</v>
       </c>
       <c r="I50">
-        <v>0.463</v>
+        <v>0.167</v>
       </c>
       <c r="J50">
-        <v>0.203</v>
+        <v>0.84</v>
       </c>
       <c r="Q50" t="s">
         <v>66</v>
@@ -2862,34 +2862,34 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>0.403</v>
+        <v>0.428</v>
       </c>
       <c r="D51">
-        <v>0.533</v>
+        <v>0.604</v>
       </c>
       <c r="E51">
-        <v>0.908</v>
+        <v>0.379</v>
       </c>
       <c r="F51">
-        <v>0.787</v>
+        <v>0.248</v>
       </c>
       <c r="G51">
-        <v>2.17</v>
+        <v>0.298</v>
       </c>
       <c r="H51">
-        <v>0.92</v>
+        <v>0.719</v>
       </c>
       <c r="I51">
-        <v>0.949</v>
+        <v>0.143</v>
       </c>
       <c r="J51">
-        <v>0.348</v>
+        <v>0.767</v>
       </c>
       <c r="Q51" t="s">
         <v>67</v>
@@ -2900,34 +2900,34 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B52">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>0.459</v>
+        <v>0.258</v>
       </c>
       <c r="D52">
-        <v>0.783</v>
+        <v>0.374</v>
       </c>
       <c r="E52">
-        <v>1.336</v>
+        <v>0.192</v>
       </c>
       <c r="F52">
-        <v>1.347</v>
+        <v>0.121</v>
       </c>
       <c r="G52">
-        <v>2.562</v>
+        <v>0.112</v>
       </c>
       <c r="H52">
-        <v>1.238</v>
+        <v>0.24</v>
       </c>
       <c r="I52">
-        <v>1.134</v>
+        <v>0.064</v>
       </c>
       <c r="J52">
-        <v>0.472</v>
+        <v>0.337</v>
       </c>
       <c r="Q52" t="s">
         <v>68</v>
@@ -2938,34 +2938,34 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>0.431</v>
+        <v>0.067</v>
       </c>
       <c r="D53">
-        <v>0.755</v>
+        <v>0.082</v>
       </c>
       <c r="E53">
-        <v>1.357</v>
+        <v>0.045</v>
       </c>
       <c r="F53">
-        <v>1.251</v>
+        <v>0.024</v>
       </c>
       <c r="G53">
-        <v>2.675</v>
+        <v>0.04</v>
       </c>
       <c r="H53">
-        <v>1.135</v>
+        <v>0.043</v>
       </c>
       <c r="I53">
-        <v>1.134</v>
+        <v>0.012</v>
       </c>
       <c r="J53">
-        <v>0.472</v>
+        <v>0.056</v>
       </c>
       <c r="Q53" t="s">
         <v>69</v>
@@ -2976,34 +2976,34 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B54">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>0.328</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.491</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>1.312</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.123</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>2.331</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>1.188</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0.922</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0.337</v>
+        <v>0.031</v>
       </c>
       <c r="Q54" t="s">
         <v>70</v>
@@ -3014,34 +3014,34 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.889</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.537</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>1.367</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0.792</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0.227</v>
+        <v>0.031</v>
       </c>
       <c r="Q55" t="s">
         <v>71</v>
@@ -3052,34 +3052,34 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B56">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.481</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.605</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0.427</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0.201</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0.06</v>
+        <v>0.031</v>
       </c>
       <c r="Q56" t="s">
         <v>72</v>
@@ -3090,34 +3090,34 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B57">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.256</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0.045</v>
+        <v>0.031</v>
       </c>
       <c r="Q57" t="s">
         <v>73</v>
@@ -3128,10 +3128,10 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B58">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.209</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3166,10 +3166,10 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="2">
-        <v>46024</v>
+        <v>46046</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.209</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3204,10 +3204,10 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="2">
-        <v>46024</v>
+        <v>46047</v>
       </c>
       <c r="B60">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0.209</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q60" t="s">
         <v>76</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="2">
-        <v>46024</v>
+        <v>46047</v>
       </c>
       <c r="B61">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0.215</v>
+        <v>0.016</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q61" t="s">
         <v>77</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="2">
-        <v>46024</v>
+        <v>46047</v>
       </c>
       <c r="B62">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0.215</v>
+        <v>0.034</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q62" t="s">
         <v>78</v>
@@ -3318,10 +3318,10 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2">
-        <v>46024</v>
+        <v>46047</v>
       </c>
       <c r="B63">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.211</v>
+        <v>0.039</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q63" t="s">
         <v>79</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.026</v>
+        <v>0.029</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3394,10 +3394,10 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.026</v>
+        <v>0.029</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3432,10 +3432,10 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0.026</v>
+        <v>0.039</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.026</v>
+        <v>0.039</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3508,10 +3508,10 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.039</v>
+        <v>0.104</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3546,34 +3546,34 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="E69">
-        <v>0.039</v>
+        <v>0.182</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>0.083</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="J69">
-        <v>0.032</v>
+        <v>0.073</v>
       </c>
       <c r="Q69" t="s">
         <v>85</v>
@@ -3584,34 +3584,34 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.292</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.346</v>
       </c>
       <c r="E70">
-        <v>0.039</v>
+        <v>0.251</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>0.314</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>0.423</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="J70">
-        <v>0.032</v>
+        <v>0.413</v>
       </c>
       <c r="Q70" t="s">
         <v>86</v>
@@ -3622,34 +3622,34 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.758</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>0.893</v>
       </c>
       <c r="E71">
-        <v>0.039</v>
+        <v>0.451</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>0.383</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>0.343</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.717</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>0.532</v>
       </c>
       <c r="J71">
-        <v>0.032</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="Q71" t="s">
         <v>87</v>
@@ -3660,34 +3660,34 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1.075</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1.198</v>
       </c>
       <c r="E72">
-        <v>0.104</v>
+        <v>0.609</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.437</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>0.489</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>0.779</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>0.631</v>
       </c>
       <c r="J72">
-        <v>0.032</v>
+        <v>0.867</v>
       </c>
       <c r="Q72" t="s">
         <v>88</v>
@@ -3698,34 +3698,34 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>0.016</v>
+        <v>1.349</v>
       </c>
       <c r="D73">
-        <v>0.018</v>
+        <v>1.626</v>
       </c>
       <c r="E73">
-        <v>0.12</v>
+        <v>0.581</v>
       </c>
       <c r="F73">
-        <v>0.238</v>
+        <v>0.497</v>
       </c>
       <c r="G73">
-        <v>0.154</v>
+        <v>0.455</v>
       </c>
       <c r="H73">
-        <v>0.112</v>
+        <v>0.836</v>
       </c>
       <c r="I73">
-        <v>0.064</v>
+        <v>0.571</v>
       </c>
       <c r="J73">
-        <v>0.051</v>
+        <v>0.87</v>
       </c>
       <c r="Q73" t="s">
         <v>89</v>
@@ -3736,34 +3736,34 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B74">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>0.094</v>
+        <v>1.05</v>
       </c>
       <c r="D74">
-        <v>0.145</v>
+        <v>1.203</v>
       </c>
       <c r="E74">
-        <v>0.127</v>
+        <v>0.511</v>
       </c>
       <c r="F74">
-        <v>0.547</v>
+        <v>0.463</v>
       </c>
       <c r="G74">
-        <v>0.527</v>
+        <v>0.345</v>
       </c>
       <c r="H74">
-        <v>0.447</v>
+        <v>0.768</v>
       </c>
       <c r="I74">
-        <v>0.328</v>
+        <v>0.541</v>
       </c>
       <c r="J74">
-        <v>0.152</v>
+        <v>0.768</v>
       </c>
       <c r="Q74" t="s">
         <v>90</v>
@@ -3774,34 +3774,34 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>0.332</v>
+        <v>0.788</v>
       </c>
       <c r="D75">
-        <v>0.341</v>
+        <v>0.727</v>
       </c>
       <c r="E75">
-        <v>0.379</v>
+        <v>0.4</v>
       </c>
       <c r="F75">
-        <v>1.005</v>
+        <v>0.327</v>
       </c>
       <c r="G75">
-        <v>1.094</v>
+        <v>0.401</v>
       </c>
       <c r="H75">
-        <v>0.827</v>
+        <v>0.579</v>
       </c>
       <c r="I75">
-        <v>0.612</v>
+        <v>0.357</v>
       </c>
       <c r="J75">
-        <v>0.348</v>
+        <v>0.524</v>
       </c>
       <c r="Q75" t="s">
         <v>91</v>
@@ -3812,34 +3812,34 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B76">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>0.465</v>
+        <v>0.273</v>
       </c>
       <c r="D76">
-        <v>0.549</v>
+        <v>0.378</v>
       </c>
       <c r="E76">
-        <v>0.481</v>
+        <v>0.198</v>
       </c>
       <c r="F76">
-        <v>1.088</v>
+        <v>0.149</v>
       </c>
       <c r="G76">
-        <v>1.718</v>
+        <v>0.161</v>
       </c>
       <c r="H76">
-        <v>0.836</v>
+        <v>0.292</v>
       </c>
       <c r="I76">
-        <v>0.764</v>
+        <v>0.183</v>
       </c>
       <c r="J76">
-        <v>0.394</v>
+        <v>0.288</v>
       </c>
       <c r="Q76" t="s">
         <v>92</v>
@@ -3850,34 +3850,34 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B77">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>0.489</v>
+        <v>0.051</v>
       </c>
       <c r="D77">
-        <v>0.575</v>
+        <v>0.083</v>
       </c>
       <c r="E77">
-        <v>0.468</v>
+        <v>0.027</v>
       </c>
       <c r="F77">
-        <v>0.923</v>
+        <v>0.035</v>
       </c>
       <c r="G77">
-        <v>1.345</v>
+        <v>0.055</v>
       </c>
       <c r="H77">
-        <v>0.8179999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="I77">
-        <v>1.035</v>
+        <v>0.034</v>
       </c>
       <c r="J77">
-        <v>0.348</v>
+        <v>0.045</v>
       </c>
       <c r="Q77" t="s">
         <v>93</v>
@@ -3888,34 +3888,34 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B78">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>0.365</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0.522</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>0.382</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.766</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0.819</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0.8129999999999999</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0.775</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0.292</v>
+        <v>0.031</v>
       </c>
       <c r="Q78" t="s">
         <v>94</v>
@@ -3926,34 +3926,34 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B79">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C79">
-        <v>0.197</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.447</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0.546</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0.502</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0.536</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0.191</v>
+        <v>0.031</v>
       </c>
       <c r="Q79" t="s">
         <v>95</v>
@@ -3964,34 +3964,34 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B80">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C80">
-        <v>0.081</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>0.089</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.165</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0.157</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0.06</v>
+        <v>0.031</v>
       </c>
       <c r="Q80" t="s">
         <v>96</v>
@@ -4002,13 +4002,13 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B81">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C81">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4017,19 +4017,19 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.045</v>
+        <v>0.031</v>
       </c>
       <c r="Q81" t="s">
         <v>97</v>
@@ -4040,10 +4040,10 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B82">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4078,10 +4078,10 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="2">
-        <v>46025</v>
+        <v>46047</v>
       </c>
       <c r="B83">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="2">
-        <v>46025</v>
+        <v>46048</v>
       </c>
       <c r="B84">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q84" t="s">
         <v>100</v>
@@ -4154,10 +4154,10 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="2">
-        <v>46025</v>
+        <v>46048</v>
       </c>
       <c r="B85">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q85" t="s">
         <v>101</v>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="2">
-        <v>46025</v>
+        <v>46048</v>
       </c>
       <c r="B86">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q86" t="s">
         <v>102</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="2">
-        <v>46025</v>
+        <v>46048</v>
       </c>
       <c r="B87">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q87" t="s">
         <v>103</v>
@@ -4268,10 +4268,10 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4306,10 +4306,10 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4344,10 +4344,10 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -4382,10 +4382,10 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -4420,10 +4420,10 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4458,34 +4458,34 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="J93">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
       <c r="Q93" t="s">
         <v>109</v>
@@ -4496,34 +4496,34 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>0.206</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.102</v>
       </c>
       <c r="J94">
-        <v>0.032</v>
+        <v>0.163</v>
       </c>
       <c r="Q94" t="s">
         <v>110</v>
@@ -4534,34 +4534,34 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>0.364</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.247</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.379</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.395</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>0.725</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="J95">
-        <v>0.032</v>
+        <v>0.298</v>
       </c>
       <c r="Q95" t="s">
         <v>111</v>
@@ -4572,34 +4572,34 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B96">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.389</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.537</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.357</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.313</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.435</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>0.826</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="J96">
-        <v>0.032</v>
+        <v>0.394</v>
       </c>
       <c r="Q96" t="s">
         <v>112</v>
@@ -4610,34 +4610,34 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C97">
-        <v>0.021</v>
+        <v>0.492</v>
       </c>
       <c r="D97">
-        <v>0.023</v>
+        <v>0.641</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.394</v>
       </c>
       <c r="F97">
-        <v>0.212</v>
+        <v>0.368</v>
       </c>
       <c r="G97">
-        <v>0.14</v>
+        <v>0.397</v>
       </c>
       <c r="H97">
-        <v>0.063</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="I97">
-        <v>0.034</v>
+        <v>0.178</v>
       </c>
       <c r="J97">
-        <v>0.051</v>
+        <v>0.423</v>
       </c>
       <c r="Q97" t="s">
         <v>113</v>
@@ -4648,34 +4648,34 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B98">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>0.107</v>
+        <v>0.412</v>
       </c>
       <c r="D98">
-        <v>0.146</v>
+        <v>0.588</v>
       </c>
       <c r="E98">
-        <v>0.127</v>
+        <v>0.286</v>
       </c>
       <c r="F98">
-        <v>0.462</v>
+        <v>0.354</v>
       </c>
       <c r="G98">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="H98">
-        <v>0.41</v>
+        <v>0.879</v>
       </c>
       <c r="I98">
-        <v>0.128</v>
+        <v>0.153</v>
       </c>
       <c r="J98">
-        <v>0.152</v>
+        <v>0.337</v>
       </c>
       <c r="Q98" t="s">
         <v>114</v>
@@ -4686,34 +4686,34 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B99">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>0.355</v>
+        <v>0.278</v>
       </c>
       <c r="D99">
-        <v>0.408</v>
+        <v>0.445</v>
       </c>
       <c r="E99">
-        <v>0.381</v>
+        <v>0.257</v>
       </c>
       <c r="F99">
-        <v>0.762</v>
+        <v>0.248</v>
       </c>
       <c r="G99">
-        <v>0.797</v>
+        <v>0.193</v>
       </c>
       <c r="H99">
-        <v>0.771</v>
+        <v>0.474</v>
       </c>
       <c r="I99">
-        <v>0.229</v>
+        <v>0.098</v>
       </c>
       <c r="J99">
-        <v>0.336</v>
+        <v>0.274</v>
       </c>
       <c r="Q99" t="s">
         <v>115</v>
@@ -4724,34 +4724,34 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B100">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>0.515</v>
+        <v>0.116</v>
       </c>
       <c r="D100">
-        <v>0.5590000000000001</v>
+        <v>0.236</v>
       </c>
       <c r="E100">
-        <v>0.552</v>
+        <v>0.157</v>
       </c>
       <c r="F100">
-        <v>0.892</v>
+        <v>0.105</v>
       </c>
       <c r="G100">
-        <v>1.502</v>
+        <v>0.103</v>
       </c>
       <c r="H100">
-        <v>0.756</v>
+        <v>0.118</v>
       </c>
       <c r="I100">
-        <v>0.271</v>
+        <v>0.058</v>
       </c>
       <c r="J100">
-        <v>0.394</v>
+        <v>0.143</v>
       </c>
       <c r="Q100" t="s">
         <v>116</v>
@@ -4762,34 +4762,34 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B101">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>0.528</v>
+        <v>0.036</v>
       </c>
       <c r="D101">
-        <v>0.436</v>
+        <v>0.066</v>
       </c>
       <c r="E101">
-        <v>0.592</v>
+        <v>0.062</v>
       </c>
       <c r="F101">
-        <v>0.906</v>
+        <v>0.027</v>
       </c>
       <c r="G101">
-        <v>1.378</v>
+        <v>0.04</v>
       </c>
       <c r="H101">
-        <v>0.839</v>
+        <v>0.019</v>
       </c>
       <c r="I101">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>0.37</v>
+        <v>0.026</v>
       </c>
       <c r="Q101" t="s">
         <v>117</v>
@@ -4800,34 +4800,34 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B102">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C102">
-        <v>0.373</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>0.362</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.837</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>0.929</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0.839</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>0.251</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0.325</v>
+        <v>0.013</v>
       </c>
       <c r="Q102" t="s">
         <v>118</v>
@@ -4838,34 +4838,34 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B103">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C103">
-        <v>0.227</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>0.217</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>0.412</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.513</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>0.449</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>0.776</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>0.227</v>
+        <v>0.013</v>
       </c>
       <c r="Q103" t="s">
         <v>119</v>
@@ -4876,34 +4876,34 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B104">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C104">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.179</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>0.198</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0.098</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>0.062</v>
+        <v>0.013</v>
       </c>
       <c r="Q104" t="s">
         <v>120</v>
@@ -4914,34 +4914,34 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B105">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C105">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0.045</v>
+        <v>0.013</v>
       </c>
       <c r="Q105" t="s">
         <v>121</v>
@@ -4952,10 +4952,10 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B106">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4990,10 +4990,10 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="2">
-        <v>46026</v>
+        <v>46048</v>
       </c>
       <c r="B107">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="2">
-        <v>46026</v>
+        <v>46049</v>
       </c>
       <c r="B108">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q108" t="s">
         <v>124</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="2">
-        <v>46026</v>
+        <v>46049</v>
       </c>
       <c r="B109">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q109" t="s">
         <v>125</v>
@@ -5104,10 +5104,10 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="2">
-        <v>46026</v>
+        <v>46049</v>
       </c>
       <c r="B110">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q110" t="s">
         <v>126</v>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="2">
-        <v>46026</v>
+        <v>46049</v>
       </c>
       <c r="B111">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q111" t="s">
         <v>127</v>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -5218,10 +5218,10 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -5256,10 +5256,10 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -5294,10 +5294,10 @@
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -5332,10 +5332,10 @@
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5370,34 +5370,34 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="J117">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
       <c r="Q117" t="s">
         <v>133</v>
@@ -5408,34 +5408,34 @@
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B118">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>0.201</v>
       </c>
       <c r="E118">
-        <v>0.018</v>
+        <v>0.245</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>0.256</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>0.102</v>
       </c>
       <c r="J118">
-        <v>0.032</v>
+        <v>0.152</v>
       </c>
       <c r="Q118" t="s">
         <v>134</v>
@@ -5446,34 +5446,34 @@
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B119">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E119">
-        <v>0.018</v>
+        <v>0.463</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>0.393</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>0.307</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>0.675</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="J119">
-        <v>0.032</v>
+        <v>0.292</v>
       </c>
       <c r="Q119" t="s">
         <v>135</v>
@@ -5484,34 +5484,34 @@
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B120">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.374</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>0.545</v>
       </c>
       <c r="E120">
-        <v>0.08500000000000001</v>
+        <v>0.641</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>0.481</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>0.758</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>0.187</v>
       </c>
       <c r="J120">
-        <v>0.032</v>
+        <v>0.348</v>
       </c>
       <c r="Q120" t="s">
         <v>136</v>
@@ -5522,34 +5522,34 @@
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B121">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C121">
-        <v>0.029</v>
+        <v>0.491</v>
       </c>
       <c r="D121">
-        <v>0.023</v>
+        <v>0.646</v>
       </c>
       <c r="E121">
-        <v>0.115</v>
+        <v>0.802</v>
       </c>
       <c r="F121">
-        <v>0.092</v>
+        <v>0.394</v>
       </c>
       <c r="G121">
-        <v>0.106</v>
+        <v>0.355</v>
       </c>
       <c r="H121">
-        <v>0.063</v>
+        <v>0.758</v>
       </c>
       <c r="I121">
-        <v>0.034</v>
+        <v>0.185</v>
       </c>
       <c r="J121">
-        <v>0.051</v>
+        <v>0.336</v>
       </c>
       <c r="Q121" t="s">
         <v>137</v>
@@ -5560,34 +5560,34 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C122">
-        <v>0.135</v>
+        <v>0.444</v>
       </c>
       <c r="D122">
-        <v>0.244</v>
+        <v>0.593</v>
       </c>
       <c r="E122">
-        <v>0.276</v>
+        <v>0.751</v>
       </c>
       <c r="F122">
-        <v>0.322</v>
+        <v>0.263</v>
       </c>
       <c r="G122">
-        <v>0.296</v>
+        <v>0.289</v>
       </c>
       <c r="H122">
-        <v>0.393</v>
+        <v>0.729</v>
       </c>
       <c r="I122">
-        <v>0.102</v>
+        <v>0.178</v>
       </c>
       <c r="J122">
-        <v>0.102</v>
+        <v>0.292</v>
       </c>
       <c r="Q122" t="s">
         <v>138</v>
@@ -5598,34 +5598,34 @@
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B123">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C123">
-        <v>0.411</v>
+        <v>0.278</v>
       </c>
       <c r="D123">
-        <v>0.502</v>
+        <v>0.396</v>
       </c>
       <c r="E123">
-        <v>0.274</v>
+        <v>0.635</v>
       </c>
       <c r="F123">
-        <v>0.41</v>
+        <v>0.179</v>
       </c>
       <c r="G123">
-        <v>0.424</v>
+        <v>0.153</v>
       </c>
       <c r="H123">
-        <v>0.704</v>
+        <v>0.498</v>
       </c>
       <c r="I123">
-        <v>0.185</v>
+        <v>0.136</v>
       </c>
       <c r="J123">
-        <v>0.298</v>
+        <v>0.211</v>
       </c>
       <c r="Q123" t="s">
         <v>139</v>
@@ -5636,34 +5636,34 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C124">
-        <v>0.569</v>
+        <v>0.117</v>
       </c>
       <c r="D124">
-        <v>0.765</v>
+        <v>0.225</v>
       </c>
       <c r="E124">
-        <v>0.42</v>
+        <v>0.402</v>
       </c>
       <c r="F124">
-        <v>0.466</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G124">
-        <v>0.762</v>
+        <v>0.103</v>
       </c>
       <c r="H124">
-        <v>0.781</v>
+        <v>0.123</v>
       </c>
       <c r="I124">
-        <v>0.229</v>
+        <v>0.058</v>
       </c>
       <c r="J124">
-        <v>0.37</v>
+        <v>0.062</v>
       </c>
       <c r="Q124" t="s">
         <v>140</v>
@@ -5674,34 +5674,34 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B125">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C125">
-        <v>0.589</v>
+        <v>0.037</v>
       </c>
       <c r="D125">
-        <v>0.819</v>
+        <v>0.067</v>
       </c>
       <c r="E125">
-        <v>0.43</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="F125">
-        <v>0.352</v>
+        <v>0.021</v>
       </c>
       <c r="G125">
-        <v>0.294</v>
+        <v>0.025</v>
       </c>
       <c r="H125">
-        <v>0.731</v>
+        <v>0.023</v>
       </c>
       <c r="I125">
-        <v>0.212</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>0.348</v>
+        <v>0.045</v>
       </c>
       <c r="Q125" t="s">
         <v>141</v>
@@ -5712,34 +5712,34 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B126">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C126">
-        <v>0.5639999999999999</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>0.5649999999999999</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>0.393</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.256</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>0.788</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>0.292</v>
+        <v>0.031</v>
       </c>
       <c r="Q126" t="s">
         <v>142</v>
@@ -5750,34 +5750,34 @@
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B127">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C127">
-        <v>0.361</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>0.277</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>0.442</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>0.5679999999999999</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J127">
-        <v>0.211</v>
+        <v>0.031</v>
       </c>
       <c r="Q127" t="s">
         <v>143</v>
@@ -5788,34 +5788,34 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B128">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C128">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>0.313</v>
+        <v>0.194</v>
       </c>
       <c r="F128">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>0.06</v>
+        <v>0.031</v>
       </c>
       <c r="Q128" t="s">
         <v>144</v>
@@ -5826,19 +5826,19 @@
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B129">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C129">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>0.191</v>
+        <v>0.215</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0.045</v>
+        <v>0.031</v>
       </c>
       <c r="Q129" t="s">
         <v>145</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B130">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0.178</v>
+        <v>0.207</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5902,10 +5902,10 @@
     </row>
     <row r="131" spans="1:18">
       <c r="A131" s="2">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B131">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>0.178</v>
+        <v>0.209</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5940,10 +5940,10 @@
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="2">
-        <v>46027</v>
+        <v>46050</v>
       </c>
       <c r="B132">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0.178</v>
+        <v>0.02</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q132" t="s">
         <v>148</v>
@@ -5978,10 +5978,10 @@
     </row>
     <row r="133" spans="1:18">
       <c r="A133" s="2">
-        <v>46027</v>
+        <v>46050</v>
       </c>
       <c r="B133">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0.178</v>
+        <v>0.022</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q133" t="s">
         <v>149</v>
@@ -6016,10 +6016,10 @@
     </row>
     <row r="134" spans="1:18">
       <c r="A134" s="2">
-        <v>46027</v>
+        <v>46050</v>
       </c>
       <c r="B134">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0.178</v>
+        <v>0.023</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q134" t="s">
         <v>150</v>
@@ -6054,10 +6054,10 @@
     </row>
     <row r="135" spans="1:18">
       <c r="A135" s="2">
-        <v>46027</v>
+        <v>46050</v>
       </c>
       <c r="B135">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0.178</v>
+        <v>0.021</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q135" t="s">
         <v>151</v>
@@ -6092,10 +6092,10 @@
     </row>
     <row r="136" spans="1:18">
       <c r="A136" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6168,10 +6168,10 @@
     </row>
     <row r="138" spans="1:18">
       <c r="A138" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -6206,10 +6206,10 @@
     </row>
     <row r="139" spans="1:18">
       <c r="A139" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -6244,10 +6244,10 @@
     </row>
     <row r="140" spans="1:18">
       <c r="A140" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B140">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -6256,10 +6256,10 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -6282,34 +6282,34 @@
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.239</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.348</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>0.238</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>0.206</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="J141">
-        <v>0.032</v>
+        <v>0.06</v>
       </c>
       <c r="Q141" t="s">
         <v>157</v>
@@ -6320,34 +6320,34 @@
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B142">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>0.227</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.658</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>0.949</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>0.533</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>0.315</v>
       </c>
       <c r="J142">
-        <v>0.032</v>
+        <v>0.348</v>
       </c>
       <c r="Q142" t="s">
         <v>158</v>
@@ -6358,34 +6358,34 @@
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B143">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>0.462</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>0.624</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1.346</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1.206</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>0.541</v>
       </c>
       <c r="J143">
-        <v>0.032</v>
+        <v>0.647</v>
       </c>
       <c r="Q143" t="s">
         <v>159</v>
@@ -6396,34 +6396,34 @@
     </row>
     <row r="144" spans="1:18">
       <c r="A144" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B144">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>0.751</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>0.996</v>
       </c>
       <c r="E144">
-        <v>0.066</v>
+        <v>1.47</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1.551</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>2.147</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>0.711</v>
       </c>
       <c r="J144">
-        <v>0.032</v>
+        <v>0.848</v>
       </c>
       <c r="Q144" t="s">
         <v>160</v>
@@ -6434,34 +6434,34 @@
     </row>
     <row r="145" spans="1:18">
       <c r="A145" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B145">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C145">
-        <v>0.027</v>
+        <v>0.946</v>
       </c>
       <c r="D145">
-        <v>0.022</v>
+        <v>1.025</v>
       </c>
       <c r="E145">
-        <v>0.098</v>
+        <v>1.538</v>
       </c>
       <c r="F145">
-        <v>0.043</v>
+        <v>1.669</v>
       </c>
       <c r="G145">
-        <v>0.043</v>
+        <v>2.328</v>
       </c>
       <c r="H145">
-        <v>0.033</v>
+        <v>1.143</v>
       </c>
       <c r="I145">
-        <v>0.025</v>
+        <v>0.835</v>
       </c>
       <c r="J145">
-        <v>0.051</v>
+        <v>0.87</v>
       </c>
       <c r="Q145" t="s">
         <v>161</v>
@@ -6472,34 +6472,34 @@
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C146">
-        <v>0.15</v>
+        <v>0.828</v>
       </c>
       <c r="D146">
-        <v>0.205</v>
+        <v>1.043</v>
       </c>
       <c r="E146">
-        <v>0.28</v>
+        <v>1.155</v>
       </c>
       <c r="F146">
-        <v>0.129</v>
+        <v>1.669</v>
       </c>
       <c r="G146">
-        <v>0.114</v>
+        <v>2.086</v>
       </c>
       <c r="H146">
-        <v>0.112</v>
+        <v>1.148</v>
       </c>
       <c r="I146">
-        <v>0.112</v>
+        <v>0.705</v>
       </c>
       <c r="J146">
-        <v>0.08799999999999999</v>
+        <v>0.851</v>
       </c>
       <c r="Q146" t="s">
         <v>162</v>
@@ -6510,34 +6510,34 @@
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B147">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C147">
-        <v>0.472</v>
+        <v>0.506</v>
       </c>
       <c r="D147">
-        <v>0.551</v>
+        <v>0.748</v>
       </c>
       <c r="E147">
-        <v>0.447</v>
+        <v>0.958</v>
       </c>
       <c r="F147">
-        <v>0.195</v>
+        <v>1.182</v>
       </c>
       <c r="G147">
-        <v>0.216</v>
+        <v>1.616</v>
       </c>
       <c r="H147">
-        <v>0.551</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0.201</v>
+        <v>0.588</v>
       </c>
       <c r="J147">
-        <v>0.292</v>
+        <v>0.778</v>
       </c>
       <c r="Q147" t="s">
         <v>163</v>
@@ -6548,34 +6548,34 @@
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B148">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C148">
-        <v>0.579</v>
+        <v>0.254</v>
       </c>
       <c r="D148">
-        <v>0.87</v>
+        <v>0.385</v>
       </c>
       <c r="E148">
-        <v>0.606</v>
+        <v>0.553</v>
       </c>
       <c r="F148">
-        <v>0.264</v>
+        <v>0.54</v>
       </c>
       <c r="G148">
-        <v>0.291</v>
+        <v>0.649</v>
       </c>
       <c r="H148">
-        <v>0.614</v>
+        <v>0.79</v>
       </c>
       <c r="I148">
-        <v>0.346</v>
+        <v>0.32</v>
       </c>
       <c r="J148">
-        <v>0.348</v>
+        <v>0.38</v>
       </c>
       <c r="Q148" t="s">
         <v>164</v>
@@ -6586,34 +6586,34 @@
     </row>
     <row r="149" spans="1:18">
       <c r="A149" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B149">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C149">
-        <v>0.612</v>
+        <v>0.055</v>
       </c>
       <c r="D149">
-        <v>0.9399999999999999</v>
+        <v>0.083</v>
       </c>
       <c r="E149">
-        <v>0.666</v>
+        <v>0.189</v>
       </c>
       <c r="F149">
-        <v>0.236</v>
+        <v>0.132</v>
       </c>
       <c r="G149">
-        <v>0.288</v>
+        <v>0.138</v>
       </c>
       <c r="H149">
-        <v>0.62</v>
+        <v>0.19</v>
       </c>
       <c r="I149">
-        <v>0.346</v>
+        <v>0.064</v>
       </c>
       <c r="J149">
-        <v>0.348</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="Q149" t="s">
         <v>165</v>
@@ -6624,34 +6624,34 @@
     </row>
     <row r="150" spans="1:18">
       <c r="A150" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B150">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C150">
-        <v>0.551</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>0.834</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>0.636</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.142</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>0.662</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>0.208</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>0.298</v>
+        <v>0.031</v>
       </c>
       <c r="Q150" t="s">
         <v>166</v>
@@ -6662,34 +6662,34 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B151">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C151">
-        <v>0.339</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>0.5639999999999999</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>0.467</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>0.229</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J151">
-        <v>0.211</v>
+        <v>0.031</v>
       </c>
       <c r="Q151" t="s">
         <v>167</v>
@@ -6700,34 +6700,34 @@
     </row>
     <row r="152" spans="1:18">
       <c r="A152" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B152">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C152">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>0.196</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>0.312</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>0.06</v>
+        <v>0.031</v>
       </c>
       <c r="Q152" t="s">
         <v>168</v>
@@ -6738,19 +6738,19 @@
     </row>
     <row r="153" spans="1:18">
       <c r="A153" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B153">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C153">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>0.045</v>
+        <v>0.031</v>
       </c>
       <c r="Q153" t="s">
         <v>169</v>
@@ -6776,10 +6776,10 @@
     </row>
     <row r="154" spans="1:18">
       <c r="A154" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B154">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -6788,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -6814,10 +6814,10 @@
     </row>
     <row r="155" spans="1:18">
       <c r="A155" s="2">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="B155">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -6826,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -6852,10 +6852,10 @@
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="2">
-        <v>46028</v>
+        <v>46051</v>
       </c>
       <c r="B156">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q156" t="s">
         <v>172</v>
@@ -6890,10 +6890,10 @@
     </row>
     <row r="157" spans="1:18">
       <c r="A157" s="2">
-        <v>46028</v>
+        <v>46051</v>
       </c>
       <c r="B157">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q157" t="s">
         <v>173</v>
@@ -6928,10 +6928,10 @@
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="2">
-        <v>46028</v>
+        <v>46051</v>
       </c>
       <c r="B158">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q158" t="s">
         <v>174</v>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="159" spans="1:18">
       <c r="A159" s="2">
-        <v>46028</v>
+        <v>46051</v>
       </c>
       <c r="B159">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q159" t="s">
         <v>175</v>
@@ -7004,10 +7004,10 @@
     </row>
     <row r="160" spans="1:18">
       <c r="A160" s="2">
-        <v>46029</v>
+        <v>46051</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -7042,10 +7042,10 @@
     </row>
     <row r="161" spans="1:18">
       <c r="A161" s="2">
-        <v>46029</v>
+        <v>46051</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -7080,10 +7080,10 @@
     </row>
     <row r="162" spans="1:18">
       <c r="A162" s="2">
-        <v>46029</v>
+        <v>46051</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -7118,10 +7118,10 @@
     </row>
     <row r="163" spans="1:18">
       <c r="A163" s="2">
-        <v>46029</v>
+        <v>46051</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -7156,10 +7156,10 @@
     </row>
     <row r="164" spans="1:18">
       <c r="A164" s="2">
-        <v>46029</v>
+        <v>46051</v>
       </c>
       <c r="B164">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -7194,34 +7194,34 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="2">
-        <v>46029</v>
+        <v>46051</v>
       </c>
       <c r="B165">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>0.242</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>0.165</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="J165">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
       <c r="Q165" t="s">
         <v>181</v>
@@ -7232,34 +7232,34 @@
     </row>
     <row r="166" spans="1:18">
       <c r="A166" s="2">
-        <v>46029</v>
+        <v>46051</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>0.252</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>0.346</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.244</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>0.579</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>0.351</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>0.656</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="J166">
-        <v>0.032</v>
+        <v>0.292</v>
       </c>
       <c r="Q166" t="s">
         <v>182</v>
@@ -7270,34 +7270,34 @@
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="2">
-        <v>46029</v>
+        <v>46051</v>
       </c>
       <c r="B167">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>0.472</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>0.904</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>0.775</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>0.924</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>0.336</v>
       </c>
       <c r="J167">
-        <v>0.032</v>
+        <v>0.462</v>
       </c>
       <c r="Q167" t="s">
         <v>183</v>
@@ -7308,34 +7308,34 @@
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="2">
-        <v>46029</v>
+        <v>46051</v>
       </c>
       <c r="B168">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>0.762</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="E168">
-        <v>0.066</v>
+        <v>0.854</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1.024</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>1.065</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>0.874</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>0.543</v>
       </c>
       <c r="J168">
-        <v>0.032</v>
+        <v>0.772</v>
       </c>
       <c r="Q168" t="s">
         <v>184</v>
@@ -7346,34 +7346,34 @@
     </row>
     <row r="169" spans="1:18">
       <c r="A169" s="2">
-        <v>46029</v>
+        <v>46051</v>
       </c>
       <c r="B169">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C169">
-        <v>0.022</v>
+        <v>0.867</v>
       </c>
       <c r="D169">
-        <v>0.018</v>
+        <v>1.088</v>
       </c>
       <c r="E169">
-        <v>0.098</v>
+        <v>0.953</v>
       </c>
       <c r="F169">
-        <v>0.053</v>
+        <v>1.077</v>
       </c>
       <c r="G169">
-        <v>0.051</v>
+        <v>1.092</v>
       </c>
       <c r="H169">
-        <v>0.043</v>
+        <v>0.872</v>
       </c>
       <c r="I169">
-        <v>0.025</v>
+        <v>0.543</v>
       </c>
       <c r="J169">
-        <v>0.051</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q169" t="s">
         <v>185</v>
@@ -7384,34 +7384,34 @@
     </row>
     <row r="170" spans="1:18">
       <c r="A170" s="2">
-        <v>46029</v>
+        <v>46051</v>
       </c>
       <c r="B170">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C170">
-        <v>0.164</v>
+        <v>0.753</v>
       </c>
       <c r="D170">
-        <v>0.143</v>
+        <v>1.067</v>
       </c>
       <c r="E170">
-        <v>0.282</v>
+        <v>0.86</v>
       </c>
       <c r="F170">
-        <v>0.162</v>
+        <v>1.04</v>
       </c>
       <c r="G170">
-        <v>0.162</v>
+        <v>1.115</v>
       </c>
       <c r="H170">
-        <v>0.262</v>
+        <v>0.903</v>
       </c>
       <c r="I170">
-        <v>0.102</v>
+        <v>0.531</v>
       </c>
       <c r="J170">
-        <v>0.073</v>
+        <v>0.753</v>
       </c>
       <c r="Q170" t="s">
         <v>186</v>

--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -70,132 +70,6 @@
     <t>Prediction_3D_Steel</t>
   </si>
   <si>
-    <t>22.01.202615</t>
-  </si>
-  <si>
-    <t>22.01.202616</t>
-  </si>
-  <si>
-    <t>22.01.202617</t>
-  </si>
-  <si>
-    <t>22.01.202618</t>
-  </si>
-  <si>
-    <t>22.01.202619</t>
-  </si>
-  <si>
-    <t>22.01.202620</t>
-  </si>
-  <si>
-    <t>22.01.202621</t>
-  </si>
-  <si>
-    <t>22.01.202622</t>
-  </si>
-  <si>
-    <t>22.01.202623</t>
-  </si>
-  <si>
-    <t>22.01.202624</t>
-  </si>
-  <si>
-    <t>23.01.20261</t>
-  </si>
-  <si>
-    <t>23.01.20262</t>
-  </si>
-  <si>
-    <t>23.01.20263</t>
-  </si>
-  <si>
-    <t>23.01.20264</t>
-  </si>
-  <si>
-    <t>23.01.20265</t>
-  </si>
-  <si>
-    <t>23.01.20266</t>
-  </si>
-  <si>
-    <t>23.01.20267</t>
-  </si>
-  <si>
-    <t>23.01.20268</t>
-  </si>
-  <si>
-    <t>23.01.20269</t>
-  </si>
-  <si>
-    <t>23.01.202610</t>
-  </si>
-  <si>
-    <t>23.01.202611</t>
-  </si>
-  <si>
-    <t>23.01.202612</t>
-  </si>
-  <si>
-    <t>23.01.202613</t>
-  </si>
-  <si>
-    <t>23.01.202614</t>
-  </si>
-  <si>
-    <t>23.01.202615</t>
-  </si>
-  <si>
-    <t>23.01.202616</t>
-  </si>
-  <si>
-    <t>23.01.202617</t>
-  </si>
-  <si>
-    <t>23.01.202618</t>
-  </si>
-  <si>
-    <t>23.01.202619</t>
-  </si>
-  <si>
-    <t>23.01.202620</t>
-  </si>
-  <si>
-    <t>23.01.202621</t>
-  </si>
-  <si>
-    <t>23.01.202622</t>
-  </si>
-  <si>
-    <t>23.01.202623</t>
-  </si>
-  <si>
-    <t>23.01.202624</t>
-  </si>
-  <si>
-    <t>24.01.20261</t>
-  </si>
-  <si>
-    <t>24.01.20262</t>
-  </si>
-  <si>
-    <t>24.01.20263</t>
-  </si>
-  <si>
-    <t>24.01.20264</t>
-  </si>
-  <si>
-    <t>24.01.20265</t>
-  </si>
-  <si>
-    <t>24.01.20266</t>
-  </si>
-  <si>
-    <t>24.01.20267</t>
-  </si>
-  <si>
-    <t>24.01.20268</t>
-  </si>
-  <si>
     <t>24.01.20269</t>
   </si>
   <si>
@@ -575,6 +449,132 @@
   </si>
   <si>
     <t>29.01.202615</t>
+  </si>
+  <si>
+    <t>29.01.202616</t>
+  </si>
+  <si>
+    <t>29.01.202617</t>
+  </si>
+  <si>
+    <t>29.01.202618</t>
+  </si>
+  <si>
+    <t>29.01.202619</t>
+  </si>
+  <si>
+    <t>29.01.202620</t>
+  </si>
+  <si>
+    <t>29.01.202621</t>
+  </si>
+  <si>
+    <t>29.01.202622</t>
+  </si>
+  <si>
+    <t>29.01.202623</t>
+  </si>
+  <si>
+    <t>29.01.202624</t>
+  </si>
+  <si>
+    <t>30.01.20261</t>
+  </si>
+  <si>
+    <t>30.01.20262</t>
+  </si>
+  <si>
+    <t>30.01.20263</t>
+  </si>
+  <si>
+    <t>30.01.20264</t>
+  </si>
+  <si>
+    <t>30.01.20265</t>
+  </si>
+  <si>
+    <t>30.01.20266</t>
+  </si>
+  <si>
+    <t>30.01.20267</t>
+  </si>
+  <si>
+    <t>30.01.20268</t>
+  </si>
+  <si>
+    <t>30.01.20269</t>
+  </si>
+  <si>
+    <t>30.01.202610</t>
+  </si>
+  <si>
+    <t>30.01.202611</t>
+  </si>
+  <si>
+    <t>30.01.202612</t>
+  </si>
+  <si>
+    <t>30.01.202613</t>
+  </si>
+  <si>
+    <t>30.01.202614</t>
+  </si>
+  <si>
+    <t>30.01.202615</t>
+  </si>
+  <si>
+    <t>30.01.202616</t>
+  </si>
+  <si>
+    <t>30.01.202617</t>
+  </si>
+  <si>
+    <t>30.01.202618</t>
+  </si>
+  <si>
+    <t>30.01.202619</t>
+  </si>
+  <si>
+    <t>30.01.202620</t>
+  </si>
+  <si>
+    <t>30.01.202621</t>
+  </si>
+  <si>
+    <t>30.01.202622</t>
+  </si>
+  <si>
+    <t>30.01.202623</t>
+  </si>
+  <si>
+    <t>30.01.202624</t>
+  </si>
+  <si>
+    <t>31.01.20261</t>
+  </si>
+  <si>
+    <t>31.01.20262</t>
+  </si>
+  <si>
+    <t>31.01.20263</t>
+  </si>
+  <si>
+    <t>31.01.20264</t>
+  </si>
+  <si>
+    <t>31.01.20265</t>
+  </si>
+  <si>
+    <t>31.01.20266</t>
+  </si>
+  <si>
+    <t>31.01.20267</t>
+  </si>
+  <si>
+    <t>31.01.20268</t>
+  </si>
+  <si>
+    <t>31.01.20269</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.089</v>
+        <v>0.068</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.104</v>
+        <v>0.068</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -1076,34 +1076,34 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0.08500000000000001</v>
+        <v>0.098</v>
       </c>
       <c r="D4">
-        <v>0.062</v>
+        <v>0.152</v>
       </c>
       <c r="E4">
-        <v>0.075</v>
+        <v>0.354</v>
       </c>
       <c r="F4">
-        <v>0.016</v>
+        <v>0.301</v>
       </c>
       <c r="G4">
-        <v>0.025</v>
+        <v>0.302</v>
       </c>
       <c r="H4">
-        <v>0.019</v>
+        <v>0.121</v>
       </c>
       <c r="I4">
-        <v>0.058</v>
+        <v>0.174</v>
       </c>
       <c r="J4">
-        <v>0.051</v>
+        <v>0.218</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -1114,34 +1114,34 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.012</v>
+        <v>0.372</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.369</v>
       </c>
       <c r="E5">
-        <v>0.025</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.359</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.268</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.599</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.187</v>
       </c>
       <c r="J5">
-        <v>0.045</v>
+        <v>0.597</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -1152,34 +1152,34 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.513</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.624</v>
       </c>
       <c r="E6">
-        <v>0.199</v>
+        <v>0.45</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.468</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.711</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J6">
-        <v>0.031</v>
+        <v>0.772</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -1190,34 +1190,34 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.919</v>
       </c>
       <c r="E7">
-        <v>0.194</v>
+        <v>0.386</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.456</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.751</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.779</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.219</v>
       </c>
       <c r="J7">
-        <v>0.031</v>
+        <v>0.87</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
@@ -1228,34 +1228,34 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.839</v>
       </c>
       <c r="E8">
-        <v>0.199</v>
+        <v>0.373</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.741</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.783</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J8">
-        <v>0.031</v>
+        <v>0.805</v>
       </c>
       <c r="Q8" t="s">
         <v>24</v>
@@ -1266,34 +1266,34 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.594</v>
       </c>
       <c r="E9">
-        <v>0.212</v>
+        <v>0.264</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.315</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.267</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.664</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J9">
-        <v>0.031</v>
+        <v>0.731</v>
       </c>
       <c r="Q9" t="s">
         <v>25</v>
@@ -1304,34 +1304,34 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.359</v>
       </c>
       <c r="E10">
-        <v>0.185</v>
+        <v>0.13</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.163</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.208</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.326</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.074</v>
       </c>
       <c r="J10">
-        <v>0.031</v>
+        <v>0.38</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
@@ -1342,34 +1342,34 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.081</v>
       </c>
       <c r="E11">
-        <v>0.185</v>
+        <v>0.032</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="J11">
-        <v>0.031</v>
+        <v>0.056</v>
       </c>
       <c r="Q11" t="s">
         <v>27</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q12" t="s">
         <v>28</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q13" t="s">
         <v>29</v>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q14" t="s">
         <v>30</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q15" t="s">
         <v>31</v>
@@ -1532,10 +1532,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q16" t="s">
         <v>32</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q17" t="s">
         <v>33</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1646,10 +1646,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1722,34 +1722,34 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.051</v>
+        <v>0.032</v>
       </c>
       <c r="Q21" t="s">
         <v>37</v>
@@ -1760,34 +1760,34 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.164</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.232</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.203</v>
+        <v>0.032</v>
       </c>
       <c r="Q22" t="s">
         <v>38</v>
@@ -1798,34 +1798,34 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.343</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.295</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.679</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.348</v>
+        <v>0.032</v>
       </c>
       <c r="Q23" t="s">
         <v>39</v>
@@ -1836,34 +1836,34 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>0.497</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.543</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.549</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.362</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.377</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0.796</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.472</v>
+        <v>0.032</v>
       </c>
       <c r="Q24" t="s">
         <v>40</v>
@@ -1874,34 +1874,34 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>0.544</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.595</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.348</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.331</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.867</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.198</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.585</v>
+        <v>0.032</v>
       </c>
       <c r="Q25" t="s">
         <v>41</v>
@@ -1912,34 +1912,34 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>0.556</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0.606</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.572</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.319</v>
+        <v>0.019</v>
       </c>
       <c r="G26">
-        <v>0.347</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.8070000000000001</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.5610000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="Q26" t="s">
         <v>42</v>
@@ -1950,34 +1950,34 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>0.403</v>
+        <v>0.05</v>
       </c>
       <c r="D27">
-        <v>0.488</v>
+        <v>0.051</v>
       </c>
       <c r="E27">
-        <v>0.475</v>
+        <v>0.018</v>
       </c>
       <c r="F27">
-        <v>0.194</v>
+        <v>0.09</v>
       </c>
       <c r="G27">
-        <v>0.237</v>
+        <v>0.104</v>
       </c>
       <c r="H27">
-        <v>0.6929999999999999</v>
+        <v>0.123</v>
       </c>
       <c r="I27">
-        <v>0.136</v>
+        <v>0.083</v>
       </c>
       <c r="J27">
-        <v>0.446</v>
+        <v>0.06</v>
       </c>
       <c r="Q27" t="s">
         <v>43</v>
@@ -1988,34 +1988,34 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>0.207</v>
+        <v>0.28</v>
       </c>
       <c r="D28">
-        <v>0.275</v>
+        <v>0.335</v>
       </c>
       <c r="E28">
-        <v>0.28</v>
+        <v>0.178</v>
       </c>
       <c r="F28">
-        <v>0.103</v>
+        <v>0.282</v>
       </c>
       <c r="G28">
-        <v>0.104</v>
+        <v>0.254</v>
       </c>
       <c r="H28">
-        <v>0.24</v>
+        <v>0.639</v>
       </c>
       <c r="I28">
-        <v>0.068</v>
+        <v>0.251</v>
       </c>
       <c r="J28">
-        <v>0.288</v>
+        <v>0.37</v>
       </c>
       <c r="Q28" t="s">
         <v>44</v>
@@ -2026,34 +2026,34 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>0.046</v>
+        <v>0.405</v>
       </c>
       <c r="D29">
-        <v>0.066</v>
+        <v>0.581</v>
       </c>
       <c r="E29">
-        <v>0.077</v>
+        <v>0.356</v>
       </c>
       <c r="F29">
-        <v>0.032</v>
+        <v>0.352</v>
       </c>
       <c r="G29">
-        <v>0.046</v>
+        <v>0.292</v>
       </c>
       <c r="H29">
-        <v>0.053</v>
+        <v>0.756</v>
       </c>
       <c r="I29">
-        <v>0.021</v>
+        <v>0.473</v>
       </c>
       <c r="J29">
-        <v>0.053</v>
+        <v>0.822</v>
       </c>
       <c r="Q29" t="s">
         <v>45</v>
@@ -2064,34 +2064,34 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.874</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1.044</v>
       </c>
       <c r="E30">
-        <v>0.011</v>
+        <v>0.447</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.488</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.754</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.949</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.517</v>
       </c>
       <c r="J30">
-        <v>0.031</v>
+        <v>0.87</v>
       </c>
       <c r="Q30" t="s">
         <v>46</v>
@@ -2102,34 +2102,34 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1.047</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1.441</v>
       </c>
       <c r="E31">
-        <v>0.012</v>
+        <v>0.449</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.953</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.659</v>
       </c>
       <c r="J31">
-        <v>0.031</v>
+        <v>0.837</v>
       </c>
       <c r="Q31" t="s">
         <v>47</v>
@@ -2140,34 +2140,34 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1.006</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1.261</v>
       </c>
       <c r="E32">
-        <v>0.201</v>
+        <v>0.404</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>0.535</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.729</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>0.826</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.608</v>
       </c>
       <c r="J32">
-        <v>0.031</v>
+        <v>0.805</v>
       </c>
       <c r="Q32" t="s">
         <v>48</v>
@@ -2178,34 +2178,34 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.473</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E33">
-        <v>0.201</v>
+        <v>0.327</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.392</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>0.834</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.516</v>
       </c>
       <c r="J33">
-        <v>0.031</v>
+        <v>0.731</v>
       </c>
       <c r="Q33" t="s">
         <v>49</v>
@@ -2216,34 +2216,34 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.349</v>
       </c>
       <c r="E34">
-        <v>0.201</v>
+        <v>0.179</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.176</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.264</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.256</v>
       </c>
       <c r="J34">
-        <v>0.031</v>
+        <v>0.297</v>
       </c>
       <c r="Q34" t="s">
         <v>50</v>
@@ -2254,34 +2254,34 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B35">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="E35">
-        <v>0.201</v>
+        <v>0.031</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="J35">
-        <v>0.031</v>
+        <v>0.053</v>
       </c>
       <c r="Q35" t="s">
         <v>51</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="2">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q36" t="s">
         <v>52</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="2">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q37" t="s">
         <v>53</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="2">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.03</v>
+        <v>0.012</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q38" t="s">
         <v>54</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="2">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.03</v>
+        <v>0.012</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q39" t="s">
         <v>55</v>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="2">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.034</v>
+        <v>0.012</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q40" t="s">
         <v>56</v>
@@ -2482,10 +2482,10 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="2">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.034</v>
+        <v>0.012</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q41" t="s">
         <v>57</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2634,34 +2634,34 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0.151</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.156</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0.06</v>
+        <v>0.032</v>
       </c>
       <c r="Q45" t="s">
         <v>61</v>
@@ -2672,34 +2672,34 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0.219</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0.331</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0.336</v>
+        <v>0.032</v>
       </c>
       <c r="Q46" t="s">
         <v>62</v>
@@ -2710,34 +2710,34 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>0.365</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.351</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.282</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.312</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0.629</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0.597</v>
+        <v>0.032</v>
       </c>
       <c r="Q47" t="s">
         <v>63</v>
@@ -2748,34 +2748,34 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>0.492</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0.618</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0.424</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.378</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.294</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0.761</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0.856</v>
+        <v>0.032</v>
       </c>
       <c r="Q48" t="s">
         <v>64</v>
@@ -2786,34 +2786,34 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>0.895</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0.945</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.387</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0.376</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0.761</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0.87</v>
+        <v>0.032</v>
       </c>
       <c r="Q49" t="s">
         <v>65</v>
@@ -2824,34 +2824,34 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>0.843</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0.9340000000000001</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0.421</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.359</v>
+        <v>0.019</v>
       </c>
       <c r="G50">
-        <v>0.396</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0.743</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0.84</v>
+        <v>0.032</v>
       </c>
       <c r="Q50" t="s">
         <v>66</v>
@@ -2862,34 +2862,34 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>0.428</v>
+        <v>0.017</v>
       </c>
       <c r="D51">
-        <v>0.604</v>
+        <v>0.023</v>
       </c>
       <c r="E51">
-        <v>0.379</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.248</v>
+        <v>0.082</v>
       </c>
       <c r="G51">
-        <v>0.298</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H51">
-        <v>0.719</v>
+        <v>0.06</v>
       </c>
       <c r="I51">
-        <v>0.143</v>
+        <v>0.042</v>
       </c>
       <c r="J51">
-        <v>0.767</v>
+        <v>0.051</v>
       </c>
       <c r="Q51" t="s">
         <v>67</v>
@@ -2900,34 +2900,34 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>0.258</v>
+        <v>0.109</v>
       </c>
       <c r="D52">
-        <v>0.374</v>
+        <v>0.145</v>
       </c>
       <c r="E52">
-        <v>0.192</v>
+        <v>0.11</v>
       </c>
       <c r="F52">
-        <v>0.121</v>
+        <v>0.234</v>
       </c>
       <c r="G52">
-        <v>0.112</v>
+        <v>0.187</v>
       </c>
       <c r="H52">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I52">
-        <v>0.064</v>
+        <v>0.098</v>
       </c>
       <c r="J52">
-        <v>0.337</v>
+        <v>0.152</v>
       </c>
       <c r="Q52" t="s">
         <v>68</v>
@@ -2938,34 +2938,34 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>0.067</v>
+        <v>0.269</v>
       </c>
       <c r="D53">
-        <v>0.082</v>
+        <v>0.342</v>
       </c>
       <c r="E53">
-        <v>0.045</v>
+        <v>0.249</v>
       </c>
       <c r="F53">
-        <v>0.024</v>
+        <v>0.447</v>
       </c>
       <c r="G53">
-        <v>0.04</v>
+        <v>0.363</v>
       </c>
       <c r="H53">
-        <v>0.043</v>
+        <v>0.662</v>
       </c>
       <c r="I53">
-        <v>0.012</v>
+        <v>0.136</v>
       </c>
       <c r="J53">
-        <v>0.056</v>
+        <v>0.292</v>
       </c>
       <c r="Q53" t="s">
         <v>69</v>
@@ -2976,34 +2976,34 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.405</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.436</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.303</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>0.548</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="J54">
-        <v>0.031</v>
+        <v>0.348</v>
       </c>
       <c r="Q54" t="s">
         <v>70</v>
@@ -3014,34 +3014,34 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.411</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.522</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.511</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="J55">
-        <v>0.031</v>
+        <v>0.334</v>
       </c>
       <c r="Q55" t="s">
         <v>71</v>
@@ -3052,34 +3052,34 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.413</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.503</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>0.501</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>0.586</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1.123</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="J56">
-        <v>0.031</v>
+        <v>0.28</v>
       </c>
       <c r="Q56" t="s">
         <v>72</v>
@@ -3090,34 +3090,34 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.329</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.186</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.339</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>0.418</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>0.098</v>
       </c>
       <c r="J57">
-        <v>0.031</v>
+        <v>0.208</v>
       </c>
       <c r="Q57" t="s">
         <v>73</v>
@@ -3128,34 +3128,34 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.159</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>0.292</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="J58">
-        <v>0.031</v>
+        <v>0.073</v>
       </c>
       <c r="Q58" t="s">
         <v>74</v>
@@ -3166,34 +3166,34 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B59">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.031</v>
+        <v>0.026</v>
       </c>
       <c r="Q59" t="s">
         <v>75</v>
@@ -3204,10 +3204,10 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="2">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="Q60" t="s">
         <v>76</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="2">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="Q61" t="s">
         <v>77</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="2">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="Q62" t="s">
         <v>78</v>
@@ -3318,10 +3318,10 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="Q63" t="s">
         <v>79</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="2">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q64" t="s">
         <v>80</v>
@@ -3394,10 +3394,10 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="2">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q65" t="s">
         <v>81</v>
@@ -3432,10 +3432,10 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q67" t="s">
         <v>83</v>
@@ -3508,10 +3508,10 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q68" t="s">
         <v>84</v>
@@ -3546,34 +3546,34 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.119</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0.073</v>
+        <v>0.014</v>
       </c>
       <c r="Q69" t="s">
         <v>85</v>
@@ -3584,34 +3584,34 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>0.292</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0.251</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0.314</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>0.423</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0.413</v>
+        <v>0.014</v>
       </c>
       <c r="Q70" t="s">
         <v>86</v>
@@ -3622,34 +3622,34 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>0.758</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0.893</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0.451</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.383</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.343</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0.717</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0.532</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>0.8179999999999999</v>
+        <v>0.014</v>
       </c>
       <c r="Q71" t="s">
         <v>87</v>
@@ -3660,34 +3660,34 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>1.075</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>1.198</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0.609</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.437</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.489</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>0.779</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0.631</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0.867</v>
+        <v>0.014</v>
       </c>
       <c r="Q72" t="s">
         <v>88</v>
@@ -3698,34 +3698,34 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>1.349</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>1.626</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>0.581</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.497</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>0.836</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0.571</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>0.87</v>
+        <v>0.014</v>
       </c>
       <c r="Q73" t="s">
         <v>89</v>
@@ -3736,34 +3736,34 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>1.203</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0.511</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.463</v>
+        <v>0.019</v>
       </c>
       <c r="G74">
-        <v>0.345</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>0.768</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0.541</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0.768</v>
+        <v>0.014</v>
       </c>
       <c r="Q74" t="s">
         <v>90</v>
@@ -3774,34 +3774,34 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>0.788</v>
+        <v>0.02</v>
       </c>
       <c r="D75">
-        <v>0.727</v>
+        <v>0.023</v>
       </c>
       <c r="E75">
-        <v>0.4</v>
+        <v>0.014</v>
       </c>
       <c r="F75">
-        <v>0.327</v>
+        <v>0.082</v>
       </c>
       <c r="G75">
-        <v>0.401</v>
+        <v>0.095</v>
       </c>
       <c r="H75">
-        <v>0.579</v>
+        <v>0.053</v>
       </c>
       <c r="I75">
-        <v>0.357</v>
+        <v>0.042</v>
       </c>
       <c r="J75">
-        <v>0.524</v>
+        <v>0.038</v>
       </c>
       <c r="Q75" t="s">
         <v>91</v>
@@ -3812,34 +3812,34 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>0.273</v>
+        <v>0.107</v>
       </c>
       <c r="D76">
-        <v>0.378</v>
+        <v>0.099</v>
       </c>
       <c r="E76">
-        <v>0.198</v>
+        <v>0.13</v>
       </c>
       <c r="F76">
-        <v>0.149</v>
+        <v>0.178</v>
       </c>
       <c r="G76">
-        <v>0.161</v>
+        <v>0.148</v>
       </c>
       <c r="H76">
-        <v>0.292</v>
+        <v>0.217</v>
       </c>
       <c r="I76">
-        <v>0.183</v>
+        <v>0.102</v>
       </c>
       <c r="J76">
-        <v>0.288</v>
+        <v>0.059</v>
       </c>
       <c r="Q76" t="s">
         <v>92</v>
@@ -3850,34 +3850,34 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>0.051</v>
+        <v>0.181</v>
       </c>
       <c r="D77">
-        <v>0.083</v>
+        <v>0.208</v>
       </c>
       <c r="E77">
-        <v>0.027</v>
+        <v>0.301</v>
       </c>
       <c r="F77">
-        <v>0.035</v>
+        <v>0.279</v>
       </c>
       <c r="G77">
-        <v>0.055</v>
+        <v>0.255</v>
       </c>
       <c r="H77">
-        <v>0.06</v>
+        <v>0.706</v>
       </c>
       <c r="I77">
-        <v>0.034</v>
+        <v>0.178</v>
       </c>
       <c r="J77">
-        <v>0.045</v>
+        <v>0.205</v>
       </c>
       <c r="Q77" t="s">
         <v>93</v>
@@ -3888,34 +3888,34 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.312</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>0.307</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.474</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.294</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>0.758</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>0.198</v>
       </c>
       <c r="J78">
-        <v>0.031</v>
+        <v>0.285</v>
       </c>
       <c r="Q78" t="s">
         <v>94</v>
@@ -3926,34 +3926,34 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.394</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.446</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.572</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.395</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>0.377</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>0.797</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="J79">
-        <v>0.031</v>
+        <v>0.285</v>
       </c>
       <c r="Q79" t="s">
         <v>95</v>
@@ -3964,34 +3964,34 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.366</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.445</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.321</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>0.364</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>0.742</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="J80">
-        <v>0.031</v>
+        <v>0.208</v>
       </c>
       <c r="Q80" t="s">
         <v>96</v>
@@ -4002,34 +4002,34 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.231</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.343</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.496</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.223</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>0.247</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>0.603</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J81">
-        <v>0.031</v>
+        <v>0.142</v>
       </c>
       <c r="Q81" t="s">
         <v>97</v>
@@ -4040,34 +4040,34 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.196</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.321</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.135</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.117</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="J82">
-        <v>0.031</v>
+        <v>0.062</v>
       </c>
       <c r="Q82" t="s">
         <v>98</v>
@@ -4078,34 +4078,34 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B83">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.117</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.031</v>
+        <v>0.045</v>
       </c>
       <c r="Q83" t="s">
         <v>99</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="2">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q84" t="s">
         <v>100</v>
@@ -4154,10 +4154,10 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="2">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q85" t="s">
         <v>101</v>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="2">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q86" t="s">
         <v>102</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="2">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q87" t="s">
         <v>103</v>
@@ -4268,10 +4268,10 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="2">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q88" t="s">
         <v>104</v>
@@ -4306,10 +4306,10 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="2">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q89" t="s">
         <v>105</v>
@@ -4344,10 +4344,10 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -4382,10 +4382,10 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -4420,10 +4420,10 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4458,34 +4458,34 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>0.051</v>
+        <v>0.032</v>
       </c>
       <c r="Q93" t="s">
         <v>109</v>
@@ -4496,34 +4496,34 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>0.096</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.235</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>0.163</v>
+        <v>0.032</v>
       </c>
       <c r="Q94" t="s">
         <v>110</v>
@@ -4534,34 +4534,34 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0.364</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>0.247</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.379</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0.395</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>0.725</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0.298</v>
+        <v>0.032</v>
       </c>
       <c r="Q95" t="s">
         <v>111</v>
@@ -4572,34 +4572,34 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>0.389</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>0.537</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>0.357</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.313</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0.435</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>0.826</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0.394</v>
+        <v>0.032</v>
       </c>
       <c r="Q96" t="s">
         <v>112</v>
@@ -4610,34 +4610,34 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>0.492</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>0.641</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>0.394</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.368</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0.397</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0.423</v>
+        <v>0.032</v>
       </c>
       <c r="Q97" t="s">
         <v>113</v>
@@ -4648,34 +4648,34 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>0.412</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>0.588</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.354</v>
+        <v>0.031</v>
       </c>
       <c r="G98">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>0.879</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0.153</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0.337</v>
+        <v>0.032</v>
       </c>
       <c r="Q98" t="s">
         <v>114</v>
@@ -4686,34 +4686,34 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>0.278</v>
+        <v>0.028</v>
       </c>
       <c r="D99">
-        <v>0.445</v>
+        <v>0.043</v>
       </c>
       <c r="E99">
-        <v>0.257</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="F99">
-        <v>0.248</v>
+        <v>0.359</v>
       </c>
       <c r="G99">
-        <v>0.193</v>
+        <v>0.276</v>
       </c>
       <c r="H99">
-        <v>0.474</v>
+        <v>0.211</v>
       </c>
       <c r="I99">
-        <v>0.098</v>
+        <v>0.093</v>
       </c>
       <c r="J99">
-        <v>0.274</v>
+        <v>0.073</v>
       </c>
       <c r="Q99" t="s">
         <v>115</v>
@@ -4724,34 +4724,34 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B100">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>0.116</v>
+        <v>0.132</v>
       </c>
       <c r="D100">
-        <v>0.236</v>
+        <v>0.25</v>
       </c>
       <c r="E100">
-        <v>0.157</v>
+        <v>0.37</v>
       </c>
       <c r="F100">
-        <v>0.105</v>
+        <v>1.031</v>
       </c>
       <c r="G100">
-        <v>0.103</v>
+        <v>0.833</v>
       </c>
       <c r="H100">
-        <v>0.118</v>
+        <v>0.799</v>
       </c>
       <c r="I100">
-        <v>0.058</v>
+        <v>0.264</v>
       </c>
       <c r="J100">
-        <v>0.143</v>
+        <v>0.413</v>
       </c>
       <c r="Q100" t="s">
         <v>116</v>
@@ -4762,34 +4762,34 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B101">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>0.036</v>
+        <v>0.424</v>
       </c>
       <c r="D101">
-        <v>0.066</v>
+        <v>0.471</v>
       </c>
       <c r="E101">
-        <v>0.062</v>
+        <v>0.786</v>
       </c>
       <c r="F101">
-        <v>0.027</v>
+        <v>1.589</v>
       </c>
       <c r="G101">
-        <v>0.04</v>
+        <v>1.795</v>
       </c>
       <c r="H101">
-        <v>0.019</v>
+        <v>0.867</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>0.541</v>
       </c>
       <c r="J101">
-        <v>0.026</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="Q101" t="s">
         <v>117</v>
@@ -4800,34 +4800,34 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>0.732</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.854</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1.704</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>2.254</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1.138</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>0.783</v>
       </c>
       <c r="J102">
-        <v>0.013</v>
+        <v>0.84</v>
       </c>
       <c r="Q102" t="s">
         <v>118</v>
@@ -4838,34 +4838,34 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1.083</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1.697</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2.641</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1.129</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1.049</v>
       </c>
       <c r="J103">
-        <v>0.013</v>
+        <v>0.84</v>
       </c>
       <c r="Q103" t="s">
         <v>119</v>
@@ -4876,34 +4876,34 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.769</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1.101</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.859</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1.679</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>2.341</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1.133</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1.049</v>
       </c>
       <c r="J104">
-        <v>0.013</v>
+        <v>0.805</v>
       </c>
       <c r="Q104" t="s">
         <v>120</v>
@@ -4914,34 +4914,34 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B105">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>0.799</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.629</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1.083</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1.749</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>0.868</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>0.648</v>
       </c>
       <c r="J105">
-        <v>0.013</v>
+        <v>0.731</v>
       </c>
       <c r="Q105" t="s">
         <v>121</v>
@@ -4952,34 +4952,34 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B106">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.412</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.514</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>0.785</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>0.448</v>
       </c>
       <c r="J106">
-        <v>0.031</v>
+        <v>0.345</v>
       </c>
       <c r="Q106" t="s">
         <v>122</v>
@@ -4990,34 +4990,34 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="2">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B107">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.147</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>0.135</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>0.184</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="J107">
-        <v>0.031</v>
+        <v>0.053</v>
       </c>
       <c r="Q107" t="s">
         <v>123</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="2">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q108" t="s">
         <v>124</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="2">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q109" t="s">
         <v>125</v>
@@ -5104,10 +5104,10 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="2">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q110" t="s">
         <v>126</v>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="2">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q111" t="s">
         <v>127</v>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="2">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q112" t="s">
         <v>128</v>
@@ -5218,10 +5218,10 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="2">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q113" t="s">
         <v>129</v>
@@ -5256,10 +5256,10 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -5294,10 +5294,10 @@
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -5332,10 +5332,10 @@
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5370,34 +5370,34 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>0.051</v>
+        <v>0.032</v>
       </c>
       <c r="Q117" t="s">
         <v>133</v>
@@ -5408,34 +5408,34 @@
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>0.134</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>0.201</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>0.245</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>0.256</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>0.217</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>0.152</v>
+        <v>0.032</v>
       </c>
       <c r="Q118" t="s">
         <v>134</v>
@@ -5446,34 +5446,34 @@
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>0.463</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.393</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>0.307</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>0.675</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>0.177</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>0.292</v>
+        <v>0.032</v>
       </c>
       <c r="Q119" t="s">
         <v>135</v>
@@ -5484,34 +5484,34 @@
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B120">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>0.374</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>0.545</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>0.641</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.481</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>0.758</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>0.348</v>
+        <v>0.032</v>
       </c>
       <c r="Q120" t="s">
         <v>136</v>
@@ -5522,34 +5522,34 @@
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>0.491</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>0.646</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>0.802</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.394</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>0.355</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>0.758</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>0.336</v>
+        <v>0.032</v>
       </c>
       <c r="Q121" t="s">
         <v>137</v>
@@ -5560,34 +5560,34 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B122">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>0.444</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>0.593</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>0.751</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.263</v>
+        <v>0.024</v>
       </c>
       <c r="G122">
-        <v>0.289</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>0.729</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="J122">
-        <v>0.292</v>
+        <v>0.032</v>
       </c>
       <c r="Q122" t="s">
         <v>138</v>
@@ -5598,34 +5598,34 @@
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>0.278</v>
+        <v>0.068</v>
       </c>
       <c r="D123">
-        <v>0.396</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E123">
-        <v>0.635</v>
+        <v>0.078</v>
       </c>
       <c r="F123">
-        <v>0.179</v>
+        <v>0.301</v>
       </c>
       <c r="G123">
-        <v>0.153</v>
+        <v>0.236</v>
       </c>
       <c r="H123">
-        <v>0.498</v>
+        <v>0.118</v>
       </c>
       <c r="I123">
-        <v>0.136</v>
+        <v>0.058</v>
       </c>
       <c r="J123">
-        <v>0.211</v>
+        <v>0.046</v>
       </c>
       <c r="Q123" t="s">
         <v>139</v>
@@ -5636,34 +5636,34 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B124">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C124">
-        <v>0.117</v>
+        <v>0.382</v>
       </c>
       <c r="D124">
-        <v>0.225</v>
+        <v>0.412</v>
       </c>
       <c r="E124">
-        <v>0.402</v>
+        <v>0.365</v>
       </c>
       <c r="F124">
-        <v>0.08599999999999999</v>
+        <v>0.911</v>
       </c>
       <c r="G124">
-        <v>0.103</v>
+        <v>0.546</v>
       </c>
       <c r="H124">
-        <v>0.123</v>
+        <v>0.789</v>
       </c>
       <c r="I124">
-        <v>0.058</v>
+        <v>0.227</v>
       </c>
       <c r="J124">
-        <v>0.062</v>
+        <v>0.322</v>
       </c>
       <c r="Q124" t="s">
         <v>140</v>
@@ -5674,34 +5674,34 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>0.037</v>
+        <v>0.576</v>
       </c>
       <c r="D125">
-        <v>0.067</v>
+        <v>0.859</v>
       </c>
       <c r="E125">
-        <v>0.08799999999999999</v>
+        <v>0.589</v>
       </c>
       <c r="F125">
-        <v>0.021</v>
+        <v>1.127</v>
       </c>
       <c r="G125">
-        <v>0.025</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="H125">
-        <v>0.023</v>
+        <v>0.879</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>0.432</v>
       </c>
       <c r="J125">
-        <v>0.045</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="Q125" t="s">
         <v>141</v>
@@ -5712,34 +5712,34 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>0.878</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1.134</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.762</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1.307</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>1.581</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1.045</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="J126">
-        <v>0.031</v>
+        <v>0.78</v>
       </c>
       <c r="Q126" t="s">
         <v>142</v>
@@ -5750,34 +5750,34 @@
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B127">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>0.872</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1.112</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.835</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1.373</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1.603</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1.136</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1.049</v>
       </c>
       <c r="J127">
-        <v>0.031</v>
+        <v>0.78</v>
       </c>
       <c r="Q127" t="s">
         <v>143</v>
@@ -5788,34 +5788,34 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B128">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>0.603</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>0.895</v>
       </c>
       <c r="E128">
-        <v>0.194</v>
+        <v>0.888</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1.166</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>1.679</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1.033</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1.049</v>
       </c>
       <c r="J128">
-        <v>0.031</v>
+        <v>0.548</v>
       </c>
       <c r="Q128" t="s">
         <v>144</v>
@@ -5826,34 +5826,34 @@
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B129">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>0.391</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>0.623</v>
       </c>
       <c r="E129">
-        <v>0.215</v>
+        <v>0.666</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>0.795</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>0.796</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>0.768</v>
       </c>
       <c r="J129">
-        <v>0.031</v>
+        <v>0.411</v>
       </c>
       <c r="Q129" t="s">
         <v>145</v>
@@ -5864,34 +5864,34 @@
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B130">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>0.227</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>0.344</v>
       </c>
       <c r="E130">
-        <v>0.207</v>
+        <v>0.424</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>0.456</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>0.849</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>0.397</v>
       </c>
       <c r="J130">
-        <v>0.031</v>
+        <v>0.263</v>
       </c>
       <c r="Q130" t="s">
         <v>146</v>
@@ -5902,34 +5902,34 @@
     </row>
     <row r="131" spans="1:18">
       <c r="A131" s="2">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B131">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>0.081</v>
       </c>
       <c r="E131">
-        <v>0.209</v>
+        <v>0.135</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>0.081</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="J131">
-        <v>0.031</v>
+        <v>0.035</v>
       </c>
       <c r="Q131" t="s">
         <v>147</v>
@@ -5940,10 +5940,10 @@
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="2">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="Q132" t="s">
         <v>148</v>
@@ -5978,10 +5978,10 @@
     </row>
     <row r="133" spans="1:18">
       <c r="A133" s="2">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="Q133" t="s">
         <v>149</v>
@@ -6016,10 +6016,10 @@
     </row>
     <row r="134" spans="1:18">
       <c r="A134" s="2">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="Q134" t="s">
         <v>150</v>
@@ -6054,10 +6054,10 @@
     </row>
     <row r="135" spans="1:18">
       <c r="A135" s="2">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q135" t="s">
         <v>151</v>
@@ -6092,10 +6092,10 @@
     </row>
     <row r="136" spans="1:18">
       <c r="A136" s="2">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q136" t="s">
         <v>152</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137" s="2">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0.02</v>
+        <v>0.222</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q137" t="s">
         <v>153</v>
@@ -6168,10 +6168,10 @@
     </row>
     <row r="138" spans="1:18">
       <c r="A138" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -6206,10 +6206,10 @@
     </row>
     <row r="139" spans="1:18">
       <c r="A139" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -6244,10 +6244,10 @@
     </row>
     <row r="140" spans="1:18">
       <c r="A140" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -6256,10 +6256,10 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>0.101</v>
+        <v>0.016</v>
       </c>
       <c r="F140">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -6282,34 +6282,34 @@
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>0.239</v>
+        <v>0.016</v>
       </c>
       <c r="F141">
-        <v>0.348</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>0.238</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>0.06</v>
+        <v>0.032</v>
       </c>
       <c r="Q141" t="s">
         <v>157</v>
@@ -6320,34 +6320,34 @@
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B142">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>0.227</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>0.658</v>
+        <v>0.016</v>
       </c>
       <c r="F142">
-        <v>0.949</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>0.533</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>0.6870000000000001</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0.315</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>0.348</v>
+        <v>0.032</v>
       </c>
       <c r="Q142" t="s">
         <v>158</v>
@@ -6358,34 +6358,34 @@
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B143">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>0.624</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>1.346</v>
+        <v>0.016</v>
       </c>
       <c r="F143">
-        <v>1.206</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0.541</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>0.647</v>
+        <v>0.032</v>
       </c>
       <c r="Q143" t="s">
         <v>159</v>
@@ -6396,34 +6396,34 @@
     </row>
     <row r="144" spans="1:18">
       <c r="A144" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B144">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C144">
-        <v>0.751</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>0.996</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>1.47</v>
+        <v>0.017</v>
       </c>
       <c r="F144">
-        <v>1.551</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>2.147</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0.711</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>0.848</v>
+        <v>0.032</v>
       </c>
       <c r="Q144" t="s">
         <v>160</v>
@@ -6434,34 +6434,34 @@
     </row>
     <row r="145" spans="1:18">
       <c r="A145" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B145">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C145">
-        <v>0.946</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>1.538</v>
+        <v>0.017</v>
       </c>
       <c r="F145">
-        <v>1.669</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>2.328</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>1.143</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0.835</v>
+        <v>0</v>
       </c>
       <c r="J145">
-        <v>0.87</v>
+        <v>0.032</v>
       </c>
       <c r="Q145" t="s">
         <v>161</v>
@@ -6472,34 +6472,34 @@
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B146">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C146">
-        <v>0.828</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>1.043</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>1.155</v>
+        <v>0.083</v>
       </c>
       <c r="F146">
-        <v>1.669</v>
+        <v>0.02</v>
       </c>
       <c r="G146">
-        <v>2.086</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>1.148</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>0.705</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>0.851</v>
+        <v>0.032</v>
       </c>
       <c r="Q146" t="s">
         <v>162</v>
@@ -6510,34 +6510,34 @@
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B147">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>0.506</v>
+        <v>0.048</v>
       </c>
       <c r="D147">
-        <v>0.748</v>
+        <v>0.043</v>
       </c>
       <c r="E147">
-        <v>0.958</v>
+        <v>0.192</v>
       </c>
       <c r="F147">
-        <v>1.182</v>
+        <v>0.16</v>
       </c>
       <c r="G147">
-        <v>1.616</v>
+        <v>0.111</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0.083</v>
       </c>
       <c r="I147">
-        <v>0.588</v>
+        <v>0.064</v>
       </c>
       <c r="J147">
-        <v>0.778</v>
+        <v>0.06</v>
       </c>
       <c r="Q147" t="s">
         <v>163</v>
@@ -6548,34 +6548,34 @@
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B148">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C148">
-        <v>0.254</v>
+        <v>0.261</v>
       </c>
       <c r="D148">
-        <v>0.385</v>
+        <v>0.298</v>
       </c>
       <c r="E148">
-        <v>0.553</v>
+        <v>0.622</v>
       </c>
       <c r="F148">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
       <c r="G148">
-        <v>0.649</v>
+        <v>0.371</v>
       </c>
       <c r="H148">
-        <v>0.79</v>
+        <v>0.407</v>
       </c>
       <c r="I148">
-        <v>0.32</v>
+        <v>0.201</v>
       </c>
       <c r="J148">
-        <v>0.38</v>
+        <v>0.348</v>
       </c>
       <c r="Q148" t="s">
         <v>164</v>
@@ -6586,34 +6586,34 @@
     </row>
     <row r="149" spans="1:18">
       <c r="A149" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B149">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C149">
-        <v>0.055</v>
+        <v>0.498</v>
       </c>
       <c r="D149">
-        <v>0.083</v>
+        <v>0.605</v>
       </c>
       <c r="E149">
-        <v>0.189</v>
+        <v>1.049</v>
       </c>
       <c r="F149">
-        <v>0.132</v>
+        <v>0.774</v>
       </c>
       <c r="G149">
-        <v>0.138</v>
+        <v>0.572</v>
       </c>
       <c r="H149">
-        <v>0.19</v>
+        <v>0.802</v>
       </c>
       <c r="I149">
-        <v>0.064</v>
+        <v>0.437</v>
       </c>
       <c r="J149">
-        <v>0.07099999999999999</v>
+        <v>0.609</v>
       </c>
       <c r="Q149" t="s">
         <v>165</v>
@@ -6624,34 +6624,34 @@
     </row>
     <row r="150" spans="1:18">
       <c r="A150" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B150">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>0.885</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1.434</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>0.868</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>0.877</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>0.536</v>
       </c>
       <c r="J150">
-        <v>0.031</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q150" t="s">
         <v>166</v>
@@ -6662,34 +6662,34 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>0.972</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>1.106</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.975</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>0.967</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>0.894</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>0.536</v>
       </c>
       <c r="J151">
-        <v>0.031</v>
+        <v>0.848</v>
       </c>
       <c r="Q151" t="s">
         <v>167</v>
@@ -6700,34 +6700,34 @@
     </row>
     <row r="152" spans="1:18">
       <c r="A152" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B152">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>0.906</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1.102</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.986</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>0.801</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>0.866</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>0.437</v>
       </c>
       <c r="J152">
-        <v>0.031</v>
+        <v>0.782</v>
       </c>
       <c r="Q152" t="s">
         <v>168</v>
@@ -6738,34 +6738,34 @@
     </row>
     <row r="153" spans="1:18">
       <c r="A153" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B153">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>0.528</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>0.696</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.901</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>0.633</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>0.786</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>0.208</v>
       </c>
       <c r="J153">
-        <v>0.031</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="Q153" t="s">
         <v>169</v>
@@ -6776,34 +6776,34 @@
     </row>
     <row r="154" spans="1:18">
       <c r="A154" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B154">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>0.302</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>0.399</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.476</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>0.303</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>0.327</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>0.407</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="J154">
-        <v>0.031</v>
+        <v>0.315</v>
       </c>
       <c r="Q154" t="s">
         <v>170</v>
@@ -6814,34 +6814,34 @@
     </row>
     <row r="155" spans="1:18">
       <c r="A155" s="2">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B155">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="J155">
-        <v>0.031</v>
+        <v>0.056</v>
       </c>
       <c r="Q155" t="s">
         <v>171</v>
@@ -6852,10 +6852,10 @@
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="2">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q156" t="s">
         <v>172</v>
@@ -6890,10 +6890,10 @@
     </row>
     <row r="157" spans="1:18">
       <c r="A157" s="2">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.193</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q157" t="s">
         <v>173</v>
@@ -6928,10 +6928,10 @@
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="2">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.212</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q158" t="s">
         <v>174</v>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="159" spans="1:18">
       <c r="A159" s="2">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.195</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q159" t="s">
         <v>175</v>
@@ -7004,10 +7004,10 @@
     </row>
     <row r="160" spans="1:18">
       <c r="A160" s="2">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q160" t="s">
         <v>176</v>
@@ -7042,10 +7042,10 @@
     </row>
     <row r="161" spans="1:18">
       <c r="A161" s="2">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="Q161" t="s">
         <v>177</v>
@@ -7080,10 +7080,10 @@
     </row>
     <row r="162" spans="1:18">
       <c r="A162" s="2">
-        <v>46051</v>
+        <v>46053</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -7118,10 +7118,10 @@
     </row>
     <row r="163" spans="1:18">
       <c r="A163" s="2">
-        <v>46051</v>
+        <v>46053</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7156,10 +7156,10 @@
     </row>
     <row r="164" spans="1:18">
       <c r="A164" s="2">
-        <v>46051</v>
+        <v>46053</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -7168,10 +7168,10 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="F164">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -7194,34 +7194,34 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="2">
-        <v>46051</v>
+        <v>46053</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C165">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>0.033</v>
+        <v>0.023</v>
       </c>
       <c r="F165">
-        <v>0.242</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>0.165</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="J165">
-        <v>0.051</v>
+        <v>0.032</v>
       </c>
       <c r="Q165" t="s">
         <v>181</v>
@@ -7232,34 +7232,34 @@
     </row>
     <row r="166" spans="1:18">
       <c r="A166" s="2">
-        <v>46051</v>
+        <v>46053</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>0.252</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>0.244</v>
+        <v>0.02</v>
       </c>
       <c r="F166">
-        <v>0.579</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>0.351</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>0.656</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="J166">
-        <v>0.292</v>
+        <v>0.032</v>
       </c>
       <c r="Q166" t="s">
         <v>182</v>
@@ -7270,34 +7270,34 @@
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="2">
-        <v>46051</v>
+        <v>46053</v>
       </c>
       <c r="B167">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>0.472</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>0.495</v>
+        <v>0.02</v>
       </c>
       <c r="F167">
-        <v>0.904</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>0.775</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>0.924</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>0.336</v>
+        <v>0</v>
       </c>
       <c r="J167">
-        <v>0.462</v>
+        <v>0.032</v>
       </c>
       <c r="Q167" t="s">
         <v>183</v>
@@ -7308,34 +7308,34 @@
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="2">
-        <v>46051</v>
+        <v>46053</v>
       </c>
       <c r="B168">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C168">
-        <v>0.762</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>0.854</v>
+        <v>0.02</v>
       </c>
       <c r="F168">
-        <v>1.024</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>1.065</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>0.874</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>0.543</v>
+        <v>0</v>
       </c>
       <c r="J168">
-        <v>0.772</v>
+        <v>0.032</v>
       </c>
       <c r="Q168" t="s">
         <v>184</v>
@@ -7346,34 +7346,34 @@
     </row>
     <row r="169" spans="1:18">
       <c r="A169" s="2">
-        <v>46051</v>
+        <v>46053</v>
       </c>
       <c r="B169">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C169">
-        <v>0.867</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>1.088</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>0.953</v>
+        <v>0.02</v>
       </c>
       <c r="F169">
-        <v>1.077</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>1.092</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>0.872</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>0.543</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>0.8100000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="Q169" t="s">
         <v>185</v>
@@ -7384,34 +7384,34 @@
     </row>
     <row r="170" spans="1:18">
       <c r="A170" s="2">
-        <v>46051</v>
+        <v>46053</v>
       </c>
       <c r="B170">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>0.753</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>1.067</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>0.86</v>
+        <v>0.101</v>
       </c>
       <c r="F170">
-        <v>1.04</v>
+        <v>0.025</v>
       </c>
       <c r="G170">
-        <v>1.115</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>0.903</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>0.531</v>
+        <v>0</v>
       </c>
       <c r="J170">
-        <v>0.753</v>
+        <v>0.032</v>
       </c>
       <c r="Q170" t="s">
         <v>186</v>

--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -70,511 +70,511 @@
     <t>Prediction_3D_Steel</t>
   </si>
   <si>
-    <t>24.01.20269</t>
-  </si>
-  <si>
-    <t>24.01.202610</t>
-  </si>
-  <si>
-    <t>24.01.202611</t>
-  </si>
-  <si>
-    <t>24.01.202612</t>
-  </si>
-  <si>
-    <t>24.01.202613</t>
-  </si>
-  <si>
-    <t>24.01.202614</t>
-  </si>
-  <si>
-    <t>24.01.202615</t>
-  </si>
-  <si>
-    <t>24.01.202616</t>
-  </si>
-  <si>
-    <t>24.01.202617</t>
-  </si>
-  <si>
-    <t>24.01.202618</t>
-  </si>
-  <si>
-    <t>24.01.202619</t>
-  </si>
-  <si>
-    <t>24.01.202620</t>
-  </si>
-  <si>
-    <t>24.01.202621</t>
-  </si>
-  <si>
-    <t>24.01.202622</t>
-  </si>
-  <si>
-    <t>24.01.202623</t>
-  </si>
-  <si>
-    <t>24.01.202624</t>
-  </si>
-  <si>
-    <t>25.01.20261</t>
-  </si>
-  <si>
-    <t>25.01.20262</t>
-  </si>
-  <si>
-    <t>25.01.20263</t>
-  </si>
-  <si>
-    <t>25.01.20264</t>
-  </si>
-  <si>
-    <t>25.01.20265</t>
-  </si>
-  <si>
-    <t>25.01.20266</t>
-  </si>
-  <si>
-    <t>25.01.20267</t>
-  </si>
-  <si>
-    <t>25.01.20268</t>
-  </si>
-  <si>
-    <t>25.01.20269</t>
-  </si>
-  <si>
-    <t>25.01.202610</t>
-  </si>
-  <si>
-    <t>25.01.202611</t>
-  </si>
-  <si>
-    <t>25.01.202612</t>
-  </si>
-  <si>
-    <t>25.01.202613</t>
-  </si>
-  <si>
-    <t>25.01.202614</t>
-  </si>
-  <si>
-    <t>25.01.202615</t>
-  </si>
-  <si>
-    <t>25.01.202616</t>
-  </si>
-  <si>
-    <t>25.01.202617</t>
-  </si>
-  <si>
-    <t>25.01.202618</t>
-  </si>
-  <si>
-    <t>25.01.202619</t>
-  </si>
-  <si>
-    <t>25.01.202620</t>
-  </si>
-  <si>
-    <t>25.01.202621</t>
-  </si>
-  <si>
-    <t>25.01.202622</t>
-  </si>
-  <si>
-    <t>25.01.202623</t>
-  </si>
-  <si>
-    <t>25.01.202624</t>
-  </si>
-  <si>
-    <t>26.01.20261</t>
-  </si>
-  <si>
-    <t>26.01.20262</t>
-  </si>
-  <si>
-    <t>26.01.20263</t>
-  </si>
-  <si>
-    <t>26.01.20264</t>
-  </si>
-  <si>
-    <t>26.01.20265</t>
-  </si>
-  <si>
-    <t>26.01.20266</t>
-  </si>
-  <si>
-    <t>26.01.20267</t>
-  </si>
-  <si>
-    <t>26.01.20268</t>
-  </si>
-  <si>
-    <t>26.01.20269</t>
-  </si>
-  <si>
-    <t>26.01.202610</t>
-  </si>
-  <si>
-    <t>26.01.202611</t>
-  </si>
-  <si>
-    <t>26.01.202612</t>
-  </si>
-  <si>
-    <t>26.01.202613</t>
-  </si>
-  <si>
-    <t>26.01.202614</t>
-  </si>
-  <si>
-    <t>26.01.202615</t>
-  </si>
-  <si>
-    <t>26.01.202616</t>
-  </si>
-  <si>
-    <t>26.01.202617</t>
-  </si>
-  <si>
-    <t>26.01.202618</t>
-  </si>
-  <si>
-    <t>26.01.202619</t>
-  </si>
-  <si>
-    <t>26.01.202620</t>
-  </si>
-  <si>
-    <t>26.01.202621</t>
-  </si>
-  <si>
-    <t>26.01.202622</t>
-  </si>
-  <si>
-    <t>26.01.202623</t>
-  </si>
-  <si>
-    <t>26.01.202624</t>
-  </si>
-  <si>
-    <t>27.01.20261</t>
-  </si>
-  <si>
-    <t>27.01.20262</t>
-  </si>
-  <si>
-    <t>27.01.20263</t>
-  </si>
-  <si>
-    <t>27.01.20264</t>
-  </si>
-  <si>
-    <t>27.01.20265</t>
-  </si>
-  <si>
-    <t>27.01.20266</t>
-  </si>
-  <si>
-    <t>27.01.20267</t>
-  </si>
-  <si>
-    <t>27.01.20268</t>
-  </si>
-  <si>
-    <t>27.01.20269</t>
-  </si>
-  <si>
-    <t>27.01.202610</t>
-  </si>
-  <si>
-    <t>27.01.202611</t>
-  </si>
-  <si>
-    <t>27.01.202612</t>
-  </si>
-  <si>
-    <t>27.01.202613</t>
-  </si>
-  <si>
-    <t>27.01.202614</t>
-  </si>
-  <si>
-    <t>27.01.202615</t>
-  </si>
-  <si>
-    <t>27.01.202616</t>
-  </si>
-  <si>
-    <t>27.01.202617</t>
-  </si>
-  <si>
-    <t>27.01.202618</t>
-  </si>
-  <si>
-    <t>27.01.202619</t>
-  </si>
-  <si>
-    <t>27.01.202620</t>
-  </si>
-  <si>
-    <t>27.01.202621</t>
-  </si>
-  <si>
-    <t>27.01.202622</t>
-  </si>
-  <si>
-    <t>27.01.202623</t>
-  </si>
-  <si>
-    <t>27.01.202624</t>
-  </si>
-  <si>
-    <t>28.01.20261</t>
-  </si>
-  <si>
-    <t>28.01.20262</t>
-  </si>
-  <si>
-    <t>28.01.20263</t>
-  </si>
-  <si>
-    <t>28.01.20264</t>
-  </si>
-  <si>
-    <t>28.01.20265</t>
-  </si>
-  <si>
-    <t>28.01.20266</t>
-  </si>
-  <si>
-    <t>28.01.20267</t>
-  </si>
-  <si>
-    <t>28.01.20268</t>
-  </si>
-  <si>
-    <t>28.01.20269</t>
-  </si>
-  <si>
-    <t>28.01.202610</t>
-  </si>
-  <si>
-    <t>28.01.202611</t>
-  </si>
-  <si>
-    <t>28.01.202612</t>
-  </si>
-  <si>
-    <t>28.01.202613</t>
-  </si>
-  <si>
-    <t>28.01.202614</t>
-  </si>
-  <si>
-    <t>28.01.202615</t>
-  </si>
-  <si>
-    <t>28.01.202616</t>
-  </si>
-  <si>
-    <t>28.01.202617</t>
-  </si>
-  <si>
-    <t>28.01.202618</t>
-  </si>
-  <si>
-    <t>28.01.202619</t>
-  </si>
-  <si>
-    <t>28.01.202620</t>
-  </si>
-  <si>
-    <t>28.01.202621</t>
-  </si>
-  <si>
-    <t>28.01.202622</t>
-  </si>
-  <si>
-    <t>28.01.202623</t>
-  </si>
-  <si>
-    <t>28.01.202624</t>
-  </si>
-  <si>
-    <t>29.01.20261</t>
-  </si>
-  <si>
-    <t>29.01.20262</t>
-  </si>
-  <si>
-    <t>29.01.20263</t>
-  </si>
-  <si>
-    <t>29.01.20264</t>
-  </si>
-  <si>
-    <t>29.01.20265</t>
-  </si>
-  <si>
-    <t>29.01.20266</t>
-  </si>
-  <si>
-    <t>29.01.20267</t>
-  </si>
-  <si>
-    <t>29.01.20268</t>
-  </si>
-  <si>
-    <t>29.01.20269</t>
-  </si>
-  <si>
-    <t>29.01.202610</t>
-  </si>
-  <si>
-    <t>29.01.202611</t>
-  </si>
-  <si>
-    <t>29.01.202612</t>
-  </si>
-  <si>
-    <t>29.01.202613</t>
-  </si>
-  <si>
-    <t>29.01.202614</t>
-  </si>
-  <si>
-    <t>29.01.202615</t>
-  </si>
-  <si>
-    <t>29.01.202616</t>
-  </si>
-  <si>
-    <t>29.01.202617</t>
-  </si>
-  <si>
-    <t>29.01.202618</t>
-  </si>
-  <si>
-    <t>29.01.202619</t>
-  </si>
-  <si>
-    <t>29.01.202620</t>
-  </si>
-  <si>
-    <t>29.01.202621</t>
-  </si>
-  <si>
-    <t>29.01.202622</t>
-  </si>
-  <si>
-    <t>29.01.202623</t>
-  </si>
-  <si>
-    <t>29.01.202624</t>
-  </si>
-  <si>
-    <t>30.01.20261</t>
-  </si>
-  <si>
-    <t>30.01.20262</t>
-  </si>
-  <si>
-    <t>30.01.20263</t>
-  </si>
-  <si>
-    <t>30.01.20264</t>
-  </si>
-  <si>
-    <t>30.01.20265</t>
-  </si>
-  <si>
-    <t>30.01.20266</t>
-  </si>
-  <si>
-    <t>30.01.20267</t>
-  </si>
-  <si>
-    <t>30.01.20268</t>
-  </si>
-  <si>
-    <t>30.01.20269</t>
-  </si>
-  <si>
-    <t>30.01.202610</t>
-  </si>
-  <si>
-    <t>30.01.202611</t>
-  </si>
-  <si>
-    <t>30.01.202612</t>
-  </si>
-  <si>
-    <t>30.01.202613</t>
-  </si>
-  <si>
-    <t>30.01.202614</t>
-  </si>
-  <si>
-    <t>30.01.202615</t>
-  </si>
-  <si>
-    <t>30.01.202616</t>
-  </si>
-  <si>
-    <t>30.01.202617</t>
-  </si>
-  <si>
-    <t>30.01.202618</t>
-  </si>
-  <si>
-    <t>30.01.202619</t>
-  </si>
-  <si>
-    <t>30.01.202620</t>
-  </si>
-  <si>
-    <t>30.01.202621</t>
-  </si>
-  <si>
-    <t>30.01.202622</t>
-  </si>
-  <si>
-    <t>30.01.202623</t>
-  </si>
-  <si>
-    <t>30.01.202624</t>
-  </si>
-  <si>
-    <t>31.01.20261</t>
-  </si>
-  <si>
-    <t>31.01.20262</t>
-  </si>
-  <si>
-    <t>31.01.20263</t>
-  </si>
-  <si>
-    <t>31.01.20264</t>
-  </si>
-  <si>
-    <t>31.01.20265</t>
-  </si>
-  <si>
-    <t>31.01.20266</t>
-  </si>
-  <si>
-    <t>31.01.20267</t>
-  </si>
-  <si>
-    <t>31.01.20268</t>
-  </si>
-  <si>
-    <t>31.01.20269</t>
+    <t>03.02.202615</t>
+  </si>
+  <si>
+    <t>03.02.202616</t>
+  </si>
+  <si>
+    <t>03.02.202617</t>
+  </si>
+  <si>
+    <t>03.02.202618</t>
+  </si>
+  <si>
+    <t>03.02.202619</t>
+  </si>
+  <si>
+    <t>03.02.202620</t>
+  </si>
+  <si>
+    <t>03.02.202621</t>
+  </si>
+  <si>
+    <t>03.02.202622</t>
+  </si>
+  <si>
+    <t>03.02.202623</t>
+  </si>
+  <si>
+    <t>03.02.202624</t>
+  </si>
+  <si>
+    <t>04.02.20261</t>
+  </si>
+  <si>
+    <t>04.02.20262</t>
+  </si>
+  <si>
+    <t>04.02.20263</t>
+  </si>
+  <si>
+    <t>04.02.20264</t>
+  </si>
+  <si>
+    <t>04.02.20265</t>
+  </si>
+  <si>
+    <t>04.02.20266</t>
+  </si>
+  <si>
+    <t>04.02.20267</t>
+  </si>
+  <si>
+    <t>04.02.20268</t>
+  </si>
+  <si>
+    <t>04.02.20269</t>
+  </si>
+  <si>
+    <t>04.02.202610</t>
+  </si>
+  <si>
+    <t>04.02.202611</t>
+  </si>
+  <si>
+    <t>04.02.202612</t>
+  </si>
+  <si>
+    <t>04.02.202613</t>
+  </si>
+  <si>
+    <t>04.02.202614</t>
+  </si>
+  <si>
+    <t>04.02.202615</t>
+  </si>
+  <si>
+    <t>04.02.202616</t>
+  </si>
+  <si>
+    <t>04.02.202617</t>
+  </si>
+  <si>
+    <t>04.02.202618</t>
+  </si>
+  <si>
+    <t>04.02.202619</t>
+  </si>
+  <si>
+    <t>04.02.202620</t>
+  </si>
+  <si>
+    <t>04.02.202621</t>
+  </si>
+  <si>
+    <t>04.02.202622</t>
+  </si>
+  <si>
+    <t>04.02.202623</t>
+  </si>
+  <si>
+    <t>04.02.202624</t>
+  </si>
+  <si>
+    <t>05.02.20261</t>
+  </si>
+  <si>
+    <t>05.02.20262</t>
+  </si>
+  <si>
+    <t>05.02.20263</t>
+  </si>
+  <si>
+    <t>05.02.20264</t>
+  </si>
+  <si>
+    <t>05.02.20265</t>
+  </si>
+  <si>
+    <t>05.02.20266</t>
+  </si>
+  <si>
+    <t>05.02.20267</t>
+  </si>
+  <si>
+    <t>05.02.20268</t>
+  </si>
+  <si>
+    <t>05.02.20269</t>
+  </si>
+  <si>
+    <t>05.02.202610</t>
+  </si>
+  <si>
+    <t>05.02.202611</t>
+  </si>
+  <si>
+    <t>05.02.202612</t>
+  </si>
+  <si>
+    <t>05.02.202613</t>
+  </si>
+  <si>
+    <t>05.02.202614</t>
+  </si>
+  <si>
+    <t>05.02.202615</t>
+  </si>
+  <si>
+    <t>05.02.202616</t>
+  </si>
+  <si>
+    <t>05.02.202617</t>
+  </si>
+  <si>
+    <t>05.02.202618</t>
+  </si>
+  <si>
+    <t>05.02.202619</t>
+  </si>
+  <si>
+    <t>05.02.202620</t>
+  </si>
+  <si>
+    <t>05.02.202621</t>
+  </si>
+  <si>
+    <t>05.02.202622</t>
+  </si>
+  <si>
+    <t>05.02.202623</t>
+  </si>
+  <si>
+    <t>05.02.202624</t>
+  </si>
+  <si>
+    <t>06.02.20261</t>
+  </si>
+  <si>
+    <t>06.02.20262</t>
+  </si>
+  <si>
+    <t>06.02.20263</t>
+  </si>
+  <si>
+    <t>06.02.20264</t>
+  </si>
+  <si>
+    <t>06.02.20265</t>
+  </si>
+  <si>
+    <t>06.02.20266</t>
+  </si>
+  <si>
+    <t>06.02.20267</t>
+  </si>
+  <si>
+    <t>06.02.20268</t>
+  </si>
+  <si>
+    <t>06.02.20269</t>
+  </si>
+  <si>
+    <t>06.02.202610</t>
+  </si>
+  <si>
+    <t>06.02.202611</t>
+  </si>
+  <si>
+    <t>06.02.202612</t>
+  </si>
+  <si>
+    <t>06.02.202613</t>
+  </si>
+  <si>
+    <t>06.02.202614</t>
+  </si>
+  <si>
+    <t>06.02.202615</t>
+  </si>
+  <si>
+    <t>06.02.202616</t>
+  </si>
+  <si>
+    <t>06.02.202617</t>
+  </si>
+  <si>
+    <t>06.02.202618</t>
+  </si>
+  <si>
+    <t>06.02.202619</t>
+  </si>
+  <si>
+    <t>06.02.202620</t>
+  </si>
+  <si>
+    <t>06.02.202621</t>
+  </si>
+  <si>
+    <t>06.02.202622</t>
+  </si>
+  <si>
+    <t>06.02.202623</t>
+  </si>
+  <si>
+    <t>06.02.202624</t>
+  </si>
+  <si>
+    <t>07.02.20261</t>
+  </si>
+  <si>
+    <t>07.02.20262</t>
+  </si>
+  <si>
+    <t>07.02.20263</t>
+  </si>
+  <si>
+    <t>07.02.20264</t>
+  </si>
+  <si>
+    <t>07.02.20265</t>
+  </si>
+  <si>
+    <t>07.02.20266</t>
+  </si>
+  <si>
+    <t>07.02.20267</t>
+  </si>
+  <si>
+    <t>07.02.20268</t>
+  </si>
+  <si>
+    <t>07.02.20269</t>
+  </si>
+  <si>
+    <t>07.02.202610</t>
+  </si>
+  <si>
+    <t>07.02.202611</t>
+  </si>
+  <si>
+    <t>07.02.202612</t>
+  </si>
+  <si>
+    <t>07.02.202613</t>
+  </si>
+  <si>
+    <t>07.02.202614</t>
+  </si>
+  <si>
+    <t>07.02.202615</t>
+  </si>
+  <si>
+    <t>07.02.202616</t>
+  </si>
+  <si>
+    <t>07.02.202617</t>
+  </si>
+  <si>
+    <t>07.02.202618</t>
+  </si>
+  <si>
+    <t>07.02.202619</t>
+  </si>
+  <si>
+    <t>07.02.202620</t>
+  </si>
+  <si>
+    <t>07.02.202621</t>
+  </si>
+  <si>
+    <t>07.02.202622</t>
+  </si>
+  <si>
+    <t>07.02.202623</t>
+  </si>
+  <si>
+    <t>07.02.202624</t>
+  </si>
+  <si>
+    <t>08.02.20261</t>
+  </si>
+  <si>
+    <t>08.02.20262</t>
+  </si>
+  <si>
+    <t>08.02.20263</t>
+  </si>
+  <si>
+    <t>08.02.20264</t>
+  </si>
+  <si>
+    <t>08.02.20265</t>
+  </si>
+  <si>
+    <t>08.02.20266</t>
+  </si>
+  <si>
+    <t>08.02.20267</t>
+  </si>
+  <si>
+    <t>08.02.20268</t>
+  </si>
+  <si>
+    <t>08.02.20269</t>
+  </si>
+  <si>
+    <t>08.02.202610</t>
+  </si>
+  <si>
+    <t>08.02.202611</t>
+  </si>
+  <si>
+    <t>08.02.202612</t>
+  </si>
+  <si>
+    <t>08.02.202613</t>
+  </si>
+  <si>
+    <t>08.02.202614</t>
+  </si>
+  <si>
+    <t>08.02.202615</t>
+  </si>
+  <si>
+    <t>08.02.202616</t>
+  </si>
+  <si>
+    <t>08.02.202617</t>
+  </si>
+  <si>
+    <t>08.02.202618</t>
+  </si>
+  <si>
+    <t>08.02.202619</t>
+  </si>
+  <si>
+    <t>08.02.202620</t>
+  </si>
+  <si>
+    <t>08.02.202621</t>
+  </si>
+  <si>
+    <t>08.02.202622</t>
+  </si>
+  <si>
+    <t>08.02.202623</t>
+  </si>
+  <si>
+    <t>08.02.202624</t>
+  </si>
+  <si>
+    <t>09.02.20261</t>
+  </si>
+  <si>
+    <t>09.02.20262</t>
+  </si>
+  <si>
+    <t>09.02.20263</t>
+  </si>
+  <si>
+    <t>09.02.20264</t>
+  </si>
+  <si>
+    <t>09.02.20265</t>
+  </si>
+  <si>
+    <t>09.02.20266</t>
+  </si>
+  <si>
+    <t>09.02.20267</t>
+  </si>
+  <si>
+    <t>09.02.20268</t>
+  </si>
+  <si>
+    <t>09.02.20269</t>
+  </si>
+  <si>
+    <t>09.02.202610</t>
+  </si>
+  <si>
+    <t>09.02.202611</t>
+  </si>
+  <si>
+    <t>09.02.202612</t>
+  </si>
+  <si>
+    <t>09.02.202613</t>
+  </si>
+  <si>
+    <t>09.02.202614</t>
+  </si>
+  <si>
+    <t>09.02.202615</t>
+  </si>
+  <si>
+    <t>09.02.202616</t>
+  </si>
+  <si>
+    <t>09.02.202617</t>
+  </si>
+  <si>
+    <t>09.02.202618</t>
+  </si>
+  <si>
+    <t>09.02.202619</t>
+  </si>
+  <si>
+    <t>09.02.202620</t>
+  </si>
+  <si>
+    <t>09.02.202621</t>
+  </si>
+  <si>
+    <t>09.02.202622</t>
+  </si>
+  <si>
+    <t>09.02.202623</t>
+  </si>
+  <si>
+    <t>09.02.202624</t>
+  </si>
+  <si>
+    <t>10.02.20261</t>
+  </si>
+  <si>
+    <t>10.02.20262</t>
+  </si>
+  <si>
+    <t>10.02.20263</t>
+  </si>
+  <si>
+    <t>10.02.20264</t>
+  </si>
+  <si>
+    <t>10.02.20265</t>
+  </si>
+  <si>
+    <t>10.02.20266</t>
+  </si>
+  <si>
+    <t>10.02.20267</t>
+  </si>
+  <si>
+    <t>10.02.20268</t>
+  </si>
+  <si>
+    <t>10.02.20269</t>
+  </si>
+  <si>
+    <t>10.02.202610</t>
+  </si>
+  <si>
+    <t>10.02.202611</t>
+  </si>
+  <si>
+    <t>10.02.202612</t>
+  </si>
+  <si>
+    <t>10.02.202613</t>
+  </si>
+  <si>
+    <t>10.02.202614</t>
+  </si>
+  <si>
+    <t>10.02.202615</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2">
-        <v>46046</v>
+        <v>46056</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.068</v>
+        <v>0.089</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2">
-        <v>46046</v>
+        <v>46056</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.068</v>
+        <v>0.104</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -1076,34 +1076,34 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2">
-        <v>46046</v>
+        <v>46056</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.098</v>
+        <v>0.206</v>
       </c>
       <c r="D4">
-        <v>0.152</v>
+        <v>0.322</v>
       </c>
       <c r="E4">
-        <v>0.354</v>
+        <v>0.775</v>
       </c>
       <c r="F4">
-        <v>0.301</v>
+        <v>0.669</v>
       </c>
       <c r="G4">
-        <v>0.302</v>
+        <v>1.036</v>
       </c>
       <c r="H4">
-        <v>0.121</v>
+        <v>0.776</v>
       </c>
       <c r="I4">
-        <v>0.174</v>
+        <v>0.738</v>
       </c>
       <c r="J4">
-        <v>0.218</v>
+        <v>0.315</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -1114,34 +1114,34 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2">
-        <v>46046</v>
+        <v>46056</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.372</v>
+        <v>0.054</v>
       </c>
       <c r="D5">
-        <v>0.369</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E5">
-        <v>0.5570000000000001</v>
+        <v>0.472</v>
       </c>
       <c r="F5">
-        <v>0.359</v>
+        <v>0.176</v>
       </c>
       <c r="G5">
-        <v>0.268</v>
+        <v>0.26</v>
       </c>
       <c r="H5">
-        <v>0.599</v>
+        <v>0.281</v>
       </c>
       <c r="I5">
-        <v>0.187</v>
+        <v>0.15</v>
       </c>
       <c r="J5">
-        <v>0.597</v>
+        <v>0.056</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -1152,34 +1152,34 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2">
-        <v>46046</v>
+        <v>46056</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.513</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.624</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.45</v>
+        <v>0.205</v>
       </c>
       <c r="F6">
-        <v>0.468</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.711</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.772</v>
+        <v>0.031</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -1190,34 +1190,34 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2">
-        <v>46046</v>
+        <v>46056</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.919</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.386</v>
+        <v>0.195</v>
       </c>
       <c r="F7">
-        <v>0.456</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.751</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.779</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.219</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.87</v>
+        <v>0.031</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
@@ -1228,34 +1228,34 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2">
-        <v>46046</v>
+        <v>46056</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.839</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.373</v>
+        <v>0.199</v>
       </c>
       <c r="F8">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.741</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.783</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.805</v>
+        <v>0.031</v>
       </c>
       <c r="Q8" t="s">
         <v>24</v>
@@ -1266,34 +1266,34 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2">
-        <v>46046</v>
+        <v>46056</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.594</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.264</v>
+        <v>0.199</v>
       </c>
       <c r="F9">
-        <v>0.315</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.267</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.664</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.731</v>
+        <v>0.031</v>
       </c>
       <c r="Q9" t="s">
         <v>25</v>
@@ -1304,34 +1304,34 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2">
-        <v>46046</v>
+        <v>46056</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.191</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.359</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.13</v>
+        <v>0.199</v>
       </c>
       <c r="F10">
-        <v>0.163</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.208</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.326</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.38</v>
+        <v>0.031</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
@@ -1342,34 +1342,34 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2">
-        <v>46046</v>
+        <v>46056</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.081</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.032</v>
+        <v>0.199</v>
       </c>
       <c r="F11">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.056</v>
+        <v>0.031</v>
       </c>
       <c r="Q11" t="s">
         <v>27</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2">
-        <v>46046</v>
+        <v>46057</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q12" t="s">
         <v>28</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2">
-        <v>46046</v>
+        <v>46057</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q13" t="s">
         <v>29</v>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2">
-        <v>46046</v>
+        <v>46057</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q14" t="s">
         <v>30</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2">
-        <v>46046</v>
+        <v>46057</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q15" t="s">
         <v>31</v>
@@ -1532,10 +1532,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2">
-        <v>46046</v>
+        <v>46057</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q16" t="s">
         <v>32</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2">
-        <v>46046</v>
+        <v>46057</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q17" t="s">
         <v>33</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1646,10 +1646,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1696,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.082</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="Q20" t="s">
         <v>36</v>
@@ -1722,34 +1722,34 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.198</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.195</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="J21">
-        <v>0.032</v>
+        <v>0.073</v>
       </c>
       <c r="Q21" t="s">
         <v>37</v>
@@ -1760,34 +1760,34 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.227</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.451</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.439</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.474</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J22">
-        <v>0.032</v>
+        <v>0.298</v>
       </c>
       <c r="Q22" t="s">
         <v>38</v>
@@ -1798,34 +1798,34 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.301</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.412</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.665</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.504</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.708</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.193</v>
       </c>
       <c r="J23">
-        <v>0.032</v>
+        <v>0.462</v>
       </c>
       <c r="Q23" t="s">
         <v>39</v>
@@ -1836,34 +1836,34 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.442</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.733</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.865</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.496</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.306</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.219</v>
       </c>
       <c r="J24">
-        <v>0.032</v>
+        <v>0.823</v>
       </c>
       <c r="Q24" t="s">
         <v>40</v>
@@ -1874,34 +1874,34 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.536</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.797</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.253</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.516</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.495</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.858</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.242</v>
       </c>
       <c r="J25">
-        <v>0.032</v>
+        <v>0.876</v>
       </c>
       <c r="Q25" t="s">
         <v>41</v>
@@ -1912,34 +1912,34 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.526</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.677</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1.255</v>
       </c>
       <c r="F26">
-        <v>0.019</v>
+        <v>0.511</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1.421</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>0.219</v>
       </c>
       <c r="J26">
-        <v>0.032</v>
+        <v>0.863</v>
       </c>
       <c r="Q26" t="s">
         <v>42</v>
@@ -1950,34 +1950,34 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>0.05</v>
+        <v>0.296</v>
       </c>
       <c r="D27">
-        <v>0.051</v>
+        <v>0.421</v>
       </c>
       <c r="E27">
-        <v>0.018</v>
+        <v>1.183</v>
       </c>
       <c r="F27">
-        <v>0.09</v>
+        <v>0.334</v>
       </c>
       <c r="G27">
-        <v>0.104</v>
+        <v>0.773</v>
       </c>
       <c r="H27">
-        <v>0.123</v>
+        <v>0.76</v>
       </c>
       <c r="I27">
-        <v>0.083</v>
+        <v>0.188</v>
       </c>
       <c r="J27">
-        <v>0.06</v>
+        <v>0.572</v>
       </c>
       <c r="Q27" t="s">
         <v>43</v>
@@ -1988,34 +1988,34 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>0.28</v>
+        <v>0.145</v>
       </c>
       <c r="D28">
-        <v>0.335</v>
+        <v>0.212</v>
       </c>
       <c r="E28">
-        <v>0.178</v>
+        <v>0.795</v>
       </c>
       <c r="F28">
-        <v>0.282</v>
+        <v>0.21</v>
       </c>
       <c r="G28">
-        <v>0.254</v>
+        <v>0.264</v>
       </c>
       <c r="H28">
-        <v>0.639</v>
+        <v>0.379</v>
       </c>
       <c r="I28">
-        <v>0.251</v>
+        <v>0.112</v>
       </c>
       <c r="J28">
-        <v>0.37</v>
+        <v>0.315</v>
       </c>
       <c r="Q28" t="s">
         <v>44</v>
@@ -2026,34 +2026,34 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>0.405</v>
+        <v>0.064</v>
       </c>
       <c r="D29">
-        <v>0.581</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E29">
-        <v>0.356</v>
+        <v>0.446</v>
       </c>
       <c r="F29">
-        <v>0.352</v>
+        <v>0.067</v>
       </c>
       <c r="G29">
-        <v>0.292</v>
+        <v>0.097</v>
       </c>
       <c r="H29">
-        <v>0.756</v>
+        <v>0.118</v>
       </c>
       <c r="I29">
-        <v>0.473</v>
+        <v>0.025</v>
       </c>
       <c r="J29">
-        <v>0.822</v>
+        <v>0.056</v>
       </c>
       <c r="Q29" t="s">
         <v>45</v>
@@ -2064,34 +2064,34 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>0.874</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1.044</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.447</v>
+        <v>0.221</v>
       </c>
       <c r="F30">
-        <v>0.488</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.754</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0.949</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0.517</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0.87</v>
+        <v>0.045</v>
       </c>
       <c r="Q30" t="s">
         <v>46</v>
@@ -2102,34 +2102,34 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>1.047</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1.441</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.449</v>
+        <v>0.213</v>
       </c>
       <c r="F31">
-        <v>0.452</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.953</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0.659</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.837</v>
+        <v>0.031</v>
       </c>
       <c r="Q31" t="s">
         <v>47</v>
@@ -2140,34 +2140,34 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>1.006</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1.261</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.404</v>
+        <v>0.213</v>
       </c>
       <c r="F32">
-        <v>0.535</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.729</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.826</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0.608</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.805</v>
+        <v>0.031</v>
       </c>
       <c r="Q32" t="s">
         <v>48</v>
@@ -2178,34 +2178,34 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>0.473</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0.6889999999999999</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.327</v>
+        <v>0.213</v>
       </c>
       <c r="F33">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.392</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0.834</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0.516</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0.731</v>
+        <v>0.031</v>
       </c>
       <c r="Q33" t="s">
         <v>49</v>
@@ -2216,34 +2216,34 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0.349</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.179</v>
+        <v>0.213</v>
       </c>
       <c r="F34">
-        <v>0.176</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.264</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0.419</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0.256</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.297</v>
+        <v>0.031</v>
       </c>
       <c r="Q34" t="s">
         <v>50</v>
@@ -2254,34 +2254,34 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="2">
-        <v>46047</v>
+        <v>46057</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="E35">
+        <v>0.214</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>0.031</v>
-      </c>
-      <c r="F35">
-        <v>0.038</v>
-      </c>
-      <c r="G35">
-        <v>0.057</v>
-      </c>
-      <c r="H35">
-        <v>0.063</v>
-      </c>
-      <c r="I35">
-        <v>0.058</v>
-      </c>
-      <c r="J35">
-        <v>0.053</v>
       </c>
       <c r="Q35" t="s">
         <v>51</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="2">
-        <v>46047</v>
+        <v>46058</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q36" t="s">
         <v>52</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="2">
-        <v>46047</v>
+        <v>46058</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q37" t="s">
         <v>53</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="2">
-        <v>46047</v>
+        <v>46058</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.012</v>
+        <v>0.022</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q38" t="s">
         <v>54</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="2">
-        <v>46047</v>
+        <v>46058</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.012</v>
+        <v>0.022</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q39" t="s">
         <v>55</v>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="2">
-        <v>46047</v>
+        <v>46058</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.012</v>
+        <v>0.029</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q40" t="s">
         <v>56</v>
@@ -2482,10 +2482,10 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="2">
-        <v>46047</v>
+        <v>46058</v>
       </c>
       <c r="B41">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.012</v>
+        <v>0.048</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q41" t="s">
         <v>57</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="Q44" t="s">
         <v>60</v>
@@ -2634,34 +2634,34 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="J45">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
       <c r="Q45" t="s">
         <v>61</v>
@@ -2672,34 +2672,34 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.179</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.182</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.197</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>0.339</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J46">
-        <v>0.032</v>
+        <v>0.189</v>
       </c>
       <c r="Q46" t="s">
         <v>62</v>
@@ -2710,34 +2710,34 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.389</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.481</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.368</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.358</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.326</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>0.478</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>0.153</v>
       </c>
       <c r="J47">
-        <v>0.032</v>
+        <v>0.334</v>
       </c>
       <c r="Q47" t="s">
         <v>63</v>
@@ -2748,34 +2748,34 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.747</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.461</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.385</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="J48">
-        <v>0.032</v>
+        <v>0.442</v>
       </c>
       <c r="Q48" t="s">
         <v>64</v>
@@ -2786,34 +2786,34 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.966</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.474</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.389</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>0.677</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="J49">
-        <v>0.032</v>
+        <v>0.442</v>
       </c>
       <c r="Q49" t="s">
         <v>65</v>
@@ -2824,34 +2824,34 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.894</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1.121</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.466</v>
       </c>
       <c r="F50">
-        <v>0.019</v>
+        <v>0.347</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.326</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>0.629</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="J50">
-        <v>0.032</v>
+        <v>0.411</v>
       </c>
       <c r="Q50" t="s">
         <v>66</v>
@@ -2862,34 +2862,34 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>0.017</v>
+        <v>0.676</v>
       </c>
       <c r="D51">
-        <v>0.023</v>
+        <v>1.015</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.392</v>
       </c>
       <c r="F51">
-        <v>0.082</v>
+        <v>0.243</v>
       </c>
       <c r="G51">
-        <v>0.08699999999999999</v>
+        <v>0.198</v>
       </c>
       <c r="H51">
-        <v>0.06</v>
+        <v>0.591</v>
       </c>
       <c r="I51">
-        <v>0.042</v>
+        <v>0.136</v>
       </c>
       <c r="J51">
-        <v>0.051</v>
+        <v>0.365</v>
       </c>
       <c r="Q51" t="s">
         <v>67</v>
@@ -2900,34 +2900,34 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>0.109</v>
+        <v>0.387</v>
       </c>
       <c r="D52">
-        <v>0.145</v>
+        <v>0.679</v>
       </c>
       <c r="E52">
-        <v>0.11</v>
+        <v>0.234</v>
       </c>
       <c r="F52">
-        <v>0.234</v>
+        <v>0.141</v>
       </c>
       <c r="G52">
-        <v>0.187</v>
+        <v>0.137</v>
       </c>
       <c r="H52">
-        <v>0.23</v>
+        <v>0.228</v>
       </c>
       <c r="I52">
-        <v>0.098</v>
+        <v>0.068</v>
       </c>
       <c r="J52">
-        <v>0.152</v>
+        <v>0.263</v>
       </c>
       <c r="Q52" t="s">
         <v>68</v>
@@ -2938,34 +2938,34 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>0.269</v>
+        <v>0.147</v>
       </c>
       <c r="D53">
-        <v>0.342</v>
+        <v>0.213</v>
       </c>
       <c r="E53">
-        <v>0.249</v>
+        <v>0.057</v>
       </c>
       <c r="F53">
-        <v>0.447</v>
+        <v>0.049</v>
       </c>
       <c r="G53">
-        <v>0.363</v>
+        <v>0.059</v>
       </c>
       <c r="H53">
-        <v>0.662</v>
+        <v>0.063</v>
       </c>
       <c r="I53">
-        <v>0.136</v>
+        <v>0.025</v>
       </c>
       <c r="J53">
-        <v>0.292</v>
+        <v>0.037</v>
       </c>
       <c r="Q53" t="s">
         <v>69</v>
@@ -2976,34 +2976,34 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>0.405</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.436</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0.303</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.548</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0.348</v>
+        <v>0.026</v>
       </c>
       <c r="Q54" t="s">
         <v>70</v>
@@ -3014,34 +3014,34 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>0.411</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0.522</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.5629999999999999</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.511</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0.334</v>
+        <v>0.031</v>
       </c>
       <c r="Q55" t="s">
         <v>71</v>
@@ -3052,34 +3052,34 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>0.413</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0.503</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.501</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.586</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>1.123</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0.28</v>
+        <v>0.031</v>
       </c>
       <c r="Q56" t="s">
         <v>72</v>
@@ -3090,34 +3090,34 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0.329</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0.186</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.339</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.418</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0.098</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0.208</v>
+        <v>0.031</v>
       </c>
       <c r="Q57" t="s">
         <v>73</v>
@@ -3128,34 +3128,34 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B58">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.159</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0.292</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0.073</v>
+        <v>0.031</v>
       </c>
       <c r="Q58" t="s">
         <v>74</v>
@@ -3166,34 +3166,34 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="2">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="B59">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C59">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.026</v>
+        <v>0.031</v>
       </c>
       <c r="Q59" t="s">
         <v>75</v>
@@ -3204,10 +3204,10 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="2">
-        <v>46048</v>
+        <v>46059</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="Q60" t="s">
         <v>76</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="2">
-        <v>46048</v>
+        <v>46059</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="Q61" t="s">
         <v>77</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="2">
-        <v>46048</v>
+        <v>46059</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="Q62" t="s">
         <v>78</v>
@@ -3318,10 +3318,10 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2">
-        <v>46048</v>
+        <v>46059</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="Q63" t="s">
         <v>79</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="2">
-        <v>46048</v>
+        <v>46059</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q64" t="s">
         <v>80</v>
@@ -3394,10 +3394,10 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="2">
-        <v>46048</v>
+        <v>46059</v>
       </c>
       <c r="B65">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q65" t="s">
         <v>81</v>
@@ -3432,10 +3432,10 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="Q67" t="s">
         <v>83</v>
@@ -3508,10 +3508,10 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3523,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.014</v>
+        <v>0.038</v>
       </c>
       <c r="Q68" t="s">
         <v>84</v>
@@ -3546,34 +3546,34 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="J69">
-        <v>0.014</v>
+        <v>0.163</v>
       </c>
       <c r="Q69" t="s">
         <v>85</v>
@@ -3584,34 +3584,34 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.354</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.227</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>0.354</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>0.354</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="J70">
-        <v>0.014</v>
+        <v>0.462</v>
       </c>
       <c r="Q70" t="s">
         <v>86</v>
@@ -3622,34 +3622,34 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.614</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>0.756</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.376</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>0.501</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>0.396</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.529</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="J71">
-        <v>0.014</v>
+        <v>0.86</v>
       </c>
       <c r="Q71" t="s">
         <v>87</v>
@@ -3660,34 +3660,34 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1.003</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1.261</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.463</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>0.432</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>0.212</v>
       </c>
       <c r="J72">
-        <v>0.014</v>
+        <v>1.022</v>
       </c>
       <c r="Q72" t="s">
         <v>88</v>
@@ -3698,34 +3698,34 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1.127</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1.828</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.611</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.577</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>0.394</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>0.671</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>0.238</v>
       </c>
       <c r="J73">
-        <v>0.014</v>
+        <v>1.06</v>
       </c>
       <c r="Q73" t="s">
         <v>89</v>
@@ -3736,34 +3736,34 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1.327</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F74">
-        <v>0.019</v>
+        <v>0.592</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>0.354</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>0.713</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>0.229</v>
       </c>
       <c r="J74">
-        <v>0.014</v>
+        <v>0.999</v>
       </c>
       <c r="Q74" t="s">
         <v>90</v>
@@ -3774,34 +3774,34 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>0.02</v>
+        <v>1.204</v>
       </c>
       <c r="D75">
-        <v>0.023</v>
+        <v>1.736</v>
       </c>
       <c r="E75">
-        <v>0.014</v>
+        <v>0.45</v>
       </c>
       <c r="F75">
-        <v>0.082</v>
+        <v>0.515</v>
       </c>
       <c r="G75">
-        <v>0.095</v>
+        <v>0.295</v>
       </c>
       <c r="H75">
-        <v>0.053</v>
+        <v>0.503</v>
       </c>
       <c r="I75">
-        <v>0.042</v>
+        <v>0.198</v>
       </c>
       <c r="J75">
-        <v>0.038</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="Q75" t="s">
         <v>91</v>
@@ -3812,34 +3812,34 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>0.107</v>
+        <v>0.679</v>
       </c>
       <c r="D76">
-        <v>0.099</v>
+        <v>0.916</v>
       </c>
       <c r="E76">
-        <v>0.13</v>
+        <v>0.272</v>
       </c>
       <c r="F76">
-        <v>0.178</v>
+        <v>0.274</v>
       </c>
       <c r="G76">
-        <v>0.148</v>
+        <v>0.256</v>
       </c>
       <c r="H76">
-        <v>0.217</v>
+        <v>0.415</v>
       </c>
       <c r="I76">
-        <v>0.102</v>
+        <v>0.137</v>
       </c>
       <c r="J76">
-        <v>0.059</v>
+        <v>0.535</v>
       </c>
       <c r="Q76" t="s">
         <v>92</v>
@@ -3850,34 +3850,34 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>0.181</v>
+        <v>0.205</v>
       </c>
       <c r="D77">
-        <v>0.208</v>
+        <v>0.293</v>
       </c>
       <c r="E77">
-        <v>0.301</v>
+        <v>0.076</v>
       </c>
       <c r="F77">
-        <v>0.279</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G77">
-        <v>0.255</v>
+        <v>0.09</v>
       </c>
       <c r="H77">
-        <v>0.706</v>
+        <v>0.083</v>
       </c>
       <c r="I77">
-        <v>0.178</v>
+        <v>0.044</v>
       </c>
       <c r="J77">
-        <v>0.205</v>
+        <v>0.191</v>
       </c>
       <c r="Q77" t="s">
         <v>93</v>
@@ -3888,34 +3888,34 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>0.312</v>
+        <v>0.012</v>
       </c>
       <c r="D78">
-        <v>0.307</v>
+        <v>0.012</v>
       </c>
       <c r="E78">
-        <v>0.474</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.294</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0.758</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0.198</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0.285</v>
+        <v>0.026</v>
       </c>
       <c r="Q78" t="s">
         <v>94</v>
@@ -3926,34 +3926,34 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C79">
-        <v>0.394</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0.446</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.572</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.395</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0.377</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0.797</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0.285</v>
+        <v>0.013</v>
       </c>
       <c r="Q79" t="s">
         <v>95</v>
@@ -3964,34 +3964,34 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C80">
-        <v>0.366</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0.445</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>0.5669999999999999</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.321</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0.364</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>0.742</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0.208</v>
+        <v>0.013</v>
       </c>
       <c r="Q80" t="s">
         <v>96</v>
@@ -4002,34 +4002,34 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C81">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0.343</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>0.496</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.223</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0.247</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0.603</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>0.142</v>
+        <v>0.013</v>
       </c>
       <c r="Q81" t="s">
         <v>97</v>
@@ -4040,34 +4040,34 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B82">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>0.196</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>0.321</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>0.062</v>
+        <v>0.013</v>
       </c>
       <c r="Q82" t="s">
         <v>98</v>
@@ -4078,34 +4078,34 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="2">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C83">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.045</v>
+        <v>0.013</v>
       </c>
       <c r="Q83" t="s">
         <v>99</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="2">
-        <v>46049</v>
+        <v>46060</v>
       </c>
       <c r="B84">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q84" t="s">
         <v>100</v>
@@ -4154,10 +4154,10 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="2">
-        <v>46049</v>
+        <v>46060</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q85" t="s">
         <v>101</v>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="2">
-        <v>46049</v>
+        <v>46060</v>
       </c>
       <c r="B86">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q86" t="s">
         <v>102</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="2">
-        <v>46049</v>
+        <v>46060</v>
       </c>
       <c r="B87">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q87" t="s">
         <v>103</v>
@@ -4268,10 +4268,10 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="2">
-        <v>46049</v>
+        <v>46060</v>
       </c>
       <c r="B88">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q88" t="s">
         <v>104</v>
@@ -4306,10 +4306,10 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="2">
-        <v>46049</v>
+        <v>46060</v>
       </c>
       <c r="B89">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q89" t="s">
         <v>105</v>
@@ -4344,10 +4344,10 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -4382,10 +4382,10 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -4420,10 +4420,10 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="Q92" t="s">
         <v>108</v>
@@ -4458,34 +4458,34 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.094</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.149</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="J93">
-        <v>0.032</v>
+        <v>0.046</v>
       </c>
       <c r="Q93" t="s">
         <v>109</v>
@@ -4496,34 +4496,34 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>0.275</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.385</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.337</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>0.272</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>0.345</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.193</v>
       </c>
       <c r="J94">
-        <v>0.032</v>
+        <v>0.279</v>
       </c>
       <c r="Q94" t="s">
         <v>110</v>
@@ -4534,34 +4534,34 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>0.427</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.585</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.387</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.384</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>0.482</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>0.259</v>
       </c>
       <c r="J95">
-        <v>0.032</v>
+        <v>0.449</v>
       </c>
       <c r="Q95" t="s">
         <v>111</v>
@@ -4572,34 +4572,34 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.632</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.698</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.783</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.592</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.358</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>0.578</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>0.457</v>
       </c>
       <c r="J96">
-        <v>0.032</v>
+        <v>0.555</v>
       </c>
       <c r="Q96" t="s">
         <v>112</v>
@@ -4610,34 +4610,34 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.657</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.806</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.721</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.664</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>0.403</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>0.772</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>0.497</v>
       </c>
       <c r="J97">
-        <v>0.032</v>
+        <v>0.442</v>
       </c>
       <c r="Q97" t="s">
         <v>113</v>
@@ -4648,34 +4648,34 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>0.634</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>0.739</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="F98">
-        <v>0.031</v>
+        <v>0.624</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>0.731</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>0.497</v>
       </c>
       <c r="J98">
-        <v>0.032</v>
+        <v>0.351</v>
       </c>
       <c r="Q98" t="s">
         <v>114</v>
@@ -4686,34 +4686,34 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>0.028</v>
+        <v>0.458</v>
       </c>
       <c r="D99">
-        <v>0.043</v>
+        <v>0.539</v>
       </c>
       <c r="E99">
-        <v>0.08599999999999999</v>
+        <v>0.865</v>
       </c>
       <c r="F99">
-        <v>0.359</v>
+        <v>0.539</v>
       </c>
       <c r="G99">
-        <v>0.276</v>
+        <v>0.362</v>
       </c>
       <c r="H99">
-        <v>0.211</v>
+        <v>0.574</v>
       </c>
       <c r="I99">
-        <v>0.093</v>
+        <v>0.348</v>
       </c>
       <c r="J99">
-        <v>0.073</v>
+        <v>0.28</v>
       </c>
       <c r="Q99" t="s">
         <v>115</v>
@@ -4724,34 +4724,34 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>0.132</v>
+        <v>0.199</v>
       </c>
       <c r="D100">
-        <v>0.25</v>
+        <v>0.246</v>
       </c>
       <c r="E100">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="F100">
-        <v>1.031</v>
+        <v>0.293</v>
       </c>
       <c r="G100">
-        <v>0.833</v>
+        <v>0.267</v>
       </c>
       <c r="H100">
-        <v>0.799</v>
+        <v>0.382</v>
       </c>
       <c r="I100">
-        <v>0.264</v>
+        <v>0.197</v>
       </c>
       <c r="J100">
-        <v>0.413</v>
+        <v>0.182</v>
       </c>
       <c r="Q100" t="s">
         <v>116</v>
@@ -4762,34 +4762,34 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>0.424</v>
+        <v>0.064</v>
       </c>
       <c r="D101">
-        <v>0.471</v>
+        <v>0.09</v>
       </c>
       <c r="E101">
-        <v>0.786</v>
+        <v>0.145</v>
       </c>
       <c r="F101">
-        <v>1.589</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G101">
-        <v>1.795</v>
+        <v>0.09</v>
       </c>
       <c r="H101">
-        <v>0.867</v>
+        <v>0.112</v>
       </c>
       <c r="I101">
-        <v>0.541</v>
+        <v>0.064</v>
       </c>
       <c r="J101">
-        <v>0.8080000000000001</v>
+        <v>0.026</v>
       </c>
       <c r="Q101" t="s">
         <v>117</v>
@@ -4800,34 +4800,34 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B102">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C102">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>0.732</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>0.854</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.704</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>2.254</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>1.138</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>0.783</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0.84</v>
+        <v>0.026</v>
       </c>
       <c r="Q102" t="s">
         <v>118</v>
@@ -4838,34 +4838,34 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B103">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C103">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>1.083</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>0.833</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.697</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>2.641</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>1.129</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1.049</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>0.84</v>
+        <v>0.013</v>
       </c>
       <c r="Q103" t="s">
         <v>119</v>
@@ -4876,34 +4876,34 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C104">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>1.101</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>0.859</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.679</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>2.341</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>1.133</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>1.049</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>0.805</v>
+        <v>0.013</v>
       </c>
       <c r="Q104" t="s">
         <v>120</v>
@@ -4914,34 +4914,34 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B105">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C105">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>0.799</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>0.629</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.083</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>1.749</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>0.868</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0.648</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>0.731</v>
+        <v>0.013</v>
       </c>
       <c r="Q105" t="s">
         <v>121</v>
@@ -4952,34 +4952,34 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B106">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C106">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>0.412</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.514</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>0.785</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>0.448</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>0.345</v>
+        <v>0.013</v>
       </c>
       <c r="Q106" t="s">
         <v>122</v>
@@ -4990,34 +4990,34 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="2">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C107">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>0.147</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>0.184</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>0.089</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>0.053</v>
+        <v>0.013</v>
       </c>
       <c r="Q107" t="s">
         <v>123</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="2">
-        <v>46050</v>
+        <v>46061</v>
       </c>
       <c r="B108">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="Q108" t="s">
         <v>124</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="2">
-        <v>46050</v>
+        <v>46061</v>
       </c>
       <c r="B109">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="Q109" t="s">
         <v>125</v>
@@ -5104,10 +5104,10 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="2">
-        <v>46050</v>
+        <v>46061</v>
       </c>
       <c r="B110">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="Q110" t="s">
         <v>126</v>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="2">
-        <v>46050</v>
+        <v>46061</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="Q111" t="s">
         <v>127</v>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="2">
-        <v>46050</v>
+        <v>46061</v>
       </c>
       <c r="B112">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="Q112" t="s">
         <v>128</v>
@@ -5218,10 +5218,10 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="2">
-        <v>46050</v>
+        <v>46061</v>
       </c>
       <c r="B113">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="Q113" t="s">
         <v>129</v>
@@ -5256,10 +5256,10 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q114" t="s">
         <v>130</v>
@@ -5294,10 +5294,10 @@
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q115" t="s">
         <v>131</v>
@@ -5332,10 +5332,10 @@
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -5344,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.103</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="Q116" t="s">
         <v>132</v>
@@ -5370,34 +5370,34 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.288</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.211</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="J117">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="Q117" t="s">
         <v>133</v>
@@ -5408,34 +5408,34 @@
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.206</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>0.209</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>0.464</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>0.187</v>
       </c>
       <c r="J118">
-        <v>0.032</v>
+        <v>0.205</v>
       </c>
       <c r="Q118" t="s">
         <v>134</v>
@@ -5446,34 +5446,34 @@
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>0.271</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.989</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>0.636</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>0.397</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>0.719</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>0.253</v>
       </c>
       <c r="J119">
-        <v>0.032</v>
+        <v>0.356</v>
       </c>
       <c r="Q119" t="s">
         <v>135</v>
@@ -5484,34 +5484,34 @@
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.434</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>0.366</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1.133</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>0.518</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>0.778</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J120">
-        <v>0.032</v>
+        <v>0.442</v>
       </c>
       <c r="Q120" t="s">
         <v>136</v>
@@ -5522,34 +5522,34 @@
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.478</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1.247</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>0.663</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>0.587</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>0.778</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>0.357</v>
       </c>
       <c r="J121">
-        <v>0.032</v>
+        <v>0.428</v>
       </c>
       <c r="Q121" t="s">
         <v>137</v>
@@ -5560,34 +5560,34 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>0.501</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>0.449</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1.111</v>
       </c>
       <c r="F122">
-        <v>0.024</v>
+        <v>0.604</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>0.539</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>0.772</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>0.294</v>
       </c>
       <c r="J122">
-        <v>0.032</v>
+        <v>0.337</v>
       </c>
       <c r="Q122" t="s">
         <v>138</v>
@@ -5598,34 +5598,34 @@
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C123">
-        <v>0.068</v>
+        <v>0.332</v>
       </c>
       <c r="D123">
-        <v>0.08400000000000001</v>
+        <v>0.354</v>
       </c>
       <c r="E123">
-        <v>0.078</v>
+        <v>0.964</v>
       </c>
       <c r="F123">
-        <v>0.301</v>
+        <v>0.384</v>
       </c>
       <c r="G123">
-        <v>0.236</v>
+        <v>0.407</v>
       </c>
       <c r="H123">
-        <v>0.118</v>
+        <v>0.529</v>
       </c>
       <c r="I123">
-        <v>0.058</v>
+        <v>0.242</v>
       </c>
       <c r="J123">
-        <v>0.046</v>
+        <v>0.298</v>
       </c>
       <c r="Q123" t="s">
         <v>139</v>
@@ -5636,34 +5636,34 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C124">
-        <v>0.382</v>
+        <v>0.171</v>
       </c>
       <c r="D124">
-        <v>0.412</v>
+        <v>0.204</v>
       </c>
       <c r="E124">
-        <v>0.365</v>
+        <v>0.743</v>
       </c>
       <c r="F124">
-        <v>0.911</v>
+        <v>0.186</v>
       </c>
       <c r="G124">
-        <v>0.546</v>
+        <v>0.166</v>
       </c>
       <c r="H124">
-        <v>0.789</v>
+        <v>0.329</v>
       </c>
       <c r="I124">
-        <v>0.227</v>
+        <v>0.15</v>
       </c>
       <c r="J124">
-        <v>0.322</v>
+        <v>0.201</v>
       </c>
       <c r="Q124" t="s">
         <v>140</v>
@@ -5674,34 +5674,34 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C125">
-        <v>0.576</v>
+        <v>0.063</v>
       </c>
       <c r="D125">
-        <v>0.859</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E125">
-        <v>0.589</v>
+        <v>0.272</v>
       </c>
       <c r="F125">
-        <v>1.127</v>
+        <v>0.054</v>
       </c>
       <c r="G125">
-        <v>0.9389999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H125">
-        <v>0.879</v>
+        <v>0.111</v>
       </c>
       <c r="I125">
-        <v>0.432</v>
+        <v>0.044</v>
       </c>
       <c r="J125">
-        <v>0.5610000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="Q125" t="s">
         <v>141</v>
@@ -5712,34 +5712,34 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C126">
-        <v>0.878</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>1.134</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>0.762</v>
+        <v>0.014</v>
       </c>
       <c r="F126">
-        <v>1.307</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>1.581</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>1.045</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>0.78</v>
+        <v>0.045</v>
       </c>
       <c r="Q126" t="s">
         <v>142</v>
@@ -5750,34 +5750,34 @@
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C127">
-        <v>0.872</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>1.112</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>0.835</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.373</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>1.603</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>1.136</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>1.049</v>
+        <v>0</v>
       </c>
       <c r="J127">
-        <v>0.78</v>
+        <v>0.031</v>
       </c>
       <c r="Q127" t="s">
         <v>143</v>
@@ -5788,34 +5788,34 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B128">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C128">
-        <v>0.603</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>0.895</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>0.888</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.166</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>1.679</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>1.033</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1.049</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>0.548</v>
+        <v>0.031</v>
       </c>
       <c r="Q128" t="s">
         <v>144</v>
@@ -5826,34 +5826,34 @@
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C129">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>0.623</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>0.666</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.795</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>0.796</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>0.8110000000000001</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>0.768</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>0.411</v>
+        <v>0.031</v>
       </c>
       <c r="Q129" t="s">
         <v>145</v>
@@ -5864,34 +5864,34 @@
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C130">
-        <v>0.227</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>0.344</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>0.424</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0.456</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>0.849</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>0.397</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>0.263</v>
+        <v>0.031</v>
       </c>
       <c r="Q130" t="s">
         <v>146</v>
@@ -5902,34 +5902,34 @@
     </row>
     <row r="131" spans="1:18">
       <c r="A131" s="2">
-        <v>46051</v>
+        <v>46061</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C131">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>0.081</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>0.081</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>0.089</v>
+        <v>0</v>
       </c>
       <c r="J131">
-        <v>0.035</v>
+        <v>0.031</v>
       </c>
       <c r="Q131" t="s">
         <v>147</v>
@@ -5940,10 +5940,10 @@
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="2">
-        <v>46051</v>
+        <v>46062</v>
       </c>
       <c r="B132">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="Q132" t="s">
         <v>148</v>
@@ -5978,10 +5978,10 @@
     </row>
     <row r="133" spans="1:18">
       <c r="A133" s="2">
-        <v>46051</v>
+        <v>46062</v>
       </c>
       <c r="B133">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="Q133" t="s">
         <v>149</v>
@@ -6016,10 +6016,10 @@
     </row>
     <row r="134" spans="1:18">
       <c r="A134" s="2">
-        <v>46051</v>
+        <v>46062</v>
       </c>
       <c r="B134">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
       <c r="Q134" t="s">
         <v>150</v>
@@ -6054,10 +6054,10 @@
     </row>
     <row r="135" spans="1:18">
       <c r="A135" s="2">
-        <v>46051</v>
+        <v>46062</v>
       </c>
       <c r="B135">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q135" t="s">
         <v>151</v>
@@ -6092,10 +6092,10 @@
     </row>
     <row r="136" spans="1:18">
       <c r="A136" s="2">
-        <v>46051</v>
+        <v>46062</v>
       </c>
       <c r="B136">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q136" t="s">
         <v>152</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137" s="2">
-        <v>46051</v>
+        <v>46062</v>
       </c>
       <c r="B137">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q137" t="s">
         <v>153</v>
@@ -6168,10 +6168,10 @@
     </row>
     <row r="138" spans="1:18">
       <c r="A138" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -6206,10 +6206,10 @@
     </row>
     <row r="139" spans="1:18">
       <c r="A139" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -6244,10 +6244,10 @@
     </row>
     <row r="140" spans="1:18">
       <c r="A140" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -6256,13 +6256,13 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="Q140" t="s">
         <v>156</v>
@@ -6282,34 +6282,34 @@
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="E141">
-        <v>0.016</v>
+        <v>0.1</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>0.098</v>
       </c>
       <c r="J141">
-        <v>0.032</v>
+        <v>0.073</v>
       </c>
       <c r="Q141" t="s">
         <v>157</v>
@@ -6320,34 +6320,34 @@
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>0.365</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>0.426</v>
       </c>
       <c r="E142">
-        <v>0.016</v>
+        <v>0.299</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>0.323</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>0.359</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>0.238</v>
       </c>
       <c r="J142">
-        <v>0.032</v>
+        <v>0.285</v>
       </c>
       <c r="Q142" t="s">
         <v>158</v>
@@ -6358,34 +6358,34 @@
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>0.589</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="E143">
-        <v>0.016</v>
+        <v>0.443</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>0.575</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>0.551</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>0.402</v>
       </c>
       <c r="J143">
-        <v>0.032</v>
+        <v>0.449</v>
       </c>
       <c r="Q143" t="s">
         <v>159</v>
@@ -6396,34 +6396,34 @@
     </row>
     <row r="144" spans="1:18">
       <c r="A144" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>0.855</v>
       </c>
       <c r="E144">
-        <v>0.017</v>
+        <v>0.623</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>0.505</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>0.671</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>0.457</v>
       </c>
       <c r="J144">
-        <v>0.032</v>
+        <v>0.577</v>
       </c>
       <c r="Q144" t="s">
         <v>160</v>
@@ -6434,34 +6434,34 @@
     </row>
     <row r="145" spans="1:18">
       <c r="A145" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>0.963</v>
       </c>
       <c r="E145">
-        <v>0.017</v>
+        <v>0.626</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>0.521</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>0.457</v>
       </c>
       <c r="J145">
-        <v>0.032</v>
+        <v>0.742</v>
       </c>
       <c r="Q145" t="s">
         <v>161</v>
@@ -6472,34 +6472,34 @@
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>0.675</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>0.844</v>
       </c>
       <c r="E146">
-        <v>0.083</v>
+        <v>0.585</v>
       </c>
       <c r="F146">
-        <v>0.02</v>
+        <v>0.405</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>0.334</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>0.631</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>0.402</v>
       </c>
       <c r="J146">
-        <v>0.032</v>
+        <v>0.548</v>
       </c>
       <c r="Q146" t="s">
         <v>162</v>
@@ -6510,34 +6510,34 @@
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C147">
-        <v>0.048</v>
+        <v>0.545</v>
       </c>
       <c r="D147">
-        <v>0.043</v>
+        <v>0.626</v>
       </c>
       <c r="E147">
-        <v>0.192</v>
+        <v>0.478</v>
       </c>
       <c r="F147">
-        <v>0.16</v>
+        <v>0.316</v>
       </c>
       <c r="G147">
-        <v>0.111</v>
+        <v>0.308</v>
       </c>
       <c r="H147">
-        <v>0.083</v>
+        <v>0.529</v>
       </c>
       <c r="I147">
-        <v>0.064</v>
+        <v>0.309</v>
       </c>
       <c r="J147">
-        <v>0.06</v>
+        <v>0.411</v>
       </c>
       <c r="Q147" t="s">
         <v>163</v>
@@ -6548,34 +6548,34 @@
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C148">
-        <v>0.261</v>
+        <v>0.309</v>
       </c>
       <c r="D148">
-        <v>0.298</v>
+        <v>0.365</v>
       </c>
       <c r="E148">
-        <v>0.622</v>
+        <v>0.315</v>
       </c>
       <c r="F148">
-        <v>0.44</v>
+        <v>0.174</v>
       </c>
       <c r="G148">
-        <v>0.371</v>
+        <v>0.18</v>
       </c>
       <c r="H148">
-        <v>0.407</v>
+        <v>0.536</v>
       </c>
       <c r="I148">
-        <v>0.201</v>
+        <v>0.193</v>
       </c>
       <c r="J148">
-        <v>0.348</v>
+        <v>0.288</v>
       </c>
       <c r="Q148" t="s">
         <v>164</v>
@@ -6586,34 +6586,34 @@
     </row>
     <row r="149" spans="1:18">
       <c r="A149" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B149">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C149">
-        <v>0.498</v>
+        <v>0.112</v>
       </c>
       <c r="D149">
-        <v>0.605</v>
+        <v>0.103</v>
       </c>
       <c r="E149">
-        <v>1.049</v>
+        <v>0.118</v>
       </c>
       <c r="F149">
-        <v>0.774</v>
+        <v>0.052</v>
       </c>
       <c r="G149">
-        <v>0.572</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H149">
-        <v>0.802</v>
+        <v>0.123</v>
       </c>
       <c r="I149">
-        <v>0.437</v>
+        <v>0.064</v>
       </c>
       <c r="J149">
-        <v>0.609</v>
+        <v>0.065</v>
       </c>
       <c r="Q149" t="s">
         <v>165</v>
@@ -6624,34 +6624,34 @@
     </row>
     <row r="150" spans="1:18">
       <c r="A150" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B150">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C150">
-        <v>0.885</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>0.9419999999999999</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>1.434</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.868</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>0.877</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>0.536</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>0.8100000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="Q150" t="s">
         <v>166</v>
@@ -6662,34 +6662,34 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C151">
-        <v>0.972</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>1.106</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>0.975</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.967</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>0.9409999999999999</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>0.894</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>0.536</v>
+        <v>0</v>
       </c>
       <c r="J151">
-        <v>0.848</v>
+        <v>0.031</v>
       </c>
       <c r="Q151" t="s">
         <v>167</v>
@@ -6700,34 +6700,34 @@
     </row>
     <row r="152" spans="1:18">
       <c r="A152" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B152">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C152">
-        <v>0.906</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>1.102</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>0.986</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.8149999999999999</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>0.801</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>0.866</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>0.437</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>0.782</v>
+        <v>0.031</v>
       </c>
       <c r="Q152" t="s">
         <v>168</v>
@@ -6738,34 +6738,34 @@
     </row>
     <row r="153" spans="1:18">
       <c r="A153" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B153">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C153">
-        <v>0.528</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>0.696</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>0.901</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.633</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>0.5669999999999999</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>0.786</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>0.208</v>
+        <v>0</v>
       </c>
       <c r="J153">
-        <v>0.5610000000000001</v>
+        <v>0.031</v>
       </c>
       <c r="Q153" t="s">
         <v>169</v>
@@ -6776,34 +6776,34 @@
     </row>
     <row r="154" spans="1:18">
       <c r="A154" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B154">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C154">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>0.399</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>0.476</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.303</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>0.327</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>0.407</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="J154">
-        <v>0.315</v>
+        <v>0.031</v>
       </c>
       <c r="Q154" t="s">
         <v>170</v>
@@ -6814,34 +6814,34 @@
     </row>
     <row r="155" spans="1:18">
       <c r="A155" s="2">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="B155">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C155">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>0.096</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="J155">
-        <v>0.056</v>
+        <v>0.031</v>
       </c>
       <c r="Q155" t="s">
         <v>171</v>
@@ -6852,10 +6852,10 @@
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="2">
-        <v>46052</v>
+        <v>46063</v>
       </c>
       <c r="B156">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q156" t="s">
         <v>172</v>
@@ -6890,10 +6890,10 @@
     </row>
     <row r="157" spans="1:18">
       <c r="A157" s="2">
-        <v>46052</v>
+        <v>46063</v>
       </c>
       <c r="B157">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0.193</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q157" t="s">
         <v>173</v>
@@ -6928,10 +6928,10 @@
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="2">
-        <v>46052</v>
+        <v>46063</v>
       </c>
       <c r="B158">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0.212</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q158" t="s">
         <v>174</v>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="159" spans="1:18">
       <c r="A159" s="2">
-        <v>46052</v>
+        <v>46063</v>
       </c>
       <c r="B159">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q159" t="s">
         <v>175</v>
@@ -7004,10 +7004,10 @@
     </row>
     <row r="160" spans="1:18">
       <c r="A160" s="2">
-        <v>46052</v>
+        <v>46063</v>
       </c>
       <c r="B160">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0.2</v>
+        <v>0.029</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q160" t="s">
         <v>176</v>
@@ -7042,10 +7042,10 @@
     </row>
     <row r="161" spans="1:18">
       <c r="A161" s="2">
-        <v>46052</v>
+        <v>46063</v>
       </c>
       <c r="B161">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0.2</v>
+        <v>0.039</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="Q161" t="s">
         <v>177</v>
@@ -7080,10 +7080,10 @@
     </row>
     <row r="162" spans="1:18">
       <c r="A162" s="2">
-        <v>46053</v>
+        <v>46063</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>0.022</v>
+        <v>0.017</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -7118,10 +7118,10 @@
     </row>
     <row r="163" spans="1:18">
       <c r="A163" s="2">
-        <v>46053</v>
+        <v>46063</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0.027</v>
+        <v>0.012</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7156,10 +7156,10 @@
     </row>
     <row r="164" spans="1:18">
       <c r="A164" s="2">
-        <v>46053</v>
+        <v>46063</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -7168,13 +7168,13 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0.023</v>
+        <v>0.065</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
       <c r="Q164" t="s">
         <v>180</v>
@@ -7194,34 +7194,34 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="2">
-        <v>46053</v>
+        <v>46063</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="E165">
-        <v>0.023</v>
+        <v>0.196</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>0.309</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>0.252</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="J165">
-        <v>0.032</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="Q165" t="s">
         <v>181</v>
@@ -7232,34 +7232,34 @@
     </row>
     <row r="166" spans="1:18">
       <c r="A166" s="2">
-        <v>46053</v>
+        <v>46063</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>0.348</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>0.392</v>
       </c>
       <c r="E166">
-        <v>0.02</v>
+        <v>0.606</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>0.764</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>0.884</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>0.528</v>
       </c>
       <c r="J166">
-        <v>0.032</v>
+        <v>0.37</v>
       </c>
       <c r="Q166" t="s">
         <v>182</v>
@@ -7270,34 +7270,34 @@
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="2">
-        <v>46053</v>
+        <v>46063</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>0.648</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>0.712</v>
       </c>
       <c r="E167">
-        <v>0.02</v>
+        <v>0.856</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>1.343</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J167">
-        <v>0.032</v>
+        <v>0.62</v>
       </c>
       <c r="Q167" t="s">
         <v>183</v>
@@ -7308,34 +7308,34 @@
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="2">
-        <v>46053</v>
+        <v>46063</v>
       </c>
       <c r="B168">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>1.058</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1.045</v>
       </c>
       <c r="E168">
-        <v>0.02</v>
+        <v>1.123</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1.082</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>1.431</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1.067</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J168">
-        <v>0.032</v>
+        <v>0.882</v>
       </c>
       <c r="Q168" t="s">
         <v>184</v>
@@ -7346,34 +7346,34 @@
     </row>
     <row r="169" spans="1:18">
       <c r="A169" s="2">
-        <v>46053</v>
+        <v>46063</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>1.214</v>
       </c>
       <c r="E169">
-        <v>0.02</v>
+        <v>1.199</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1.055</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>1.361</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1.043</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1.335</v>
       </c>
       <c r="J169">
-        <v>0.032</v>
+        <v>0.896</v>
       </c>
       <c r="Q169" t="s">
         <v>185</v>
@@ -7384,34 +7384,34 @@
     </row>
     <row r="170" spans="1:18">
       <c r="A170" s="2">
-        <v>46053</v>
+        <v>46063</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1.213</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>1.344</v>
       </c>
       <c r="E170">
-        <v>0.101</v>
+        <v>1.044</v>
       </c>
       <c r="F170">
-        <v>0.025</v>
+        <v>0.908</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>1.457</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>0.889</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1.281</v>
       </c>
       <c r="J170">
-        <v>0.032</v>
+        <v>0.868</v>
       </c>
       <c r="Q170" t="s">
         <v>186</v>

--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -70,222 +70,6 @@
     <t>Prediction_3D_Steel</t>
   </si>
   <si>
-    <t>03.02.202615</t>
-  </si>
-  <si>
-    <t>03.02.202616</t>
-  </si>
-  <si>
-    <t>03.02.202617</t>
-  </si>
-  <si>
-    <t>03.02.202618</t>
-  </si>
-  <si>
-    <t>03.02.202619</t>
-  </si>
-  <si>
-    <t>03.02.202620</t>
-  </si>
-  <si>
-    <t>03.02.202621</t>
-  </si>
-  <si>
-    <t>03.02.202622</t>
-  </si>
-  <si>
-    <t>03.02.202623</t>
-  </si>
-  <si>
-    <t>03.02.202624</t>
-  </si>
-  <si>
-    <t>04.02.20261</t>
-  </si>
-  <si>
-    <t>04.02.20262</t>
-  </si>
-  <si>
-    <t>04.02.20263</t>
-  </si>
-  <si>
-    <t>04.02.20264</t>
-  </si>
-  <si>
-    <t>04.02.20265</t>
-  </si>
-  <si>
-    <t>04.02.20266</t>
-  </si>
-  <si>
-    <t>04.02.20267</t>
-  </si>
-  <si>
-    <t>04.02.20268</t>
-  </si>
-  <si>
-    <t>04.02.20269</t>
-  </si>
-  <si>
-    <t>04.02.202610</t>
-  </si>
-  <si>
-    <t>04.02.202611</t>
-  </si>
-  <si>
-    <t>04.02.202612</t>
-  </si>
-  <si>
-    <t>04.02.202613</t>
-  </si>
-  <si>
-    <t>04.02.202614</t>
-  </si>
-  <si>
-    <t>04.02.202615</t>
-  </si>
-  <si>
-    <t>04.02.202616</t>
-  </si>
-  <si>
-    <t>04.02.202617</t>
-  </si>
-  <si>
-    <t>04.02.202618</t>
-  </si>
-  <si>
-    <t>04.02.202619</t>
-  </si>
-  <si>
-    <t>04.02.202620</t>
-  </si>
-  <si>
-    <t>04.02.202621</t>
-  </si>
-  <si>
-    <t>04.02.202622</t>
-  </si>
-  <si>
-    <t>04.02.202623</t>
-  </si>
-  <si>
-    <t>04.02.202624</t>
-  </si>
-  <si>
-    <t>05.02.20261</t>
-  </si>
-  <si>
-    <t>05.02.20262</t>
-  </si>
-  <si>
-    <t>05.02.20263</t>
-  </si>
-  <si>
-    <t>05.02.20264</t>
-  </si>
-  <si>
-    <t>05.02.20265</t>
-  </si>
-  <si>
-    <t>05.02.20266</t>
-  </si>
-  <si>
-    <t>05.02.20267</t>
-  </si>
-  <si>
-    <t>05.02.20268</t>
-  </si>
-  <si>
-    <t>05.02.20269</t>
-  </si>
-  <si>
-    <t>05.02.202610</t>
-  </si>
-  <si>
-    <t>05.02.202611</t>
-  </si>
-  <si>
-    <t>05.02.202612</t>
-  </si>
-  <si>
-    <t>05.02.202613</t>
-  </si>
-  <si>
-    <t>05.02.202614</t>
-  </si>
-  <si>
-    <t>05.02.202615</t>
-  </si>
-  <si>
-    <t>05.02.202616</t>
-  </si>
-  <si>
-    <t>05.02.202617</t>
-  </si>
-  <si>
-    <t>05.02.202618</t>
-  </si>
-  <si>
-    <t>05.02.202619</t>
-  </si>
-  <si>
-    <t>05.02.202620</t>
-  </si>
-  <si>
-    <t>05.02.202621</t>
-  </si>
-  <si>
-    <t>05.02.202622</t>
-  </si>
-  <si>
-    <t>05.02.202623</t>
-  </si>
-  <si>
-    <t>05.02.202624</t>
-  </si>
-  <si>
-    <t>06.02.20261</t>
-  </si>
-  <si>
-    <t>06.02.20262</t>
-  </si>
-  <si>
-    <t>06.02.20263</t>
-  </si>
-  <si>
-    <t>06.02.20264</t>
-  </si>
-  <si>
-    <t>06.02.20265</t>
-  </si>
-  <si>
-    <t>06.02.20266</t>
-  </si>
-  <si>
-    <t>06.02.20267</t>
-  </si>
-  <si>
-    <t>06.02.20268</t>
-  </si>
-  <si>
-    <t>06.02.20269</t>
-  </si>
-  <si>
-    <t>06.02.202610</t>
-  </si>
-  <si>
-    <t>06.02.202611</t>
-  </si>
-  <si>
-    <t>06.02.202612</t>
-  </si>
-  <si>
-    <t>06.02.202613</t>
-  </si>
-  <si>
-    <t>06.02.202614</t>
-  </si>
-  <si>
     <t>06.02.202615</t>
   </si>
   <si>
@@ -575,6 +359,222 @@
   </si>
   <si>
     <t>10.02.202615</t>
+  </si>
+  <si>
+    <t>10.02.202616</t>
+  </si>
+  <si>
+    <t>10.02.202617</t>
+  </si>
+  <si>
+    <t>10.02.202618</t>
+  </si>
+  <si>
+    <t>10.02.202619</t>
+  </si>
+  <si>
+    <t>10.02.202620</t>
+  </si>
+  <si>
+    <t>10.02.202621</t>
+  </si>
+  <si>
+    <t>10.02.202622</t>
+  </si>
+  <si>
+    <t>10.02.202623</t>
+  </si>
+  <si>
+    <t>10.02.202624</t>
+  </si>
+  <si>
+    <t>11.02.20261</t>
+  </si>
+  <si>
+    <t>11.02.20262</t>
+  </si>
+  <si>
+    <t>11.02.20263</t>
+  </si>
+  <si>
+    <t>11.02.20264</t>
+  </si>
+  <si>
+    <t>11.02.20265</t>
+  </si>
+  <si>
+    <t>11.02.20266</t>
+  </si>
+  <si>
+    <t>11.02.20267</t>
+  </si>
+  <si>
+    <t>11.02.20268</t>
+  </si>
+  <si>
+    <t>11.02.20269</t>
+  </si>
+  <si>
+    <t>11.02.202610</t>
+  </si>
+  <si>
+    <t>11.02.202611</t>
+  </si>
+  <si>
+    <t>11.02.202612</t>
+  </si>
+  <si>
+    <t>11.02.202613</t>
+  </si>
+  <si>
+    <t>11.02.202614</t>
+  </si>
+  <si>
+    <t>11.02.202615</t>
+  </si>
+  <si>
+    <t>11.02.202616</t>
+  </si>
+  <si>
+    <t>11.02.202617</t>
+  </si>
+  <si>
+    <t>11.02.202618</t>
+  </si>
+  <si>
+    <t>11.02.202619</t>
+  </si>
+  <si>
+    <t>11.02.202620</t>
+  </si>
+  <si>
+    <t>11.02.202621</t>
+  </si>
+  <si>
+    <t>11.02.202622</t>
+  </si>
+  <si>
+    <t>11.02.202623</t>
+  </si>
+  <si>
+    <t>11.02.202624</t>
+  </si>
+  <si>
+    <t>12.02.20261</t>
+  </si>
+  <si>
+    <t>12.02.20262</t>
+  </si>
+  <si>
+    <t>12.02.20263</t>
+  </si>
+  <si>
+    <t>12.02.20264</t>
+  </si>
+  <si>
+    <t>12.02.20265</t>
+  </si>
+  <si>
+    <t>12.02.20266</t>
+  </si>
+  <si>
+    <t>12.02.20267</t>
+  </si>
+  <si>
+    <t>12.02.20268</t>
+  </si>
+  <si>
+    <t>12.02.20269</t>
+  </si>
+  <si>
+    <t>12.02.202610</t>
+  </si>
+  <si>
+    <t>12.02.202611</t>
+  </si>
+  <si>
+    <t>12.02.202612</t>
+  </si>
+  <si>
+    <t>12.02.202613</t>
+  </si>
+  <si>
+    <t>12.02.202614</t>
+  </si>
+  <si>
+    <t>12.02.202615</t>
+  </si>
+  <si>
+    <t>12.02.202616</t>
+  </si>
+  <si>
+    <t>12.02.202617</t>
+  </si>
+  <si>
+    <t>12.02.202618</t>
+  </si>
+  <si>
+    <t>12.02.202619</t>
+  </si>
+  <si>
+    <t>12.02.202620</t>
+  </si>
+  <si>
+    <t>12.02.202621</t>
+  </si>
+  <si>
+    <t>12.02.202622</t>
+  </si>
+  <si>
+    <t>12.02.202623</t>
+  </si>
+  <si>
+    <t>12.02.202624</t>
+  </si>
+  <si>
+    <t>13.02.20261</t>
+  </si>
+  <si>
+    <t>13.02.20262</t>
+  </si>
+  <si>
+    <t>13.02.20263</t>
+  </si>
+  <si>
+    <t>13.02.20264</t>
+  </si>
+  <si>
+    <t>13.02.20265</t>
+  </si>
+  <si>
+    <t>13.02.20266</t>
+  </si>
+  <si>
+    <t>13.02.20267</t>
+  </si>
+  <si>
+    <t>13.02.20268</t>
+  </si>
+  <si>
+    <t>13.02.20269</t>
+  </si>
+  <si>
+    <t>13.02.202610</t>
+  </si>
+  <si>
+    <t>13.02.202611</t>
+  </si>
+  <si>
+    <t>13.02.202612</t>
+  </si>
+  <si>
+    <t>13.02.202613</t>
+  </si>
+  <si>
+    <t>13.02.202614</t>
+  </si>
+  <si>
+    <t>13.02.202615</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -1076,34 +1076,34 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="B4">
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.206</v>
+        <v>0.905</v>
       </c>
       <c r="D4">
-        <v>0.322</v>
+        <v>0.839</v>
       </c>
       <c r="E4">
-        <v>0.775</v>
+        <v>0.14</v>
       </c>
       <c r="F4">
-        <v>0.669</v>
+        <v>0.17</v>
       </c>
       <c r="G4">
-        <v>1.036</v>
+        <v>0.163</v>
       </c>
       <c r="H4">
-        <v>0.776</v>
+        <v>0.123</v>
       </c>
       <c r="I4">
-        <v>0.738</v>
+        <v>0.178</v>
       </c>
       <c r="J4">
-        <v>0.315</v>
+        <v>0.542</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -1114,34 +1114,34 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="B5">
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.054</v>
+        <v>0.172</v>
       </c>
       <c r="D5">
-        <v>0.07099999999999999</v>
+        <v>0.149</v>
       </c>
       <c r="E5">
-        <v>0.472</v>
+        <v>0.095</v>
       </c>
       <c r="F5">
-        <v>0.176</v>
+        <v>0.045</v>
       </c>
       <c r="G5">
-        <v>0.26</v>
+        <v>0.059</v>
       </c>
       <c r="H5">
-        <v>0.281</v>
+        <v>0.063</v>
       </c>
       <c r="I5">
-        <v>0.15</v>
+        <v>0.042</v>
       </c>
       <c r="J5">
-        <v>0.056</v>
+        <v>0.191</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -1152,19 +1152,19 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="B6">
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.031</v>
+        <v>0.026</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="B8">
         <v>21</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="Q8" t="s">
         <v>24</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="B9">
         <v>22</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="Q9" t="s">
         <v>25</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="B10">
         <v>23</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -1696,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.082</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.033</v>
+        <v>0.024</v>
       </c>
       <c r="G20">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1722,34 +1722,34 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21">
-        <v>0.038</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D21">
-        <v>0.047</v>
+        <v>0.11</v>
       </c>
       <c r="E21">
-        <v>0.192</v>
+        <v>0.123</v>
       </c>
       <c r="F21">
-        <v>0.228</v>
+        <v>0.092</v>
       </c>
       <c r="G21">
-        <v>0.198</v>
+        <v>0.102</v>
       </c>
       <c r="H21">
-        <v>0.195</v>
+        <v>0.121</v>
       </c>
       <c r="I21">
-        <v>0.064</v>
+        <v>0.058</v>
       </c>
       <c r="J21">
-        <v>0.073</v>
+        <v>0.082</v>
       </c>
       <c r="Q21" t="s">
         <v>37</v>
@@ -1760,34 +1760,34 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B22">
         <v>11</v>
       </c>
       <c r="C22">
-        <v>0.138</v>
+        <v>0.417</v>
       </c>
       <c r="D22">
-        <v>0.227</v>
+        <v>0.485</v>
       </c>
       <c r="E22">
-        <v>0.451</v>
+        <v>0.388</v>
       </c>
       <c r="F22">
-        <v>0.34</v>
+        <v>0.215</v>
       </c>
       <c r="G22">
-        <v>0.439</v>
+        <v>0.177</v>
       </c>
       <c r="H22">
-        <v>0.474</v>
+        <v>0.517</v>
       </c>
       <c r="I22">
-        <v>0.15</v>
+        <v>0.182</v>
       </c>
       <c r="J22">
-        <v>0.298</v>
+        <v>0.348</v>
       </c>
       <c r="Q22" t="s">
         <v>38</v>
@@ -1798,34 +1798,34 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B23">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>0.301</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="D23">
-        <v>0.412</v>
+        <v>0.821</v>
       </c>
       <c r="E23">
-        <v>0.665</v>
+        <v>0.677</v>
       </c>
       <c r="F23">
-        <v>0.504</v>
+        <v>0.388</v>
       </c>
       <c r="G23">
-        <v>0.84</v>
+        <v>0.384</v>
       </c>
       <c r="H23">
-        <v>0.708</v>
+        <v>0.529</v>
       </c>
       <c r="I23">
-        <v>0.193</v>
+        <v>0.251</v>
       </c>
       <c r="J23">
-        <v>0.462</v>
+        <v>0.597</v>
       </c>
       <c r="Q23" t="s">
         <v>39</v>
@@ -1836,34 +1836,34 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B24">
         <v>13</v>
       </c>
       <c r="C24">
-        <v>0.442</v>
+        <v>1.021</v>
       </c>
       <c r="D24">
-        <v>0.733</v>
+        <v>1.273</v>
       </c>
       <c r="E24">
-        <v>0.865</v>
+        <v>0.804</v>
       </c>
       <c r="F24">
-        <v>0.496</v>
+        <v>0.499</v>
       </c>
       <c r="G24">
-        <v>1.306</v>
+        <v>0.327</v>
       </c>
       <c r="H24">
-        <v>0.8080000000000001</v>
+        <v>0.671</v>
       </c>
       <c r="I24">
-        <v>0.219</v>
+        <v>0.357</v>
       </c>
       <c r="J24">
-        <v>0.823</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q24" t="s">
         <v>40</v>
@@ -1874,34 +1874,34 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B25">
         <v>14</v>
       </c>
       <c r="C25">
-        <v>0.536</v>
+        <v>0.985</v>
       </c>
       <c r="D25">
-        <v>0.797</v>
+        <v>1.323</v>
       </c>
       <c r="E25">
-        <v>1.253</v>
+        <v>0.89</v>
       </c>
       <c r="F25">
-        <v>0.516</v>
+        <v>0.517</v>
       </c>
       <c r="G25">
-        <v>1.495</v>
+        <v>0.253</v>
       </c>
       <c r="H25">
-        <v>0.858</v>
+        <v>0.71</v>
       </c>
       <c r="I25">
-        <v>0.242</v>
+        <v>0.502</v>
       </c>
       <c r="J25">
-        <v>0.876</v>
+        <v>0.791</v>
       </c>
       <c r="Q25" t="s">
         <v>41</v>
@@ -1912,34 +1912,34 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B26">
         <v>15</v>
       </c>
       <c r="C26">
-        <v>0.526</v>
+        <v>0.777</v>
       </c>
       <c r="D26">
-        <v>0.677</v>
+        <v>1.08</v>
       </c>
       <c r="E26">
-        <v>1.255</v>
+        <v>1.081</v>
       </c>
       <c r="F26">
-        <v>0.511</v>
+        <v>0.541</v>
       </c>
       <c r="G26">
-        <v>1.421</v>
+        <v>0.501</v>
       </c>
       <c r="H26">
-        <v>0.8120000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="I26">
-        <v>0.219</v>
+        <v>0.471</v>
       </c>
       <c r="J26">
-        <v>0.863</v>
+        <v>0.571</v>
       </c>
       <c r="Q26" t="s">
         <v>42</v>
@@ -1950,34 +1950,34 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B27">
         <v>16</v>
       </c>
       <c r="C27">
-        <v>0.296</v>
+        <v>0.625</v>
       </c>
       <c r="D27">
-        <v>0.421</v>
+        <v>0.767</v>
       </c>
       <c r="E27">
-        <v>1.183</v>
+        <v>0.974</v>
       </c>
       <c r="F27">
-        <v>0.334</v>
+        <v>0.392</v>
       </c>
       <c r="G27">
-        <v>0.773</v>
+        <v>0.328</v>
       </c>
       <c r="H27">
-        <v>0.76</v>
+        <v>0.584</v>
       </c>
       <c r="I27">
-        <v>0.188</v>
+        <v>0.486</v>
       </c>
       <c r="J27">
-        <v>0.572</v>
+        <v>0.411</v>
       </c>
       <c r="Q27" t="s">
         <v>43</v>
@@ -1988,34 +1988,34 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B28">
         <v>17</v>
       </c>
       <c r="C28">
-        <v>0.145</v>
+        <v>0.259</v>
       </c>
       <c r="D28">
-        <v>0.212</v>
+        <v>0.448</v>
       </c>
       <c r="E28">
-        <v>0.795</v>
+        <v>0.785</v>
       </c>
       <c r="F28">
-        <v>0.21</v>
+        <v>0.203</v>
       </c>
       <c r="G28">
-        <v>0.264</v>
+        <v>0.258</v>
       </c>
       <c r="H28">
-        <v>0.379</v>
+        <v>0.337</v>
       </c>
       <c r="I28">
-        <v>0.112</v>
+        <v>0.307</v>
       </c>
       <c r="J28">
-        <v>0.315</v>
+        <v>0.269</v>
       </c>
       <c r="Q28" t="s">
         <v>44</v>
@@ -2026,34 +2026,34 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B29">
         <v>18</v>
       </c>
       <c r="C29">
-        <v>0.064</v>
+        <v>0.079</v>
       </c>
       <c r="D29">
-        <v>0.07000000000000001</v>
+        <v>0.089</v>
       </c>
       <c r="E29">
-        <v>0.446</v>
+        <v>0.271</v>
       </c>
       <c r="F29">
-        <v>0.067</v>
+        <v>0.074</v>
       </c>
       <c r="G29">
-        <v>0.097</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H29">
-        <v>0.118</v>
+        <v>0.123</v>
       </c>
       <c r="I29">
-        <v>0.025</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J29">
-        <v>0.056</v>
+        <v>0.037</v>
       </c>
       <c r="Q29" t="s">
         <v>45</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B30">
         <v>19</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.221</v>
+        <v>0.018</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.045</v>
+        <v>0.026</v>
       </c>
       <c r="Q30" t="s">
         <v>46</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.213</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="Q31" t="s">
         <v>47</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B32">
         <v>21</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.213</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="Q32" t="s">
         <v>48</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B33">
         <v>22</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.213</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="Q33" t="s">
         <v>49</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B34">
         <v>23</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.213</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="Q34" t="s">
         <v>50</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="2">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B35">
         <v>24</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="Q35" t="s">
         <v>51</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q36" t="s">
         <v>52</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q37" t="s">
         <v>53</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q38" t="s">
         <v>54</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q39" t="s">
         <v>55</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q40" t="s">
         <v>56</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q41" t="s">
         <v>57</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q42" t="s">
         <v>58</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q43" t="s">
         <v>59</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B44">
         <v>9</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.034</v>
+        <v>0.045</v>
       </c>
       <c r="G44">
-        <v>0.014</v>
+        <v>0.022</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.038</v>
+        <v>0.024</v>
       </c>
       <c r="Q44" t="s">
         <v>60</v>
@@ -2634,34 +2634,34 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B45">
         <v>10</v>
       </c>
       <c r="C45">
-        <v>0.044</v>
+        <v>0.051</v>
       </c>
       <c r="D45">
         <v>0.056</v>
       </c>
       <c r="E45">
-        <v>0.067</v>
+        <v>0.154</v>
       </c>
       <c r="F45">
-        <v>0.155</v>
+        <v>0.283</v>
       </c>
       <c r="G45">
-        <v>0.119</v>
+        <v>0.242</v>
       </c>
       <c r="H45">
-        <v>0.123</v>
+        <v>0.21</v>
       </c>
       <c r="I45">
-        <v>0.058</v>
+        <v>0.098</v>
       </c>
       <c r="J45">
-        <v>0.051</v>
+        <v>0.046</v>
       </c>
       <c r="Q45" t="s">
         <v>61</v>
@@ -2672,31 +2672,31 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B46">
         <v>11</v>
       </c>
       <c r="C46">
-        <v>0.179</v>
+        <v>0.178</v>
       </c>
       <c r="D46">
-        <v>0.236</v>
+        <v>0.168</v>
       </c>
       <c r="E46">
-        <v>0.182</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F46">
-        <v>0.197</v>
+        <v>0.373</v>
       </c>
       <c r="G46">
-        <v>0.17</v>
+        <v>0.378</v>
       </c>
       <c r="H46">
-        <v>0.339</v>
+        <v>0.465</v>
       </c>
       <c r="I46">
-        <v>0.11</v>
+        <v>0.194</v>
       </c>
       <c r="J46">
         <v>0.189</v>
@@ -2710,34 +2710,34 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B47">
         <v>12</v>
       </c>
       <c r="C47">
-        <v>0.389</v>
+        <v>0.22</v>
       </c>
       <c r="D47">
-        <v>0.481</v>
+        <v>0.222</v>
       </c>
       <c r="E47">
-        <v>0.368</v>
+        <v>0.907</v>
       </c>
       <c r="F47">
-        <v>0.358</v>
+        <v>0.598</v>
       </c>
       <c r="G47">
-        <v>0.326</v>
+        <v>0.407</v>
       </c>
       <c r="H47">
-        <v>0.478</v>
+        <v>0.719</v>
       </c>
       <c r="I47">
-        <v>0.153</v>
+        <v>0.275</v>
       </c>
       <c r="J47">
-        <v>0.334</v>
+        <v>0.279</v>
       </c>
       <c r="Q47" t="s">
         <v>63</v>
@@ -2748,34 +2748,34 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B48">
         <v>13</v>
       </c>
       <c r="C48">
-        <v>0.59</v>
+        <v>0.349</v>
       </c>
       <c r="D48">
-        <v>0.747</v>
+        <v>0.284</v>
       </c>
       <c r="E48">
-        <v>0.461</v>
+        <v>1.077</v>
       </c>
       <c r="F48">
-        <v>0.385</v>
+        <v>0.791</v>
       </c>
       <c r="G48">
-        <v>0.4</v>
+        <v>0.726</v>
       </c>
       <c r="H48">
-        <v>0.5639999999999999</v>
+        <v>0.778</v>
       </c>
       <c r="I48">
-        <v>0.178</v>
+        <v>0.328</v>
       </c>
       <c r="J48">
-        <v>0.442</v>
+        <v>0.285</v>
       </c>
       <c r="Q48" t="s">
         <v>64</v>
@@ -2786,34 +2786,34 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B49">
         <v>14</v>
       </c>
       <c r="C49">
-        <v>0.6870000000000001</v>
+        <v>0.413</v>
       </c>
       <c r="D49">
-        <v>0.966</v>
+        <v>0.384</v>
       </c>
       <c r="E49">
-        <v>0.474</v>
+        <v>1.31</v>
       </c>
       <c r="F49">
-        <v>0.389</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="G49">
-        <v>0.417</v>
+        <v>0.664</v>
       </c>
       <c r="H49">
-        <v>0.677</v>
+        <v>0.778</v>
       </c>
       <c r="I49">
-        <v>0.185</v>
+        <v>0.302</v>
       </c>
       <c r="J49">
-        <v>0.442</v>
+        <v>0.285</v>
       </c>
       <c r="Q49" t="s">
         <v>65</v>
@@ -2824,34 +2824,34 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B50">
         <v>15</v>
       </c>
       <c r="C50">
-        <v>0.894</v>
+        <v>0.44</v>
       </c>
       <c r="D50">
-        <v>1.121</v>
+        <v>0.409</v>
       </c>
       <c r="E50">
-        <v>0.466</v>
+        <v>1.285</v>
       </c>
       <c r="F50">
-        <v>0.347</v>
+        <v>0.658</v>
       </c>
       <c r="G50">
-        <v>0.326</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="H50">
-        <v>0.629</v>
+        <v>0.768</v>
       </c>
       <c r="I50">
-        <v>0.174</v>
+        <v>0.281</v>
       </c>
       <c r="J50">
-        <v>0.411</v>
+        <v>0.208</v>
       </c>
       <c r="Q50" t="s">
         <v>66</v>
@@ -2862,34 +2862,34 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B51">
         <v>16</v>
       </c>
       <c r="C51">
-        <v>0.676</v>
+        <v>0.331</v>
       </c>
       <c r="D51">
-        <v>1.015</v>
+        <v>0.399</v>
       </c>
       <c r="E51">
-        <v>0.392</v>
+        <v>1.081</v>
       </c>
       <c r="F51">
-        <v>0.243</v>
+        <v>0.438</v>
       </c>
       <c r="G51">
-        <v>0.198</v>
+        <v>0.301</v>
       </c>
       <c r="H51">
-        <v>0.591</v>
+        <v>0.584</v>
       </c>
       <c r="I51">
-        <v>0.136</v>
+        <v>0.2</v>
       </c>
       <c r="J51">
-        <v>0.365</v>
+        <v>0.173</v>
       </c>
       <c r="Q51" t="s">
         <v>67</v>
@@ -2900,34 +2900,34 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B52">
         <v>17</v>
       </c>
       <c r="C52">
-        <v>0.387</v>
+        <v>0.16</v>
       </c>
       <c r="D52">
-        <v>0.679</v>
+        <v>0.211</v>
       </c>
       <c r="E52">
-        <v>0.234</v>
+        <v>0.864</v>
       </c>
       <c r="F52">
-        <v>0.141</v>
+        <v>0.235</v>
       </c>
       <c r="G52">
-        <v>0.137</v>
+        <v>0.259</v>
       </c>
       <c r="H52">
-        <v>0.228</v>
+        <v>0.382</v>
       </c>
       <c r="I52">
-        <v>0.068</v>
+        <v>0.119</v>
       </c>
       <c r="J52">
-        <v>0.263</v>
+        <v>0.059</v>
       </c>
       <c r="Q52" t="s">
         <v>68</v>
@@ -2938,34 +2938,34 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B53">
         <v>18</v>
       </c>
       <c r="C53">
-        <v>0.147</v>
+        <v>0.068</v>
       </c>
       <c r="D53">
-        <v>0.213</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E53">
-        <v>0.057</v>
+        <v>0.358</v>
       </c>
       <c r="F53">
-        <v>0.049</v>
+        <v>0.059</v>
       </c>
       <c r="G53">
-        <v>0.059</v>
+        <v>0.083</v>
       </c>
       <c r="H53">
-        <v>0.063</v>
+        <v>0.123</v>
       </c>
       <c r="I53">
-        <v>0.025</v>
+        <v>0.061</v>
       </c>
       <c r="J53">
-        <v>0.037</v>
+        <v>0.026</v>
       </c>
       <c r="Q53" t="s">
         <v>69</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B54">
         <v>19</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B55">
         <v>20</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="Q55" t="s">
         <v>71</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B56">
         <v>21</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="Q56" t="s">
         <v>72</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B57">
         <v>22</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="Q57" t="s">
         <v>73</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B58">
         <v>23</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="Q58" t="s">
         <v>74</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="2">
-        <v>46058</v>
+        <v>46061</v>
       </c>
       <c r="B59">
         <v>24</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.031</v>
+        <v>0.013</v>
       </c>
       <c r="Q59" t="s">
         <v>75</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q60" t="s">
         <v>76</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q61" t="s">
         <v>77</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q62" t="s">
         <v>78</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q63" t="s">
         <v>79</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q64" t="s">
         <v>80</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q65" t="s">
         <v>81</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B66">
         <v>7</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0.032</v>
+        <v>0.014</v>
       </c>
       <c r="Q66" t="s">
         <v>82</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B68">
         <v>9</v>
@@ -3526,7 +3526,7 @@
         <v>0.03</v>
       </c>
       <c r="G68">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3546,34 +3546,34 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B69">
         <v>10</v>
       </c>
       <c r="C69">
-        <v>0.091</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D69">
-        <v>0.109</v>
+        <v>0.074</v>
       </c>
       <c r="E69">
-        <v>0.046</v>
+        <v>0.102</v>
       </c>
       <c r="F69">
-        <v>0.17</v>
+        <v>0.226</v>
       </c>
       <c r="G69">
-        <v>0.13</v>
+        <v>0.143</v>
       </c>
       <c r="H69">
         <v>0.123</v>
       </c>
       <c r="I69">
-        <v>0.058</v>
+        <v>0.094</v>
       </c>
       <c r="J69">
-        <v>0.163</v>
+        <v>0.046</v>
       </c>
       <c r="Q69" t="s">
         <v>85</v>
@@ -3584,34 +3584,34 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B70">
         <v>11</v>
       </c>
       <c r="C70">
-        <v>0.354</v>
+        <v>0.193</v>
       </c>
       <c r="D70">
-        <v>0.44</v>
+        <v>0.234</v>
       </c>
       <c r="E70">
-        <v>0.227</v>
+        <v>0.284</v>
       </c>
       <c r="F70">
-        <v>0.34</v>
+        <v>0.299</v>
       </c>
       <c r="G70">
-        <v>0.354</v>
+        <v>0.316</v>
       </c>
       <c r="H70">
-        <v>0.354</v>
+        <v>0.341</v>
       </c>
       <c r="I70">
-        <v>0.136</v>
+        <v>0.266</v>
       </c>
       <c r="J70">
-        <v>0.462</v>
+        <v>0.218</v>
       </c>
       <c r="Q70" t="s">
         <v>86</v>
@@ -3622,34 +3622,34 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B71">
         <v>12</v>
       </c>
       <c r="C71">
-        <v>0.614</v>
+        <v>0.359</v>
       </c>
       <c r="D71">
-        <v>0.756</v>
+        <v>0.317</v>
       </c>
       <c r="E71">
-        <v>0.376</v>
+        <v>0.392</v>
       </c>
       <c r="F71">
-        <v>0.501</v>
+        <v>0.387</v>
       </c>
       <c r="G71">
-        <v>0.396</v>
+        <v>0.333</v>
       </c>
       <c r="H71">
-        <v>0.529</v>
+        <v>0.54</v>
       </c>
       <c r="I71">
-        <v>0.178</v>
+        <v>0.472</v>
       </c>
       <c r="J71">
-        <v>0.86</v>
+        <v>0.348</v>
       </c>
       <c r="Q71" t="s">
         <v>87</v>
@@ -3660,34 +3660,34 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B72">
         <v>13</v>
       </c>
       <c r="C72">
-        <v>1.003</v>
+        <v>0.419</v>
       </c>
       <c r="D72">
-        <v>1.261</v>
+        <v>0.35</v>
       </c>
       <c r="E72">
-        <v>0.463</v>
+        <v>0.528</v>
       </c>
       <c r="F72">
-        <v>0.52</v>
+        <v>0.406</v>
       </c>
       <c r="G72">
-        <v>0.432</v>
+        <v>0.36</v>
       </c>
       <c r="H72">
-        <v>0.59</v>
+        <v>0.708</v>
       </c>
       <c r="I72">
-        <v>0.212</v>
+        <v>0.482</v>
       </c>
       <c r="J72">
-        <v>1.022</v>
+        <v>0.38</v>
       </c>
       <c r="Q72" t="s">
         <v>88</v>
@@ -3698,34 +3698,34 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B73">
         <v>14</v>
       </c>
       <c r="C73">
-        <v>1.127</v>
+        <v>0.407</v>
       </c>
       <c r="D73">
-        <v>1.828</v>
+        <v>0.359</v>
       </c>
       <c r="E73">
-        <v>0.611</v>
+        <v>0.533</v>
       </c>
       <c r="F73">
-        <v>0.577</v>
+        <v>0.378</v>
       </c>
       <c r="G73">
-        <v>0.394</v>
+        <v>0.345</v>
       </c>
       <c r="H73">
-        <v>0.671</v>
+        <v>0.731</v>
       </c>
       <c r="I73">
-        <v>0.238</v>
+        <v>0.482</v>
       </c>
       <c r="J73">
-        <v>1.06</v>
+        <v>0.459</v>
       </c>
       <c r="Q73" t="s">
         <v>89</v>
@@ -3736,34 +3736,34 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B74">
         <v>15</v>
       </c>
       <c r="C74">
-        <v>1.327</v>
+        <v>0.384</v>
       </c>
       <c r="D74">
-        <v>1.86</v>
+        <v>0.354</v>
       </c>
       <c r="E74">
-        <v>0.5590000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="F74">
-        <v>0.592</v>
+        <v>0.385</v>
       </c>
       <c r="G74">
-        <v>0.354</v>
+        <v>0.359</v>
       </c>
       <c r="H74">
-        <v>0.713</v>
+        <v>0.708</v>
       </c>
       <c r="I74">
-        <v>0.229</v>
+        <v>0.505</v>
       </c>
       <c r="J74">
-        <v>0.999</v>
+        <v>0.389</v>
       </c>
       <c r="Q74" t="s">
         <v>90</v>
@@ -3774,34 +3774,34 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B75">
         <v>16</v>
       </c>
       <c r="C75">
-        <v>1.204</v>
+        <v>0.274</v>
       </c>
       <c r="D75">
-        <v>1.736</v>
+        <v>0.266</v>
       </c>
       <c r="E75">
-        <v>0.45</v>
+        <v>0.405</v>
       </c>
       <c r="F75">
-        <v>0.515</v>
+        <v>0.304</v>
       </c>
       <c r="G75">
-        <v>0.295</v>
+        <v>0.343</v>
       </c>
       <c r="H75">
-        <v>0.503</v>
+        <v>0.529</v>
       </c>
       <c r="I75">
-        <v>0.198</v>
+        <v>0.348</v>
       </c>
       <c r="J75">
-        <v>0.8179999999999999</v>
+        <v>0.337</v>
       </c>
       <c r="Q75" t="s">
         <v>91</v>
@@ -3812,34 +3812,34 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B76">
         <v>17</v>
       </c>
       <c r="C76">
-        <v>0.679</v>
+        <v>0.132</v>
       </c>
       <c r="D76">
-        <v>0.916</v>
+        <v>0.213</v>
       </c>
       <c r="E76">
-        <v>0.272</v>
+        <v>0.25</v>
       </c>
       <c r="F76">
-        <v>0.274</v>
+        <v>0.221</v>
       </c>
       <c r="G76">
-        <v>0.256</v>
+        <v>0.188</v>
       </c>
       <c r="H76">
-        <v>0.415</v>
+        <v>0.43</v>
       </c>
       <c r="I76">
-        <v>0.137</v>
+        <v>0.201</v>
       </c>
       <c r="J76">
-        <v>0.535</v>
+        <v>0.282</v>
       </c>
       <c r="Q76" t="s">
         <v>92</v>
@@ -3850,34 +3850,34 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B77">
         <v>18</v>
       </c>
       <c r="C77">
-        <v>0.205</v>
+        <v>0.081</v>
       </c>
       <c r="D77">
-        <v>0.293</v>
+        <v>0.091</v>
       </c>
       <c r="E77">
-        <v>0.076</v>
+        <v>0.08</v>
       </c>
       <c r="F77">
-        <v>0.07199999999999999</v>
+        <v>0.053</v>
       </c>
       <c r="G77">
-        <v>0.09</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H77">
-        <v>0.083</v>
+        <v>0.112</v>
       </c>
       <c r="I77">
-        <v>0.044</v>
+        <v>0.064</v>
       </c>
       <c r="J77">
-        <v>0.191</v>
+        <v>0.065</v>
       </c>
       <c r="Q77" t="s">
         <v>93</v>
@@ -3888,16 +3888,16 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B78">
         <v>19</v>
       </c>
       <c r="C78">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.026</v>
+        <v>0.045</v>
       </c>
       <c r="Q78" t="s">
         <v>94</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B79">
         <v>20</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="Q79" t="s">
         <v>95</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B80">
         <v>21</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="Q80" t="s">
         <v>96</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B81">
         <v>22</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="Q81" t="s">
         <v>97</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B82">
         <v>23</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.199</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="Q82" t="s">
         <v>98</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="2">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B83">
         <v>24</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="Q83" t="s">
         <v>99</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B90">
         <v>7</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B92">
         <v>9</v>
@@ -4432,13 +4432,13 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="F92">
-        <v>0.03</v>
+        <v>0.042</v>
       </c>
       <c r="G92">
-        <v>0.012</v>
+        <v>0.022</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0.038</v>
+        <v>0.051</v>
       </c>
       <c r="Q92" t="s">
         <v>108</v>
@@ -4458,34 +4458,34 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B93">
         <v>10</v>
       </c>
       <c r="C93">
-        <v>0.064</v>
+        <v>0.201</v>
       </c>
       <c r="D93">
-        <v>0.07099999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="E93">
-        <v>0.094</v>
+        <v>0.205</v>
       </c>
       <c r="F93">
-        <v>0.149</v>
+        <v>0.302</v>
       </c>
       <c r="G93">
-        <v>0.11</v>
+        <v>0.321</v>
       </c>
       <c r="H93">
-        <v>0.123</v>
+        <v>0.208</v>
       </c>
       <c r="I93">
-        <v>0.068</v>
+        <v>0.242</v>
       </c>
       <c r="J93">
-        <v>0.046</v>
+        <v>0.163</v>
       </c>
       <c r="Q93" t="s">
         <v>109</v>
@@ -4496,34 +4496,34 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B94">
         <v>11</v>
       </c>
       <c r="C94">
-        <v>0.275</v>
+        <v>0.716</v>
       </c>
       <c r="D94">
-        <v>0.221</v>
+        <v>1.054</v>
       </c>
       <c r="E94">
-        <v>0.385</v>
+        <v>0.608</v>
       </c>
       <c r="F94">
-        <v>0.337</v>
+        <v>0.639</v>
       </c>
       <c r="G94">
-        <v>0.272</v>
+        <v>0.858</v>
       </c>
       <c r="H94">
-        <v>0.345</v>
+        <v>0.491</v>
       </c>
       <c r="I94">
-        <v>0.193</v>
+        <v>0.661</v>
       </c>
       <c r="J94">
-        <v>0.279</v>
+        <v>0.462</v>
       </c>
       <c r="Q94" t="s">
         <v>110</v>
@@ -4534,34 +4534,34 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B95">
         <v>12</v>
       </c>
       <c r="C95">
-        <v>0.433</v>
+        <v>1.651</v>
       </c>
       <c r="D95">
-        <v>0.427</v>
+        <v>1.965</v>
       </c>
       <c r="E95">
-        <v>0.585</v>
+        <v>0.777</v>
       </c>
       <c r="F95">
-        <v>0.387</v>
+        <v>0.84</v>
       </c>
       <c r="G95">
-        <v>0.384</v>
+        <v>1.245</v>
       </c>
       <c r="H95">
-        <v>0.482</v>
+        <v>0.805</v>
       </c>
       <c r="I95">
-        <v>0.259</v>
+        <v>0.974</v>
       </c>
       <c r="J95">
-        <v>0.449</v>
+        <v>0.866</v>
       </c>
       <c r="Q95" t="s">
         <v>111</v>
@@ -4572,34 +4572,34 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B96">
         <v>13</v>
       </c>
       <c r="C96">
-        <v>0.632</v>
+        <v>1.886</v>
       </c>
       <c r="D96">
-        <v>0.698</v>
+        <v>2.255</v>
       </c>
       <c r="E96">
-        <v>0.783</v>
+        <v>1.058</v>
       </c>
       <c r="F96">
-        <v>0.592</v>
+        <v>0.905</v>
       </c>
       <c r="G96">
-        <v>0.358</v>
+        <v>1.342</v>
       </c>
       <c r="H96">
-        <v>0.578</v>
+        <v>0.836</v>
       </c>
       <c r="I96">
-        <v>0.457</v>
+        <v>1.252</v>
       </c>
       <c r="J96">
-        <v>0.555</v>
+        <v>0.92</v>
       </c>
       <c r="Q96" t="s">
         <v>112</v>
@@ -4610,34 +4610,34 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B97">
         <v>14</v>
       </c>
       <c r="C97">
-        <v>0.657</v>
+        <v>1.904</v>
       </c>
       <c r="D97">
-        <v>0.806</v>
+        <v>2.23</v>
       </c>
       <c r="E97">
-        <v>0.721</v>
+        <v>1.121</v>
       </c>
       <c r="F97">
-        <v>0.664</v>
+        <v>0.945</v>
       </c>
       <c r="G97">
-        <v>0.403</v>
+        <v>1.39</v>
       </c>
       <c r="H97">
-        <v>0.772</v>
+        <v>0.836</v>
       </c>
       <c r="I97">
-        <v>0.497</v>
+        <v>1.243</v>
       </c>
       <c r="J97">
-        <v>0.442</v>
+        <v>0.92</v>
       </c>
       <c r="Q97" t="s">
         <v>113</v>
@@ -4648,34 +4648,34 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B98">
         <v>15</v>
       </c>
       <c r="C98">
-        <v>0.634</v>
+        <v>1.635</v>
       </c>
       <c r="D98">
-        <v>0.739</v>
+        <v>1.911</v>
       </c>
       <c r="E98">
-        <v>0.753</v>
+        <v>0.962</v>
       </c>
       <c r="F98">
-        <v>0.624</v>
+        <v>0.88</v>
       </c>
       <c r="G98">
-        <v>0.42</v>
+        <v>1.304</v>
       </c>
       <c r="H98">
-        <v>0.731</v>
+        <v>0.793</v>
       </c>
       <c r="I98">
-        <v>0.497</v>
+        <v>1.038</v>
       </c>
       <c r="J98">
-        <v>0.351</v>
+        <v>0.891</v>
       </c>
       <c r="Q98" t="s">
         <v>114</v>
@@ -4686,34 +4686,34 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B99">
         <v>16</v>
       </c>
       <c r="C99">
-        <v>0.458</v>
+        <v>1.267</v>
       </c>
       <c r="D99">
-        <v>0.539</v>
+        <v>1.541</v>
       </c>
       <c r="E99">
-        <v>0.865</v>
+        <v>0.795</v>
       </c>
       <c r="F99">
-        <v>0.539</v>
+        <v>0.647</v>
       </c>
       <c r="G99">
-        <v>0.362</v>
+        <v>0.896</v>
       </c>
       <c r="H99">
-        <v>0.574</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="I99">
-        <v>0.348</v>
+        <v>0.582</v>
       </c>
       <c r="J99">
-        <v>0.28</v>
+        <v>0.855</v>
       </c>
       <c r="Q99" t="s">
         <v>115</v>
@@ -4724,34 +4724,34 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B100">
         <v>17</v>
       </c>
       <c r="C100">
-        <v>0.199</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="D100">
-        <v>0.246</v>
+        <v>0.825</v>
       </c>
       <c r="E100">
-        <v>0.5</v>
+        <v>0.575</v>
       </c>
       <c r="F100">
-        <v>0.293</v>
+        <v>0.322</v>
       </c>
       <c r="G100">
-        <v>0.267</v>
+        <v>0.429</v>
       </c>
       <c r="H100">
-        <v>0.382</v>
+        <v>0.333</v>
       </c>
       <c r="I100">
-        <v>0.197</v>
+        <v>0.346</v>
       </c>
       <c r="J100">
-        <v>0.182</v>
+        <v>0.444</v>
       </c>
       <c r="Q100" t="s">
         <v>116</v>
@@ -4762,34 +4762,34 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B101">
         <v>18</v>
       </c>
       <c r="C101">
-        <v>0.064</v>
+        <v>0.218</v>
       </c>
       <c r="D101">
-        <v>0.09</v>
+        <v>0.278</v>
       </c>
       <c r="E101">
-        <v>0.145</v>
+        <v>0.298</v>
       </c>
       <c r="F101">
-        <v>0.07199999999999999</v>
+        <v>0.078</v>
       </c>
       <c r="G101">
-        <v>0.09</v>
+        <v>0.097</v>
       </c>
       <c r="H101">
         <v>0.112</v>
       </c>
       <c r="I101">
-        <v>0.064</v>
+        <v>0.089</v>
       </c>
       <c r="J101">
-        <v>0.026</v>
+        <v>0.144</v>
       </c>
       <c r="Q101" t="s">
         <v>117</v>
@@ -4800,25 +4800,25 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B102">
         <v>19</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.176</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0.026</v>
+        <v>0.045</v>
       </c>
       <c r="Q102" t="s">
         <v>118</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B103">
         <v>20</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="Q103" t="s">
         <v>119</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B104">
         <v>21</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="Q104" t="s">
         <v>120</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B105">
         <v>22</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="Q105" t="s">
         <v>121</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B106">
         <v>23</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="Q106" t="s">
         <v>122</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="2">
-        <v>46060</v>
+        <v>46063</v>
       </c>
       <c r="B107">
         <v>24</v>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="Q107" t="s">
         <v>123</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="Q108" t="s">
         <v>124</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="Q109" t="s">
         <v>125</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0.029</v>
+        <v>0.012</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="Q110" t="s">
         <v>126</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0.043</v>
+        <v>0.012</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="Q111" t="s">
         <v>127</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="Q112" t="s">
         <v>128</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="Q113" t="s">
         <v>129</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B114">
         <v>7</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="Q114" t="s">
         <v>130</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="Q115" t="s">
         <v>131</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B116">
         <v>9</v>
@@ -5344,22 +5344,22 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0.103</v>
+        <v>0.065</v>
       </c>
       <c r="F116">
-        <v>0.03</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G116">
-        <v>0.014</v>
+        <v>0.037</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0.024</v>
+        <v>0.038</v>
       </c>
       <c r="Q116" t="s">
         <v>132</v>
@@ -5370,34 +5370,34 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B117">
         <v>10</v>
       </c>
       <c r="C117">
-        <v>0.038</v>
+        <v>0.08</v>
       </c>
       <c r="D117">
-        <v>0.049</v>
+        <v>0.107</v>
       </c>
       <c r="E117">
-        <v>0.288</v>
+        <v>0.196</v>
       </c>
       <c r="F117">
-        <v>0.211</v>
+        <v>0.54</v>
       </c>
       <c r="G117">
-        <v>0.143</v>
+        <v>0.404</v>
       </c>
       <c r="H117">
-        <v>0.123</v>
+        <v>0.316</v>
       </c>
       <c r="I117">
-        <v>0.068</v>
+        <v>0.178</v>
       </c>
       <c r="J117">
-        <v>0.038</v>
+        <v>0.073</v>
       </c>
       <c r="Q117" t="s">
         <v>133</v>
@@ -5408,34 +5408,34 @@
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B118">
         <v>11</v>
       </c>
       <c r="C118">
-        <v>0.206</v>
+        <v>0.222</v>
       </c>
       <c r="D118">
-        <v>0.209</v>
+        <v>0.377</v>
       </c>
       <c r="E118">
-        <v>0.8080000000000001</v>
+        <v>0.608</v>
       </c>
       <c r="F118">
-        <v>0.421</v>
+        <v>1.088</v>
       </c>
       <c r="G118">
-        <v>0.38</v>
+        <v>0.971</v>
       </c>
       <c r="H118">
-        <v>0.464</v>
+        <v>0.74</v>
       </c>
       <c r="I118">
-        <v>0.187</v>
+        <v>0.478</v>
       </c>
       <c r="J118">
-        <v>0.205</v>
+        <v>0.298</v>
       </c>
       <c r="Q118" t="s">
         <v>134</v>
@@ -5446,34 +5446,34 @@
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B119">
         <v>12</v>
       </c>
       <c r="C119">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="D119">
-        <v>0.271</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E119">
-        <v>0.989</v>
+        <v>0.846</v>
       </c>
       <c r="F119">
-        <v>0.636</v>
+        <v>1.729</v>
       </c>
       <c r="G119">
-        <v>0.397</v>
+        <v>1.631</v>
       </c>
       <c r="H119">
-        <v>0.719</v>
+        <v>1.011</v>
       </c>
       <c r="I119">
-        <v>0.253</v>
+        <v>0.727</v>
       </c>
       <c r="J119">
-        <v>0.356</v>
+        <v>0.585</v>
       </c>
       <c r="Q119" t="s">
         <v>135</v>
@@ -5484,34 +5484,34 @@
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B120">
         <v>13</v>
       </c>
       <c r="C120">
-        <v>0.434</v>
+        <v>0.636</v>
       </c>
       <c r="D120">
-        <v>0.366</v>
+        <v>1.117</v>
       </c>
       <c r="E120">
-        <v>1.133</v>
+        <v>1.191</v>
       </c>
       <c r="F120">
-        <v>0.714</v>
+        <v>1.709</v>
       </c>
       <c r="G120">
-        <v>0.518</v>
+        <v>2.127</v>
       </c>
       <c r="H120">
-        <v>0.778</v>
+        <v>1.217</v>
       </c>
       <c r="I120">
-        <v>0.3</v>
+        <v>1.121</v>
       </c>
       <c r="J120">
-        <v>0.442</v>
+        <v>0.821</v>
       </c>
       <c r="Q120" t="s">
         <v>136</v>
@@ -5522,34 +5522,34 @@
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B121">
         <v>14</v>
       </c>
       <c r="C121">
-        <v>0.478</v>
+        <v>0.906</v>
       </c>
       <c r="D121">
-        <v>0.44</v>
+        <v>1.438</v>
       </c>
       <c r="E121">
-        <v>1.247</v>
+        <v>1.258</v>
       </c>
       <c r="F121">
-        <v>0.663</v>
+        <v>1.697</v>
       </c>
       <c r="G121">
-        <v>0.587</v>
+        <v>2.348</v>
       </c>
       <c r="H121">
-        <v>0.778</v>
+        <v>1.206</v>
       </c>
       <c r="I121">
-        <v>0.357</v>
+        <v>1.33</v>
       </c>
       <c r="J121">
-        <v>0.428</v>
+        <v>0.859</v>
       </c>
       <c r="Q121" t="s">
         <v>137</v>
@@ -5560,34 +5560,34 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B122">
         <v>15</v>
       </c>
       <c r="C122">
-        <v>0.501</v>
+        <v>0.916</v>
       </c>
       <c r="D122">
-        <v>0.449</v>
+        <v>1.432</v>
       </c>
       <c r="E122">
-        <v>1.111</v>
+        <v>0.88</v>
       </c>
       <c r="F122">
-        <v>0.604</v>
+        <v>1.667</v>
       </c>
       <c r="G122">
-        <v>0.539</v>
+        <v>2.164</v>
       </c>
       <c r="H122">
-        <v>0.772</v>
+        <v>1.169</v>
       </c>
       <c r="I122">
-        <v>0.294</v>
+        <v>1.219</v>
       </c>
       <c r="J122">
-        <v>0.337</v>
+        <v>0.83</v>
       </c>
       <c r="Q122" t="s">
         <v>138</v>
@@ -5598,34 +5598,34 @@
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B123">
         <v>16</v>
       </c>
       <c r="C123">
-        <v>0.332</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D123">
-        <v>0.354</v>
+        <v>1.086</v>
       </c>
       <c r="E123">
-        <v>0.964</v>
+        <v>0.829</v>
       </c>
       <c r="F123">
-        <v>0.384</v>
+        <v>1.282</v>
       </c>
       <c r="G123">
-        <v>0.407</v>
+        <v>1.318</v>
       </c>
       <c r="H123">
-        <v>0.529</v>
+        <v>1.12</v>
       </c>
       <c r="I123">
-        <v>0.242</v>
+        <v>1.101</v>
       </c>
       <c r="J123">
-        <v>0.298</v>
+        <v>0.762</v>
       </c>
       <c r="Q123" t="s">
         <v>139</v>
@@ -5636,34 +5636,34 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B124">
         <v>17</v>
       </c>
       <c r="C124">
-        <v>0.171</v>
+        <v>0.285</v>
       </c>
       <c r="D124">
-        <v>0.204</v>
+        <v>0.593</v>
       </c>
       <c r="E124">
-        <v>0.743</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F124">
-        <v>0.186</v>
+        <v>0.769</v>
       </c>
       <c r="G124">
-        <v>0.166</v>
+        <v>0.794</v>
       </c>
       <c r="H124">
-        <v>0.329</v>
+        <v>0.757</v>
       </c>
       <c r="I124">
-        <v>0.15</v>
+        <v>0.55</v>
       </c>
       <c r="J124">
-        <v>0.201</v>
+        <v>0.424</v>
       </c>
       <c r="Q124" t="s">
         <v>140</v>
@@ -5674,34 +5674,34 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B125">
         <v>18</v>
       </c>
       <c r="C125">
-        <v>0.063</v>
+        <v>0.082</v>
       </c>
       <c r="D125">
-        <v>0.07099999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="E125">
-        <v>0.272</v>
+        <v>0.214</v>
       </c>
       <c r="F125">
-        <v>0.054</v>
+        <v>0.202</v>
       </c>
       <c r="G125">
-        <v>0.07099999999999999</v>
+        <v>0.276</v>
       </c>
       <c r="H125">
-        <v>0.111</v>
+        <v>0.352</v>
       </c>
       <c r="I125">
-        <v>0.044</v>
+        <v>0.193</v>
       </c>
       <c r="J125">
-        <v>0.045</v>
+        <v>0.194</v>
       </c>
       <c r="Q125" t="s">
         <v>141</v>
@@ -5712,28 +5712,28 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B126">
         <v>19</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="E126">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B127">
         <v>20</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B128">
         <v>21</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B129">
         <v>22</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B130">
         <v>23</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="131" spans="1:18">
       <c r="A131" s="2">
-        <v>46061</v>
+        <v>46064</v>
       </c>
       <c r="B131">
         <v>24</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="133" spans="1:18">
       <c r="A133" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="134" spans="1:18">
       <c r="A134" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="135" spans="1:18">
       <c r="A135" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="136" spans="1:18">
       <c r="A136" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="138" spans="1:18">
       <c r="A138" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -6206,7 +6206,7 @@
     </row>
     <row r="139" spans="1:18">
       <c r="A139" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B139">
         <v>8</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="140" spans="1:18">
       <c r="A140" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B140">
         <v>9</v>
@@ -6256,22 +6256,22 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F140">
-        <v>0.03</v>
+        <v>0.095</v>
       </c>
       <c r="G140">
-        <v>0.014</v>
+        <v>0.039</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="J140">
-        <v>0.038</v>
+        <v>0.051</v>
       </c>
       <c r="Q140" t="s">
         <v>156</v>
@@ -6282,34 +6282,34 @@
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B141">
         <v>10</v>
       </c>
       <c r="C141">
-        <v>0.089</v>
+        <v>0.093</v>
       </c>
       <c r="D141">
-        <v>0.093</v>
+        <v>0.136</v>
       </c>
       <c r="E141">
-        <v>0.1</v>
+        <v>0.265</v>
       </c>
       <c r="F141">
-        <v>0.21</v>
+        <v>0.527</v>
       </c>
       <c r="G141">
-        <v>0.139</v>
+        <v>0.394</v>
       </c>
       <c r="H141">
-        <v>0.123</v>
+        <v>0.326</v>
       </c>
       <c r="I141">
-        <v>0.098</v>
+        <v>0.193</v>
       </c>
       <c r="J141">
-        <v>0.073</v>
+        <v>0.152</v>
       </c>
       <c r="Q141" t="s">
         <v>157</v>
@@ -6320,34 +6320,34 @@
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B142">
         <v>11</v>
       </c>
       <c r="C142">
-        <v>0.365</v>
+        <v>0.34</v>
       </c>
       <c r="D142">
-        <v>0.426</v>
+        <v>0.444</v>
       </c>
       <c r="E142">
-        <v>0.299</v>
+        <v>0.458</v>
       </c>
       <c r="F142">
-        <v>0.323</v>
+        <v>1.104</v>
       </c>
       <c r="G142">
-        <v>0.31</v>
+        <v>0.876</v>
       </c>
       <c r="H142">
-        <v>0.359</v>
+        <v>0.802</v>
       </c>
       <c r="I142">
-        <v>0.238</v>
+        <v>0.517</v>
       </c>
       <c r="J142">
-        <v>0.285</v>
+        <v>0.413</v>
       </c>
       <c r="Q142" t="s">
         <v>158</v>
@@ -6358,34 +6358,34 @@
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B143">
         <v>12</v>
       </c>
       <c r="C143">
-        <v>0.589</v>
+        <v>0.65</v>
       </c>
       <c r="D143">
-        <v>0.67</v>
+        <v>0.766</v>
       </c>
       <c r="E143">
-        <v>0.443</v>
+        <v>0.751</v>
       </c>
       <c r="F143">
-        <v>0.575</v>
+        <v>1.612</v>
       </c>
       <c r="G143">
-        <v>0.35</v>
+        <v>1.677</v>
       </c>
       <c r="H143">
-        <v>0.551</v>
+        <v>1.005</v>
       </c>
       <c r="I143">
-        <v>0.402</v>
+        <v>0.843</v>
       </c>
       <c r="J143">
-        <v>0.449</v>
+        <v>0.773</v>
       </c>
       <c r="Q143" t="s">
         <v>159</v>
@@ -6396,34 +6396,34 @@
     </row>
     <row r="144" spans="1:18">
       <c r="A144" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B144">
         <v>13</v>
       </c>
       <c r="C144">
-        <v>0.773</v>
+        <v>0.954</v>
       </c>
       <c r="D144">
-        <v>0.855</v>
+        <v>1.019</v>
       </c>
       <c r="E144">
-        <v>0.623</v>
+        <v>0.83</v>
       </c>
       <c r="F144">
-        <v>0.5590000000000001</v>
+        <v>1.692</v>
       </c>
       <c r="G144">
-        <v>0.505</v>
+        <v>1.868</v>
       </c>
       <c r="H144">
-        <v>0.671</v>
+        <v>1.212</v>
       </c>
       <c r="I144">
-        <v>0.457</v>
+        <v>1.227</v>
       </c>
       <c r="J144">
-        <v>0.577</v>
+        <v>0.896</v>
       </c>
       <c r="Q144" t="s">
         <v>160</v>
@@ -6434,34 +6434,34 @@
     </row>
     <row r="145" spans="1:18">
       <c r="A145" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B145">
         <v>14</v>
       </c>
       <c r="C145">
-        <v>0.833</v>
+        <v>0.967</v>
       </c>
       <c r="D145">
-        <v>0.963</v>
+        <v>1.078</v>
       </c>
       <c r="E145">
-        <v>0.626</v>
+        <v>0.923</v>
       </c>
       <c r="F145">
-        <v>0.521</v>
+        <v>1.722</v>
       </c>
       <c r="G145">
-        <v>0.45</v>
+        <v>2.247</v>
       </c>
       <c r="H145">
-        <v>0.68</v>
+        <v>1.166</v>
       </c>
       <c r="I145">
-        <v>0.457</v>
+        <v>1.274</v>
       </c>
       <c r="J145">
-        <v>0.742</v>
+        <v>0.896</v>
       </c>
       <c r="Q145" t="s">
         <v>161</v>
@@ -6472,34 +6472,34 @@
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B146">
         <v>15</v>
       </c>
       <c r="C146">
-        <v>0.675</v>
+        <v>0.868</v>
       </c>
       <c r="D146">
-        <v>0.844</v>
+        <v>1.081</v>
       </c>
       <c r="E146">
-        <v>0.585</v>
+        <v>0.865</v>
       </c>
       <c r="F146">
-        <v>0.405</v>
+        <v>1.731</v>
       </c>
       <c r="G146">
-        <v>0.334</v>
+        <v>1.971</v>
       </c>
       <c r="H146">
-        <v>0.631</v>
+        <v>1.176</v>
       </c>
       <c r="I146">
-        <v>0.402</v>
+        <v>1.112</v>
       </c>
       <c r="J146">
-        <v>0.548</v>
+        <v>0.866</v>
       </c>
       <c r="Q146" t="s">
         <v>162</v>
@@ -6510,34 +6510,34 @@
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B147">
         <v>16</v>
       </c>
       <c r="C147">
-        <v>0.545</v>
+        <v>0.588</v>
       </c>
       <c r="D147">
-        <v>0.626</v>
+        <v>0.833</v>
       </c>
       <c r="E147">
-        <v>0.478</v>
+        <v>0.8</v>
       </c>
       <c r="F147">
-        <v>0.316</v>
+        <v>1.476</v>
       </c>
       <c r="G147">
-        <v>0.308</v>
+        <v>1.515</v>
       </c>
       <c r="H147">
-        <v>0.529</v>
+        <v>1.005</v>
       </c>
       <c r="I147">
-        <v>0.309</v>
+        <v>0.806</v>
       </c>
       <c r="J147">
-        <v>0.411</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="Q147" t="s">
         <v>163</v>
@@ -6548,34 +6548,34 @@
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B148">
         <v>17</v>
       </c>
       <c r="C148">
-        <v>0.309</v>
+        <v>0.296</v>
       </c>
       <c r="D148">
-        <v>0.365</v>
+        <v>0.437</v>
       </c>
       <c r="E148">
-        <v>0.315</v>
+        <v>0.533</v>
       </c>
       <c r="F148">
-        <v>0.174</v>
+        <v>0.947</v>
       </c>
       <c r="G148">
-        <v>0.18</v>
+        <v>0.977</v>
       </c>
       <c r="H148">
-        <v>0.536</v>
+        <v>0.766</v>
       </c>
       <c r="I148">
-        <v>0.193</v>
+        <v>0.484</v>
       </c>
       <c r="J148">
-        <v>0.288</v>
+        <v>0.38</v>
       </c>
       <c r="Q148" t="s">
         <v>164</v>
@@ -6586,34 +6586,34 @@
     </row>
     <row r="149" spans="1:18">
       <c r="A149" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B149">
         <v>18</v>
       </c>
       <c r="C149">
-        <v>0.112</v>
+        <v>0.093</v>
       </c>
       <c r="D149">
-        <v>0.103</v>
+        <v>0.106</v>
       </c>
       <c r="E149">
-        <v>0.118</v>
+        <v>0.186</v>
       </c>
       <c r="F149">
-        <v>0.052</v>
+        <v>0.207</v>
       </c>
       <c r="G149">
-        <v>0.08599999999999999</v>
+        <v>0.288</v>
       </c>
       <c r="H149">
-        <v>0.123</v>
+        <v>0.315</v>
       </c>
       <c r="I149">
-        <v>0.064</v>
+        <v>0.183</v>
       </c>
       <c r="J149">
-        <v>0.065</v>
+        <v>0.155</v>
       </c>
       <c r="Q149" t="s">
         <v>165</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="150" spans="1:18">
       <c r="A150" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B150">
         <v>19</v>
@@ -6639,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B151">
         <v>20</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="152" spans="1:18">
       <c r="A152" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B152">
         <v>21</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="153" spans="1:18">
       <c r="A153" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B153">
         <v>22</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="154" spans="1:18">
       <c r="A154" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B154">
         <v>23</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="155" spans="1:18">
       <c r="A155" s="2">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B155">
         <v>24</v>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="157" spans="1:18">
       <c r="A157" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="159" spans="1:18">
       <c r="A159" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="160" spans="1:18">
       <c r="A160" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B160">
         <v>5</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="161" spans="1:18">
       <c r="A161" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B161">
         <v>6</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="162" spans="1:18">
       <c r="A162" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -7118,7 +7118,7 @@
     </row>
     <row r="163" spans="1:18">
       <c r="A163" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B163">
         <v>8</v>
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="164" spans="1:18">
       <c r="A164" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B164">
         <v>9</v>
@@ -7168,16 +7168,16 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.035</v>
+        <v>0.053</v>
       </c>
       <c r="G164">
-        <v>0.022</v>
+        <v>0.032</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -7194,34 +7194,34 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B165">
         <v>10</v>
       </c>
       <c r="C165">
-        <v>0.07099999999999999</v>
+        <v>0.083</v>
       </c>
       <c r="D165">
-        <v>0.089</v>
+        <v>0.094</v>
       </c>
       <c r="E165">
-        <v>0.196</v>
+        <v>0.138</v>
       </c>
       <c r="F165">
-        <v>0.3</v>
+        <v>0.338</v>
       </c>
       <c r="G165">
-        <v>0.309</v>
+        <v>0.322</v>
       </c>
       <c r="H165">
-        <v>0.252</v>
+        <v>0.254</v>
       </c>
       <c r="I165">
-        <v>0.191</v>
+        <v>0.093</v>
       </c>
       <c r="J165">
-        <v>0.08799999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="Q165" t="s">
         <v>181</v>
@@ -7232,34 +7232,34 @@
     </row>
     <row r="166" spans="1:18">
       <c r="A166" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B166">
         <v>11</v>
       </c>
       <c r="C166">
-        <v>0.348</v>
+        <v>0.368</v>
       </c>
       <c r="D166">
-        <v>0.392</v>
+        <v>0.386</v>
       </c>
       <c r="E166">
-        <v>0.606</v>
+        <v>0.435</v>
       </c>
       <c r="F166">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="G166">
-        <v>0.884</v>
+        <v>0.469</v>
       </c>
       <c r="H166">
-        <v>0.571</v>
+        <v>0.582</v>
       </c>
       <c r="I166">
-        <v>0.528</v>
+        <v>0.238</v>
       </c>
       <c r="J166">
-        <v>0.37</v>
+        <v>0.292</v>
       </c>
       <c r="Q166" t="s">
         <v>182</v>
@@ -7270,34 +7270,34 @@
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B167">
         <v>12</v>
       </c>
       <c r="C167">
-        <v>0.648</v>
+        <v>0.704</v>
       </c>
       <c r="D167">
-        <v>0.712</v>
+        <v>0.637</v>
       </c>
       <c r="E167">
-        <v>0.856</v>
+        <v>0.75</v>
       </c>
       <c r="F167">
-        <v>0.9429999999999999</v>
+        <v>1.031</v>
       </c>
       <c r="G167">
-        <v>1.343</v>
+        <v>0.979</v>
       </c>
       <c r="H167">
-        <v>0.838</v>
+        <v>0.774</v>
       </c>
       <c r="I167">
-        <v>0.9</v>
+        <v>0.329</v>
       </c>
       <c r="J167">
-        <v>0.62</v>
+        <v>0.413</v>
       </c>
       <c r="Q167" t="s">
         <v>183</v>
@@ -7308,34 +7308,34 @@
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B168">
         <v>13</v>
       </c>
       <c r="C168">
-        <v>1.058</v>
+        <v>0.911</v>
       </c>
       <c r="D168">
-        <v>1.045</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="E168">
-        <v>1.123</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="F168">
-        <v>1.082</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="G168">
-        <v>1.431</v>
+        <v>1.23</v>
       </c>
       <c r="H168">
-        <v>1.067</v>
+        <v>0.97</v>
       </c>
       <c r="I168">
-        <v>1.06</v>
+        <v>0.422</v>
       </c>
       <c r="J168">
-        <v>0.882</v>
+        <v>0.596</v>
       </c>
       <c r="Q168" t="s">
         <v>184</v>
@@ -7346,34 +7346,34 @@
     </row>
     <row r="169" spans="1:18">
       <c r="A169" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B169">
         <v>14</v>
       </c>
       <c r="C169">
-        <v>1.28</v>
+        <v>0.991</v>
       </c>
       <c r="D169">
-        <v>1.214</v>
+        <v>1.044</v>
       </c>
       <c r="E169">
-        <v>1.199</v>
+        <v>0.747</v>
       </c>
       <c r="F169">
-        <v>1.055</v>
+        <v>0.886</v>
       </c>
       <c r="G169">
-        <v>1.361</v>
+        <v>0.855</v>
       </c>
       <c r="H169">
-        <v>1.043</v>
+        <v>0.909</v>
       </c>
       <c r="I169">
-        <v>1.335</v>
+        <v>0.446</v>
       </c>
       <c r="J169">
-        <v>0.896</v>
+        <v>0.805</v>
       </c>
       <c r="Q169" t="s">
         <v>185</v>
@@ -7384,34 +7384,34 @@
     </row>
     <row r="170" spans="1:18">
       <c r="A170" s="2">
-        <v>46063</v>
+        <v>46066</v>
       </c>
       <c r="B170">
         <v>15</v>
       </c>
       <c r="C170">
-        <v>1.213</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>1.344</v>
+        <v>1.074</v>
       </c>
       <c r="E170">
-        <v>1.044</v>
+        <v>0.794</v>
       </c>
       <c r="F170">
-        <v>0.908</v>
+        <v>0.602</v>
       </c>
       <c r="G170">
-        <v>1.457</v>
+        <v>0.553</v>
       </c>
       <c r="H170">
-        <v>0.889</v>
+        <v>0.748</v>
       </c>
       <c r="I170">
-        <v>1.281</v>
+        <v>0.336</v>
       </c>
       <c r="J170">
-        <v>0.868</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="Q170" t="s">
         <v>186</v>
